--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
+    <sheet name="io port" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -35,6 +35,242 @@
   </si>
   <si>
     <t>emulated ppu renderer implementation on vga timing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>0x2000 (PPU制御レジスタ1)</t>
+  </si>
+  <si>
+    <t>W1 : PPUの基本設定を行います。</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>値</t>
+  </si>
+  <si>
+    <t>bit7</t>
+  </si>
+  <si>
+    <t>VBlank時にNMI割込を発生</t>
+  </si>
+  <si>
+    <t>0:オフ, 1:オン</t>
+  </si>
+  <si>
+    <t>bit6</t>
+  </si>
+  <si>
+    <t>PPU選択?</t>
+  </si>
+  <si>
+    <t>0:マスター, 1:スレーブ</t>
+  </si>
+  <si>
+    <t>bit5</t>
+  </si>
+  <si>
+    <t>スプライトサイズ</t>
+  </si>
+  <si>
+    <t>0:8x8ピクセル</t>
+  </si>
+  <si>
+    <t>1:8x16ピクセル</t>
+  </si>
+  <si>
+    <t>bit4</t>
+  </si>
+  <si>
+    <t>BG用キャラクタテーブルベース</t>
+  </si>
+  <si>
+    <t>0:0x0000, 1:0x1000</t>
+  </si>
+  <si>
+    <t>bit3</t>
+  </si>
+  <si>
+    <t>スプライト用キャラクタテーブルベース</t>
+  </si>
+  <si>
+    <t>bit2</t>
+  </si>
+  <si>
+    <t>VRAMアクセス時のアドレス増加値</t>
+  </si>
+  <si>
+    <t>0:1byte, 1:32byte</t>
+  </si>
+  <si>
+    <t>bit1-0</t>
+  </si>
+  <si>
+    <t>メインスクリーンアドレス</t>
+  </si>
+  <si>
+    <t>00:0x2000, 01:0x2400</t>
+  </si>
+  <si>
+    <t>10:0x2800, 11:0x2C00</t>
+  </si>
+  <si>
+    <t>0x2001 (PPU制御レジスタ2)</t>
+  </si>
+  <si>
+    <t>W1 : PPUの表示設定を行います。</t>
+  </si>
+  <si>
+    <t>赤色を強調</t>
+  </si>
+  <si>
+    <t>緑色を強調</t>
+  </si>
+  <si>
+    <t>青色を強調</t>
+  </si>
+  <si>
+    <t>スプライトの表示</t>
+  </si>
+  <si>
+    <t>BGの表示</t>
+  </si>
+  <si>
+    <t>画面左端8ピクセルのスプライトを表示</t>
+  </si>
+  <si>
+    <t>0:クリップ, 1:表示</t>
+  </si>
+  <si>
+    <t>bit1</t>
+  </si>
+  <si>
+    <t>画面左端8ピクセルのBGを表示</t>
+  </si>
+  <si>
+    <t>bit0</t>
+  </si>
+  <si>
+    <t>色設定</t>
+  </si>
+  <si>
+    <t>0:カラー, 1:モノクロ</t>
+  </si>
+  <si>
+    <t>0x2002 (PPUステータスレジスタ)</t>
+  </si>
+  <si>
+    <t>R1 : PPUの状態を取得します。</t>
+  </si>
+  <si>
+    <t>スクリーンの描画状況</t>
+  </si>
+  <si>
+    <t>0:スキャンライン描画中</t>
+  </si>
+  <si>
+    <t>1:VBlank中</t>
+  </si>
+  <si>
+    <t>描画スキャンラインの0番スプライトヒット</t>
+  </si>
+  <si>
+    <t>0:ヒットせず, 1:ヒット</t>
+  </si>
+  <si>
+    <t>描画スキャンラインのスプライト横並び数</t>
+  </si>
+  <si>
+    <t>0:8個以下, 1:9個以上</t>
+  </si>
+  <si>
+    <t>VRAM状態</t>
+  </si>
+  <si>
+    <t>0:書き込み可能</t>
+  </si>
+  <si>
+    <t>1:書き込み不可</t>
+  </si>
+  <si>
+    <t>bit3-0</t>
+  </si>
+  <si>
+    <t>未使用</t>
+  </si>
+  <si>
+    <t>0x2003 (スプライトアドレスレジスタ)</t>
+  </si>
+  <si>
+    <t>W1 : スプライトRAMへの書き込みアドレスを設定します。</t>
+  </si>
+  <si>
+    <t>bit7-0</t>
+  </si>
+  <si>
+    <t>スプライトRAMアドレス</t>
+  </si>
+  <si>
+    <t>データ値</t>
+  </si>
+  <si>
+    <t>0x2004 (スプライトアクセスレジスタ)</t>
+  </si>
+  <si>
+    <t>W1 : スプライトRAMへ書き込みを行います。</t>
+  </si>
+  <si>
+    <t>スプライトRAMへ書き込むデータ</t>
+  </si>
+  <si>
+    <t>0x2005 (スクロールレジスタ)</t>
+  </si>
+  <si>
+    <t>W2 : スクロールの設定を行います。このレジスタには2回連続で書き込みます。</t>
+  </si>
+  <si>
+    <t>(1)水平スクロール値</t>
+  </si>
+  <si>
+    <t>(2)垂直スクロール値</t>
+  </si>
+  <si>
+    <t>0x2006 (VRAMアドレスレジスタ)</t>
+  </si>
+  <si>
+    <t>W2 : VRAMへの書き込みアドレスを設定します。このレジスタには2回連続で書き込みます。</t>
+  </si>
+  <si>
+    <t>(1)VRAMアドレス上位8bit</t>
+  </si>
+  <si>
+    <t>(2)VRAMアドレス下位8bit</t>
+  </si>
+  <si>
+    <t>0x2007 (VRAMアクセスレジスタ)</t>
+  </si>
+  <si>
+    <t>R1 / W1 : VRAMに対してデータ読み込み、データ書き込みを行います。</t>
+  </si>
+  <si>
+    <t>(R)VRAMから読み込んだデータ</t>
+  </si>
+  <si>
+    <t>(W)VRAMへ書き込むデータ</t>
+  </si>
+  <si>
+    <t>ppu ctl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ppu mask</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -42,7 +278,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,6 +294,32 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -67,12 +329,71 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF786054"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF584A44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF804030"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF804030"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF804030"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF804030"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF804030"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF804030"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF804030"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF804030"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF804030"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF804030"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -81,9 +402,36 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,7 +1370,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="AO6:AO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
@@ -1062,14 +1410,540 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="A29:XFD30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="59.25" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="64.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1">
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25">
+      <c r="A29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1">
+      <c r="A31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25">
+      <c r="A33" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1">
+      <c r="A43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1">
+      <c r="A46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25">
+      <c r="A47" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="8"/>
+      <c r="B48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="8"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25">
+      <c r="A52" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1">
+      <c r="A53" s="8"/>
+      <c r="B53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A55" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
+      <c r="A56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25">
+      <c r="A57" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="8"/>
+      <c r="B58" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\motonesfpga\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
     <sheet name="io port" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="display" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -272,24 +277,39 @@
   <si>
     <t>ppu mask</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(scr_x, scr_y)</t>
+  </si>
+  <si>
+    <t>Virtual Screen</t>
+  </si>
+  <si>
+    <t>Horizontal Mirror</t>
+  </si>
+  <si>
+    <t>Vertical Mirror</t>
+  </si>
+  <si>
+    <t>60 frames per sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -329,7 +349,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -396,13 +416,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,21 +593,82 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1083,8 +1313,1340 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1278427" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="1905000"/>
+          <a:ext cx="1278427" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>VGA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1165447" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="1238250"/>
+          <a:ext cx="1165447" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>NES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="4686300"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="4686300"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="6410325"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="6410325"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="4705350"/>
+          <a:ext cx="2438400" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="7743825"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="7743825"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="9467850"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="9467850"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="7762875"/>
+          <a:ext cx="2019300" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="7762875"/>
+          <a:ext cx="476250" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>7096</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>167482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Right Arrow 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9455896" y="8597107"/>
+          <a:ext cx="231029" cy="118268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>207453</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Right Arrow 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="8601074"/>
+          <a:ext cx="207453" cy="114301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="7743825"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="7743825"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="13687425"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="13687425"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11982451"/>
+          <a:ext cx="2495550" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11496675"/>
+          <a:ext cx="2495550" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76797</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>181160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>189903</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Down Arrow 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8725497" y="13020860"/>
+          <a:ext cx="113106" cy="209365"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76797</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>189903</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>157299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Down Arrow 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8725497" y="11506200"/>
+          <a:ext cx="113106" cy="157299"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5648325" y="771525"/>
+          <a:ext cx="3000375" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5648325" y="3267075"/>
+          <a:ext cx="3000375" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1126,7 +2688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1158,9 +2720,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1192,6 +2755,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1367,14 +2931,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AO6:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AO15" sqref="AO15"/>
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="41:41">
       <c r="AO6" t="s">
@@ -1409,18 +2973,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C30" sqref="A29:XFD30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.25" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="3" width="64.25" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
@@ -1428,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1436,12 +2998,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" thickBot="1">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -1452,7 +3014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -1463,7 +3025,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -1474,25 +3036,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -1503,7 +3065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1">
+    <row r="11" spans="1:3" ht="29.25" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -1514,7 +3076,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -1525,38 +3087,38 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="7" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="8" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" thickBot="1">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -1567,7 +3129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -1578,7 +3140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1589,7 +3151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -1600,7 +3162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -1611,7 +3173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -1622,7 +3184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1">
+    <row r="23" spans="1:3" ht="29.25" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -1633,7 +3195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -1644,7 +3206,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -1655,17 +3217,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -1676,25 +3238,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="7" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="8"/>
-      <c r="B30" s="8"/>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1">
+    <row r="31" spans="1:3" ht="29.25" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -1705,7 +3267,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1">
+    <row r="32" spans="1:3" ht="29.25" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -1716,25 +3278,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="8"/>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
       <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
@@ -1743,17 +3305,17 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -1764,7 +3326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>63</v>
       </c>
@@ -1775,17 +3337,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -1796,7 +3358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>63</v>
       </c>
@@ -1807,17 +3369,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="26.25" thickBot="1">
+    <row r="45" spans="1:3" ht="39" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -1828,35 +3390,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="8"/>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A48" s="9"/>
       <c r="B48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="8"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1">
+      <c r="C48" s="9"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="26.25" thickBot="1">
+    <row r="50" spans="1:3" ht="39" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -1867,35 +3429,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="7" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="8"/>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A53" s="9"/>
       <c r="B53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="8"/>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1">
+      <c r="C53" s="9"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" thickBot="1">
+    <row r="55" spans="1:3" ht="26.25" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
       <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
@@ -1906,26 +3468,32 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="7" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="8"/>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A58" s="9"/>
       <c r="B58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="8"/>
+      <c r="C58" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -1934,12 +3502,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1948,14 +3510,2126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:AW78"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="Y71" sqref="Y71"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="47" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:48">
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="4:48" ht="15.75" thickBot="1">
+      <c r="Z4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="4:48">
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11">
+        <v>640</v>
+      </c>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AB5" s="19"/>
+      <c r="AC5" s="19"/>
+      <c r="AD5" s="20"/>
+    </row>
+    <row r="6" spans="4:48">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
+      <c r="AC6" s="14"/>
+      <c r="AD6" s="22"/>
+    </row>
+    <row r="7" spans="4:48">
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="15"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="22"/>
+      <c r="AL7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="4:48" ht="15.75" thickBot="1">
+      <c r="D8" s="13"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="15"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="22"/>
+      <c r="AU8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="4:48">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="22"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="11"/>
+      <c r="AL9" s="11">
+        <v>256</v>
+      </c>
+      <c r="AM9" s="11"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="11"/>
+      <c r="AP9" s="11"/>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="12"/>
+      <c r="AT9" s="19"/>
+      <c r="AU9" s="19"/>
+      <c r="AV9" s="20"/>
+    </row>
+    <row r="10" spans="4:48">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="22"/>
+      <c r="AJ10" s="13"/>
+      <c r="AK10" s="14"/>
+      <c r="AL10" s="14"/>
+      <c r="AM10" s="14"/>
+      <c r="AN10" s="14"/>
+      <c r="AO10" s="14"/>
+      <c r="AP10" s="14"/>
+      <c r="AQ10" s="14"/>
+      <c r="AR10" s="14"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="14"/>
+      <c r="AU10" s="14"/>
+      <c r="AV10" s="22"/>
+    </row>
+    <row r="11" spans="4:48">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="22"/>
+      <c r="AJ11" s="13"/>
+      <c r="AK11" s="14"/>
+      <c r="AL11" s="14"/>
+      <c r="AM11" s="14"/>
+      <c r="AN11" s="14"/>
+      <c r="AO11" s="14"/>
+      <c r="AP11" s="14"/>
+      <c r="AQ11" s="14"/>
+      <c r="AR11" s="14"/>
+      <c r="AS11" s="15"/>
+      <c r="AT11" s="14"/>
+      <c r="AU11" s="14"/>
+      <c r="AV11" s="22"/>
+    </row>
+    <row r="12" spans="4:48">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="22"/>
+      <c r="AJ12" s="13">
+        <v>240</v>
+      </c>
+      <c r="AK12" s="14"/>
+      <c r="AL12" s="14"/>
+      <c r="AM12" s="14"/>
+      <c r="AN12" s="14"/>
+      <c r="AO12" s="14"/>
+      <c r="AP12" s="14"/>
+      <c r="AQ12" s="14"/>
+      <c r="AR12" s="14"/>
+      <c r="AS12" s="15"/>
+      <c r="AT12" s="14"/>
+      <c r="AU12" s="14"/>
+      <c r="AV12" s="22"/>
+    </row>
+    <row r="13" spans="4:48">
+      <c r="D13" s="13">
+        <v>480</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="22"/>
+      <c r="AJ13" s="13"/>
+      <c r="AK13" s="14"/>
+      <c r="AL13" s="14"/>
+      <c r="AM13" s="14"/>
+      <c r="AN13" s="14"/>
+      <c r="AO13" s="14"/>
+      <c r="AP13" s="14"/>
+      <c r="AQ13" s="14"/>
+      <c r="AR13" s="14"/>
+      <c r="AS13" s="15"/>
+      <c r="AT13" s="14"/>
+      <c r="AU13" s="14"/>
+      <c r="AV13" s="22"/>
+    </row>
+    <row r="14" spans="4:48">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="14"/>
+      <c r="Y14" s="14"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="22"/>
+      <c r="AJ14" s="13"/>
+      <c r="AK14" s="14"/>
+      <c r="AL14" s="14"/>
+      <c r="AM14" s="14"/>
+      <c r="AN14" s="14"/>
+      <c r="AO14" s="14"/>
+      <c r="AP14" s="14"/>
+      <c r="AQ14" s="14"/>
+      <c r="AR14" s="14"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="14"/>
+      <c r="AU14" s="14"/>
+      <c r="AV14" s="22"/>
+    </row>
+    <row r="15" spans="4:48">
+      <c r="D15" s="13"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="22"/>
+      <c r="AJ15" s="13"/>
+      <c r="AK15" s="14"/>
+      <c r="AL15" s="14"/>
+      <c r="AM15" s="14"/>
+      <c r="AN15" s="14"/>
+      <c r="AO15" s="14"/>
+      <c r="AP15" s="14"/>
+      <c r="AQ15" s="14"/>
+      <c r="AR15" s="14"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="14"/>
+      <c r="AU15" s="14"/>
+      <c r="AV15" s="22"/>
+    </row>
+    <row r="16" spans="4:48">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="14"/>
+      <c r="Y16" s="14"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="22"/>
+      <c r="AJ16" s="13"/>
+      <c r="AK16" s="14"/>
+      <c r="AL16" s="14"/>
+      <c r="AM16" s="14"/>
+      <c r="AN16" s="14"/>
+      <c r="AO16" s="14"/>
+      <c r="AP16" s="14"/>
+      <c r="AQ16" s="14"/>
+      <c r="AR16" s="14"/>
+      <c r="AS16" s="15"/>
+      <c r="AT16" s="14"/>
+      <c r="AU16" s="14"/>
+      <c r="AV16" s="22"/>
+    </row>
+    <row r="17" spans="3:48" ht="15.75" thickBot="1">
+      <c r="D17" s="13"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="14"/>
+      <c r="Y17" s="14"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="22"/>
+      <c r="AJ17" s="16"/>
+      <c r="AK17" s="17"/>
+      <c r="AL17" s="17"/>
+      <c r="AM17" s="17"/>
+      <c r="AN17" s="17"/>
+      <c r="AO17" s="17"/>
+      <c r="AP17" s="17"/>
+      <c r="AQ17" s="17"/>
+      <c r="AR17" s="17"/>
+      <c r="AS17" s="18"/>
+      <c r="AT17" s="14"/>
+      <c r="AU17" s="14"/>
+      <c r="AV17" s="22"/>
+    </row>
+    <row r="18" spans="3:48">
+      <c r="D18" s="13"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="X18" s="14"/>
+      <c r="Y18" s="14"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="22"/>
+      <c r="AJ18" s="21"/>
+      <c r="AK18" s="14"/>
+      <c r="AL18" s="14"/>
+      <c r="AM18" s="14"/>
+      <c r="AN18" s="14"/>
+      <c r="AO18" s="14"/>
+      <c r="AP18" s="14"/>
+      <c r="AQ18" s="14"/>
+      <c r="AR18" s="14"/>
+      <c r="AS18" s="14"/>
+      <c r="AT18" s="14"/>
+      <c r="AU18" s="14"/>
+      <c r="AV18" s="22"/>
+    </row>
+    <row r="19" spans="3:48">
+      <c r="D19" s="13"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="14"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="22"/>
+      <c r="AI19">
+        <v>262</v>
+      </c>
+      <c r="AJ19" s="21"/>
+      <c r="AK19" s="14"/>
+      <c r="AL19" s="14"/>
+      <c r="AM19" s="14"/>
+      <c r="AN19" s="14"/>
+      <c r="AO19" s="14"/>
+      <c r="AP19" s="14"/>
+      <c r="AQ19" s="14"/>
+      <c r="AR19" s="14"/>
+      <c r="AS19" s="14"/>
+      <c r="AT19" s="14"/>
+      <c r="AU19" s="14"/>
+      <c r="AV19" s="22"/>
+    </row>
+    <row r="20" spans="3:48">
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="14"/>
+      <c r="S20" s="14"/>
+      <c r="T20" s="14"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="14"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="14"/>
+      <c r="Y20" s="14"/>
+      <c r="Z20" s="14"/>
+      <c r="AA20" s="14"/>
+      <c r="AB20" s="14"/>
+      <c r="AC20" s="14"/>
+      <c r="AD20" s="22"/>
+      <c r="AJ20" s="21"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="14"/>
+      <c r="AM20" s="14"/>
+      <c r="AN20" s="14"/>
+      <c r="AO20" s="14"/>
+      <c r="AP20" s="14"/>
+      <c r="AQ20" s="14"/>
+      <c r="AR20" s="14"/>
+      <c r="AS20" s="14"/>
+      <c r="AT20" s="14"/>
+      <c r="AU20" s="14"/>
+      <c r="AV20" s="22"/>
+    </row>
+    <row r="21" spans="3:48">
+      <c r="D21" s="13"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
+      <c r="T21" s="14"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="14"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="14"/>
+      <c r="Y21" s="14"/>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
+      <c r="AB21" s="14"/>
+      <c r="AC21" s="14"/>
+      <c r="AD21" s="22"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="24"/>
+      <c r="AL21" s="24"/>
+      <c r="AM21" s="24"/>
+      <c r="AN21" s="24"/>
+      <c r="AO21" s="24"/>
+      <c r="AP21" s="24"/>
+      <c r="AQ21" s="24"/>
+      <c r="AR21" s="24"/>
+      <c r="AS21" s="24"/>
+      <c r="AT21" s="24"/>
+      <c r="AU21" s="24"/>
+      <c r="AV21" s="25"/>
+    </row>
+    <row r="22" spans="3:48" ht="15.75" thickBot="1">
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="18"/>
+      <c r="X22" s="14"/>
+      <c r="Y22" s="14"/>
+      <c r="Z22" s="14"/>
+      <c r="AA22" s="14"/>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="22"/>
+    </row>
+    <row r="23" spans="3:48">
+      <c r="D23" s="21"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+      <c r="T23" s="14"/>
+      <c r="U23" s="14"/>
+      <c r="V23" s="14"/>
+      <c r="W23" s="14"/>
+      <c r="X23" s="14"/>
+      <c r="Y23" s="14"/>
+      <c r="Z23" s="14"/>
+      <c r="AA23" s="14"/>
+      <c r="AB23" s="14"/>
+      <c r="AC23" s="14"/>
+      <c r="AD23" s="22"/>
+    </row>
+    <row r="24" spans="3:48">
+      <c r="D24" s="21"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+      <c r="T24" s="14"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="14"/>
+      <c r="W24" s="14"/>
+      <c r="X24" s="14"/>
+      <c r="Y24" s="14"/>
+      <c r="Z24" s="14"/>
+      <c r="AA24" s="14"/>
+      <c r="AB24" s="14"/>
+      <c r="AC24" s="14"/>
+      <c r="AD24" s="22"/>
+    </row>
+    <row r="25" spans="3:48">
+      <c r="D25" s="21"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+      <c r="T25" s="14"/>
+      <c r="U25" s="14"/>
+      <c r="V25" s="14"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="14"/>
+      <c r="Y25" s="14"/>
+      <c r="Z25" s="14"/>
+      <c r="AA25" s="14"/>
+      <c r="AB25" s="14"/>
+      <c r="AC25" s="14"/>
+      <c r="AD25" s="22"/>
+    </row>
+    <row r="26" spans="3:48">
+      <c r="C26">
+        <v>600</v>
+      </c>
+      <c r="D26" s="21"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
+      <c r="S26" s="14"/>
+      <c r="T26" s="14"/>
+      <c r="U26" s="14"/>
+      <c r="V26" s="14"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="14"/>
+      <c r="Z26" s="14"/>
+      <c r="AA26" s="14"/>
+      <c r="AB26" s="14"/>
+      <c r="AC26" s="14"/>
+      <c r="AD26" s="22"/>
+    </row>
+    <row r="27" spans="3:48">
+      <c r="D27" s="21"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+      <c r="T27" s="14"/>
+      <c r="U27" s="14"/>
+      <c r="V27" s="14"/>
+      <c r="W27" s="14"/>
+      <c r="X27" s="14"/>
+      <c r="Y27" s="14"/>
+      <c r="Z27" s="14"/>
+      <c r="AA27" s="14"/>
+      <c r="AB27" s="14"/>
+      <c r="AC27" s="14"/>
+      <c r="AD27" s="22"/>
+    </row>
+    <row r="28" spans="3:48">
+      <c r="D28" s="21"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+      <c r="T28" s="14"/>
+      <c r="U28" s="14"/>
+      <c r="V28" s="14"/>
+      <c r="W28" s="14"/>
+      <c r="X28" s="14"/>
+      <c r="Y28" s="14"/>
+      <c r="Z28" s="14"/>
+      <c r="AA28" s="14"/>
+      <c r="AB28" s="14"/>
+      <c r="AC28" s="14"/>
+      <c r="AD28" s="22"/>
+    </row>
+    <row r="29" spans="3:48">
+      <c r="D29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
+      <c r="U29" s="24"/>
+      <c r="V29" s="24"/>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="24"/>
+      <c r="Z29" s="24"/>
+      <c r="AA29" s="24"/>
+      <c r="AB29" s="24"/>
+      <c r="AC29" s="24"/>
+      <c r="AD29" s="25"/>
+    </row>
+    <row r="35" spans="3:49">
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="3:49">
+      <c r="AD37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="3:49" ht="15.75" thickBot="1"/>
+    <row r="39" spans="3:49">
+      <c r="E39" s="10"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="12"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
+      <c r="V39" s="11"/>
+      <c r="W39" s="11"/>
+      <c r="X39" s="12"/>
+      <c r="AD39" s="10"/>
+      <c r="AE39" s="11"/>
+      <c r="AF39" s="11"/>
+      <c r="AG39" s="11"/>
+      <c r="AH39" s="11"/>
+      <c r="AI39" s="11"/>
+      <c r="AJ39" s="11"/>
+      <c r="AK39" s="11"/>
+      <c r="AL39" s="11"/>
+      <c r="AM39" s="12"/>
+      <c r="AN39" s="10"/>
+      <c r="AO39" s="11"/>
+      <c r="AP39" s="11"/>
+      <c r="AQ39" s="11"/>
+      <c r="AR39" s="11"/>
+      <c r="AS39" s="11"/>
+      <c r="AT39" s="11"/>
+      <c r="AU39" s="11"/>
+      <c r="AV39" s="11"/>
+      <c r="AW39" s="12"/>
+    </row>
+    <row r="40" spans="3:49">
+      <c r="E40" s="13"/>
+      <c r="F40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="15"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="15"/>
+      <c r="AD40" s="13"/>
+      <c r="AE40" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF40" s="14"/>
+      <c r="AG40" s="14"/>
+      <c r="AH40" s="14"/>
+      <c r="AI40" s="14"/>
+      <c r="AJ40" s="14"/>
+      <c r="AK40" s="14"/>
+      <c r="AL40" s="14"/>
+      <c r="AM40" s="15"/>
+      <c r="AN40" s="13"/>
+      <c r="AO40" s="14"/>
+      <c r="AP40" s="14"/>
+      <c r="AQ40" s="14"/>
+      <c r="AR40" s="14"/>
+      <c r="AS40" s="14"/>
+      <c r="AT40" s="14"/>
+      <c r="AU40" s="14"/>
+      <c r="AV40" s="14"/>
+      <c r="AW40" s="15"/>
+    </row>
+    <row r="41" spans="3:49">
+      <c r="E41" s="13"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
+      <c r="U41" s="14"/>
+      <c r="V41" s="14"/>
+      <c r="W41" s="14"/>
+      <c r="X41" s="15"/>
+      <c r="AD41" s="13"/>
+      <c r="AE41" s="14"/>
+      <c r="AF41" s="14"/>
+      <c r="AG41" s="14"/>
+      <c r="AH41" s="14"/>
+      <c r="AI41" s="14"/>
+      <c r="AJ41" s="14"/>
+      <c r="AK41" s="14"/>
+      <c r="AL41" s="14"/>
+      <c r="AM41" s="15"/>
+      <c r="AN41" s="13"/>
+      <c r="AO41" s="14"/>
+      <c r="AP41" s="14"/>
+      <c r="AQ41" s="14"/>
+      <c r="AR41" s="14"/>
+      <c r="AS41" s="14"/>
+      <c r="AT41" s="14"/>
+      <c r="AU41" s="14"/>
+      <c r="AV41" s="14"/>
+      <c r="AW41" s="15"/>
+    </row>
+    <row r="42" spans="3:49">
+      <c r="E42" s="13"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="14"/>
+      <c r="X42" s="15"/>
+      <c r="AD42" s="13"/>
+      <c r="AE42" s="14"/>
+      <c r="AF42" s="14"/>
+      <c r="AG42" s="14"/>
+      <c r="AH42" s="14"/>
+      <c r="AI42" s="14"/>
+      <c r="AJ42" s="14"/>
+      <c r="AK42" s="14"/>
+      <c r="AL42" s="14"/>
+      <c r="AM42" s="15"/>
+      <c r="AN42" s="13"/>
+      <c r="AO42" s="14"/>
+      <c r="AP42" s="14"/>
+      <c r="AQ42" s="14"/>
+      <c r="AR42" s="14"/>
+      <c r="AS42" s="14"/>
+      <c r="AT42" s="14"/>
+      <c r="AU42" s="14"/>
+      <c r="AV42" s="14"/>
+      <c r="AW42" s="15"/>
+    </row>
+    <row r="43" spans="3:49">
+      <c r="E43" s="13"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14"/>
+      <c r="H43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="14"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="15"/>
+      <c r="AD43" s="13"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="14"/>
+      <c r="AH43" s="14"/>
+      <c r="AI43" s="14"/>
+      <c r="AJ43" s="14"/>
+      <c r="AK43" s="14"/>
+      <c r="AL43" s="14"/>
+      <c r="AM43" s="15"/>
+      <c r="AN43" s="13"/>
+      <c r="AO43" s="14"/>
+      <c r="AP43" s="14"/>
+      <c r="AQ43" s="14"/>
+      <c r="AR43" s="14"/>
+      <c r="AS43" s="14"/>
+      <c r="AT43" s="14"/>
+      <c r="AU43" s="14"/>
+      <c r="AV43" s="14"/>
+      <c r="AW43" s="15"/>
+    </row>
+    <row r="44" spans="3:49">
+      <c r="E44" s="13"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="15"/>
+      <c r="AD44" s="13"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="14"/>
+      <c r="AH44" s="14"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="15"/>
+      <c r="AN44" s="13"/>
+      <c r="AO44" s="14"/>
+      <c r="AP44" s="14"/>
+      <c r="AQ44" s="14"/>
+      <c r="AR44" s="14"/>
+      <c r="AS44" s="14"/>
+      <c r="AT44" s="14"/>
+      <c r="AU44" s="14"/>
+      <c r="AV44" s="14"/>
+      <c r="AW44" s="15"/>
+    </row>
+    <row r="45" spans="3:49">
+      <c r="E45" s="13"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="14"/>
+      <c r="H45" s="14"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="14"/>
+      <c r="T45" s="14"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="15"/>
+      <c r="AD45" s="13"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="14"/>
+      <c r="AH45" s="14"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="13"/>
+      <c r="AO45" s="14"/>
+      <c r="AP45" s="14"/>
+      <c r="AQ45" s="14"/>
+      <c r="AR45" s="14"/>
+      <c r="AS45" s="14"/>
+      <c r="AT45" s="14"/>
+      <c r="AU45" s="14"/>
+      <c r="AV45" s="14"/>
+      <c r="AW45" s="15"/>
+    </row>
+    <row r="46" spans="3:49">
+      <c r="E46" s="13"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="14"/>
+      <c r="H46" s="14"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="14"/>
+      <c r="R46" s="14"/>
+      <c r="S46" s="14"/>
+      <c r="T46" s="14"/>
+      <c r="U46" s="14"/>
+      <c r="V46" s="14"/>
+      <c r="W46" s="14"/>
+      <c r="X46" s="15"/>
+      <c r="AD46" s="13"/>
+      <c r="AE46" s="14"/>
+      <c r="AF46" s="14"/>
+      <c r="AG46" s="14"/>
+      <c r="AH46" s="14"/>
+      <c r="AI46" s="14"/>
+      <c r="AJ46" s="14"/>
+      <c r="AK46" s="14"/>
+      <c r="AL46" s="14"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="13"/>
+      <c r="AO46" s="14"/>
+      <c r="AP46" s="14"/>
+      <c r="AQ46" s="14"/>
+      <c r="AR46" s="14"/>
+      <c r="AS46" s="14"/>
+      <c r="AT46" s="14"/>
+      <c r="AU46" s="14"/>
+      <c r="AV46" s="14"/>
+      <c r="AW46" s="15"/>
+    </row>
+    <row r="47" spans="3:49" ht="15.75" thickBot="1">
+      <c r="E47" s="16"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="18"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
+      <c r="AG47" s="17"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
+      <c r="AJ47" s="17"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
+      <c r="AM47" s="18"/>
+      <c r="AN47" s="16"/>
+      <c r="AO47" s="17"/>
+      <c r="AP47" s="17"/>
+      <c r="AQ47" s="17"/>
+      <c r="AR47" s="17"/>
+      <c r="AS47" s="17"/>
+      <c r="AT47" s="17"/>
+      <c r="AU47" s="17"/>
+      <c r="AV47" s="17"/>
+      <c r="AW47" s="18"/>
+    </row>
+    <row r="48" spans="3:49">
+      <c r="E48" s="10"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="12"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="11"/>
+      <c r="Q48" s="11"/>
+      <c r="R48" s="11"/>
+      <c r="S48" s="11"/>
+      <c r="T48" s="11"/>
+      <c r="U48" s="11"/>
+      <c r="V48" s="11"/>
+      <c r="W48" s="11"/>
+      <c r="X48" s="12"/>
+      <c r="AD48" s="10"/>
+      <c r="AE48" s="11"/>
+      <c r="AF48" s="11"/>
+      <c r="AG48" s="11"/>
+      <c r="AH48" s="11"/>
+      <c r="AI48" s="11"/>
+      <c r="AJ48" s="11"/>
+      <c r="AK48" s="11"/>
+      <c r="AL48" s="11"/>
+      <c r="AM48" s="12"/>
+      <c r="AN48" s="10"/>
+      <c r="AO48" s="11"/>
+      <c r="AP48" s="11"/>
+      <c r="AQ48" s="11"/>
+      <c r="AR48" s="11"/>
+      <c r="AS48" s="11"/>
+      <c r="AT48" s="11"/>
+      <c r="AU48" s="11"/>
+      <c r="AV48" s="11"/>
+      <c r="AW48" s="12"/>
+    </row>
+    <row r="49" spans="5:49">
+      <c r="E49" s="13"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="15"/>
+      <c r="AD49" s="13"/>
+      <c r="AE49" s="14"/>
+      <c r="AF49" s="14"/>
+      <c r="AG49" s="14"/>
+      <c r="AH49" s="14"/>
+      <c r="AI49" s="14"/>
+      <c r="AJ49" s="14"/>
+      <c r="AK49" s="14"/>
+      <c r="AL49" s="14"/>
+      <c r="AM49" s="15"/>
+      <c r="AN49" s="13"/>
+      <c r="AO49" s="14"/>
+      <c r="AP49" s="14"/>
+      <c r="AQ49" s="14"/>
+      <c r="AR49" s="14"/>
+      <c r="AS49" s="14"/>
+      <c r="AT49" s="14"/>
+      <c r="AU49" s="14"/>
+      <c r="AV49" s="14"/>
+      <c r="AW49" s="15"/>
+    </row>
+    <row r="50" spans="5:49">
+      <c r="E50" s="13"/>
+      <c r="F50" s="14"/>
+      <c r="G50" s="14"/>
+      <c r="H50" s="14"/>
+      <c r="I50" s="14"/>
+      <c r="J50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
+      <c r="R50" s="14"/>
+      <c r="S50" s="14"/>
+      <c r="T50" s="14"/>
+      <c r="U50" s="14"/>
+      <c r="V50" s="14"/>
+      <c r="W50" s="14"/>
+      <c r="X50" s="15"/>
+      <c r="AD50" s="13"/>
+      <c r="AE50" s="14"/>
+      <c r="AF50" s="14"/>
+      <c r="AG50" s="14"/>
+      <c r="AH50" s="14"/>
+      <c r="AI50" s="14"/>
+      <c r="AJ50" s="14"/>
+      <c r="AK50" s="14"/>
+      <c r="AL50" s="14"/>
+      <c r="AM50" s="15"/>
+      <c r="AN50" s="13"/>
+      <c r="AO50" s="14"/>
+      <c r="AP50" s="14"/>
+      <c r="AQ50" s="14"/>
+      <c r="AR50" s="14"/>
+      <c r="AS50" s="14"/>
+      <c r="AT50" s="14"/>
+      <c r="AU50" s="14"/>
+      <c r="AV50" s="14"/>
+      <c r="AW50" s="15"/>
+    </row>
+    <row r="51" spans="5:49">
+      <c r="E51" s="13"/>
+      <c r="F51" s="14"/>
+      <c r="G51" s="14"/>
+      <c r="H51" s="14"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
+      <c r="R51" s="14"/>
+      <c r="S51" s="14"/>
+      <c r="T51" s="14"/>
+      <c r="U51" s="14"/>
+      <c r="V51" s="14"/>
+      <c r="W51" s="14"/>
+      <c r="X51" s="15"/>
+      <c r="AD51" s="13"/>
+      <c r="AE51" s="14"/>
+      <c r="AF51" s="14"/>
+      <c r="AG51" s="14"/>
+      <c r="AH51" s="14"/>
+      <c r="AI51" s="14"/>
+      <c r="AJ51" s="14"/>
+      <c r="AK51" s="14"/>
+      <c r="AL51" s="14"/>
+      <c r="AM51" s="15"/>
+      <c r="AN51" s="13"/>
+      <c r="AO51" s="14"/>
+      <c r="AP51" s="14"/>
+      <c r="AQ51" s="14"/>
+      <c r="AR51" s="14"/>
+      <c r="AS51" s="14"/>
+      <c r="AT51" s="14"/>
+      <c r="AU51" s="14"/>
+      <c r="AV51" s="14"/>
+      <c r="AW51" s="15"/>
+    </row>
+    <row r="52" spans="5:49">
+      <c r="E52" s="13"/>
+      <c r="F52" s="14"/>
+      <c r="G52" s="14"/>
+      <c r="H52" s="14"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="14"/>
+      <c r="M52" s="14"/>
+      <c r="N52" s="15"/>
+      <c r="O52" s="13"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
+      <c r="R52" s="14"/>
+      <c r="S52" s="14"/>
+      <c r="T52" s="14"/>
+      <c r="U52" s="14"/>
+      <c r="V52" s="14"/>
+      <c r="W52" s="14"/>
+      <c r="X52" s="15"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="14"/>
+      <c r="AF52" s="14"/>
+      <c r="AG52" s="14"/>
+      <c r="AH52" s="14"/>
+      <c r="AI52" s="14"/>
+      <c r="AJ52" s="14"/>
+      <c r="AK52" s="14"/>
+      <c r="AL52" s="14"/>
+      <c r="AM52" s="15"/>
+      <c r="AN52" s="13"/>
+      <c r="AO52" s="14"/>
+      <c r="AP52" s="14"/>
+      <c r="AQ52" s="14"/>
+      <c r="AR52" s="14"/>
+      <c r="AS52" s="14"/>
+      <c r="AT52" s="14"/>
+      <c r="AU52" s="14"/>
+      <c r="AV52" s="14"/>
+      <c r="AW52" s="15"/>
+    </row>
+    <row r="53" spans="5:49">
+      <c r="E53" s="13"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
+      <c r="R53" s="14"/>
+      <c r="S53" s="14"/>
+      <c r="T53" s="14"/>
+      <c r="U53" s="14"/>
+      <c r="V53" s="14"/>
+      <c r="W53" s="14"/>
+      <c r="X53" s="15"/>
+      <c r="AD53" s="13"/>
+      <c r="AE53" s="14"/>
+      <c r="AF53" s="14"/>
+      <c r="AG53" s="14"/>
+      <c r="AH53" s="14"/>
+      <c r="AI53" s="14"/>
+      <c r="AJ53" s="14"/>
+      <c r="AK53" s="14"/>
+      <c r="AL53" s="14"/>
+      <c r="AM53" s="15"/>
+      <c r="AN53" s="13"/>
+      <c r="AO53" s="14"/>
+      <c r="AP53" s="14"/>
+      <c r="AQ53" s="14"/>
+      <c r="AR53" s="14"/>
+      <c r="AS53" s="14"/>
+      <c r="AT53" s="14"/>
+      <c r="AU53" s="14"/>
+      <c r="AV53" s="14"/>
+      <c r="AW53" s="15"/>
+    </row>
+    <row r="54" spans="5:49">
+      <c r="E54" s="13"/>
+      <c r="F54" s="14"/>
+      <c r="G54" s="14"/>
+      <c r="H54" s="14"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="14"/>
+      <c r="R54" s="14"/>
+      <c r="S54" s="14"/>
+      <c r="T54" s="14"/>
+      <c r="U54" s="14"/>
+      <c r="V54" s="14"/>
+      <c r="W54" s="14"/>
+      <c r="X54" s="15"/>
+      <c r="AD54" s="13"/>
+      <c r="AE54" s="14"/>
+      <c r="AF54" s="14"/>
+      <c r="AG54" s="14"/>
+      <c r="AH54" s="14"/>
+      <c r="AI54" s="14"/>
+      <c r="AJ54" s="14"/>
+      <c r="AK54" s="14"/>
+      <c r="AL54" s="14"/>
+      <c r="AM54" s="15"/>
+      <c r="AN54" s="13"/>
+      <c r="AO54" s="14"/>
+      <c r="AP54" s="14"/>
+      <c r="AQ54" s="14"/>
+      <c r="AR54" s="14"/>
+      <c r="AS54" s="14"/>
+      <c r="AT54" s="14"/>
+      <c r="AU54" s="14"/>
+      <c r="AV54" s="14"/>
+      <c r="AW54" s="15"/>
+    </row>
+    <row r="55" spans="5:49">
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="14"/>
+      <c r="R55" s="14"/>
+      <c r="S55" s="14"/>
+      <c r="T55" s="14"/>
+      <c r="U55" s="14"/>
+      <c r="V55" s="14"/>
+      <c r="W55" s="14"/>
+      <c r="X55" s="15"/>
+      <c r="AD55" s="13"/>
+      <c r="AE55" s="14"/>
+      <c r="AF55" s="14"/>
+      <c r="AG55" s="14"/>
+      <c r="AH55" s="14"/>
+      <c r="AI55" s="14"/>
+      <c r="AJ55" s="14"/>
+      <c r="AK55" s="14"/>
+      <c r="AL55" s="14"/>
+      <c r="AM55" s="15"/>
+      <c r="AN55" s="13"/>
+      <c r="AO55" s="14"/>
+      <c r="AP55" s="14"/>
+      <c r="AQ55" s="14"/>
+      <c r="AR55" s="14"/>
+      <c r="AS55" s="14"/>
+      <c r="AT55" s="14"/>
+      <c r="AU55" s="14"/>
+      <c r="AV55" s="14"/>
+      <c r="AW55" s="15"/>
+    </row>
+    <row r="56" spans="5:49" ht="15.75" thickBot="1">
+      <c r="E56" s="16"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="17"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="17"/>
+      <c r="L56" s="17"/>
+      <c r="M56" s="17"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
+      <c r="V56" s="17"/>
+      <c r="W56" s="17"/>
+      <c r="X56" s="18"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="17"/>
+      <c r="AF56" s="17"/>
+      <c r="AG56" s="17"/>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="17"/>
+      <c r="AJ56" s="17"/>
+      <c r="AK56" s="17"/>
+      <c r="AL56" s="17"/>
+      <c r="AM56" s="18"/>
+      <c r="AN56" s="16"/>
+      <c r="AO56" s="17"/>
+      <c r="AP56" s="17"/>
+      <c r="AQ56" s="17"/>
+      <c r="AR56" s="17"/>
+      <c r="AS56" s="17"/>
+      <c r="AT56" s="17"/>
+      <c r="AU56" s="17"/>
+      <c r="AV56" s="17"/>
+      <c r="AW56" s="18"/>
+    </row>
+    <row r="59" spans="5:49">
+      <c r="AD59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="5:49" ht="15.75" thickBot="1"/>
+    <row r="61" spans="5:49">
+      <c r="AD61" s="10"/>
+      <c r="AE61" s="11"/>
+      <c r="AF61" s="11"/>
+      <c r="AG61" s="11"/>
+      <c r="AH61" s="11"/>
+      <c r="AI61" s="11"/>
+      <c r="AJ61" s="11"/>
+      <c r="AK61" s="11"/>
+      <c r="AL61" s="11"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="10"/>
+      <c r="AO61" s="11"/>
+      <c r="AP61" s="11"/>
+      <c r="AQ61" s="11"/>
+      <c r="AR61" s="11"/>
+      <c r="AS61" s="11"/>
+      <c r="AT61" s="11"/>
+      <c r="AU61" s="11"/>
+      <c r="AV61" s="11"/>
+      <c r="AW61" s="12"/>
+    </row>
+    <row r="62" spans="5:49">
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF62" s="14"/>
+      <c r="AG62" s="14"/>
+      <c r="AH62" s="14"/>
+      <c r="AI62" s="14"/>
+      <c r="AJ62" s="14"/>
+      <c r="AK62" s="14"/>
+      <c r="AL62" s="14"/>
+      <c r="AM62" s="15"/>
+      <c r="AN62" s="13"/>
+      <c r="AO62" s="14"/>
+      <c r="AP62" s="14"/>
+      <c r="AQ62" s="14"/>
+      <c r="AR62" s="14"/>
+      <c r="AS62" s="14"/>
+      <c r="AT62" s="14"/>
+      <c r="AU62" s="14"/>
+      <c r="AV62" s="14"/>
+      <c r="AW62" s="15"/>
+    </row>
+    <row r="63" spans="5:49">
+      <c r="AD63" s="13"/>
+      <c r="AE63" s="14"/>
+      <c r="AF63" s="14"/>
+      <c r="AG63" s="14"/>
+      <c r="AH63" s="14"/>
+      <c r="AI63" s="14"/>
+      <c r="AJ63" s="14"/>
+      <c r="AK63" s="14"/>
+      <c r="AL63" s="14"/>
+      <c r="AM63" s="15"/>
+      <c r="AN63" s="13"/>
+      <c r="AO63" s="14"/>
+      <c r="AP63" s="14"/>
+      <c r="AQ63" s="14"/>
+      <c r="AR63" s="14"/>
+      <c r="AS63" s="14"/>
+      <c r="AT63" s="14"/>
+      <c r="AU63" s="14"/>
+      <c r="AV63" s="14"/>
+      <c r="AW63" s="15"/>
+    </row>
+    <row r="64" spans="5:49">
+      <c r="AD64" s="13"/>
+      <c r="AE64" s="14"/>
+      <c r="AF64" s="14"/>
+      <c r="AG64" s="14"/>
+      <c r="AH64" s="14"/>
+      <c r="AI64" s="14"/>
+      <c r="AJ64" s="14"/>
+      <c r="AK64" s="14"/>
+      <c r="AL64" s="14"/>
+      <c r="AM64" s="15"/>
+      <c r="AN64" s="13"/>
+      <c r="AO64" s="14"/>
+      <c r="AP64" s="14"/>
+      <c r="AQ64" s="14"/>
+      <c r="AR64" s="14"/>
+      <c r="AS64" s="14"/>
+      <c r="AT64" s="14"/>
+      <c r="AU64" s="14"/>
+      <c r="AV64" s="14"/>
+      <c r="AW64" s="15"/>
+    </row>
+    <row r="65" spans="30:49">
+      <c r="AD65" s="13"/>
+      <c r="AE65" s="14"/>
+      <c r="AF65" s="14"/>
+      <c r="AG65" s="14"/>
+      <c r="AH65" s="14"/>
+      <c r="AI65" s="14"/>
+      <c r="AJ65" s="14"/>
+      <c r="AK65" s="14"/>
+      <c r="AL65" s="14"/>
+      <c r="AM65" s="15"/>
+      <c r="AN65" s="13"/>
+      <c r="AO65" s="14"/>
+      <c r="AP65" s="14"/>
+      <c r="AQ65" s="14"/>
+      <c r="AR65" s="14"/>
+      <c r="AS65" s="14"/>
+      <c r="AT65" s="14"/>
+      <c r="AU65" s="14"/>
+      <c r="AV65" s="14"/>
+      <c r="AW65" s="15"/>
+    </row>
+    <row r="66" spans="30:49">
+      <c r="AD66" s="13"/>
+      <c r="AE66" s="14"/>
+      <c r="AF66" s="14"/>
+      <c r="AG66" s="14"/>
+      <c r="AH66" s="14"/>
+      <c r="AI66" s="14"/>
+      <c r="AJ66" s="14"/>
+      <c r="AK66" s="14"/>
+      <c r="AL66" s="14"/>
+      <c r="AM66" s="15"/>
+      <c r="AN66" s="13"/>
+      <c r="AO66" s="14"/>
+      <c r="AP66" s="14"/>
+      <c r="AQ66" s="14"/>
+      <c r="AR66" s="14"/>
+      <c r="AS66" s="14"/>
+      <c r="AT66" s="14"/>
+      <c r="AU66" s="14"/>
+      <c r="AV66" s="14"/>
+      <c r="AW66" s="15"/>
+    </row>
+    <row r="67" spans="30:49">
+      <c r="AD67" s="13"/>
+      <c r="AE67" s="14"/>
+      <c r="AF67" s="14"/>
+      <c r="AG67" s="14"/>
+      <c r="AH67" s="14"/>
+      <c r="AI67" s="14"/>
+      <c r="AJ67" s="14"/>
+      <c r="AK67" s="14"/>
+      <c r="AL67" s="14"/>
+      <c r="AM67" s="15"/>
+      <c r="AN67" s="13"/>
+      <c r="AO67" s="14"/>
+      <c r="AP67" s="14"/>
+      <c r="AQ67" s="14"/>
+      <c r="AR67" s="14"/>
+      <c r="AS67" s="14"/>
+      <c r="AT67" s="14"/>
+      <c r="AU67" s="14"/>
+      <c r="AV67" s="14"/>
+      <c r="AW67" s="15"/>
+    </row>
+    <row r="68" spans="30:49">
+      <c r="AD68" s="13"/>
+      <c r="AE68" s="14"/>
+      <c r="AF68" s="14"/>
+      <c r="AG68" s="14"/>
+      <c r="AH68" s="14"/>
+      <c r="AI68" s="14"/>
+      <c r="AJ68" s="14"/>
+      <c r="AK68" s="14"/>
+      <c r="AL68" s="14"/>
+      <c r="AM68" s="15"/>
+      <c r="AN68" s="13"/>
+      <c r="AO68" s="14"/>
+      <c r="AP68" s="14"/>
+      <c r="AQ68" s="14"/>
+      <c r="AR68" s="14"/>
+      <c r="AS68" s="14"/>
+      <c r="AT68" s="14"/>
+      <c r="AU68" s="14"/>
+      <c r="AV68" s="14"/>
+      <c r="AW68" s="15"/>
+    </row>
+    <row r="69" spans="30:49" ht="15.75" thickBot="1">
+      <c r="AD69" s="16"/>
+      <c r="AE69" s="17"/>
+      <c r="AF69" s="17"/>
+      <c r="AG69" s="17"/>
+      <c r="AH69" s="17"/>
+      <c r="AI69" s="17"/>
+      <c r="AJ69" s="17"/>
+      <c r="AK69" s="17"/>
+      <c r="AL69" s="17"/>
+      <c r="AM69" s="18"/>
+      <c r="AN69" s="16"/>
+      <c r="AO69" s="17"/>
+      <c r="AP69" s="17"/>
+      <c r="AQ69" s="17"/>
+      <c r="AR69" s="17"/>
+      <c r="AS69" s="17"/>
+      <c r="AT69" s="17"/>
+      <c r="AU69" s="17"/>
+      <c r="AV69" s="17"/>
+      <c r="AW69" s="18"/>
+    </row>
+    <row r="70" spans="30:49">
+      <c r="AD70" s="10"/>
+      <c r="AE70" s="11"/>
+      <c r="AF70" s="11"/>
+      <c r="AG70" s="11"/>
+      <c r="AH70" s="11"/>
+      <c r="AI70" s="11"/>
+      <c r="AJ70" s="11"/>
+      <c r="AK70" s="11"/>
+      <c r="AL70" s="11"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="10"/>
+      <c r="AO70" s="11"/>
+      <c r="AP70" s="11"/>
+      <c r="AQ70" s="11"/>
+      <c r="AR70" s="11"/>
+      <c r="AS70" s="11"/>
+      <c r="AT70" s="11"/>
+      <c r="AU70" s="11"/>
+      <c r="AV70" s="11"/>
+      <c r="AW70" s="12"/>
+    </row>
+    <row r="71" spans="30:49">
+      <c r="AD71" s="13"/>
+      <c r="AE71" s="14"/>
+      <c r="AF71" s="14"/>
+      <c r="AG71" s="14"/>
+      <c r="AH71" s="14"/>
+      <c r="AI71" s="14"/>
+      <c r="AJ71" s="14"/>
+      <c r="AK71" s="14"/>
+      <c r="AL71" s="14"/>
+      <c r="AM71" s="15"/>
+      <c r="AN71" s="13"/>
+      <c r="AO71" s="14"/>
+      <c r="AP71" s="14"/>
+      <c r="AQ71" s="14"/>
+      <c r="AR71" s="14"/>
+      <c r="AS71" s="14"/>
+      <c r="AT71" s="14"/>
+      <c r="AU71" s="14"/>
+      <c r="AV71" s="14"/>
+      <c r="AW71" s="15"/>
+    </row>
+    <row r="72" spans="30:49">
+      <c r="AD72" s="13"/>
+      <c r="AE72" s="14"/>
+      <c r="AF72" s="14"/>
+      <c r="AG72" s="14"/>
+      <c r="AH72" s="14"/>
+      <c r="AI72" s="14"/>
+      <c r="AJ72" s="14"/>
+      <c r="AK72" s="14"/>
+      <c r="AL72" s="14"/>
+      <c r="AM72" s="15"/>
+      <c r="AN72" s="13"/>
+      <c r="AO72" s="14"/>
+      <c r="AP72" s="14"/>
+      <c r="AQ72" s="14"/>
+      <c r="AR72" s="14"/>
+      <c r="AS72" s="14"/>
+      <c r="AT72" s="14"/>
+      <c r="AU72" s="14"/>
+      <c r="AV72" s="14"/>
+      <c r="AW72" s="15"/>
+    </row>
+    <row r="73" spans="30:49">
+      <c r="AD73" s="13"/>
+      <c r="AE73" s="14"/>
+      <c r="AF73" s="14"/>
+      <c r="AG73" s="14"/>
+      <c r="AH73" s="14"/>
+      <c r="AI73" s="14"/>
+      <c r="AJ73" s="14"/>
+      <c r="AK73" s="14"/>
+      <c r="AL73" s="14"/>
+      <c r="AM73" s="15"/>
+      <c r="AN73" s="13"/>
+      <c r="AO73" s="14"/>
+      <c r="AP73" s="14"/>
+      <c r="AQ73" s="14"/>
+      <c r="AR73" s="14"/>
+      <c r="AS73" s="14"/>
+      <c r="AT73" s="14"/>
+      <c r="AU73" s="14"/>
+      <c r="AV73" s="14"/>
+      <c r="AW73" s="15"/>
+    </row>
+    <row r="74" spans="30:49">
+      <c r="AD74" s="13"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="14"/>
+      <c r="AH74" s="14"/>
+      <c r="AI74" s="14"/>
+      <c r="AJ74" s="14"/>
+      <c r="AK74" s="14"/>
+      <c r="AL74" s="14"/>
+      <c r="AM74" s="15"/>
+      <c r="AN74" s="13"/>
+      <c r="AO74" s="14"/>
+      <c r="AP74" s="14"/>
+      <c r="AQ74" s="14"/>
+      <c r="AR74" s="14"/>
+      <c r="AS74" s="14"/>
+      <c r="AT74" s="14"/>
+      <c r="AU74" s="14"/>
+      <c r="AV74" s="14"/>
+      <c r="AW74" s="15"/>
+    </row>
+    <row r="75" spans="30:49">
+      <c r="AD75" s="13"/>
+      <c r="AE75" s="14"/>
+      <c r="AF75" s="14"/>
+      <c r="AG75" s="14"/>
+      <c r="AH75" s="14"/>
+      <c r="AI75" s="14"/>
+      <c r="AJ75" s="14"/>
+      <c r="AK75" s="14"/>
+      <c r="AL75" s="14"/>
+      <c r="AM75" s="15"/>
+      <c r="AN75" s="13"/>
+      <c r="AO75" s="14"/>
+      <c r="AP75" s="14"/>
+      <c r="AQ75" s="14"/>
+      <c r="AR75" s="14"/>
+      <c r="AS75" s="14"/>
+      <c r="AT75" s="14"/>
+      <c r="AU75" s="14"/>
+      <c r="AV75" s="14"/>
+      <c r="AW75" s="15"/>
+    </row>
+    <row r="76" spans="30:49">
+      <c r="AD76" s="13"/>
+      <c r="AE76" s="14"/>
+      <c r="AF76" s="14"/>
+      <c r="AG76" s="14"/>
+      <c r="AH76" s="14"/>
+      <c r="AI76" s="14"/>
+      <c r="AJ76" s="14"/>
+      <c r="AK76" s="14"/>
+      <c r="AL76" s="14"/>
+      <c r="AM76" s="15"/>
+      <c r="AN76" s="13"/>
+      <c r="AO76" s="14"/>
+      <c r="AP76" s="14"/>
+      <c r="AQ76" s="14"/>
+      <c r="AR76" s="14"/>
+      <c r="AS76" s="14"/>
+      <c r="AT76" s="14"/>
+      <c r="AU76" s="14"/>
+      <c r="AV76" s="14"/>
+      <c r="AW76" s="15"/>
+    </row>
+    <row r="77" spans="30:49">
+      <c r="AD77" s="13"/>
+      <c r="AE77" s="14"/>
+      <c r="AF77" s="14"/>
+      <c r="AG77" s="14"/>
+      <c r="AH77" s="14"/>
+      <c r="AI77" s="14"/>
+      <c r="AJ77" s="14"/>
+      <c r="AK77" s="14"/>
+      <c r="AL77" s="14"/>
+      <c r="AM77" s="15"/>
+      <c r="AN77" s="13"/>
+      <c r="AO77" s="14"/>
+      <c r="AP77" s="14"/>
+      <c r="AQ77" s="14"/>
+      <c r="AR77" s="14"/>
+      <c r="AS77" s="14"/>
+      <c r="AT77" s="14"/>
+      <c r="AU77" s="14"/>
+      <c r="AV77" s="14"/>
+      <c r="AW77" s="15"/>
+    </row>
+    <row r="78" spans="30:49" ht="15.75" thickBot="1">
+      <c r="AD78" s="16"/>
+      <c r="AE78" s="17"/>
+      <c r="AF78" s="17"/>
+      <c r="AG78" s="17"/>
+      <c r="AH78" s="17"/>
+      <c r="AI78" s="17"/>
+      <c r="AJ78" s="17"/>
+      <c r="AK78" s="17"/>
+      <c r="AL78" s="17"/>
+      <c r="AM78" s="18"/>
+      <c r="AN78" s="16"/>
+      <c r="AO78" s="17"/>
+      <c r="AP78" s="17"/>
+      <c r="AQ78" s="17"/>
+      <c r="AR78" s="17"/>
+      <c r="AS78" s="17"/>
+      <c r="AT78" s="17"/>
+      <c r="AU78" s="17"/>
+      <c r="AV78" s="17"/>
+      <c r="AW78" s="18"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\motonesfpga\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="2"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="io port" sheetId="2" r:id="rId2"/>
     <sheet name="display" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -292,24 +287,44 @@
   </si>
   <si>
     <t>60 frames per sec</t>
+  </si>
+  <si>
+    <t>constant HSCAN_MAX    : integer := 341;</t>
+  </si>
+  <si>
+    <t>constant VSCAN_MAX    : integer := 262;</t>
+  </si>
+  <si>
+    <t>constant HSCAN        : integer := 257;</t>
+  </si>
+  <si>
+    <t>constant VSCAN        : integer := 240;</t>
+  </si>
+  <si>
+    <t>2c00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32 x 30 tiles</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -571,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -594,12 +609,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
@@ -650,9 +659,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -2646,7 +2664,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2688,7 +2706,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2720,10 +2738,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2755,7 +2772,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2931,14 +2947,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="AO6:AO13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="6" spans="41:41">
       <c r="AO6" t="s">
@@ -2973,16 +2989,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="59.28515625" customWidth="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="3" width="64.28515625" customWidth="1"/>
+    <col min="1" max="1" width="59.25" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="64.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
@@ -2990,7 +3006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2998,12 +3014,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" thickBot="1">
+    <row r="4" spans="1:3" ht="14.25" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" thickBot="1">
+    <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
@@ -3014,7 +3030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" thickBot="1">
+    <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
@@ -3025,7 +3041,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" thickBot="1">
+    <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>14</v>
       </c>
@@ -3036,25 +3052,25 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="24" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" thickBot="1">
+    <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>21</v>
       </c>
@@ -3065,7 +3081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="29.25" thickBot="1">
+    <row r="11" spans="1:3" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>24</v>
       </c>
@@ -3076,7 +3092,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" thickBot="1">
+    <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>26</v>
       </c>
@@ -3087,25 +3103,25 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="24" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" thickBot="1">
+    <row r="15" spans="1:3" ht="15" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>33</v>
       </c>
@@ -3113,12 +3129,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" thickBot="1">
+    <row r="16" spans="1:3" ht="14.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" thickBot="1">
+    <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
@@ -3129,7 +3145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" thickBot="1">
+    <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>11</v>
       </c>
@@ -3140,7 +3156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" thickBot="1">
+    <row r="19" spans="1:3" ht="15" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -3151,7 +3167,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" thickBot="1">
+    <row r="20" spans="1:3" ht="15" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>17</v>
       </c>
@@ -3162,7 +3178,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" thickBot="1">
+    <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>21</v>
       </c>
@@ -3173,7 +3189,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" thickBot="1">
+    <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
@@ -3184,7 +3200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="29.25" thickBot="1">
+    <row r="23" spans="1:3" ht="15" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>26</v>
       </c>
@@ -3195,7 +3211,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" thickBot="1">
+    <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>42</v>
       </c>
@@ -3206,7 +3222,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" thickBot="1">
+    <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>44</v>
       </c>
@@ -3217,17 +3233,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1">
+    <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1">
+    <row r="27" spans="1:3" ht="14.25" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" thickBot="1">
+    <row r="28" spans="1:3" ht="15" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>8</v>
       </c>
@@ -3238,25 +3254,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="8" t="s">
+    <row r="29" spans="1:3" ht="14.25">
+      <c r="A29" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="24" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
       <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="29.25" thickBot="1">
+    <row r="31" spans="1:3" ht="15" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>14</v>
       </c>
@@ -3267,7 +3283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="29.25" thickBot="1">
+    <row r="32" spans="1:3" ht="15" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>17</v>
       </c>
@@ -3278,25 +3294,25 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="8" t="s">
+    <row r="33" spans="1:3" ht="14.25">
+      <c r="A33" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A34" s="9"/>
-      <c r="B34" s="9"/>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
       <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" thickBot="1">
+    <row r="35" spans="1:3" ht="15" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>59</v>
       </c>
@@ -3305,17 +3321,17 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" thickBot="1">
+    <row r="36" spans="1:3" ht="15" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" thickBot="1">
+    <row r="37" spans="1:3" ht="14.25" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" thickBot="1">
+    <row r="38" spans="1:3" ht="15" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>8</v>
       </c>
@@ -3326,7 +3342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" thickBot="1">
+    <row r="39" spans="1:3" ht="15" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>63</v>
       </c>
@@ -3337,17 +3353,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" thickBot="1">
+    <row r="40" spans="1:3" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" thickBot="1">
+    <row r="41" spans="1:3" ht="14.25" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" thickBot="1">
+    <row r="42" spans="1:3" ht="15" thickBot="1">
       <c r="A42" s="4" t="s">
         <v>8</v>
       </c>
@@ -3358,7 +3374,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" thickBot="1">
+    <row r="43" spans="1:3" ht="15" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>63</v>
       </c>
@@ -3369,17 +3385,17 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" thickBot="1">
+    <row r="44" spans="1:3" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="39" thickBot="1">
+    <row r="45" spans="1:3" ht="26.25" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" thickBot="1">
+    <row r="46" spans="1:3" ht="15" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>8</v>
       </c>
@@ -3390,35 +3406,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="8" t="s">
+    <row r="47" spans="1:3" ht="14.25">
+      <c r="A47" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A48" s="9"/>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="25"/>
       <c r="B48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="9"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" thickBot="1">
+      <c r="C48" s="25"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="39" thickBot="1">
+    <row r="50" spans="1:3" ht="26.25" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" thickBot="1">
+    <row r="51" spans="1:3" ht="15" thickBot="1">
       <c r="A51" s="4" t="s">
         <v>8</v>
       </c>
@@ -3429,35 +3445,35 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
-      <c r="A52" s="8" t="s">
+    <row r="52" spans="1:3" ht="14.25">
+      <c r="A52" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A53" s="9"/>
+    <row r="53" spans="1:3" ht="15" thickBot="1">
+      <c r="A53" s="25"/>
       <c r="B53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="9"/>
-    </row>
-    <row r="54" spans="1:3" ht="15.75" thickBot="1">
+      <c r="C53" s="25"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="26.25" thickBot="1">
+    <row r="55" spans="1:3" ht="14.25" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15.75" thickBot="1">
+    <row r="56" spans="1:3" ht="15" thickBot="1">
       <c r="A56" s="4" t="s">
         <v>8</v>
       </c>
@@ -3468,23 +3484,23 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="8" t="s">
+    <row r="57" spans="1:3" ht="14.25">
+      <c r="A57" s="24" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="24" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15.75" thickBot="1">
-      <c r="A58" s="9"/>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="25"/>
       <c r="B58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3510,19 +3526,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:AW78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="Y71" sqref="Y71"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="4" bestFit="1" customWidth="1"/>
     <col min="33" max="38" width="4" bestFit="1" customWidth="1"/>
     <col min="45" max="47" width="4" bestFit="1" customWidth="1"/>
@@ -3533,924 +3551,938 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="4:48" ht="15.75" thickBot="1">
+    <row r="4" spans="4:48" ht="14.25" thickBot="1">
       <c r="Z4">
         <v>800</v>
       </c>
     </row>
     <row r="5" spans="4:48">
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9">
         <v>640</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="11"/>
-      <c r="T5" s="11"/>
-      <c r="U5" s="11"/>
-      <c r="V5" s="11"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AB5" s="19"/>
-      <c r="AC5" s="19"/>
-      <c r="AD5" s="20"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="18"/>
     </row>
     <row r="6" spans="4:48">
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
-      <c r="AC6" s="14"/>
-      <c r="AD6" s="22"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="20"/>
     </row>
     <row r="7" spans="4:48">
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
-      <c r="AA7" s="14"/>
-      <c r="AB7" s="14"/>
-      <c r="AC7" s="14"/>
-      <c r="AD7" s="22"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="20"/>
       <c r="AL7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="4:48" ht="15.75" thickBot="1">
-      <c r="D8" s="13"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="15"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
-      <c r="AA8" s="14"/>
-      <c r="AB8" s="14"/>
-      <c r="AC8" s="14"/>
-      <c r="AD8" s="22"/>
+    <row r="8" spans="4:48" ht="14.25" thickBot="1">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="20"/>
       <c r="AU8">
         <v>341</v>
       </c>
     </row>
     <row r="9" spans="4:48">
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="22"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="11"/>
-      <c r="AL9" s="11">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="20"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9">
         <v>256</v>
       </c>
-      <c r="AM9" s="11"/>
-      <c r="AN9" s="11"/>
-      <c r="AO9" s="11"/>
-      <c r="AP9" s="11"/>
-      <c r="AQ9" s="11"/>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="12"/>
-      <c r="AT9" s="19"/>
-      <c r="AU9" s="19"/>
-      <c r="AV9" s="20"/>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="18"/>
     </row>
     <row r="10" spans="4:48">
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="22"/>
-      <c r="AJ10" s="13"/>
-      <c r="AK10" s="14"/>
-      <c r="AL10" s="14"/>
-      <c r="AM10" s="14"/>
-      <c r="AN10" s="14"/>
-      <c r="AO10" s="14"/>
-      <c r="AP10" s="14"/>
-      <c r="AQ10" s="14"/>
-      <c r="AR10" s="14"/>
-      <c r="AS10" s="15"/>
-      <c r="AT10" s="14"/>
-      <c r="AU10" s="14"/>
-      <c r="AV10" s="22"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="20"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="20"/>
     </row>
     <row r="11" spans="4:48">
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="22"/>
-      <c r="AJ11" s="13"/>
-      <c r="AK11" s="14"/>
-      <c r="AL11" s="14"/>
-      <c r="AM11" s="14"/>
-      <c r="AN11" s="14"/>
-      <c r="AO11" s="14"/>
-      <c r="AP11" s="14"/>
-      <c r="AQ11" s="14"/>
-      <c r="AR11" s="14"/>
-      <c r="AS11" s="15"/>
-      <c r="AT11" s="14"/>
-      <c r="AU11" s="14"/>
-      <c r="AV11" s="22"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="20"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="20"/>
     </row>
     <row r="12" spans="4:48">
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="22"/>
-      <c r="AJ12" s="13">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="20"/>
+      <c r="AJ12" s="11">
         <v>240</v>
       </c>
-      <c r="AK12" s="14"/>
-      <c r="AL12" s="14"/>
-      <c r="AM12" s="14"/>
-      <c r="AN12" s="14"/>
-      <c r="AO12" s="14"/>
-      <c r="AP12" s="14"/>
-      <c r="AQ12" s="14"/>
-      <c r="AR12" s="14"/>
-      <c r="AS12" s="15"/>
-      <c r="AT12" s="14"/>
-      <c r="AU12" s="14"/>
-      <c r="AV12" s="22"/>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="20"/>
     </row>
     <row r="13" spans="4:48">
-      <c r="D13" s="13">
+      <c r="D13" s="11">
         <v>480</v>
       </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="22"/>
-      <c r="AJ13" s="13"/>
-      <c r="AK13" s="14"/>
-      <c r="AL13" s="14"/>
-      <c r="AM13" s="14"/>
-      <c r="AN13" s="14"/>
-      <c r="AO13" s="14"/>
-      <c r="AP13" s="14"/>
-      <c r="AQ13" s="14"/>
-      <c r="AR13" s="14"/>
-      <c r="AS13" s="15"/>
-      <c r="AT13" s="14"/>
-      <c r="AU13" s="14"/>
-      <c r="AV13" s="22"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="20"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="20"/>
     </row>
     <row r="14" spans="4:48">
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="14"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="X14" s="14"/>
-      <c r="Y14" s="14"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="22"/>
-      <c r="AJ14" s="13"/>
-      <c r="AK14" s="14"/>
-      <c r="AL14" s="14"/>
-      <c r="AM14" s="14"/>
-      <c r="AN14" s="14"/>
-      <c r="AO14" s="14"/>
-      <c r="AP14" s="14"/>
-      <c r="AQ14" s="14"/>
-      <c r="AR14" s="14"/>
-      <c r="AS14" s="15"/>
-      <c r="AT14" s="14"/>
-      <c r="AU14" s="14"/>
-      <c r="AV14" s="22"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="20"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="20"/>
     </row>
     <row r="15" spans="4:48">
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
-      <c r="R15" s="14"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="14"/>
-      <c r="Y15" s="14"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="22"/>
-      <c r="AJ15" s="13"/>
-      <c r="AK15" s="14"/>
-      <c r="AL15" s="14"/>
-      <c r="AM15" s="14"/>
-      <c r="AN15" s="14"/>
-      <c r="AO15" s="14"/>
-      <c r="AP15" s="14"/>
-      <c r="AQ15" s="14"/>
-      <c r="AR15" s="14"/>
-      <c r="AS15" s="15"/>
-      <c r="AT15" s="14"/>
-      <c r="AU15" s="14"/>
-      <c r="AV15" s="22"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="20"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="20"/>
     </row>
     <row r="16" spans="4:48">
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="14"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="14"/>
-      <c r="Y16" s="14"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="22"/>
-      <c r="AJ16" s="13"/>
-      <c r="AK16" s="14"/>
-      <c r="AL16" s="14"/>
-      <c r="AM16" s="14"/>
-      <c r="AN16" s="14"/>
-      <c r="AO16" s="14"/>
-      <c r="AP16" s="14"/>
-      <c r="AQ16" s="14"/>
-      <c r="AR16" s="14"/>
-      <c r="AS16" s="15"/>
-      <c r="AT16" s="14"/>
-      <c r="AU16" s="14"/>
-      <c r="AV16" s="22"/>
-    </row>
-    <row r="17" spans="3:48" ht="15.75" thickBot="1">
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="14"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="22"/>
-      <c r="AJ17" s="16"/>
-      <c r="AK17" s="17"/>
-      <c r="AL17" s="17"/>
-      <c r="AM17" s="17"/>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="17"/>
-      <c r="AP17" s="17"/>
-      <c r="AQ17" s="17"/>
-      <c r="AR17" s="17"/>
-      <c r="AS17" s="18"/>
-      <c r="AT17" s="14"/>
-      <c r="AU17" s="14"/>
-      <c r="AV17" s="22"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="20"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="20"/>
+    </row>
+    <row r="17" spans="3:48" ht="14.25" thickBot="1">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="20"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="20"/>
     </row>
     <row r="18" spans="3:48">
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="14"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="14"/>
-      <c r="Y18" s="14"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="22"/>
-      <c r="AJ18" s="21"/>
-      <c r="AK18" s="14"/>
-      <c r="AL18" s="14"/>
-      <c r="AM18" s="14"/>
-      <c r="AN18" s="14"/>
-      <c r="AO18" s="14"/>
-      <c r="AP18" s="14"/>
-      <c r="AQ18" s="14"/>
-      <c r="AR18" s="14"/>
-      <c r="AS18" s="14"/>
-      <c r="AT18" s="14"/>
-      <c r="AU18" s="14"/>
-      <c r="AV18" s="22"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="20"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="20"/>
     </row>
     <row r="19" spans="3:48">
-      <c r="D19" s="13"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="14"/>
-      <c r="R19" s="14"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="14"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="22"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="20"/>
       <c r="AI19">
         <v>262</v>
       </c>
-      <c r="AJ19" s="21"/>
-      <c r="AK19" s="14"/>
-      <c r="AL19" s="14"/>
-      <c r="AM19" s="14"/>
-      <c r="AN19" s="14"/>
-      <c r="AO19" s="14"/>
-      <c r="AP19" s="14"/>
-      <c r="AQ19" s="14"/>
-      <c r="AR19" s="14"/>
-      <c r="AS19" s="14"/>
-      <c r="AT19" s="14"/>
-      <c r="AU19" s="14"/>
-      <c r="AV19" s="22"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="20"/>
     </row>
     <row r="20" spans="3:48">
-      <c r="D20" s="13"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="14"/>
-      <c r="S20" s="14"/>
-      <c r="T20" s="14"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="14"/>
-      <c r="Y20" s="14"/>
-      <c r="Z20" s="14"/>
-      <c r="AA20" s="14"/>
-      <c r="AB20" s="14"/>
-      <c r="AC20" s="14"/>
-      <c r="AD20" s="22"/>
-      <c r="AJ20" s="21"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="14"/>
-      <c r="AM20" s="14"/>
-      <c r="AN20" s="14"/>
-      <c r="AO20" s="14"/>
-      <c r="AP20" s="14"/>
-      <c r="AQ20" s="14"/>
-      <c r="AR20" s="14"/>
-      <c r="AS20" s="14"/>
-      <c r="AT20" s="14"/>
-      <c r="AU20" s="14"/>
-      <c r="AV20" s="22"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="20"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="20"/>
     </row>
     <row r="21" spans="3:48">
-      <c r="D21" s="13"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="14"/>
-      <c r="S21" s="14"/>
-      <c r="T21" s="14"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="14"/>
-      <c r="Y21" s="14"/>
-      <c r="Z21" s="14"/>
-      <c r="AA21" s="14"/>
-      <c r="AB21" s="14"/>
-      <c r="AC21" s="14"/>
-      <c r="AD21" s="22"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="24"/>
-      <c r="AL21" s="24"/>
-      <c r="AM21" s="24"/>
-      <c r="AN21" s="24"/>
-      <c r="AO21" s="24"/>
-      <c r="AP21" s="24"/>
-      <c r="AQ21" s="24"/>
-      <c r="AR21" s="24"/>
-      <c r="AS21" s="24"/>
-      <c r="AT21" s="24"/>
-      <c r="AU21" s="24"/>
-      <c r="AV21" s="25"/>
-    </row>
-    <row r="22" spans="3:48" ht="15.75" thickBot="1">
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="17"/>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="17"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="14"/>
-      <c r="Y22" s="14"/>
-      <c r="Z22" s="14"/>
-      <c r="AA22" s="14"/>
-      <c r="AB22" s="14"/>
-      <c r="AC22" s="14"/>
-      <c r="AD22" s="22"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="20"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="23"/>
+    </row>
+    <row r="22" spans="3:48" ht="14.25" thickBot="1">
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="20"/>
     </row>
     <row r="23" spans="3:48">
-      <c r="D23" s="21"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="14"/>
-      <c r="R23" s="14"/>
-      <c r="S23" s="14"/>
-      <c r="T23" s="14"/>
-      <c r="U23" s="14"/>
-      <c r="V23" s="14"/>
-      <c r="W23" s="14"/>
-      <c r="X23" s="14"/>
-      <c r="Y23" s="14"/>
-      <c r="Z23" s="14"/>
-      <c r="AA23" s="14"/>
-      <c r="AB23" s="14"/>
-      <c r="AC23" s="14"/>
-      <c r="AD23" s="22"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="20"/>
+      <c r="AL23" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="3:48">
-      <c r="D24" s="21"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="14"/>
-      <c r="R24" s="14"/>
-      <c r="S24" s="14"/>
-      <c r="T24" s="14"/>
-      <c r="U24" s="14"/>
-      <c r="V24" s="14"/>
-      <c r="W24" s="14"/>
-      <c r="X24" s="14"/>
-      <c r="Y24" s="14"/>
-      <c r="Z24" s="14"/>
-      <c r="AA24" s="14"/>
-      <c r="AB24" s="14"/>
-      <c r="AC24" s="14"/>
-      <c r="AD24" s="22"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="20"/>
+      <c r="AL24" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="3:48">
-      <c r="D25" s="21"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
-      <c r="R25" s="14"/>
-      <c r="S25" s="14"/>
-      <c r="T25" s="14"/>
-      <c r="U25" s="14"/>
-      <c r="V25" s="14"/>
-      <c r="W25" s="14"/>
-      <c r="X25" s="14"/>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-      <c r="AB25" s="14"/>
-      <c r="AC25" s="14"/>
-      <c r="AD25" s="22"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="20"/>
+      <c r="AL25" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="26" spans="3:48">
       <c r="C26">
         <v>600</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="14"/>
-      <c r="R26" s="14"/>
-      <c r="S26" s="14"/>
-      <c r="T26" s="14"/>
-      <c r="U26" s="14"/>
-      <c r="V26" s="14"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="14"/>
-      <c r="Z26" s="14"/>
-      <c r="AA26" s="14"/>
-      <c r="AB26" s="14"/>
-      <c r="AC26" s="14"/>
-      <c r="AD26" s="22"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="20"/>
+      <c r="AL26" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="27" spans="3:48">
-      <c r="D27" s="21"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="R27" s="14"/>
-      <c r="S27" s="14"/>
-      <c r="T27" s="14"/>
-      <c r="U27" s="14"/>
-      <c r="V27" s="14"/>
-      <c r="W27" s="14"/>
-      <c r="X27" s="14"/>
-      <c r="Y27" s="14"/>
-      <c r="Z27" s="14"/>
-      <c r="AA27" s="14"/>
-      <c r="AB27" s="14"/>
-      <c r="AC27" s="14"/>
-      <c r="AD27" s="22"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="20"/>
     </row>
     <row r="28" spans="3:48">
-      <c r="D28" s="21"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="14"/>
-      <c r="R28" s="14"/>
-      <c r="S28" s="14"/>
-      <c r="T28" s="14"/>
-      <c r="U28" s="14"/>
-      <c r="V28" s="14"/>
-      <c r="W28" s="14"/>
-      <c r="X28" s="14"/>
-      <c r="Y28" s="14"/>
-      <c r="Z28" s="14"/>
-      <c r="AA28" s="14"/>
-      <c r="AB28" s="14"/>
-      <c r="AC28" s="14"/>
-      <c r="AD28" s="22"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="20"/>
     </row>
     <row r="29" spans="3:48">
-      <c r="D29" s="23"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="24"/>
-      <c r="R29" s="24"/>
-      <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
-      <c r="U29" s="24"/>
-      <c r="V29" s="24"/>
-      <c r="W29" s="24"/>
-      <c r="X29" s="24"/>
-      <c r="Y29" s="24"/>
-      <c r="Z29" s="24"/>
-      <c r="AA29" s="24"/>
-      <c r="AB29" s="24"/>
-      <c r="AC29" s="24"/>
-      <c r="AD29" s="25"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="23"/>
     </row>
     <row r="35" spans="3:49">
       <c r="C35" t="s">
@@ -4462,1170 +4494,1178 @@
         <v>85</v>
       </c>
     </row>
-    <row r="38" spans="3:49" ht="15.75" thickBot="1"/>
+    <row r="38" spans="3:49" ht="14.25" thickBot="1"/>
     <row r="39" spans="3:49">
-      <c r="E39" s="10"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="12"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
-      <c r="V39" s="11"/>
-      <c r="W39" s="11"/>
-      <c r="X39" s="12"/>
-      <c r="AD39" s="10"/>
-      <c r="AE39" s="11"/>
-      <c r="AF39" s="11"/>
-      <c r="AG39" s="11"/>
-      <c r="AH39" s="11"/>
-      <c r="AI39" s="11"/>
-      <c r="AJ39" s="11"/>
-      <c r="AK39" s="11"/>
-      <c r="AL39" s="11"/>
-      <c r="AM39" s="12"/>
-      <c r="AN39" s="10"/>
-      <c r="AO39" s="11"/>
-      <c r="AP39" s="11"/>
-      <c r="AQ39" s="11"/>
-      <c r="AR39" s="11"/>
-      <c r="AS39" s="11"/>
-      <c r="AT39" s="11"/>
-      <c r="AU39" s="11"/>
-      <c r="AV39" s="11"/>
-      <c r="AW39" s="12"/>
+      <c r="E39" s="26">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="8">
+        <v>2400</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="10"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="9"/>
+      <c r="AP39" s="9"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="10"/>
     </row>
     <row r="40" spans="3:49">
-      <c r="E40" s="13"/>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="11"/>
+      <c r="F40" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="15"/>
-      <c r="O40" s="13"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="15"/>
-      <c r="AD40" s="13"/>
-      <c r="AE40" s="14" t="s">
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="13"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AF40" s="14"/>
-      <c r="AG40" s="14"/>
-      <c r="AH40" s="14"/>
-      <c r="AI40" s="14"/>
-      <c r="AJ40" s="14"/>
-      <c r="AK40" s="14"/>
-      <c r="AL40" s="14"/>
-      <c r="AM40" s="15"/>
-      <c r="AN40" s="13"/>
-      <c r="AO40" s="14"/>
-      <c r="AP40" s="14"/>
-      <c r="AQ40" s="14"/>
-      <c r="AR40" s="14"/>
-      <c r="AS40" s="14"/>
-      <c r="AT40" s="14"/>
-      <c r="AU40" s="14"/>
-      <c r="AV40" s="14"/>
-      <c r="AW40" s="15"/>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="13"/>
     </row>
     <row r="41" spans="3:49">
-      <c r="E41" s="13"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="14"/>
-      <c r="S41" s="14"/>
-      <c r="T41" s="14"/>
-      <c r="U41" s="14"/>
-      <c r="V41" s="14"/>
-      <c r="W41" s="14"/>
-      <c r="X41" s="15"/>
-      <c r="AD41" s="13"/>
-      <c r="AE41" s="14"/>
-      <c r="AF41" s="14"/>
-      <c r="AG41" s="14"/>
-      <c r="AH41" s="14"/>
-      <c r="AI41" s="14"/>
-      <c r="AJ41" s="14"/>
-      <c r="AK41" s="14"/>
-      <c r="AL41" s="14"/>
-      <c r="AM41" s="15"/>
-      <c r="AN41" s="13"/>
-      <c r="AO41" s="14"/>
-      <c r="AP41" s="14"/>
-      <c r="AQ41" s="14"/>
-      <c r="AR41" s="14"/>
-      <c r="AS41" s="14"/>
-      <c r="AT41" s="14"/>
-      <c r="AU41" s="14"/>
-      <c r="AV41" s="14"/>
-      <c r="AW41" s="15"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="13"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="13"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="13"/>
     </row>
     <row r="42" spans="3:49">
-      <c r="E42" s="13"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="14"/>
-      <c r="S42" s="14"/>
-      <c r="T42" s="14"/>
-      <c r="U42" s="14"/>
-      <c r="V42" s="14"/>
-      <c r="W42" s="14"/>
-      <c r="X42" s="15"/>
-      <c r="AD42" s="13"/>
-      <c r="AE42" s="14"/>
-      <c r="AF42" s="14"/>
-      <c r="AG42" s="14"/>
-      <c r="AH42" s="14"/>
-      <c r="AI42" s="14"/>
-      <c r="AJ42" s="14"/>
-      <c r="AK42" s="14"/>
-      <c r="AL42" s="14"/>
-      <c r="AM42" s="15"/>
-      <c r="AN42" s="13"/>
-      <c r="AO42" s="14"/>
-      <c r="AP42" s="14"/>
-      <c r="AQ42" s="14"/>
-      <c r="AR42" s="14"/>
-      <c r="AS42" s="14"/>
-      <c r="AT42" s="14"/>
-      <c r="AU42" s="14"/>
-      <c r="AV42" s="14"/>
-      <c r="AW42" s="15"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="13"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="13"/>
     </row>
     <row r="43" spans="3:49">
-      <c r="E43" s="13"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="14"/>
-      <c r="S43" s="14"/>
-      <c r="T43" s="14"/>
-      <c r="U43" s="14"/>
-      <c r="V43" s="14"/>
-      <c r="W43" s="14"/>
-      <c r="X43" s="15"/>
-      <c r="AD43" s="13"/>
-      <c r="AE43" s="14"/>
-      <c r="AF43" s="14"/>
-      <c r="AG43" s="14"/>
-      <c r="AH43" s="14"/>
-      <c r="AI43" s="14"/>
-      <c r="AJ43" s="14"/>
-      <c r="AK43" s="14"/>
-      <c r="AL43" s="14"/>
-      <c r="AM43" s="15"/>
-      <c r="AN43" s="13"/>
-      <c r="AO43" s="14"/>
-      <c r="AP43" s="14"/>
-      <c r="AQ43" s="14"/>
-      <c r="AR43" s="14"/>
-      <c r="AS43" s="14"/>
-      <c r="AT43" s="14"/>
-      <c r="AU43" s="14"/>
-      <c r="AV43" s="14"/>
-      <c r="AW43" s="15"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="13"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="13"/>
     </row>
     <row r="44" spans="3:49">
-      <c r="E44" s="13"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="13"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="15"/>
-      <c r="AD44" s="13"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="14"/>
-      <c r="AH44" s="14"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="15"/>
-      <c r="AN44" s="13"/>
-      <c r="AO44" s="14"/>
-      <c r="AP44" s="14"/>
-      <c r="AQ44" s="14"/>
-      <c r="AR44" s="14"/>
-      <c r="AS44" s="14"/>
-      <c r="AT44" s="14"/>
-      <c r="AU44" s="14"/>
-      <c r="AV44" s="14"/>
-      <c r="AW44" s="15"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="13"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="13"/>
     </row>
     <row r="45" spans="3:49">
-      <c r="E45" s="13"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="14"/>
-      <c r="T45" s="14"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="15"/>
-      <c r="AD45" s="13"/>
-      <c r="AE45" s="14"/>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="14"/>
-      <c r="AH45" s="14"/>
-      <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
-      <c r="AK45" s="14"/>
-      <c r="AL45" s="14"/>
-      <c r="AM45" s="15"/>
-      <c r="AN45" s="13"/>
-      <c r="AO45" s="14"/>
-      <c r="AP45" s="14"/>
-      <c r="AQ45" s="14"/>
-      <c r="AR45" s="14"/>
-      <c r="AS45" s="14"/>
-      <c r="AT45" s="14"/>
-      <c r="AU45" s="14"/>
-      <c r="AV45" s="14"/>
-      <c r="AW45" s="15"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="13"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="13"/>
     </row>
     <row r="46" spans="3:49">
-      <c r="E46" s="13"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="14"/>
-      <c r="R46" s="14"/>
-      <c r="S46" s="14"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="14"/>
-      <c r="W46" s="14"/>
-      <c r="X46" s="15"/>
-      <c r="AD46" s="13"/>
-      <c r="AE46" s="14"/>
-      <c r="AF46" s="14"/>
-      <c r="AG46" s="14"/>
-      <c r="AH46" s="14"/>
-      <c r="AI46" s="14"/>
-      <c r="AJ46" s="14"/>
-      <c r="AK46" s="14"/>
-      <c r="AL46" s="14"/>
-      <c r="AM46" s="15"/>
-      <c r="AN46" s="13"/>
-      <c r="AO46" s="14"/>
-      <c r="AP46" s="14"/>
-      <c r="AQ46" s="14"/>
-      <c r="AR46" s="14"/>
-      <c r="AS46" s="14"/>
-      <c r="AT46" s="14"/>
-      <c r="AU46" s="14"/>
-      <c r="AV46" s="14"/>
-      <c r="AW46" s="15"/>
-    </row>
-    <row r="47" spans="3:49" ht="15.75" thickBot="1">
-      <c r="E47" s="16"/>
-      <c r="F47" s="17"/>
-      <c r="G47" s="17"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
-      <c r="K47" s="17"/>
-      <c r="L47" s="17"/>
-      <c r="M47" s="17"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="16"/>
-      <c r="P47" s="17"/>
-      <c r="Q47" s="17"/>
-      <c r="R47" s="17"/>
-      <c r="S47" s="17"/>
-      <c r="T47" s="17"/>
-      <c r="U47" s="17"/>
-      <c r="V47" s="17"/>
-      <c r="W47" s="17"/>
-      <c r="X47" s="18"/>
-      <c r="AD47" s="16"/>
-      <c r="AE47" s="17"/>
-      <c r="AF47" s="17"/>
-      <c r="AG47" s="17"/>
-      <c r="AH47" s="17"/>
-      <c r="AI47" s="17"/>
-      <c r="AJ47" s="17"/>
-      <c r="AK47" s="17"/>
-      <c r="AL47" s="17"/>
-      <c r="AM47" s="18"/>
-      <c r="AN47" s="16"/>
-      <c r="AO47" s="17"/>
-      <c r="AP47" s="17"/>
-      <c r="AQ47" s="17"/>
-      <c r="AR47" s="17"/>
-      <c r="AS47" s="17"/>
-      <c r="AT47" s="17"/>
-      <c r="AU47" s="17"/>
-      <c r="AV47" s="17"/>
-      <c r="AW47" s="18"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="13"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="13"/>
+    </row>
+    <row r="47" spans="3:49" ht="14.25" thickBot="1">
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="16"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="15"/>
+      <c r="AP47" s="15"/>
+      <c r="AQ47" s="15"/>
+      <c r="AR47" s="15"/>
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="15"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="15"/>
+      <c r="AW47" s="16"/>
     </row>
     <row r="48" spans="3:49">
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-      <c r="J48" s="11"/>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11"/>
-      <c r="M48" s="11"/>
-      <c r="N48" s="12"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="11"/>
-      <c r="Q48" s="11"/>
-      <c r="R48" s="11"/>
-      <c r="S48" s="11"/>
-      <c r="T48" s="11"/>
-      <c r="U48" s="11"/>
-      <c r="V48" s="11"/>
-      <c r="W48" s="11"/>
-      <c r="X48" s="12"/>
-      <c r="AD48" s="10"/>
-      <c r="AE48" s="11"/>
-      <c r="AF48" s="11"/>
-      <c r="AG48" s="11"/>
-      <c r="AH48" s="11"/>
-      <c r="AI48" s="11"/>
-      <c r="AJ48" s="11"/>
-      <c r="AK48" s="11"/>
-      <c r="AL48" s="11"/>
-      <c r="AM48" s="12"/>
-      <c r="AN48" s="10"/>
-      <c r="AO48" s="11"/>
-      <c r="AP48" s="11"/>
-      <c r="AQ48" s="11"/>
-      <c r="AR48" s="11"/>
-      <c r="AS48" s="11"/>
-      <c r="AT48" s="11"/>
-      <c r="AU48" s="11"/>
-      <c r="AV48" s="11"/>
-      <c r="AW48" s="12"/>
+      <c r="E48" s="8">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="10"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="8"/>
+      <c r="AO48" s="9"/>
+      <c r="AP48" s="9"/>
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+      <c r="AV48" s="9"/>
+      <c r="AW48" s="10"/>
     </row>
     <row r="49" spans="5:49">
-      <c r="E49" s="13"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="15"/>
-      <c r="AD49" s="13"/>
-      <c r="AE49" s="14"/>
-      <c r="AF49" s="14"/>
-      <c r="AG49" s="14"/>
-      <c r="AH49" s="14"/>
-      <c r="AI49" s="14"/>
-      <c r="AJ49" s="14"/>
-      <c r="AK49" s="14"/>
-      <c r="AL49" s="14"/>
-      <c r="AM49" s="15"/>
-      <c r="AN49" s="13"/>
-      <c r="AO49" s="14"/>
-      <c r="AP49" s="14"/>
-      <c r="AQ49" s="14"/>
-      <c r="AR49" s="14"/>
-      <c r="AS49" s="14"/>
-      <c r="AT49" s="14"/>
-      <c r="AU49" s="14"/>
-      <c r="AV49" s="14"/>
-      <c r="AW49" s="15"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="13"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="12"/>
+      <c r="AW49" s="13"/>
     </row>
     <row r="50" spans="5:49">
-      <c r="E50" s="13"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="14"/>
-      <c r="R50" s="14"/>
-      <c r="S50" s="14"/>
-      <c r="T50" s="14"/>
-      <c r="U50" s="14"/>
-      <c r="V50" s="14"/>
-      <c r="W50" s="14"/>
-      <c r="X50" s="15"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="14"/>
-      <c r="AF50" s="14"/>
-      <c r="AG50" s="14"/>
-      <c r="AH50" s="14"/>
-      <c r="AI50" s="14"/>
-      <c r="AJ50" s="14"/>
-      <c r="AK50" s="14"/>
-      <c r="AL50" s="14"/>
-      <c r="AM50" s="15"/>
-      <c r="AN50" s="13"/>
-      <c r="AO50" s="14"/>
-      <c r="AP50" s="14"/>
-      <c r="AQ50" s="14"/>
-      <c r="AR50" s="14"/>
-      <c r="AS50" s="14"/>
-      <c r="AT50" s="14"/>
-      <c r="AU50" s="14"/>
-      <c r="AV50" s="14"/>
-      <c r="AW50" s="15"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="13"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="13"/>
     </row>
     <row r="51" spans="5:49">
-      <c r="E51" s="13"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="14"/>
-      <c r="R51" s="14"/>
-      <c r="S51" s="14"/>
-      <c r="T51" s="14"/>
-      <c r="U51" s="14"/>
-      <c r="V51" s="14"/>
-      <c r="W51" s="14"/>
-      <c r="X51" s="15"/>
-      <c r="AD51" s="13"/>
-      <c r="AE51" s="14"/>
-      <c r="AF51" s="14"/>
-      <c r="AG51" s="14"/>
-      <c r="AH51" s="14"/>
-      <c r="AI51" s="14"/>
-      <c r="AJ51" s="14"/>
-      <c r="AK51" s="14"/>
-      <c r="AL51" s="14"/>
-      <c r="AM51" s="15"/>
-      <c r="AN51" s="13"/>
-      <c r="AO51" s="14"/>
-      <c r="AP51" s="14"/>
-      <c r="AQ51" s="14"/>
-      <c r="AR51" s="14"/>
-      <c r="AS51" s="14"/>
-      <c r="AT51" s="14"/>
-      <c r="AU51" s="14"/>
-      <c r="AV51" s="14"/>
-      <c r="AW51" s="15"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="13"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="12"/>
+      <c r="AW51" s="13"/>
     </row>
     <row r="52" spans="5:49">
-      <c r="E52" s="13"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="14"/>
-      <c r="M52" s="14"/>
-      <c r="N52" s="15"/>
-      <c r="O52" s="13"/>
-      <c r="P52" s="14"/>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="14"/>
-      <c r="S52" s="14"/>
-      <c r="T52" s="14"/>
-      <c r="U52" s="14"/>
-      <c r="V52" s="14"/>
-      <c r="W52" s="14"/>
-      <c r="X52" s="15"/>
-      <c r="AD52" s="13"/>
-      <c r="AE52" s="14"/>
-      <c r="AF52" s="14"/>
-      <c r="AG52" s="14"/>
-      <c r="AH52" s="14"/>
-      <c r="AI52" s="14"/>
-      <c r="AJ52" s="14"/>
-      <c r="AK52" s="14"/>
-      <c r="AL52" s="14"/>
-      <c r="AM52" s="15"/>
-      <c r="AN52" s="13"/>
-      <c r="AO52" s="14"/>
-      <c r="AP52" s="14"/>
-      <c r="AQ52" s="14"/>
-      <c r="AR52" s="14"/>
-      <c r="AS52" s="14"/>
-      <c r="AT52" s="14"/>
-      <c r="AU52" s="14"/>
-      <c r="AV52" s="14"/>
-      <c r="AW52" s="15"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="13"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12"/>
+      <c r="AW52" s="13"/>
     </row>
     <row r="53" spans="5:49">
-      <c r="E53" s="13"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="15"/>
-      <c r="AD53" s="13"/>
-      <c r="AE53" s="14"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="14"/>
-      <c r="AJ53" s="14"/>
-      <c r="AK53" s="14"/>
-      <c r="AL53" s="14"/>
-      <c r="AM53" s="15"/>
-      <c r="AN53" s="13"/>
-      <c r="AO53" s="14"/>
-      <c r="AP53" s="14"/>
-      <c r="AQ53" s="14"/>
-      <c r="AR53" s="14"/>
-      <c r="AS53" s="14"/>
-      <c r="AT53" s="14"/>
-      <c r="AU53" s="14"/>
-      <c r="AV53" s="14"/>
-      <c r="AW53" s="15"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="13"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="12"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12"/>
+      <c r="AW53" s="13"/>
     </row>
     <row r="54" spans="5:49">
-      <c r="E54" s="13"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="14"/>
-      <c r="S54" s="14"/>
-      <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="14"/>
-      <c r="W54" s="14"/>
-      <c r="X54" s="15"/>
-      <c r="AD54" s="13"/>
-      <c r="AE54" s="14"/>
-      <c r="AF54" s="14"/>
-      <c r="AG54" s="14"/>
-      <c r="AH54" s="14"/>
-      <c r="AI54" s="14"/>
-      <c r="AJ54" s="14"/>
-      <c r="AK54" s="14"/>
-      <c r="AL54" s="14"/>
-      <c r="AM54" s="15"/>
-      <c r="AN54" s="13"/>
-      <c r="AO54" s="14"/>
-      <c r="AP54" s="14"/>
-      <c r="AQ54" s="14"/>
-      <c r="AR54" s="14"/>
-      <c r="AS54" s="14"/>
-      <c r="AT54" s="14"/>
-      <c r="AU54" s="14"/>
-      <c r="AV54" s="14"/>
-      <c r="AW54" s="15"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="13"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="13"/>
     </row>
     <row r="55" spans="5:49">
-      <c r="E55" s="13"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="14"/>
-      <c r="R55" s="14"/>
-      <c r="S55" s="14"/>
-      <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
-      <c r="V55" s="14"/>
-      <c r="W55" s="14"/>
-      <c r="X55" s="15"/>
-      <c r="AD55" s="13"/>
-      <c r="AE55" s="14"/>
-      <c r="AF55" s="14"/>
-      <c r="AG55" s="14"/>
-      <c r="AH55" s="14"/>
-      <c r="AI55" s="14"/>
-      <c r="AJ55" s="14"/>
-      <c r="AK55" s="14"/>
-      <c r="AL55" s="14"/>
-      <c r="AM55" s="15"/>
-      <c r="AN55" s="13"/>
-      <c r="AO55" s="14"/>
-      <c r="AP55" s="14"/>
-      <c r="AQ55" s="14"/>
-      <c r="AR55" s="14"/>
-      <c r="AS55" s="14"/>
-      <c r="AT55" s="14"/>
-      <c r="AU55" s="14"/>
-      <c r="AV55" s="14"/>
-      <c r="AW55" s="15"/>
-    </row>
-    <row r="56" spans="5:49" ht="15.75" thickBot="1">
-      <c r="E56" s="16"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="17"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
-      <c r="K56" s="17"/>
-      <c r="L56" s="17"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="17"/>
-      <c r="Q56" s="17"/>
-      <c r="R56" s="17"/>
-      <c r="S56" s="17"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="17"/>
-      <c r="V56" s="17"/>
-      <c r="W56" s="17"/>
-      <c r="X56" s="18"/>
-      <c r="AD56" s="16"/>
-      <c r="AE56" s="17"/>
-      <c r="AF56" s="17"/>
-      <c r="AG56" s="17"/>
-      <c r="AH56" s="17"/>
-      <c r="AI56" s="17"/>
-      <c r="AJ56" s="17"/>
-      <c r="AK56" s="17"/>
-      <c r="AL56" s="17"/>
-      <c r="AM56" s="18"/>
-      <c r="AN56" s="16"/>
-      <c r="AO56" s="17"/>
-      <c r="AP56" s="17"/>
-      <c r="AQ56" s="17"/>
-      <c r="AR56" s="17"/>
-      <c r="AS56" s="17"/>
-      <c r="AT56" s="17"/>
-      <c r="AU56" s="17"/>
-      <c r="AV56" s="17"/>
-      <c r="AW56" s="18"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="13"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="13"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12"/>
+      <c r="AW55" s="13"/>
+    </row>
+    <row r="56" spans="5:49" ht="14.25" thickBot="1">
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="16"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
+      <c r="AH56" s="15"/>
+      <c r="AI56" s="15"/>
+      <c r="AJ56" s="15"/>
+      <c r="AK56" s="15"/>
+      <c r="AL56" s="15"/>
+      <c r="AM56" s="16"/>
+      <c r="AN56" s="14"/>
+      <c r="AO56" s="15"/>
+      <c r="AP56" s="15"/>
+      <c r="AQ56" s="15"/>
+      <c r="AR56" s="15"/>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="15"/>
+      <c r="AU56" s="15"/>
+      <c r="AV56" s="15"/>
+      <c r="AW56" s="16"/>
     </row>
     <row r="59" spans="5:49">
       <c r="AD59" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="5:49" ht="15.75" thickBot="1"/>
+    <row r="60" spans="5:49" ht="14.25" thickBot="1"/>
     <row r="61" spans="5:49">
-      <c r="AD61" s="10"/>
-      <c r="AE61" s="11"/>
-      <c r="AF61" s="11"/>
-      <c r="AG61" s="11"/>
-      <c r="AH61" s="11"/>
-      <c r="AI61" s="11"/>
-      <c r="AJ61" s="11"/>
-      <c r="AK61" s="11"/>
-      <c r="AL61" s="11"/>
-      <c r="AM61" s="12"/>
-      <c r="AN61" s="10"/>
-      <c r="AO61" s="11"/>
-      <c r="AP61" s="11"/>
-      <c r="AQ61" s="11"/>
-      <c r="AR61" s="11"/>
-      <c r="AS61" s="11"/>
-      <c r="AT61" s="11"/>
-      <c r="AU61" s="11"/>
-      <c r="AV61" s="11"/>
-      <c r="AW61" s="12"/>
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="9"/>
+      <c r="AP61" s="9"/>
+      <c r="AQ61" s="9"/>
+      <c r="AR61" s="9"/>
+      <c r="AS61" s="9"/>
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="9"/>
+      <c r="AV61" s="9"/>
+      <c r="AW61" s="10"/>
     </row>
     <row r="62" spans="5:49">
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="14" t="s">
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AF62" s="14"/>
-      <c r="AG62" s="14"/>
-      <c r="AH62" s="14"/>
-      <c r="AI62" s="14"/>
-      <c r="AJ62" s="14"/>
-      <c r="AK62" s="14"/>
-      <c r="AL62" s="14"/>
-      <c r="AM62" s="15"/>
-      <c r="AN62" s="13"/>
-      <c r="AO62" s="14"/>
-      <c r="AP62" s="14"/>
-      <c r="AQ62" s="14"/>
-      <c r="AR62" s="14"/>
-      <c r="AS62" s="14"/>
-      <c r="AT62" s="14"/>
-      <c r="AU62" s="14"/>
-      <c r="AV62" s="14"/>
-      <c r="AW62" s="15"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="11"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="12"/>
+      <c r="AW62" s="13"/>
     </row>
     <row r="63" spans="5:49">
-      <c r="AD63" s="13"/>
-      <c r="AE63" s="14"/>
-      <c r="AF63" s="14"/>
-      <c r="AG63" s="14"/>
-      <c r="AH63" s="14"/>
-      <c r="AI63" s="14"/>
-      <c r="AJ63" s="14"/>
-      <c r="AK63" s="14"/>
-      <c r="AL63" s="14"/>
-      <c r="AM63" s="15"/>
-      <c r="AN63" s="13"/>
-      <c r="AO63" s="14"/>
-      <c r="AP63" s="14"/>
-      <c r="AQ63" s="14"/>
-      <c r="AR63" s="14"/>
-      <c r="AS63" s="14"/>
-      <c r="AT63" s="14"/>
-      <c r="AU63" s="14"/>
-      <c r="AV63" s="14"/>
-      <c r="AW63" s="15"/>
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="13"/>
+      <c r="AN63" s="11"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="12"/>
+      <c r="AW63" s="13"/>
     </row>
     <row r="64" spans="5:49">
-      <c r="AD64" s="13"/>
-      <c r="AE64" s="14"/>
-      <c r="AF64" s="14"/>
-      <c r="AG64" s="14"/>
-      <c r="AH64" s="14"/>
-      <c r="AI64" s="14"/>
-      <c r="AJ64" s="14"/>
-      <c r="AK64" s="14"/>
-      <c r="AL64" s="14"/>
-      <c r="AM64" s="15"/>
-      <c r="AN64" s="13"/>
-      <c r="AO64" s="14"/>
-      <c r="AP64" s="14"/>
-      <c r="AQ64" s="14"/>
-      <c r="AR64" s="14"/>
-      <c r="AS64" s="14"/>
-      <c r="AT64" s="14"/>
-      <c r="AU64" s="14"/>
-      <c r="AV64" s="14"/>
-      <c r="AW64" s="15"/>
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="13"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="12"/>
+      <c r="AU64" s="12"/>
+      <c r="AV64" s="12"/>
+      <c r="AW64" s="13"/>
     </row>
     <row r="65" spans="30:49">
-      <c r="AD65" s="13"/>
-      <c r="AE65" s="14"/>
-      <c r="AF65" s="14"/>
-      <c r="AG65" s="14"/>
-      <c r="AH65" s="14"/>
-      <c r="AI65" s="14"/>
-      <c r="AJ65" s="14"/>
-      <c r="AK65" s="14"/>
-      <c r="AL65" s="14"/>
-      <c r="AM65" s="15"/>
-      <c r="AN65" s="13"/>
-      <c r="AO65" s="14"/>
-      <c r="AP65" s="14"/>
-      <c r="AQ65" s="14"/>
-      <c r="AR65" s="14"/>
-      <c r="AS65" s="14"/>
-      <c r="AT65" s="14"/>
-      <c r="AU65" s="14"/>
-      <c r="AV65" s="14"/>
-      <c r="AW65" s="15"/>
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="13"/>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="12"/>
+      <c r="AU65" s="12"/>
+      <c r="AV65" s="12"/>
+      <c r="AW65" s="13"/>
     </row>
     <row r="66" spans="30:49">
-      <c r="AD66" s="13"/>
-      <c r="AE66" s="14"/>
-      <c r="AF66" s="14"/>
-      <c r="AG66" s="14"/>
-      <c r="AH66" s="14"/>
-      <c r="AI66" s="14"/>
-      <c r="AJ66" s="14"/>
-      <c r="AK66" s="14"/>
-      <c r="AL66" s="14"/>
-      <c r="AM66" s="15"/>
-      <c r="AN66" s="13"/>
-      <c r="AO66" s="14"/>
-      <c r="AP66" s="14"/>
-      <c r="AQ66" s="14"/>
-      <c r="AR66" s="14"/>
-      <c r="AS66" s="14"/>
-      <c r="AT66" s="14"/>
-      <c r="AU66" s="14"/>
-      <c r="AV66" s="14"/>
-      <c r="AW66" s="15"/>
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="13"/>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+      <c r="AS66" s="12"/>
+      <c r="AT66" s="12"/>
+      <c r="AU66" s="12"/>
+      <c r="AV66" s="12"/>
+      <c r="AW66" s="13"/>
     </row>
     <row r="67" spans="30:49">
-      <c r="AD67" s="13"/>
-      <c r="AE67" s="14"/>
-      <c r="AF67" s="14"/>
-      <c r="AG67" s="14"/>
-      <c r="AH67" s="14"/>
-      <c r="AI67" s="14"/>
-      <c r="AJ67" s="14"/>
-      <c r="AK67" s="14"/>
-      <c r="AL67" s="14"/>
-      <c r="AM67" s="15"/>
-      <c r="AN67" s="13"/>
-      <c r="AO67" s="14"/>
-      <c r="AP67" s="14"/>
-      <c r="AQ67" s="14"/>
-      <c r="AR67" s="14"/>
-      <c r="AS67" s="14"/>
-      <c r="AT67" s="14"/>
-      <c r="AU67" s="14"/>
-      <c r="AV67" s="14"/>
-      <c r="AW67" s="15"/>
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="13"/>
+      <c r="AN67" s="11"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="12"/>
+      <c r="AU67" s="12"/>
+      <c r="AV67" s="12"/>
+      <c r="AW67" s="13"/>
     </row>
     <row r="68" spans="30:49">
-      <c r="AD68" s="13"/>
-      <c r="AE68" s="14"/>
-      <c r="AF68" s="14"/>
-      <c r="AG68" s="14"/>
-      <c r="AH68" s="14"/>
-      <c r="AI68" s="14"/>
-      <c r="AJ68" s="14"/>
-      <c r="AK68" s="14"/>
-      <c r="AL68" s="14"/>
-      <c r="AM68" s="15"/>
-      <c r="AN68" s="13"/>
-      <c r="AO68" s="14"/>
-      <c r="AP68" s="14"/>
-      <c r="AQ68" s="14"/>
-      <c r="AR68" s="14"/>
-      <c r="AS68" s="14"/>
-      <c r="AT68" s="14"/>
-      <c r="AU68" s="14"/>
-      <c r="AV68" s="14"/>
-      <c r="AW68" s="15"/>
-    </row>
-    <row r="69" spans="30:49" ht="15.75" thickBot="1">
-      <c r="AD69" s="16"/>
-      <c r="AE69" s="17"/>
-      <c r="AF69" s="17"/>
-      <c r="AG69" s="17"/>
-      <c r="AH69" s="17"/>
-      <c r="AI69" s="17"/>
-      <c r="AJ69" s="17"/>
-      <c r="AK69" s="17"/>
-      <c r="AL69" s="17"/>
-      <c r="AM69" s="18"/>
-      <c r="AN69" s="16"/>
-      <c r="AO69" s="17"/>
-      <c r="AP69" s="17"/>
-      <c r="AQ69" s="17"/>
-      <c r="AR69" s="17"/>
-      <c r="AS69" s="17"/>
-      <c r="AT69" s="17"/>
-      <c r="AU69" s="17"/>
-      <c r="AV69" s="17"/>
-      <c r="AW69" s="18"/>
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="13"/>
+      <c r="AN68" s="11"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="12"/>
+      <c r="AW68" s="13"/>
+    </row>
+    <row r="69" spans="30:49" ht="14.25" thickBot="1">
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+      <c r="AH69" s="15"/>
+      <c r="AI69" s="15"/>
+      <c r="AJ69" s="15"/>
+      <c r="AK69" s="15"/>
+      <c r="AL69" s="15"/>
+      <c r="AM69" s="16"/>
+      <c r="AN69" s="14"/>
+      <c r="AO69" s="15"/>
+      <c r="AP69" s="15"/>
+      <c r="AQ69" s="15"/>
+      <c r="AR69" s="15"/>
+      <c r="AS69" s="15"/>
+      <c r="AT69" s="15"/>
+      <c r="AU69" s="15"/>
+      <c r="AV69" s="15"/>
+      <c r="AW69" s="16"/>
     </row>
     <row r="70" spans="30:49">
-      <c r="AD70" s="10"/>
-      <c r="AE70" s="11"/>
-      <c r="AF70" s="11"/>
-      <c r="AG70" s="11"/>
-      <c r="AH70" s="11"/>
-      <c r="AI70" s="11"/>
-      <c r="AJ70" s="11"/>
-      <c r="AK70" s="11"/>
-      <c r="AL70" s="11"/>
-      <c r="AM70" s="12"/>
-      <c r="AN70" s="10"/>
-      <c r="AO70" s="11"/>
-      <c r="AP70" s="11"/>
-      <c r="AQ70" s="11"/>
-      <c r="AR70" s="11"/>
-      <c r="AS70" s="11"/>
-      <c r="AT70" s="11"/>
-      <c r="AU70" s="11"/>
-      <c r="AV70" s="11"/>
-      <c r="AW70" s="12"/>
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="9"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="8"/>
+      <c r="AO70" s="9"/>
+      <c r="AP70" s="9"/>
+      <c r="AQ70" s="9"/>
+      <c r="AR70" s="9"/>
+      <c r="AS70" s="9"/>
+      <c r="AT70" s="9"/>
+      <c r="AU70" s="9"/>
+      <c r="AV70" s="9"/>
+      <c r="AW70" s="10"/>
     </row>
     <row r="71" spans="30:49">
-      <c r="AD71" s="13"/>
-      <c r="AE71" s="14"/>
-      <c r="AF71" s="14"/>
-      <c r="AG71" s="14"/>
-      <c r="AH71" s="14"/>
-      <c r="AI71" s="14"/>
-      <c r="AJ71" s="14"/>
-      <c r="AK71" s="14"/>
-      <c r="AL71" s="14"/>
-      <c r="AM71" s="15"/>
-      <c r="AN71" s="13"/>
-      <c r="AO71" s="14"/>
-      <c r="AP71" s="14"/>
-      <c r="AQ71" s="14"/>
-      <c r="AR71" s="14"/>
-      <c r="AS71" s="14"/>
-      <c r="AT71" s="14"/>
-      <c r="AU71" s="14"/>
-      <c r="AV71" s="14"/>
-      <c r="AW71" s="15"/>
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="13"/>
+      <c r="AN71" s="11"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+      <c r="AT71" s="12"/>
+      <c r="AU71" s="12"/>
+      <c r="AV71" s="12"/>
+      <c r="AW71" s="13"/>
     </row>
     <row r="72" spans="30:49">
-      <c r="AD72" s="13"/>
-      <c r="AE72" s="14"/>
-      <c r="AF72" s="14"/>
-      <c r="AG72" s="14"/>
-      <c r="AH72" s="14"/>
-      <c r="AI72" s="14"/>
-      <c r="AJ72" s="14"/>
-      <c r="AK72" s="14"/>
-      <c r="AL72" s="14"/>
-      <c r="AM72" s="15"/>
-      <c r="AN72" s="13"/>
-      <c r="AO72" s="14"/>
-      <c r="AP72" s="14"/>
-      <c r="AQ72" s="14"/>
-      <c r="AR72" s="14"/>
-      <c r="AS72" s="14"/>
-      <c r="AT72" s="14"/>
-      <c r="AU72" s="14"/>
-      <c r="AV72" s="14"/>
-      <c r="AW72" s="15"/>
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="13"/>
+      <c r="AN72" s="11"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="12"/>
+      <c r="AW72" s="13"/>
     </row>
     <row r="73" spans="30:49">
-      <c r="AD73" s="13"/>
-      <c r="AE73" s="14"/>
-      <c r="AF73" s="14"/>
-      <c r="AG73" s="14"/>
-      <c r="AH73" s="14"/>
-      <c r="AI73" s="14"/>
-      <c r="AJ73" s="14"/>
-      <c r="AK73" s="14"/>
-      <c r="AL73" s="14"/>
-      <c r="AM73" s="15"/>
-      <c r="AN73" s="13"/>
-      <c r="AO73" s="14"/>
-      <c r="AP73" s="14"/>
-      <c r="AQ73" s="14"/>
-      <c r="AR73" s="14"/>
-      <c r="AS73" s="14"/>
-      <c r="AT73" s="14"/>
-      <c r="AU73" s="14"/>
-      <c r="AV73" s="14"/>
-      <c r="AW73" s="15"/>
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="11"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12"/>
+      <c r="AS73" s="12"/>
+      <c r="AT73" s="12"/>
+      <c r="AU73" s="12"/>
+      <c r="AV73" s="12"/>
+      <c r="AW73" s="13"/>
     </row>
     <row r="74" spans="30:49">
-      <c r="AD74" s="13"/>
-      <c r="AE74" s="14"/>
-      <c r="AF74" s="14"/>
-      <c r="AG74" s="14"/>
-      <c r="AH74" s="14"/>
-      <c r="AI74" s="14"/>
-      <c r="AJ74" s="14"/>
-      <c r="AK74" s="14"/>
-      <c r="AL74" s="14"/>
-      <c r="AM74" s="15"/>
-      <c r="AN74" s="13"/>
-      <c r="AO74" s="14"/>
-      <c r="AP74" s="14"/>
-      <c r="AQ74" s="14"/>
-      <c r="AR74" s="14"/>
-      <c r="AS74" s="14"/>
-      <c r="AT74" s="14"/>
-      <c r="AU74" s="14"/>
-      <c r="AV74" s="14"/>
-      <c r="AW74" s="15"/>
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="13"/>
+      <c r="AN74" s="11"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
+      <c r="AQ74" s="12"/>
+      <c r="AR74" s="12"/>
+      <c r="AS74" s="12"/>
+      <c r="AT74" s="12"/>
+      <c r="AU74" s="12"/>
+      <c r="AV74" s="12"/>
+      <c r="AW74" s="13"/>
     </row>
     <row r="75" spans="30:49">
-      <c r="AD75" s="13"/>
-      <c r="AE75" s="14"/>
-      <c r="AF75" s="14"/>
-      <c r="AG75" s="14"/>
-      <c r="AH75" s="14"/>
-      <c r="AI75" s="14"/>
-      <c r="AJ75" s="14"/>
-      <c r="AK75" s="14"/>
-      <c r="AL75" s="14"/>
-      <c r="AM75" s="15"/>
-      <c r="AN75" s="13"/>
-      <c r="AO75" s="14"/>
-      <c r="AP75" s="14"/>
-      <c r="AQ75" s="14"/>
-      <c r="AR75" s="14"/>
-      <c r="AS75" s="14"/>
-      <c r="AT75" s="14"/>
-      <c r="AU75" s="14"/>
-      <c r="AV75" s="14"/>
-      <c r="AW75" s="15"/>
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="13"/>
+      <c r="AN75" s="11"/>
+      <c r="AO75" s="12"/>
+      <c r="AP75" s="12"/>
+      <c r="AQ75" s="12"/>
+      <c r="AR75" s="12"/>
+      <c r="AS75" s="12"/>
+      <c r="AT75" s="12"/>
+      <c r="AU75" s="12"/>
+      <c r="AV75" s="12"/>
+      <c r="AW75" s="13"/>
     </row>
     <row r="76" spans="30:49">
-      <c r="AD76" s="13"/>
-      <c r="AE76" s="14"/>
-      <c r="AF76" s="14"/>
-      <c r="AG76" s="14"/>
-      <c r="AH76" s="14"/>
-      <c r="AI76" s="14"/>
-      <c r="AJ76" s="14"/>
-      <c r="AK76" s="14"/>
-      <c r="AL76" s="14"/>
-      <c r="AM76" s="15"/>
-      <c r="AN76" s="13"/>
-      <c r="AO76" s="14"/>
-      <c r="AP76" s="14"/>
-      <c r="AQ76" s="14"/>
-      <c r="AR76" s="14"/>
-      <c r="AS76" s="14"/>
-      <c r="AT76" s="14"/>
-      <c r="AU76" s="14"/>
-      <c r="AV76" s="14"/>
-      <c r="AW76" s="15"/>
+      <c r="AD76" s="11"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="12"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="13"/>
+      <c r="AN76" s="11"/>
+      <c r="AO76" s="12"/>
+      <c r="AP76" s="12"/>
+      <c r="AQ76" s="12"/>
+      <c r="AR76" s="12"/>
+      <c r="AS76" s="12"/>
+      <c r="AT76" s="12"/>
+      <c r="AU76" s="12"/>
+      <c r="AV76" s="12"/>
+      <c r="AW76" s="13"/>
     </row>
     <row r="77" spans="30:49">
-      <c r="AD77" s="13"/>
-      <c r="AE77" s="14"/>
-      <c r="AF77" s="14"/>
-      <c r="AG77" s="14"/>
-      <c r="AH77" s="14"/>
-      <c r="AI77" s="14"/>
-      <c r="AJ77" s="14"/>
-      <c r="AK77" s="14"/>
-      <c r="AL77" s="14"/>
-      <c r="AM77" s="15"/>
-      <c r="AN77" s="13"/>
-      <c r="AO77" s="14"/>
-      <c r="AP77" s="14"/>
-      <c r="AQ77" s="14"/>
-      <c r="AR77" s="14"/>
-      <c r="AS77" s="14"/>
-      <c r="AT77" s="14"/>
-      <c r="AU77" s="14"/>
-      <c r="AV77" s="14"/>
-      <c r="AW77" s="15"/>
-    </row>
-    <row r="78" spans="30:49" ht="15.75" thickBot="1">
-      <c r="AD78" s="16"/>
-      <c r="AE78" s="17"/>
-      <c r="AF78" s="17"/>
-      <c r="AG78" s="17"/>
-      <c r="AH78" s="17"/>
-      <c r="AI78" s="17"/>
-      <c r="AJ78" s="17"/>
-      <c r="AK78" s="17"/>
-      <c r="AL78" s="17"/>
-      <c r="AM78" s="18"/>
-      <c r="AN78" s="16"/>
-      <c r="AO78" s="17"/>
-      <c r="AP78" s="17"/>
-      <c r="AQ78" s="17"/>
-      <c r="AR78" s="17"/>
-      <c r="AS78" s="17"/>
-      <c r="AT78" s="17"/>
-      <c r="AU78" s="17"/>
-      <c r="AV78" s="17"/>
-      <c r="AW78" s="18"/>
+      <c r="AD77" s="11"/>
+      <c r="AE77" s="12"/>
+      <c r="AF77" s="12"/>
+      <c r="AG77" s="12"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12"/>
+      <c r="AJ77" s="12"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="13"/>
+      <c r="AN77" s="11"/>
+      <c r="AO77" s="12"/>
+      <c r="AP77" s="12"/>
+      <c r="AQ77" s="12"/>
+      <c r="AR77" s="12"/>
+      <c r="AS77" s="12"/>
+      <c r="AT77" s="12"/>
+      <c r="AU77" s="12"/>
+      <c r="AV77" s="12"/>
+      <c r="AW77" s="13"/>
+    </row>
+    <row r="78" spans="30:49" ht="14.25" thickBot="1">
+      <c r="AD78" s="14"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15"/>
+      <c r="AJ78" s="15"/>
+      <c r="AK78" s="15"/>
+      <c r="AL78" s="15"/>
+      <c r="AM78" s="16"/>
+      <c r="AN78" s="14"/>
+      <c r="AO78" s="15"/>
+      <c r="AP78" s="15"/>
+      <c r="AQ78" s="15"/>
+      <c r="AR78" s="15"/>
+      <c r="AS78" s="15"/>
+      <c r="AT78" s="15"/>
+      <c r="AU78" s="15"/>
+      <c r="AV78" s="15"/>
+      <c r="AW78" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -306,6 +306,62 @@
   </si>
   <si>
     <t>32 x 30 tiles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>203b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v mirror</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2c00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(mirror)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2c53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2e40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>150=18 tile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83=10 tile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(150, 83)=2e93</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h mirror</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -356,12 +412,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="21">
@@ -586,7 +648,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -659,13 +721,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2660,6 +2728,242 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="15535275"/>
+          <a:ext cx="4914900" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="14335126"/>
+          <a:ext cx="4914900" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15687675" y="15535275"/>
+          <a:ext cx="2219325" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13306425" y="15535275"/>
+          <a:ext cx="2390775" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3053,10 +3357,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="25" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3064,8 +3368,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
@@ -3104,10 +3408,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="25" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3115,8 +3419,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
@@ -3255,10 +3559,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="24" t="s">
+      <c r="B29" s="25" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -3266,8 +3570,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
@@ -3295,10 +3599,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="25" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -3306,8 +3610,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
@@ -3407,22 +3711,22 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="24" t="s">
+      <c r="A47" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="25"/>
+      <c r="A48" s="26"/>
       <c r="B48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="26"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
@@ -3446,22 +3750,22 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="24" t="s">
+      <c r="A52" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="25"/>
+      <c r="A53" s="26"/>
       <c r="B53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
@@ -3485,31 +3789,25 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="24" t="s">
+      <c r="A57" s="25" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="25" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="25"/>
+      <c r="A58" s="26"/>
       <c r="B58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -3518,6 +3816,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3527,23 +3831,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C3:AW78"/>
+  <dimension ref="C3:BX117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="X74" workbookViewId="0">
+      <selection activeCell="AV85" sqref="AV85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="4" width="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.5" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="4" bestFit="1" customWidth="1"/>
     <col min="33" max="38" width="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.25" customWidth="1"/>
+    <col min="46" max="47" width="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:48">
@@ -4496,7 +4804,7 @@
     </row>
     <row r="38" spans="3:49" ht="14.25" thickBot="1"/>
     <row r="39" spans="3:49">
-      <c r="E39" s="26">
+      <c r="E39" s="24">
         <v>2000</v>
       </c>
       <c r="F39" s="9"/>
@@ -5667,6 +5975,2344 @@
       <c r="AV78" s="15"/>
       <c r="AW78" s="16"/>
     </row>
+    <row r="81" spans="6:76">
+      <c r="G81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="6:76">
+      <c r="S82" t="s">
+        <v>95</v>
+      </c>
+      <c r="X82">
+        <v>2443</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="6:76" ht="14.25" thickBot="1">
+      <c r="O83">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="6:76">
+      <c r="G84" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="8">
+        <v>2400</v>
+      </c>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="9"/>
+      <c r="AH84" s="9"/>
+      <c r="AI84" s="9"/>
+      <c r="AJ84" s="9"/>
+      <c r="AK84" s="9"/>
+      <c r="AL84" s="10"/>
+      <c r="AS84" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AT84" s="9"/>
+      <c r="AU84" s="9"/>
+      <c r="AV84" s="9"/>
+      <c r="AW84" s="9"/>
+      <c r="AX84" s="9"/>
+      <c r="AY84" s="9"/>
+      <c r="AZ84" s="9"/>
+      <c r="BA84" s="9"/>
+      <c r="BB84" s="9"/>
+      <c r="BC84" s="9"/>
+      <c r="BD84" s="9"/>
+      <c r="BE84" s="9"/>
+      <c r="BF84" s="9"/>
+      <c r="BG84" s="9"/>
+      <c r="BH84" s="10"/>
+      <c r="BI84" s="8">
+        <v>2400</v>
+      </c>
+      <c r="BJ84" s="9"/>
+      <c r="BK84" s="9"/>
+      <c r="BL84" s="9"/>
+      <c r="BM84" s="9"/>
+      <c r="BN84" s="9"/>
+      <c r="BO84" s="9"/>
+      <c r="BP84" s="9"/>
+      <c r="BQ84" s="9"/>
+      <c r="BR84" s="9"/>
+      <c r="BS84" s="9"/>
+      <c r="BT84" s="9"/>
+      <c r="BU84" s="9"/>
+      <c r="BV84" s="9"/>
+      <c r="BW84" s="9"/>
+      <c r="BX84" s="10"/>
+    </row>
+    <row r="85" spans="6:76">
+      <c r="G85" s="11">
+        <v>2020</v>
+      </c>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="11">
+        <v>2420</v>
+      </c>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="12"/>
+      <c r="AD85" s="12"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="13"/>
+      <c r="AS85" s="11">
+        <v>2020</v>
+      </c>
+      <c r="AT85" s="12"/>
+      <c r="AU85" s="12"/>
+      <c r="AV85" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW85" s="12"/>
+      <c r="AX85" s="12"/>
+      <c r="AY85" s="12"/>
+      <c r="AZ85" s="12"/>
+      <c r="BA85" s="12"/>
+      <c r="BB85" s="12"/>
+      <c r="BC85" s="12"/>
+      <c r="BD85" s="12"/>
+      <c r="BE85" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF85" s="12"/>
+      <c r="BG85" s="12"/>
+      <c r="BH85" s="13"/>
+      <c r="BI85" s="11">
+        <v>2420</v>
+      </c>
+      <c r="BJ85" s="12"/>
+      <c r="BK85" s="12"/>
+      <c r="BL85" s="12"/>
+      <c r="BM85" s="12"/>
+      <c r="BN85" s="12"/>
+      <c r="BO85" s="12"/>
+      <c r="BP85" s="12"/>
+      <c r="BQ85" s="12"/>
+      <c r="BR85" s="12"/>
+      <c r="BS85" s="12"/>
+      <c r="BT85" s="12"/>
+      <c r="BU85" s="12"/>
+      <c r="BV85" s="12"/>
+      <c r="BW85" s="12"/>
+      <c r="BX85" s="13"/>
+    </row>
+    <row r="86" spans="6:76">
+      <c r="G86" s="11">
+        <v>2040</v>
+      </c>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="11">
+        <v>2440</v>
+      </c>
+      <c r="X86" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="12"/>
+      <c r="AE86" s="12"/>
+      <c r="AF86" s="12"/>
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="12"/>
+      <c r="AJ86" s="12"/>
+      <c r="AK86" s="12"/>
+      <c r="AL86" s="13"/>
+      <c r="AS86" s="11">
+        <v>2040</v>
+      </c>
+      <c r="AT86" s="12"/>
+      <c r="AU86" s="12"/>
+      <c r="AV86" s="12"/>
+      <c r="AW86" s="12"/>
+      <c r="AX86" s="12"/>
+      <c r="AY86" s="12"/>
+      <c r="AZ86" s="12"/>
+      <c r="BA86" s="12"/>
+      <c r="BB86" s="12"/>
+      <c r="BC86" s="12"/>
+      <c r="BD86" s="12"/>
+      <c r="BE86" s="12"/>
+      <c r="BF86" s="12"/>
+      <c r="BG86" s="12"/>
+      <c r="BH86" s="13"/>
+      <c r="BI86" s="11">
+        <v>2440</v>
+      </c>
+      <c r="BJ86" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK86" s="12"/>
+      <c r="BL86" s="12"/>
+      <c r="BM86" s="12"/>
+      <c r="BN86" s="12"/>
+      <c r="BO86" s="12"/>
+      <c r="BP86" s="12"/>
+      <c r="BQ86" s="12"/>
+      <c r="BR86" s="12"/>
+      <c r="BS86" s="12"/>
+      <c r="BT86" s="12"/>
+      <c r="BU86" s="12"/>
+      <c r="BV86" s="12"/>
+      <c r="BW86" s="12"/>
+      <c r="BX86" s="13"/>
+    </row>
+    <row r="87" spans="6:76">
+      <c r="G87" s="11"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="12"/>
+      <c r="AC87" s="12"/>
+      <c r="AD87" s="12"/>
+      <c r="AE87" s="12"/>
+      <c r="AF87" s="12"/>
+      <c r="AG87" s="12"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="12"/>
+      <c r="AJ87" s="12"/>
+      <c r="AK87" s="12"/>
+      <c r="AL87" s="13"/>
+      <c r="AS87" s="11"/>
+      <c r="AT87" s="12"/>
+      <c r="AU87" s="12"/>
+      <c r="AV87" s="12"/>
+      <c r="AW87" s="12"/>
+      <c r="AX87" s="12"/>
+      <c r="AY87" s="12"/>
+      <c r="AZ87" s="12"/>
+      <c r="BA87" s="12"/>
+      <c r="BB87" s="12"/>
+      <c r="BC87" s="12"/>
+      <c r="BD87" s="12"/>
+      <c r="BE87" s="12"/>
+      <c r="BF87" s="12"/>
+      <c r="BG87" s="12"/>
+      <c r="BH87" s="13"/>
+      <c r="BI87" s="11"/>
+      <c r="BJ87" s="12"/>
+      <c r="BK87" s="12"/>
+      <c r="BL87" s="12"/>
+      <c r="BM87" s="12"/>
+      <c r="BN87" s="12"/>
+      <c r="BO87" s="12"/>
+      <c r="BP87" s="12"/>
+      <c r="BQ87" s="12"/>
+      <c r="BR87" s="12"/>
+      <c r="BS87" s="12"/>
+      <c r="BT87" s="12"/>
+      <c r="BU87" s="12"/>
+      <c r="BV87" s="12"/>
+      <c r="BW87" s="12"/>
+      <c r="BX87" s="13"/>
+    </row>
+    <row r="88" spans="6:76">
+      <c r="G88" s="11"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+      <c r="AC88" s="12"/>
+      <c r="AD88" s="12"/>
+      <c r="AE88" s="12"/>
+      <c r="AF88" s="12"/>
+      <c r="AG88" s="12"/>
+      <c r="AH88" s="12"/>
+      <c r="AI88" s="12"/>
+      <c r="AJ88" s="12"/>
+      <c r="AK88" s="12"/>
+      <c r="AL88" s="13"/>
+      <c r="AS88" s="11"/>
+      <c r="AT88" s="12"/>
+      <c r="AU88" s="12"/>
+      <c r="AV88" s="12"/>
+      <c r="AW88" s="12"/>
+      <c r="AX88" s="12"/>
+      <c r="AY88" s="12"/>
+      <c r="AZ88" s="12"/>
+      <c r="BA88" s="12"/>
+      <c r="BB88" s="12"/>
+      <c r="BC88" s="12"/>
+      <c r="BD88" s="12"/>
+      <c r="BE88" s="12"/>
+      <c r="BF88" s="12"/>
+      <c r="BG88" s="12"/>
+      <c r="BH88" s="13"/>
+      <c r="BI88" s="11"/>
+      <c r="BJ88" s="12"/>
+      <c r="BK88" s="12"/>
+      <c r="BL88" s="12"/>
+      <c r="BM88" s="12"/>
+      <c r="BN88" s="12"/>
+      <c r="BO88" s="12"/>
+      <c r="BP88" s="12"/>
+      <c r="BQ88" s="12"/>
+      <c r="BR88" s="12"/>
+      <c r="BS88" s="12"/>
+      <c r="BT88" s="12"/>
+      <c r="BU88" s="12"/>
+      <c r="BV88" s="12"/>
+      <c r="BW88" s="12"/>
+      <c r="BX88" s="13"/>
+    </row>
+    <row r="89" spans="6:76">
+      <c r="G89" s="11"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="12"/>
+      <c r="AC89" s="12"/>
+      <c r="AD89" s="12"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="12"/>
+      <c r="AG89" s="12"/>
+      <c r="AH89" s="12"/>
+      <c r="AI89" s="12"/>
+      <c r="AJ89" s="12"/>
+      <c r="AK89" s="12"/>
+      <c r="AL89" s="13"/>
+      <c r="AS89" s="11"/>
+      <c r="AT89" s="12"/>
+      <c r="AU89" s="12"/>
+      <c r="AV89" s="12"/>
+      <c r="AW89" s="12"/>
+      <c r="AX89" s="12"/>
+      <c r="AY89" s="12"/>
+      <c r="AZ89" s="12"/>
+      <c r="BA89" s="12"/>
+      <c r="BB89" s="12"/>
+      <c r="BC89" s="12"/>
+      <c r="BD89" s="12"/>
+      <c r="BE89" s="12"/>
+      <c r="BF89" s="12"/>
+      <c r="BG89" s="12"/>
+      <c r="BH89" s="13"/>
+      <c r="BI89" s="11"/>
+      <c r="BJ89" s="12"/>
+      <c r="BK89" s="12"/>
+      <c r="BL89" s="12"/>
+      <c r="BM89" s="12"/>
+      <c r="BN89" s="12"/>
+      <c r="BO89" s="12"/>
+      <c r="BP89" s="12"/>
+      <c r="BQ89" s="12"/>
+      <c r="BR89" s="12"/>
+      <c r="BS89" s="12"/>
+      <c r="BT89" s="12"/>
+      <c r="BU89" s="12"/>
+      <c r="BV89" s="12"/>
+      <c r="BW89" s="12"/>
+      <c r="BX89" s="13"/>
+    </row>
+    <row r="90" spans="6:76">
+      <c r="G90" s="11"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12"/>
+      <c r="AC90" s="12"/>
+      <c r="AD90" s="12"/>
+      <c r="AE90" s="12"/>
+      <c r="AF90" s="12"/>
+      <c r="AG90" s="12"/>
+      <c r="AH90" s="12"/>
+      <c r="AI90" s="12"/>
+      <c r="AJ90" s="12"/>
+      <c r="AK90" s="12"/>
+      <c r="AL90" s="13"/>
+      <c r="AS90" s="11"/>
+      <c r="AT90" s="12"/>
+      <c r="AU90" s="12"/>
+      <c r="AV90" s="12"/>
+      <c r="AW90" s="12"/>
+      <c r="AX90" s="12"/>
+      <c r="AY90" s="12"/>
+      <c r="AZ90" s="12"/>
+      <c r="BA90" s="12"/>
+      <c r="BB90" s="12"/>
+      <c r="BC90" s="12"/>
+      <c r="BD90" s="12"/>
+      <c r="BE90" s="12"/>
+      <c r="BF90" s="12"/>
+      <c r="BG90" s="12"/>
+      <c r="BH90" s="13"/>
+      <c r="BI90" s="11"/>
+      <c r="BJ90" s="12"/>
+      <c r="BK90" s="12"/>
+      <c r="BL90" s="12"/>
+      <c r="BM90" s="12"/>
+      <c r="BN90" s="12"/>
+      <c r="BO90" s="12"/>
+      <c r="BP90" s="12"/>
+      <c r="BQ90" s="12"/>
+      <c r="BR90" s="12"/>
+      <c r="BS90" s="12"/>
+      <c r="BT90" s="12"/>
+      <c r="BU90" s="12"/>
+      <c r="BV90" s="12"/>
+      <c r="BW90" s="12"/>
+      <c r="BX90" s="13"/>
+    </row>
+    <row r="91" spans="6:76">
+      <c r="F91">
+        <v>100</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="12"/>
+      <c r="AC91" s="12"/>
+      <c r="AD91" s="12"/>
+      <c r="AE91" s="12"/>
+      <c r="AF91" s="12"/>
+      <c r="AG91" s="12"/>
+      <c r="AH91" s="12"/>
+      <c r="AI91" s="12"/>
+      <c r="AJ91" s="12"/>
+      <c r="AK91" s="12"/>
+      <c r="AL91" s="13"/>
+      <c r="AS91" s="11"/>
+      <c r="AT91" s="12"/>
+      <c r="AU91" s="12"/>
+      <c r="AV91" s="12"/>
+      <c r="AW91" s="12"/>
+      <c r="AX91" s="12"/>
+      <c r="AY91" s="12"/>
+      <c r="AZ91" s="12"/>
+      <c r="BA91" s="12"/>
+      <c r="BB91" s="12"/>
+      <c r="BC91" s="12"/>
+      <c r="BD91" s="12"/>
+      <c r="BE91" s="12"/>
+      <c r="BF91" s="12"/>
+      <c r="BG91" s="12"/>
+      <c r="BH91" s="13"/>
+      <c r="BI91" s="11"/>
+      <c r="BJ91" s="12"/>
+      <c r="BK91" s="12"/>
+      <c r="BL91" s="12"/>
+      <c r="BM91" s="12"/>
+      <c r="BN91" s="12"/>
+      <c r="BO91" s="12"/>
+      <c r="BP91" s="12"/>
+      <c r="BQ91" s="12"/>
+      <c r="BR91" s="12"/>
+      <c r="BS91" s="12"/>
+      <c r="BT91" s="12"/>
+      <c r="BU91" s="12"/>
+      <c r="BV91" s="12"/>
+      <c r="BW91" s="12"/>
+      <c r="BX91" s="13"/>
+    </row>
+    <row r="92" spans="6:76">
+      <c r="G92" s="11"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12"/>
+      <c r="AC92" s="12"/>
+      <c r="AD92" s="12"/>
+      <c r="AE92" s="12"/>
+      <c r="AF92" s="12"/>
+      <c r="AG92" s="12"/>
+      <c r="AH92" s="12"/>
+      <c r="AI92" s="12"/>
+      <c r="AJ92" s="12"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="13"/>
+      <c r="AS92" s="11"/>
+      <c r="AT92" s="12"/>
+      <c r="AU92" s="12"/>
+      <c r="AV92" s="12"/>
+      <c r="AW92" s="12"/>
+      <c r="AX92" s="12"/>
+      <c r="AY92" s="12"/>
+      <c r="AZ92" s="12"/>
+      <c r="BA92" s="12"/>
+      <c r="BB92" s="12"/>
+      <c r="BC92" s="12"/>
+      <c r="BD92" s="12"/>
+      <c r="BE92" s="12"/>
+      <c r="BF92" s="12"/>
+      <c r="BG92" s="12"/>
+      <c r="BH92" s="13"/>
+      <c r="BI92" s="11"/>
+      <c r="BJ92" s="12"/>
+      <c r="BK92" s="12"/>
+      <c r="BL92" s="12"/>
+      <c r="BM92" s="12"/>
+      <c r="BN92" s="12"/>
+      <c r="BO92" s="12"/>
+      <c r="BP92" s="12"/>
+      <c r="BQ92" s="12"/>
+      <c r="BR92" s="12"/>
+      <c r="BS92" s="12"/>
+      <c r="BT92" s="12"/>
+      <c r="BU92" s="12"/>
+      <c r="BV92" s="12"/>
+      <c r="BW92" s="12"/>
+      <c r="BX92" s="13"/>
+    </row>
+    <row r="93" spans="6:76">
+      <c r="G93" s="11"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z93" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="12"/>
+      <c r="AD93" s="12"/>
+      <c r="AE93" s="12"/>
+      <c r="AF93" s="12"/>
+      <c r="AG93" s="12"/>
+      <c r="AH93" s="12"/>
+      <c r="AI93" s="12"/>
+      <c r="AJ93" s="12"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="13"/>
+      <c r="AS93" s="11"/>
+      <c r="AT93" s="12"/>
+      <c r="AU93" s="12"/>
+      <c r="AV93" s="12"/>
+      <c r="AW93" s="12"/>
+      <c r="AX93" s="12"/>
+      <c r="AY93" s="12"/>
+      <c r="AZ93" s="12"/>
+      <c r="BA93" s="12"/>
+      <c r="BB93" s="12"/>
+      <c r="BC93" s="12"/>
+      <c r="BD93" s="12"/>
+      <c r="BE93" s="12"/>
+      <c r="BF93" s="12"/>
+      <c r="BG93" s="12"/>
+      <c r="BH93" s="13"/>
+      <c r="BI93" s="11"/>
+      <c r="BJ93" s="12"/>
+      <c r="BM93" s="12"/>
+      <c r="BN93" s="12"/>
+      <c r="BO93" s="12"/>
+      <c r="BP93" s="12"/>
+      <c r="BQ93" s="12"/>
+      <c r="BR93" s="12"/>
+      <c r="BS93" s="12"/>
+      <c r="BT93" s="12"/>
+      <c r="BU93" s="12"/>
+      <c r="BV93" s="12"/>
+      <c r="BW93" s="12"/>
+      <c r="BX93" s="13"/>
+    </row>
+    <row r="94" spans="6:76">
+      <c r="G94" s="11"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
+      <c r="AC94" s="12"/>
+      <c r="AD94" s="12"/>
+      <c r="AE94" s="12"/>
+      <c r="AF94" s="12"/>
+      <c r="AG94" s="12"/>
+      <c r="AH94" s="12"/>
+      <c r="AI94" s="12"/>
+      <c r="AJ94" s="12"/>
+      <c r="AK94" s="12"/>
+      <c r="AL94" s="13"/>
+      <c r="AS94" s="11"/>
+      <c r="AT94" s="12"/>
+      <c r="AU94" s="12"/>
+      <c r="AV94" s="12"/>
+      <c r="AW94" s="12"/>
+      <c r="AX94" s="12"/>
+      <c r="AY94" s="12"/>
+      <c r="AZ94" s="12"/>
+      <c r="BA94" s="12"/>
+      <c r="BB94" s="12"/>
+      <c r="BC94" s="12"/>
+      <c r="BD94" s="12"/>
+      <c r="BE94" s="12"/>
+      <c r="BF94" s="12"/>
+      <c r="BG94" s="12"/>
+      <c r="BH94" s="13"/>
+      <c r="BI94" s="11"/>
+      <c r="BJ94" s="12"/>
+      <c r="BK94" s="12"/>
+      <c r="BL94" s="12"/>
+      <c r="BM94" s="12"/>
+      <c r="BN94" s="12"/>
+      <c r="BO94" s="12"/>
+      <c r="BP94" s="12"/>
+      <c r="BQ94" s="12"/>
+      <c r="BR94" s="12"/>
+      <c r="BS94" s="12"/>
+      <c r="BT94" s="12"/>
+      <c r="BU94" s="12"/>
+      <c r="BV94" s="12"/>
+      <c r="BW94" s="12"/>
+      <c r="BX94" s="13"/>
+    </row>
+    <row r="95" spans="6:76">
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12"/>
+      <c r="AC95" s="12"/>
+      <c r="AD95" s="12"/>
+      <c r="AE95" s="12"/>
+      <c r="AF95" s="12"/>
+      <c r="AG95" s="12"/>
+      <c r="AH95" s="12"/>
+      <c r="AI95" s="12"/>
+      <c r="AJ95" s="12"/>
+      <c r="AK95" s="12"/>
+      <c r="AL95" s="13"/>
+      <c r="AS95" s="11"/>
+      <c r="AT95" s="12"/>
+      <c r="AU95" s="12"/>
+      <c r="AV95" s="12"/>
+      <c r="AW95" s="12"/>
+      <c r="AX95" s="12"/>
+      <c r="AY95" s="12"/>
+      <c r="AZ95" s="12"/>
+      <c r="BA95" s="12"/>
+      <c r="BB95" s="12"/>
+      <c r="BC95" s="12"/>
+      <c r="BD95" s="12"/>
+      <c r="BE95" s="12"/>
+      <c r="BF95" s="12"/>
+      <c r="BG95" s="12"/>
+      <c r="BH95" s="13"/>
+      <c r="BI95" s="11"/>
+      <c r="BJ95" s="12"/>
+      <c r="BK95" s="12"/>
+      <c r="BL95" s="12"/>
+      <c r="BM95" s="12"/>
+      <c r="BN95" s="12"/>
+      <c r="BO95" s="12"/>
+      <c r="BP95" s="12"/>
+      <c r="BQ95" s="12"/>
+      <c r="BR95" s="12"/>
+      <c r="BS95" s="12"/>
+      <c r="BT95" s="12"/>
+      <c r="BU95" s="12"/>
+      <c r="BV95" s="12"/>
+      <c r="BW95" s="12"/>
+      <c r="BX95" s="13"/>
+    </row>
+    <row r="96" spans="6:76">
+      <c r="G96" s="11"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="13"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="12"/>
+      <c r="AE96" s="12"/>
+      <c r="AF96" s="12"/>
+      <c r="AG96" s="12"/>
+      <c r="AH96" s="12"/>
+      <c r="AI96" s="12"/>
+      <c r="AJ96" s="12"/>
+      <c r="AK96" s="12"/>
+      <c r="AL96" s="13"/>
+      <c r="AS96" s="11"/>
+      <c r="AT96" s="12"/>
+      <c r="AU96" s="12"/>
+      <c r="AV96" s="12"/>
+      <c r="AW96" s="12"/>
+      <c r="AX96" s="12"/>
+      <c r="AY96" s="12"/>
+      <c r="AZ96" s="12"/>
+      <c r="BA96" s="12"/>
+      <c r="BB96" s="12"/>
+      <c r="BC96" s="12"/>
+      <c r="BD96" s="12"/>
+      <c r="BE96" s="12"/>
+      <c r="BF96" s="12"/>
+      <c r="BG96" s="12"/>
+      <c r="BH96" s="13"/>
+      <c r="BI96" s="11"/>
+      <c r="BJ96" s="12"/>
+      <c r="BK96" s="12"/>
+      <c r="BL96" s="12"/>
+      <c r="BM96" s="12"/>
+      <c r="BN96" s="12"/>
+      <c r="BO96" s="12"/>
+      <c r="BP96" s="12"/>
+      <c r="BQ96" s="12"/>
+      <c r="BR96" s="12"/>
+      <c r="BS96" s="12"/>
+      <c r="BT96" s="12"/>
+      <c r="BU96" s="12"/>
+      <c r="BV96" s="12"/>
+      <c r="BW96" s="12"/>
+      <c r="BX96" s="13"/>
+    </row>
+    <row r="97" spans="7:76">
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="12"/>
+      <c r="AD97" s="12"/>
+      <c r="AE97" s="12"/>
+      <c r="AF97" s="12"/>
+      <c r="AG97" s="12"/>
+      <c r="AH97" s="12"/>
+      <c r="AI97" s="12"/>
+      <c r="AJ97" s="12"/>
+      <c r="AK97" s="12"/>
+      <c r="AL97" s="13"/>
+      <c r="AS97" s="11"/>
+      <c r="AT97" s="12"/>
+      <c r="AU97" s="12"/>
+      <c r="AV97" s="12"/>
+      <c r="AW97" s="12"/>
+      <c r="AX97" s="12"/>
+      <c r="AY97" s="12"/>
+      <c r="AZ97" s="12"/>
+      <c r="BA97" s="12"/>
+      <c r="BB97" s="12"/>
+      <c r="BC97" s="12"/>
+      <c r="BD97" s="12"/>
+      <c r="BE97" s="12"/>
+      <c r="BF97" s="12"/>
+      <c r="BG97" s="12"/>
+      <c r="BH97" s="13"/>
+      <c r="BI97" s="11"/>
+      <c r="BJ97" s="12"/>
+      <c r="BK97" s="12"/>
+      <c r="BL97" s="12"/>
+      <c r="BM97" s="12"/>
+      <c r="BN97" s="12"/>
+      <c r="BO97" s="12"/>
+      <c r="BP97" s="12"/>
+      <c r="BQ97" s="12"/>
+      <c r="BR97" s="12"/>
+      <c r="BS97" s="12"/>
+      <c r="BT97" s="12"/>
+      <c r="BU97" s="12"/>
+      <c r="BV97" s="12"/>
+      <c r="BW97" s="12"/>
+      <c r="BX97" s="13"/>
+    </row>
+    <row r="98" spans="7:76">
+      <c r="G98" s="11"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="12"/>
+      <c r="AH98" s="12"/>
+      <c r="AI98" s="12"/>
+      <c r="AJ98" s="12"/>
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="13"/>
+      <c r="AS98" s="11"/>
+      <c r="AT98" s="12"/>
+      <c r="AU98" s="12"/>
+      <c r="AV98" s="12"/>
+      <c r="AW98" s="12"/>
+      <c r="AX98" s="12"/>
+      <c r="AY98" s="12"/>
+      <c r="AZ98" s="12"/>
+      <c r="BA98" s="12"/>
+      <c r="BB98" s="12"/>
+      <c r="BC98" s="12"/>
+      <c r="BD98" s="12"/>
+      <c r="BE98" s="12"/>
+      <c r="BF98" s="12"/>
+      <c r="BG98" s="12"/>
+      <c r="BH98" s="13"/>
+      <c r="BI98" s="11"/>
+      <c r="BJ98" s="12"/>
+      <c r="BK98" s="12"/>
+      <c r="BL98" s="12"/>
+      <c r="BM98" s="12"/>
+      <c r="BN98" s="12"/>
+      <c r="BO98" s="12"/>
+      <c r="BP98" s="12"/>
+      <c r="BQ98" s="12"/>
+      <c r="BR98" s="12"/>
+      <c r="BS98" s="12"/>
+      <c r="BT98" s="12"/>
+      <c r="BU98" s="12"/>
+      <c r="BV98" s="12"/>
+      <c r="BW98" s="12"/>
+      <c r="BX98" s="13"/>
+    </row>
+    <row r="99" spans="7:76">
+      <c r="G99" s="11"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12"/>
+      <c r="AC99" s="12"/>
+      <c r="AD99" s="12"/>
+      <c r="AE99" s="12"/>
+      <c r="AF99" s="12"/>
+      <c r="AG99" s="12"/>
+      <c r="AH99" s="12"/>
+      <c r="AI99" s="12"/>
+      <c r="AJ99" s="12"/>
+      <c r="AK99" s="12"/>
+      <c r="AL99" s="13"/>
+      <c r="AS99" s="11"/>
+      <c r="AT99" s="12"/>
+      <c r="AU99" s="12"/>
+      <c r="AV99" s="12"/>
+      <c r="AW99" s="12"/>
+      <c r="AX99" s="12"/>
+      <c r="AY99" s="12"/>
+      <c r="AZ99" s="12"/>
+      <c r="BA99" s="12"/>
+      <c r="BB99" s="12"/>
+      <c r="BC99" s="12"/>
+      <c r="BD99" s="12"/>
+      <c r="BE99" s="12"/>
+      <c r="BF99" s="12"/>
+      <c r="BG99" s="12"/>
+      <c r="BH99" s="13"/>
+      <c r="BI99" s="11"/>
+      <c r="BJ99" s="12"/>
+      <c r="BK99" s="12"/>
+      <c r="BL99" s="12"/>
+      <c r="BM99" s="12"/>
+      <c r="BN99" s="12"/>
+      <c r="BO99" s="12"/>
+      <c r="BP99" s="12"/>
+      <c r="BQ99" s="12"/>
+      <c r="BR99" s="12"/>
+      <c r="BS99" s="12"/>
+      <c r="BT99" s="12"/>
+      <c r="BU99" s="12"/>
+      <c r="BV99" s="12"/>
+      <c r="BW99" s="12"/>
+      <c r="BX99" s="13"/>
+    </row>
+    <row r="100" spans="7:76" ht="14.25" thickBot="1">
+      <c r="G100" s="14"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="15"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="15"/>
+      <c r="AA100" s="15"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="15"/>
+      <c r="AD100" s="15"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="16"/>
+      <c r="AS100" s="14"/>
+      <c r="AT100" s="15"/>
+      <c r="AU100" s="15"/>
+      <c r="AV100" s="15"/>
+      <c r="AW100" s="15"/>
+      <c r="AX100" s="15"/>
+      <c r="AY100" s="15"/>
+      <c r="AZ100" s="15"/>
+      <c r="BA100" s="15"/>
+      <c r="BB100" s="15"/>
+      <c r="BC100" s="15"/>
+      <c r="BD100" s="15"/>
+      <c r="BE100" s="15"/>
+      <c r="BF100" s="15"/>
+      <c r="BG100" s="15"/>
+      <c r="BH100" s="16"/>
+      <c r="BI100" s="14"/>
+      <c r="BJ100" s="15"/>
+      <c r="BK100" s="15"/>
+      <c r="BL100" s="15"/>
+      <c r="BM100" s="15"/>
+      <c r="BN100" s="15"/>
+      <c r="BO100" s="15"/>
+      <c r="BP100" s="15"/>
+      <c r="BQ100" s="15"/>
+      <c r="BR100" s="15"/>
+      <c r="BS100" s="15"/>
+      <c r="BT100" s="15"/>
+      <c r="BU100" s="15"/>
+      <c r="BV100" s="15"/>
+      <c r="BW100" s="15"/>
+      <c r="BX100" s="16"/>
+    </row>
+    <row r="101" spans="7:76">
+      <c r="G101" s="8">
+        <v>2800</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+      <c r="AB101" s="9"/>
+      <c r="AC101" s="9"/>
+      <c r="AD101" s="9"/>
+      <c r="AE101" s="9"/>
+      <c r="AF101" s="9"/>
+      <c r="AG101" s="9"/>
+      <c r="AH101" s="9"/>
+      <c r="AI101" s="9"/>
+      <c r="AJ101" s="9"/>
+      <c r="AK101" s="9"/>
+      <c r="AL101" s="10"/>
+      <c r="AS101" s="8">
+        <v>2800</v>
+      </c>
+      <c r="AT101" s="9"/>
+      <c r="AU101" s="9"/>
+      <c r="AV101" s="9"/>
+      <c r="AW101" s="9"/>
+      <c r="AX101" s="9"/>
+      <c r="AY101" s="9"/>
+      <c r="AZ101" s="9"/>
+      <c r="BA101" s="9"/>
+      <c r="BB101" s="9"/>
+      <c r="BC101" s="9"/>
+      <c r="BD101" s="9"/>
+      <c r="BE101" s="9"/>
+      <c r="BF101" s="9"/>
+      <c r="BG101" s="9"/>
+      <c r="BH101" s="10"/>
+      <c r="BI101" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ101" s="9"/>
+      <c r="BK101" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL101" s="9"/>
+      <c r="BM101" s="9"/>
+      <c r="BN101" s="9"/>
+      <c r="BO101" s="9"/>
+      <c r="BP101" s="9"/>
+      <c r="BQ101" s="9"/>
+      <c r="BR101" s="9"/>
+      <c r="BS101" s="9"/>
+      <c r="BT101" s="9"/>
+      <c r="BU101" s="9"/>
+      <c r="BV101" s="9"/>
+      <c r="BW101" s="9"/>
+      <c r="BX101" s="10"/>
+    </row>
+    <row r="102" spans="7:76">
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="12"/>
+      <c r="AE102" s="12"/>
+      <c r="AF102" s="12"/>
+      <c r="AG102" s="12"/>
+      <c r="AH102" s="12"/>
+      <c r="AI102" s="12"/>
+      <c r="AJ102" s="12"/>
+      <c r="AK102" s="12"/>
+      <c r="AL102" s="13"/>
+      <c r="AS102" s="11"/>
+      <c r="AT102" s="12"/>
+      <c r="AU102" s="12"/>
+      <c r="AV102" s="12"/>
+      <c r="AW102" s="12"/>
+      <c r="AX102" s="12"/>
+      <c r="AY102" s="12"/>
+      <c r="AZ102" s="12"/>
+      <c r="BA102" s="12"/>
+      <c r="BB102" s="12"/>
+      <c r="BC102" s="12"/>
+      <c r="BD102" s="12"/>
+      <c r="BE102" s="12"/>
+      <c r="BF102" s="12"/>
+      <c r="BG102" s="12"/>
+      <c r="BH102" s="13"/>
+      <c r="BI102" s="11"/>
+      <c r="BJ102" s="12"/>
+      <c r="BK102" s="12"/>
+      <c r="BL102" s="12"/>
+      <c r="BM102" s="12"/>
+      <c r="BN102" s="12"/>
+      <c r="BO102" s="12"/>
+      <c r="BP102" s="12"/>
+      <c r="BQ102" s="12"/>
+      <c r="BR102" s="12"/>
+      <c r="BS102" s="12"/>
+      <c r="BT102" s="12"/>
+      <c r="BU102" s="12"/>
+      <c r="BV102" s="12"/>
+      <c r="BW102" s="12"/>
+      <c r="BX102" s="13"/>
+    </row>
+    <row r="103" spans="7:76">
+      <c r="G103" s="11"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="11"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12"/>
+      <c r="AC103" s="12"/>
+      <c r="AD103" s="12"/>
+      <c r="AE103" s="12"/>
+      <c r="AF103" s="12"/>
+      <c r="AG103" s="12"/>
+      <c r="AH103" s="12"/>
+      <c r="AI103" s="12"/>
+      <c r="AJ103" s="12"/>
+      <c r="AK103" s="12"/>
+      <c r="AL103" s="13"/>
+      <c r="AS103" s="11"/>
+      <c r="AT103" s="12"/>
+      <c r="AU103" s="12"/>
+      <c r="AV103" s="12"/>
+      <c r="AW103" s="12"/>
+      <c r="AX103" s="12"/>
+      <c r="AY103" s="12"/>
+      <c r="AZ103" s="12"/>
+      <c r="BA103" s="12"/>
+      <c r="BB103" s="12"/>
+      <c r="BC103" s="12"/>
+      <c r="BD103" s="12"/>
+      <c r="BE103" s="12"/>
+      <c r="BF103" s="12"/>
+      <c r="BG103" s="12"/>
+      <c r="BH103" s="13"/>
+      <c r="BI103" s="11"/>
+      <c r="BJ103" s="12"/>
+      <c r="BK103" s="12"/>
+      <c r="BL103" s="12"/>
+      <c r="BM103" s="12"/>
+      <c r="BN103" s="12"/>
+      <c r="BO103" s="12"/>
+      <c r="BP103" s="12"/>
+      <c r="BQ103" s="12"/>
+      <c r="BR103" s="12"/>
+      <c r="BS103" s="12"/>
+      <c r="BT103" s="12"/>
+      <c r="BU103" s="12"/>
+      <c r="BV103" s="12"/>
+      <c r="BW103" s="12"/>
+      <c r="BX103" s="13"/>
+    </row>
+    <row r="104" spans="7:76">
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="13"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12"/>
+      <c r="AC104" s="12"/>
+      <c r="AD104" s="12"/>
+      <c r="AE104" s="12"/>
+      <c r="AF104" s="12"/>
+      <c r="AG104" s="12"/>
+      <c r="AH104" s="12"/>
+      <c r="AI104" s="12"/>
+      <c r="AJ104" s="12"/>
+      <c r="AK104" s="12"/>
+      <c r="AL104" s="13"/>
+      <c r="AS104" s="11"/>
+      <c r="AT104" s="12"/>
+      <c r="AU104" s="12"/>
+      <c r="AV104" s="12"/>
+      <c r="AW104" s="12"/>
+      <c r="AX104" s="12"/>
+      <c r="AY104" s="12"/>
+      <c r="AZ104" s="12"/>
+      <c r="BA104" s="12"/>
+      <c r="BB104" s="12"/>
+      <c r="BC104" s="12"/>
+      <c r="BD104" s="12"/>
+      <c r="BE104" s="12"/>
+      <c r="BF104" s="12"/>
+      <c r="BG104" s="12"/>
+      <c r="BH104" s="13"/>
+      <c r="BI104" s="11"/>
+      <c r="BJ104" s="12"/>
+      <c r="BK104" s="12"/>
+      <c r="BL104" s="12"/>
+      <c r="BM104" s="12"/>
+      <c r="BN104" s="12"/>
+      <c r="BO104" s="12"/>
+      <c r="BP104" s="12"/>
+      <c r="BQ104" s="12"/>
+      <c r="BR104" s="12"/>
+      <c r="BS104" s="12"/>
+      <c r="BT104" s="12"/>
+      <c r="BU104" s="12"/>
+      <c r="BV104" s="12"/>
+      <c r="BW104" s="12"/>
+      <c r="BX104" s="13"/>
+    </row>
+    <row r="105" spans="7:76">
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="13"/>
+      <c r="W105" s="11"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12"/>
+      <c r="AC105" s="12"/>
+      <c r="AD105" s="12"/>
+      <c r="AE105" s="12"/>
+      <c r="AF105" s="12"/>
+      <c r="AG105" s="12"/>
+      <c r="AH105" s="12"/>
+      <c r="AI105" s="12"/>
+      <c r="AJ105" s="12"/>
+      <c r="AK105" s="12"/>
+      <c r="AL105" s="13"/>
+      <c r="AO105" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS105" s="11"/>
+      <c r="AT105" s="12"/>
+      <c r="AU105" s="12"/>
+      <c r="AV105" s="12"/>
+      <c r="AW105" s="12"/>
+      <c r="AX105" s="12"/>
+      <c r="AY105" s="12"/>
+      <c r="AZ105" s="12"/>
+      <c r="BA105" s="12"/>
+      <c r="BB105" s="12"/>
+      <c r="BC105" s="12"/>
+      <c r="BD105" s="12"/>
+      <c r="BE105" s="12"/>
+      <c r="BF105" s="12"/>
+      <c r="BG105" s="12"/>
+      <c r="BH105" s="13"/>
+      <c r="BI105" s="11"/>
+      <c r="BJ105" s="12"/>
+      <c r="BK105" s="12"/>
+      <c r="BL105" s="12"/>
+      <c r="BM105" s="12"/>
+      <c r="BN105" s="12"/>
+      <c r="BO105" s="12"/>
+      <c r="BP105" s="12"/>
+      <c r="BQ105" s="12"/>
+      <c r="BR105" s="12"/>
+      <c r="BS105" s="12"/>
+      <c r="BT105" s="12"/>
+      <c r="BU105" s="12"/>
+      <c r="BV105" s="12"/>
+      <c r="BW105" s="12"/>
+      <c r="BX105" s="13"/>
+    </row>
+    <row r="106" spans="7:76">
+      <c r="G106" s="11"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="13"/>
+      <c r="W106" s="11"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="12"/>
+      <c r="AC106" s="12"/>
+      <c r="AD106" s="12"/>
+      <c r="AE106" s="12"/>
+      <c r="AF106" s="12"/>
+      <c r="AG106" s="12"/>
+      <c r="AH106" s="12"/>
+      <c r="AI106" s="12"/>
+      <c r="AJ106" s="12"/>
+      <c r="AK106" s="12"/>
+      <c r="AL106" s="13"/>
+      <c r="AO106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS106" s="11"/>
+      <c r="AT106" s="12"/>
+      <c r="AU106" s="12"/>
+      <c r="AV106" s="12"/>
+      <c r="AW106" s="12"/>
+      <c r="AX106" s="12"/>
+      <c r="AY106" s="12"/>
+      <c r="AZ106" s="12"/>
+      <c r="BA106" s="12"/>
+      <c r="BB106" s="12"/>
+      <c r="BC106" s="12"/>
+      <c r="BD106" s="12"/>
+      <c r="BE106" s="12"/>
+      <c r="BF106" s="12"/>
+      <c r="BG106" s="12"/>
+      <c r="BH106" s="13"/>
+      <c r="BI106" s="11"/>
+      <c r="BJ106" s="12"/>
+      <c r="BK106" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL106" s="12"/>
+      <c r="BM106" s="12"/>
+      <c r="BN106" s="12"/>
+      <c r="BO106" s="12"/>
+      <c r="BP106" s="12"/>
+      <c r="BQ106" s="12"/>
+      <c r="BR106" s="12"/>
+      <c r="BS106" s="12"/>
+      <c r="BT106" s="12"/>
+      <c r="BU106" s="12"/>
+      <c r="BV106" s="12"/>
+      <c r="BW106" s="12"/>
+      <c r="BX106" s="13"/>
+    </row>
+    <row r="107" spans="7:76">
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12"/>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="12"/>
+      <c r="AE107" s="12"/>
+      <c r="AF107" s="12"/>
+      <c r="AG107" s="12"/>
+      <c r="AH107" s="12"/>
+      <c r="AI107" s="12"/>
+      <c r="AJ107" s="12"/>
+      <c r="AK107" s="12"/>
+      <c r="AL107" s="13"/>
+      <c r="AS107" s="11"/>
+      <c r="AT107" s="12"/>
+      <c r="AU107" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV107" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW107" s="12"/>
+      <c r="AX107" s="12"/>
+      <c r="AY107" s="12"/>
+      <c r="AZ107" s="12"/>
+      <c r="BA107" s="12"/>
+      <c r="BB107" s="12"/>
+      <c r="BC107" s="12"/>
+      <c r="BD107" s="12"/>
+      <c r="BE107" s="12"/>
+      <c r="BF107" s="12"/>
+      <c r="BG107" s="12"/>
+      <c r="BH107" s="13"/>
+      <c r="BI107" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ107" s="12"/>
+      <c r="BK107" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM107" s="12"/>
+      <c r="BN107" s="12"/>
+      <c r="BO107" s="12"/>
+      <c r="BP107" s="12"/>
+      <c r="BQ107" s="12"/>
+      <c r="BR107" s="12"/>
+      <c r="BS107" s="12"/>
+      <c r="BT107" s="12"/>
+      <c r="BU107" s="12"/>
+      <c r="BV107" s="12"/>
+      <c r="BW107" s="12"/>
+      <c r="BX107" s="13"/>
+    </row>
+    <row r="108" spans="7:76">
+      <c r="G108" s="11"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="13"/>
+      <c r="W108" s="11"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12"/>
+      <c r="AC108" s="12"/>
+      <c r="AD108" s="12"/>
+      <c r="AE108" s="12"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="12"/>
+      <c r="AH108" s="12"/>
+      <c r="AI108" s="12"/>
+      <c r="AJ108" s="12"/>
+      <c r="AK108" s="12"/>
+      <c r="AL108" s="13"/>
+      <c r="AS108" s="11"/>
+      <c r="AT108" s="12"/>
+      <c r="AU108" s="12"/>
+      <c r="AV108" s="12"/>
+      <c r="AW108" s="12"/>
+      <c r="AX108" s="12"/>
+      <c r="AY108" s="12"/>
+      <c r="AZ108" s="12"/>
+      <c r="BA108" s="12"/>
+      <c r="BB108" s="12"/>
+      <c r="BC108" s="12"/>
+      <c r="BD108" s="12"/>
+      <c r="BE108" s="12"/>
+      <c r="BF108" s="12"/>
+      <c r="BG108" s="12"/>
+      <c r="BH108" s="13"/>
+      <c r="BI108" s="11"/>
+      <c r="BJ108" s="12"/>
+      <c r="BK108" s="12"/>
+      <c r="BL108" s="12"/>
+      <c r="BM108" s="12"/>
+      <c r="BN108" s="12"/>
+      <c r="BO108" s="12"/>
+      <c r="BP108" s="12"/>
+      <c r="BQ108" s="12"/>
+      <c r="BR108" s="12"/>
+      <c r="BS108" s="12"/>
+      <c r="BT108" s="12"/>
+      <c r="BU108" s="12"/>
+      <c r="BV108" s="12"/>
+      <c r="BW108" s="12"/>
+      <c r="BX108" s="13"/>
+    </row>
+    <row r="109" spans="7:76">
+      <c r="G109" s="11"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="13"/>
+      <c r="W109" s="11"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12"/>
+      <c r="AC109" s="12"/>
+      <c r="AD109" s="12"/>
+      <c r="AE109" s="12"/>
+      <c r="AF109" s="12"/>
+      <c r="AG109" s="12"/>
+      <c r="AH109" s="12"/>
+      <c r="AI109" s="12"/>
+      <c r="AJ109" s="12"/>
+      <c r="AK109" s="12"/>
+      <c r="AL109" s="13"/>
+      <c r="AS109" s="11"/>
+      <c r="AT109" s="12"/>
+      <c r="AU109" s="12"/>
+      <c r="AV109" s="12"/>
+      <c r="AW109" s="12"/>
+      <c r="AX109" s="12"/>
+      <c r="AY109" s="12"/>
+      <c r="AZ109" s="12"/>
+      <c r="BA109" s="12"/>
+      <c r="BB109" s="12"/>
+      <c r="BC109" s="12"/>
+      <c r="BD109" s="12"/>
+      <c r="BE109" s="12"/>
+      <c r="BF109" s="12"/>
+      <c r="BG109" s="12"/>
+      <c r="BH109" s="13"/>
+      <c r="BI109" s="11"/>
+      <c r="BJ109" s="12"/>
+      <c r="BK109" s="12"/>
+      <c r="BL109" s="12"/>
+      <c r="BM109" s="12"/>
+      <c r="BN109" s="12"/>
+      <c r="BO109" s="12"/>
+      <c r="BP109" s="12"/>
+      <c r="BQ109" s="12"/>
+      <c r="BR109" s="12"/>
+      <c r="BS109" s="12"/>
+      <c r="BT109" s="12"/>
+      <c r="BU109" s="12"/>
+      <c r="BV109" s="12"/>
+      <c r="BW109" s="12"/>
+      <c r="BX109" s="13"/>
+    </row>
+    <row r="110" spans="7:76">
+      <c r="G110" s="11"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="13"/>
+      <c r="W110" s="11"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="12"/>
+      <c r="AF110" s="12"/>
+      <c r="AG110" s="12"/>
+      <c r="AH110" s="12"/>
+      <c r="AI110" s="12"/>
+      <c r="AJ110" s="12"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="13"/>
+      <c r="AS110" s="11"/>
+      <c r="AT110" s="12"/>
+      <c r="AU110" s="12"/>
+      <c r="AV110" s="12"/>
+      <c r="AW110" s="12"/>
+      <c r="AX110" s="12"/>
+      <c r="AY110" s="12"/>
+      <c r="AZ110" s="12"/>
+      <c r="BA110" s="12"/>
+      <c r="BB110" s="12"/>
+      <c r="BC110" s="12"/>
+      <c r="BD110" s="12"/>
+      <c r="BE110" s="12"/>
+      <c r="BF110" s="12"/>
+      <c r="BG110" s="12"/>
+      <c r="BH110" s="13"/>
+      <c r="BI110" s="11"/>
+      <c r="BJ110" s="12"/>
+      <c r="BK110" s="12"/>
+      <c r="BL110" s="12"/>
+      <c r="BM110" s="12"/>
+      <c r="BN110" s="12"/>
+      <c r="BO110" s="12"/>
+      <c r="BP110" s="12"/>
+      <c r="BQ110" s="12"/>
+      <c r="BR110" s="12"/>
+      <c r="BS110" s="12"/>
+      <c r="BT110" s="12"/>
+      <c r="BU110" s="12"/>
+      <c r="BV110" s="12"/>
+      <c r="BW110" s="12"/>
+      <c r="BX110" s="13"/>
+    </row>
+    <row r="111" spans="7:76">
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="13"/>
+      <c r="W111" s="11"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="12"/>
+      <c r="AC111" s="12"/>
+      <c r="AD111" s="12"/>
+      <c r="AE111" s="12"/>
+      <c r="AF111" s="12"/>
+      <c r="AG111" s="12"/>
+      <c r="AH111" s="12"/>
+      <c r="AI111" s="12"/>
+      <c r="AJ111" s="12"/>
+      <c r="AK111" s="12"/>
+      <c r="AL111" s="13"/>
+      <c r="AS111" s="11"/>
+      <c r="AT111" s="12"/>
+      <c r="AU111" s="12"/>
+      <c r="AV111" s="12"/>
+      <c r="AW111" s="12"/>
+      <c r="AX111" s="12"/>
+      <c r="AY111" s="12"/>
+      <c r="AZ111" s="12"/>
+      <c r="BA111" s="12"/>
+      <c r="BB111" s="12"/>
+      <c r="BC111" s="12"/>
+      <c r="BD111" s="12"/>
+      <c r="BE111" s="12"/>
+      <c r="BF111" s="12"/>
+      <c r="BG111" s="12"/>
+      <c r="BH111" s="13"/>
+      <c r="BI111" s="11"/>
+      <c r="BJ111" s="12"/>
+      <c r="BK111" s="12"/>
+      <c r="BL111" s="12"/>
+      <c r="BM111" s="12"/>
+      <c r="BN111" s="12"/>
+      <c r="BO111" s="12"/>
+      <c r="BP111" s="12"/>
+      <c r="BQ111" s="12"/>
+      <c r="BR111" s="12"/>
+      <c r="BS111" s="12"/>
+      <c r="BT111" s="12"/>
+      <c r="BU111" s="12"/>
+      <c r="BV111" s="12"/>
+      <c r="BW111" s="12"/>
+      <c r="BX111" s="13"/>
+    </row>
+    <row r="112" spans="7:76">
+      <c r="G112" s="11"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="13"/>
+      <c r="W112" s="11"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12"/>
+      <c r="AC112" s="12"/>
+      <c r="AD112" s="12"/>
+      <c r="AE112" s="12"/>
+      <c r="AF112" s="12"/>
+      <c r="AG112" s="12"/>
+      <c r="AH112" s="12"/>
+      <c r="AI112" s="12"/>
+      <c r="AJ112" s="12"/>
+      <c r="AK112" s="12"/>
+      <c r="AL112" s="13"/>
+      <c r="AS112" s="11"/>
+      <c r="AT112" s="12"/>
+      <c r="AU112" s="12"/>
+      <c r="AV112" s="12"/>
+      <c r="AW112" s="12"/>
+      <c r="AX112" s="12"/>
+      <c r="AY112" s="12"/>
+      <c r="AZ112" s="12"/>
+      <c r="BA112" s="12"/>
+      <c r="BB112" s="12"/>
+      <c r="BC112" s="12"/>
+      <c r="BD112" s="12"/>
+      <c r="BE112" s="12"/>
+      <c r="BF112" s="12"/>
+      <c r="BG112" s="12"/>
+      <c r="BH112" s="13"/>
+      <c r="BI112" s="11"/>
+      <c r="BJ112" s="12"/>
+      <c r="BK112" s="12"/>
+      <c r="BL112" s="12"/>
+      <c r="BM112" s="12"/>
+      <c r="BN112" s="12"/>
+      <c r="BO112" s="12"/>
+      <c r="BP112" s="12"/>
+      <c r="BQ112" s="12"/>
+      <c r="BR112" s="12"/>
+      <c r="BS112" s="12"/>
+      <c r="BT112" s="12"/>
+      <c r="BU112" s="12"/>
+      <c r="BV112" s="12"/>
+      <c r="BW112" s="12"/>
+      <c r="BX112" s="13"/>
+    </row>
+    <row r="113" spans="7:76">
+      <c r="G113" s="11"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="13"/>
+      <c r="W113" s="11"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="12"/>
+      <c r="AC113" s="12"/>
+      <c r="AD113" s="12"/>
+      <c r="AE113" s="12"/>
+      <c r="AF113" s="12"/>
+      <c r="AG113" s="12"/>
+      <c r="AH113" s="12"/>
+      <c r="AI113" s="12"/>
+      <c r="AJ113" s="12"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="13"/>
+      <c r="AS113" s="11"/>
+      <c r="AT113" s="12"/>
+      <c r="AU113" s="12"/>
+      <c r="AV113" s="12"/>
+      <c r="AW113" s="12"/>
+      <c r="AX113" s="12"/>
+      <c r="AY113" s="12"/>
+      <c r="AZ113" s="12"/>
+      <c r="BA113" s="12"/>
+      <c r="BB113" s="12"/>
+      <c r="BC113" s="12"/>
+      <c r="BD113" s="12"/>
+      <c r="BE113" s="12"/>
+      <c r="BF113" s="12"/>
+      <c r="BG113" s="12"/>
+      <c r="BH113" s="13"/>
+      <c r="BI113" s="11"/>
+      <c r="BJ113" s="12"/>
+      <c r="BK113" s="12"/>
+      <c r="BL113" s="12"/>
+      <c r="BM113" s="12"/>
+      <c r="BN113" s="12"/>
+      <c r="BO113" s="12"/>
+      <c r="BP113" s="12"/>
+      <c r="BQ113" s="12"/>
+      <c r="BR113" s="12"/>
+      <c r="BS113" s="12"/>
+      <c r="BT113" s="12"/>
+      <c r="BU113" s="12"/>
+      <c r="BV113" s="12"/>
+      <c r="BW113" s="12"/>
+      <c r="BX113" s="13"/>
+    </row>
+    <row r="114" spans="7:76">
+      <c r="G114" s="11"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="13"/>
+      <c r="W114" s="11"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="12"/>
+      <c r="AC114" s="12"/>
+      <c r="AD114" s="12"/>
+      <c r="AE114" s="12"/>
+      <c r="AF114" s="12"/>
+      <c r="AG114" s="12"/>
+      <c r="AH114" s="12"/>
+      <c r="AI114" s="12"/>
+      <c r="AJ114" s="12"/>
+      <c r="AK114" s="12"/>
+      <c r="AL114" s="13"/>
+      <c r="AS114" s="11"/>
+      <c r="AT114" s="12"/>
+      <c r="AU114" s="12"/>
+      <c r="AV114" s="12"/>
+      <c r="AW114" s="12"/>
+      <c r="AX114" s="12"/>
+      <c r="AY114" s="12"/>
+      <c r="AZ114" s="12"/>
+      <c r="BA114" s="12"/>
+      <c r="BB114" s="12"/>
+      <c r="BC114" s="12"/>
+      <c r="BD114" s="12"/>
+      <c r="BE114" s="12"/>
+      <c r="BF114" s="12"/>
+      <c r="BG114" s="12"/>
+      <c r="BH114" s="13"/>
+      <c r="BI114" s="11"/>
+      <c r="BJ114" s="12"/>
+      <c r="BK114" s="12"/>
+      <c r="BL114" s="12"/>
+      <c r="BM114" s="12"/>
+      <c r="BN114" s="12"/>
+      <c r="BO114" s="12"/>
+      <c r="BP114" s="12"/>
+      <c r="BQ114" s="12"/>
+      <c r="BR114" s="12"/>
+      <c r="BS114" s="12"/>
+      <c r="BT114" s="12"/>
+      <c r="BU114" s="12"/>
+      <c r="BV114" s="12"/>
+      <c r="BW114" s="12"/>
+      <c r="BX114" s="13"/>
+    </row>
+    <row r="115" spans="7:76">
+      <c r="G115" s="11"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="13"/>
+      <c r="W115" s="11"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="12"/>
+      <c r="AB115" s="12"/>
+      <c r="AC115" s="12"/>
+      <c r="AD115" s="12"/>
+      <c r="AE115" s="12"/>
+      <c r="AF115" s="12"/>
+      <c r="AG115" s="12"/>
+      <c r="AH115" s="12"/>
+      <c r="AI115" s="12"/>
+      <c r="AJ115" s="12"/>
+      <c r="AK115" s="12"/>
+      <c r="AL115" s="13"/>
+      <c r="AS115" s="11"/>
+      <c r="AT115" s="12"/>
+      <c r="AU115" s="12"/>
+      <c r="AV115" s="12"/>
+      <c r="AW115" s="12"/>
+      <c r="AX115" s="12"/>
+      <c r="AY115" s="12"/>
+      <c r="AZ115" s="12"/>
+      <c r="BA115" s="12"/>
+      <c r="BB115" s="12"/>
+      <c r="BC115" s="12"/>
+      <c r="BD115" s="12"/>
+      <c r="BE115" s="12"/>
+      <c r="BF115" s="12"/>
+      <c r="BG115" s="12"/>
+      <c r="BH115" s="13"/>
+      <c r="BI115" s="11"/>
+      <c r="BJ115" s="12"/>
+      <c r="BK115" s="12"/>
+      <c r="BL115" s="12"/>
+      <c r="BM115" s="12"/>
+      <c r="BN115" s="12"/>
+      <c r="BO115" s="12"/>
+      <c r="BP115" s="12"/>
+      <c r="BQ115" s="12"/>
+      <c r="BR115" s="12"/>
+      <c r="BS115" s="12"/>
+      <c r="BT115" s="12"/>
+      <c r="BU115" s="12"/>
+      <c r="BV115" s="12"/>
+      <c r="BW115" s="12"/>
+      <c r="BX115" s="13"/>
+    </row>
+    <row r="116" spans="7:76">
+      <c r="G116" s="11"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="13"/>
+      <c r="W116" s="11"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="12"/>
+      <c r="AC116" s="12"/>
+      <c r="AD116" s="12"/>
+      <c r="AE116" s="12"/>
+      <c r="AF116" s="12"/>
+      <c r="AG116" s="12"/>
+      <c r="AH116" s="12"/>
+      <c r="AI116" s="12"/>
+      <c r="AJ116" s="12"/>
+      <c r="AK116" s="12"/>
+      <c r="AL116" s="13"/>
+      <c r="AS116" s="11"/>
+      <c r="AT116" s="12"/>
+      <c r="AU116" s="12"/>
+      <c r="AV116" s="12"/>
+      <c r="AW116" s="12"/>
+      <c r="AX116" s="12"/>
+      <c r="AY116" s="12"/>
+      <c r="AZ116" s="12"/>
+      <c r="BA116" s="12"/>
+      <c r="BB116" s="12"/>
+      <c r="BC116" s="12"/>
+      <c r="BD116" s="12"/>
+      <c r="BE116" s="12"/>
+      <c r="BF116" s="12"/>
+      <c r="BG116" s="12"/>
+      <c r="BH116" s="13"/>
+      <c r="BI116" s="11"/>
+      <c r="BJ116" s="12"/>
+      <c r="BK116" s="12"/>
+      <c r="BL116" s="12"/>
+      <c r="BM116" s="12"/>
+      <c r="BN116" s="12"/>
+      <c r="BO116" s="12"/>
+      <c r="BP116" s="12"/>
+      <c r="BQ116" s="12"/>
+      <c r="BR116" s="12"/>
+      <c r="BS116" s="12"/>
+      <c r="BT116" s="12"/>
+      <c r="BU116" s="12"/>
+      <c r="BV116" s="12"/>
+      <c r="BW116" s="12"/>
+      <c r="BX116" s="13"/>
+    </row>
+    <row r="117" spans="7:76" ht="14.25" thickBot="1">
+      <c r="G117" s="14"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="15"/>
+      <c r="S117" s="15"/>
+      <c r="T117" s="15"/>
+      <c r="U117" s="15"/>
+      <c r="V117" s="16"/>
+      <c r="W117" s="14"/>
+      <c r="X117" s="15"/>
+      <c r="Y117" s="15"/>
+      <c r="Z117" s="15"/>
+      <c r="AA117" s="15"/>
+      <c r="AB117" s="15"/>
+      <c r="AC117" s="15"/>
+      <c r="AD117" s="15"/>
+      <c r="AE117" s="15"/>
+      <c r="AF117" s="15"/>
+      <c r="AG117" s="15"/>
+      <c r="AH117" s="15"/>
+      <c r="AI117" s="15"/>
+      <c r="AJ117" s="15"/>
+      <c r="AK117" s="15"/>
+      <c r="AL117" s="16"/>
+      <c r="AS117" s="14"/>
+      <c r="AT117" s="15"/>
+      <c r="AU117" s="15"/>
+      <c r="AV117" s="15"/>
+      <c r="AW117" s="15"/>
+      <c r="AX117" s="15"/>
+      <c r="AY117" s="15"/>
+      <c r="AZ117" s="15"/>
+      <c r="BA117" s="15"/>
+      <c r="BB117" s="15"/>
+      <c r="BC117" s="15"/>
+      <c r="BD117" s="15"/>
+      <c r="BE117" s="15"/>
+      <c r="BF117" s="15"/>
+      <c r="BG117" s="15"/>
+      <c r="BH117" s="16"/>
+      <c r="BI117" s="14"/>
+      <c r="BJ117" s="15"/>
+      <c r="BK117" s="15"/>
+      <c r="BL117" s="15"/>
+      <c r="BM117" s="15"/>
+      <c r="BN117" s="15"/>
+      <c r="BO117" s="15"/>
+      <c r="BP117" s="15"/>
+      <c r="BQ117" s="15"/>
+      <c r="BR117" s="15"/>
+      <c r="BS117" s="15"/>
+      <c r="BT117" s="15"/>
+      <c r="BU117" s="15"/>
+      <c r="BV117" s="15"/>
+      <c r="BW117" s="15"/>
+      <c r="BX117" s="16"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
+    <sheet name="io port" sheetId="2" r:id="rId2"/>
+    <sheet name="display" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -35,6 +35,333 @@
   </si>
   <si>
     <t>emulated ppu renderer implementation on vga timing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPU</t>
+  </si>
+  <si>
+    <t>0x2000 (PPU制御レジスタ1)</t>
+  </si>
+  <si>
+    <t>W1 : PPUの基本設定を行います。</t>
+  </si>
+  <si>
+    <t>位置</t>
+  </si>
+  <si>
+    <t>内容</t>
+  </si>
+  <si>
+    <t>値</t>
+  </si>
+  <si>
+    <t>bit7</t>
+  </si>
+  <si>
+    <t>VBlank時にNMI割込を発生</t>
+  </si>
+  <si>
+    <t>0:オフ, 1:オン</t>
+  </si>
+  <si>
+    <t>bit6</t>
+  </si>
+  <si>
+    <t>PPU選択?</t>
+  </si>
+  <si>
+    <t>0:マスター, 1:スレーブ</t>
+  </si>
+  <si>
+    <t>bit5</t>
+  </si>
+  <si>
+    <t>スプライトサイズ</t>
+  </si>
+  <si>
+    <t>0:8x8ピクセル</t>
+  </si>
+  <si>
+    <t>1:8x16ピクセル</t>
+  </si>
+  <si>
+    <t>bit4</t>
+  </si>
+  <si>
+    <t>BG用キャラクタテーブルベース</t>
+  </si>
+  <si>
+    <t>0:0x0000, 1:0x1000</t>
+  </si>
+  <si>
+    <t>bit3</t>
+  </si>
+  <si>
+    <t>スプライト用キャラクタテーブルベース</t>
+  </si>
+  <si>
+    <t>bit2</t>
+  </si>
+  <si>
+    <t>VRAMアクセス時のアドレス増加値</t>
+  </si>
+  <si>
+    <t>0:1byte, 1:32byte</t>
+  </si>
+  <si>
+    <t>bit1-0</t>
+  </si>
+  <si>
+    <t>メインスクリーンアドレス</t>
+  </si>
+  <si>
+    <t>00:0x2000, 01:0x2400</t>
+  </si>
+  <si>
+    <t>10:0x2800, 11:0x2C00</t>
+  </si>
+  <si>
+    <t>0x2001 (PPU制御レジスタ2)</t>
+  </si>
+  <si>
+    <t>W1 : PPUの表示設定を行います。</t>
+  </si>
+  <si>
+    <t>赤色を強調</t>
+  </si>
+  <si>
+    <t>緑色を強調</t>
+  </si>
+  <si>
+    <t>青色を強調</t>
+  </si>
+  <si>
+    <t>スプライトの表示</t>
+  </si>
+  <si>
+    <t>BGの表示</t>
+  </si>
+  <si>
+    <t>画面左端8ピクセルのスプライトを表示</t>
+  </si>
+  <si>
+    <t>0:クリップ, 1:表示</t>
+  </si>
+  <si>
+    <t>bit1</t>
+  </si>
+  <si>
+    <t>画面左端8ピクセルのBGを表示</t>
+  </si>
+  <si>
+    <t>bit0</t>
+  </si>
+  <si>
+    <t>色設定</t>
+  </si>
+  <si>
+    <t>0:カラー, 1:モノクロ</t>
+  </si>
+  <si>
+    <t>0x2002 (PPUステータスレジスタ)</t>
+  </si>
+  <si>
+    <t>R1 : PPUの状態を取得します。</t>
+  </si>
+  <si>
+    <t>スクリーンの描画状況</t>
+  </si>
+  <si>
+    <t>0:スキャンライン描画中</t>
+  </si>
+  <si>
+    <t>1:VBlank中</t>
+  </si>
+  <si>
+    <t>描画スキャンラインの0番スプライトヒット</t>
+  </si>
+  <si>
+    <t>0:ヒットせず, 1:ヒット</t>
+  </si>
+  <si>
+    <t>描画スキャンラインのスプライト横並び数</t>
+  </si>
+  <si>
+    <t>0:8個以下, 1:9個以上</t>
+  </si>
+  <si>
+    <t>VRAM状態</t>
+  </si>
+  <si>
+    <t>0:書き込み可能</t>
+  </si>
+  <si>
+    <t>1:書き込み不可</t>
+  </si>
+  <si>
+    <t>bit3-0</t>
+  </si>
+  <si>
+    <t>未使用</t>
+  </si>
+  <si>
+    <t>0x2003 (スプライトアドレスレジスタ)</t>
+  </si>
+  <si>
+    <t>W1 : スプライトRAMへの書き込みアドレスを設定します。</t>
+  </si>
+  <si>
+    <t>bit7-0</t>
+  </si>
+  <si>
+    <t>スプライトRAMアドレス</t>
+  </si>
+  <si>
+    <t>データ値</t>
+  </si>
+  <si>
+    <t>0x2004 (スプライトアクセスレジスタ)</t>
+  </si>
+  <si>
+    <t>W1 : スプライトRAMへ書き込みを行います。</t>
+  </si>
+  <si>
+    <t>スプライトRAMへ書き込むデータ</t>
+  </si>
+  <si>
+    <t>0x2005 (スクロールレジスタ)</t>
+  </si>
+  <si>
+    <t>W2 : スクロールの設定を行います。このレジスタには2回連続で書き込みます。</t>
+  </si>
+  <si>
+    <t>(1)水平スクロール値</t>
+  </si>
+  <si>
+    <t>(2)垂直スクロール値</t>
+  </si>
+  <si>
+    <t>0x2006 (VRAMアドレスレジスタ)</t>
+  </si>
+  <si>
+    <t>W2 : VRAMへの書き込みアドレスを設定します。このレジスタには2回連続で書き込みます。</t>
+  </si>
+  <si>
+    <t>(1)VRAMアドレス上位8bit</t>
+  </si>
+  <si>
+    <t>(2)VRAMアドレス下位8bit</t>
+  </si>
+  <si>
+    <t>0x2007 (VRAMアクセスレジスタ)</t>
+  </si>
+  <si>
+    <t>R1 / W1 : VRAMに対してデータ読み込み、データ書き込みを行います。</t>
+  </si>
+  <si>
+    <t>(R)VRAMから読み込んだデータ</t>
+  </si>
+  <si>
+    <t>(W)VRAMへ書き込むデータ</t>
+  </si>
+  <si>
+    <t>ppu ctl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ppu mask</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(scr_x, scr_y)</t>
+  </si>
+  <si>
+    <t>Virtual Screen</t>
+  </si>
+  <si>
+    <t>Horizontal Mirror</t>
+  </si>
+  <si>
+    <t>Vertical Mirror</t>
+  </si>
+  <si>
+    <t>60 frames per sec</t>
+  </si>
+  <si>
+    <t>constant HSCAN_MAX    : integer := 341;</t>
+  </si>
+  <si>
+    <t>constant VSCAN_MAX    : integer := 262;</t>
+  </si>
+  <si>
+    <t>constant HSCAN        : integer := 257;</t>
+  </si>
+  <si>
+    <t>constant VSCAN        : integer := 240;</t>
+  </si>
+  <si>
+    <t>2c00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>32 x 30 tiles</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MOTO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>203b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>v mirror</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2c00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(mirror)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2c53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2e40</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>150=18 tile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>83=10 tile</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(150, 83)=2e93</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>h mirror</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -42,7 +369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,21 +385,261 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF786054"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="mediumDashed">
+        <color rgb="FF584A44"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF804030"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF804030"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF804030"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF804030"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF804030"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF804030"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF804030"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF804030"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF804030"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF804030"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -81,8 +648,92 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -91,6 +742,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCCCFF"/>
+    </mruColors>
+  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -735,6 +1399,1574 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1278427" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2419350" y="1905000"/>
+          <a:ext cx="1278427" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>VGA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1165447" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="1238250"/>
+          <a:ext cx="1165447" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>NES</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="4686300"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="4686300"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8943975" y="6410325"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11410950" y="6410325"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8886825" y="4705350"/>
+          <a:ext cx="2438400" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="7743825"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="7743825"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="9467850"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="9467850"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="7762875"/>
+          <a:ext cx="2019300" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="7762875"/>
+          <a:ext cx="476250" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>7096</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>167482</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Right Arrow 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9455896" y="8597107"/>
+          <a:ext cx="231029" cy="118268"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>207453</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Right Arrow 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7134225" y="8601074"/>
+          <a:ext cx="207453" cy="114301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="7743825"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4038600" y="7743825"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7667625" y="13687425"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="496674" cy="843757"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10163175" y="13687425"/>
+          <a:ext cx="496674" cy="843757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="4800"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11982451"/>
+          <a:ext cx="2495550" cy="1238250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangle 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7610475" y="11496675"/>
+          <a:ext cx="2495550" cy="485775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76797</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>181160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>189903</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Down Arrow 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8725497" y="13020860"/>
+          <a:ext cx="113106" cy="209365"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>76797</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>189903</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>157299</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Down Arrow 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8725497" y="11506200"/>
+          <a:ext cx="113106" cy="157299"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Straight Connector 29"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="5648325" y="771525"/>
+          <a:ext cx="3000375" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5648325" y="3267075"/>
+          <a:ext cx="3000375" cy="962025"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="15535275"/>
+          <a:ext cx="4914900" cy="1724025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4352925" y="14335126"/>
+          <a:ext cx="4914900" cy="1200150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15687675" y="15535275"/>
+          <a:ext cx="2219325" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rectangle 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13306425" y="15535275"/>
+          <a:ext cx="2390775" cy="2924175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1022,8 +3254,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="AO6:AO13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AO15" sqref="AO15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
@@ -1062,26 +3294,5028 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A2:C58"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="59.25" customWidth="1"/>
+    <col min="2" max="2" width="42.625" customWidth="1"/>
+    <col min="3" max="3" width="64.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
+      <c r="A3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickBot="1">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickBot="1">
+      <c r="A7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickBot="1">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickBot="1">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickBot="1">
+      <c r="A12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickBot="1">
+      <c r="A18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1">
+      <c r="A19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickBot="1">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickBot="1">
+      <c r="A22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickBot="1">
+      <c r="A23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1">
+      <c r="A24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1">
+      <c r="A25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickBot="1">
+      <c r="A26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A27" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickBot="1">
+      <c r="A28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="14.25">
+      <c r="A29" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15" thickBot="1">
+      <c r="A31" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="14.25">
+      <c r="A33" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A37" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15" thickBot="1">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A41" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15" thickBot="1">
+      <c r="A43" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A45" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15" thickBot="1">
+      <c r="A46" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25">
+      <c r="A47" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="26"/>
+      <c r="B48" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="26"/>
+    </row>
+    <row r="49" spans="1:3" ht="15" thickBot="1">
+      <c r="A49" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="26.25" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15" thickBot="1">
+      <c r="A51" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="14.25">
+      <c r="A52" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C52" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1">
+      <c r="A53" s="26"/>
+      <c r="B53" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" s="26"/>
+    </row>
+    <row r="54" spans="1:3" ht="15" thickBot="1">
+      <c r="A54" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="14.25" thickBot="1">
+      <c r="A55" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15" thickBot="1">
+      <c r="A56" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="14.25">
+      <c r="A57" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="26"/>
+      <c r="B58" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="C3:BX117"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="X74" workbookViewId="0">
+      <selection activeCell="AV85" sqref="AV85"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="4" width="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="4" bestFit="1" customWidth="1"/>
+    <col min="33" max="38" width="4" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.25" customWidth="1"/>
+    <col min="46" max="47" width="4" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="5.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="4:48">
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="4:48" ht="14.25" thickBot="1">
+      <c r="Z4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="4:48">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9">
+        <v>640</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="10"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="17"/>
+      <c r="AA5" s="17"/>
+      <c r="AB5" s="17"/>
+      <c r="AC5" s="17"/>
+      <c r="AD5" s="18"/>
+    </row>
+    <row r="6" spans="4:48">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="20"/>
+    </row>
+    <row r="7" spans="4:48">
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="20"/>
+      <c r="AL7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="4:48" ht="14.25" thickBot="1">
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="20"/>
+      <c r="AU8">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="4:48">
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="20"/>
+      <c r="AJ9" s="8"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="9">
+        <v>256</v>
+      </c>
+      <c r="AM9" s="9"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="9"/>
+      <c r="AQ9" s="9"/>
+      <c r="AR9" s="9"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="17"/>
+      <c r="AU9" s="17"/>
+      <c r="AV9" s="18"/>
+    </row>
+    <row r="10" spans="4:48">
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12"/>
+      <c r="AC10" s="12"/>
+      <c r="AD10" s="20"/>
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="12"/>
+      <c r="AL10" s="12"/>
+      <c r="AM10" s="12"/>
+      <c r="AN10" s="12"/>
+      <c r="AO10" s="12"/>
+      <c r="AP10" s="12"/>
+      <c r="AQ10" s="12"/>
+      <c r="AR10" s="12"/>
+      <c r="AS10" s="13"/>
+      <c r="AT10" s="12"/>
+      <c r="AU10" s="12"/>
+      <c r="AV10" s="20"/>
+    </row>
+    <row r="11" spans="4:48">
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+      <c r="AA11" s="12"/>
+      <c r="AB11" s="12"/>
+      <c r="AC11" s="12"/>
+      <c r="AD11" s="20"/>
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="12"/>
+      <c r="AL11" s="12"/>
+      <c r="AM11" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN11" s="12"/>
+      <c r="AO11" s="12"/>
+      <c r="AP11" s="12"/>
+      <c r="AQ11" s="12"/>
+      <c r="AR11" s="12"/>
+      <c r="AS11" s="13"/>
+      <c r="AT11" s="12"/>
+      <c r="AU11" s="12"/>
+      <c r="AV11" s="20"/>
+    </row>
+    <row r="12" spans="4:48">
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+      <c r="AA12" s="12"/>
+      <c r="AB12" s="12"/>
+      <c r="AC12" s="12"/>
+      <c r="AD12" s="20"/>
+      <c r="AJ12" s="11">
+        <v>240</v>
+      </c>
+      <c r="AK12" s="12"/>
+      <c r="AL12" s="12"/>
+      <c r="AM12" s="12"/>
+      <c r="AN12" s="12"/>
+      <c r="AO12" s="12"/>
+      <c r="AP12" s="12"/>
+      <c r="AQ12" s="12"/>
+      <c r="AR12" s="12"/>
+      <c r="AS12" s="13"/>
+      <c r="AT12" s="12"/>
+      <c r="AU12" s="12"/>
+      <c r="AV12" s="20"/>
+    </row>
+    <row r="13" spans="4:48">
+      <c r="D13" s="11">
+        <v>480</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="12"/>
+      <c r="Z13" s="12"/>
+      <c r="AA13" s="12"/>
+      <c r="AB13" s="12"/>
+      <c r="AC13" s="12"/>
+      <c r="AD13" s="20"/>
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="12"/>
+      <c r="AL13" s="12"/>
+      <c r="AM13" s="12"/>
+      <c r="AN13" s="12"/>
+      <c r="AO13" s="12"/>
+      <c r="AP13" s="12"/>
+      <c r="AQ13" s="12"/>
+      <c r="AR13" s="12"/>
+      <c r="AS13" s="13"/>
+      <c r="AT13" s="12"/>
+      <c r="AU13" s="12"/>
+      <c r="AV13" s="20"/>
+    </row>
+    <row r="14" spans="4:48">
+      <c r="D14" s="11"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="12"/>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="12"/>
+      <c r="AA14" s="12"/>
+      <c r="AB14" s="12"/>
+      <c r="AC14" s="12"/>
+      <c r="AD14" s="20"/>
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="12"/>
+      <c r="AL14" s="12"/>
+      <c r="AM14" s="12"/>
+      <c r="AN14" s="12"/>
+      <c r="AO14" s="12"/>
+      <c r="AP14" s="12"/>
+      <c r="AQ14" s="12"/>
+      <c r="AR14" s="12"/>
+      <c r="AS14" s="13"/>
+      <c r="AT14" s="12"/>
+      <c r="AU14" s="12"/>
+      <c r="AV14" s="20"/>
+    </row>
+    <row r="15" spans="4:48">
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="12"/>
+      <c r="AB15" s="12"/>
+      <c r="AC15" s="12"/>
+      <c r="AD15" s="20"/>
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="12"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="12"/>
+      <c r="AN15" s="12"/>
+      <c r="AO15" s="12"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="12"/>
+      <c r="AR15" s="12"/>
+      <c r="AS15" s="13"/>
+      <c r="AT15" s="12"/>
+      <c r="AU15" s="12"/>
+      <c r="AV15" s="20"/>
+    </row>
+    <row r="16" spans="4:48">
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="12"/>
+      <c r="AA16" s="12"/>
+      <c r="AB16" s="12"/>
+      <c r="AC16" s="12"/>
+      <c r="AD16" s="20"/>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="12"/>
+      <c r="AL16" s="12"/>
+      <c r="AM16" s="12"/>
+      <c r="AN16" s="12"/>
+      <c r="AO16" s="12"/>
+      <c r="AP16" s="12"/>
+      <c r="AQ16" s="12"/>
+      <c r="AR16" s="12"/>
+      <c r="AS16" s="13"/>
+      <c r="AT16" s="12"/>
+      <c r="AU16" s="12"/>
+      <c r="AV16" s="20"/>
+    </row>
+    <row r="17" spans="3:48" ht="14.25" thickBot="1">
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+      <c r="AC17" s="12"/>
+      <c r="AD17" s="20"/>
+      <c r="AJ17" s="14"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
+      <c r="AO17" s="15"/>
+      <c r="AP17" s="15"/>
+      <c r="AQ17" s="15"/>
+      <c r="AR17" s="15"/>
+      <c r="AS17" s="16"/>
+      <c r="AT17" s="12"/>
+      <c r="AU17" s="12"/>
+      <c r="AV17" s="20"/>
+    </row>
+    <row r="18" spans="3:48">
+      <c r="D18" s="11"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="20"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+      <c r="AT18" s="12"/>
+      <c r="AU18" s="12"/>
+      <c r="AV18" s="20"/>
+    </row>
+    <row r="19" spans="3:48">
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="12"/>
+      <c r="AA19" s="12"/>
+      <c r="AB19" s="12"/>
+      <c r="AC19" s="12"/>
+      <c r="AD19" s="20"/>
+      <c r="AI19">
+        <v>262</v>
+      </c>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="12"/>
+      <c r="AL19" s="12"/>
+      <c r="AM19" s="12"/>
+      <c r="AN19" s="12"/>
+      <c r="AO19" s="12"/>
+      <c r="AP19" s="12"/>
+      <c r="AQ19" s="12"/>
+      <c r="AR19" s="12"/>
+      <c r="AS19" s="12"/>
+      <c r="AT19" s="12"/>
+      <c r="AU19" s="12"/>
+      <c r="AV19" s="20"/>
+    </row>
+    <row r="20" spans="3:48">
+      <c r="D20" s="11"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="12"/>
+      <c r="AA20" s="12"/>
+      <c r="AB20" s="12"/>
+      <c r="AC20" s="12"/>
+      <c r="AD20" s="20"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="12"/>
+      <c r="AL20" s="12"/>
+      <c r="AM20" s="12"/>
+      <c r="AN20" s="12"/>
+      <c r="AO20" s="12"/>
+      <c r="AP20" s="12"/>
+      <c r="AQ20" s="12"/>
+      <c r="AR20" s="12"/>
+      <c r="AS20" s="12"/>
+      <c r="AT20" s="12"/>
+      <c r="AU20" s="12"/>
+      <c r="AV20" s="20"/>
+    </row>
+    <row r="21" spans="3:48">
+      <c r="D21" s="11"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="13"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="12"/>
+      <c r="AA21" s="12"/>
+      <c r="AB21" s="12"/>
+      <c r="AC21" s="12"/>
+      <c r="AD21" s="20"/>
+      <c r="AJ21" s="21"/>
+      <c r="AK21" s="22"/>
+      <c r="AL21" s="22"/>
+      <c r="AM21" s="22"/>
+      <c r="AN21" s="22"/>
+      <c r="AO21" s="22"/>
+      <c r="AP21" s="22"/>
+      <c r="AQ21" s="22"/>
+      <c r="AR21" s="22"/>
+      <c r="AS21" s="22"/>
+      <c r="AT21" s="22"/>
+      <c r="AU21" s="22"/>
+      <c r="AV21" s="23"/>
+    </row>
+    <row r="22" spans="3:48" ht="14.25" thickBot="1">
+      <c r="D22" s="14"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="15"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="16"/>
+      <c r="X22" s="12"/>
+      <c r="Y22" s="12"/>
+      <c r="Z22" s="12"/>
+      <c r="AA22" s="12"/>
+      <c r="AB22" s="12"/>
+      <c r="AC22" s="12"/>
+      <c r="AD22" s="20"/>
+    </row>
+    <row r="23" spans="3:48">
+      <c r="D23" s="19"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="12"/>
+      <c r="X23" s="12"/>
+      <c r="Y23" s="12"/>
+      <c r="Z23" s="12"/>
+      <c r="AA23" s="12"/>
+      <c r="AB23" s="12"/>
+      <c r="AC23" s="12"/>
+      <c r="AD23" s="20"/>
+      <c r="AL23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="3:48">
+      <c r="D24" s="19"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="12"/>
+      <c r="X24" s="12"/>
+      <c r="Y24" s="12"/>
+      <c r="Z24" s="12"/>
+      <c r="AA24" s="12"/>
+      <c r="AB24" s="12"/>
+      <c r="AC24" s="12"/>
+      <c r="AD24" s="20"/>
+      <c r="AL24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="3:48">
+      <c r="D25" s="19"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="12"/>
+      <c r="X25" s="12"/>
+      <c r="Y25" s="12"/>
+      <c r="Z25" s="12"/>
+      <c r="AA25" s="12"/>
+      <c r="AB25" s="12"/>
+      <c r="AC25" s="12"/>
+      <c r="AD25" s="20"/>
+      <c r="AL25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="3:48">
+      <c r="C26">
+        <v>600</v>
+      </c>
+      <c r="D26" s="19"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="12"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="12"/>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="12"/>
+      <c r="X26" s="12"/>
+      <c r="Y26" s="12"/>
+      <c r="Z26" s="12"/>
+      <c r="AA26" s="12"/>
+      <c r="AB26" s="12"/>
+      <c r="AC26" s="12"/>
+      <c r="AD26" s="20"/>
+      <c r="AL26" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="3:48">
+      <c r="D27" s="19"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="12"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="12"/>
+      <c r="X27" s="12"/>
+      <c r="Y27" s="12"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="12"/>
+      <c r="AB27" s="12"/>
+      <c r="AC27" s="12"/>
+      <c r="AD27" s="20"/>
+    </row>
+    <row r="28" spans="3:48">
+      <c r="D28" s="19"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="12"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="12"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
+      <c r="R28" s="12"/>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="12"/>
+      <c r="X28" s="12"/>
+      <c r="Y28" s="12"/>
+      <c r="Z28" s="12"/>
+      <c r="AA28" s="12"/>
+      <c r="AB28" s="12"/>
+      <c r="AC28" s="12"/>
+      <c r="AD28" s="20"/>
+    </row>
+    <row r="29" spans="3:48">
+      <c r="D29" s="21"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
+      <c r="W29" s="22"/>
+      <c r="X29" s="22"/>
+      <c r="Y29" s="22"/>
+      <c r="Z29" s="22"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="23"/>
+    </row>
+    <row r="35" spans="3:49">
+      <c r="C35" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="3:49">
+      <c r="AD37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="3:49" ht="14.25" thickBot="1"/>
+    <row r="39" spans="3:49">
+      <c r="E39" s="24">
+        <v>2000</v>
+      </c>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="10"/>
+      <c r="O39" s="8">
+        <v>2400</v>
+      </c>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+      <c r="V39" s="9"/>
+      <c r="W39" s="9"/>
+      <c r="X39" s="10"/>
+      <c r="AD39" s="8"/>
+      <c r="AE39" s="9"/>
+      <c r="AF39" s="9"/>
+      <c r="AG39" s="9"/>
+      <c r="AH39" s="9"/>
+      <c r="AI39" s="9"/>
+      <c r="AJ39" s="9"/>
+      <c r="AK39" s="9"/>
+      <c r="AL39" s="9"/>
+      <c r="AM39" s="10"/>
+      <c r="AN39" s="8"/>
+      <c r="AO39" s="9"/>
+      <c r="AP39" s="9"/>
+      <c r="AQ39" s="9"/>
+      <c r="AR39" s="9"/>
+      <c r="AS39" s="9"/>
+      <c r="AT39" s="9"/>
+      <c r="AU39" s="9"/>
+      <c r="AV39" s="9"/>
+      <c r="AW39" s="10"/>
+    </row>
+    <row r="40" spans="3:49">
+      <c r="E40" s="11"/>
+      <c r="F40" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="12"/>
+      <c r="N40" s="13"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
+      <c r="R40" s="12"/>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="12"/>
+      <c r="X40" s="13"/>
+      <c r="AD40" s="11"/>
+      <c r="AE40" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF40" s="12"/>
+      <c r="AG40" s="12"/>
+      <c r="AH40" s="12"/>
+      <c r="AI40" s="12"/>
+      <c r="AJ40" s="12"/>
+      <c r="AK40" s="12"/>
+      <c r="AL40" s="12"/>
+      <c r="AM40" s="13"/>
+      <c r="AN40" s="11"/>
+      <c r="AO40" s="12"/>
+      <c r="AP40" s="12"/>
+      <c r="AQ40" s="12"/>
+      <c r="AR40" s="12"/>
+      <c r="AS40" s="12"/>
+      <c r="AT40" s="12"/>
+      <c r="AU40" s="12"/>
+      <c r="AV40" s="12"/>
+      <c r="AW40" s="13"/>
+    </row>
+    <row r="41" spans="3:49">
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
+      <c r="R41" s="12"/>
+      <c r="S41" s="12"/>
+      <c r="T41" s="12"/>
+      <c r="U41" s="12"/>
+      <c r="V41" s="12"/>
+      <c r="W41" s="12"/>
+      <c r="X41" s="13"/>
+      <c r="AD41" s="11"/>
+      <c r="AE41" s="12"/>
+      <c r="AF41" s="12"/>
+      <c r="AG41" s="12"/>
+      <c r="AH41" s="12"/>
+      <c r="AI41" s="12"/>
+      <c r="AJ41" s="12"/>
+      <c r="AK41" s="12"/>
+      <c r="AL41" s="12"/>
+      <c r="AM41" s="13"/>
+      <c r="AN41" s="11"/>
+      <c r="AO41" s="12"/>
+      <c r="AP41" s="12"/>
+      <c r="AQ41" s="12"/>
+      <c r="AR41" s="12"/>
+      <c r="AS41" s="12"/>
+      <c r="AT41" s="12"/>
+      <c r="AU41" s="12"/>
+      <c r="AV41" s="12"/>
+      <c r="AW41" s="13"/>
+    </row>
+    <row r="42" spans="3:49">
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+      <c r="K42" s="12"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="12"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
+      <c r="R42" s="12"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="12"/>
+      <c r="U42" s="12"/>
+      <c r="V42" s="12"/>
+      <c r="W42" s="12"/>
+      <c r="X42" s="13"/>
+      <c r="AD42" s="11"/>
+      <c r="AE42" s="12"/>
+      <c r="AF42" s="12"/>
+      <c r="AG42" s="12"/>
+      <c r="AH42" s="12"/>
+      <c r="AI42" s="12"/>
+      <c r="AJ42" s="12"/>
+      <c r="AK42" s="12"/>
+      <c r="AL42" s="12"/>
+      <c r="AM42" s="13"/>
+      <c r="AN42" s="11"/>
+      <c r="AO42" s="12"/>
+      <c r="AP42" s="12"/>
+      <c r="AQ42" s="12"/>
+      <c r="AR42" s="12"/>
+      <c r="AS42" s="12"/>
+      <c r="AT42" s="12"/>
+      <c r="AU42" s="12"/>
+      <c r="AV42" s="12"/>
+      <c r="AW42" s="13"/>
+    </row>
+    <row r="43" spans="3:49">
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="12"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="13"/>
+      <c r="AD43" s="11"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="13"/>
+      <c r="AN43" s="11"/>
+      <c r="AO43" s="12"/>
+      <c r="AP43" s="12"/>
+      <c r="AQ43" s="12"/>
+      <c r="AR43" s="12"/>
+      <c r="AS43" s="12"/>
+      <c r="AT43" s="12"/>
+      <c r="AU43" s="12"/>
+      <c r="AV43" s="12"/>
+      <c r="AW43" s="13"/>
+    </row>
+    <row r="44" spans="3:49">
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+      <c r="K44" s="12"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="12"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+      <c r="R44" s="12"/>
+      <c r="S44" s="12"/>
+      <c r="T44" s="12"/>
+      <c r="U44" s="12"/>
+      <c r="V44" s="12"/>
+      <c r="W44" s="12"/>
+      <c r="X44" s="13"/>
+      <c r="AD44" s="11"/>
+      <c r="AE44" s="12"/>
+      <c r="AF44" s="12"/>
+      <c r="AG44" s="12"/>
+      <c r="AH44" s="12"/>
+      <c r="AI44" s="12"/>
+      <c r="AJ44" s="12"/>
+      <c r="AK44" s="12"/>
+      <c r="AL44" s="12"/>
+      <c r="AM44" s="13"/>
+      <c r="AN44" s="11"/>
+      <c r="AO44" s="12"/>
+      <c r="AP44" s="12"/>
+      <c r="AQ44" s="12"/>
+      <c r="AR44" s="12"/>
+      <c r="AS44" s="12"/>
+      <c r="AT44" s="12"/>
+      <c r="AU44" s="12"/>
+      <c r="AV44" s="12"/>
+      <c r="AW44" s="13"/>
+    </row>
+    <row r="45" spans="3:49">
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+      <c r="K45" s="12"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="12"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="11"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="12"/>
+      <c r="S45" s="12"/>
+      <c r="T45" s="12"/>
+      <c r="U45" s="12"/>
+      <c r="V45" s="12"/>
+      <c r="W45" s="12"/>
+      <c r="X45" s="13"/>
+      <c r="AD45" s="11"/>
+      <c r="AE45" s="12"/>
+      <c r="AF45" s="12"/>
+      <c r="AG45" s="12"/>
+      <c r="AH45" s="12"/>
+      <c r="AI45" s="12"/>
+      <c r="AJ45" s="12"/>
+      <c r="AK45" s="12"/>
+      <c r="AL45" s="12"/>
+      <c r="AM45" s="13"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="12"/>
+      <c r="AP45" s="12"/>
+      <c r="AQ45" s="12"/>
+      <c r="AR45" s="12"/>
+      <c r="AS45" s="12"/>
+      <c r="AT45" s="12"/>
+      <c r="AU45" s="12"/>
+      <c r="AV45" s="12"/>
+      <c r="AW45" s="13"/>
+    </row>
+    <row r="46" spans="3:49">
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="12"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="11"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="12"/>
+      <c r="S46" s="12"/>
+      <c r="T46" s="12"/>
+      <c r="U46" s="12"/>
+      <c r="V46" s="12"/>
+      <c r="W46" s="12"/>
+      <c r="X46" s="13"/>
+      <c r="AD46" s="11"/>
+      <c r="AE46" s="12"/>
+      <c r="AF46" s="12"/>
+      <c r="AG46" s="12"/>
+      <c r="AH46" s="12"/>
+      <c r="AI46" s="12"/>
+      <c r="AJ46" s="12"/>
+      <c r="AK46" s="12"/>
+      <c r="AL46" s="12"/>
+      <c r="AM46" s="13"/>
+      <c r="AN46" s="11"/>
+      <c r="AO46" s="12"/>
+      <c r="AP46" s="12"/>
+      <c r="AQ46" s="12"/>
+      <c r="AR46" s="12"/>
+      <c r="AS46" s="12"/>
+      <c r="AT46" s="12"/>
+      <c r="AU46" s="12"/>
+      <c r="AV46" s="12"/>
+      <c r="AW46" s="13"/>
+    </row>
+    <row r="47" spans="3:49" ht="14.25" thickBot="1">
+      <c r="E47" s="14"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15"/>
+      <c r="K47" s="15"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="15"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="15"/>
+      <c r="R47" s="15"/>
+      <c r="S47" s="15"/>
+      <c r="T47" s="15"/>
+      <c r="U47" s="15"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="16"/>
+      <c r="AD47" s="14"/>
+      <c r="AE47" s="15"/>
+      <c r="AF47" s="15"/>
+      <c r="AG47" s="15"/>
+      <c r="AH47" s="15"/>
+      <c r="AI47" s="15"/>
+      <c r="AJ47" s="15"/>
+      <c r="AK47" s="15"/>
+      <c r="AL47" s="15"/>
+      <c r="AM47" s="16"/>
+      <c r="AN47" s="14"/>
+      <c r="AO47" s="15"/>
+      <c r="AP47" s="15"/>
+      <c r="AQ47" s="15"/>
+      <c r="AR47" s="15"/>
+      <c r="AS47" s="15"/>
+      <c r="AT47" s="15"/>
+      <c r="AU47" s="15"/>
+      <c r="AV47" s="15"/>
+      <c r="AW47" s="16"/>
+    </row>
+    <row r="48" spans="3:49">
+      <c r="E48" s="8">
+        <v>2800</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="10"/>
+      <c r="O48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+      <c r="V48" s="9"/>
+      <c r="W48" s="9"/>
+      <c r="X48" s="10"/>
+      <c r="AD48" s="8"/>
+      <c r="AE48" s="9"/>
+      <c r="AF48" s="9"/>
+      <c r="AG48" s="9"/>
+      <c r="AH48" s="9"/>
+      <c r="AI48" s="9"/>
+      <c r="AJ48" s="9"/>
+      <c r="AK48" s="9"/>
+      <c r="AL48" s="9"/>
+      <c r="AM48" s="10"/>
+      <c r="AN48" s="8"/>
+      <c r="AO48" s="9"/>
+      <c r="AP48" s="9"/>
+      <c r="AQ48" s="9"/>
+      <c r="AR48" s="9"/>
+      <c r="AS48" s="9"/>
+      <c r="AT48" s="9"/>
+      <c r="AU48" s="9"/>
+      <c r="AV48" s="9"/>
+      <c r="AW48" s="10"/>
+    </row>
+    <row r="49" spans="5:49">
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="12"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="11"/>
+      <c r="P49" s="12"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="12"/>
+      <c r="S49" s="12"/>
+      <c r="T49" s="12"/>
+      <c r="U49" s="12"/>
+      <c r="V49" s="12"/>
+      <c r="W49" s="12"/>
+      <c r="X49" s="13"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="12"/>
+      <c r="AF49" s="12"/>
+      <c r="AG49" s="12"/>
+      <c r="AH49" s="12"/>
+      <c r="AI49" s="12"/>
+      <c r="AJ49" s="12"/>
+      <c r="AK49" s="12"/>
+      <c r="AL49" s="12"/>
+      <c r="AM49" s="13"/>
+      <c r="AN49" s="11"/>
+      <c r="AO49" s="12"/>
+      <c r="AP49" s="12"/>
+      <c r="AQ49" s="12"/>
+      <c r="AR49" s="12"/>
+      <c r="AS49" s="12"/>
+      <c r="AT49" s="12"/>
+      <c r="AU49" s="12"/>
+      <c r="AV49" s="12"/>
+      <c r="AW49" s="13"/>
+    </row>
+    <row r="50" spans="5:49">
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="12"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="11"/>
+      <c r="P50" s="12"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="12"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="12"/>
+      <c r="U50" s="12"/>
+      <c r="V50" s="12"/>
+      <c r="W50" s="12"/>
+      <c r="X50" s="13"/>
+      <c r="AD50" s="11"/>
+      <c r="AE50" s="12"/>
+      <c r="AF50" s="12"/>
+      <c r="AG50" s="12"/>
+      <c r="AH50" s="12"/>
+      <c r="AI50" s="12"/>
+      <c r="AJ50" s="12"/>
+      <c r="AK50" s="12"/>
+      <c r="AL50" s="12"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="11"/>
+      <c r="AO50" s="12"/>
+      <c r="AP50" s="12"/>
+      <c r="AQ50" s="12"/>
+      <c r="AR50" s="12"/>
+      <c r="AS50" s="12"/>
+      <c r="AT50" s="12"/>
+      <c r="AU50" s="12"/>
+      <c r="AV50" s="12"/>
+      <c r="AW50" s="13"/>
+    </row>
+    <row r="51" spans="5:49">
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="12"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+      <c r="K51" s="12"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="12"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="11"/>
+      <c r="P51" s="12"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="12"/>
+      <c r="S51" s="12"/>
+      <c r="T51" s="12"/>
+      <c r="U51" s="12"/>
+      <c r="V51" s="12"/>
+      <c r="W51" s="12"/>
+      <c r="X51" s="13"/>
+      <c r="AD51" s="11"/>
+      <c r="AE51" s="12"/>
+      <c r="AF51" s="12"/>
+      <c r="AG51" s="12"/>
+      <c r="AH51" s="12"/>
+      <c r="AI51" s="12"/>
+      <c r="AJ51" s="12"/>
+      <c r="AK51" s="12"/>
+      <c r="AL51" s="12"/>
+      <c r="AM51" s="13"/>
+      <c r="AN51" s="11"/>
+      <c r="AO51" s="12"/>
+      <c r="AP51" s="12"/>
+      <c r="AQ51" s="12"/>
+      <c r="AR51" s="12"/>
+      <c r="AS51" s="12"/>
+      <c r="AT51" s="12"/>
+      <c r="AU51" s="12"/>
+      <c r="AV51" s="12"/>
+      <c r="AW51" s="13"/>
+    </row>
+    <row r="52" spans="5:49">
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+      <c r="K52" s="12"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="12"/>
+      <c r="N52" s="13"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="12"/>
+      <c r="Q52" s="12"/>
+      <c r="R52" s="12"/>
+      <c r="S52" s="12"/>
+      <c r="T52" s="12"/>
+      <c r="U52" s="12"/>
+      <c r="V52" s="12"/>
+      <c r="W52" s="12"/>
+      <c r="X52" s="13"/>
+      <c r="AD52" s="11"/>
+      <c r="AE52" s="12"/>
+      <c r="AF52" s="12"/>
+      <c r="AG52" s="12"/>
+      <c r="AH52" s="12"/>
+      <c r="AI52" s="12"/>
+      <c r="AJ52" s="12"/>
+      <c r="AK52" s="12"/>
+      <c r="AL52" s="12"/>
+      <c r="AM52" s="13"/>
+      <c r="AN52" s="11"/>
+      <c r="AO52" s="12"/>
+      <c r="AP52" s="12"/>
+      <c r="AQ52" s="12"/>
+      <c r="AR52" s="12"/>
+      <c r="AS52" s="12"/>
+      <c r="AT52" s="12"/>
+      <c r="AU52" s="12"/>
+      <c r="AV52" s="12"/>
+      <c r="AW52" s="13"/>
+    </row>
+    <row r="53" spans="5:49">
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+      <c r="K53" s="12"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="12"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="11"/>
+      <c r="P53" s="12"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="12"/>
+      <c r="S53" s="12"/>
+      <c r="T53" s="12"/>
+      <c r="U53" s="12"/>
+      <c r="V53" s="12"/>
+      <c r="W53" s="12"/>
+      <c r="X53" s="13"/>
+      <c r="AD53" s="11"/>
+      <c r="AE53" s="12"/>
+      <c r="AF53" s="12"/>
+      <c r="AG53" s="12"/>
+      <c r="AH53" s="12"/>
+      <c r="AI53" s="12"/>
+      <c r="AJ53" s="12"/>
+      <c r="AK53" s="12"/>
+      <c r="AL53" s="12"/>
+      <c r="AM53" s="13"/>
+      <c r="AN53" s="11"/>
+      <c r="AO53" s="12"/>
+      <c r="AP53" s="12"/>
+      <c r="AQ53" s="12"/>
+      <c r="AR53" s="12"/>
+      <c r="AS53" s="12"/>
+      <c r="AT53" s="12"/>
+      <c r="AU53" s="12"/>
+      <c r="AV53" s="12"/>
+      <c r="AW53" s="13"/>
+    </row>
+    <row r="54" spans="5:49">
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="11"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="13"/>
+      <c r="AD54" s="11"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="12"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="13"/>
+      <c r="AN54" s="11"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="12"/>
+      <c r="AW54" s="13"/>
+    </row>
+    <row r="55" spans="5:49">
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="13"/>
+      <c r="AD55" s="11"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="12"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="13"/>
+      <c r="AN55" s="11"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="12"/>
+      <c r="AW55" s="13"/>
+    </row>
+    <row r="56" spans="5:49" ht="14.25" thickBot="1">
+      <c r="E56" s="14"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="15"/>
+      <c r="M56" s="15"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="14"/>
+      <c r="P56" s="15"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="15"/>
+      <c r="S56" s="15"/>
+      <c r="T56" s="15"/>
+      <c r="U56" s="15"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="16"/>
+      <c r="AD56" s="14"/>
+      <c r="AE56" s="15"/>
+      <c r="AF56" s="15"/>
+      <c r="AG56" s="15"/>
+      <c r="AH56" s="15"/>
+      <c r="AI56" s="15"/>
+      <c r="AJ56" s="15"/>
+      <c r="AK56" s="15"/>
+      <c r="AL56" s="15"/>
+      <c r="AM56" s="16"/>
+      <c r="AN56" s="14"/>
+      <c r="AO56" s="15"/>
+      <c r="AP56" s="15"/>
+      <c r="AQ56" s="15"/>
+      <c r="AR56" s="15"/>
+      <c r="AS56" s="15"/>
+      <c r="AT56" s="15"/>
+      <c r="AU56" s="15"/>
+      <c r="AV56" s="15"/>
+      <c r="AW56" s="16"/>
+    </row>
+    <row r="59" spans="5:49">
+      <c r="AD59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="5:49" ht="14.25" thickBot="1"/>
+    <row r="61" spans="5:49">
+      <c r="AD61" s="8"/>
+      <c r="AE61" s="9"/>
+      <c r="AF61" s="9"/>
+      <c r="AG61" s="9"/>
+      <c r="AH61" s="9"/>
+      <c r="AI61" s="9"/>
+      <c r="AJ61" s="9"/>
+      <c r="AK61" s="9"/>
+      <c r="AL61" s="9"/>
+      <c r="AM61" s="10"/>
+      <c r="AN61" s="8"/>
+      <c r="AO61" s="9"/>
+      <c r="AP61" s="9"/>
+      <c r="AQ61" s="9"/>
+      <c r="AR61" s="9"/>
+      <c r="AS61" s="9"/>
+      <c r="AT61" s="9"/>
+      <c r="AU61" s="9"/>
+      <c r="AV61" s="9"/>
+      <c r="AW61" s="10"/>
+    </row>
+    <row r="62" spans="5:49">
+      <c r="AD62" s="11"/>
+      <c r="AE62" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="12"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="11"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="12"/>
+      <c r="AW62" s="13"/>
+    </row>
+    <row r="63" spans="5:49">
+      <c r="AD63" s="11"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="12"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="13"/>
+      <c r="AN63" s="11"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="12"/>
+      <c r="AW63" s="13"/>
+    </row>
+    <row r="64" spans="5:49">
+      <c r="AD64" s="11"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="12"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="13"/>
+      <c r="AN64" s="11"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="12"/>
+      <c r="AU64" s="12"/>
+      <c r="AV64" s="12"/>
+      <c r="AW64" s="13"/>
+    </row>
+    <row r="65" spans="30:49">
+      <c r="AD65" s="11"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="12"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="13"/>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="12"/>
+      <c r="AU65" s="12"/>
+      <c r="AV65" s="12"/>
+      <c r="AW65" s="13"/>
+    </row>
+    <row r="66" spans="30:49">
+      <c r="AD66" s="11"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="12"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="13"/>
+      <c r="AN66" s="11"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+      <c r="AS66" s="12"/>
+      <c r="AT66" s="12"/>
+      <c r="AU66" s="12"/>
+      <c r="AV66" s="12"/>
+      <c r="AW66" s="13"/>
+    </row>
+    <row r="67" spans="30:49">
+      <c r="AD67" s="11"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="12"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="13"/>
+      <c r="AN67" s="11"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="12"/>
+      <c r="AU67" s="12"/>
+      <c r="AV67" s="12"/>
+      <c r="AW67" s="13"/>
+    </row>
+    <row r="68" spans="30:49">
+      <c r="AD68" s="11"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="12"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="13"/>
+      <c r="AN68" s="11"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="12"/>
+      <c r="AW68" s="13"/>
+    </row>
+    <row r="69" spans="30:49" ht="14.25" thickBot="1">
+      <c r="AD69" s="14"/>
+      <c r="AE69" s="15"/>
+      <c r="AF69" s="15"/>
+      <c r="AG69" s="15"/>
+      <c r="AH69" s="15"/>
+      <c r="AI69" s="15"/>
+      <c r="AJ69" s="15"/>
+      <c r="AK69" s="15"/>
+      <c r="AL69" s="15"/>
+      <c r="AM69" s="16"/>
+      <c r="AN69" s="14"/>
+      <c r="AO69" s="15"/>
+      <c r="AP69" s="15"/>
+      <c r="AQ69" s="15"/>
+      <c r="AR69" s="15"/>
+      <c r="AS69" s="15"/>
+      <c r="AT69" s="15"/>
+      <c r="AU69" s="15"/>
+      <c r="AV69" s="15"/>
+      <c r="AW69" s="16"/>
+    </row>
+    <row r="70" spans="30:49">
+      <c r="AD70" s="8"/>
+      <c r="AE70" s="9"/>
+      <c r="AF70" s="9"/>
+      <c r="AG70" s="9"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="9"/>
+      <c r="AJ70" s="9"/>
+      <c r="AK70" s="9"/>
+      <c r="AL70" s="9"/>
+      <c r="AM70" s="10"/>
+      <c r="AN70" s="8"/>
+      <c r="AO70" s="9"/>
+      <c r="AP70" s="9"/>
+      <c r="AQ70" s="9"/>
+      <c r="AR70" s="9"/>
+      <c r="AS70" s="9"/>
+      <c r="AT70" s="9"/>
+      <c r="AU70" s="9"/>
+      <c r="AV70" s="9"/>
+      <c r="AW70" s="10"/>
+    </row>
+    <row r="71" spans="30:49">
+      <c r="AD71" s="11"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="12"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="13"/>
+      <c r="AN71" s="11"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+      <c r="AT71" s="12"/>
+      <c r="AU71" s="12"/>
+      <c r="AV71" s="12"/>
+      <c r="AW71" s="13"/>
+    </row>
+    <row r="72" spans="30:49">
+      <c r="AD72" s="11"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="12"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="13"/>
+      <c r="AN72" s="11"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="12"/>
+      <c r="AW72" s="13"/>
+    </row>
+    <row r="73" spans="30:49">
+      <c r="AD73" s="11"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="12"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="13"/>
+      <c r="AN73" s="11"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12"/>
+      <c r="AS73" s="12"/>
+      <c r="AT73" s="12"/>
+      <c r="AU73" s="12"/>
+      <c r="AV73" s="12"/>
+      <c r="AW73" s="13"/>
+    </row>
+    <row r="74" spans="30:49">
+      <c r="AD74" s="11"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="12"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="13"/>
+      <c r="AN74" s="11"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
+      <c r="AQ74" s="12"/>
+      <c r="AR74" s="12"/>
+      <c r="AS74" s="12"/>
+      <c r="AT74" s="12"/>
+      <c r="AU74" s="12"/>
+      <c r="AV74" s="12"/>
+      <c r="AW74" s="13"/>
+    </row>
+    <row r="75" spans="30:49">
+      <c r="AD75" s="11"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="12"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="13"/>
+      <c r="AN75" s="11"/>
+      <c r="AO75" s="12"/>
+      <c r="AP75" s="12"/>
+      <c r="AQ75" s="12"/>
+      <c r="AR75" s="12"/>
+      <c r="AS75" s="12"/>
+      <c r="AT75" s="12"/>
+      <c r="AU75" s="12"/>
+      <c r="AV75" s="12"/>
+      <c r="AW75" s="13"/>
+    </row>
+    <row r="76" spans="30:49">
+      <c r="AD76" s="11"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="12"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="13"/>
+      <c r="AN76" s="11"/>
+      <c r="AO76" s="12"/>
+      <c r="AP76" s="12"/>
+      <c r="AQ76" s="12"/>
+      <c r="AR76" s="12"/>
+      <c r="AS76" s="12"/>
+      <c r="AT76" s="12"/>
+      <c r="AU76" s="12"/>
+      <c r="AV76" s="12"/>
+      <c r="AW76" s="13"/>
+    </row>
+    <row r="77" spans="30:49">
+      <c r="AD77" s="11"/>
+      <c r="AE77" s="12"/>
+      <c r="AF77" s="12"/>
+      <c r="AG77" s="12"/>
+      <c r="AH77" s="12"/>
+      <c r="AI77" s="12"/>
+      <c r="AJ77" s="12"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="13"/>
+      <c r="AN77" s="11"/>
+      <c r="AO77" s="12"/>
+      <c r="AP77" s="12"/>
+      <c r="AQ77" s="12"/>
+      <c r="AR77" s="12"/>
+      <c r="AS77" s="12"/>
+      <c r="AT77" s="12"/>
+      <c r="AU77" s="12"/>
+      <c r="AV77" s="12"/>
+      <c r="AW77" s="13"/>
+    </row>
+    <row r="78" spans="30:49" ht="14.25" thickBot="1">
+      <c r="AD78" s="14"/>
+      <c r="AE78" s="15"/>
+      <c r="AF78" s="15"/>
+      <c r="AG78" s="15"/>
+      <c r="AH78" s="15"/>
+      <c r="AI78" s="15"/>
+      <c r="AJ78" s="15"/>
+      <c r="AK78" s="15"/>
+      <c r="AL78" s="15"/>
+      <c r="AM78" s="16"/>
+      <c r="AN78" s="14"/>
+      <c r="AO78" s="15"/>
+      <c r="AP78" s="15"/>
+      <c r="AQ78" s="15"/>
+      <c r="AR78" s="15"/>
+      <c r="AS78" s="15"/>
+      <c r="AT78" s="15"/>
+      <c r="AU78" s="15"/>
+      <c r="AV78" s="15"/>
+      <c r="AW78" s="16"/>
+    </row>
+    <row r="81" spans="6:76">
+      <c r="G81" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="6:76">
+      <c r="S82" t="s">
+        <v>95</v>
+      </c>
+      <c r="X82">
+        <v>2443</v>
+      </c>
+      <c r="AS82" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="6:76" ht="14.25" thickBot="1">
+      <c r="O83">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="6:76">
+      <c r="G84" s="8">
+        <v>2000</v>
+      </c>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="8">
+        <v>2400</v>
+      </c>
+      <c r="X84" s="9"/>
+      <c r="Y84" s="9"/>
+      <c r="Z84" s="9"/>
+      <c r="AA84" s="9"/>
+      <c r="AB84" s="9"/>
+      <c r="AC84" s="9"/>
+      <c r="AD84" s="9"/>
+      <c r="AE84" s="9"/>
+      <c r="AF84" s="9"/>
+      <c r="AG84" s="9"/>
+      <c r="AH84" s="9"/>
+      <c r="AI84" s="9"/>
+      <c r="AJ84" s="9"/>
+      <c r="AK84" s="9"/>
+      <c r="AL84" s="10"/>
+      <c r="AS84" s="8">
+        <v>2000</v>
+      </c>
+      <c r="AT84" s="9"/>
+      <c r="AU84" s="9"/>
+      <c r="AV84" s="9"/>
+      <c r="AW84" s="9"/>
+      <c r="AX84" s="9"/>
+      <c r="AY84" s="9"/>
+      <c r="AZ84" s="9"/>
+      <c r="BA84" s="9"/>
+      <c r="BB84" s="9"/>
+      <c r="BC84" s="9"/>
+      <c r="BD84" s="9"/>
+      <c r="BE84" s="9"/>
+      <c r="BF84" s="9"/>
+      <c r="BG84" s="9"/>
+      <c r="BH84" s="10"/>
+      <c r="BI84" s="8">
+        <v>2400</v>
+      </c>
+      <c r="BJ84" s="9"/>
+      <c r="BK84" s="9"/>
+      <c r="BL84" s="9"/>
+      <c r="BM84" s="9"/>
+      <c r="BN84" s="9"/>
+      <c r="BO84" s="9"/>
+      <c r="BP84" s="9"/>
+      <c r="BQ84" s="9"/>
+      <c r="BR84" s="9"/>
+      <c r="BS84" s="9"/>
+      <c r="BT84" s="9"/>
+      <c r="BU84" s="9"/>
+      <c r="BV84" s="9"/>
+      <c r="BW84" s="9"/>
+      <c r="BX84" s="10"/>
+    </row>
+    <row r="85" spans="6:76">
+      <c r="G85" s="11">
+        <v>2020</v>
+      </c>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="13"/>
+      <c r="W85" s="11">
+        <v>2420</v>
+      </c>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="12"/>
+      <c r="AD85" s="12"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="13"/>
+      <c r="AS85" s="11">
+        <v>2020</v>
+      </c>
+      <c r="AT85" s="12"/>
+      <c r="AU85" s="12"/>
+      <c r="AV85" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AW85" s="12"/>
+      <c r="AX85" s="12"/>
+      <c r="AY85" s="12"/>
+      <c r="AZ85" s="12"/>
+      <c r="BA85" s="12"/>
+      <c r="BB85" s="12"/>
+      <c r="BC85" s="12"/>
+      <c r="BD85" s="12"/>
+      <c r="BE85" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="BF85" s="12"/>
+      <c r="BG85" s="12"/>
+      <c r="BH85" s="13"/>
+      <c r="BI85" s="11">
+        <v>2420</v>
+      </c>
+      <c r="BJ85" s="12"/>
+      <c r="BK85" s="12"/>
+      <c r="BL85" s="12"/>
+      <c r="BM85" s="12"/>
+      <c r="BN85" s="12"/>
+      <c r="BO85" s="12"/>
+      <c r="BP85" s="12"/>
+      <c r="BQ85" s="12"/>
+      <c r="BR85" s="12"/>
+      <c r="BS85" s="12"/>
+      <c r="BT85" s="12"/>
+      <c r="BU85" s="12"/>
+      <c r="BV85" s="12"/>
+      <c r="BW85" s="12"/>
+      <c r="BX85" s="13"/>
+    </row>
+    <row r="86" spans="6:76">
+      <c r="G86" s="11">
+        <v>2040</v>
+      </c>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="13"/>
+      <c r="W86" s="11">
+        <v>2440</v>
+      </c>
+      <c r="X86" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="12"/>
+      <c r="AE86" s="12"/>
+      <c r="AF86" s="12"/>
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="12"/>
+      <c r="AJ86" s="12"/>
+      <c r="AK86" s="12"/>
+      <c r="AL86" s="13"/>
+      <c r="AS86" s="11">
+        <v>2040</v>
+      </c>
+      <c r="AT86" s="12"/>
+      <c r="AU86" s="12"/>
+      <c r="AV86" s="12"/>
+      <c r="AW86" s="12"/>
+      <c r="AX86" s="12"/>
+      <c r="AY86" s="12"/>
+      <c r="AZ86" s="12"/>
+      <c r="BA86" s="12"/>
+      <c r="BB86" s="12"/>
+      <c r="BC86" s="12"/>
+      <c r="BD86" s="12"/>
+      <c r="BE86" s="12"/>
+      <c r="BF86" s="12"/>
+      <c r="BG86" s="12"/>
+      <c r="BH86" s="13"/>
+      <c r="BI86" s="11">
+        <v>2440</v>
+      </c>
+      <c r="BJ86" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="BK86" s="12"/>
+      <c r="BL86" s="12"/>
+      <c r="BM86" s="12"/>
+      <c r="BN86" s="12"/>
+      <c r="BO86" s="12"/>
+      <c r="BP86" s="12"/>
+      <c r="BQ86" s="12"/>
+      <c r="BR86" s="12"/>
+      <c r="BS86" s="12"/>
+      <c r="BT86" s="12"/>
+      <c r="BU86" s="12"/>
+      <c r="BV86" s="12"/>
+      <c r="BW86" s="12"/>
+      <c r="BX86" s="13"/>
+    </row>
+    <row r="87" spans="6:76">
+      <c r="G87" s="11"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="12"/>
+      <c r="K87" s="12"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="12"/>
+      <c r="N87" s="12"/>
+      <c r="O87" s="12"/>
+      <c r="P87" s="12"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="12"/>
+      <c r="S87" s="12"/>
+      <c r="T87" s="12"/>
+      <c r="U87" s="12"/>
+      <c r="V87" s="13"/>
+      <c r="W87" s="11"/>
+      <c r="X87" s="12"/>
+      <c r="Y87" s="12"/>
+      <c r="Z87" s="12"/>
+      <c r="AA87" s="12"/>
+      <c r="AB87" s="12"/>
+      <c r="AC87" s="12"/>
+      <c r="AD87" s="12"/>
+      <c r="AE87" s="12"/>
+      <c r="AF87" s="12"/>
+      <c r="AG87" s="12"/>
+      <c r="AH87" s="12"/>
+      <c r="AI87" s="12"/>
+      <c r="AJ87" s="12"/>
+      <c r="AK87" s="12"/>
+      <c r="AL87" s="13"/>
+      <c r="AS87" s="11"/>
+      <c r="AT87" s="12"/>
+      <c r="AU87" s="12"/>
+      <c r="AV87" s="12"/>
+      <c r="AW87" s="12"/>
+      <c r="AX87" s="12"/>
+      <c r="AY87" s="12"/>
+      <c r="AZ87" s="12"/>
+      <c r="BA87" s="12"/>
+      <c r="BB87" s="12"/>
+      <c r="BC87" s="12"/>
+      <c r="BD87" s="12"/>
+      <c r="BE87" s="12"/>
+      <c r="BF87" s="12"/>
+      <c r="BG87" s="12"/>
+      <c r="BH87" s="13"/>
+      <c r="BI87" s="11"/>
+      <c r="BJ87" s="12"/>
+      <c r="BK87" s="12"/>
+      <c r="BL87" s="12"/>
+      <c r="BM87" s="12"/>
+      <c r="BN87" s="12"/>
+      <c r="BO87" s="12"/>
+      <c r="BP87" s="12"/>
+      <c r="BQ87" s="12"/>
+      <c r="BR87" s="12"/>
+      <c r="BS87" s="12"/>
+      <c r="BT87" s="12"/>
+      <c r="BU87" s="12"/>
+      <c r="BV87" s="12"/>
+      <c r="BW87" s="12"/>
+      <c r="BX87" s="13"/>
+    </row>
+    <row r="88" spans="6:76">
+      <c r="G88" s="11"/>
+      <c r="H88" s="12"/>
+      <c r="I88" s="12"/>
+      <c r="J88" s="12"/>
+      <c r="K88" s="12"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="12"/>
+      <c r="N88" s="12"/>
+      <c r="O88" s="12"/>
+      <c r="P88" s="12"/>
+      <c r="Q88" s="12"/>
+      <c r="R88" s="12"/>
+      <c r="S88" s="12"/>
+      <c r="T88" s="12"/>
+      <c r="U88" s="12"/>
+      <c r="V88" s="13"/>
+      <c r="W88" s="11"/>
+      <c r="X88" s="12"/>
+      <c r="Y88" s="12"/>
+      <c r="Z88" s="12"/>
+      <c r="AA88" s="12"/>
+      <c r="AB88" s="12"/>
+      <c r="AC88" s="12"/>
+      <c r="AD88" s="12"/>
+      <c r="AE88" s="12"/>
+      <c r="AF88" s="12"/>
+      <c r="AG88" s="12"/>
+      <c r="AH88" s="12"/>
+      <c r="AI88" s="12"/>
+      <c r="AJ88" s="12"/>
+      <c r="AK88" s="12"/>
+      <c r="AL88" s="13"/>
+      <c r="AS88" s="11"/>
+      <c r="AT88" s="12"/>
+      <c r="AU88" s="12"/>
+      <c r="AV88" s="12"/>
+      <c r="AW88" s="12"/>
+      <c r="AX88" s="12"/>
+      <c r="AY88" s="12"/>
+      <c r="AZ88" s="12"/>
+      <c r="BA88" s="12"/>
+      <c r="BB88" s="12"/>
+      <c r="BC88" s="12"/>
+      <c r="BD88" s="12"/>
+      <c r="BE88" s="12"/>
+      <c r="BF88" s="12"/>
+      <c r="BG88" s="12"/>
+      <c r="BH88" s="13"/>
+      <c r="BI88" s="11"/>
+      <c r="BJ88" s="12"/>
+      <c r="BK88" s="12"/>
+      <c r="BL88" s="12"/>
+      <c r="BM88" s="12"/>
+      <c r="BN88" s="12"/>
+      <c r="BO88" s="12"/>
+      <c r="BP88" s="12"/>
+      <c r="BQ88" s="12"/>
+      <c r="BR88" s="12"/>
+      <c r="BS88" s="12"/>
+      <c r="BT88" s="12"/>
+      <c r="BU88" s="12"/>
+      <c r="BV88" s="12"/>
+      <c r="BW88" s="12"/>
+      <c r="BX88" s="13"/>
+    </row>
+    <row r="89" spans="6:76">
+      <c r="G89" s="11"/>
+      <c r="H89" s="12"/>
+      <c r="I89" s="12"/>
+      <c r="J89" s="12"/>
+      <c r="K89" s="12"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="12"/>
+      <c r="N89" s="12"/>
+      <c r="O89" s="12"/>
+      <c r="P89" s="12"/>
+      <c r="Q89" s="12"/>
+      <c r="R89" s="12"/>
+      <c r="S89" s="12"/>
+      <c r="T89" s="12"/>
+      <c r="U89" s="12"/>
+      <c r="V89" s="13"/>
+      <c r="W89" s="11"/>
+      <c r="X89" s="12"/>
+      <c r="Y89" s="12"/>
+      <c r="Z89" s="12"/>
+      <c r="AA89" s="12"/>
+      <c r="AB89" s="12"/>
+      <c r="AC89" s="12"/>
+      <c r="AD89" s="12"/>
+      <c r="AE89" s="12"/>
+      <c r="AF89" s="12"/>
+      <c r="AG89" s="12"/>
+      <c r="AH89" s="12"/>
+      <c r="AI89" s="12"/>
+      <c r="AJ89" s="12"/>
+      <c r="AK89" s="12"/>
+      <c r="AL89" s="13"/>
+      <c r="AS89" s="11"/>
+      <c r="AT89" s="12"/>
+      <c r="AU89" s="12"/>
+      <c r="AV89" s="12"/>
+      <c r="AW89" s="12"/>
+      <c r="AX89" s="12"/>
+      <c r="AY89" s="12"/>
+      <c r="AZ89" s="12"/>
+      <c r="BA89" s="12"/>
+      <c r="BB89" s="12"/>
+      <c r="BC89" s="12"/>
+      <c r="BD89" s="12"/>
+      <c r="BE89" s="12"/>
+      <c r="BF89" s="12"/>
+      <c r="BG89" s="12"/>
+      <c r="BH89" s="13"/>
+      <c r="BI89" s="11"/>
+      <c r="BJ89" s="12"/>
+      <c r="BK89" s="12"/>
+      <c r="BL89" s="12"/>
+      <c r="BM89" s="12"/>
+      <c r="BN89" s="12"/>
+      <c r="BO89" s="12"/>
+      <c r="BP89" s="12"/>
+      <c r="BQ89" s="12"/>
+      <c r="BR89" s="12"/>
+      <c r="BS89" s="12"/>
+      <c r="BT89" s="12"/>
+      <c r="BU89" s="12"/>
+      <c r="BV89" s="12"/>
+      <c r="BW89" s="12"/>
+      <c r="BX89" s="13"/>
+    </row>
+    <row r="90" spans="6:76">
+      <c r="G90" s="11"/>
+      <c r="H90" s="12"/>
+      <c r="I90" s="12"/>
+      <c r="J90" s="12"/>
+      <c r="K90" s="12"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="12"/>
+      <c r="N90" s="12"/>
+      <c r="O90" s="12"/>
+      <c r="P90" s="12"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="12"/>
+      <c r="S90" s="12"/>
+      <c r="T90" s="12"/>
+      <c r="U90" s="12"/>
+      <c r="V90" s="13"/>
+      <c r="W90" s="11"/>
+      <c r="X90" s="12"/>
+      <c r="Y90" s="12"/>
+      <c r="Z90" s="12"/>
+      <c r="AA90" s="12"/>
+      <c r="AB90" s="12"/>
+      <c r="AC90" s="12"/>
+      <c r="AD90" s="12"/>
+      <c r="AE90" s="12"/>
+      <c r="AF90" s="12"/>
+      <c r="AG90" s="12"/>
+      <c r="AH90" s="12"/>
+      <c r="AI90" s="12"/>
+      <c r="AJ90" s="12"/>
+      <c r="AK90" s="12"/>
+      <c r="AL90" s="13"/>
+      <c r="AS90" s="11"/>
+      <c r="AT90" s="12"/>
+      <c r="AU90" s="12"/>
+      <c r="AV90" s="12"/>
+      <c r="AW90" s="12"/>
+      <c r="AX90" s="12"/>
+      <c r="AY90" s="12"/>
+      <c r="AZ90" s="12"/>
+      <c r="BA90" s="12"/>
+      <c r="BB90" s="12"/>
+      <c r="BC90" s="12"/>
+      <c r="BD90" s="12"/>
+      <c r="BE90" s="12"/>
+      <c r="BF90" s="12"/>
+      <c r="BG90" s="12"/>
+      <c r="BH90" s="13"/>
+      <c r="BI90" s="11"/>
+      <c r="BJ90" s="12"/>
+      <c r="BK90" s="12"/>
+      <c r="BL90" s="12"/>
+      <c r="BM90" s="12"/>
+      <c r="BN90" s="12"/>
+      <c r="BO90" s="12"/>
+      <c r="BP90" s="12"/>
+      <c r="BQ90" s="12"/>
+      <c r="BR90" s="12"/>
+      <c r="BS90" s="12"/>
+      <c r="BT90" s="12"/>
+      <c r="BU90" s="12"/>
+      <c r="BV90" s="12"/>
+      <c r="BW90" s="12"/>
+      <c r="BX90" s="13"/>
+    </row>
+    <row r="91" spans="6:76">
+      <c r="F91">
+        <v>100</v>
+      </c>
+      <c r="G91" s="11"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+      <c r="P91" s="12"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="12"/>
+      <c r="S91" s="12"/>
+      <c r="T91" s="12"/>
+      <c r="U91" s="12"/>
+      <c r="V91" s="13"/>
+      <c r="W91" s="11"/>
+      <c r="X91" s="12"/>
+      <c r="Y91" s="12"/>
+      <c r="Z91" s="12"/>
+      <c r="AA91" s="12"/>
+      <c r="AB91" s="12"/>
+      <c r="AC91" s="12"/>
+      <c r="AD91" s="12"/>
+      <c r="AE91" s="12"/>
+      <c r="AF91" s="12"/>
+      <c r="AG91" s="12"/>
+      <c r="AH91" s="12"/>
+      <c r="AI91" s="12"/>
+      <c r="AJ91" s="12"/>
+      <c r="AK91" s="12"/>
+      <c r="AL91" s="13"/>
+      <c r="AS91" s="11"/>
+      <c r="AT91" s="12"/>
+      <c r="AU91" s="12"/>
+      <c r="AV91" s="12"/>
+      <c r="AW91" s="12"/>
+      <c r="AX91" s="12"/>
+      <c r="AY91" s="12"/>
+      <c r="AZ91" s="12"/>
+      <c r="BA91" s="12"/>
+      <c r="BB91" s="12"/>
+      <c r="BC91" s="12"/>
+      <c r="BD91" s="12"/>
+      <c r="BE91" s="12"/>
+      <c r="BF91" s="12"/>
+      <c r="BG91" s="12"/>
+      <c r="BH91" s="13"/>
+      <c r="BI91" s="11"/>
+      <c r="BJ91" s="12"/>
+      <c r="BK91" s="12"/>
+      <c r="BL91" s="12"/>
+      <c r="BM91" s="12"/>
+      <c r="BN91" s="12"/>
+      <c r="BO91" s="12"/>
+      <c r="BP91" s="12"/>
+      <c r="BQ91" s="12"/>
+      <c r="BR91" s="12"/>
+      <c r="BS91" s="12"/>
+      <c r="BT91" s="12"/>
+      <c r="BU91" s="12"/>
+      <c r="BV91" s="12"/>
+      <c r="BW91" s="12"/>
+      <c r="BX91" s="13"/>
+    </row>
+    <row r="92" spans="6:76">
+      <c r="G92" s="11"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="13"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12"/>
+      <c r="AC92" s="12"/>
+      <c r="AD92" s="12"/>
+      <c r="AE92" s="12"/>
+      <c r="AF92" s="12"/>
+      <c r="AG92" s="12"/>
+      <c r="AH92" s="12"/>
+      <c r="AI92" s="12"/>
+      <c r="AJ92" s="12"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="13"/>
+      <c r="AS92" s="11"/>
+      <c r="AT92" s="12"/>
+      <c r="AU92" s="12"/>
+      <c r="AV92" s="12"/>
+      <c r="AW92" s="12"/>
+      <c r="AX92" s="12"/>
+      <c r="AY92" s="12"/>
+      <c r="AZ92" s="12"/>
+      <c r="BA92" s="12"/>
+      <c r="BB92" s="12"/>
+      <c r="BC92" s="12"/>
+      <c r="BD92" s="12"/>
+      <c r="BE92" s="12"/>
+      <c r="BF92" s="12"/>
+      <c r="BG92" s="12"/>
+      <c r="BH92" s="13"/>
+      <c r="BI92" s="11"/>
+      <c r="BJ92" s="12"/>
+      <c r="BK92" s="12"/>
+      <c r="BL92" s="12"/>
+      <c r="BM92" s="12"/>
+      <c r="BN92" s="12"/>
+      <c r="BO92" s="12"/>
+      <c r="BP92" s="12"/>
+      <c r="BQ92" s="12"/>
+      <c r="BR92" s="12"/>
+      <c r="BS92" s="12"/>
+      <c r="BT92" s="12"/>
+      <c r="BU92" s="12"/>
+      <c r="BV92" s="12"/>
+      <c r="BW92" s="12"/>
+      <c r="BX92" s="13"/>
+    </row>
+    <row r="93" spans="6:76">
+      <c r="G93" s="11"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="13"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="Z93" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="12"/>
+      <c r="AD93" s="12"/>
+      <c r="AE93" s="12"/>
+      <c r="AF93" s="12"/>
+      <c r="AG93" s="12"/>
+      <c r="AH93" s="12"/>
+      <c r="AI93" s="12"/>
+      <c r="AJ93" s="12"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="13"/>
+      <c r="AS93" s="11"/>
+      <c r="AT93" s="12"/>
+      <c r="AU93" s="12"/>
+      <c r="AV93" s="12"/>
+      <c r="AW93" s="12"/>
+      <c r="AX93" s="12"/>
+      <c r="AY93" s="12"/>
+      <c r="AZ93" s="12"/>
+      <c r="BA93" s="12"/>
+      <c r="BB93" s="12"/>
+      <c r="BC93" s="12"/>
+      <c r="BD93" s="12"/>
+      <c r="BE93" s="12"/>
+      <c r="BF93" s="12"/>
+      <c r="BG93" s="12"/>
+      <c r="BH93" s="13"/>
+      <c r="BI93" s="11"/>
+      <c r="BJ93" s="12"/>
+      <c r="BM93" s="12"/>
+      <c r="BN93" s="12"/>
+      <c r="BO93" s="12"/>
+      <c r="BP93" s="12"/>
+      <c r="BQ93" s="12"/>
+      <c r="BR93" s="12"/>
+      <c r="BS93" s="12"/>
+      <c r="BT93" s="12"/>
+      <c r="BU93" s="12"/>
+      <c r="BV93" s="12"/>
+      <c r="BW93" s="12"/>
+      <c r="BX93" s="13"/>
+    </row>
+    <row r="94" spans="6:76">
+      <c r="G94" s="11"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="13"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
+      <c r="AC94" s="12"/>
+      <c r="AD94" s="12"/>
+      <c r="AE94" s="12"/>
+      <c r="AF94" s="12"/>
+      <c r="AG94" s="12"/>
+      <c r="AH94" s="12"/>
+      <c r="AI94" s="12"/>
+      <c r="AJ94" s="12"/>
+      <c r="AK94" s="12"/>
+      <c r="AL94" s="13"/>
+      <c r="AS94" s="11"/>
+      <c r="AT94" s="12"/>
+      <c r="AU94" s="12"/>
+      <c r="AV94" s="12"/>
+      <c r="AW94" s="12"/>
+      <c r="AX94" s="12"/>
+      <c r="AY94" s="12"/>
+      <c r="AZ94" s="12"/>
+      <c r="BA94" s="12"/>
+      <c r="BB94" s="12"/>
+      <c r="BC94" s="12"/>
+      <c r="BD94" s="12"/>
+      <c r="BE94" s="12"/>
+      <c r="BF94" s="12"/>
+      <c r="BG94" s="12"/>
+      <c r="BH94" s="13"/>
+      <c r="BI94" s="11"/>
+      <c r="BJ94" s="12"/>
+      <c r="BK94" s="12"/>
+      <c r="BL94" s="12"/>
+      <c r="BM94" s="12"/>
+      <c r="BN94" s="12"/>
+      <c r="BO94" s="12"/>
+      <c r="BP94" s="12"/>
+      <c r="BQ94" s="12"/>
+      <c r="BR94" s="12"/>
+      <c r="BS94" s="12"/>
+      <c r="BT94" s="12"/>
+      <c r="BU94" s="12"/>
+      <c r="BV94" s="12"/>
+      <c r="BW94" s="12"/>
+      <c r="BX94" s="13"/>
+    </row>
+    <row r="95" spans="6:76">
+      <c r="G95" s="11"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="11"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12"/>
+      <c r="AC95" s="12"/>
+      <c r="AD95" s="12"/>
+      <c r="AE95" s="12"/>
+      <c r="AF95" s="12"/>
+      <c r="AG95" s="12"/>
+      <c r="AH95" s="12"/>
+      <c r="AI95" s="12"/>
+      <c r="AJ95" s="12"/>
+      <c r="AK95" s="12"/>
+      <c r="AL95" s="13"/>
+      <c r="AS95" s="11"/>
+      <c r="AT95" s="12"/>
+      <c r="AU95" s="12"/>
+      <c r="AV95" s="12"/>
+      <c r="AW95" s="12"/>
+      <c r="AX95" s="12"/>
+      <c r="AY95" s="12"/>
+      <c r="AZ95" s="12"/>
+      <c r="BA95" s="12"/>
+      <c r="BB95" s="12"/>
+      <c r="BC95" s="12"/>
+      <c r="BD95" s="12"/>
+      <c r="BE95" s="12"/>
+      <c r="BF95" s="12"/>
+      <c r="BG95" s="12"/>
+      <c r="BH95" s="13"/>
+      <c r="BI95" s="11"/>
+      <c r="BJ95" s="12"/>
+      <c r="BK95" s="12"/>
+      <c r="BL95" s="12"/>
+      <c r="BM95" s="12"/>
+      <c r="BN95" s="12"/>
+      <c r="BO95" s="12"/>
+      <c r="BP95" s="12"/>
+      <c r="BQ95" s="12"/>
+      <c r="BR95" s="12"/>
+      <c r="BS95" s="12"/>
+      <c r="BT95" s="12"/>
+      <c r="BU95" s="12"/>
+      <c r="BV95" s="12"/>
+      <c r="BW95" s="12"/>
+      <c r="BX95" s="13"/>
+    </row>
+    <row r="96" spans="6:76">
+      <c r="G96" s="11"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="13"/>
+      <c r="W96" s="11"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="12"/>
+      <c r="AE96" s="12"/>
+      <c r="AF96" s="12"/>
+      <c r="AG96" s="12"/>
+      <c r="AH96" s="12"/>
+      <c r="AI96" s="12"/>
+      <c r="AJ96" s="12"/>
+      <c r="AK96" s="12"/>
+      <c r="AL96" s="13"/>
+      <c r="AS96" s="11"/>
+      <c r="AT96" s="12"/>
+      <c r="AU96" s="12"/>
+      <c r="AV96" s="12"/>
+      <c r="AW96" s="12"/>
+      <c r="AX96" s="12"/>
+      <c r="AY96" s="12"/>
+      <c r="AZ96" s="12"/>
+      <c r="BA96" s="12"/>
+      <c r="BB96" s="12"/>
+      <c r="BC96" s="12"/>
+      <c r="BD96" s="12"/>
+      <c r="BE96" s="12"/>
+      <c r="BF96" s="12"/>
+      <c r="BG96" s="12"/>
+      <c r="BH96" s="13"/>
+      <c r="BI96" s="11"/>
+      <c r="BJ96" s="12"/>
+      <c r="BK96" s="12"/>
+      <c r="BL96" s="12"/>
+      <c r="BM96" s="12"/>
+      <c r="BN96" s="12"/>
+      <c r="BO96" s="12"/>
+      <c r="BP96" s="12"/>
+      <c r="BQ96" s="12"/>
+      <c r="BR96" s="12"/>
+      <c r="BS96" s="12"/>
+      <c r="BT96" s="12"/>
+      <c r="BU96" s="12"/>
+      <c r="BV96" s="12"/>
+      <c r="BW96" s="12"/>
+      <c r="BX96" s="13"/>
+    </row>
+    <row r="97" spans="7:76">
+      <c r="G97" s="11"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="13"/>
+      <c r="W97" s="11"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="12"/>
+      <c r="AD97" s="12"/>
+      <c r="AE97" s="12"/>
+      <c r="AF97" s="12"/>
+      <c r="AG97" s="12"/>
+      <c r="AH97" s="12"/>
+      <c r="AI97" s="12"/>
+      <c r="AJ97" s="12"/>
+      <c r="AK97" s="12"/>
+      <c r="AL97" s="13"/>
+      <c r="AS97" s="11"/>
+      <c r="AT97" s="12"/>
+      <c r="AU97" s="12"/>
+      <c r="AV97" s="12"/>
+      <c r="AW97" s="12"/>
+      <c r="AX97" s="12"/>
+      <c r="AY97" s="12"/>
+      <c r="AZ97" s="12"/>
+      <c r="BA97" s="12"/>
+      <c r="BB97" s="12"/>
+      <c r="BC97" s="12"/>
+      <c r="BD97" s="12"/>
+      <c r="BE97" s="12"/>
+      <c r="BF97" s="12"/>
+      <c r="BG97" s="12"/>
+      <c r="BH97" s="13"/>
+      <c r="BI97" s="11"/>
+      <c r="BJ97" s="12"/>
+      <c r="BK97" s="12"/>
+      <c r="BL97" s="12"/>
+      <c r="BM97" s="12"/>
+      <c r="BN97" s="12"/>
+      <c r="BO97" s="12"/>
+      <c r="BP97" s="12"/>
+      <c r="BQ97" s="12"/>
+      <c r="BR97" s="12"/>
+      <c r="BS97" s="12"/>
+      <c r="BT97" s="12"/>
+      <c r="BU97" s="12"/>
+      <c r="BV97" s="12"/>
+      <c r="BW97" s="12"/>
+      <c r="BX97" s="13"/>
+    </row>
+    <row r="98" spans="7:76">
+      <c r="G98" s="11"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="13"/>
+      <c r="W98" s="11"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="12"/>
+      <c r="AH98" s="12"/>
+      <c r="AI98" s="12"/>
+      <c r="AJ98" s="12"/>
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="13"/>
+      <c r="AS98" s="11"/>
+      <c r="AT98" s="12"/>
+      <c r="AU98" s="12"/>
+      <c r="AV98" s="12"/>
+      <c r="AW98" s="12"/>
+      <c r="AX98" s="12"/>
+      <c r="AY98" s="12"/>
+      <c r="AZ98" s="12"/>
+      <c r="BA98" s="12"/>
+      <c r="BB98" s="12"/>
+      <c r="BC98" s="12"/>
+      <c r="BD98" s="12"/>
+      <c r="BE98" s="12"/>
+      <c r="BF98" s="12"/>
+      <c r="BG98" s="12"/>
+      <c r="BH98" s="13"/>
+      <c r="BI98" s="11"/>
+      <c r="BJ98" s="12"/>
+      <c r="BK98" s="12"/>
+      <c r="BL98" s="12"/>
+      <c r="BM98" s="12"/>
+      <c r="BN98" s="12"/>
+      <c r="BO98" s="12"/>
+      <c r="BP98" s="12"/>
+      <c r="BQ98" s="12"/>
+      <c r="BR98" s="12"/>
+      <c r="BS98" s="12"/>
+      <c r="BT98" s="12"/>
+      <c r="BU98" s="12"/>
+      <c r="BV98" s="12"/>
+      <c r="BW98" s="12"/>
+      <c r="BX98" s="13"/>
+    </row>
+    <row r="99" spans="7:76">
+      <c r="G99" s="11"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="13"/>
+      <c r="W99" s="11"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12"/>
+      <c r="AC99" s="12"/>
+      <c r="AD99" s="12"/>
+      <c r="AE99" s="12"/>
+      <c r="AF99" s="12"/>
+      <c r="AG99" s="12"/>
+      <c r="AH99" s="12"/>
+      <c r="AI99" s="12"/>
+      <c r="AJ99" s="12"/>
+      <c r="AK99" s="12"/>
+      <c r="AL99" s="13"/>
+      <c r="AS99" s="11"/>
+      <c r="AT99" s="12"/>
+      <c r="AU99" s="12"/>
+      <c r="AV99" s="12"/>
+      <c r="AW99" s="12"/>
+      <c r="AX99" s="12"/>
+      <c r="AY99" s="12"/>
+      <c r="AZ99" s="12"/>
+      <c r="BA99" s="12"/>
+      <c r="BB99" s="12"/>
+      <c r="BC99" s="12"/>
+      <c r="BD99" s="12"/>
+      <c r="BE99" s="12"/>
+      <c r="BF99" s="12"/>
+      <c r="BG99" s="12"/>
+      <c r="BH99" s="13"/>
+      <c r="BI99" s="11"/>
+      <c r="BJ99" s="12"/>
+      <c r="BK99" s="12"/>
+      <c r="BL99" s="12"/>
+      <c r="BM99" s="12"/>
+      <c r="BN99" s="12"/>
+      <c r="BO99" s="12"/>
+      <c r="BP99" s="12"/>
+      <c r="BQ99" s="12"/>
+      <c r="BR99" s="12"/>
+      <c r="BS99" s="12"/>
+      <c r="BT99" s="12"/>
+      <c r="BU99" s="12"/>
+      <c r="BV99" s="12"/>
+      <c r="BW99" s="12"/>
+      <c r="BX99" s="13"/>
+    </row>
+    <row r="100" spans="7:76" ht="14.25" thickBot="1">
+      <c r="G100" s="14"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="15"/>
+      <c r="K100" s="15"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="15"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="15"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="15"/>
+      <c r="R100" s="15"/>
+      <c r="S100" s="15"/>
+      <c r="T100" s="15"/>
+      <c r="U100" s="15"/>
+      <c r="V100" s="16"/>
+      <c r="W100" s="14"/>
+      <c r="X100" s="15"/>
+      <c r="Y100" s="15"/>
+      <c r="Z100" s="15"/>
+      <c r="AA100" s="15"/>
+      <c r="AB100" s="15"/>
+      <c r="AC100" s="15"/>
+      <c r="AD100" s="15"/>
+      <c r="AE100" s="15"/>
+      <c r="AF100" s="15"/>
+      <c r="AG100" s="15"/>
+      <c r="AH100" s="15"/>
+      <c r="AI100" s="15"/>
+      <c r="AJ100" s="15"/>
+      <c r="AK100" s="15"/>
+      <c r="AL100" s="16"/>
+      <c r="AS100" s="14"/>
+      <c r="AT100" s="15"/>
+      <c r="AU100" s="15"/>
+      <c r="AV100" s="15"/>
+      <c r="AW100" s="15"/>
+      <c r="AX100" s="15"/>
+      <c r="AY100" s="15"/>
+      <c r="AZ100" s="15"/>
+      <c r="BA100" s="15"/>
+      <c r="BB100" s="15"/>
+      <c r="BC100" s="15"/>
+      <c r="BD100" s="15"/>
+      <c r="BE100" s="15"/>
+      <c r="BF100" s="15"/>
+      <c r="BG100" s="15"/>
+      <c r="BH100" s="16"/>
+      <c r="BI100" s="14"/>
+      <c r="BJ100" s="15"/>
+      <c r="BK100" s="15"/>
+      <c r="BL100" s="15"/>
+      <c r="BM100" s="15"/>
+      <c r="BN100" s="15"/>
+      <c r="BO100" s="15"/>
+      <c r="BP100" s="15"/>
+      <c r="BQ100" s="15"/>
+      <c r="BR100" s="15"/>
+      <c r="BS100" s="15"/>
+      <c r="BT100" s="15"/>
+      <c r="BU100" s="15"/>
+      <c r="BV100" s="15"/>
+      <c r="BW100" s="15"/>
+      <c r="BX100" s="16"/>
+    </row>
+    <row r="101" spans="7:76">
+      <c r="G101" s="8">
+        <v>2800</v>
+      </c>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="9"/>
+      <c r="K101" s="9"/>
+      <c r="L101" s="9"/>
+      <c r="M101" s="9"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
+      <c r="P101" s="9"/>
+      <c r="Q101" s="9"/>
+      <c r="R101" s="9"/>
+      <c r="S101" s="9"/>
+      <c r="T101" s="9"/>
+      <c r="U101" s="9"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="X101" s="9"/>
+      <c r="Y101" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="Z101" s="9"/>
+      <c r="AA101" s="9"/>
+      <c r="AB101" s="9"/>
+      <c r="AC101" s="9"/>
+      <c r="AD101" s="9"/>
+      <c r="AE101" s="9"/>
+      <c r="AF101" s="9"/>
+      <c r="AG101" s="9"/>
+      <c r="AH101" s="9"/>
+      <c r="AI101" s="9"/>
+      <c r="AJ101" s="9"/>
+      <c r="AK101" s="9"/>
+      <c r="AL101" s="10"/>
+      <c r="AS101" s="8">
+        <v>2800</v>
+      </c>
+      <c r="AT101" s="9"/>
+      <c r="AU101" s="9"/>
+      <c r="AV101" s="9"/>
+      <c r="AW101" s="9"/>
+      <c r="AX101" s="9"/>
+      <c r="AY101" s="9"/>
+      <c r="AZ101" s="9"/>
+      <c r="BA101" s="9"/>
+      <c r="BB101" s="9"/>
+      <c r="BC101" s="9"/>
+      <c r="BD101" s="9"/>
+      <c r="BE101" s="9"/>
+      <c r="BF101" s="9"/>
+      <c r="BG101" s="9"/>
+      <c r="BH101" s="10"/>
+      <c r="BI101" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="BJ101" s="9"/>
+      <c r="BK101" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="BL101" s="9"/>
+      <c r="BM101" s="9"/>
+      <c r="BN101" s="9"/>
+      <c r="BO101" s="9"/>
+      <c r="BP101" s="9"/>
+      <c r="BQ101" s="9"/>
+      <c r="BR101" s="9"/>
+      <c r="BS101" s="9"/>
+      <c r="BT101" s="9"/>
+      <c r="BU101" s="9"/>
+      <c r="BV101" s="9"/>
+      <c r="BW101" s="9"/>
+      <c r="BX101" s="10"/>
+    </row>
+    <row r="102" spans="7:76">
+      <c r="G102" s="11"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="13"/>
+      <c r="W102" s="11"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="12"/>
+      <c r="AE102" s="12"/>
+      <c r="AF102" s="12"/>
+      <c r="AG102" s="12"/>
+      <c r="AH102" s="12"/>
+      <c r="AI102" s="12"/>
+      <c r="AJ102" s="12"/>
+      <c r="AK102" s="12"/>
+      <c r="AL102" s="13"/>
+      <c r="AS102" s="11"/>
+      <c r="AT102" s="12"/>
+      <c r="AU102" s="12"/>
+      <c r="AV102" s="12"/>
+      <c r="AW102" s="12"/>
+      <c r="AX102" s="12"/>
+      <c r="AY102" s="12"/>
+      <c r="AZ102" s="12"/>
+      <c r="BA102" s="12"/>
+      <c r="BB102" s="12"/>
+      <c r="BC102" s="12"/>
+      <c r="BD102" s="12"/>
+      <c r="BE102" s="12"/>
+      <c r="BF102" s="12"/>
+      <c r="BG102" s="12"/>
+      <c r="BH102" s="13"/>
+      <c r="BI102" s="11"/>
+      <c r="BJ102" s="12"/>
+      <c r="BK102" s="12"/>
+      <c r="BL102" s="12"/>
+      <c r="BM102" s="12"/>
+      <c r="BN102" s="12"/>
+      <c r="BO102" s="12"/>
+      <c r="BP102" s="12"/>
+      <c r="BQ102" s="12"/>
+      <c r="BR102" s="12"/>
+      <c r="BS102" s="12"/>
+      <c r="BT102" s="12"/>
+      <c r="BU102" s="12"/>
+      <c r="BV102" s="12"/>
+      <c r="BW102" s="12"/>
+      <c r="BX102" s="13"/>
+    </row>
+    <row r="103" spans="7:76">
+      <c r="G103" s="11"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="13"/>
+      <c r="W103" s="11"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12"/>
+      <c r="AC103" s="12"/>
+      <c r="AD103" s="12"/>
+      <c r="AE103" s="12"/>
+      <c r="AF103" s="12"/>
+      <c r="AG103" s="12"/>
+      <c r="AH103" s="12"/>
+      <c r="AI103" s="12"/>
+      <c r="AJ103" s="12"/>
+      <c r="AK103" s="12"/>
+      <c r="AL103" s="13"/>
+      <c r="AS103" s="11"/>
+      <c r="AT103" s="12"/>
+      <c r="AU103" s="12"/>
+      <c r="AV103" s="12"/>
+      <c r="AW103" s="12"/>
+      <c r="AX103" s="12"/>
+      <c r="AY103" s="12"/>
+      <c r="AZ103" s="12"/>
+      <c r="BA103" s="12"/>
+      <c r="BB103" s="12"/>
+      <c r="BC103" s="12"/>
+      <c r="BD103" s="12"/>
+      <c r="BE103" s="12"/>
+      <c r="BF103" s="12"/>
+      <c r="BG103" s="12"/>
+      <c r="BH103" s="13"/>
+      <c r="BI103" s="11"/>
+      <c r="BJ103" s="12"/>
+      <c r="BK103" s="12"/>
+      <c r="BL103" s="12"/>
+      <c r="BM103" s="12"/>
+      <c r="BN103" s="12"/>
+      <c r="BO103" s="12"/>
+      <c r="BP103" s="12"/>
+      <c r="BQ103" s="12"/>
+      <c r="BR103" s="12"/>
+      <c r="BS103" s="12"/>
+      <c r="BT103" s="12"/>
+      <c r="BU103" s="12"/>
+      <c r="BV103" s="12"/>
+      <c r="BW103" s="12"/>
+      <c r="BX103" s="13"/>
+    </row>
+    <row r="104" spans="7:76">
+      <c r="G104" s="11"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="13"/>
+      <c r="W104" s="11"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12"/>
+      <c r="AC104" s="12"/>
+      <c r="AD104" s="12"/>
+      <c r="AE104" s="12"/>
+      <c r="AF104" s="12"/>
+      <c r="AG104" s="12"/>
+      <c r="AH104" s="12"/>
+      <c r="AI104" s="12"/>
+      <c r="AJ104" s="12"/>
+      <c r="AK104" s="12"/>
+      <c r="AL104" s="13"/>
+      <c r="AS104" s="11"/>
+      <c r="AT104" s="12"/>
+      <c r="AU104" s="12"/>
+      <c r="AV104" s="12"/>
+      <c r="AW104" s="12"/>
+      <c r="AX104" s="12"/>
+      <c r="AY104" s="12"/>
+      <c r="AZ104" s="12"/>
+      <c r="BA104" s="12"/>
+      <c r="BB104" s="12"/>
+      <c r="BC104" s="12"/>
+      <c r="BD104" s="12"/>
+      <c r="BE104" s="12"/>
+      <c r="BF104" s="12"/>
+      <c r="BG104" s="12"/>
+      <c r="BH104" s="13"/>
+      <c r="BI104" s="11"/>
+      <c r="BJ104" s="12"/>
+      <c r="BK104" s="12"/>
+      <c r="BL104" s="12"/>
+      <c r="BM104" s="12"/>
+      <c r="BN104" s="12"/>
+      <c r="BO104" s="12"/>
+      <c r="BP104" s="12"/>
+      <c r="BQ104" s="12"/>
+      <c r="BR104" s="12"/>
+      <c r="BS104" s="12"/>
+      <c r="BT104" s="12"/>
+      <c r="BU104" s="12"/>
+      <c r="BV104" s="12"/>
+      <c r="BW104" s="12"/>
+      <c r="BX104" s="13"/>
+    </row>
+    <row r="105" spans="7:76">
+      <c r="G105" s="11"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="13"/>
+      <c r="W105" s="11"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12"/>
+      <c r="AC105" s="12"/>
+      <c r="AD105" s="12"/>
+      <c r="AE105" s="12"/>
+      <c r="AF105" s="12"/>
+      <c r="AG105" s="12"/>
+      <c r="AH105" s="12"/>
+      <c r="AI105" s="12"/>
+      <c r="AJ105" s="12"/>
+      <c r="AK105" s="12"/>
+      <c r="AL105" s="13"/>
+      <c r="AO105" t="s">
+        <v>105</v>
+      </c>
+      <c r="AS105" s="11"/>
+      <c r="AT105" s="12"/>
+      <c r="AU105" s="12"/>
+      <c r="AV105" s="12"/>
+      <c r="AW105" s="12"/>
+      <c r="AX105" s="12"/>
+      <c r="AY105" s="12"/>
+      <c r="AZ105" s="12"/>
+      <c r="BA105" s="12"/>
+      <c r="BB105" s="12"/>
+      <c r="BC105" s="12"/>
+      <c r="BD105" s="12"/>
+      <c r="BE105" s="12"/>
+      <c r="BF105" s="12"/>
+      <c r="BG105" s="12"/>
+      <c r="BH105" s="13"/>
+      <c r="BI105" s="11"/>
+      <c r="BJ105" s="12"/>
+      <c r="BK105" s="12"/>
+      <c r="BL105" s="12"/>
+      <c r="BM105" s="12"/>
+      <c r="BN105" s="12"/>
+      <c r="BO105" s="12"/>
+      <c r="BP105" s="12"/>
+      <c r="BQ105" s="12"/>
+      <c r="BR105" s="12"/>
+      <c r="BS105" s="12"/>
+      <c r="BT105" s="12"/>
+      <c r="BU105" s="12"/>
+      <c r="BV105" s="12"/>
+      <c r="BW105" s="12"/>
+      <c r="BX105" s="13"/>
+    </row>
+    <row r="106" spans="7:76">
+      <c r="G106" s="11"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="13"/>
+      <c r="W106" s="11"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="12"/>
+      <c r="AC106" s="12"/>
+      <c r="AD106" s="12"/>
+      <c r="AE106" s="12"/>
+      <c r="AF106" s="12"/>
+      <c r="AG106" s="12"/>
+      <c r="AH106" s="12"/>
+      <c r="AI106" s="12"/>
+      <c r="AJ106" s="12"/>
+      <c r="AK106" s="12"/>
+      <c r="AL106" s="13"/>
+      <c r="AO106" t="s">
+        <v>104</v>
+      </c>
+      <c r="AS106" s="11"/>
+      <c r="AT106" s="12"/>
+      <c r="AU106" s="12"/>
+      <c r="AV106" s="12"/>
+      <c r="AW106" s="12"/>
+      <c r="AX106" s="12"/>
+      <c r="AY106" s="12"/>
+      <c r="AZ106" s="12"/>
+      <c r="BA106" s="12"/>
+      <c r="BB106" s="12"/>
+      <c r="BC106" s="12"/>
+      <c r="BD106" s="12"/>
+      <c r="BE106" s="12"/>
+      <c r="BF106" s="12"/>
+      <c r="BG106" s="12"/>
+      <c r="BH106" s="13"/>
+      <c r="BI106" s="11"/>
+      <c r="BJ106" s="12"/>
+      <c r="BK106" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="BL106" s="12"/>
+      <c r="BM106" s="12"/>
+      <c r="BN106" s="12"/>
+      <c r="BO106" s="12"/>
+      <c r="BP106" s="12"/>
+      <c r="BQ106" s="12"/>
+      <c r="BR106" s="12"/>
+      <c r="BS106" s="12"/>
+      <c r="BT106" s="12"/>
+      <c r="BU106" s="12"/>
+      <c r="BV106" s="12"/>
+      <c r="BW106" s="12"/>
+      <c r="BX106" s="13"/>
+    </row>
+    <row r="107" spans="7:76">
+      <c r="G107" s="11"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="13"/>
+      <c r="W107" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12"/>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="12"/>
+      <c r="AE107" s="12"/>
+      <c r="AF107" s="12"/>
+      <c r="AG107" s="12"/>
+      <c r="AH107" s="12"/>
+      <c r="AI107" s="12"/>
+      <c r="AJ107" s="12"/>
+      <c r="AK107" s="12"/>
+      <c r="AL107" s="13"/>
+      <c r="AS107" s="11"/>
+      <c r="AT107" s="12"/>
+      <c r="AU107" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV107" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AW107" s="12"/>
+      <c r="AX107" s="12"/>
+      <c r="AY107" s="12"/>
+      <c r="AZ107" s="12"/>
+      <c r="BA107" s="12"/>
+      <c r="BB107" s="12"/>
+      <c r="BC107" s="12"/>
+      <c r="BD107" s="12"/>
+      <c r="BE107" s="12"/>
+      <c r="BF107" s="12"/>
+      <c r="BG107" s="12"/>
+      <c r="BH107" s="13"/>
+      <c r="BI107" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ107" s="12"/>
+      <c r="BK107" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="BM107" s="12"/>
+      <c r="BN107" s="12"/>
+      <c r="BO107" s="12"/>
+      <c r="BP107" s="12"/>
+      <c r="BQ107" s="12"/>
+      <c r="BR107" s="12"/>
+      <c r="BS107" s="12"/>
+      <c r="BT107" s="12"/>
+      <c r="BU107" s="12"/>
+      <c r="BV107" s="12"/>
+      <c r="BW107" s="12"/>
+      <c r="BX107" s="13"/>
+    </row>
+    <row r="108" spans="7:76">
+      <c r="G108" s="11"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="13"/>
+      <c r="W108" s="11"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12"/>
+      <c r="AC108" s="12"/>
+      <c r="AD108" s="12"/>
+      <c r="AE108" s="12"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="12"/>
+      <c r="AH108" s="12"/>
+      <c r="AI108" s="12"/>
+      <c r="AJ108" s="12"/>
+      <c r="AK108" s="12"/>
+      <c r="AL108" s="13"/>
+      <c r="AS108" s="11"/>
+      <c r="AT108" s="12"/>
+      <c r="AU108" s="12"/>
+      <c r="AV108" s="12"/>
+      <c r="AW108" s="12"/>
+      <c r="AX108" s="12"/>
+      <c r="AY108" s="12"/>
+      <c r="AZ108" s="12"/>
+      <c r="BA108" s="12"/>
+      <c r="BB108" s="12"/>
+      <c r="BC108" s="12"/>
+      <c r="BD108" s="12"/>
+      <c r="BE108" s="12"/>
+      <c r="BF108" s="12"/>
+      <c r="BG108" s="12"/>
+      <c r="BH108" s="13"/>
+      <c r="BI108" s="11"/>
+      <c r="BJ108" s="12"/>
+      <c r="BK108" s="12"/>
+      <c r="BL108" s="12"/>
+      <c r="BM108" s="12"/>
+      <c r="BN108" s="12"/>
+      <c r="BO108" s="12"/>
+      <c r="BP108" s="12"/>
+      <c r="BQ108" s="12"/>
+      <c r="BR108" s="12"/>
+      <c r="BS108" s="12"/>
+      <c r="BT108" s="12"/>
+      <c r="BU108" s="12"/>
+      <c r="BV108" s="12"/>
+      <c r="BW108" s="12"/>
+      <c r="BX108" s="13"/>
+    </row>
+    <row r="109" spans="7:76">
+      <c r="G109" s="11"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="13"/>
+      <c r="W109" s="11"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12"/>
+      <c r="AC109" s="12"/>
+      <c r="AD109" s="12"/>
+      <c r="AE109" s="12"/>
+      <c r="AF109" s="12"/>
+      <c r="AG109" s="12"/>
+      <c r="AH109" s="12"/>
+      <c r="AI109" s="12"/>
+      <c r="AJ109" s="12"/>
+      <c r="AK109" s="12"/>
+      <c r="AL109" s="13"/>
+      <c r="AS109" s="11"/>
+      <c r="AT109" s="12"/>
+      <c r="AU109" s="12"/>
+      <c r="AV109" s="12"/>
+      <c r="AW109" s="12"/>
+      <c r="AX109" s="12"/>
+      <c r="AY109" s="12"/>
+      <c r="AZ109" s="12"/>
+      <c r="BA109" s="12"/>
+      <c r="BB109" s="12"/>
+      <c r="BC109" s="12"/>
+      <c r="BD109" s="12"/>
+      <c r="BE109" s="12"/>
+      <c r="BF109" s="12"/>
+      <c r="BG109" s="12"/>
+      <c r="BH109" s="13"/>
+      <c r="BI109" s="11"/>
+      <c r="BJ109" s="12"/>
+      <c r="BK109" s="12"/>
+      <c r="BL109" s="12"/>
+      <c r="BM109" s="12"/>
+      <c r="BN109" s="12"/>
+      <c r="BO109" s="12"/>
+      <c r="BP109" s="12"/>
+      <c r="BQ109" s="12"/>
+      <c r="BR109" s="12"/>
+      <c r="BS109" s="12"/>
+      <c r="BT109" s="12"/>
+      <c r="BU109" s="12"/>
+      <c r="BV109" s="12"/>
+      <c r="BW109" s="12"/>
+      <c r="BX109" s="13"/>
+    </row>
+    <row r="110" spans="7:76">
+      <c r="G110" s="11"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="13"/>
+      <c r="W110" s="11"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="12"/>
+      <c r="AF110" s="12"/>
+      <c r="AG110" s="12"/>
+      <c r="AH110" s="12"/>
+      <c r="AI110" s="12"/>
+      <c r="AJ110" s="12"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="13"/>
+      <c r="AS110" s="11"/>
+      <c r="AT110" s="12"/>
+      <c r="AU110" s="12"/>
+      <c r="AV110" s="12"/>
+      <c r="AW110" s="12"/>
+      <c r="AX110" s="12"/>
+      <c r="AY110" s="12"/>
+      <c r="AZ110" s="12"/>
+      <c r="BA110" s="12"/>
+      <c r="BB110" s="12"/>
+      <c r="BC110" s="12"/>
+      <c r="BD110" s="12"/>
+      <c r="BE110" s="12"/>
+      <c r="BF110" s="12"/>
+      <c r="BG110" s="12"/>
+      <c r="BH110" s="13"/>
+      <c r="BI110" s="11"/>
+      <c r="BJ110" s="12"/>
+      <c r="BK110" s="12"/>
+      <c r="BL110" s="12"/>
+      <c r="BM110" s="12"/>
+      <c r="BN110" s="12"/>
+      <c r="BO110" s="12"/>
+      <c r="BP110" s="12"/>
+      <c r="BQ110" s="12"/>
+      <c r="BR110" s="12"/>
+      <c r="BS110" s="12"/>
+      <c r="BT110" s="12"/>
+      <c r="BU110" s="12"/>
+      <c r="BV110" s="12"/>
+      <c r="BW110" s="12"/>
+      <c r="BX110" s="13"/>
+    </row>
+    <row r="111" spans="7:76">
+      <c r="G111" s="11"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="13"/>
+      <c r="W111" s="11"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="12"/>
+      <c r="AC111" s="12"/>
+      <c r="AD111" s="12"/>
+      <c r="AE111" s="12"/>
+      <c r="AF111" s="12"/>
+      <c r="AG111" s="12"/>
+      <c r="AH111" s="12"/>
+      <c r="AI111" s="12"/>
+      <c r="AJ111" s="12"/>
+      <c r="AK111" s="12"/>
+      <c r="AL111" s="13"/>
+      <c r="AS111" s="11"/>
+      <c r="AT111" s="12"/>
+      <c r="AU111" s="12"/>
+      <c r="AV111" s="12"/>
+      <c r="AW111" s="12"/>
+      <c r="AX111" s="12"/>
+      <c r="AY111" s="12"/>
+      <c r="AZ111" s="12"/>
+      <c r="BA111" s="12"/>
+      <c r="BB111" s="12"/>
+      <c r="BC111" s="12"/>
+      <c r="BD111" s="12"/>
+      <c r="BE111" s="12"/>
+      <c r="BF111" s="12"/>
+      <c r="BG111" s="12"/>
+      <c r="BH111" s="13"/>
+      <c r="BI111" s="11"/>
+      <c r="BJ111" s="12"/>
+      <c r="BK111" s="12"/>
+      <c r="BL111" s="12"/>
+      <c r="BM111" s="12"/>
+      <c r="BN111" s="12"/>
+      <c r="BO111" s="12"/>
+      <c r="BP111" s="12"/>
+      <c r="BQ111" s="12"/>
+      <c r="BR111" s="12"/>
+      <c r="BS111" s="12"/>
+      <c r="BT111" s="12"/>
+      <c r="BU111" s="12"/>
+      <c r="BV111" s="12"/>
+      <c r="BW111" s="12"/>
+      <c r="BX111" s="13"/>
+    </row>
+    <row r="112" spans="7:76">
+      <c r="G112" s="11"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="13"/>
+      <c r="W112" s="11"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12"/>
+      <c r="AC112" s="12"/>
+      <c r="AD112" s="12"/>
+      <c r="AE112" s="12"/>
+      <c r="AF112" s="12"/>
+      <c r="AG112" s="12"/>
+      <c r="AH112" s="12"/>
+      <c r="AI112" s="12"/>
+      <c r="AJ112" s="12"/>
+      <c r="AK112" s="12"/>
+      <c r="AL112" s="13"/>
+      <c r="AS112" s="11"/>
+      <c r="AT112" s="12"/>
+      <c r="AU112" s="12"/>
+      <c r="AV112" s="12"/>
+      <c r="AW112" s="12"/>
+      <c r="AX112" s="12"/>
+      <c r="AY112" s="12"/>
+      <c r="AZ112" s="12"/>
+      <c r="BA112" s="12"/>
+      <c r="BB112" s="12"/>
+      <c r="BC112" s="12"/>
+      <c r="BD112" s="12"/>
+      <c r="BE112" s="12"/>
+      <c r="BF112" s="12"/>
+      <c r="BG112" s="12"/>
+      <c r="BH112" s="13"/>
+      <c r="BI112" s="11"/>
+      <c r="BJ112" s="12"/>
+      <c r="BK112" s="12"/>
+      <c r="BL112" s="12"/>
+      <c r="BM112" s="12"/>
+      <c r="BN112" s="12"/>
+      <c r="BO112" s="12"/>
+      <c r="BP112" s="12"/>
+      <c r="BQ112" s="12"/>
+      <c r="BR112" s="12"/>
+      <c r="BS112" s="12"/>
+      <c r="BT112" s="12"/>
+      <c r="BU112" s="12"/>
+      <c r="BV112" s="12"/>
+      <c r="BW112" s="12"/>
+      <c r="BX112" s="13"/>
+    </row>
+    <row r="113" spans="7:76">
+      <c r="G113" s="11"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="13"/>
+      <c r="W113" s="11"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="12"/>
+      <c r="AC113" s="12"/>
+      <c r="AD113" s="12"/>
+      <c r="AE113" s="12"/>
+      <c r="AF113" s="12"/>
+      <c r="AG113" s="12"/>
+      <c r="AH113" s="12"/>
+      <c r="AI113" s="12"/>
+      <c r="AJ113" s="12"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="13"/>
+      <c r="AS113" s="11"/>
+      <c r="AT113" s="12"/>
+      <c r="AU113" s="12"/>
+      <c r="AV113" s="12"/>
+      <c r="AW113" s="12"/>
+      <c r="AX113" s="12"/>
+      <c r="AY113" s="12"/>
+      <c r="AZ113" s="12"/>
+      <c r="BA113" s="12"/>
+      <c r="BB113" s="12"/>
+      <c r="BC113" s="12"/>
+      <c r="BD113" s="12"/>
+      <c r="BE113" s="12"/>
+      <c r="BF113" s="12"/>
+      <c r="BG113" s="12"/>
+      <c r="BH113" s="13"/>
+      <c r="BI113" s="11"/>
+      <c r="BJ113" s="12"/>
+      <c r="BK113" s="12"/>
+      <c r="BL113" s="12"/>
+      <c r="BM113" s="12"/>
+      <c r="BN113" s="12"/>
+      <c r="BO113" s="12"/>
+      <c r="BP113" s="12"/>
+      <c r="BQ113" s="12"/>
+      <c r="BR113" s="12"/>
+      <c r="BS113" s="12"/>
+      <c r="BT113" s="12"/>
+      <c r="BU113" s="12"/>
+      <c r="BV113" s="12"/>
+      <c r="BW113" s="12"/>
+      <c r="BX113" s="13"/>
+    </row>
+    <row r="114" spans="7:76">
+      <c r="G114" s="11"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="13"/>
+      <c r="W114" s="11"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="12"/>
+      <c r="AC114" s="12"/>
+      <c r="AD114" s="12"/>
+      <c r="AE114" s="12"/>
+      <c r="AF114" s="12"/>
+      <c r="AG114" s="12"/>
+      <c r="AH114" s="12"/>
+      <c r="AI114" s="12"/>
+      <c r="AJ114" s="12"/>
+      <c r="AK114" s="12"/>
+      <c r="AL114" s="13"/>
+      <c r="AS114" s="11"/>
+      <c r="AT114" s="12"/>
+      <c r="AU114" s="12"/>
+      <c r="AV114" s="12"/>
+      <c r="AW114" s="12"/>
+      <c r="AX114" s="12"/>
+      <c r="AY114" s="12"/>
+      <c r="AZ114" s="12"/>
+      <c r="BA114" s="12"/>
+      <c r="BB114" s="12"/>
+      <c r="BC114" s="12"/>
+      <c r="BD114" s="12"/>
+      <c r="BE114" s="12"/>
+      <c r="BF114" s="12"/>
+      <c r="BG114" s="12"/>
+      <c r="BH114" s="13"/>
+      <c r="BI114" s="11"/>
+      <c r="BJ114" s="12"/>
+      <c r="BK114" s="12"/>
+      <c r="BL114" s="12"/>
+      <c r="BM114" s="12"/>
+      <c r="BN114" s="12"/>
+      <c r="BO114" s="12"/>
+      <c r="BP114" s="12"/>
+      <c r="BQ114" s="12"/>
+      <c r="BR114" s="12"/>
+      <c r="BS114" s="12"/>
+      <c r="BT114" s="12"/>
+      <c r="BU114" s="12"/>
+      <c r="BV114" s="12"/>
+      <c r="BW114" s="12"/>
+      <c r="BX114" s="13"/>
+    </row>
+    <row r="115" spans="7:76">
+      <c r="G115" s="11"/>
+      <c r="H115" s="12"/>
+      <c r="I115" s="12"/>
+      <c r="J115" s="12"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="12"/>
+      <c r="S115" s="12"/>
+      <c r="T115" s="12"/>
+      <c r="U115" s="12"/>
+      <c r="V115" s="13"/>
+      <c r="W115" s="11"/>
+      <c r="X115" s="12"/>
+      <c r="Y115" s="12"/>
+      <c r="Z115" s="12"/>
+      <c r="AA115" s="12"/>
+      <c r="AB115" s="12"/>
+      <c r="AC115" s="12"/>
+      <c r="AD115" s="12"/>
+      <c r="AE115" s="12"/>
+      <c r="AF115" s="12"/>
+      <c r="AG115" s="12"/>
+      <c r="AH115" s="12"/>
+      <c r="AI115" s="12"/>
+      <c r="AJ115" s="12"/>
+      <c r="AK115" s="12"/>
+      <c r="AL115" s="13"/>
+      <c r="AS115" s="11"/>
+      <c r="AT115" s="12"/>
+      <c r="AU115" s="12"/>
+      <c r="AV115" s="12"/>
+      <c r="AW115" s="12"/>
+      <c r="AX115" s="12"/>
+      <c r="AY115" s="12"/>
+      <c r="AZ115" s="12"/>
+      <c r="BA115" s="12"/>
+      <c r="BB115" s="12"/>
+      <c r="BC115" s="12"/>
+      <c r="BD115" s="12"/>
+      <c r="BE115" s="12"/>
+      <c r="BF115" s="12"/>
+      <c r="BG115" s="12"/>
+      <c r="BH115" s="13"/>
+      <c r="BI115" s="11"/>
+      <c r="BJ115" s="12"/>
+      <c r="BK115" s="12"/>
+      <c r="BL115" s="12"/>
+      <c r="BM115" s="12"/>
+      <c r="BN115" s="12"/>
+      <c r="BO115" s="12"/>
+      <c r="BP115" s="12"/>
+      <c r="BQ115" s="12"/>
+      <c r="BR115" s="12"/>
+      <c r="BS115" s="12"/>
+      <c r="BT115" s="12"/>
+      <c r="BU115" s="12"/>
+      <c r="BV115" s="12"/>
+      <c r="BW115" s="12"/>
+      <c r="BX115" s="13"/>
+    </row>
+    <row r="116" spans="7:76">
+      <c r="G116" s="11"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="13"/>
+      <c r="W116" s="11"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="12"/>
+      <c r="AC116" s="12"/>
+      <c r="AD116" s="12"/>
+      <c r="AE116" s="12"/>
+      <c r="AF116" s="12"/>
+      <c r="AG116" s="12"/>
+      <c r="AH116" s="12"/>
+      <c r="AI116" s="12"/>
+      <c r="AJ116" s="12"/>
+      <c r="AK116" s="12"/>
+      <c r="AL116" s="13"/>
+      <c r="AS116" s="11"/>
+      <c r="AT116" s="12"/>
+      <c r="AU116" s="12"/>
+      <c r="AV116" s="12"/>
+      <c r="AW116" s="12"/>
+      <c r="AX116" s="12"/>
+      <c r="AY116" s="12"/>
+      <c r="AZ116" s="12"/>
+      <c r="BA116" s="12"/>
+      <c r="BB116" s="12"/>
+      <c r="BC116" s="12"/>
+      <c r="BD116" s="12"/>
+      <c r="BE116" s="12"/>
+      <c r="BF116" s="12"/>
+      <c r="BG116" s="12"/>
+      <c r="BH116" s="13"/>
+      <c r="BI116" s="11"/>
+      <c r="BJ116" s="12"/>
+      <c r="BK116" s="12"/>
+      <c r="BL116" s="12"/>
+      <c r="BM116" s="12"/>
+      <c r="BN116" s="12"/>
+      <c r="BO116" s="12"/>
+      <c r="BP116" s="12"/>
+      <c r="BQ116" s="12"/>
+      <c r="BR116" s="12"/>
+      <c r="BS116" s="12"/>
+      <c r="BT116" s="12"/>
+      <c r="BU116" s="12"/>
+      <c r="BV116" s="12"/>
+      <c r="BW116" s="12"/>
+      <c r="BX116" s="13"/>
+    </row>
+    <row r="117" spans="7:76" ht="14.25" thickBot="1">
+      <c r="G117" s="14"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="15"/>
+      <c r="K117" s="15"/>
+      <c r="L117" s="15"/>
+      <c r="M117" s="15"/>
+      <c r="N117" s="15"/>
+      <c r="O117" s="15"/>
+      <c r="P117" s="15"/>
+      <c r="Q117" s="15"/>
+      <c r="R117" s="15"/>
+      <c r="S117" s="15"/>
+      <c r="T117" s="15"/>
+      <c r="U117" s="15"/>
+      <c r="V117" s="16"/>
+      <c r="W117" s="14"/>
+      <c r="X117" s="15"/>
+      <c r="Y117" s="15"/>
+      <c r="Z117" s="15"/>
+      <c r="AA117" s="15"/>
+      <c r="AB117" s="15"/>
+      <c r="AC117" s="15"/>
+      <c r="AD117" s="15"/>
+      <c r="AE117" s="15"/>
+      <c r="AF117" s="15"/>
+      <c r="AG117" s="15"/>
+      <c r="AH117" s="15"/>
+      <c r="AI117" s="15"/>
+      <c r="AJ117" s="15"/>
+      <c r="AK117" s="15"/>
+      <c r="AL117" s="16"/>
+      <c r="AS117" s="14"/>
+      <c r="AT117" s="15"/>
+      <c r="AU117" s="15"/>
+      <c r="AV117" s="15"/>
+      <c r="AW117" s="15"/>
+      <c r="AX117" s="15"/>
+      <c r="AY117" s="15"/>
+      <c r="AZ117" s="15"/>
+      <c r="BA117" s="15"/>
+      <c r="BB117" s="15"/>
+      <c r="BC117" s="15"/>
+      <c r="BD117" s="15"/>
+      <c r="BE117" s="15"/>
+      <c r="BF117" s="15"/>
+      <c r="BG117" s="15"/>
+      <c r="BH117" s="16"/>
+      <c r="BI117" s="14"/>
+      <c r="BJ117" s="15"/>
+      <c r="BK117" s="15"/>
+      <c r="BL117" s="15"/>
+      <c r="BM117" s="15"/>
+      <c r="BN117" s="15"/>
+      <c r="BO117" s="15"/>
+      <c r="BP117" s="15"/>
+      <c r="BQ117" s="15"/>
+      <c r="BR117" s="15"/>
+      <c r="BS117" s="15"/>
+      <c r="BT117" s="15"/>
+      <c r="BU117" s="15"/>
+      <c r="BV117" s="15"/>
+      <c r="BW117" s="15"/>
+      <c r="BX117" s="16"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
     <sheet name="io port" sheetId="2" r:id="rId2"/>
     <sheet name="display" sheetId="3" r:id="rId3"/>
+    <sheet name="motones vga" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="128">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -364,6 +365,83 @@
     <t>h mirror</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>Original NES timing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LBG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HBG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S-OAM clear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite evaluation for next line</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…………………………</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 - 239, 262</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HGB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>un used NT fetches.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>constant HSCAN        : integer := 256;</t>
+  </si>
+  <si>
+    <t>constant HSCAN_NEXT_START    : integer := 377;</t>
+  </si>
+  <si>
+    <t>constant VSCAN_NEXT_START    : integer := 262;</t>
+  </si>
+  <si>
+    <t>constant HSCAN_SPR_MAX       : integer := 321;</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -412,7 +490,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +503,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -642,13 +750,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,16 +873,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2967,6 +3179,396 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="Ntsc_timing.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect b="35473"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="781050"/>
+          <a:ext cx="15973425" cy="4240825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="10572750"/>
+          <a:ext cx="2133600" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>VGA</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12315825" y="9458325"/>
+          <a:ext cx="2133600" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>NES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="15649575"/>
+          <a:ext cx="5715000" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="10572750"/>
+          <a:ext cx="2133600" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>VGA</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>201082</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右中かっこ 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="18369440" y="6849585"/>
+          <a:ext cx="195894" cy="1440391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69079"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右中かっこ 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8236429" y="6633155"/>
+          <a:ext cx="195892" cy="1873250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69079"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3357,10 +3959,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="27" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3368,8 +3970,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
@@ -3408,10 +4010,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -3419,8 +4021,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
@@ -3559,10 +4161,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="27" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -3570,8 +4172,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
@@ -3599,10 +4201,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="25" t="s">
+      <c r="B33" s="27" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -3610,8 +4212,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
       <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
@@ -3711,22 +4313,22 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="25" t="s">
+      <c r="A47" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="26"/>
+      <c r="A48" s="28"/>
       <c r="B48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="28"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
@@ -3750,22 +4352,22 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="26"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="26"/>
+      <c r="C53" s="28"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
@@ -3789,25 +4391,31 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="25" t="s">
+      <c r="C57" s="27" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="26"/>
+      <c r="A58" s="28"/>
       <c r="B58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="26"/>
+      <c r="C58" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -3816,12 +4424,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3833,8 +4435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:BX117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X74" workbookViewId="0">
-      <selection activeCell="AV85" sqref="AV85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -6648,7 +7250,7 @@
       <c r="V93" s="13"/>
       <c r="W93" s="11"/>
       <c r="X93" s="12"/>
-      <c r="Y93" s="27" t="s">
+      <c r="Y93" s="25" t="s">
         <v>99</v>
       </c>
       <c r="Z93" s="12" t="s">
@@ -7594,7 +8196,7 @@
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
       <c r="V107" s="13"/>
-      <c r="W107" s="28" t="s">
+      <c r="W107" s="26" t="s">
         <v>103</v>
       </c>
       <c r="X107" s="12"/>
@@ -7615,7 +8217,7 @@
       <c r="AL107" s="13"/>
       <c r="AS107" s="11"/>
       <c r="AT107" s="12"/>
-      <c r="AU107" s="27" t="s">
+      <c r="AU107" s="25" t="s">
         <v>99</v>
       </c>
       <c r="AV107" s="12" t="s">
@@ -7633,7 +8235,7 @@
       <c r="BF107" s="12"/>
       <c r="BG107" s="12"/>
       <c r="BH107" s="13"/>
-      <c r="BI107" s="28" t="s">
+      <c r="BI107" s="26" t="s">
         <v>103</v>
       </c>
       <c r="BJ107" s="12"/>
@@ -8318,4 +8920,4853 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:CF125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BI46" sqref="BI46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.125" customWidth="1"/>
+    <col min="36" max="36" width="4.25" customWidth="1"/>
+    <col min="38" max="38" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.625" customWidth="1"/>
+    <col min="48" max="48" width="4.875" customWidth="1"/>
+    <col min="49" max="49" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.125" customWidth="1"/>
+    <col min="52" max="53" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4" customWidth="1"/>
+    <col min="69" max="69" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="2.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="10:83" s="29" customFormat="1" ht="42">
+      <c r="J32" s="29">
+        <v>0</v>
+      </c>
+      <c r="K32" s="29">
+        <v>1</v>
+      </c>
+      <c r="L32" s="29">
+        <v>2</v>
+      </c>
+      <c r="M32" s="29">
+        <v>3</v>
+      </c>
+      <c r="N32" s="29">
+        <v>4</v>
+      </c>
+      <c r="O32" s="29">
+        <v>5</v>
+      </c>
+      <c r="P32" s="29">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="29">
+        <v>7</v>
+      </c>
+      <c r="R32" s="29">
+        <v>8</v>
+      </c>
+      <c r="S32" s="29">
+        <v>9</v>
+      </c>
+      <c r="T32" s="29">
+        <v>10</v>
+      </c>
+      <c r="U32" s="29">
+        <v>11</v>
+      </c>
+      <c r="V32" s="29">
+        <v>12</v>
+      </c>
+      <c r="W32" s="29">
+        <v>13</v>
+      </c>
+      <c r="X32" s="29">
+        <v>14</v>
+      </c>
+      <c r="Y32" s="29">
+        <v>15</v>
+      </c>
+      <c r="Z32" s="29">
+        <v>16</v>
+      </c>
+      <c r="AA32" s="29">
+        <v>17</v>
+      </c>
+      <c r="AB32" s="29">
+        <v>18</v>
+      </c>
+      <c r="AD32" s="29">
+        <v>64</v>
+      </c>
+      <c r="AE32" s="29">
+        <v>65</v>
+      </c>
+      <c r="AG32" s="29">
+        <v>249</v>
+      </c>
+      <c r="AH32" s="29">
+        <v>250</v>
+      </c>
+      <c r="AI32" s="29">
+        <v>251</v>
+      </c>
+      <c r="AJ32" s="29">
+        <v>252</v>
+      </c>
+      <c r="AK32" s="29">
+        <v>253</v>
+      </c>
+      <c r="AL32" s="29">
+        <v>254</v>
+      </c>
+      <c r="AM32" s="29">
+        <v>255</v>
+      </c>
+      <c r="AN32" s="29">
+        <v>256</v>
+      </c>
+      <c r="AO32" s="29">
+        <v>257</v>
+      </c>
+      <c r="AP32" s="29">
+        <v>258</v>
+      </c>
+      <c r="AQ32" s="29">
+        <v>259</v>
+      </c>
+      <c r="AR32" s="29">
+        <v>260</v>
+      </c>
+      <c r="AS32" s="29">
+        <v>261</v>
+      </c>
+      <c r="AT32" s="29">
+        <v>262</v>
+      </c>
+      <c r="AU32" s="29">
+        <v>263</v>
+      </c>
+      <c r="AV32" s="29">
+        <v>264</v>
+      </c>
+      <c r="AW32" s="29">
+        <v>265</v>
+      </c>
+      <c r="AX32" s="29">
+        <v>266</v>
+      </c>
+      <c r="AZ32" s="29">
+        <v>279</v>
+      </c>
+      <c r="BA32" s="29">
+        <v>280</v>
+      </c>
+      <c r="BC32" s="29">
+        <v>304</v>
+      </c>
+      <c r="BD32" s="29">
+        <v>305</v>
+      </c>
+      <c r="BF32" s="29">
+        <v>319</v>
+      </c>
+      <c r="BG32" s="29">
+        <v>320</v>
+      </c>
+      <c r="BI32" s="29">
+        <v>377</v>
+      </c>
+      <c r="BJ32" s="29">
+        <v>378</v>
+      </c>
+      <c r="BK32" s="29">
+        <v>379</v>
+      </c>
+      <c r="BL32" s="29">
+        <v>380</v>
+      </c>
+      <c r="BM32" s="29">
+        <v>381</v>
+      </c>
+      <c r="BN32" s="29">
+        <v>382</v>
+      </c>
+      <c r="BO32" s="29">
+        <v>383</v>
+      </c>
+      <c r="BP32" s="29">
+        <v>384</v>
+      </c>
+      <c r="BQ32" s="29">
+        <v>385</v>
+      </c>
+      <c r="BR32" s="29">
+        <v>386</v>
+      </c>
+      <c r="BS32" s="29">
+        <v>387</v>
+      </c>
+      <c r="BT32" s="29">
+        <v>388</v>
+      </c>
+      <c r="BU32" s="29">
+        <v>389</v>
+      </c>
+      <c r="BV32" s="29">
+        <v>390</v>
+      </c>
+      <c r="BW32" s="29">
+        <v>391</v>
+      </c>
+      <c r="BX32" s="29">
+        <v>392</v>
+      </c>
+      <c r="BY32" s="29">
+        <v>393</v>
+      </c>
+      <c r="BZ32" s="29">
+        <v>394</v>
+      </c>
+      <c r="CA32" s="29">
+        <v>395</v>
+      </c>
+      <c r="CB32" s="29">
+        <v>396</v>
+      </c>
+      <c r="CC32" s="29">
+        <v>397</v>
+      </c>
+      <c r="CD32" s="29">
+        <v>398</v>
+      </c>
+      <c r="CE32" s="29">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="6:84">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="44"/>
+      <c r="K33" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="L33" s="37"/>
+      <c r="M33" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="R33" s="37"/>
+      <c r="S33" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="T33" s="37"/>
+      <c r="U33" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="V33" s="37"/>
+      <c r="W33" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="X33" s="37"/>
+      <c r="Y33" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z33" s="37"/>
+      <c r="AA33" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB33" s="37"/>
+      <c r="AD33" s="39"/>
+      <c r="AE33" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG33" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH33" s="37"/>
+      <c r="AI33" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ33" s="37"/>
+      <c r="AK33" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL33" s="37"/>
+      <c r="AM33" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN33" s="37"/>
+      <c r="AO33" s="38"/>
+      <c r="AP33" s="38"/>
+      <c r="AQ33" s="38"/>
+      <c r="AR33" s="38"/>
+      <c r="AS33" s="38"/>
+      <c r="AT33" s="38"/>
+      <c r="AU33" s="38"/>
+      <c r="AV33" s="38"/>
+      <c r="AW33" s="38"/>
+      <c r="AX33" s="38"/>
+      <c r="AZ33" s="38"/>
+      <c r="BA33" s="38"/>
+      <c r="BC33" s="38"/>
+      <c r="BD33" s="38"/>
+      <c r="BF33" s="38"/>
+      <c r="BG33" s="38"/>
+      <c r="BI33" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ33" s="37"/>
+      <c r="BK33" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL33" s="37"/>
+      <c r="BM33" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN33" s="37"/>
+      <c r="BO33" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP33" s="37"/>
+      <c r="BQ33" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR33" s="37"/>
+      <c r="BS33" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT33" s="37"/>
+      <c r="BU33" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BV33" s="37"/>
+      <c r="BW33" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="BX33" s="37"/>
+      <c r="BY33" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BZ33" s="37"/>
+      <c r="CA33" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB33" s="37"/>
+      <c r="CC33" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="CD33" s="37"/>
+      <c r="CE33" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF33" s="29"/>
+    </row>
+    <row r="34" spans="6:84">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="38"/>
+      <c r="K34" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="L34" s="37"/>
+      <c r="M34" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N34" s="37"/>
+      <c r="O34" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P34" s="37"/>
+      <c r="Q34" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="R34" s="37"/>
+      <c r="S34" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="T34" s="37"/>
+      <c r="U34" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="V34" s="37"/>
+      <c r="W34" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="X34" s="37"/>
+      <c r="Y34" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z34" s="37"/>
+      <c r="AA34" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB34" s="37"/>
+      <c r="AD34" s="39"/>
+      <c r="AE34" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG34" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH34" s="37"/>
+      <c r="AI34" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ34" s="37"/>
+      <c r="AK34" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL34" s="37"/>
+      <c r="AM34" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN34" s="37"/>
+      <c r="AO34" s="38"/>
+      <c r="AP34" s="38"/>
+      <c r="AQ34" s="38"/>
+      <c r="AR34" s="38"/>
+      <c r="AS34" s="38"/>
+      <c r="AT34" s="38"/>
+      <c r="AU34" s="38"/>
+      <c r="AV34" s="38"/>
+      <c r="AW34" s="38"/>
+      <c r="AX34" s="38"/>
+      <c r="AZ34" s="38"/>
+      <c r="BA34" s="38"/>
+      <c r="BC34" s="38"/>
+      <c r="BD34" s="38"/>
+      <c r="BF34" s="38"/>
+      <c r="BG34" s="38"/>
+      <c r="BI34" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ34" s="37"/>
+      <c r="BK34" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL34" s="37"/>
+      <c r="BM34" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN34" s="37"/>
+      <c r="BO34" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP34" s="37"/>
+      <c r="BQ34" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR34" s="37"/>
+      <c r="BS34" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT34" s="37"/>
+      <c r="BU34" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BV34" s="37"/>
+      <c r="BW34" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="BX34" s="37"/>
+      <c r="BY34" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BZ34" s="37"/>
+      <c r="CA34" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB34" s="37"/>
+      <c r="CC34" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="CD34" s="37"/>
+      <c r="CE34" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF34" s="29"/>
+    </row>
+    <row r="35" spans="6:84">
+      <c r="CB35" s="29"/>
+      <c r="CC35" s="29"/>
+      <c r="CD35" s="29"/>
+      <c r="CE35" s="29"/>
+      <c r="CF35" s="29"/>
+    </row>
+    <row r="36" spans="6:84">
+      <c r="I36">
+        <v>239</v>
+      </c>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z36" s="41"/>
+      <c r="AA36" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB36" s="41"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG36" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH36" s="41"/>
+      <c r="AI36" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ36" s="41"/>
+      <c r="AK36" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL36" s="41"/>
+      <c r="AM36" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN36" s="41"/>
+      <c r="AO36" s="40"/>
+      <c r="AP36" s="40"/>
+      <c r="AQ36" s="40"/>
+      <c r="AR36" s="40"/>
+      <c r="AS36" s="40"/>
+      <c r="AT36" s="40"/>
+      <c r="AU36" s="40"/>
+      <c r="AV36" s="40"/>
+      <c r="AW36" s="40"/>
+      <c r="AX36" s="40"/>
+      <c r="AZ36" s="40"/>
+      <c r="BA36" s="40"/>
+      <c r="BC36" s="40"/>
+      <c r="BD36" s="40"/>
+      <c r="BF36" s="38"/>
+      <c r="BG36" s="38"/>
+      <c r="BI36" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ36" s="37"/>
+      <c r="BK36" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL36" s="37"/>
+      <c r="BM36" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN36" s="37"/>
+      <c r="BO36" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP36" s="37"/>
+      <c r="BQ36" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR36" s="37"/>
+      <c r="BS36" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT36" s="37"/>
+      <c r="BU36" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BV36" s="37"/>
+      <c r="BW36" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="BX36" s="37"/>
+      <c r="BY36" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BZ36" s="37"/>
+      <c r="CA36" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB36" s="37"/>
+      <c r="CC36" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="CD36" s="37"/>
+      <c r="CE36" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF36" s="29"/>
+    </row>
+    <row r="37" spans="6:84">
+      <c r="I37">
+        <v>240</v>
+      </c>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
+      <c r="V37" s="43"/>
+      <c r="W37" s="43"/>
+      <c r="X37" s="43"/>
+      <c r="Y37" s="43"/>
+      <c r="Z37" s="43"/>
+      <c r="AA37" s="43"/>
+      <c r="AB37" s="43"/>
+      <c r="AC37" s="43"/>
+      <c r="AD37" s="43"/>
+      <c r="AE37" s="43"/>
+      <c r="AF37" s="43"/>
+      <c r="AG37" s="43"/>
+      <c r="AH37" s="43"/>
+      <c r="AI37" s="43"/>
+      <c r="AJ37" s="43"/>
+      <c r="AK37" s="43"/>
+      <c r="AL37" s="43"/>
+      <c r="AM37" s="43"/>
+      <c r="AN37" s="43"/>
+      <c r="AO37" s="43"/>
+      <c r="AP37" s="43"/>
+      <c r="AQ37" s="43"/>
+      <c r="AR37" s="43"/>
+      <c r="AS37" s="43"/>
+      <c r="AT37" s="43"/>
+      <c r="AU37" s="43"/>
+      <c r="AV37" s="43"/>
+      <c r="AW37" s="43"/>
+      <c r="AX37" s="43"/>
+      <c r="AY37" s="43"/>
+      <c r="AZ37" s="43"/>
+      <c r="BA37" s="43"/>
+      <c r="BB37" s="43"/>
+      <c r="BC37" s="43"/>
+      <c r="BD37" s="43"/>
+      <c r="BE37" s="43"/>
+      <c r="BF37" s="43"/>
+      <c r="BG37" s="43"/>
+      <c r="BH37" s="43"/>
+      <c r="BI37" s="43"/>
+      <c r="BJ37" s="43"/>
+      <c r="BK37" s="43"/>
+      <c r="BL37" s="43"/>
+      <c r="BM37" s="43"/>
+      <c r="BN37" s="43"/>
+      <c r="BO37" s="43"/>
+      <c r="BP37" s="43"/>
+      <c r="BQ37" s="43"/>
+      <c r="BR37" s="43"/>
+      <c r="BS37" s="43"/>
+      <c r="BT37" s="43"/>
+      <c r="BU37" s="43"/>
+      <c r="BV37" s="43"/>
+      <c r="BW37" s="43"/>
+      <c r="BX37" s="43"/>
+      <c r="BY37" s="43"/>
+      <c r="BZ37" s="43"/>
+      <c r="CA37" s="43"/>
+      <c r="CB37" s="43"/>
+      <c r="CC37" s="43"/>
+      <c r="CD37" s="43"/>
+      <c r="CE37" s="43"/>
+      <c r="CF37" s="29"/>
+    </row>
+    <row r="38" spans="6:84">
+      <c r="I38">
+        <v>241</v>
+      </c>
+      <c r="J38" s="43"/>
+      <c r="K38" s="44"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
+      <c r="V38" s="43"/>
+      <c r="W38" s="43"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+      <c r="Z38" s="43"/>
+      <c r="AA38" s="43"/>
+      <c r="AB38" s="43"/>
+      <c r="AC38" s="43"/>
+      <c r="AD38" s="43"/>
+      <c r="AE38" s="43"/>
+      <c r="AF38" s="43"/>
+      <c r="AG38" s="43"/>
+      <c r="AH38" s="43"/>
+      <c r="AI38" s="43"/>
+      <c r="AJ38" s="43"/>
+      <c r="AK38" s="43"/>
+      <c r="AL38" s="43"/>
+      <c r="AM38" s="43"/>
+      <c r="AN38" s="43"/>
+      <c r="AO38" s="43"/>
+      <c r="AP38" s="43"/>
+      <c r="AQ38" s="43"/>
+      <c r="AR38" s="43"/>
+      <c r="AS38" s="43"/>
+      <c r="AT38" s="43"/>
+      <c r="AU38" s="43"/>
+      <c r="AV38" s="43"/>
+      <c r="AW38" s="43"/>
+      <c r="AX38" s="43"/>
+      <c r="AY38" s="43"/>
+      <c r="AZ38" s="43"/>
+      <c r="BA38" s="43"/>
+      <c r="BB38" s="43"/>
+      <c r="BC38" s="43"/>
+      <c r="BD38" s="43"/>
+      <c r="BE38" s="43"/>
+      <c r="BF38" s="43"/>
+      <c r="BG38" s="43"/>
+      <c r="BH38" s="43"/>
+      <c r="BI38" s="43"/>
+      <c r="BJ38" s="43"/>
+      <c r="BK38" s="43"/>
+      <c r="BL38" s="43"/>
+      <c r="BM38" s="43"/>
+      <c r="BN38" s="43"/>
+      <c r="BO38" s="43"/>
+      <c r="BP38" s="43"/>
+      <c r="BQ38" s="43"/>
+      <c r="BR38" s="43"/>
+      <c r="BS38" s="43"/>
+      <c r="BT38" s="43"/>
+      <c r="BU38" s="43"/>
+      <c r="BV38" s="43"/>
+      <c r="BW38" s="43"/>
+      <c r="BX38" s="43"/>
+      <c r="BY38" s="43"/>
+      <c r="BZ38" s="43"/>
+      <c r="CA38" s="43"/>
+      <c r="CB38" s="43"/>
+      <c r="CC38" s="43"/>
+      <c r="CD38" s="43"/>
+      <c r="CE38" s="43"/>
+      <c r="CF38" s="29"/>
+    </row>
+    <row r="39" spans="6:84">
+      <c r="I39">
+        <v>242</v>
+      </c>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
+      <c r="V39" s="43"/>
+      <c r="W39" s="43"/>
+      <c r="X39" s="43"/>
+      <c r="Y39" s="43"/>
+      <c r="Z39" s="43"/>
+      <c r="AA39" s="43"/>
+      <c r="AB39" s="43"/>
+      <c r="AC39" s="43"/>
+      <c r="AD39" s="43"/>
+      <c r="AE39" s="43"/>
+      <c r="AF39" s="43"/>
+      <c r="AG39" s="43"/>
+      <c r="AH39" s="43"/>
+      <c r="AI39" s="43"/>
+      <c r="AJ39" s="43"/>
+      <c r="AK39" s="43"/>
+      <c r="AL39" s="43"/>
+      <c r="AM39" s="43"/>
+      <c r="AN39" s="43"/>
+      <c r="AO39" s="43"/>
+      <c r="AP39" s="43"/>
+      <c r="AQ39" s="43"/>
+      <c r="AR39" s="43"/>
+      <c r="AS39" s="43"/>
+      <c r="AT39" s="43"/>
+      <c r="AU39" s="43"/>
+      <c r="AV39" s="43"/>
+      <c r="AW39" s="43"/>
+      <c r="AX39" s="43"/>
+      <c r="AY39" s="43"/>
+      <c r="AZ39" s="43"/>
+      <c r="BA39" s="43"/>
+      <c r="BB39" s="43"/>
+      <c r="BC39" s="43"/>
+      <c r="BD39" s="43"/>
+      <c r="BE39" s="43"/>
+      <c r="BF39" s="43"/>
+      <c r="BG39" s="43"/>
+      <c r="BH39" s="43"/>
+      <c r="BI39" s="43"/>
+      <c r="BJ39" s="43"/>
+      <c r="BK39" s="43"/>
+      <c r="BL39" s="43"/>
+      <c r="BM39" s="43"/>
+      <c r="BN39" s="43"/>
+      <c r="BO39" s="43"/>
+      <c r="BP39" s="43"/>
+      <c r="BQ39" s="43"/>
+      <c r="BR39" s="43"/>
+      <c r="BS39" s="43"/>
+      <c r="BT39" s="43"/>
+      <c r="BU39" s="43"/>
+      <c r="BV39" s="43"/>
+      <c r="BW39" s="43"/>
+      <c r="BX39" s="43"/>
+      <c r="BY39" s="43"/>
+      <c r="BZ39" s="43"/>
+      <c r="CA39" s="43"/>
+      <c r="CB39" s="43"/>
+      <c r="CC39" s="43"/>
+      <c r="CD39" s="43"/>
+      <c r="CE39" s="43"/>
+      <c r="CF39" s="29"/>
+    </row>
+    <row r="40" spans="6:84">
+      <c r="CB40" s="29"/>
+      <c r="CC40" s="29"/>
+      <c r="CD40" s="29"/>
+      <c r="CE40" s="29"/>
+      <c r="CF40" s="29"/>
+    </row>
+    <row r="41" spans="6:84">
+      <c r="I41">
+        <v>261</v>
+      </c>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
+      <c r="V41" s="43"/>
+      <c r="W41" s="43"/>
+      <c r="X41" s="43"/>
+      <c r="Y41" s="43"/>
+      <c r="Z41" s="43"/>
+      <c r="AA41" s="43"/>
+      <c r="AB41" s="43"/>
+      <c r="AC41" s="43"/>
+      <c r="AD41" s="43"/>
+      <c r="AE41" s="43"/>
+      <c r="AF41" s="43"/>
+      <c r="AG41" s="43"/>
+      <c r="AH41" s="43"/>
+      <c r="AI41" s="43"/>
+      <c r="AJ41" s="43"/>
+      <c r="AK41" s="43"/>
+      <c r="AL41" s="43"/>
+      <c r="AM41" s="43"/>
+      <c r="AN41" s="43"/>
+      <c r="AO41" s="43"/>
+      <c r="AP41" s="43"/>
+      <c r="AQ41" s="43"/>
+      <c r="AR41" s="43"/>
+      <c r="AS41" s="43"/>
+      <c r="AT41" s="43"/>
+      <c r="AU41" s="43"/>
+      <c r="AV41" s="43"/>
+      <c r="AW41" s="43"/>
+      <c r="AX41" s="43"/>
+      <c r="AY41" s="43"/>
+      <c r="AZ41" s="43"/>
+      <c r="BA41" s="43"/>
+      <c r="BB41" s="43"/>
+      <c r="BC41" s="43"/>
+      <c r="BD41" s="43"/>
+      <c r="BE41" s="43"/>
+      <c r="BF41" s="43"/>
+      <c r="BG41" s="43"/>
+      <c r="BH41" s="43"/>
+      <c r="BI41" s="43"/>
+      <c r="BJ41" s="43"/>
+      <c r="BK41" s="43"/>
+      <c r="BL41" s="43"/>
+      <c r="BM41" s="43"/>
+      <c r="BN41" s="43"/>
+      <c r="BO41" s="43"/>
+      <c r="BP41" s="43"/>
+      <c r="BQ41" s="43"/>
+      <c r="BR41" s="43"/>
+      <c r="BS41" s="43"/>
+      <c r="BT41" s="43"/>
+      <c r="BU41" s="43"/>
+      <c r="BV41" s="43"/>
+      <c r="BW41" s="43"/>
+      <c r="BX41" s="43"/>
+      <c r="BY41" s="43"/>
+      <c r="BZ41" s="43"/>
+      <c r="CA41" s="43"/>
+      <c r="CB41" s="43"/>
+      <c r="CC41" s="43"/>
+      <c r="CD41" s="43"/>
+      <c r="CE41" s="43"/>
+      <c r="CF41" s="29"/>
+    </row>
+    <row r="42" spans="6:84">
+      <c r="I42">
+        <v>262</v>
+      </c>
+      <c r="J42" s="43"/>
+      <c r="K42" s="44"/>
+      <c r="L42" s="45"/>
+      <c r="M42" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="N42" s="37"/>
+      <c r="O42" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="R42" s="37"/>
+      <c r="S42" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="T42" s="37"/>
+      <c r="U42" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="V42" s="37"/>
+      <c r="W42" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="X42" s="37"/>
+      <c r="Y42" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="Z42" s="37"/>
+      <c r="AA42" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB42" s="37"/>
+      <c r="AD42" s="39"/>
+      <c r="AE42" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG42" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH42" s="37"/>
+      <c r="AI42" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ42" s="37"/>
+      <c r="AK42" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL42" s="37"/>
+      <c r="AM42" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="AN42" s="37"/>
+      <c r="AO42" s="38"/>
+      <c r="AP42" s="38"/>
+      <c r="AQ42" s="38"/>
+      <c r="AR42" s="38"/>
+      <c r="AS42" s="38"/>
+      <c r="AT42" s="38"/>
+      <c r="AU42" s="38"/>
+      <c r="AV42" s="38"/>
+      <c r="AW42" s="38"/>
+      <c r="AX42" s="38"/>
+      <c r="AZ42" s="38"/>
+      <c r="BA42" s="38"/>
+      <c r="BC42" s="38"/>
+      <c r="BD42" s="38"/>
+      <c r="BF42" s="38"/>
+      <c r="BG42" s="38"/>
+      <c r="BI42" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BJ42" s="37"/>
+      <c r="BK42" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="BL42" s="37"/>
+      <c r="BM42" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BN42" s="37"/>
+      <c r="BO42" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="BP42" s="37"/>
+      <c r="BQ42" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BR42" s="37"/>
+      <c r="BS42" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="BT42" s="37"/>
+      <c r="BU42" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="BV42" s="37"/>
+      <c r="BW42" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="BX42" s="37"/>
+      <c r="BY42" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="BZ42" s="37"/>
+      <c r="CA42" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="CB42" s="37"/>
+      <c r="CC42" s="37" t="s">
+        <v>114</v>
+      </c>
+      <c r="CD42" s="37"/>
+      <c r="CE42" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="CF42" s="29"/>
+    </row>
+    <row r="43" spans="6:84">
+      <c r="CB43" s="29"/>
+      <c r="CC43" s="29"/>
+      <c r="CD43" s="29"/>
+      <c r="CE43" s="29"/>
+      <c r="CF43" s="29"/>
+    </row>
+    <row r="44" spans="6:84">
+      <c r="AK44" t="s">
+        <v>123</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>123</v>
+      </c>
+      <c r="CB44" s="29"/>
+      <c r="CC44" s="29"/>
+      <c r="CD44" s="29"/>
+      <c r="CE44" s="29"/>
+      <c r="CF44" s="29"/>
+    </row>
+    <row r="45" spans="6:84">
+      <c r="CB45" s="29"/>
+      <c r="CC45" s="29"/>
+      <c r="CD45" s="29"/>
+      <c r="CE45" s="29"/>
+      <c r="CF45" s="29"/>
+    </row>
+    <row r="46" spans="6:84">
+      <c r="F46" t="s">
+        <v>121</v>
+      </c>
+      <c r="J46" s="38"/>
+      <c r="K46" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+      <c r="N46" s="48"/>
+      <c r="O46" s="48"/>
+      <c r="P46" s="48"/>
+      <c r="Q46" s="48"/>
+      <c r="R46" s="48"/>
+      <c r="S46" s="48"/>
+      <c r="T46" s="48"/>
+      <c r="U46" s="48"/>
+      <c r="V46" s="48"/>
+      <c r="W46" s="48"/>
+      <c r="X46" s="48"/>
+      <c r="Y46" s="48"/>
+      <c r="Z46" s="48"/>
+      <c r="AA46" s="48"/>
+      <c r="AB46" s="48"/>
+      <c r="AC46" s="48"/>
+      <c r="AD46" s="48"/>
+      <c r="AE46" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="AF46" s="48"/>
+      <c r="AG46" s="48"/>
+      <c r="AH46" s="48"/>
+      <c r="AI46" s="48"/>
+      <c r="AJ46" s="48"/>
+      <c r="AK46" s="48"/>
+      <c r="AL46" s="48"/>
+      <c r="AM46" s="48"/>
+      <c r="AN46" s="48"/>
+      <c r="AO46" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="AP46" s="37"/>
+      <c r="AQ46" s="37" t="s">
+        <v>113</v>
+      </c>
+      <c r="AR46" s="37"/>
+      <c r="AS46" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="AT46" s="37"/>
+      <c r="AU46" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="AV46" s="37"/>
+      <c r="AW46" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="AX46" s="36"/>
+      <c r="AY46" s="36"/>
+      <c r="AZ46" s="36"/>
+      <c r="BA46" s="36"/>
+      <c r="BB46" s="36"/>
+      <c r="BC46" s="36"/>
+      <c r="BD46" s="36"/>
+      <c r="BE46" s="47"/>
+      <c r="BF46" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="BG46" s="37"/>
+      <c r="BI46" s="43"/>
+      <c r="BJ46" s="43"/>
+      <c r="BK46" s="43"/>
+      <c r="BL46" s="43"/>
+      <c r="BM46" s="43"/>
+      <c r="BN46" s="43"/>
+      <c r="BO46" s="43"/>
+      <c r="BP46" s="43"/>
+      <c r="BQ46" s="43"/>
+      <c r="BR46" s="43"/>
+      <c r="BS46" s="43"/>
+      <c r="BT46" s="43"/>
+      <c r="BU46" s="43"/>
+      <c r="BV46" s="43"/>
+      <c r="BW46" s="43"/>
+      <c r="BX46" s="43"/>
+      <c r="BY46" s="43"/>
+      <c r="BZ46" s="43"/>
+      <c r="CA46" s="43"/>
+      <c r="CB46" s="43"/>
+      <c r="CC46" s="43"/>
+      <c r="CD46" s="43"/>
+      <c r="CE46" s="43"/>
+      <c r="CF46" s="29"/>
+    </row>
+    <row r="52" spans="5:71" ht="14.25" thickBot="1">
+      <c r="E52" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ52">
+        <v>640</v>
+      </c>
+      <c r="AV52">
+        <v>800</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>109</v>
+      </c>
+      <c r="BK52">
+        <v>256</v>
+      </c>
+      <c r="BQ52">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="5:71">
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="17"/>
+      <c r="AM53" s="17"/>
+      <c r="AN53" s="17"/>
+      <c r="AO53" s="17"/>
+      <c r="AP53" s="17"/>
+      <c r="AQ53" s="17"/>
+      <c r="AR53" s="17"/>
+      <c r="AS53" s="17"/>
+      <c r="AT53" s="17"/>
+      <c r="AU53" s="17"/>
+      <c r="AV53" s="18"/>
+      <c r="AY53" s="8"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="9"/>
+      <c r="BC53" s="9"/>
+      <c r="BD53" s="9"/>
+      <c r="BE53" s="9"/>
+      <c r="BF53" s="9"/>
+      <c r="BG53" s="9"/>
+      <c r="BH53" s="9"/>
+      <c r="BI53" s="9"/>
+      <c r="BJ53" s="9"/>
+      <c r="BK53" s="10"/>
+      <c r="BL53" s="17"/>
+      <c r="BM53" s="17"/>
+      <c r="BN53" s="17"/>
+      <c r="BO53" s="17"/>
+      <c r="BP53" s="17"/>
+      <c r="BQ53" s="18"/>
+      <c r="BS53" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="54" spans="5:71">
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="20"/>
+      <c r="AY54" s="11"/>
+      <c r="AZ54" s="12"/>
+      <c r="BA54" s="12"/>
+      <c r="BB54" s="12"/>
+      <c r="BC54" s="12"/>
+      <c r="BD54" s="12"/>
+      <c r="BE54" s="12"/>
+      <c r="BF54" s="12"/>
+      <c r="BG54" s="12"/>
+      <c r="BH54" s="12"/>
+      <c r="BI54" s="12"/>
+      <c r="BJ54" s="12"/>
+      <c r="BK54" s="13"/>
+      <c r="BL54" s="12"/>
+      <c r="BM54" s="12"/>
+      <c r="BN54" s="12"/>
+      <c r="BO54" s="12"/>
+      <c r="BP54" s="12"/>
+      <c r="BQ54" s="20"/>
+      <c r="BS54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="5:71">
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="13"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="20"/>
+      <c r="AY55" s="11"/>
+      <c r="AZ55" s="12"/>
+      <c r="BA55" s="12"/>
+      <c r="BB55" s="12"/>
+      <c r="BC55" s="12"/>
+      <c r="BD55" s="12"/>
+      <c r="BE55" s="12"/>
+      <c r="BF55" s="12"/>
+      <c r="BG55" s="12"/>
+      <c r="BH55" s="12"/>
+      <c r="BI55" s="12"/>
+      <c r="BJ55" s="12"/>
+      <c r="BK55" s="13"/>
+      <c r="BL55" s="12"/>
+      <c r="BM55" s="12"/>
+      <c r="BN55" s="12"/>
+      <c r="BO55" s="12"/>
+      <c r="BP55" s="12"/>
+      <c r="BQ55" s="20"/>
+      <c r="BS55" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="56" spans="5:71">
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="13"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12"/>
+      <c r="AT56" s="12"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="20"/>
+      <c r="AY56" s="11"/>
+      <c r="AZ56" s="12"/>
+      <c r="BA56" s="12"/>
+      <c r="BB56" s="12"/>
+      <c r="BC56" s="12"/>
+      <c r="BD56" s="12"/>
+      <c r="BE56" s="12"/>
+      <c r="BF56" s="12"/>
+      <c r="BG56" s="12"/>
+      <c r="BH56" s="12"/>
+      <c r="BI56" s="12"/>
+      <c r="BJ56" s="12"/>
+      <c r="BK56" s="13"/>
+      <c r="BL56" s="12"/>
+      <c r="BM56" s="12"/>
+      <c r="BN56" s="12"/>
+      <c r="BO56" s="12"/>
+      <c r="BP56" s="12"/>
+      <c r="BQ56" s="20"/>
+      <c r="BS56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="5:71">
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="13"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="20"/>
+      <c r="AY57" s="11"/>
+      <c r="AZ57" s="12"/>
+      <c r="BA57" s="12"/>
+      <c r="BB57" s="12"/>
+      <c r="BC57" s="12"/>
+      <c r="BD57" s="12"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="12"/>
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="12"/>
+      <c r="BI57" s="12"/>
+      <c r="BJ57" s="12"/>
+      <c r="BK57" s="13"/>
+      <c r="BL57" s="12"/>
+      <c r="BM57" s="12"/>
+      <c r="BN57" s="12"/>
+      <c r="BO57" s="12"/>
+      <c r="BP57" s="12"/>
+      <c r="BQ57" s="20"/>
+      <c r="BS57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="5:71">
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="13"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="12"/>
+      <c r="AT58" s="12"/>
+      <c r="AU58" s="12"/>
+      <c r="AV58" s="20"/>
+      <c r="AY58" s="11"/>
+      <c r="AZ58" s="12"/>
+      <c r="BA58" s="12"/>
+      <c r="BB58" s="12"/>
+      <c r="BC58" s="12"/>
+      <c r="BD58" s="12"/>
+      <c r="BE58" s="12"/>
+      <c r="BF58" s="12"/>
+      <c r="BG58" s="12"/>
+      <c r="BH58" s="12"/>
+      <c r="BI58" s="12"/>
+      <c r="BJ58" s="12"/>
+      <c r="BK58" s="13"/>
+      <c r="BL58" s="12"/>
+      <c r="BM58" s="12"/>
+      <c r="BN58" s="12"/>
+      <c r="BO58" s="12"/>
+      <c r="BP58" s="12"/>
+      <c r="BQ58" s="20"/>
+    </row>
+    <row r="59" spans="5:71">
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="13"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
+      <c r="AN59" s="12"/>
+      <c r="AO59" s="12"/>
+      <c r="AP59" s="12"/>
+      <c r="AQ59" s="12"/>
+      <c r="AR59" s="12"/>
+      <c r="AS59" s="12"/>
+      <c r="AT59" s="12"/>
+      <c r="AU59" s="12"/>
+      <c r="AV59" s="20"/>
+      <c r="AY59" s="11"/>
+      <c r="AZ59" s="12"/>
+      <c r="BA59" s="12"/>
+      <c r="BB59" s="12"/>
+      <c r="BC59" s="12"/>
+      <c r="BD59" s="12"/>
+      <c r="BE59" s="12"/>
+      <c r="BF59" s="12"/>
+      <c r="BG59" s="12"/>
+      <c r="BH59" s="12"/>
+      <c r="BI59" s="12"/>
+      <c r="BJ59" s="12"/>
+      <c r="BK59" s="13"/>
+      <c r="BL59" s="12"/>
+      <c r="BM59" s="12"/>
+      <c r="BN59" s="12"/>
+      <c r="BO59" s="12"/>
+      <c r="BP59" s="12"/>
+      <c r="BQ59" s="20"/>
+    </row>
+    <row r="60" spans="5:71">
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="12"/>
+      <c r="AO60" s="12"/>
+      <c r="AP60" s="12"/>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="12"/>
+      <c r="AS60" s="12"/>
+      <c r="AT60" s="12"/>
+      <c r="AU60" s="12"/>
+      <c r="AV60" s="20"/>
+      <c r="AY60" s="11"/>
+      <c r="AZ60" s="12"/>
+      <c r="BA60" s="12"/>
+      <c r="BB60" s="12"/>
+      <c r="BC60" s="12"/>
+      <c r="BD60" s="12"/>
+      <c r="BE60" s="12"/>
+      <c r="BF60" s="12"/>
+      <c r="BG60" s="12"/>
+      <c r="BH60" s="12"/>
+      <c r="BI60" s="12"/>
+      <c r="BJ60" s="12"/>
+      <c r="BK60" s="13"/>
+      <c r="BL60" s="12"/>
+      <c r="BM60" s="12"/>
+      <c r="BN60" s="12"/>
+      <c r="BO60" s="12"/>
+      <c r="BP60" s="12"/>
+      <c r="BQ60" s="20"/>
+    </row>
+    <row r="61" spans="5:71">
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="12"/>
+      <c r="AQ61" s="12"/>
+      <c r="AR61" s="12"/>
+      <c r="AS61" s="12"/>
+      <c r="AT61" s="12"/>
+      <c r="AU61" s="12"/>
+      <c r="AV61" s="20"/>
+      <c r="AY61" s="11"/>
+      <c r="AZ61" s="12"/>
+      <c r="BA61" s="12"/>
+      <c r="BB61" s="12"/>
+      <c r="BC61" s="12"/>
+      <c r="BD61" s="12"/>
+      <c r="BE61" s="12"/>
+      <c r="BF61" s="12"/>
+      <c r="BG61" s="12"/>
+      <c r="BH61" s="12"/>
+      <c r="BI61" s="12"/>
+      <c r="BJ61" s="12"/>
+      <c r="BK61" s="13"/>
+      <c r="BL61" s="12"/>
+      <c r="BM61" s="12"/>
+      <c r="BN61" s="12"/>
+      <c r="BO61" s="12"/>
+      <c r="BP61" s="12"/>
+      <c r="BQ61" s="20"/>
+    </row>
+    <row r="62" spans="5:71">
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="13"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="20"/>
+      <c r="AY62" s="11"/>
+      <c r="AZ62" s="12"/>
+      <c r="BA62" s="12"/>
+      <c r="BB62" s="12"/>
+      <c r="BC62" s="12"/>
+      <c r="BD62" s="12"/>
+      <c r="BE62" s="12"/>
+      <c r="BF62" s="12"/>
+      <c r="BG62" s="12"/>
+      <c r="BH62" s="12"/>
+      <c r="BI62" s="12"/>
+      <c r="BJ62" s="12"/>
+      <c r="BK62" s="13"/>
+      <c r="BL62" s="12"/>
+      <c r="BM62" s="12"/>
+      <c r="BN62" s="12"/>
+      <c r="BO62" s="12"/>
+      <c r="BP62" s="12"/>
+      <c r="BQ62" s="20"/>
+    </row>
+    <row r="63" spans="5:71">
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="13"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="20"/>
+      <c r="AY63" s="11"/>
+      <c r="AZ63" s="12"/>
+      <c r="BA63" s="12"/>
+      <c r="BB63" s="12"/>
+      <c r="BC63" s="12"/>
+      <c r="BD63" s="12"/>
+      <c r="BE63" s="12"/>
+      <c r="BF63" s="12"/>
+      <c r="BG63" s="12"/>
+      <c r="BH63" s="12"/>
+      <c r="BI63" s="12"/>
+      <c r="BJ63" s="12"/>
+      <c r="BK63" s="13"/>
+      <c r="BL63" s="12"/>
+      <c r="BM63" s="12"/>
+      <c r="BN63" s="12"/>
+      <c r="BO63" s="12"/>
+      <c r="BP63" s="12"/>
+      <c r="BQ63" s="20"/>
+    </row>
+    <row r="64" spans="5:71" ht="14.25" thickBot="1">
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="13"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="12"/>
+      <c r="AU64" s="12"/>
+      <c r="AV64" s="20"/>
+      <c r="AX64">
+        <v>240</v>
+      </c>
+      <c r="AY64" s="14"/>
+      <c r="AZ64" s="15"/>
+      <c r="BA64" s="15"/>
+      <c r="BB64" s="15"/>
+      <c r="BC64" s="15"/>
+      <c r="BD64" s="15"/>
+      <c r="BE64" s="15"/>
+      <c r="BF64" s="15"/>
+      <c r="BG64" s="15"/>
+      <c r="BH64" s="15"/>
+      <c r="BI64" s="15"/>
+      <c r="BJ64" s="15"/>
+      <c r="BK64" s="16"/>
+      <c r="BL64" s="12"/>
+      <c r="BM64" s="12"/>
+      <c r="BN64" s="12"/>
+      <c r="BO64" s="12"/>
+      <c r="BP64" s="12"/>
+      <c r="BQ64" s="20"/>
+    </row>
+    <row r="65" spans="5:69">
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="13"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="12"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="12"/>
+      <c r="AU65" s="12"/>
+      <c r="AV65" s="20"/>
+      <c r="AY65" s="19"/>
+      <c r="AZ65" s="12"/>
+      <c r="BA65" s="12"/>
+      <c r="BB65" s="12"/>
+      <c r="BC65" s="12"/>
+      <c r="BD65" s="12"/>
+      <c r="BE65" s="12"/>
+      <c r="BF65" s="12"/>
+      <c r="BG65" s="12"/>
+      <c r="BH65" s="12"/>
+      <c r="BI65" s="12"/>
+      <c r="BJ65" s="12"/>
+      <c r="BK65" s="12"/>
+      <c r="BL65" s="12"/>
+      <c r="BM65" s="12"/>
+      <c r="BN65" s="12"/>
+      <c r="BO65" s="12"/>
+      <c r="BP65" s="12"/>
+      <c r="BQ65" s="20"/>
+    </row>
+    <row r="66" spans="5:69">
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="13"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
+      <c r="AN66" s="12"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+      <c r="AS66" s="12"/>
+      <c r="AT66" s="12"/>
+      <c r="AU66" s="12"/>
+      <c r="AV66" s="20"/>
+      <c r="AY66" s="19"/>
+      <c r="AZ66" s="12"/>
+      <c r="BA66" s="12"/>
+      <c r="BB66" s="12"/>
+      <c r="BC66" s="12"/>
+      <c r="BD66" s="12"/>
+      <c r="BE66" s="12"/>
+      <c r="BF66" s="12"/>
+      <c r="BG66" s="12"/>
+      <c r="BH66" s="12"/>
+      <c r="BI66" s="12"/>
+      <c r="BJ66" s="12"/>
+      <c r="BK66" s="12"/>
+      <c r="BL66" s="12"/>
+      <c r="BM66" s="12"/>
+      <c r="BN66" s="12"/>
+      <c r="BO66" s="12"/>
+      <c r="BP66" s="12"/>
+      <c r="BQ66" s="20"/>
+    </row>
+    <row r="67" spans="5:69">
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="13"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="12"/>
+      <c r="AU67" s="12"/>
+      <c r="AV67" s="20"/>
+      <c r="AX67">
+        <v>262</v>
+      </c>
+      <c r="AY67" s="21"/>
+      <c r="AZ67" s="22"/>
+      <c r="BA67" s="22"/>
+      <c r="BB67" s="22"/>
+      <c r="BC67" s="22"/>
+      <c r="BD67" s="22"/>
+      <c r="BE67" s="22"/>
+      <c r="BF67" s="22"/>
+      <c r="BG67" s="22"/>
+      <c r="BH67" s="22"/>
+      <c r="BI67" s="22"/>
+      <c r="BJ67" s="22"/>
+      <c r="BK67" s="22"/>
+      <c r="BL67" s="22"/>
+      <c r="BM67" s="22"/>
+      <c r="BN67" s="22"/>
+      <c r="BO67" s="22"/>
+      <c r="BP67" s="22"/>
+      <c r="BQ67" s="23"/>
+    </row>
+    <row r="68" spans="5:69">
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="13"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="20"/>
+    </row>
+    <row r="69" spans="5:69">
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="13"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="20"/>
+    </row>
+    <row r="70" spans="5:69">
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="13"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="12"/>
+      <c r="AU70" s="12"/>
+      <c r="AV70" s="20"/>
+    </row>
+    <row r="71" spans="5:69">
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="13"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+      <c r="AT71" s="12"/>
+      <c r="AU71" s="12"/>
+      <c r="AV71" s="20"/>
+    </row>
+    <row r="72" spans="5:69">
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="13"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="20"/>
+    </row>
+    <row r="73" spans="5:69">
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="13"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
+      <c r="AN73" s="12"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12"/>
+      <c r="AS73" s="12"/>
+      <c r="AT73" s="12"/>
+      <c r="AU73" s="12"/>
+      <c r="AV73" s="20"/>
+    </row>
+    <row r="74" spans="5:69">
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="13"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="12"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
+      <c r="AQ74" s="12"/>
+      <c r="AR74" s="12"/>
+      <c r="AS74" s="12"/>
+      <c r="AT74" s="12"/>
+      <c r="AU74" s="12"/>
+      <c r="AV74" s="20"/>
+    </row>
+    <row r="75" spans="5:69">
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="13"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="12"/>
+      <c r="AN75" s="12"/>
+      <c r="AO75" s="12"/>
+      <c r="AP75" s="12"/>
+      <c r="AQ75" s="12"/>
+      <c r="AR75" s="12"/>
+      <c r="AS75" s="12"/>
+      <c r="AT75" s="12"/>
+      <c r="AU75" s="12"/>
+      <c r="AV75" s="20"/>
+    </row>
+    <row r="76" spans="5:69">
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="13"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="12"/>
+      <c r="AN76" s="12"/>
+      <c r="AO76" s="12"/>
+      <c r="AP76" s="12"/>
+      <c r="AQ76" s="12"/>
+      <c r="AR76" s="12"/>
+      <c r="AS76" s="12"/>
+      <c r="AT76" s="12"/>
+      <c r="AU76" s="12"/>
+      <c r="AV76" s="20"/>
+    </row>
+    <row r="77" spans="5:69" ht="14.25" thickBot="1">
+      <c r="E77">
+        <v>480</v>
+      </c>
+      <c r="F77" s="14"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="15"/>
+      <c r="AI77" s="15"/>
+      <c r="AJ77" s="16"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="12"/>
+      <c r="AN77" s="12"/>
+      <c r="AO77" s="12"/>
+      <c r="AP77" s="12"/>
+      <c r="AQ77" s="12"/>
+      <c r="AR77" s="12"/>
+      <c r="AS77" s="12"/>
+      <c r="AT77" s="12"/>
+      <c r="AU77" s="12"/>
+      <c r="AV77" s="20"/>
+    </row>
+    <row r="78" spans="5:69">
+      <c r="F78" s="19"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="12"/>
+      <c r="AD78" s="12"/>
+      <c r="AE78" s="12"/>
+      <c r="AF78" s="12"/>
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="12"/>
+      <c r="AI78" s="12"/>
+      <c r="AJ78" s="12"/>
+      <c r="AK78" s="12"/>
+      <c r="AL78" s="12"/>
+      <c r="AM78" s="12"/>
+      <c r="AN78" s="12"/>
+      <c r="AO78" s="12"/>
+      <c r="AP78" s="12"/>
+      <c r="AQ78" s="12"/>
+      <c r="AR78" s="12"/>
+      <c r="AS78" s="12"/>
+      <c r="AT78" s="12"/>
+      <c r="AU78" s="12"/>
+      <c r="AV78" s="20"/>
+    </row>
+    <row r="79" spans="5:69">
+      <c r="F79" s="19"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="12"/>
+      <c r="AD79" s="12"/>
+      <c r="AE79" s="12"/>
+      <c r="AF79" s="12"/>
+      <c r="AG79" s="12"/>
+      <c r="AH79" s="12"/>
+      <c r="AI79" s="12"/>
+      <c r="AJ79" s="12"/>
+      <c r="AK79" s="12"/>
+      <c r="AL79" s="12"/>
+      <c r="AM79" s="12"/>
+      <c r="AN79" s="12"/>
+      <c r="AO79" s="12"/>
+      <c r="AP79" s="12"/>
+      <c r="AQ79" s="12"/>
+      <c r="AR79" s="12"/>
+      <c r="AS79" s="12"/>
+      <c r="AT79" s="12"/>
+      <c r="AU79" s="12"/>
+      <c r="AV79" s="20"/>
+    </row>
+    <row r="80" spans="5:69">
+      <c r="F80" s="19"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="12"/>
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="12"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="12"/>
+      <c r="AJ80" s="12"/>
+      <c r="AK80" s="12"/>
+      <c r="AL80" s="12"/>
+      <c r="AM80" s="12"/>
+      <c r="AN80" s="12"/>
+      <c r="AO80" s="12"/>
+      <c r="AP80" s="12"/>
+      <c r="AQ80" s="12"/>
+      <c r="AR80" s="12"/>
+      <c r="AS80" s="12"/>
+      <c r="AT80" s="12"/>
+      <c r="AU80" s="12"/>
+      <c r="AV80" s="20"/>
+    </row>
+    <row r="81" spans="4:48">
+      <c r="F81" s="19"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="12"/>
+      <c r="AC81" s="12"/>
+      <c r="AD81" s="12"/>
+      <c r="AE81" s="12"/>
+      <c r="AF81" s="12"/>
+      <c r="AG81" s="12"/>
+      <c r="AH81" s="12"/>
+      <c r="AI81" s="12"/>
+      <c r="AJ81" s="12"/>
+      <c r="AK81" s="12"/>
+      <c r="AL81" s="12"/>
+      <c r="AM81" s="12"/>
+      <c r="AN81" s="12"/>
+      <c r="AO81" s="12"/>
+      <c r="AP81" s="12"/>
+      <c r="AQ81" s="12"/>
+      <c r="AR81" s="12"/>
+      <c r="AS81" s="12"/>
+      <c r="AT81" s="12"/>
+      <c r="AU81" s="12"/>
+      <c r="AV81" s="20"/>
+    </row>
+    <row r="82" spans="4:48">
+      <c r="F82" s="19"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="12"/>
+      <c r="AC82" s="12"/>
+      <c r="AD82" s="12"/>
+      <c r="AE82" s="12"/>
+      <c r="AF82" s="12"/>
+      <c r="AG82" s="12"/>
+      <c r="AH82" s="12"/>
+      <c r="AI82" s="12"/>
+      <c r="AJ82" s="12"/>
+      <c r="AK82" s="12"/>
+      <c r="AL82" s="12"/>
+      <c r="AM82" s="12"/>
+      <c r="AN82" s="12"/>
+      <c r="AO82" s="12"/>
+      <c r="AP82" s="12"/>
+      <c r="AQ82" s="12"/>
+      <c r="AR82" s="12"/>
+      <c r="AS82" s="12"/>
+      <c r="AT82" s="12"/>
+      <c r="AU82" s="12"/>
+      <c r="AV82" s="20"/>
+    </row>
+    <row r="83" spans="4:48">
+      <c r="F83" s="19"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="12"/>
+      <c r="AE83" s="12"/>
+      <c r="AF83" s="12"/>
+      <c r="AG83" s="12"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="12"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
+      <c r="AM83" s="12"/>
+      <c r="AN83" s="12"/>
+      <c r="AO83" s="12"/>
+      <c r="AP83" s="12"/>
+      <c r="AQ83" s="12"/>
+      <c r="AR83" s="12"/>
+      <c r="AS83" s="12"/>
+      <c r="AT83" s="12"/>
+      <c r="AU83" s="12"/>
+      <c r="AV83" s="20"/>
+    </row>
+    <row r="84" spans="4:48">
+      <c r="F84" s="19"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="12"/>
+      <c r="AE84" s="12"/>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="12"/>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
+      <c r="AM84" s="12"/>
+      <c r="AN84" s="12"/>
+      <c r="AO84" s="12"/>
+      <c r="AP84" s="12"/>
+      <c r="AQ84" s="12"/>
+      <c r="AR84" s="12"/>
+      <c r="AS84" s="12"/>
+      <c r="AT84" s="12"/>
+      <c r="AU84" s="12"/>
+      <c r="AV84" s="20"/>
+    </row>
+    <row r="85" spans="4:48">
+      <c r="F85" s="19"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="12"/>
+      <c r="AD85" s="12"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="12"/>
+      <c r="AM85" s="12"/>
+      <c r="AN85" s="12"/>
+      <c r="AO85" s="12"/>
+      <c r="AP85" s="12"/>
+      <c r="AQ85" s="12"/>
+      <c r="AR85" s="12"/>
+      <c r="AS85" s="12"/>
+      <c r="AT85" s="12"/>
+      <c r="AU85" s="12"/>
+      <c r="AV85" s="20"/>
+    </row>
+    <row r="86" spans="4:48">
+      <c r="F86" s="19"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="12"/>
+      <c r="AE86" s="12"/>
+      <c r="AF86" s="12"/>
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="12"/>
+      <c r="AJ86" s="12"/>
+      <c r="AK86" s="12"/>
+      <c r="AL86" s="12"/>
+      <c r="AM86" s="12"/>
+      <c r="AN86" s="12"/>
+      <c r="AO86" s="12"/>
+      <c r="AP86" s="12"/>
+      <c r="AQ86" s="12"/>
+      <c r="AR86" s="12"/>
+      <c r="AS86" s="12"/>
+      <c r="AT86" s="12"/>
+      <c r="AU86" s="12"/>
+      <c r="AV86" s="20"/>
+    </row>
+    <row r="87" spans="4:48">
+      <c r="E87">
+        <v>525</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
+      <c r="X87" s="22"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
+      <c r="AC87" s="22"/>
+      <c r="AD87" s="22"/>
+      <c r="AE87" s="22"/>
+      <c r="AF87" s="22"/>
+      <c r="AG87" s="22"/>
+      <c r="AH87" s="22"/>
+      <c r="AI87" s="22"/>
+      <c r="AJ87" s="22"/>
+      <c r="AK87" s="22"/>
+      <c r="AL87" s="22"/>
+      <c r="AM87" s="22"/>
+      <c r="AN87" s="22"/>
+      <c r="AO87" s="22"/>
+      <c r="AP87" s="22"/>
+      <c r="AQ87" s="22"/>
+      <c r="AR87" s="22"/>
+      <c r="AS87" s="22"/>
+      <c r="AT87" s="22"/>
+      <c r="AU87" s="22"/>
+      <c r="AV87" s="23"/>
+    </row>
+    <row r="89" spans="4:48">
+      <c r="D89" t="s">
+        <v>111</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>256</v>
+      </c>
+      <c r="AV89">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="4:48" ht="14.25" thickBot="1">
+      <c r="E90" t="s">
+        <v>110</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>512</v>
+      </c>
+      <c r="AJ90">
+        <v>640</v>
+      </c>
+      <c r="AV90">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="91" spans="4:48">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="9"/>
+      <c r="AG91" s="30"/>
+      <c r="AH91" s="30"/>
+      <c r="AI91" s="30"/>
+      <c r="AJ91" s="31"/>
+      <c r="AK91" s="17"/>
+      <c r="AL91" s="17"/>
+      <c r="AM91" s="17"/>
+      <c r="AN91" s="17"/>
+      <c r="AO91" s="17"/>
+      <c r="AP91" s="17"/>
+      <c r="AQ91" s="17"/>
+      <c r="AR91" s="17"/>
+      <c r="AS91" s="17"/>
+      <c r="AT91" s="17"/>
+      <c r="AU91" s="17"/>
+      <c r="AV91" s="18"/>
+    </row>
+    <row r="92" spans="4:48">
+      <c r="F92" s="11"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12"/>
+      <c r="AC92" s="12"/>
+      <c r="AD92" s="12"/>
+      <c r="AE92" s="12"/>
+      <c r="AF92" s="12"/>
+      <c r="AG92" s="32"/>
+      <c r="AH92" s="32"/>
+      <c r="AI92" s="32"/>
+      <c r="AJ92" s="33"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="12"/>
+      <c r="AM92" s="12"/>
+      <c r="AN92" s="12"/>
+      <c r="AO92" s="12"/>
+      <c r="AP92" s="12"/>
+      <c r="AQ92" s="12"/>
+      <c r="AR92" s="12"/>
+      <c r="AS92" s="12"/>
+      <c r="AT92" s="12"/>
+      <c r="AU92" s="12"/>
+      <c r="AV92" s="20"/>
+    </row>
+    <row r="93" spans="4:48">
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="12"/>
+      <c r="AD93" s="12"/>
+      <c r="AE93" s="12"/>
+      <c r="AF93" s="12"/>
+      <c r="AG93" s="32"/>
+      <c r="AH93" s="32"/>
+      <c r="AI93" s="32"/>
+      <c r="AJ93" s="33"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="12"/>
+      <c r="AM93" s="12"/>
+      <c r="AN93" s="12"/>
+      <c r="AO93" s="12"/>
+      <c r="AP93" s="12"/>
+      <c r="AQ93" s="12"/>
+      <c r="AR93" s="12"/>
+      <c r="AS93" s="12"/>
+      <c r="AT93" s="12"/>
+      <c r="AU93" s="12"/>
+      <c r="AV93" s="20"/>
+    </row>
+    <row r="94" spans="4:48">
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
+      <c r="AC94" s="12"/>
+      <c r="AD94" s="12"/>
+      <c r="AE94" s="12"/>
+      <c r="AF94" s="12"/>
+      <c r="AG94" s="32"/>
+      <c r="AH94" s="32"/>
+      <c r="AI94" s="32"/>
+      <c r="AJ94" s="33"/>
+      <c r="AK94" s="12"/>
+      <c r="AL94" s="12"/>
+      <c r="AM94" s="12"/>
+      <c r="AN94" s="12"/>
+      <c r="AO94" s="12"/>
+      <c r="AP94" s="12"/>
+      <c r="AQ94" s="12"/>
+      <c r="AR94" s="12"/>
+      <c r="AS94" s="12"/>
+      <c r="AT94" s="12"/>
+      <c r="AU94" s="12"/>
+      <c r="AV94" s="20"/>
+    </row>
+    <row r="95" spans="4:48">
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12"/>
+      <c r="AC95" s="12"/>
+      <c r="AD95" s="12"/>
+      <c r="AE95" s="12"/>
+      <c r="AF95" s="12"/>
+      <c r="AG95" s="32"/>
+      <c r="AH95" s="32"/>
+      <c r="AI95" s="32"/>
+      <c r="AJ95" s="33"/>
+      <c r="AK95" s="12"/>
+      <c r="AL95" s="12"/>
+      <c r="AM95" s="12"/>
+      <c r="AN95" s="12"/>
+      <c r="AO95" s="12"/>
+      <c r="AP95" s="12"/>
+      <c r="AQ95" s="12"/>
+      <c r="AR95" s="12"/>
+      <c r="AS95" s="12"/>
+      <c r="AT95" s="12"/>
+      <c r="AU95" s="12"/>
+      <c r="AV95" s="20"/>
+    </row>
+    <row r="96" spans="4:48">
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="12"/>
+      <c r="AE96" s="12"/>
+      <c r="AF96" s="12"/>
+      <c r="AG96" s="32"/>
+      <c r="AH96" s="32"/>
+      <c r="AI96" s="32"/>
+      <c r="AJ96" s="33"/>
+      <c r="AK96" s="12"/>
+      <c r="AL96" s="12"/>
+      <c r="AM96" s="12"/>
+      <c r="AN96" s="12"/>
+      <c r="AO96" s="12"/>
+      <c r="AP96" s="12"/>
+      <c r="AQ96" s="12"/>
+      <c r="AR96" s="12"/>
+      <c r="AS96" s="12"/>
+      <c r="AT96" s="12"/>
+      <c r="AU96" s="12"/>
+      <c r="AV96" s="20"/>
+    </row>
+    <row r="97" spans="6:48">
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="12"/>
+      <c r="AD97" s="12"/>
+      <c r="AE97" s="12"/>
+      <c r="AF97" s="12"/>
+      <c r="AG97" s="32"/>
+      <c r="AH97" s="32"/>
+      <c r="AI97" s="32"/>
+      <c r="AJ97" s="33"/>
+      <c r="AK97" s="12"/>
+      <c r="AL97" s="12"/>
+      <c r="AM97" s="12"/>
+      <c r="AN97" s="12"/>
+      <c r="AO97" s="12"/>
+      <c r="AP97" s="12"/>
+      <c r="AQ97" s="12"/>
+      <c r="AR97" s="12"/>
+      <c r="AS97" s="12"/>
+      <c r="AT97" s="12"/>
+      <c r="AU97" s="12"/>
+      <c r="AV97" s="20"/>
+    </row>
+    <row r="98" spans="6:48">
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="32"/>
+      <c r="AH98" s="32"/>
+      <c r="AI98" s="32"/>
+      <c r="AJ98" s="33"/>
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="12"/>
+      <c r="AM98" s="12"/>
+      <c r="AN98" s="12"/>
+      <c r="AO98" s="12"/>
+      <c r="AP98" s="12"/>
+      <c r="AQ98" s="12"/>
+      <c r="AR98" s="12"/>
+      <c r="AS98" s="12"/>
+      <c r="AT98" s="12"/>
+      <c r="AU98" s="12"/>
+      <c r="AV98" s="20"/>
+    </row>
+    <row r="99" spans="6:48">
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12"/>
+      <c r="AC99" s="12"/>
+      <c r="AD99" s="12"/>
+      <c r="AE99" s="12"/>
+      <c r="AF99" s="12"/>
+      <c r="AG99" s="32"/>
+      <c r="AH99" s="32"/>
+      <c r="AI99" s="32"/>
+      <c r="AJ99" s="33"/>
+      <c r="AK99" s="12"/>
+      <c r="AL99" s="12"/>
+      <c r="AM99" s="12"/>
+      <c r="AN99" s="12"/>
+      <c r="AO99" s="12"/>
+      <c r="AP99" s="12"/>
+      <c r="AQ99" s="12"/>
+      <c r="AR99" s="12"/>
+      <c r="AS99" s="12"/>
+      <c r="AT99" s="12"/>
+      <c r="AU99" s="12"/>
+      <c r="AV99" s="20"/>
+    </row>
+    <row r="100" spans="6:48">
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="12"/>
+      <c r="AC100" s="12"/>
+      <c r="AD100" s="12"/>
+      <c r="AE100" s="12"/>
+      <c r="AF100" s="12"/>
+      <c r="AG100" s="32"/>
+      <c r="AH100" s="32"/>
+      <c r="AI100" s="32"/>
+      <c r="AJ100" s="33"/>
+      <c r="AK100" s="12"/>
+      <c r="AL100" s="12"/>
+      <c r="AM100" s="12"/>
+      <c r="AN100" s="12"/>
+      <c r="AO100" s="12"/>
+      <c r="AP100" s="12"/>
+      <c r="AQ100" s="12"/>
+      <c r="AR100" s="12"/>
+      <c r="AS100" s="12"/>
+      <c r="AT100" s="12"/>
+      <c r="AU100" s="12"/>
+      <c r="AV100" s="20"/>
+    </row>
+    <row r="101" spans="6:48">
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12"/>
+      <c r="AC101" s="12"/>
+      <c r="AD101" s="12"/>
+      <c r="AE101" s="12"/>
+      <c r="AF101" s="12"/>
+      <c r="AG101" s="32"/>
+      <c r="AH101" s="32"/>
+      <c r="AI101" s="32"/>
+      <c r="AJ101" s="33"/>
+      <c r="AK101" s="12"/>
+      <c r="AL101" s="12"/>
+      <c r="AM101" s="12"/>
+      <c r="AN101" s="12"/>
+      <c r="AO101" s="12"/>
+      <c r="AP101" s="12"/>
+      <c r="AQ101" s="12"/>
+      <c r="AR101" s="12"/>
+      <c r="AS101" s="12"/>
+      <c r="AT101" s="12"/>
+      <c r="AU101" s="12"/>
+      <c r="AV101" s="20"/>
+    </row>
+    <row r="102" spans="6:48">
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="12"/>
+      <c r="AE102" s="12"/>
+      <c r="AF102" s="12"/>
+      <c r="AG102" s="32"/>
+      <c r="AH102" s="32"/>
+      <c r="AI102" s="32"/>
+      <c r="AJ102" s="33"/>
+      <c r="AK102" s="12"/>
+      <c r="AL102" s="12"/>
+      <c r="AM102" s="12"/>
+      <c r="AN102" s="12"/>
+      <c r="AO102" s="12"/>
+      <c r="AP102" s="12"/>
+      <c r="AQ102" s="12"/>
+      <c r="AR102" s="12"/>
+      <c r="AS102" s="12"/>
+      <c r="AT102" s="12"/>
+      <c r="AU102" s="12"/>
+      <c r="AV102" s="20"/>
+    </row>
+    <row r="103" spans="6:48">
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12"/>
+      <c r="AC103" s="12"/>
+      <c r="AD103" s="12"/>
+      <c r="AE103" s="12"/>
+      <c r="AF103" s="12"/>
+      <c r="AG103" s="32"/>
+      <c r="AH103" s="32"/>
+      <c r="AI103" s="32"/>
+      <c r="AJ103" s="33"/>
+      <c r="AK103" s="12"/>
+      <c r="AL103" s="12"/>
+      <c r="AM103" s="12"/>
+      <c r="AN103" s="12"/>
+      <c r="AO103" s="12"/>
+      <c r="AP103" s="12"/>
+      <c r="AQ103" s="12"/>
+      <c r="AR103" s="12"/>
+      <c r="AS103" s="12"/>
+      <c r="AT103" s="12"/>
+      <c r="AU103" s="12"/>
+      <c r="AV103" s="20"/>
+    </row>
+    <row r="104" spans="6:48">
+      <c r="F104" s="11"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12"/>
+      <c r="AC104" s="12"/>
+      <c r="AD104" s="12"/>
+      <c r="AE104" s="12"/>
+      <c r="AF104" s="12"/>
+      <c r="AG104" s="32"/>
+      <c r="AH104" s="32"/>
+      <c r="AI104" s="32"/>
+      <c r="AJ104" s="33"/>
+      <c r="AK104" s="12"/>
+      <c r="AL104" s="12"/>
+      <c r="AM104" s="12"/>
+      <c r="AN104" s="12"/>
+      <c r="AO104" s="12"/>
+      <c r="AP104" s="12"/>
+      <c r="AQ104" s="12"/>
+      <c r="AR104" s="12"/>
+      <c r="AS104" s="12"/>
+      <c r="AT104" s="12"/>
+      <c r="AU104" s="12"/>
+      <c r="AV104" s="20"/>
+    </row>
+    <row r="105" spans="6:48">
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12"/>
+      <c r="AC105" s="12"/>
+      <c r="AD105" s="12"/>
+      <c r="AE105" s="12"/>
+      <c r="AF105" s="12"/>
+      <c r="AG105" s="32"/>
+      <c r="AH105" s="32"/>
+      <c r="AI105" s="32"/>
+      <c r="AJ105" s="33"/>
+      <c r="AK105" s="12"/>
+      <c r="AL105" s="12"/>
+      <c r="AM105" s="12"/>
+      <c r="AN105" s="12"/>
+      <c r="AO105" s="12"/>
+      <c r="AP105" s="12"/>
+      <c r="AQ105" s="12"/>
+      <c r="AR105" s="12"/>
+      <c r="AS105" s="12"/>
+      <c r="AT105" s="12"/>
+      <c r="AU105" s="12"/>
+      <c r="AV105" s="20"/>
+    </row>
+    <row r="106" spans="6:48">
+      <c r="F106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="12"/>
+      <c r="AC106" s="12"/>
+      <c r="AD106" s="12"/>
+      <c r="AE106" s="12"/>
+      <c r="AF106" s="12"/>
+      <c r="AG106" s="32"/>
+      <c r="AH106" s="32"/>
+      <c r="AI106" s="32"/>
+      <c r="AJ106" s="33"/>
+      <c r="AK106" s="12"/>
+      <c r="AL106" s="12"/>
+      <c r="AM106" s="12"/>
+      <c r="AN106" s="12"/>
+      <c r="AO106" s="12"/>
+      <c r="AP106" s="12"/>
+      <c r="AQ106" s="12"/>
+      <c r="AR106" s="12"/>
+      <c r="AS106" s="12"/>
+      <c r="AT106" s="12"/>
+      <c r="AU106" s="12"/>
+      <c r="AV106" s="20"/>
+    </row>
+    <row r="107" spans="6:48">
+      <c r="F107" s="11"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12"/>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="12"/>
+      <c r="AE107" s="12"/>
+      <c r="AF107" s="12"/>
+      <c r="AG107" s="32"/>
+      <c r="AH107" s="32"/>
+      <c r="AI107" s="32"/>
+      <c r="AJ107" s="33"/>
+      <c r="AK107" s="12"/>
+      <c r="AL107" s="12"/>
+      <c r="AM107" s="12"/>
+      <c r="AN107" s="12"/>
+      <c r="AO107" s="12"/>
+      <c r="AP107" s="12"/>
+      <c r="AQ107" s="12"/>
+      <c r="AR107" s="12"/>
+      <c r="AS107" s="12"/>
+      <c r="AT107" s="12"/>
+      <c r="AU107" s="12"/>
+      <c r="AV107" s="20"/>
+    </row>
+    <row r="108" spans="6:48">
+      <c r="F108" s="11"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12"/>
+      <c r="AC108" s="12"/>
+      <c r="AD108" s="12"/>
+      <c r="AE108" s="12"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="32"/>
+      <c r="AH108" s="32"/>
+      <c r="AI108" s="32"/>
+      <c r="AJ108" s="33"/>
+      <c r="AK108" s="12"/>
+      <c r="AL108" s="12"/>
+      <c r="AM108" s="12"/>
+      <c r="AN108" s="12"/>
+      <c r="AO108" s="12"/>
+      <c r="AP108" s="12"/>
+      <c r="AQ108" s="12"/>
+      <c r="AR108" s="12"/>
+      <c r="AS108" s="12"/>
+      <c r="AT108" s="12"/>
+      <c r="AU108" s="12"/>
+      <c r="AV108" s="20"/>
+    </row>
+    <row r="109" spans="6:48">
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12"/>
+      <c r="AC109" s="12"/>
+      <c r="AD109" s="12"/>
+      <c r="AE109" s="12"/>
+      <c r="AF109" s="12"/>
+      <c r="AG109" s="32"/>
+      <c r="AH109" s="32"/>
+      <c r="AI109" s="32"/>
+      <c r="AJ109" s="33"/>
+      <c r="AK109" s="12"/>
+      <c r="AL109" s="12"/>
+      <c r="AM109" s="12"/>
+      <c r="AN109" s="12"/>
+      <c r="AO109" s="12"/>
+      <c r="AP109" s="12"/>
+      <c r="AQ109" s="12"/>
+      <c r="AR109" s="12"/>
+      <c r="AS109" s="12"/>
+      <c r="AT109" s="12"/>
+      <c r="AU109" s="12"/>
+      <c r="AV109" s="20"/>
+    </row>
+    <row r="110" spans="6:48">
+      <c r="F110" s="11"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="12"/>
+      <c r="AF110" s="12"/>
+      <c r="AG110" s="32"/>
+      <c r="AH110" s="32"/>
+      <c r="AI110" s="32"/>
+      <c r="AJ110" s="33"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="12"/>
+      <c r="AM110" s="12"/>
+      <c r="AN110" s="12"/>
+      <c r="AO110" s="12"/>
+      <c r="AP110" s="12"/>
+      <c r="AQ110" s="12"/>
+      <c r="AR110" s="12"/>
+      <c r="AS110" s="12"/>
+      <c r="AT110" s="12"/>
+      <c r="AU110" s="12"/>
+      <c r="AV110" s="20"/>
+    </row>
+    <row r="111" spans="6:48">
+      <c r="F111" s="11"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="12"/>
+      <c r="AC111" s="12"/>
+      <c r="AD111" s="12"/>
+      <c r="AE111" s="12"/>
+      <c r="AF111" s="12"/>
+      <c r="AG111" s="32"/>
+      <c r="AH111" s="32"/>
+      <c r="AI111" s="32"/>
+      <c r="AJ111" s="33"/>
+      <c r="AK111" s="12"/>
+      <c r="AL111" s="12"/>
+      <c r="AM111" s="12"/>
+      <c r="AN111" s="12"/>
+      <c r="AO111" s="12"/>
+      <c r="AP111" s="12"/>
+      <c r="AQ111" s="12"/>
+      <c r="AR111" s="12"/>
+      <c r="AS111" s="12"/>
+      <c r="AT111" s="12"/>
+      <c r="AU111" s="12"/>
+      <c r="AV111" s="20"/>
+    </row>
+    <row r="112" spans="6:48">
+      <c r="F112" s="11"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12"/>
+      <c r="AC112" s="12"/>
+      <c r="AD112" s="12"/>
+      <c r="AE112" s="12"/>
+      <c r="AF112" s="12"/>
+      <c r="AG112" s="32"/>
+      <c r="AH112" s="32"/>
+      <c r="AI112" s="32"/>
+      <c r="AJ112" s="33"/>
+      <c r="AK112" s="12"/>
+      <c r="AL112" s="12"/>
+      <c r="AM112" s="12"/>
+      <c r="AN112" s="12"/>
+      <c r="AO112" s="12"/>
+      <c r="AP112" s="12"/>
+      <c r="AQ112" s="12"/>
+      <c r="AR112" s="12"/>
+      <c r="AS112" s="12"/>
+      <c r="AT112" s="12"/>
+      <c r="AU112" s="12"/>
+      <c r="AV112" s="20"/>
+    </row>
+    <row r="113" spans="4:48">
+      <c r="F113" s="11"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="12"/>
+      <c r="AC113" s="12"/>
+      <c r="AD113" s="12"/>
+      <c r="AE113" s="12"/>
+      <c r="AF113" s="12"/>
+      <c r="AG113" s="32"/>
+      <c r="AH113" s="32"/>
+      <c r="AI113" s="32"/>
+      <c r="AJ113" s="33"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="12"/>
+      <c r="AM113" s="12"/>
+      <c r="AN113" s="12"/>
+      <c r="AO113" s="12"/>
+      <c r="AP113" s="12"/>
+      <c r="AQ113" s="12"/>
+      <c r="AR113" s="12"/>
+      <c r="AS113" s="12"/>
+      <c r="AT113" s="12"/>
+      <c r="AU113" s="12"/>
+      <c r="AV113" s="20"/>
+    </row>
+    <row r="114" spans="4:48">
+      <c r="F114" s="11"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="12"/>
+      <c r="AC114" s="12"/>
+      <c r="AD114" s="12"/>
+      <c r="AE114" s="12"/>
+      <c r="AF114" s="12"/>
+      <c r="AG114" s="32"/>
+      <c r="AH114" s="32"/>
+      <c r="AI114" s="32"/>
+      <c r="AJ114" s="33"/>
+      <c r="AK114" s="12"/>
+      <c r="AL114" s="12"/>
+      <c r="AM114" s="12"/>
+      <c r="AN114" s="12"/>
+      <c r="AO114" s="12"/>
+      <c r="AP114" s="12"/>
+      <c r="AQ114" s="12"/>
+      <c r="AR114" s="12"/>
+      <c r="AS114" s="12"/>
+      <c r="AT114" s="12"/>
+      <c r="AU114" s="12"/>
+      <c r="AV114" s="20"/>
+    </row>
+    <row r="115" spans="4:48" ht="14.25" thickBot="1">
+      <c r="D115">
+        <v>240</v>
+      </c>
+      <c r="E115">
+        <v>480</v>
+      </c>
+      <c r="F115" s="14"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
+      <c r="S115" s="15"/>
+      <c r="T115" s="15"/>
+      <c r="U115" s="15"/>
+      <c r="V115" s="15"/>
+      <c r="W115" s="15"/>
+      <c r="X115" s="15"/>
+      <c r="Y115" s="15"/>
+      <c r="Z115" s="15"/>
+      <c r="AA115" s="15"/>
+      <c r="AB115" s="15"/>
+      <c r="AC115" s="15"/>
+      <c r="AD115" s="15"/>
+      <c r="AE115" s="15"/>
+      <c r="AF115" s="15"/>
+      <c r="AG115" s="34"/>
+      <c r="AH115" s="34"/>
+      <c r="AI115" s="34"/>
+      <c r="AJ115" s="35"/>
+      <c r="AK115" s="12"/>
+      <c r="AL115" s="12"/>
+      <c r="AM115" s="12"/>
+      <c r="AN115" s="12"/>
+      <c r="AO115" s="12"/>
+      <c r="AP115" s="12"/>
+      <c r="AQ115" s="12"/>
+      <c r="AR115" s="12"/>
+      <c r="AS115" s="12"/>
+      <c r="AT115" s="12"/>
+      <c r="AU115" s="12"/>
+      <c r="AV115" s="20"/>
+    </row>
+    <row r="116" spans="4:48">
+      <c r="F116" s="19"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="12"/>
+      <c r="AC116" s="12"/>
+      <c r="AD116" s="12"/>
+      <c r="AE116" s="12"/>
+      <c r="AF116" s="12"/>
+      <c r="AG116" s="12"/>
+      <c r="AH116" s="12"/>
+      <c r="AI116" s="12"/>
+      <c r="AJ116" s="12"/>
+      <c r="AK116" s="12"/>
+      <c r="AL116" s="12"/>
+      <c r="AM116" s="12"/>
+      <c r="AN116" s="12"/>
+      <c r="AO116" s="12"/>
+      <c r="AP116" s="12"/>
+      <c r="AQ116" s="12"/>
+      <c r="AR116" s="12"/>
+      <c r="AS116" s="12"/>
+      <c r="AT116" s="12"/>
+      <c r="AU116" s="12"/>
+      <c r="AV116" s="20"/>
+    </row>
+    <row r="117" spans="4:48">
+      <c r="F117" s="19"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="12"/>
+      <c r="AA117" s="12"/>
+      <c r="AB117" s="12"/>
+      <c r="AC117" s="12"/>
+      <c r="AD117" s="12"/>
+      <c r="AE117" s="12"/>
+      <c r="AF117" s="12"/>
+      <c r="AG117" s="12"/>
+      <c r="AH117" s="12"/>
+      <c r="AI117" s="12"/>
+      <c r="AJ117" s="12"/>
+      <c r="AK117" s="12"/>
+      <c r="AL117" s="12"/>
+      <c r="AM117" s="12"/>
+      <c r="AN117" s="12"/>
+      <c r="AO117" s="12"/>
+      <c r="AP117" s="12"/>
+      <c r="AQ117" s="12"/>
+      <c r="AR117" s="12"/>
+      <c r="AS117" s="12"/>
+      <c r="AT117" s="12"/>
+      <c r="AU117" s="12"/>
+      <c r="AV117" s="20"/>
+    </row>
+    <row r="118" spans="4:48">
+      <c r="F118" s="19"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="12"/>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="12"/>
+      <c r="AB118" s="12"/>
+      <c r="AC118" s="12"/>
+      <c r="AD118" s="12"/>
+      <c r="AE118" s="12"/>
+      <c r="AF118" s="12"/>
+      <c r="AG118" s="12"/>
+      <c r="AH118" s="12"/>
+      <c r="AI118" s="12"/>
+      <c r="AJ118" s="12"/>
+      <c r="AK118" s="12"/>
+      <c r="AL118" s="12"/>
+      <c r="AM118" s="12"/>
+      <c r="AN118" s="12"/>
+      <c r="AO118" s="12"/>
+      <c r="AP118" s="12"/>
+      <c r="AQ118" s="12"/>
+      <c r="AR118" s="12"/>
+      <c r="AS118" s="12"/>
+      <c r="AT118" s="12"/>
+      <c r="AU118" s="12"/>
+      <c r="AV118" s="20"/>
+    </row>
+    <row r="119" spans="4:48">
+      <c r="F119" s="19"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="12"/>
+      <c r="AB119" s="12"/>
+      <c r="AC119" s="12"/>
+      <c r="AD119" s="12"/>
+      <c r="AE119" s="12"/>
+      <c r="AF119" s="12"/>
+      <c r="AG119" s="12"/>
+      <c r="AH119" s="12"/>
+      <c r="AI119" s="12"/>
+      <c r="AJ119" s="12"/>
+      <c r="AK119" s="12"/>
+      <c r="AL119" s="12"/>
+      <c r="AM119" s="12"/>
+      <c r="AN119" s="12"/>
+      <c r="AO119" s="12"/>
+      <c r="AP119" s="12"/>
+      <c r="AQ119" s="12"/>
+      <c r="AR119" s="12"/>
+      <c r="AS119" s="12"/>
+      <c r="AT119" s="12"/>
+      <c r="AU119" s="12"/>
+      <c r="AV119" s="20"/>
+    </row>
+    <row r="120" spans="4:48">
+      <c r="F120" s="19"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="12"/>
+      <c r="AA120" s="12"/>
+      <c r="AB120" s="12"/>
+      <c r="AC120" s="12"/>
+      <c r="AD120" s="12"/>
+      <c r="AE120" s="12"/>
+      <c r="AF120" s="12"/>
+      <c r="AG120" s="12"/>
+      <c r="AH120" s="12"/>
+      <c r="AI120" s="12"/>
+      <c r="AJ120" s="12"/>
+      <c r="AK120" s="12"/>
+      <c r="AL120" s="12"/>
+      <c r="AM120" s="12"/>
+      <c r="AN120" s="12"/>
+      <c r="AO120" s="12"/>
+      <c r="AP120" s="12"/>
+      <c r="AQ120" s="12"/>
+      <c r="AR120" s="12"/>
+      <c r="AS120" s="12"/>
+      <c r="AT120" s="12"/>
+      <c r="AU120" s="12"/>
+      <c r="AV120" s="20"/>
+    </row>
+    <row r="121" spans="4:48">
+      <c r="F121" s="19"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
+      <c r="Z121" s="12"/>
+      <c r="AA121" s="12"/>
+      <c r="AB121" s="12"/>
+      <c r="AC121" s="12"/>
+      <c r="AD121" s="12"/>
+      <c r="AE121" s="12"/>
+      <c r="AF121" s="12"/>
+      <c r="AG121" s="12"/>
+      <c r="AH121" s="12"/>
+      <c r="AI121" s="12"/>
+      <c r="AJ121" s="12"/>
+      <c r="AK121" s="12"/>
+      <c r="AL121" s="12"/>
+      <c r="AM121" s="12"/>
+      <c r="AN121" s="12"/>
+      <c r="AO121" s="12"/>
+      <c r="AP121" s="12"/>
+      <c r="AQ121" s="12"/>
+      <c r="AR121" s="12"/>
+      <c r="AS121" s="12"/>
+      <c r="AT121" s="12"/>
+      <c r="AU121" s="12"/>
+      <c r="AV121" s="20"/>
+    </row>
+    <row r="122" spans="4:48">
+      <c r="F122" s="19"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="12"/>
+      <c r="X122" s="12"/>
+      <c r="Y122" s="12"/>
+      <c r="Z122" s="12"/>
+      <c r="AA122" s="12"/>
+      <c r="AB122" s="12"/>
+      <c r="AC122" s="12"/>
+      <c r="AD122" s="12"/>
+      <c r="AE122" s="12"/>
+      <c r="AF122" s="12"/>
+      <c r="AG122" s="12"/>
+      <c r="AH122" s="12"/>
+      <c r="AI122" s="12"/>
+      <c r="AJ122" s="12"/>
+      <c r="AK122" s="12"/>
+      <c r="AL122" s="12"/>
+      <c r="AM122" s="12"/>
+      <c r="AN122" s="12"/>
+      <c r="AO122" s="12"/>
+      <c r="AP122" s="12"/>
+      <c r="AQ122" s="12"/>
+      <c r="AR122" s="12"/>
+      <c r="AS122" s="12"/>
+      <c r="AT122" s="12"/>
+      <c r="AU122" s="12"/>
+      <c r="AV122" s="20"/>
+    </row>
+    <row r="123" spans="4:48">
+      <c r="F123" s="19"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="12"/>
+      <c r="AA123" s="12"/>
+      <c r="AB123" s="12"/>
+      <c r="AC123" s="12"/>
+      <c r="AD123" s="12"/>
+      <c r="AE123" s="12"/>
+      <c r="AF123" s="12"/>
+      <c r="AG123" s="12"/>
+      <c r="AH123" s="12"/>
+      <c r="AI123" s="12"/>
+      <c r="AJ123" s="12"/>
+      <c r="AK123" s="12"/>
+      <c r="AL123" s="12"/>
+      <c r="AM123" s="12"/>
+      <c r="AN123" s="12"/>
+      <c r="AO123" s="12"/>
+      <c r="AP123" s="12"/>
+      <c r="AQ123" s="12"/>
+      <c r="AR123" s="12"/>
+      <c r="AS123" s="12"/>
+      <c r="AT123" s="12"/>
+      <c r="AU123" s="12"/>
+      <c r="AV123" s="20"/>
+    </row>
+    <row r="124" spans="4:48">
+      <c r="F124" s="19"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="12"/>
+      <c r="AC124" s="12"/>
+      <c r="AD124" s="12"/>
+      <c r="AE124" s="12"/>
+      <c r="AF124" s="12"/>
+      <c r="AG124" s="12"/>
+      <c r="AH124" s="12"/>
+      <c r="AI124" s="12"/>
+      <c r="AJ124" s="12"/>
+      <c r="AK124" s="12"/>
+      <c r="AL124" s="12"/>
+      <c r="AM124" s="12"/>
+      <c r="AN124" s="12"/>
+      <c r="AO124" s="12"/>
+      <c r="AP124" s="12"/>
+      <c r="AQ124" s="12"/>
+      <c r="AR124" s="12"/>
+      <c r="AS124" s="12"/>
+      <c r="AT124" s="12"/>
+      <c r="AU124" s="12"/>
+      <c r="AV124" s="20"/>
+    </row>
+    <row r="125" spans="4:48">
+      <c r="D125">
+        <v>263</v>
+      </c>
+      <c r="E125">
+        <v>525</v>
+      </c>
+      <c r="F125" s="21"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="22"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="22"/>
+      <c r="S125" s="22"/>
+      <c r="T125" s="22"/>
+      <c r="U125" s="22"/>
+      <c r="V125" s="22"/>
+      <c r="W125" s="22"/>
+      <c r="X125" s="22"/>
+      <c r="Y125" s="22"/>
+      <c r="Z125" s="22"/>
+      <c r="AA125" s="22"/>
+      <c r="AB125" s="22"/>
+      <c r="AC125" s="22"/>
+      <c r="AD125" s="22"/>
+      <c r="AE125" s="22"/>
+      <c r="AF125" s="22"/>
+      <c r="AG125" s="22"/>
+      <c r="AH125" s="22"/>
+      <c r="AI125" s="22"/>
+      <c r="AJ125" s="22"/>
+      <c r="AK125" s="22"/>
+      <c r="AL125" s="22"/>
+      <c r="AM125" s="22"/>
+      <c r="AN125" s="22"/>
+      <c r="AO125" s="22"/>
+      <c r="AP125" s="22"/>
+      <c r="AQ125" s="22"/>
+      <c r="AR125" s="22"/>
+      <c r="AS125" s="22"/>
+      <c r="AT125" s="22"/>
+      <c r="AU125" s="22"/>
+      <c r="AV125" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="103">
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BK42:BL42"/>
+    <mergeCell ref="BM42:BN42"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="BK36:BL36"/>
+    <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="BK33:BL33"/>
+    <mergeCell ref="BM33:BN33"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BK34:BL34"/>
+    <mergeCell ref="BM34:BN34"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BI42:BJ42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BI36:BJ36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="BQ34:BR34"/>
+    <mergeCell ref="BS34:BT34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="BI34:BJ34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="BI33:BJ33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="129">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -437,6 +437,9 @@
   </si>
   <si>
     <t>constant VSCAN_NEXT_START    : integer := 262;</t>
+  </si>
+  <si>
+    <t>constant HSCAN_OAM_EVA_START       : integer := 64;</t>
   </si>
   <si>
     <t>constant HSCAN_SPR_MAX       : integer := 321;</t>
@@ -879,12 +882,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="255"/>
     </xf>
@@ -906,12 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -920,9 +911,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -936,7 +924,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -945,8 +948,8 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3959,10 +3962,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -3970,8 +3973,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
@@ -4010,10 +4013,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="27" t="s">
+      <c r="A13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="42" t="s">
         <v>30</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -4021,8 +4024,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
       <c r="C14" s="6" t="s">
         <v>32</v>
       </c>
@@ -4161,10 +4164,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="27" t="s">
+      <c r="B29" s="42" t="s">
         <v>49</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -4172,8 +4175,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="6" t="s">
         <v>51</v>
       </c>
@@ -4201,10 +4204,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="27" t="s">
+      <c r="A33" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="42" t="s">
         <v>56</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -4212,8 +4215,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
       <c r="C34" s="6" t="s">
         <v>58</v>
       </c>
@@ -4313,22 +4316,22 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="27" t="s">
+      <c r="A47" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="27" t="s">
+      <c r="C47" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="28"/>
+      <c r="A48" s="43"/>
       <c r="B48" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C48" s="28"/>
+      <c r="C48" s="43"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
@@ -4352,22 +4355,22 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="27" t="s">
+      <c r="A52" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="27" t="s">
+      <c r="C52" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="28"/>
+      <c r="A53" s="43"/>
       <c r="B53" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C53" s="28"/>
+      <c r="C53" s="43"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
@@ -4391,31 +4394,25 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="27" t="s">
+      <c r="A57" s="42" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="27" t="s">
+      <c r="C57" s="42" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="28"/>
+      <c r="A58" s="43"/>
       <c r="B58" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C58" s="28"/>
+      <c r="C58" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -4424,6 +4421,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4435,7 +4438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:BX117"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A97" workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -8926,8 +8929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CF125"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BI46" sqref="BI46"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AB49" sqref="AB49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -8964,209 +8967,209 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="10:83" s="29" customFormat="1" ht="42">
-      <c r="J32" s="29">
+    <row r="32" spans="10:83" s="27" customFormat="1" ht="42">
+      <c r="J32" s="27">
         <v>0</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="27">
         <v>1</v>
       </c>
-      <c r="L32" s="29">
+      <c r="L32" s="27">
         <v>2</v>
       </c>
-      <c r="M32" s="29">
+      <c r="M32" s="27">
         <v>3</v>
       </c>
-      <c r="N32" s="29">
+      <c r="N32" s="27">
         <v>4</v>
       </c>
-      <c r="O32" s="29">
+      <c r="O32" s="27">
         <v>5</v>
       </c>
-      <c r="P32" s="29">
+      <c r="P32" s="27">
         <v>6</v>
       </c>
-      <c r="Q32" s="29">
+      <c r="Q32" s="27">
         <v>7</v>
       </c>
-      <c r="R32" s="29">
+      <c r="R32" s="27">
         <v>8</v>
       </c>
-      <c r="S32" s="29">
+      <c r="S32" s="27">
         <v>9</v>
       </c>
-      <c r="T32" s="29">
+      <c r="T32" s="27">
         <v>10</v>
       </c>
-      <c r="U32" s="29">
+      <c r="U32" s="27">
         <v>11</v>
       </c>
-      <c r="V32" s="29">
+      <c r="V32" s="27">
         <v>12</v>
       </c>
-      <c r="W32" s="29">
+      <c r="W32" s="27">
         <v>13</v>
       </c>
-      <c r="X32" s="29">
+      <c r="X32" s="27">
         <v>14</v>
       </c>
-      <c r="Y32" s="29">
+      <c r="Y32" s="27">
         <v>15</v>
       </c>
-      <c r="Z32" s="29">
+      <c r="Z32" s="27">
         <v>16</v>
       </c>
-      <c r="AA32" s="29">
+      <c r="AA32" s="27">
         <v>17</v>
       </c>
-      <c r="AB32" s="29">
+      <c r="AB32" s="27">
         <v>18</v>
       </c>
-      <c r="AD32" s="29">
+      <c r="AD32" s="27">
         <v>64</v>
       </c>
-      <c r="AE32" s="29">
+      <c r="AE32" s="27">
         <v>65</v>
       </c>
-      <c r="AG32" s="29">
+      <c r="AG32" s="27">
         <v>249</v>
       </c>
-      <c r="AH32" s="29">
+      <c r="AH32" s="27">
         <v>250</v>
       </c>
-      <c r="AI32" s="29">
+      <c r="AI32" s="27">
         <v>251</v>
       </c>
-      <c r="AJ32" s="29">
+      <c r="AJ32" s="27">
         <v>252</v>
       </c>
-      <c r="AK32" s="29">
+      <c r="AK32" s="27">
         <v>253</v>
       </c>
-      <c r="AL32" s="29">
+      <c r="AL32" s="27">
         <v>254</v>
       </c>
-      <c r="AM32" s="29">
+      <c r="AM32" s="27">
         <v>255</v>
       </c>
-      <c r="AN32" s="29">
+      <c r="AN32" s="27">
         <v>256</v>
       </c>
-      <c r="AO32" s="29">
+      <c r="AO32" s="27">
         <v>257</v>
       </c>
-      <c r="AP32" s="29">
+      <c r="AP32" s="27">
         <v>258</v>
       </c>
-      <c r="AQ32" s="29">
+      <c r="AQ32" s="27">
         <v>259</v>
       </c>
-      <c r="AR32" s="29">
+      <c r="AR32" s="27">
         <v>260</v>
       </c>
-      <c r="AS32" s="29">
+      <c r="AS32" s="27">
         <v>261</v>
       </c>
-      <c r="AT32" s="29">
+      <c r="AT32" s="27">
         <v>262</v>
       </c>
-      <c r="AU32" s="29">
+      <c r="AU32" s="27">
         <v>263</v>
       </c>
-      <c r="AV32" s="29">
+      <c r="AV32" s="27">
         <v>264</v>
       </c>
-      <c r="AW32" s="29">
+      <c r="AW32" s="27">
         <v>265</v>
       </c>
-      <c r="AX32" s="29">
+      <c r="AX32" s="27">
         <v>266</v>
       </c>
-      <c r="AZ32" s="29">
+      <c r="AZ32" s="27">
         <v>279</v>
       </c>
-      <c r="BA32" s="29">
+      <c r="BA32" s="27">
         <v>280</v>
       </c>
-      <c r="BC32" s="29">
+      <c r="BC32" s="27">
         <v>304</v>
       </c>
-      <c r="BD32" s="29">
+      <c r="BD32" s="27">
         <v>305</v>
       </c>
-      <c r="BF32" s="29">
+      <c r="BF32" s="27">
         <v>319</v>
       </c>
-      <c r="BG32" s="29">
+      <c r="BG32" s="27">
         <v>320</v>
       </c>
-      <c r="BI32" s="29">
+      <c r="BI32" s="27">
         <v>377</v>
       </c>
-      <c r="BJ32" s="29">
+      <c r="BJ32" s="27">
         <v>378</v>
       </c>
-      <c r="BK32" s="29">
+      <c r="BK32" s="27">
         <v>379</v>
       </c>
-      <c r="BL32" s="29">
+      <c r="BL32" s="27">
         <v>380</v>
       </c>
-      <c r="BM32" s="29">
+      <c r="BM32" s="27">
         <v>381</v>
       </c>
-      <c r="BN32" s="29">
+      <c r="BN32" s="27">
         <v>382</v>
       </c>
-      <c r="BO32" s="29">
+      <c r="BO32" s="27">
         <v>383</v>
       </c>
-      <c r="BP32" s="29">
+      <c r="BP32" s="27">
         <v>384</v>
       </c>
-      <c r="BQ32" s="29">
+      <c r="BQ32" s="27">
         <v>385</v>
       </c>
-      <c r="BR32" s="29">
+      <c r="BR32" s="27">
         <v>386</v>
       </c>
-      <c r="BS32" s="29">
+      <c r="BS32" s="27">
         <v>387</v>
       </c>
-      <c r="BT32" s="29">
+      <c r="BT32" s="27">
         <v>388</v>
       </c>
-      <c r="BU32" s="29">
+      <c r="BU32" s="27">
         <v>389</v>
       </c>
-      <c r="BV32" s="29">
+      <c r="BV32" s="27">
         <v>390</v>
       </c>
-      <c r="BW32" s="29">
+      <c r="BW32" s="27">
         <v>391</v>
       </c>
-      <c r="BX32" s="29">
+      <c r="BX32" s="27">
         <v>392</v>
       </c>
-      <c r="BY32" s="29">
+      <c r="BY32" s="27">
         <v>393</v>
       </c>
-      <c r="BZ32" s="29">
+      <c r="BZ32" s="27">
         <v>394</v>
       </c>
-      <c r="CA32" s="29">
+      <c r="CA32" s="27">
         <v>395</v>
       </c>
-      <c r="CB32" s="29">
+      <c r="CB32" s="27">
         <v>396</v>
       </c>
-      <c r="CC32" s="29">
+      <c r="CC32" s="27">
         <v>397</v>
       </c>
-      <c r="CD32" s="29">
+      <c r="CD32" s="27">
         <v>398</v>
       </c>
-      <c r="CE32" s="29">
+      <c r="CE32" s="27">
         <v>399</v>
       </c>
     </row>
@@ -9174,844 +9177,844 @@
       <c r="I33">
         <v>0</v>
       </c>
-      <c r="J33" s="44"/>
-      <c r="K33" s="37" t="s">
+      <c r="J33" s="39"/>
+      <c r="K33" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="L33" s="37"/>
-      <c r="M33" s="37" t="s">
+      <c r="L33" s="44"/>
+      <c r="M33" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37" t="s">
+      <c r="N33" s="44"/>
+      <c r="O33" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37" t="s">
+      <c r="P33" s="44"/>
+      <c r="Q33" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="R33" s="37"/>
-      <c r="S33" s="37" t="s">
+      <c r="R33" s="44"/>
+      <c r="S33" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="T33" s="37"/>
-      <c r="U33" s="37" t="s">
+      <c r="T33" s="44"/>
+      <c r="U33" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="V33" s="37"/>
-      <c r="W33" s="37" t="s">
+      <c r="V33" s="44"/>
+      <c r="W33" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="X33" s="37"/>
-      <c r="Y33" s="37" t="s">
+      <c r="X33" s="44"/>
+      <c r="Y33" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Z33" s="37"/>
-      <c r="AA33" s="37" t="s">
+      <c r="Z33" s="44"/>
+      <c r="AA33" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AB33" s="37"/>
-      <c r="AD33" s="39"/>
-      <c r="AE33" s="39" t="s">
+      <c r="AB33" s="44"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="AG33" s="37" t="s">
+      <c r="AG33" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AH33" s="37"/>
-      <c r="AI33" s="37" t="s">
+      <c r="AH33" s="44"/>
+      <c r="AI33" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AJ33" s="37"/>
-      <c r="AK33" s="37" t="s">
+      <c r="AJ33" s="44"/>
+      <c r="AK33" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AL33" s="37"/>
-      <c r="AM33" s="37" t="s">
+      <c r="AL33" s="44"/>
+      <c r="AM33" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="AN33" s="37"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="38"/>
-      <c r="AR33" s="38"/>
-      <c r="AS33" s="38"/>
-      <c r="AT33" s="38"/>
-      <c r="AU33" s="38"/>
-      <c r="AV33" s="38"/>
-      <c r="AW33" s="38"/>
-      <c r="AX33" s="38"/>
-      <c r="AZ33" s="38"/>
-      <c r="BA33" s="38"/>
-      <c r="BC33" s="38"/>
-      <c r="BD33" s="38"/>
-      <c r="BF33" s="38"/>
-      <c r="BG33" s="38"/>
-      <c r="BI33" s="37" t="s">
+      <c r="AN33" s="44"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="34"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="34"/>
+      <c r="AS33" s="34"/>
+      <c r="AT33" s="34"/>
+      <c r="AU33" s="34"/>
+      <c r="AV33" s="34"/>
+      <c r="AW33" s="34"/>
+      <c r="AX33" s="34"/>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BC33" s="34"/>
+      <c r="BD33" s="34"/>
+      <c r="BF33" s="34"/>
+      <c r="BG33" s="34"/>
+      <c r="BI33" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BJ33" s="37"/>
-      <c r="BK33" s="37" t="s">
+      <c r="BJ33" s="44"/>
+      <c r="BK33" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="BL33" s="37"/>
-      <c r="BM33" s="37" t="s">
+      <c r="BL33" s="44"/>
+      <c r="BM33" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="BN33" s="37"/>
-      <c r="BO33" s="37" t="s">
+      <c r="BN33" s="44"/>
+      <c r="BO33" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="BP33" s="37"/>
-      <c r="BQ33" s="37" t="s">
+      <c r="BP33" s="44"/>
+      <c r="BQ33" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="37"/>
-      <c r="BS33" s="37" t="s">
+      <c r="BR33" s="44"/>
+      <c r="BS33" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="37"/>
-      <c r="BU33" s="37" t="s">
+      <c r="BT33" s="44"/>
+      <c r="BU33" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="37"/>
-      <c r="BW33" s="37" t="s">
+      <c r="BV33" s="44"/>
+      <c r="BW33" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="BX33" s="37"/>
-      <c r="BY33" s="37" t="s">
+      <c r="BX33" s="44"/>
+      <c r="BY33" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="37"/>
-      <c r="CA33" s="37" t="s">
+      <c r="BZ33" s="44"/>
+      <c r="CA33" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="37"/>
-      <c r="CC33" s="37" t="s">
+      <c r="CB33" s="44"/>
+      <c r="CC33" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="37"/>
-      <c r="CE33" s="49" t="s">
+      <c r="CD33" s="44"/>
+      <c r="CE33" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="CF33" s="29"/>
+      <c r="CF33" s="27"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34" s="38"/>
-      <c r="K34" s="37" t="s">
+      <c r="J34" s="34"/>
+      <c r="K34" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="L34" s="37"/>
-      <c r="M34" s="37" t="s">
+      <c r="L34" s="44"/>
+      <c r="M34" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="N34" s="37"/>
-      <c r="O34" s="37" t="s">
+      <c r="N34" s="44"/>
+      <c r="O34" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="P34" s="37"/>
-      <c r="Q34" s="37" t="s">
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="R34" s="37"/>
-      <c r="S34" s="37" t="s">
+      <c r="R34" s="44"/>
+      <c r="S34" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="T34" s="37"/>
-      <c r="U34" s="37" t="s">
+      <c r="T34" s="44"/>
+      <c r="U34" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="V34" s="37"/>
-      <c r="W34" s="37" t="s">
+      <c r="V34" s="44"/>
+      <c r="W34" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="X34" s="37"/>
-      <c r="Y34" s="37" t="s">
+      <c r="X34" s="44"/>
+      <c r="Y34" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Z34" s="37"/>
-      <c r="AA34" s="37" t="s">
+      <c r="Z34" s="44"/>
+      <c r="AA34" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AB34" s="37"/>
-      <c r="AD34" s="39"/>
-      <c r="AE34" s="39" t="s">
+      <c r="AB34" s="44"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="AG34" s="37" t="s">
+      <c r="AG34" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AH34" s="37"/>
-      <c r="AI34" s="37" t="s">
+      <c r="AH34" s="44"/>
+      <c r="AI34" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AJ34" s="37"/>
-      <c r="AK34" s="37" t="s">
+      <c r="AJ34" s="44"/>
+      <c r="AK34" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AL34" s="37"/>
-      <c r="AM34" s="37" t="s">
+      <c r="AL34" s="44"/>
+      <c r="AM34" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="AN34" s="37"/>
-      <c r="AO34" s="38"/>
-      <c r="AP34" s="38"/>
-      <c r="AQ34" s="38"/>
-      <c r="AR34" s="38"/>
-      <c r="AS34" s="38"/>
-      <c r="AT34" s="38"/>
-      <c r="AU34" s="38"/>
-      <c r="AV34" s="38"/>
-      <c r="AW34" s="38"/>
-      <c r="AX34" s="38"/>
-      <c r="AZ34" s="38"/>
-      <c r="BA34" s="38"/>
-      <c r="BC34" s="38"/>
-      <c r="BD34" s="38"/>
-      <c r="BF34" s="38"/>
-      <c r="BG34" s="38"/>
-      <c r="BI34" s="37" t="s">
+      <c r="AN34" s="44"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="34"/>
+      <c r="AT34" s="34"/>
+      <c r="AU34" s="34"/>
+      <c r="AV34" s="34"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="34"/>
+      <c r="AZ34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BC34" s="34"/>
+      <c r="BD34" s="34"/>
+      <c r="BF34" s="34"/>
+      <c r="BG34" s="34"/>
+      <c r="BI34" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BJ34" s="37"/>
-      <c r="BK34" s="37" t="s">
+      <c r="BJ34" s="44"/>
+      <c r="BK34" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="BL34" s="37"/>
-      <c r="BM34" s="37" t="s">
+      <c r="BL34" s="44"/>
+      <c r="BM34" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="BN34" s="37"/>
-      <c r="BO34" s="37" t="s">
+      <c r="BN34" s="44"/>
+      <c r="BO34" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="BP34" s="37"/>
-      <c r="BQ34" s="37" t="s">
+      <c r="BP34" s="44"/>
+      <c r="BQ34" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="37"/>
-      <c r="BS34" s="37" t="s">
+      <c r="BR34" s="44"/>
+      <c r="BS34" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="37"/>
-      <c r="BU34" s="37" t="s">
+      <c r="BT34" s="44"/>
+      <c r="BU34" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="37"/>
-      <c r="BW34" s="37" t="s">
+      <c r="BV34" s="44"/>
+      <c r="BW34" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="BX34" s="37"/>
-      <c r="BY34" s="37" t="s">
+      <c r="BX34" s="44"/>
+      <c r="BY34" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="37"/>
-      <c r="CA34" s="37" t="s">
+      <c r="BZ34" s="44"/>
+      <c r="CA34" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="37"/>
-      <c r="CC34" s="37" t="s">
+      <c r="CB34" s="44"/>
+      <c r="CC34" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="37"/>
-      <c r="CE34" s="49" t="s">
+      <c r="CD34" s="44"/>
+      <c r="CE34" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="CF34" s="29"/>
+      <c r="CF34" s="27"/>
     </row>
     <row r="35" spans="6:84">
-      <c r="CB35" s="29"/>
-      <c r="CC35" s="29"/>
-      <c r="CD35" s="29"/>
-      <c r="CE35" s="29"/>
-      <c r="CF35" s="29"/>
+      <c r="CB35" s="27"/>
+      <c r="CC35" s="27"/>
+      <c r="CD35" s="27"/>
+      <c r="CE35" s="27"/>
+      <c r="CF35" s="27"/>
     </row>
     <row r="36" spans="6:84">
       <c r="I36">
         <v>239</v>
       </c>
-      <c r="J36" s="40"/>
-      <c r="K36" s="41" t="s">
+      <c r="J36" s="36"/>
+      <c r="K36" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="41"/>
-      <c r="M36" s="41" t="s">
+      <c r="L36" s="49"/>
+      <c r="M36" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="N36" s="41"/>
-      <c r="O36" s="41" t="s">
+      <c r="N36" s="49"/>
+      <c r="O36" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="41" t="s">
+      <c r="P36" s="49"/>
+      <c r="Q36" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="R36" s="41"/>
-      <c r="S36" s="41" t="s">
+      <c r="R36" s="49"/>
+      <c r="S36" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="T36" s="41"/>
-      <c r="U36" s="41" t="s">
+      <c r="T36" s="49"/>
+      <c r="U36" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="V36" s="41"/>
-      <c r="W36" s="41" t="s">
+      <c r="V36" s="49"/>
+      <c r="W36" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="X36" s="41"/>
-      <c r="Y36" s="41" t="s">
+      <c r="X36" s="49"/>
+      <c r="Y36" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="Z36" s="41"/>
-      <c r="AA36" s="41" t="s">
+      <c r="Z36" s="49"/>
+      <c r="AA36" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="AB36" s="41"/>
-      <c r="AD36" s="42"/>
-      <c r="AE36" s="42" t="s">
+      <c r="AB36" s="49"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="AG36" s="41" t="s">
+      <c r="AG36" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="AH36" s="41"/>
-      <c r="AI36" s="41" t="s">
+      <c r="AH36" s="49"/>
+      <c r="AI36" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="AJ36" s="41"/>
-      <c r="AK36" s="41" t="s">
+      <c r="AJ36" s="49"/>
+      <c r="AK36" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="AL36" s="41"/>
-      <c r="AM36" s="41" t="s">
+      <c r="AL36" s="49"/>
+      <c r="AM36" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="AN36" s="41"/>
-      <c r="AO36" s="40"/>
-      <c r="AP36" s="40"/>
-      <c r="AQ36" s="40"/>
-      <c r="AR36" s="40"/>
-      <c r="AS36" s="40"/>
-      <c r="AT36" s="40"/>
-      <c r="AU36" s="40"/>
-      <c r="AV36" s="40"/>
-      <c r="AW36" s="40"/>
-      <c r="AX36" s="40"/>
-      <c r="AZ36" s="40"/>
-      <c r="BA36" s="40"/>
-      <c r="BC36" s="40"/>
-      <c r="BD36" s="40"/>
-      <c r="BF36" s="38"/>
-      <c r="BG36" s="38"/>
-      <c r="BI36" s="37" t="s">
+      <c r="AN36" s="49"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BF36" s="34"/>
+      <c r="BG36" s="34"/>
+      <c r="BI36" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BJ36" s="37"/>
-      <c r="BK36" s="37" t="s">
+      <c r="BJ36" s="44"/>
+      <c r="BK36" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="BL36" s="37"/>
-      <c r="BM36" s="37" t="s">
+      <c r="BL36" s="44"/>
+      <c r="BM36" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="BN36" s="37"/>
-      <c r="BO36" s="37" t="s">
+      <c r="BN36" s="44"/>
+      <c r="BO36" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="BP36" s="37"/>
-      <c r="BQ36" s="37" t="s">
+      <c r="BP36" s="44"/>
+      <c r="BQ36" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="37"/>
-      <c r="BS36" s="37" t="s">
+      <c r="BR36" s="44"/>
+      <c r="BS36" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="37"/>
-      <c r="BU36" s="37" t="s">
+      <c r="BT36" s="44"/>
+      <c r="BU36" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="37"/>
-      <c r="BW36" s="37" t="s">
+      <c r="BV36" s="44"/>
+      <c r="BW36" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="BX36" s="37"/>
-      <c r="BY36" s="37" t="s">
+      <c r="BX36" s="44"/>
+      <c r="BY36" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="37"/>
-      <c r="CA36" s="37" t="s">
+      <c r="BZ36" s="44"/>
+      <c r="CA36" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="37"/>
-      <c r="CC36" s="37" t="s">
+      <c r="CB36" s="44"/>
+      <c r="CC36" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="37"/>
-      <c r="CE36" s="49" t="s">
+      <c r="CD36" s="44"/>
+      <c r="CE36" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="CF36" s="29"/>
+      <c r="CF36" s="27"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
         <v>240</v>
       </c>
-      <c r="J37" s="43"/>
-      <c r="K37" s="43"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="43"/>
-      <c r="N37" s="43"/>
-      <c r="O37" s="43"/>
-      <c r="P37" s="43"/>
-      <c r="Q37" s="43"/>
-      <c r="R37" s="43"/>
-      <c r="S37" s="43"/>
-      <c r="T37" s="43"/>
-      <c r="U37" s="43"/>
-      <c r="V37" s="43"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="43"/>
-      <c r="Y37" s="43"/>
-      <c r="Z37" s="43"/>
-      <c r="AA37" s="43"/>
-      <c r="AB37" s="43"/>
-      <c r="AC37" s="43"/>
-      <c r="AD37" s="43"/>
-      <c r="AE37" s="43"/>
-      <c r="AF37" s="43"/>
-      <c r="AG37" s="43"/>
-      <c r="AH37" s="43"/>
-      <c r="AI37" s="43"/>
-      <c r="AJ37" s="43"/>
-      <c r="AK37" s="43"/>
-      <c r="AL37" s="43"/>
-      <c r="AM37" s="43"/>
-      <c r="AN37" s="43"/>
-      <c r="AO37" s="43"/>
-      <c r="AP37" s="43"/>
-      <c r="AQ37" s="43"/>
-      <c r="AR37" s="43"/>
-      <c r="AS37" s="43"/>
-      <c r="AT37" s="43"/>
-      <c r="AU37" s="43"/>
-      <c r="AV37" s="43"/>
-      <c r="AW37" s="43"/>
-      <c r="AX37" s="43"/>
-      <c r="AY37" s="43"/>
-      <c r="AZ37" s="43"/>
-      <c r="BA37" s="43"/>
-      <c r="BB37" s="43"/>
-      <c r="BC37" s="43"/>
-      <c r="BD37" s="43"/>
-      <c r="BE37" s="43"/>
-      <c r="BF37" s="43"/>
-      <c r="BG37" s="43"/>
-      <c r="BH37" s="43"/>
-      <c r="BI37" s="43"/>
-      <c r="BJ37" s="43"/>
-      <c r="BK37" s="43"/>
-      <c r="BL37" s="43"/>
-      <c r="BM37" s="43"/>
-      <c r="BN37" s="43"/>
-      <c r="BO37" s="43"/>
-      <c r="BP37" s="43"/>
-      <c r="BQ37" s="43"/>
-      <c r="BR37" s="43"/>
-      <c r="BS37" s="43"/>
-      <c r="BT37" s="43"/>
-      <c r="BU37" s="43"/>
-      <c r="BV37" s="43"/>
-      <c r="BW37" s="43"/>
-      <c r="BX37" s="43"/>
-      <c r="BY37" s="43"/>
-      <c r="BZ37" s="43"/>
-      <c r="CA37" s="43"/>
-      <c r="CB37" s="43"/>
-      <c r="CC37" s="43"/>
-      <c r="CD37" s="43"/>
-      <c r="CE37" s="43"/>
-      <c r="CF37" s="29"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="38"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="38"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
+      <c r="BD37" s="38"/>
+      <c r="BE37" s="38"/>
+      <c r="BF37" s="38"/>
+      <c r="BG37" s="38"/>
+      <c r="BH37" s="38"/>
+      <c r="BI37" s="38"/>
+      <c r="BJ37" s="38"/>
+      <c r="BK37" s="38"/>
+      <c r="BL37" s="38"/>
+      <c r="BM37" s="38"/>
+      <c r="BN37" s="38"/>
+      <c r="BO37" s="38"/>
+      <c r="BP37" s="38"/>
+      <c r="BQ37" s="38"/>
+      <c r="BR37" s="38"/>
+      <c r="BS37" s="38"/>
+      <c r="BT37" s="38"/>
+      <c r="BU37" s="38"/>
+      <c r="BV37" s="38"/>
+      <c r="BW37" s="38"/>
+      <c r="BX37" s="38"/>
+      <c r="BY37" s="38"/>
+      <c r="BZ37" s="38"/>
+      <c r="CA37" s="38"/>
+      <c r="CB37" s="38"/>
+      <c r="CC37" s="38"/>
+      <c r="CD37" s="38"/>
+      <c r="CE37" s="38"/>
+      <c r="CF37" s="27"/>
     </row>
     <row r="38" spans="6:84">
       <c r="I38">
         <v>241</v>
       </c>
-      <c r="J38" s="43"/>
-      <c r="K38" s="44"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="43"/>
-      <c r="N38" s="43"/>
-      <c r="O38" s="43"/>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="43"/>
-      <c r="R38" s="43"/>
-      <c r="S38" s="43"/>
-      <c r="T38" s="43"/>
-      <c r="U38" s="43"/>
-      <c r="V38" s="43"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="43"/>
-      <c r="Y38" s="43"/>
-      <c r="Z38" s="43"/>
-      <c r="AA38" s="43"/>
-      <c r="AB38" s="43"/>
-      <c r="AC38" s="43"/>
-      <c r="AD38" s="43"/>
-      <c r="AE38" s="43"/>
-      <c r="AF38" s="43"/>
-      <c r="AG38" s="43"/>
-      <c r="AH38" s="43"/>
-      <c r="AI38" s="43"/>
-      <c r="AJ38" s="43"/>
-      <c r="AK38" s="43"/>
-      <c r="AL38" s="43"/>
-      <c r="AM38" s="43"/>
-      <c r="AN38" s="43"/>
-      <c r="AO38" s="43"/>
-      <c r="AP38" s="43"/>
-      <c r="AQ38" s="43"/>
-      <c r="AR38" s="43"/>
-      <c r="AS38" s="43"/>
-      <c r="AT38" s="43"/>
-      <c r="AU38" s="43"/>
-      <c r="AV38" s="43"/>
-      <c r="AW38" s="43"/>
-      <c r="AX38" s="43"/>
-      <c r="AY38" s="43"/>
-      <c r="AZ38" s="43"/>
-      <c r="BA38" s="43"/>
-      <c r="BB38" s="43"/>
-      <c r="BC38" s="43"/>
-      <c r="BD38" s="43"/>
-      <c r="BE38" s="43"/>
-      <c r="BF38" s="43"/>
-      <c r="BG38" s="43"/>
-      <c r="BH38" s="43"/>
-      <c r="BI38" s="43"/>
-      <c r="BJ38" s="43"/>
-      <c r="BK38" s="43"/>
-      <c r="BL38" s="43"/>
-      <c r="BM38" s="43"/>
-      <c r="BN38" s="43"/>
-      <c r="BO38" s="43"/>
-      <c r="BP38" s="43"/>
-      <c r="BQ38" s="43"/>
-      <c r="BR38" s="43"/>
-      <c r="BS38" s="43"/>
-      <c r="BT38" s="43"/>
-      <c r="BU38" s="43"/>
-      <c r="BV38" s="43"/>
-      <c r="BW38" s="43"/>
-      <c r="BX38" s="43"/>
-      <c r="BY38" s="43"/>
-      <c r="BZ38" s="43"/>
-      <c r="CA38" s="43"/>
-      <c r="CB38" s="43"/>
-      <c r="CC38" s="43"/>
-      <c r="CD38" s="43"/>
-      <c r="CE38" s="43"/>
-      <c r="CF38" s="29"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38"/>
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="38"/>
+      <c r="BC38" s="38"/>
+      <c r="BD38" s="38"/>
+      <c r="BE38" s="38"/>
+      <c r="BF38" s="38"/>
+      <c r="BG38" s="38"/>
+      <c r="BH38" s="38"/>
+      <c r="BI38" s="38"/>
+      <c r="BJ38" s="38"/>
+      <c r="BK38" s="38"/>
+      <c r="BL38" s="38"/>
+      <c r="BM38" s="38"/>
+      <c r="BN38" s="38"/>
+      <c r="BO38" s="38"/>
+      <c r="BP38" s="38"/>
+      <c r="BQ38" s="38"/>
+      <c r="BR38" s="38"/>
+      <c r="BS38" s="38"/>
+      <c r="BT38" s="38"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="38"/>
+      <c r="BW38" s="38"/>
+      <c r="BX38" s="38"/>
+      <c r="BY38" s="38"/>
+      <c r="BZ38" s="38"/>
+      <c r="CA38" s="38"/>
+      <c r="CB38" s="38"/>
+      <c r="CC38" s="38"/>
+      <c r="CD38" s="38"/>
+      <c r="CE38" s="38"/>
+      <c r="CF38" s="27"/>
     </row>
     <row r="39" spans="6:84">
       <c r="I39">
         <v>242</v>
       </c>
-      <c r="J39" s="43"/>
-      <c r="K39" s="43"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="43"/>
-      <c r="N39" s="43"/>
-      <c r="O39" s="43"/>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="43"/>
-      <c r="R39" s="43"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="43"/>
-      <c r="U39" s="43"/>
-      <c r="V39" s="43"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="43"/>
-      <c r="Z39" s="43"/>
-      <c r="AA39" s="43"/>
-      <c r="AB39" s="43"/>
-      <c r="AC39" s="43"/>
-      <c r="AD39" s="43"/>
-      <c r="AE39" s="43"/>
-      <c r="AF39" s="43"/>
-      <c r="AG39" s="43"/>
-      <c r="AH39" s="43"/>
-      <c r="AI39" s="43"/>
-      <c r="AJ39" s="43"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="43"/>
-      <c r="AM39" s="43"/>
-      <c r="AN39" s="43"/>
-      <c r="AO39" s="43"/>
-      <c r="AP39" s="43"/>
-      <c r="AQ39" s="43"/>
-      <c r="AR39" s="43"/>
-      <c r="AS39" s="43"/>
-      <c r="AT39" s="43"/>
-      <c r="AU39" s="43"/>
-      <c r="AV39" s="43"/>
-      <c r="AW39" s="43"/>
-      <c r="AX39" s="43"/>
-      <c r="AY39" s="43"/>
-      <c r="AZ39" s="43"/>
-      <c r="BA39" s="43"/>
-      <c r="BB39" s="43"/>
-      <c r="BC39" s="43"/>
-      <c r="BD39" s="43"/>
-      <c r="BE39" s="43"/>
-      <c r="BF39" s="43"/>
-      <c r="BG39" s="43"/>
-      <c r="BH39" s="43"/>
-      <c r="BI39" s="43"/>
-      <c r="BJ39" s="43"/>
-      <c r="BK39" s="43"/>
-      <c r="BL39" s="43"/>
-      <c r="BM39" s="43"/>
-      <c r="BN39" s="43"/>
-      <c r="BO39" s="43"/>
-      <c r="BP39" s="43"/>
-      <c r="BQ39" s="43"/>
-      <c r="BR39" s="43"/>
-      <c r="BS39" s="43"/>
-      <c r="BT39" s="43"/>
-      <c r="BU39" s="43"/>
-      <c r="BV39" s="43"/>
-      <c r="BW39" s="43"/>
-      <c r="BX39" s="43"/>
-      <c r="BY39" s="43"/>
-      <c r="BZ39" s="43"/>
-      <c r="CA39" s="43"/>
-      <c r="CB39" s="43"/>
-      <c r="CC39" s="43"/>
-      <c r="CD39" s="43"/>
-      <c r="CE39" s="43"/>
-      <c r="CF39" s="29"/>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="38"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="38"/>
+      <c r="AS39" s="38"/>
+      <c r="AT39" s="38"/>
+      <c r="AU39" s="38"/>
+      <c r="AV39" s="38"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="38"/>
+      <c r="BD39" s="38"/>
+      <c r="BE39" s="38"/>
+      <c r="BF39" s="38"/>
+      <c r="BG39" s="38"/>
+      <c r="BH39" s="38"/>
+      <c r="BI39" s="38"/>
+      <c r="BJ39" s="38"/>
+      <c r="BK39" s="38"/>
+      <c r="BL39" s="38"/>
+      <c r="BM39" s="38"/>
+      <c r="BN39" s="38"/>
+      <c r="BO39" s="38"/>
+      <c r="BP39" s="38"/>
+      <c r="BQ39" s="38"/>
+      <c r="BR39" s="38"/>
+      <c r="BS39" s="38"/>
+      <c r="BT39" s="38"/>
+      <c r="BU39" s="38"/>
+      <c r="BV39" s="38"/>
+      <c r="BW39" s="38"/>
+      <c r="BX39" s="38"/>
+      <c r="BY39" s="38"/>
+      <c r="BZ39" s="38"/>
+      <c r="CA39" s="38"/>
+      <c r="CB39" s="38"/>
+      <c r="CC39" s="38"/>
+      <c r="CD39" s="38"/>
+      <c r="CE39" s="38"/>
+      <c r="CF39" s="27"/>
     </row>
     <row r="40" spans="6:84">
-      <c r="CB40" s="29"/>
-      <c r="CC40" s="29"/>
-      <c r="CD40" s="29"/>
-      <c r="CE40" s="29"/>
-      <c r="CF40" s="29"/>
+      <c r="CB40" s="27"/>
+      <c r="CC40" s="27"/>
+      <c r="CD40" s="27"/>
+      <c r="CE40" s="27"/>
+      <c r="CF40" s="27"/>
     </row>
     <row r="41" spans="6:84">
       <c r="I41">
         <v>261</v>
       </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-      <c r="M41" s="43"/>
-      <c r="N41" s="43"/>
-      <c r="O41" s="43"/>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="43"/>
-      <c r="R41" s="43"/>
-      <c r="S41" s="43"/>
-      <c r="T41" s="43"/>
-      <c r="U41" s="43"/>
-      <c r="V41" s="43"/>
-      <c r="W41" s="43"/>
-      <c r="X41" s="43"/>
-      <c r="Y41" s="43"/>
-      <c r="Z41" s="43"/>
-      <c r="AA41" s="43"/>
-      <c r="AB41" s="43"/>
-      <c r="AC41" s="43"/>
-      <c r="AD41" s="43"/>
-      <c r="AE41" s="43"/>
-      <c r="AF41" s="43"/>
-      <c r="AG41" s="43"/>
-      <c r="AH41" s="43"/>
-      <c r="AI41" s="43"/>
-      <c r="AJ41" s="43"/>
-      <c r="AK41" s="43"/>
-      <c r="AL41" s="43"/>
-      <c r="AM41" s="43"/>
-      <c r="AN41" s="43"/>
-      <c r="AO41" s="43"/>
-      <c r="AP41" s="43"/>
-      <c r="AQ41" s="43"/>
-      <c r="AR41" s="43"/>
-      <c r="AS41" s="43"/>
-      <c r="AT41" s="43"/>
-      <c r="AU41" s="43"/>
-      <c r="AV41" s="43"/>
-      <c r="AW41" s="43"/>
-      <c r="AX41" s="43"/>
-      <c r="AY41" s="43"/>
-      <c r="AZ41" s="43"/>
-      <c r="BA41" s="43"/>
-      <c r="BB41" s="43"/>
-      <c r="BC41" s="43"/>
-      <c r="BD41" s="43"/>
-      <c r="BE41" s="43"/>
-      <c r="BF41" s="43"/>
-      <c r="BG41" s="43"/>
-      <c r="BH41" s="43"/>
-      <c r="BI41" s="43"/>
-      <c r="BJ41" s="43"/>
-      <c r="BK41" s="43"/>
-      <c r="BL41" s="43"/>
-      <c r="BM41" s="43"/>
-      <c r="BN41" s="43"/>
-      <c r="BO41" s="43"/>
-      <c r="BP41" s="43"/>
-      <c r="BQ41" s="43"/>
-      <c r="BR41" s="43"/>
-      <c r="BS41" s="43"/>
-      <c r="BT41" s="43"/>
-      <c r="BU41" s="43"/>
-      <c r="BV41" s="43"/>
-      <c r="BW41" s="43"/>
-      <c r="BX41" s="43"/>
-      <c r="BY41" s="43"/>
-      <c r="BZ41" s="43"/>
-      <c r="CA41" s="43"/>
-      <c r="CB41" s="43"/>
-      <c r="CC41" s="43"/>
-      <c r="CD41" s="43"/>
-      <c r="CE41" s="43"/>
-      <c r="CF41" s="29"/>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="38"/>
+      <c r="AJ41" s="38"/>
+      <c r="AK41" s="38"/>
+      <c r="AL41" s="38"/>
+      <c r="AM41" s="38"/>
+      <c r="AN41" s="38"/>
+      <c r="AO41" s="38"/>
+      <c r="AP41" s="38"/>
+      <c r="AQ41" s="38"/>
+      <c r="AR41" s="38"/>
+      <c r="AS41" s="38"/>
+      <c r="AT41" s="38"/>
+      <c r="AU41" s="38"/>
+      <c r="AV41" s="38"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="38"/>
+      <c r="BF41" s="38"/>
+      <c r="BG41" s="38"/>
+      <c r="BH41" s="38"/>
+      <c r="BI41" s="38"/>
+      <c r="BJ41" s="38"/>
+      <c r="BK41" s="38"/>
+      <c r="BL41" s="38"/>
+      <c r="BM41" s="38"/>
+      <c r="BN41" s="38"/>
+      <c r="BO41" s="38"/>
+      <c r="BP41" s="38"/>
+      <c r="BQ41" s="38"/>
+      <c r="BR41" s="38"/>
+      <c r="BS41" s="38"/>
+      <c r="BT41" s="38"/>
+      <c r="BU41" s="38"/>
+      <c r="BV41" s="38"/>
+      <c r="BW41" s="38"/>
+      <c r="BX41" s="38"/>
+      <c r="BY41" s="38"/>
+      <c r="BZ41" s="38"/>
+      <c r="CA41" s="38"/>
+      <c r="CB41" s="38"/>
+      <c r="CC41" s="38"/>
+      <c r="CD41" s="38"/>
+      <c r="CE41" s="38"/>
+      <c r="CF41" s="27"/>
     </row>
     <row r="42" spans="6:84">
       <c r="I42">
         <v>262</v>
       </c>
-      <c r="J42" s="43"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
-      <c r="M42" s="37" t="s">
+      <c r="J42" s="38"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="N42" s="37"/>
-      <c r="O42" s="37" t="s">
+      <c r="N42" s="44"/>
+      <c r="O42" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="P42" s="37"/>
-      <c r="Q42" s="37" t="s">
+      <c r="P42" s="44"/>
+      <c r="Q42" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="R42" s="37"/>
-      <c r="S42" s="37" t="s">
+      <c r="R42" s="44"/>
+      <c r="S42" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="T42" s="37"/>
-      <c r="U42" s="37" t="s">
+      <c r="T42" s="44"/>
+      <c r="U42" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="V42" s="37"/>
-      <c r="W42" s="37" t="s">
+      <c r="V42" s="44"/>
+      <c r="W42" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="X42" s="37"/>
-      <c r="Y42" s="37" t="s">
+      <c r="X42" s="44"/>
+      <c r="Y42" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="Z42" s="37"/>
-      <c r="AA42" s="37" t="s">
+      <c r="Z42" s="44"/>
+      <c r="AA42" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AB42" s="37"/>
-      <c r="AD42" s="39"/>
-      <c r="AE42" s="39" t="s">
+      <c r="AB42" s="44"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="AG42" s="37" t="s">
+      <c r="AG42" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AH42" s="37"/>
-      <c r="AI42" s="37" t="s">
+      <c r="AH42" s="44"/>
+      <c r="AI42" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AJ42" s="37"/>
-      <c r="AK42" s="37" t="s">
+      <c r="AJ42" s="44"/>
+      <c r="AK42" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="AL42" s="37"/>
-      <c r="AM42" s="37" t="s">
+      <c r="AL42" s="44"/>
+      <c r="AM42" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="AN42" s="37"/>
-      <c r="AO42" s="38"/>
-      <c r="AP42" s="38"/>
-      <c r="AQ42" s="38"/>
-      <c r="AR42" s="38"/>
-      <c r="AS42" s="38"/>
-      <c r="AT42" s="38"/>
-      <c r="AU42" s="38"/>
-      <c r="AV42" s="38"/>
-      <c r="AW42" s="38"/>
-      <c r="AX42" s="38"/>
-      <c r="AZ42" s="38"/>
-      <c r="BA42" s="38"/>
-      <c r="BC42" s="38"/>
-      <c r="BD42" s="38"/>
-      <c r="BF42" s="38"/>
-      <c r="BG42" s="38"/>
-      <c r="BI42" s="37" t="s">
+      <c r="AN42" s="44"/>
+      <c r="AO42" s="34"/>
+      <c r="AP42" s="34"/>
+      <c r="AQ42" s="34"/>
+      <c r="AR42" s="34"/>
+      <c r="AS42" s="34"/>
+      <c r="AT42" s="34"/>
+      <c r="AU42" s="34"/>
+      <c r="AV42" s="34"/>
+      <c r="AW42" s="34"/>
+      <c r="AX42" s="34"/>
+      <c r="AZ42" s="34"/>
+      <c r="BA42" s="34"/>
+      <c r="BC42" s="34"/>
+      <c r="BD42" s="34"/>
+      <c r="BF42" s="34"/>
+      <c r="BG42" s="34"/>
+      <c r="BI42" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BJ42" s="37"/>
-      <c r="BK42" s="37" t="s">
+      <c r="BJ42" s="44"/>
+      <c r="BK42" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="BL42" s="37"/>
-      <c r="BM42" s="37" t="s">
+      <c r="BL42" s="44"/>
+      <c r="BM42" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="BN42" s="37"/>
-      <c r="BO42" s="37" t="s">
+      <c r="BN42" s="44"/>
+      <c r="BO42" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="BP42" s="37"/>
-      <c r="BQ42" s="37" t="s">
+      <c r="BP42" s="44"/>
+      <c r="BQ42" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="37"/>
-      <c r="BS42" s="37" t="s">
+      <c r="BR42" s="44"/>
+      <c r="BS42" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="37"/>
-      <c r="BU42" s="37" t="s">
+      <c r="BT42" s="44"/>
+      <c r="BU42" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="37"/>
-      <c r="BW42" s="37" t="s">
+      <c r="BV42" s="44"/>
+      <c r="BW42" s="44" t="s">
         <v>115</v>
       </c>
-      <c r="BX42" s="37"/>
-      <c r="BY42" s="37" t="s">
+      <c r="BX42" s="44"/>
+      <c r="BY42" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="37"/>
-      <c r="CA42" s="37" t="s">
+      <c r="BZ42" s="44"/>
+      <c r="CA42" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="37"/>
-      <c r="CC42" s="37" t="s">
+      <c r="CB42" s="44"/>
+      <c r="CC42" s="44" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="37"/>
-      <c r="CE42" s="49" t="s">
+      <c r="CD42" s="44"/>
+      <c r="CE42" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="CF42" s="29"/>
+      <c r="CF42" s="27"/>
     </row>
     <row r="43" spans="6:84">
-      <c r="CB43" s="29"/>
-      <c r="CC43" s="29"/>
-      <c r="CD43" s="29"/>
-      <c r="CE43" s="29"/>
-      <c r="CF43" s="29"/>
+      <c r="CB43" s="27"/>
+      <c r="CC43" s="27"/>
+      <c r="CD43" s="27"/>
+      <c r="CE43" s="27"/>
+      <c r="CF43" s="27"/>
     </row>
     <row r="44" spans="6:84">
       <c r="AK44" t="s">
@@ -10020,24 +10023,24 @@
       <c r="CA44" t="s">
         <v>123</v>
       </c>
-      <c r="CB44" s="29"/>
-      <c r="CC44" s="29"/>
-      <c r="CD44" s="29"/>
-      <c r="CE44" s="29"/>
-      <c r="CF44" s="29"/>
+      <c r="CB44" s="27"/>
+      <c r="CC44" s="27"/>
+      <c r="CD44" s="27"/>
+      <c r="CE44" s="27"/>
+      <c r="CF44" s="27"/>
     </row>
     <row r="45" spans="6:84">
-      <c r="CB45" s="29"/>
-      <c r="CC45" s="29"/>
-      <c r="CD45" s="29"/>
-      <c r="CE45" s="29"/>
-      <c r="CF45" s="29"/>
+      <c r="CB45" s="27"/>
+      <c r="CC45" s="27"/>
+      <c r="CD45" s="27"/>
+      <c r="CE45" s="27"/>
+      <c r="CF45" s="27"/>
     </row>
     <row r="46" spans="6:84">
       <c r="F46" t="s">
         <v>121</v>
       </c>
-      <c r="J46" s="38"/>
+      <c r="J46" s="34"/>
       <c r="K46" s="48" t="s">
         <v>116</v>
       </c>
@@ -10072,61 +10075,61 @@
       <c r="AL46" s="48"/>
       <c r="AM46" s="48"/>
       <c r="AN46" s="48"/>
-      <c r="AO46" s="37" t="s">
+      <c r="AO46" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="AP46" s="37"/>
-      <c r="AQ46" s="37" t="s">
+      <c r="AP46" s="44"/>
+      <c r="AQ46" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="AR46" s="37"/>
-      <c r="AS46" s="37" t="s">
+      <c r="AR46" s="44"/>
+      <c r="AS46" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="AT46" s="37"/>
-      <c r="AU46" s="37" t="s">
+      <c r="AT46" s="44"/>
+      <c r="AU46" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="AV46" s="37"/>
-      <c r="AW46" s="46" t="s">
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="AX46" s="36"/>
-      <c r="AY46" s="36"/>
-      <c r="AZ46" s="36"/>
-      <c r="BA46" s="36"/>
-      <c r="BB46" s="36"/>
-      <c r="BC46" s="36"/>
-      <c r="BD46" s="36"/>
+      <c r="AX46" s="46"/>
+      <c r="AY46" s="46"/>
+      <c r="AZ46" s="46"/>
+      <c r="BA46" s="46"/>
+      <c r="BB46" s="46"/>
+      <c r="BC46" s="46"/>
+      <c r="BD46" s="46"/>
       <c r="BE46" s="47"/>
-      <c r="BF46" s="37" t="s">
+      <c r="BF46" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="BG46" s="37"/>
-      <c r="BI46" s="43"/>
-      <c r="BJ46" s="43"/>
-      <c r="BK46" s="43"/>
-      <c r="BL46" s="43"/>
-      <c r="BM46" s="43"/>
-      <c r="BN46" s="43"/>
-      <c r="BO46" s="43"/>
-      <c r="BP46" s="43"/>
-      <c r="BQ46" s="43"/>
-      <c r="BR46" s="43"/>
-      <c r="BS46" s="43"/>
-      <c r="BT46" s="43"/>
-      <c r="BU46" s="43"/>
-      <c r="BV46" s="43"/>
-      <c r="BW46" s="43"/>
-      <c r="BX46" s="43"/>
-      <c r="BY46" s="43"/>
-      <c r="BZ46" s="43"/>
-      <c r="CA46" s="43"/>
-      <c r="CB46" s="43"/>
-      <c r="CC46" s="43"/>
-      <c r="CD46" s="43"/>
-      <c r="CE46" s="43"/>
-      <c r="CF46" s="29"/>
+      <c r="BG46" s="44"/>
+      <c r="BI46" s="38"/>
+      <c r="BJ46" s="38"/>
+      <c r="BK46" s="38"/>
+      <c r="BL46" s="38"/>
+      <c r="BM46" s="38"/>
+      <c r="BN46" s="38"/>
+      <c r="BO46" s="38"/>
+      <c r="BP46" s="38"/>
+      <c r="BQ46" s="38"/>
+      <c r="BR46" s="38"/>
+      <c r="BS46" s="38"/>
+      <c r="BT46" s="38"/>
+      <c r="BU46" s="38"/>
+      <c r="BV46" s="38"/>
+      <c r="BW46" s="38"/>
+      <c r="BX46" s="38"/>
+      <c r="BY46" s="38"/>
+      <c r="BZ46" s="38"/>
+      <c r="CA46" s="38"/>
+      <c r="CB46" s="38"/>
+      <c r="CC46" s="38"/>
+      <c r="CD46" s="38"/>
+      <c r="CE46" s="38"/>
+      <c r="CF46" s="27"/>
     </row>
     <row r="52" spans="5:71" ht="14.25" thickBot="1">
       <c r="E52" t="s">
@@ -10480,7 +10483,7 @@
       <c r="BP57" s="12"/>
       <c r="BQ57" s="20"/>
       <c r="BS57" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58" spans="5:71">
@@ -10546,6 +10549,9 @@
       <c r="BO58" s="12"/>
       <c r="BP58" s="12"/>
       <c r="BQ58" s="20"/>
+      <c r="BS58" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="59" spans="5:71">
       <c r="F59" s="11"/>
@@ -12100,10 +12106,10 @@
       <c r="AD91" s="9"/>
       <c r="AE91" s="9"/>
       <c r="AF91" s="9"/>
-      <c r="AG91" s="30"/>
-      <c r="AH91" s="30"/>
-      <c r="AI91" s="30"/>
-      <c r="AJ91" s="31"/>
+      <c r="AG91" s="28"/>
+      <c r="AH91" s="28"/>
+      <c r="AI91" s="28"/>
+      <c r="AJ91" s="29"/>
       <c r="AK91" s="17"/>
       <c r="AL91" s="17"/>
       <c r="AM91" s="17"/>
@@ -12145,10 +12151,10 @@
       <c r="AD92" s="12"/>
       <c r="AE92" s="12"/>
       <c r="AF92" s="12"/>
-      <c r="AG92" s="32"/>
-      <c r="AH92" s="32"/>
-      <c r="AI92" s="32"/>
-      <c r="AJ92" s="33"/>
+      <c r="AG92" s="30"/>
+      <c r="AH92" s="30"/>
+      <c r="AI92" s="30"/>
+      <c r="AJ92" s="31"/>
       <c r="AK92" s="12"/>
       <c r="AL92" s="12"/>
       <c r="AM92" s="12"/>
@@ -12190,10 +12196,10 @@
       <c r="AD93" s="12"/>
       <c r="AE93" s="12"/>
       <c r="AF93" s="12"/>
-      <c r="AG93" s="32"/>
-      <c r="AH93" s="32"/>
-      <c r="AI93" s="32"/>
-      <c r="AJ93" s="33"/>
+      <c r="AG93" s="30"/>
+      <c r="AH93" s="30"/>
+      <c r="AI93" s="30"/>
+      <c r="AJ93" s="31"/>
       <c r="AK93" s="12"/>
       <c r="AL93" s="12"/>
       <c r="AM93" s="12"/>
@@ -12235,10 +12241,10 @@
       <c r="AD94" s="12"/>
       <c r="AE94" s="12"/>
       <c r="AF94" s="12"/>
-      <c r="AG94" s="32"/>
-      <c r="AH94" s="32"/>
-      <c r="AI94" s="32"/>
-      <c r="AJ94" s="33"/>
+      <c r="AG94" s="30"/>
+      <c r="AH94" s="30"/>
+      <c r="AI94" s="30"/>
+      <c r="AJ94" s="31"/>
       <c r="AK94" s="12"/>
       <c r="AL94" s="12"/>
       <c r="AM94" s="12"/>
@@ -12280,10 +12286,10 @@
       <c r="AD95" s="12"/>
       <c r="AE95" s="12"/>
       <c r="AF95" s="12"/>
-      <c r="AG95" s="32"/>
-      <c r="AH95" s="32"/>
-      <c r="AI95" s="32"/>
-      <c r="AJ95" s="33"/>
+      <c r="AG95" s="30"/>
+      <c r="AH95" s="30"/>
+      <c r="AI95" s="30"/>
+      <c r="AJ95" s="31"/>
       <c r="AK95" s="12"/>
       <c r="AL95" s="12"/>
       <c r="AM95" s="12"/>
@@ -12325,10 +12331,10 @@
       <c r="AD96" s="12"/>
       <c r="AE96" s="12"/>
       <c r="AF96" s="12"/>
-      <c r="AG96" s="32"/>
-      <c r="AH96" s="32"/>
-      <c r="AI96" s="32"/>
-      <c r="AJ96" s="33"/>
+      <c r="AG96" s="30"/>
+      <c r="AH96" s="30"/>
+      <c r="AI96" s="30"/>
+      <c r="AJ96" s="31"/>
       <c r="AK96" s="12"/>
       <c r="AL96" s="12"/>
       <c r="AM96" s="12"/>
@@ -12370,10 +12376,10 @@
       <c r="AD97" s="12"/>
       <c r="AE97" s="12"/>
       <c r="AF97" s="12"/>
-      <c r="AG97" s="32"/>
-      <c r="AH97" s="32"/>
-      <c r="AI97" s="32"/>
-      <c r="AJ97" s="33"/>
+      <c r="AG97" s="30"/>
+      <c r="AH97" s="30"/>
+      <c r="AI97" s="30"/>
+      <c r="AJ97" s="31"/>
       <c r="AK97" s="12"/>
       <c r="AL97" s="12"/>
       <c r="AM97" s="12"/>
@@ -12415,10 +12421,10 @@
       <c r="AD98" s="12"/>
       <c r="AE98" s="12"/>
       <c r="AF98" s="12"/>
-      <c r="AG98" s="32"/>
-      <c r="AH98" s="32"/>
-      <c r="AI98" s="32"/>
-      <c r="AJ98" s="33"/>
+      <c r="AG98" s="30"/>
+      <c r="AH98" s="30"/>
+      <c r="AI98" s="30"/>
+      <c r="AJ98" s="31"/>
       <c r="AK98" s="12"/>
       <c r="AL98" s="12"/>
       <c r="AM98" s="12"/>
@@ -12460,10 +12466,10 @@
       <c r="AD99" s="12"/>
       <c r="AE99" s="12"/>
       <c r="AF99" s="12"/>
-      <c r="AG99" s="32"/>
-      <c r="AH99" s="32"/>
-      <c r="AI99" s="32"/>
-      <c r="AJ99" s="33"/>
+      <c r="AG99" s="30"/>
+      <c r="AH99" s="30"/>
+      <c r="AI99" s="30"/>
+      <c r="AJ99" s="31"/>
       <c r="AK99" s="12"/>
       <c r="AL99" s="12"/>
       <c r="AM99" s="12"/>
@@ -12505,10 +12511,10 @@
       <c r="AD100" s="12"/>
       <c r="AE100" s="12"/>
       <c r="AF100" s="12"/>
-      <c r="AG100" s="32"/>
-      <c r="AH100" s="32"/>
-      <c r="AI100" s="32"/>
-      <c r="AJ100" s="33"/>
+      <c r="AG100" s="30"/>
+      <c r="AH100" s="30"/>
+      <c r="AI100" s="30"/>
+      <c r="AJ100" s="31"/>
       <c r="AK100" s="12"/>
       <c r="AL100" s="12"/>
       <c r="AM100" s="12"/>
@@ -12550,10 +12556,10 @@
       <c r="AD101" s="12"/>
       <c r="AE101" s="12"/>
       <c r="AF101" s="12"/>
-      <c r="AG101" s="32"/>
-      <c r="AH101" s="32"/>
-      <c r="AI101" s="32"/>
-      <c r="AJ101" s="33"/>
+      <c r="AG101" s="30"/>
+      <c r="AH101" s="30"/>
+      <c r="AI101" s="30"/>
+      <c r="AJ101" s="31"/>
       <c r="AK101" s="12"/>
       <c r="AL101" s="12"/>
       <c r="AM101" s="12"/>
@@ -12595,10 +12601,10 @@
       <c r="AD102" s="12"/>
       <c r="AE102" s="12"/>
       <c r="AF102" s="12"/>
-      <c r="AG102" s="32"/>
-      <c r="AH102" s="32"/>
-      <c r="AI102" s="32"/>
-      <c r="AJ102" s="33"/>
+      <c r="AG102" s="30"/>
+      <c r="AH102" s="30"/>
+      <c r="AI102" s="30"/>
+      <c r="AJ102" s="31"/>
       <c r="AK102" s="12"/>
       <c r="AL102" s="12"/>
       <c r="AM102" s="12"/>
@@ -12640,10 +12646,10 @@
       <c r="AD103" s="12"/>
       <c r="AE103" s="12"/>
       <c r="AF103" s="12"/>
-      <c r="AG103" s="32"/>
-      <c r="AH103" s="32"/>
-      <c r="AI103" s="32"/>
-      <c r="AJ103" s="33"/>
+      <c r="AG103" s="30"/>
+      <c r="AH103" s="30"/>
+      <c r="AI103" s="30"/>
+      <c r="AJ103" s="31"/>
       <c r="AK103" s="12"/>
       <c r="AL103" s="12"/>
       <c r="AM103" s="12"/>
@@ -12685,10 +12691,10 @@
       <c r="AD104" s="12"/>
       <c r="AE104" s="12"/>
       <c r="AF104" s="12"/>
-      <c r="AG104" s="32"/>
-      <c r="AH104" s="32"/>
-      <c r="AI104" s="32"/>
-      <c r="AJ104" s="33"/>
+      <c r="AG104" s="30"/>
+      <c r="AH104" s="30"/>
+      <c r="AI104" s="30"/>
+      <c r="AJ104" s="31"/>
       <c r="AK104" s="12"/>
       <c r="AL104" s="12"/>
       <c r="AM104" s="12"/>
@@ -12730,10 +12736,10 @@
       <c r="AD105" s="12"/>
       <c r="AE105" s="12"/>
       <c r="AF105" s="12"/>
-      <c r="AG105" s="32"/>
-      <c r="AH105" s="32"/>
-      <c r="AI105" s="32"/>
-      <c r="AJ105" s="33"/>
+      <c r="AG105" s="30"/>
+      <c r="AH105" s="30"/>
+      <c r="AI105" s="30"/>
+      <c r="AJ105" s="31"/>
       <c r="AK105" s="12"/>
       <c r="AL105" s="12"/>
       <c r="AM105" s="12"/>
@@ -12775,10 +12781,10 @@
       <c r="AD106" s="12"/>
       <c r="AE106" s="12"/>
       <c r="AF106" s="12"/>
-      <c r="AG106" s="32"/>
-      <c r="AH106" s="32"/>
-      <c r="AI106" s="32"/>
-      <c r="AJ106" s="33"/>
+      <c r="AG106" s="30"/>
+      <c r="AH106" s="30"/>
+      <c r="AI106" s="30"/>
+      <c r="AJ106" s="31"/>
       <c r="AK106" s="12"/>
       <c r="AL106" s="12"/>
       <c r="AM106" s="12"/>
@@ -12820,10 +12826,10 @@
       <c r="AD107" s="12"/>
       <c r="AE107" s="12"/>
       <c r="AF107" s="12"/>
-      <c r="AG107" s="32"/>
-      <c r="AH107" s="32"/>
-      <c r="AI107" s="32"/>
-      <c r="AJ107" s="33"/>
+      <c r="AG107" s="30"/>
+      <c r="AH107" s="30"/>
+      <c r="AI107" s="30"/>
+      <c r="AJ107" s="31"/>
       <c r="AK107" s="12"/>
       <c r="AL107" s="12"/>
       <c r="AM107" s="12"/>
@@ -12865,10 +12871,10 @@
       <c r="AD108" s="12"/>
       <c r="AE108" s="12"/>
       <c r="AF108" s="12"/>
-      <c r="AG108" s="32"/>
-      <c r="AH108" s="32"/>
-      <c r="AI108" s="32"/>
-      <c r="AJ108" s="33"/>
+      <c r="AG108" s="30"/>
+      <c r="AH108" s="30"/>
+      <c r="AI108" s="30"/>
+      <c r="AJ108" s="31"/>
       <c r="AK108" s="12"/>
       <c r="AL108" s="12"/>
       <c r="AM108" s="12"/>
@@ -12910,10 +12916,10 @@
       <c r="AD109" s="12"/>
       <c r="AE109" s="12"/>
       <c r="AF109" s="12"/>
-      <c r="AG109" s="32"/>
-      <c r="AH109" s="32"/>
-      <c r="AI109" s="32"/>
-      <c r="AJ109" s="33"/>
+      <c r="AG109" s="30"/>
+      <c r="AH109" s="30"/>
+      <c r="AI109" s="30"/>
+      <c r="AJ109" s="31"/>
       <c r="AK109" s="12"/>
       <c r="AL109" s="12"/>
       <c r="AM109" s="12"/>
@@ -12955,10 +12961,10 @@
       <c r="AD110" s="12"/>
       <c r="AE110" s="12"/>
       <c r="AF110" s="12"/>
-      <c r="AG110" s="32"/>
-      <c r="AH110" s="32"/>
-      <c r="AI110" s="32"/>
-      <c r="AJ110" s="33"/>
+      <c r="AG110" s="30"/>
+      <c r="AH110" s="30"/>
+      <c r="AI110" s="30"/>
+      <c r="AJ110" s="31"/>
       <c r="AK110" s="12"/>
       <c r="AL110" s="12"/>
       <c r="AM110" s="12"/>
@@ -13000,10 +13006,10 @@
       <c r="AD111" s="12"/>
       <c r="AE111" s="12"/>
       <c r="AF111" s="12"/>
-      <c r="AG111" s="32"/>
-      <c r="AH111" s="32"/>
-      <c r="AI111" s="32"/>
-      <c r="AJ111" s="33"/>
+      <c r="AG111" s="30"/>
+      <c r="AH111" s="30"/>
+      <c r="AI111" s="30"/>
+      <c r="AJ111" s="31"/>
       <c r="AK111" s="12"/>
       <c r="AL111" s="12"/>
       <c r="AM111" s="12"/>
@@ -13045,10 +13051,10 @@
       <c r="AD112" s="12"/>
       <c r="AE112" s="12"/>
       <c r="AF112" s="12"/>
-      <c r="AG112" s="32"/>
-      <c r="AH112" s="32"/>
-      <c r="AI112" s="32"/>
-      <c r="AJ112" s="33"/>
+      <c r="AG112" s="30"/>
+      <c r="AH112" s="30"/>
+      <c r="AI112" s="30"/>
+      <c r="AJ112" s="31"/>
       <c r="AK112" s="12"/>
       <c r="AL112" s="12"/>
       <c r="AM112" s="12"/>
@@ -13090,10 +13096,10 @@
       <c r="AD113" s="12"/>
       <c r="AE113" s="12"/>
       <c r="AF113" s="12"/>
-      <c r="AG113" s="32"/>
-      <c r="AH113" s="32"/>
-      <c r="AI113" s="32"/>
-      <c r="AJ113" s="33"/>
+      <c r="AG113" s="30"/>
+      <c r="AH113" s="30"/>
+      <c r="AI113" s="30"/>
+      <c r="AJ113" s="31"/>
       <c r="AK113" s="12"/>
       <c r="AL113" s="12"/>
       <c r="AM113" s="12"/>
@@ -13135,10 +13141,10 @@
       <c r="AD114" s="12"/>
       <c r="AE114" s="12"/>
       <c r="AF114" s="12"/>
-      <c r="AG114" s="32"/>
-      <c r="AH114" s="32"/>
-      <c r="AI114" s="32"/>
-      <c r="AJ114" s="33"/>
+      <c r="AG114" s="30"/>
+      <c r="AH114" s="30"/>
+      <c r="AI114" s="30"/>
+      <c r="AJ114" s="31"/>
       <c r="AK114" s="12"/>
       <c r="AL114" s="12"/>
       <c r="AM114" s="12"/>
@@ -13186,10 +13192,10 @@
       <c r="AD115" s="15"/>
       <c r="AE115" s="15"/>
       <c r="AF115" s="15"/>
-      <c r="AG115" s="34"/>
-      <c r="AH115" s="34"/>
-      <c r="AI115" s="34"/>
-      <c r="AJ115" s="35"/>
+      <c r="AG115" s="32"/>
+      <c r="AH115" s="32"/>
+      <c r="AI115" s="32"/>
+      <c r="AJ115" s="33"/>
       <c r="AK115" s="12"/>
       <c r="AL115" s="12"/>
       <c r="AM115" s="12"/>
@@ -13661,73 +13667,20 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BK42:BL42"/>
-    <mergeCell ref="BM42:BN42"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="BK36:BL36"/>
-    <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BK33:BL33"/>
-    <mergeCell ref="BM33:BN33"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BK34:BL34"/>
-    <mergeCell ref="BM34:BN34"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BI42:BJ42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="BY36:BZ36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="BI36:BJ36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="BI33:BJ33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O36:P36"/>
@@ -13749,21 +13702,74 @@
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="BI42:BJ42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BI36:BJ36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="BK33:BL33"/>
+    <mergeCell ref="BM33:BN33"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BK34:BL34"/>
+    <mergeCell ref="BM34:BN34"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
     <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="BI33:BJ33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BK42:BL42"/>
+    <mergeCell ref="BM42:BN42"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="BK36:BL36"/>
+    <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BY36:BZ36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,26 +4,23 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
     <sheet name="io port" sheetId="2" r:id="rId2"/>
     <sheet name="display" sheetId="3" r:id="rId3"/>
     <sheet name="motones vga" sheetId="4" r:id="rId4"/>
+    <sheet name="pattern fetch" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
   <si>
     <t>ppu register handling</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>do nothing</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -445,6 +442,62 @@
     <t>constant HSCAN_SPR_MAX       : integer := 321;</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M=4D in ascii</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x04d0 (=4d * 16) in chr rom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@ 0x04d0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@ 0x04d8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -493,7 +546,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,6 +586,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -800,7 +865,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -936,6 +1001,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,8 +1016,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1303,119 +1389,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ppu render</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5962650" y="1714500"/>
-          <a:ext cx="1581150" cy="857249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>vga ctl</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6115050" y="2057401"/>
-          <a:ext cx="1219200" cy="342899"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>vga render</a:t>
+            <a:t>vga_ppu_render</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1492,100 +1466,6 @@
         <a:xfrm flipV="1">
           <a:off x="6496050" y="1285875"/>
           <a:ext cx="1885950" cy="171451"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6286500" y="1628775"/>
-          <a:ext cx="2095500" cy="257177"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6076950" y="2057401"/>
-          <a:ext cx="2305050" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -3572,6 +3452,422 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>8282</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>49696</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>103533</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>154472</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="207065" y="5093805"/>
+          <a:ext cx="12486033" cy="5148884"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="下矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="2438400"/>
+          <a:ext cx="228600" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="十字形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3738563" y="3649266"/>
+          <a:ext cx="654843" cy="650133"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 38565"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>124241</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>173936</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6485284" y="8067262"/>
+          <a:ext cx="1109869" cy="546654"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -119922"/>
+            <a:gd name="adj2" fmla="val 28576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>addr latch for next</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> write</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>110987</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>102706</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>99392</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>135835</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4881770" y="9669119"/>
+          <a:ext cx="1578665" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -55254"/>
+            <a:gd name="adj2" fmla="val -143164"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>data 45 written @ 203C</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>106017</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>64605</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>140804</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>24847</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6930887" y="9109214"/>
+          <a:ext cx="2221395" cy="829916"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44937"/>
+            <a:gd name="adj2" fmla="val -20084"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    --transparent d-latch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    --ale=1 &gt;&gt; addr latch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    --ale=0 &gt;&gt; addr output.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>188844</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>89454</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>106017</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>122584</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3170583" y="8960128"/>
+          <a:ext cx="1109869" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57235"/>
+            <a:gd name="adj2" fmla="val -427948"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>addr is latched</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3857,10 +4153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="AO6:AO13"/>
+  <dimension ref="AO6:AO11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
@@ -3875,19 +4171,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="41:41">
-      <c r="AO10" t="s">
+    <row r="9" spans="41:41">
+      <c r="AO9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="41:41">
       <c r="AO11" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="41:41">
-      <c r="AO13" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3912,507 +4203,513 @@
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
       <c r="A8" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
       <c r="A9" s="43"/>
       <c r="B9" s="43"/>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25">
       <c r="A13" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="C13" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
       <c r="A14" s="43"/>
       <c r="B14" s="43"/>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1">
       <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
       <c r="A29" s="42" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B29" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1">
       <c r="A30" s="43"/>
       <c r="B30" s="43"/>
       <c r="C30" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
       <c r="A33" s="42" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B33" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
       <c r="A34" s="43"/>
       <c r="B34" s="43"/>
       <c r="C34" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1">
       <c r="A35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1">
       <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1">
       <c r="A39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1">
       <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1">
       <c r="A43" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="26.25" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1">
       <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
       <c r="A47" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1">
       <c r="A48" s="43"/>
       <c r="B48" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="43"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="26.25" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1">
       <c r="A51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
       <c r="A52" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1">
       <c r="A53" s="43"/>
       <c r="B53" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="43"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" thickBot="1">
       <c r="A55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1">
       <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
       <c r="A57" s="42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C57" s="42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1">
       <c r="A58" s="43"/>
       <c r="B58" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C58" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -4421,12 +4718,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4461,7 +4752,7 @@
   <sheetData>
     <row r="3" spans="4:48">
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="4:48" ht="14.25" thickBot="1">
@@ -4558,7 +4849,7 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="20"/>
       <c r="AL7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="4:48" ht="14.25" thickBot="1">
@@ -4711,7 +5002,7 @@
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
       <c r="AM11" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN11" s="12"/>
       <c r="AO11" s="12"/>
@@ -5208,7 +5499,7 @@
       <c r="AC23" s="12"/>
       <c r="AD23" s="20"/>
       <c r="AL23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="3:48">
@@ -5240,7 +5531,7 @@
       <c r="AC24" s="12"/>
       <c r="AD24" s="20"/>
       <c r="AL24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="3:48">
@@ -5272,7 +5563,7 @@
       <c r="AC25" s="12"/>
       <c r="AD25" s="20"/>
       <c r="AL25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="3:48">
@@ -5307,7 +5598,7 @@
       <c r="AC26" s="12"/>
       <c r="AD26" s="20"/>
       <c r="AL26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="3:48">
@@ -5399,12 +5690,12 @@
     </row>
     <row r="35" spans="3:49">
       <c r="C35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="3:49">
       <c r="AD37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:49" ht="14.25" thickBot="1"/>
@@ -5457,7 +5748,7 @@
     <row r="40" spans="3:49">
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -5479,7 +5770,7 @@
       <c r="X40" s="13"/>
       <c r="AD40" s="11"/>
       <c r="AE40" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="12"/>
@@ -5808,7 +6099,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="10"/>
       <c r="O48" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -6178,7 +6469,7 @@
     </row>
     <row r="59" spans="5:49">
       <c r="AD59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="5:49" ht="14.25" thickBot="1"/>
@@ -6207,7 +6498,7 @@
     <row r="62" spans="5:49">
       <c r="AD62" s="11"/>
       <c r="AE62" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF62" s="12"/>
       <c r="AG62" s="12"/>
@@ -6582,18 +6873,18 @@
     </row>
     <row r="81" spans="6:76">
       <c r="G81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="6:76">
       <c r="S82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X82">
         <v>2443</v>
       </c>
       <c r="AS82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="6:76" ht="14.25" thickBot="1">
@@ -6682,7 +6973,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
@@ -6693,7 +6984,7 @@
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
       <c r="S85" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
@@ -6722,7 +7013,7 @@
       <c r="AT85" s="12"/>
       <c r="AU85" s="12"/>
       <c r="AV85" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW85" s="12"/>
       <c r="AX85" s="12"/>
@@ -6733,7 +7024,7 @@
       <c r="BC85" s="12"/>
       <c r="BD85" s="12"/>
       <c r="BE85" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF85" s="12"/>
       <c r="BG85" s="12"/>
@@ -6780,7 +7071,7 @@
         <v>2440</v>
       </c>
       <c r="X86" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
@@ -6818,7 +7109,7 @@
         <v>2440</v>
       </c>
       <c r="BJ86" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BK86" s="12"/>
       <c r="BL86" s="12"/>
@@ -7254,10 +7545,10 @@
       <c r="W93" s="11"/>
       <c r="X93" s="12"/>
       <c r="Y93" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z93" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="Z93" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
@@ -7784,11 +8075,11 @@
       <c r="U101" s="9"/>
       <c r="V101" s="10"/>
       <c r="W101" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X101" s="9"/>
       <c r="Y101" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
@@ -7822,11 +8113,11 @@
       <c r="BG101" s="9"/>
       <c r="BH101" s="10"/>
       <c r="BI101" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BJ101" s="9"/>
       <c r="BK101" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BL101" s="9"/>
       <c r="BM101" s="9"/>
@@ -8074,7 +8365,7 @@
       <c r="AK105" s="12"/>
       <c r="AL105" s="13"/>
       <c r="AO105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AS105" s="11"/>
       <c r="AT105" s="12"/>
@@ -8129,7 +8420,7 @@
       <c r="W106" s="11"/>
       <c r="X106" s="12"/>
       <c r="Y106" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
@@ -8145,7 +8436,7 @@
       <c r="AK106" s="12"/>
       <c r="AL106" s="13"/>
       <c r="AO106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AS106" s="11"/>
       <c r="AT106" s="12"/>
@@ -8166,7 +8457,7 @@
       <c r="BI106" s="11"/>
       <c r="BJ106" s="12"/>
       <c r="BK106" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BL106" s="12"/>
       <c r="BM106" s="12"/>
@@ -8200,11 +8491,11 @@
       <c r="U107" s="12"/>
       <c r="V107" s="13"/>
       <c r="W107" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="X107" s="12"/>
       <c r="Y107" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA107" s="12"/>
       <c r="AB107" s="12"/>
@@ -8221,10 +8512,10 @@
       <c r="AS107" s="11"/>
       <c r="AT107" s="12"/>
       <c r="AU107" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV107" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="AV107" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="AW107" s="12"/>
       <c r="AX107" s="12"/>
@@ -8239,11 +8530,11 @@
       <c r="BG107" s="12"/>
       <c r="BH107" s="13"/>
       <c r="BI107" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="BJ107" s="12"/>
       <c r="BK107" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BM107" s="12"/>
       <c r="BN107" s="12"/>
@@ -8929,8 +9220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CF125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AB49" sqref="AB49"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AS32" sqref="AS32:AT32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -8964,7 +9255,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="10:83" s="27" customFormat="1" ht="42">
@@ -9179,59 +9470,59 @@
       </c>
       <c r="J33" s="39"/>
       <c r="K33" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L33" s="44"/>
       <c r="M33" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N33" s="44"/>
       <c r="O33" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P33" s="44"/>
       <c r="Q33" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R33" s="44"/>
       <c r="S33" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T33" s="44"/>
       <c r="U33" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V33" s="44"/>
       <c r="W33" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X33" s="44"/>
       <c r="Y33" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z33" s="44"/>
       <c r="AA33" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB33" s="44"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG33" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH33" s="44"/>
       <c r="AI33" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ33" s="44"/>
       <c r="AK33" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL33" s="44"/>
       <c r="AM33" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AN33" s="44"/>
       <c r="AO33" s="34"/>
@@ -9251,51 +9542,51 @@
       <c r="BF33" s="34"/>
       <c r="BG33" s="34"/>
       <c r="BI33" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ33" s="44"/>
       <c r="BK33" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BL33" s="44"/>
       <c r="BM33" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BN33" s="44"/>
       <c r="BO33" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BP33" s="44"/>
       <c r="BQ33" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BR33" s="44"/>
       <c r="BS33" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BT33" s="44"/>
       <c r="BU33" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BV33" s="44"/>
       <c r="BW33" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BX33" s="44"/>
       <c r="BY33" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ33" s="44"/>
       <c r="CA33" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CB33" s="44"/>
       <c r="CC33" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CD33" s="44"/>
       <c r="CE33" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CF33" s="27"/>
     </row>
@@ -9305,59 +9596,59 @@
       </c>
       <c r="J34" s="34"/>
       <c r="K34" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L34" s="44"/>
       <c r="M34" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N34" s="44"/>
       <c r="O34" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P34" s="44"/>
       <c r="Q34" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R34" s="44"/>
       <c r="S34" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T34" s="44"/>
       <c r="U34" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V34" s="44"/>
       <c r="W34" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X34" s="44"/>
       <c r="Y34" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z34" s="44"/>
       <c r="AA34" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB34" s="44"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG34" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH34" s="44"/>
       <c r="AI34" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ34" s="44"/>
       <c r="AK34" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL34" s="44"/>
       <c r="AM34" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AN34" s="44"/>
       <c r="AO34" s="34"/>
@@ -9377,51 +9668,51 @@
       <c r="BF34" s="34"/>
       <c r="BG34" s="34"/>
       <c r="BI34" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ34" s="44"/>
       <c r="BK34" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BL34" s="44"/>
       <c r="BM34" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BN34" s="44"/>
       <c r="BO34" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BP34" s="44"/>
       <c r="BQ34" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BR34" s="44"/>
       <c r="BS34" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BT34" s="44"/>
       <c r="BU34" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BV34" s="44"/>
       <c r="BW34" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BX34" s="44"/>
       <c r="BY34" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ34" s="44"/>
       <c r="CA34" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CB34" s="44"/>
       <c r="CC34" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CD34" s="44"/>
       <c r="CE34" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CF34" s="27"/>
     </row>
@@ -9437,62 +9728,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="49" t="s">
+      <c r="K36" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="45"/>
+      <c r="M36" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49" t="s">
+      <c r="N36" s="45"/>
+      <c r="O36" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="N36" s="49"/>
-      <c r="O36" s="49" t="s">
+      <c r="P36" s="45"/>
+      <c r="Q36" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="R36" s="49"/>
-      <c r="S36" s="49" t="s">
+      <c r="R36" s="45"/>
+      <c r="S36" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="T36" s="45"/>
+      <c r="U36" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="T36" s="49"/>
-      <c r="U36" s="49" t="s">
+      <c r="V36" s="45"/>
+      <c r="W36" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="V36" s="49"/>
-      <c r="W36" s="49" t="s">
+      <c r="X36" s="45"/>
+      <c r="Y36" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="X36" s="49"/>
-      <c r="Y36" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="Z36" s="49"/>
-      <c r="AA36" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="AB36" s="49"/>
+      <c r="Z36" s="45"/>
+      <c r="AA36" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB36" s="45"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG36" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH36" s="45"/>
+      <c r="AI36" s="45" t="s">
         <v>112</v>
       </c>
-      <c r="AG36" s="49" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH36" s="49"/>
-      <c r="AI36" s="49" t="s">
+      <c r="AJ36" s="45"/>
+      <c r="AK36" s="45" t="s">
         <v>113</v>
       </c>
-      <c r="AJ36" s="49"/>
-      <c r="AK36" s="49" t="s">
+      <c r="AL36" s="45"/>
+      <c r="AM36" s="45" t="s">
         <v>114</v>
       </c>
-      <c r="AL36" s="49"/>
-      <c r="AM36" s="49" t="s">
-        <v>115</v>
-      </c>
-      <c r="AN36" s="49"/>
+      <c r="AN36" s="45"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -9510,51 +9801,51 @@
       <c r="BF36" s="34"/>
       <c r="BG36" s="34"/>
       <c r="BI36" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ36" s="44"/>
       <c r="BK36" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BL36" s="44"/>
       <c r="BM36" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BN36" s="44"/>
       <c r="BO36" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BP36" s="44"/>
       <c r="BQ36" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BR36" s="44"/>
       <c r="BS36" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BT36" s="44"/>
       <c r="BU36" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BV36" s="44"/>
       <c r="BW36" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BX36" s="44"/>
       <c r="BY36" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ36" s="44"/>
       <c r="CA36" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CB36" s="44"/>
       <c r="CC36" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CD36" s="44"/>
       <c r="CE36" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CF36" s="27"/>
     </row>
@@ -9893,55 +10184,55 @@
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
       <c r="M42" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="N42" s="44"/>
       <c r="O42" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="P42" s="44"/>
       <c r="Q42" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R42" s="44"/>
       <c r="S42" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T42" s="44"/>
       <c r="U42" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="V42" s="44"/>
       <c r="W42" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="X42" s="44"/>
       <c r="Y42" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Z42" s="44"/>
       <c r="AA42" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AB42" s="44"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG42" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AH42" s="44"/>
       <c r="AI42" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AJ42" s="44"/>
       <c r="AK42" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL42" s="44"/>
       <c r="AM42" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AN42" s="44"/>
       <c r="AO42" s="34"/>
@@ -9961,51 +10252,51 @@
       <c r="BF42" s="34"/>
       <c r="BG42" s="34"/>
       <c r="BI42" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BJ42" s="44"/>
       <c r="BK42" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BL42" s="44"/>
       <c r="BM42" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BN42" s="44"/>
       <c r="BO42" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BP42" s="44"/>
       <c r="BQ42" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BR42" s="44"/>
       <c r="BS42" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BT42" s="44"/>
       <c r="BU42" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="BV42" s="44"/>
       <c r="BW42" s="44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="BX42" s="44"/>
       <c r="BY42" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BZ42" s="44"/>
       <c r="CA42" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="CB42" s="44"/>
       <c r="CC42" s="44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="CD42" s="44"/>
       <c r="CE42" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CF42" s="27"/>
     </row>
@@ -10018,10 +10309,10 @@
     </row>
     <row r="44" spans="6:84">
       <c r="AK44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CA44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="CB44" s="27"/>
       <c r="CC44" s="27"/>
@@ -10038,72 +10329,72 @@
     </row>
     <row r="46" spans="6:84">
       <c r="F46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="48" t="s">
+      <c r="K46" s="49" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46" s="49"/>
+      <c r="M46" s="49"/>
+      <c r="N46" s="49"/>
+      <c r="O46" s="49"/>
+      <c r="P46" s="49"/>
+      <c r="Q46" s="49"/>
+      <c r="R46" s="49"/>
+      <c r="S46" s="49"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="49"/>
+      <c r="V46" s="49"/>
+      <c r="W46" s="49"/>
+      <c r="X46" s="49"/>
+      <c r="Y46" s="49"/>
+      <c r="Z46" s="49"/>
+      <c r="AA46" s="49"/>
+      <c r="AB46" s="49"/>
+      <c r="AC46" s="49"/>
+      <c r="AD46" s="49"/>
+      <c r="AE46" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
-      <c r="N46" s="48"/>
-      <c r="O46" s="48"/>
-      <c r="P46" s="48"/>
-      <c r="Q46" s="48"/>
-      <c r="R46" s="48"/>
-      <c r="S46" s="48"/>
-      <c r="T46" s="48"/>
-      <c r="U46" s="48"/>
-      <c r="V46" s="48"/>
-      <c r="W46" s="48"/>
-      <c r="X46" s="48"/>
-      <c r="Y46" s="48"/>
-      <c r="Z46" s="48"/>
-      <c r="AA46" s="48"/>
-      <c r="AB46" s="48"/>
-      <c r="AC46" s="48"/>
-      <c r="AD46" s="48"/>
-      <c r="AE46" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF46" s="48"/>
-      <c r="AG46" s="48"/>
-      <c r="AH46" s="48"/>
-      <c r="AI46" s="48"/>
-      <c r="AJ46" s="48"/>
-      <c r="AK46" s="48"/>
-      <c r="AL46" s="48"/>
-      <c r="AM46" s="48"/>
-      <c r="AN46" s="48"/>
+      <c r="AF46" s="49"/>
+      <c r="AG46" s="49"/>
+      <c r="AH46" s="49"/>
+      <c r="AI46" s="49"/>
+      <c r="AJ46" s="49"/>
+      <c r="AK46" s="49"/>
+      <c r="AL46" s="49"/>
+      <c r="AM46" s="49"/>
+      <c r="AN46" s="49"/>
       <c r="AO46" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AP46" s="44"/>
       <c r="AQ46" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AR46" s="44"/>
       <c r="AS46" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AT46" s="44"/>
       <c r="AU46" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV46" s="44"/>
+      <c r="AW46" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="AV46" s="44"/>
-      <c r="AW46" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="AX46" s="46"/>
-      <c r="AY46" s="46"/>
-      <c r="AZ46" s="46"/>
-      <c r="BA46" s="46"/>
-      <c r="BB46" s="46"/>
-      <c r="BC46" s="46"/>
-      <c r="BD46" s="46"/>
-      <c r="BE46" s="47"/>
+      <c r="AX46" s="47"/>
+      <c r="AY46" s="47"/>
+      <c r="AZ46" s="47"/>
+      <c r="BA46" s="47"/>
+      <c r="BB46" s="47"/>
+      <c r="BC46" s="47"/>
+      <c r="BD46" s="47"/>
+      <c r="BE46" s="48"/>
       <c r="BF46" s="44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BG46" s="44"/>
       <c r="BI46" s="38"/>
@@ -10133,7 +10424,7 @@
     </row>
     <row r="52" spans="5:71" ht="14.25" thickBot="1">
       <c r="E52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AJ52">
         <v>640</v>
@@ -10142,7 +10433,7 @@
         <v>800</v>
       </c>
       <c r="AX52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="BK52">
         <v>256</v>
@@ -10215,7 +10506,7 @@
       <c r="BP53" s="17"/>
       <c r="BQ53" s="18"/>
       <c r="BS53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="54" spans="5:71">
@@ -10282,7 +10573,7 @@
       <c r="BP54" s="12"/>
       <c r="BQ54" s="20"/>
       <c r="BS54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="55" spans="5:71">
@@ -10349,7 +10640,7 @@
       <c r="BP55" s="12"/>
       <c r="BQ55" s="20"/>
       <c r="BS55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="5:71">
@@ -10416,7 +10707,7 @@
       <c r="BP56" s="12"/>
       <c r="BQ56" s="20"/>
       <c r="BS56" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="5:71">
@@ -10483,7 +10774,7 @@
       <c r="BP57" s="12"/>
       <c r="BQ57" s="20"/>
       <c r="BS57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="58" spans="5:71">
@@ -10550,7 +10841,7 @@
       <c r="BP58" s="12"/>
       <c r="BQ58" s="20"/>
       <c r="BS58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="59" spans="5:71">
@@ -12043,7 +12334,7 @@
     </row>
     <row r="89" spans="4:48">
       <c r="D89" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -12057,7 +12348,7 @@
     </row>
     <row r="90" spans="4:48" ht="14.25" thickBot="1">
       <c r="E90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F90">
         <v>0</v>
@@ -13667,20 +13958,74 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="BI33:BJ33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BK42:BL42"/>
+    <mergeCell ref="BM42:BN42"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="BK36:BL36"/>
+    <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="BK33:BL33"/>
+    <mergeCell ref="BM33:BN33"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BK34:BL34"/>
+    <mergeCell ref="BM34:BN34"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BI42:BJ42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BI36:BJ36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O36:P36"/>
@@ -13702,77 +14047,498 @@
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="BI42:BJ42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="BI36:BJ36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BK33:BL33"/>
-    <mergeCell ref="BM33:BN33"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BK34:BL34"/>
-    <mergeCell ref="BM34:BN34"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BK42:BL42"/>
-    <mergeCell ref="BM42:BN42"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="BK36:BL36"/>
-    <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="BI33:BJ33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G2:AH27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AM25" sqref="AM25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="17" max="17" width="2.625" customWidth="1"/>
+    <col min="33" max="33" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:25">
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="9:25">
+      <c r="I3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="9:25">
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="9:25">
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="51"/>
+      <c r="U6" s="52"/>
+    </row>
+    <row r="7" spans="9:25">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="50"/>
+      <c r="R7" s="50"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="52"/>
+      <c r="Y7" s="50" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="9:25">
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="51"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="51"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="51"/>
+      <c r="U8" s="52"/>
+      <c r="Y8" s="52" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="9:25">
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="52"/>
+      <c r="Y9" s="53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="9:25">
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" s="51"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="52"/>
+      <c r="Y10" s="51" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="9:25">
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="51"/>
+      <c r="T11" s="51"/>
+      <c r="U11" s="52"/>
+    </row>
+    <row r="12" spans="9:25">
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="51"/>
+      <c r="U12" s="52"/>
+    </row>
+    <row r="13" spans="9:25">
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="52"/>
+      <c r="U13" s="52"/>
+    </row>
+    <row r="18" spans="7:34">
+      <c r="G18" s="54" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y18" s="54" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="7:34">
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>7</v>
+      </c>
+      <c r="AA19">
+        <v>6</v>
+      </c>
+      <c r="AB19">
+        <v>5</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:34">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="53"/>
+      <c r="AA20" s="53"/>
+      <c r="AB20" s="50"/>
+      <c r="AC20" s="50"/>
+      <c r="AD20" s="50"/>
+      <c r="AE20" s="53"/>
+      <c r="AF20" s="53"/>
+      <c r="AG20" s="50"/>
+      <c r="AH20" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="7:34">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="52"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="53"/>
+      <c r="AA21" s="53"/>
+      <c r="AB21" s="50"/>
+      <c r="AC21" s="50"/>
+      <c r="AD21" s="50"/>
+      <c r="AE21" s="53"/>
+      <c r="AF21" s="53"/>
+      <c r="AG21" s="50"/>
+      <c r="AH21" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="7:34">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="53"/>
+      <c r="AA22" s="53"/>
+      <c r="AB22" s="53"/>
+      <c r="AC22" s="50"/>
+      <c r="AD22" s="53"/>
+      <c r="AE22" s="53"/>
+      <c r="AF22" s="53"/>
+      <c r="AG22" s="50"/>
+      <c r="AH22" s="55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="7:34">
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="52"/>
+      <c r="I23" s="52"/>
+      <c r="J23" s="52"/>
+      <c r="K23" s="52"/>
+      <c r="L23" s="52"/>
+      <c r="M23" s="52"/>
+      <c r="N23" s="52"/>
+      <c r="O23" s="52"/>
+      <c r="P23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="53"/>
+      <c r="AA23" s="53"/>
+      <c r="AB23" s="50"/>
+      <c r="AC23" s="53"/>
+      <c r="AD23" s="50"/>
+      <c r="AE23" s="53"/>
+      <c r="AF23" s="53"/>
+      <c r="AG23" s="50"/>
+      <c r="AH23" s="55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="7:34">
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="53"/>
+      <c r="AA24" s="53"/>
+      <c r="AB24" s="50"/>
+      <c r="AC24" s="50"/>
+      <c r="AD24" s="50"/>
+      <c r="AE24" s="53"/>
+      <c r="AF24" s="53"/>
+      <c r="AG24" s="50"/>
+      <c r="AH24" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="7:34">
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="53"/>
+      <c r="AA25" s="53"/>
+      <c r="AB25" s="50"/>
+      <c r="AC25" s="50"/>
+      <c r="AD25" s="50"/>
+      <c r="AE25" s="53"/>
+      <c r="AF25" s="53"/>
+      <c r="AG25" s="50"/>
+      <c r="AH25" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="7:34">
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y26">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="53"/>
+      <c r="AA26" s="53"/>
+      <c r="AB26" s="50"/>
+      <c r="AC26" s="50"/>
+      <c r="AD26" s="50"/>
+      <c r="AE26" s="53"/>
+      <c r="AF26" s="53"/>
+      <c r="AG26" s="50"/>
+      <c r="AH26" s="55" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="7:34">
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="52"/>
+      <c r="O27" s="52"/>
+      <c r="P27" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="50"/>
+      <c r="AA27" s="50"/>
+      <c r="AB27" s="50"/>
+      <c r="AC27" s="50"/>
+      <c r="AD27" s="50"/>
+      <c r="AE27" s="50"/>
+      <c r="AF27" s="50"/>
+      <c r="AG27" s="50"/>
+      <c r="AH27" s="56" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="display" sheetId="3" r:id="rId3"/>
     <sheet name="motones vga" sheetId="4" r:id="rId4"/>
     <sheet name="pattern fetch" sheetId="5" r:id="rId5"/>
+    <sheet name="vram access" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="144">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -496,6 +497,14 @@
   </si>
   <si>
     <t>D6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name table write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite pattern read</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -992,30 +1001,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1036,6 +1021,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3454,46 +3463,6 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>8282</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>49696</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>103533</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>154472</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="1030" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="207065" y="5093805"/>
-          <a:ext cx="12486033" cy="5148884"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
@@ -3604,27 +3573,126 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="419100" y="6619875"/>
+          <a:ext cx="12801600" cy="7010400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="742950" y="371475"/>
+          <a:ext cx="12801600" cy="7010400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>124241</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>66262</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>382244</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163582</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>173936</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>91112</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120513</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24436</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5"/>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6485284" y="8067262"/>
+          <a:off x="5868644" y="4792732"/>
           <a:ext cx="1109869" cy="546654"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -3670,31 +3738,31 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>110987</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>102706</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>302730</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136664</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>99392</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>135835</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509795</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="角丸四角形吹き出し 6"/>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4881770" y="9669119"/>
-          <a:ext cx="1578665" cy="380999"/>
+          <a:off x="4417530" y="6308864"/>
+          <a:ext cx="1578665" cy="577711"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -55254"/>
-            <a:gd name="adj2" fmla="val -143164"/>
+            <a:gd name="adj1" fmla="val -51634"/>
+            <a:gd name="adj2" fmla="val -120082"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -3720,7 +3788,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>data 45 written @ 203C</a:t>
+            <a:t>data 45 is written @ 203B</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -3730,25 +3798,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>106017</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>64605</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>551622</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33959</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>140804</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>24847</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>29817</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6930887" y="9109214"/>
+          <a:off x="7409622" y="5691809"/>
           <a:ext cx="2221395" cy="829916"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -3807,31 +3875,91 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>188844</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>89454</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8698</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>106017</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>122584</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320538</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46797</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="角丸四角形吹き出し 9"/>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3170583" y="8960128"/>
+          <a:off x="1952626" y="5666548"/>
+          <a:ext cx="1796912" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40930"/>
+            <a:gd name="adj2" fmla="val -455448"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>addr is already latched</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376444</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496175" y="12277725"/>
           <a:ext cx="1109869" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
-            <a:gd name="adj1" fmla="val -57235"/>
-            <a:gd name="adj2" fmla="val -427948"/>
+            <a:gd name="adj1" fmla="val 54332"/>
+            <a:gd name="adj2" fmla="val -180447"/>
             <a:gd name="adj3" fmla="val 16667"/>
           </a:avLst>
         </a:prstGeom>
@@ -3858,6 +3986,70 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>addr is latched</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>500269</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8991600" y="12887325"/>
+          <a:ext cx="1109869" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41787"/>
+            <a:gd name="adj2" fmla="val -222947"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> read</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -4253,10 +4445,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="49" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -4264,8 +4456,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="43"/>
-      <c r="B9" s="43"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
@@ -4304,10 +4496,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -4315,8 +4507,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="43"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
@@ -4455,10 +4647,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="49" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -4466,8 +4658,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="43"/>
-      <c r="B30" s="43"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
       <c r="C30" s="6" t="s">
         <v>50</v>
       </c>
@@ -4495,10 +4687,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -4506,8 +4698,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="43"/>
-      <c r="B34" s="43"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="6" t="s">
         <v>57</v>
       </c>
@@ -4607,22 +4799,22 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="42" t="s">
+      <c r="A47" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="42" t="s">
+      <c r="C47" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="43"/>
+      <c r="A48" s="50"/>
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="43"/>
+      <c r="C48" s="50"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
@@ -4646,22 +4838,22 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="42" t="s">
+      <c r="C52" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="43"/>
+      <c r="A53" s="50"/>
       <c r="B53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="43"/>
+      <c r="C53" s="50"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
@@ -4685,31 +4877,25 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="42" t="s">
+      <c r="A57" s="49" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="42" t="s">
+      <c r="C57" s="49" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="43"/>
+      <c r="A58" s="50"/>
       <c r="B58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="43"/>
+      <c r="C58" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -4718,6 +4904,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4729,7 +4921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:BX117"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
@@ -9469,62 +9661,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="44" t="s">
+      <c r="K33" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="44"/>
-      <c r="M33" s="44" t="s">
+      <c r="L33" s="51"/>
+      <c r="M33" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="44"/>
-      <c r="O33" s="44" t="s">
+      <c r="N33" s="51"/>
+      <c r="O33" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="44"/>
-      <c r="Q33" s="44" t="s">
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="44"/>
-      <c r="S33" s="44" t="s">
+      <c r="R33" s="51"/>
+      <c r="S33" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="44"/>
-      <c r="U33" s="44" t="s">
+      <c r="T33" s="51"/>
+      <c r="U33" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44" t="s">
+      <c r="V33" s="51"/>
+      <c r="W33" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44" t="s">
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44" t="s">
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="44"/>
+      <c r="AB33" s="51"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="44" t="s">
+      <c r="AG33" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="44"/>
-      <c r="AI33" s="44" t="s">
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="44"/>
-      <c r="AK33" s="44" t="s">
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="44"/>
-      <c r="AM33" s="44" t="s">
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="44"/>
+      <c r="AN33" s="51"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -9541,50 +9733,50 @@
       <c r="BD33" s="34"/>
       <c r="BF33" s="34"/>
       <c r="BG33" s="34"/>
-      <c r="BI33" s="44" t="s">
+      <c r="BI33" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BJ33" s="44"/>
-      <c r="BK33" s="44" t="s">
+      <c r="BJ33" s="51"/>
+      <c r="BK33" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="BL33" s="44"/>
-      <c r="BM33" s="44" t="s">
+      <c r="BL33" s="51"/>
+      <c r="BM33" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="BN33" s="44"/>
-      <c r="BO33" s="44" t="s">
+      <c r="BN33" s="51"/>
+      <c r="BO33" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="BP33" s="44"/>
-      <c r="BQ33" s="44" t="s">
+      <c r="BP33" s="51"/>
+      <c r="BQ33" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BR33" s="44"/>
-      <c r="BS33" s="44" t="s">
+      <c r="BR33" s="51"/>
+      <c r="BS33" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="BT33" s="44"/>
-      <c r="BU33" s="44" t="s">
+      <c r="BT33" s="51"/>
+      <c r="BU33" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="BV33" s="44"/>
-      <c r="BW33" s="44" t="s">
+      <c r="BV33" s="51"/>
+      <c r="BW33" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="BX33" s="44"/>
-      <c r="BY33" s="44" t="s">
+      <c r="BX33" s="51"/>
+      <c r="BY33" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BZ33" s="44"/>
-      <c r="CA33" s="44" t="s">
+      <c r="BZ33" s="51"/>
+      <c r="CA33" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="CB33" s="44"/>
-      <c r="CC33" s="44" t="s">
+      <c r="CB33" s="51"/>
+      <c r="CC33" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="CD33" s="44"/>
+      <c r="CD33" s="51"/>
       <c r="CE33" s="41" t="s">
         <v>121</v>
       </c>
@@ -9595,62 +9787,62 @@
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="44" t="s">
+      <c r="K34" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="44"/>
-      <c r="M34" s="44" t="s">
+      <c r="L34" s="51"/>
+      <c r="M34" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="44"/>
-      <c r="O34" s="44" t="s">
+      <c r="N34" s="51"/>
+      <c r="O34" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44" t="s">
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="44"/>
-      <c r="S34" s="44" t="s">
+      <c r="R34" s="51"/>
+      <c r="S34" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="44"/>
-      <c r="U34" s="44" t="s">
+      <c r="T34" s="51"/>
+      <c r="U34" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="44"/>
-      <c r="W34" s="44" t="s">
+      <c r="V34" s="51"/>
+      <c r="W34" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="44"/>
-      <c r="Y34" s="44" t="s">
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="44"/>
-      <c r="AA34" s="44" t="s">
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="44"/>
+      <c r="AB34" s="51"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="44" t="s">
+      <c r="AG34" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="44"/>
-      <c r="AI34" s="44" t="s">
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="44"/>
-      <c r="AK34" s="44" t="s">
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="44"/>
-      <c r="AM34" s="44" t="s">
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="44"/>
+      <c r="AN34" s="51"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -9667,50 +9859,50 @@
       <c r="BD34" s="34"/>
       <c r="BF34" s="34"/>
       <c r="BG34" s="34"/>
-      <c r="BI34" s="44" t="s">
+      <c r="BI34" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BJ34" s="44"/>
-      <c r="BK34" s="44" t="s">
+      <c r="BJ34" s="51"/>
+      <c r="BK34" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="BL34" s="44"/>
-      <c r="BM34" s="44" t="s">
+      <c r="BL34" s="51"/>
+      <c r="BM34" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="BN34" s="44"/>
-      <c r="BO34" s="44" t="s">
+      <c r="BN34" s="51"/>
+      <c r="BO34" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="BP34" s="44"/>
-      <c r="BQ34" s="44" t="s">
+      <c r="BP34" s="51"/>
+      <c r="BQ34" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BR34" s="44"/>
-      <c r="BS34" s="44" t="s">
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="BT34" s="44"/>
-      <c r="BU34" s="44" t="s">
+      <c r="BT34" s="51"/>
+      <c r="BU34" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="BV34" s="44"/>
-      <c r="BW34" s="44" t="s">
+      <c r="BV34" s="51"/>
+      <c r="BW34" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="BX34" s="44"/>
-      <c r="BY34" s="44" t="s">
+      <c r="BX34" s="51"/>
+      <c r="BY34" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BZ34" s="44"/>
-      <c r="CA34" s="44" t="s">
+      <c r="BZ34" s="51"/>
+      <c r="CA34" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="CB34" s="44"/>
-      <c r="CC34" s="44" t="s">
+      <c r="CB34" s="51"/>
+      <c r="CC34" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="CD34" s="44"/>
+      <c r="CD34" s="51"/>
       <c r="CE34" s="41" t="s">
         <v>121</v>
       </c>
@@ -9728,62 +9920,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="45" t="s">
+      <c r="K36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="45"/>
-      <c r="M36" s="45" t="s">
+      <c r="L36" s="56"/>
+      <c r="M36" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="45"/>
-      <c r="O36" s="45" t="s">
+      <c r="N36" s="56"/>
+      <c r="O36" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="45"/>
-      <c r="Q36" s="45" t="s">
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="45"/>
-      <c r="S36" s="45" t="s">
+      <c r="R36" s="56"/>
+      <c r="S36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="45"/>
-      <c r="U36" s="45" t="s">
+      <c r="T36" s="56"/>
+      <c r="U36" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="45"/>
-      <c r="W36" s="45" t="s">
+      <c r="V36" s="56"/>
+      <c r="W36" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="45"/>
-      <c r="Y36" s="45" t="s">
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="45"/>
-      <c r="AA36" s="45" t="s">
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="45"/>
+      <c r="AB36" s="56"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="45" t="s">
+      <c r="AG36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="45"/>
-      <c r="AI36" s="45" t="s">
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="45"/>
-      <c r="AK36" s="45" t="s">
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="45"/>
-      <c r="AM36" s="45" t="s">
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="45"/>
+      <c r="AN36" s="56"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -9800,50 +9992,50 @@
       <c r="BD36" s="36"/>
       <c r="BF36" s="34"/>
       <c r="BG36" s="34"/>
-      <c r="BI36" s="44" t="s">
+      <c r="BI36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BJ36" s="44"/>
-      <c r="BK36" s="44" t="s">
+      <c r="BJ36" s="51"/>
+      <c r="BK36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="BL36" s="44"/>
-      <c r="BM36" s="44" t="s">
+      <c r="BL36" s="51"/>
+      <c r="BM36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="BN36" s="44"/>
-      <c r="BO36" s="44" t="s">
+      <c r="BN36" s="51"/>
+      <c r="BO36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="BP36" s="44"/>
-      <c r="BQ36" s="44" t="s">
+      <c r="BP36" s="51"/>
+      <c r="BQ36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BR36" s="44"/>
-      <c r="BS36" s="44" t="s">
+      <c r="BR36" s="51"/>
+      <c r="BS36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="BT36" s="44"/>
-      <c r="BU36" s="44" t="s">
+      <c r="BT36" s="51"/>
+      <c r="BU36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="BV36" s="44"/>
-      <c r="BW36" s="44" t="s">
+      <c r="BV36" s="51"/>
+      <c r="BW36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="BX36" s="44"/>
-      <c r="BY36" s="44" t="s">
+      <c r="BX36" s="51"/>
+      <c r="BY36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BZ36" s="44"/>
-      <c r="CA36" s="44" t="s">
+      <c r="BZ36" s="51"/>
+      <c r="CA36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="CB36" s="44"/>
-      <c r="CC36" s="44" t="s">
+      <c r="CB36" s="51"/>
+      <c r="CC36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="CD36" s="44"/>
+      <c r="CD36" s="51"/>
       <c r="CE36" s="41" t="s">
         <v>121</v>
       </c>
@@ -10183,58 +10375,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="44" t="s">
+      <c r="M42" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="44"/>
-      <c r="O42" s="44" t="s">
+      <c r="N42" s="51"/>
+      <c r="O42" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="44"/>
-      <c r="Q42" s="44" t="s">
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="44"/>
-      <c r="S42" s="44" t="s">
+      <c r="R42" s="51"/>
+      <c r="S42" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="44"/>
-      <c r="U42" s="44" t="s">
+      <c r="T42" s="51"/>
+      <c r="U42" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="44"/>
-      <c r="W42" s="44" t="s">
+      <c r="V42" s="51"/>
+      <c r="W42" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="44"/>
-      <c r="Y42" s="44" t="s">
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="44"/>
-      <c r="AA42" s="44" t="s">
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="44"/>
+      <c r="AB42" s="51"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="44" t="s">
+      <c r="AG42" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="44"/>
-      <c r="AI42" s="44" t="s">
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="44" t="s">
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="44"/>
-      <c r="AM42" s="44" t="s">
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="44"/>
+      <c r="AN42" s="51"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -10251,50 +10443,50 @@
       <c r="BD42" s="34"/>
       <c r="BF42" s="34"/>
       <c r="BG42" s="34"/>
-      <c r="BI42" s="44" t="s">
+      <c r="BI42" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BJ42" s="44"/>
-      <c r="BK42" s="44" t="s">
+      <c r="BJ42" s="51"/>
+      <c r="BK42" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="BL42" s="44"/>
-      <c r="BM42" s="44" t="s">
+      <c r="BL42" s="51"/>
+      <c r="BM42" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="BN42" s="44"/>
-      <c r="BO42" s="44" t="s">
+      <c r="BN42" s="51"/>
+      <c r="BO42" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="BP42" s="44"/>
-      <c r="BQ42" s="44" t="s">
+      <c r="BP42" s="51"/>
+      <c r="BQ42" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BR42" s="44"/>
-      <c r="BS42" s="44" t="s">
+      <c r="BR42" s="51"/>
+      <c r="BS42" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="BT42" s="44"/>
-      <c r="BU42" s="44" t="s">
+      <c r="BT42" s="51"/>
+      <c r="BU42" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="BV42" s="44"/>
-      <c r="BW42" s="44" t="s">
+      <c r="BV42" s="51"/>
+      <c r="BW42" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="BX42" s="44"/>
-      <c r="BY42" s="44" t="s">
+      <c r="BX42" s="51"/>
+      <c r="BY42" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="BZ42" s="44"/>
-      <c r="CA42" s="44" t="s">
+      <c r="BZ42" s="51"/>
+      <c r="CA42" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="CB42" s="44"/>
-      <c r="CC42" s="44" t="s">
+      <c r="CB42" s="51"/>
+      <c r="CC42" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="CD42" s="44"/>
+      <c r="CD42" s="51"/>
       <c r="CE42" s="41" t="s">
         <v>121</v>
       </c>
@@ -10332,71 +10524,71 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="49" t="s">
+      <c r="K46" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="49"/>
-      <c r="M46" s="49"/>
-      <c r="N46" s="49"/>
-      <c r="O46" s="49"/>
-      <c r="P46" s="49"/>
-      <c r="Q46" s="49"/>
-      <c r="R46" s="49"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="49"/>
-      <c r="U46" s="49"/>
-      <c r="V46" s="49"/>
-      <c r="W46" s="49"/>
-      <c r="X46" s="49"/>
-      <c r="Y46" s="49"/>
-      <c r="Z46" s="49"/>
-      <c r="AA46" s="49"/>
-      <c r="AB46" s="49"/>
-      <c r="AC46" s="49"/>
-      <c r="AD46" s="49"/>
-      <c r="AE46" s="49" t="s">
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="49"/>
-      <c r="AG46" s="49"/>
-      <c r="AH46" s="49"/>
-      <c r="AI46" s="49"/>
-      <c r="AJ46" s="49"/>
-      <c r="AK46" s="49"/>
-      <c r="AL46" s="49"/>
-      <c r="AM46" s="49"/>
-      <c r="AN46" s="49"/>
-      <c r="AO46" s="44" t="s">
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="55"/>
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
+      <c r="AO46" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="44"/>
-      <c r="AQ46" s="44" t="s">
+      <c r="AP46" s="51"/>
+      <c r="AQ46" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="44"/>
-      <c r="AS46" s="44" t="s">
+      <c r="AR46" s="51"/>
+      <c r="AS46" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="44"/>
-      <c r="AU46" s="44" t="s">
+      <c r="AT46" s="51"/>
+      <c r="AU46" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="44"/>
-      <c r="AW46" s="46" t="s">
+      <c r="AV46" s="51"/>
+      <c r="AW46" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="47"/>
-      <c r="AY46" s="47"/>
-      <c r="AZ46" s="47"/>
-      <c r="BA46" s="47"/>
-      <c r="BB46" s="47"/>
-      <c r="BC46" s="47"/>
-      <c r="BD46" s="47"/>
-      <c r="BE46" s="48"/>
-      <c r="BF46" s="44" t="s">
+      <c r="AX46" s="53"/>
+      <c r="AY46" s="53"/>
+      <c r="AZ46" s="53"/>
+      <c r="BA46" s="53"/>
+      <c r="BB46" s="53"/>
+      <c r="BC46" s="53"/>
+      <c r="BD46" s="53"/>
+      <c r="BE46" s="54"/>
+      <c r="BF46" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="44"/>
+      <c r="BG46" s="51"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -13958,74 +14150,20 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BK42:BL42"/>
-    <mergeCell ref="BM42:BN42"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="BK36:BL36"/>
-    <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BY36:BZ36"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BK33:BL33"/>
-    <mergeCell ref="BM33:BN33"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BK34:BL34"/>
-    <mergeCell ref="BM34:BN34"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BI42:BJ42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="BI36:BJ36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="BI33:BJ33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O36:P36"/>
@@ -14047,20 +14185,74 @@
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="BI33:BJ33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="BI42:BJ42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BI36:BJ36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="BK33:BL33"/>
+    <mergeCell ref="BM33:BN33"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BK34:BL34"/>
+    <mergeCell ref="BM34:BN34"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BK42:BL42"/>
+    <mergeCell ref="BM42:BN42"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="BK36:BL36"/>
+    <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BY36:BZ36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14072,8 +14264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G2:AH27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AM25" sqref="AM25"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -14126,28 +14318,28 @@
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="51"/>
-      <c r="T6" s="51"/>
-      <c r="U6" s="52"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="44"/>
     </row>
     <row r="7" spans="9:25">
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" s="51"/>
-      <c r="O7" s="51"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="50"/>
-      <c r="R7" s="50"/>
-      <c r="S7" s="51"/>
-      <c r="T7" s="51"/>
-      <c r="U7" s="52"/>
-      <c r="Y7" s="50" t="s">
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="44"/>
+      <c r="Y7" s="42" t="s">
         <v>128</v>
       </c>
     </row>
@@ -14155,15 +14347,15 @@
       <c r="M8">
         <v>2</v>
       </c>
-      <c r="N8" s="51"/>
-      <c r="O8" s="51"/>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="51"/>
-      <c r="S8" s="51"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="52"/>
-      <c r="Y8" s="52" t="s">
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="44"/>
+      <c r="Y8" s="44" t="s">
         <v>129</v>
       </c>
     </row>
@@ -14171,15 +14363,15 @@
       <c r="M9">
         <v>3</v>
       </c>
-      <c r="N9" s="51"/>
-      <c r="O9" s="51"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="52"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="51"/>
-      <c r="U9" s="52"/>
-      <c r="Y9" s="53" t="s">
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="44"/>
+      <c r="Y9" s="45" t="s">
         <v>130</v>
       </c>
     </row>
@@ -14187,15 +14379,15 @@
       <c r="M10">
         <v>4</v>
       </c>
-      <c r="N10" s="51"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="51"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="52"/>
-      <c r="Y10" s="51" t="s">
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="44"/>
+      <c r="Y10" s="43" t="s">
         <v>131</v>
       </c>
     </row>
@@ -14203,46 +14395,46 @@
       <c r="M11">
         <v>5</v>
       </c>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="51"/>
-      <c r="T11" s="51"/>
-      <c r="U11" s="52"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
     </row>
     <row r="12" spans="9:25">
       <c r="M12">
         <v>6</v>
       </c>
-      <c r="N12" s="51"/>
-      <c r="O12" s="51"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="50"/>
-      <c r="R12" s="50"/>
-      <c r="S12" s="51"/>
-      <c r="T12" s="51"/>
-      <c r="U12" s="52"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="44"/>
     </row>
     <row r="13" spans="9:25">
       <c r="M13">
         <v>7</v>
       </c>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="50"/>
-      <c r="R13" s="50"/>
-      <c r="S13" s="52"/>
-      <c r="T13" s="52"/>
-      <c r="U13" s="52"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
     </row>
     <row r="18" spans="7:34">
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="Y18" s="54" t="s">
+      <c r="Y18" s="46" t="s">
         <v>138</v>
       </c>
     </row>
@@ -14300,29 +14492,29 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="52"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="50"/>
-      <c r="L20" s="50"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
       <c r="P20" t="s">
         <v>132</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20" s="53"/>
-      <c r="AA20" s="53"/>
-      <c r="AB20" s="50"/>
-      <c r="AC20" s="50"/>
-      <c r="AD20" s="50"/>
-      <c r="AE20" s="53"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="50"/>
-      <c r="AH20" s="55" t="s">
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="47" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14330,29 +14522,29 @@
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="50"/>
-      <c r="L21" s="50"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
       <c r="P21" t="s">
         <v>132</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
-      <c r="Z21" s="53"/>
-      <c r="AA21" s="53"/>
-      <c r="AB21" s="50"/>
-      <c r="AC21" s="50"/>
-      <c r="AD21" s="50"/>
-      <c r="AE21" s="53"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="50"/>
-      <c r="AH21" s="55" t="s">
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="47" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14360,29 +14552,29 @@
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
       <c r="P22" t="s">
         <v>133</v>
       </c>
       <c r="Y22">
         <v>2</v>
       </c>
-      <c r="Z22" s="53"/>
-      <c r="AA22" s="53"/>
-      <c r="AB22" s="53"/>
-      <c r="AC22" s="50"/>
-      <c r="AD22" s="53"/>
-      <c r="AE22" s="53"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="50"/>
-      <c r="AH22" s="55" t="s">
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="47" t="s">
         <v>140</v>
       </c>
     </row>
@@ -14390,29 +14582,29 @@
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="52"/>
-      <c r="J23" s="52"/>
-      <c r="K23" s="52"/>
-      <c r="L23" s="52"/>
-      <c r="M23" s="52"/>
-      <c r="N23" s="52"/>
-      <c r="O23" s="52"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
       <c r="P23" t="s">
         <v>133</v>
       </c>
       <c r="Y23">
         <v>3</v>
       </c>
-      <c r="Z23" s="53"/>
-      <c r="AA23" s="53"/>
-      <c r="AB23" s="50"/>
-      <c r="AC23" s="53"/>
-      <c r="AD23" s="50"/>
-      <c r="AE23" s="53"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="50"/>
-      <c r="AH23" s="55" t="s">
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="47" t="s">
         <v>141</v>
       </c>
     </row>
@@ -14420,29 +14612,29 @@
       <c r="G24">
         <v>4</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="52"/>
-      <c r="J24" s="52"/>
-      <c r="K24" s="52"/>
-      <c r="L24" s="52"/>
-      <c r="M24" s="52"/>
-      <c r="N24" s="52"/>
-      <c r="O24" s="52"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
       <c r="P24" t="s">
         <v>133</v>
       </c>
       <c r="Y24">
         <v>4</v>
       </c>
-      <c r="Z24" s="53"/>
-      <c r="AA24" s="53"/>
-      <c r="AB24" s="50"/>
-      <c r="AC24" s="50"/>
-      <c r="AD24" s="50"/>
-      <c r="AE24" s="53"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="50"/>
-      <c r="AH24" s="55" t="s">
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="47" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14450,29 +14642,29 @@
       <c r="G25">
         <v>5</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="52"/>
-      <c r="K25" s="50"/>
-      <c r="L25" s="50"/>
-      <c r="M25" s="52"/>
-      <c r="N25" s="52"/>
-      <c r="O25" s="52"/>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
       <c r="P25" t="s">
         <v>132</v>
       </c>
       <c r="Y25">
         <v>5</v>
       </c>
-      <c r="Z25" s="53"/>
-      <c r="AA25" s="53"/>
-      <c r="AB25" s="50"/>
-      <c r="AC25" s="50"/>
-      <c r="AD25" s="50"/>
-      <c r="AE25" s="53"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="50"/>
-      <c r="AH25" s="55" t="s">
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="47" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14480,29 +14672,29 @@
       <c r="G26">
         <v>6</v>
       </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="52"/>
-      <c r="J26" s="52"/>
-      <c r="K26" s="50"/>
-      <c r="L26" s="50"/>
-      <c r="M26" s="52"/>
-      <c r="N26" s="52"/>
-      <c r="O26" s="52"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
       <c r="P26" t="s">
         <v>132</v>
       </c>
       <c r="Y26">
         <v>6</v>
       </c>
-      <c r="Z26" s="53"/>
-      <c r="AA26" s="53"/>
-      <c r="AB26" s="50"/>
-      <c r="AC26" s="50"/>
-      <c r="AD26" s="50"/>
-      <c r="AE26" s="53"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="50"/>
-      <c r="AH26" s="55" t="s">
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="47" t="s">
         <v>139</v>
       </c>
     </row>
@@ -14510,30 +14702,57 @@
       <c r="G27">
         <v>7</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="50"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="52"/>
-      <c r="O27" s="52"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
       <c r="P27" t="s">
         <v>132</v>
       </c>
       <c r="Y27">
         <v>7</v>
       </c>
-      <c r="Z27" s="50"/>
-      <c r="AA27" s="50"/>
-      <c r="AB27" s="50"/>
-      <c r="AC27" s="50"/>
-      <c r="AD27" s="50"/>
-      <c r="AE27" s="50"/>
-      <c r="AF27" s="50"/>
-      <c r="AG27" s="50"/>
-      <c r="AH27" s="56" t="s">
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="48" t="s">
         <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:B50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="T71" sqref="T71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="154">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -505,6 +505,46 @@
   </si>
   <si>
     <t>sprite pattern read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@0x04f0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@0x04f8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on y=6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>on y=7</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1031,6 +1071,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1041,9 +1084,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4057,6 +4097,147 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2050" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="638175" y="16773525"/>
+          <a:ext cx="12868275" cy="7715250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2053" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13716000" y="16802100"/>
+          <a:ext cx="12868275" cy="7715250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2054" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13716000" y="24860250"/>
+          <a:ext cx="12868275" cy="7715250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4896,6 +5077,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -4904,12 +5091,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9920,62 +10101,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="56" t="s">
+      <c r="K36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56" t="s">
+      <c r="L36" s="52"/>
+      <c r="M36" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56" t="s">
+      <c r="N36" s="52"/>
+      <c r="O36" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56" t="s">
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56" t="s">
+      <c r="R36" s="52"/>
+      <c r="S36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56" t="s">
+      <c r="T36" s="52"/>
+      <c r="U36" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56" t="s">
+      <c r="V36" s="52"/>
+      <c r="W36" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56" t="s">
+      <c r="X36" s="52"/>
+      <c r="Y36" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56" t="s">
+      <c r="Z36" s="52"/>
+      <c r="AA36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="56"/>
+      <c r="AB36" s="52"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="56" t="s">
+      <c r="AG36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56" t="s">
+      <c r="AH36" s="52"/>
+      <c r="AI36" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56" t="s">
+      <c r="AJ36" s="52"/>
+      <c r="AK36" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56" t="s">
+      <c r="AL36" s="52"/>
+      <c r="AM36" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="56"/>
+      <c r="AN36" s="52"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -10524,40 +10705,40 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="55" t="s">
+      <c r="K46" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
-      <c r="AC46" s="55"/>
-      <c r="AD46" s="55"/>
-      <c r="AE46" s="55" t="s">
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="56"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="55"/>
-      <c r="AG46" s="55"/>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="55"/>
-      <c r="AJ46" s="55"/>
-      <c r="AK46" s="55"/>
-      <c r="AL46" s="55"/>
-      <c r="AM46" s="55"/>
-      <c r="AN46" s="55"/>
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="56"/>
       <c r="AO46" s="51" t="s">
         <v>111</v>
       </c>
@@ -10574,17 +10755,17 @@
         <v>118</v>
       </c>
       <c r="AV46" s="51"/>
-      <c r="AW46" s="52" t="s">
+      <c r="AW46" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="53"/>
-      <c r="AY46" s="53"/>
-      <c r="AZ46" s="53"/>
-      <c r="BA46" s="53"/>
-      <c r="BB46" s="53"/>
-      <c r="BC46" s="53"/>
-      <c r="BD46" s="53"/>
-      <c r="BE46" s="54"/>
+      <c r="AX46" s="54"/>
+      <c r="AY46" s="54"/>
+      <c r="AZ46" s="54"/>
+      <c r="BA46" s="54"/>
+      <c r="BB46" s="54"/>
+      <c r="BC46" s="54"/>
+      <c r="BD46" s="54"/>
+      <c r="BE46" s="55"/>
       <c r="BF46" s="51" t="s">
         <v>118</v>
       </c>
@@ -14150,20 +14331,74 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="BI33:BJ33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BK42:BL42"/>
+    <mergeCell ref="BM42:BN42"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="BK36:BL36"/>
+    <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="BK33:BL33"/>
+    <mergeCell ref="BM33:BN33"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BK34:BL34"/>
+    <mergeCell ref="BM34:BN34"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BI42:BJ42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BI36:BJ36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O36:P36"/>
@@ -14185,74 +14420,20 @@
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="BI42:BJ42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="BI36:BJ36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BK33:BL33"/>
-    <mergeCell ref="BM33:BN33"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BK34:BL34"/>
-    <mergeCell ref="BM34:BN34"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BK42:BL42"/>
-    <mergeCell ref="BM42:BN42"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="BK36:BL36"/>
-    <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="BI33:BJ33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14262,10 +14443,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G2:AH27"/>
+  <dimension ref="G2:AW27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P21" sqref="P21"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -14275,17 +14456,17 @@
     <col min="34" max="34" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="9:25">
+    <row r="2" spans="9:49">
       <c r="I2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="9:25">
+    <row r="3" spans="9:49">
       <c r="I3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="9:25">
+    <row r="5" spans="9:49">
       <c r="N5">
         <v>7</v>
       </c>
@@ -14310,8 +14491,32 @@
       <c r="U5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="9:25">
+      <c r="AP5">
+        <v>7</v>
+      </c>
+      <c r="AQ5">
+        <v>6</v>
+      </c>
+      <c r="AR5">
+        <v>5</v>
+      </c>
+      <c r="AS5">
+        <v>4</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <v>2</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="9:49">
       <c r="I6" t="s">
         <v>134</v>
       </c>
@@ -14326,8 +14531,19 @@
       <c r="S6" s="43"/>
       <c r="T6" s="43"/>
       <c r="U6" s="44"/>
-    </row>
-    <row r="7" spans="9:25">
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="43"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="42"/>
+    </row>
+    <row r="7" spans="9:49">
       <c r="M7">
         <v>1</v>
       </c>
@@ -14342,8 +14558,19 @@
       <c r="Y7" s="42" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="9:25">
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="44"/>
+    </row>
+    <row r="8" spans="9:49">
       <c r="M8">
         <v>2</v>
       </c>
@@ -14358,8 +14585,19 @@
       <c r="Y8" s="44" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="9:25">
+      <c r="AO8">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="43"/>
+      <c r="AW8" s="44"/>
+    </row>
+    <row r="9" spans="9:49">
       <c r="M9">
         <v>3</v>
       </c>
@@ -14374,8 +14612,19 @@
       <c r="Y9" s="45" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="9:25">
+      <c r="AO9">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="44"/>
+    </row>
+    <row r="10" spans="9:49">
       <c r="M10">
         <v>4</v>
       </c>
@@ -14390,8 +14639,19 @@
       <c r="Y10" s="43" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="9:25">
+      <c r="AO10">
+        <v>4</v>
+      </c>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="44"/>
+    </row>
+    <row r="11" spans="9:49">
       <c r="M11">
         <v>5</v>
       </c>
@@ -14403,8 +14663,19 @@
       <c r="S11" s="43"/>
       <c r="T11" s="43"/>
       <c r="U11" s="44"/>
-    </row>
-    <row r="12" spans="9:25">
+      <c r="AO11">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="44"/>
+    </row>
+    <row r="12" spans="9:49">
       <c r="M12">
         <v>6</v>
       </c>
@@ -14416,8 +14687,19 @@
       <c r="S12" s="43"/>
       <c r="T12" s="43"/>
       <c r="U12" s="44"/>
-    </row>
-    <row r="13" spans="9:25">
+      <c r="AO12">
+        <v>6</v>
+      </c>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+    </row>
+    <row r="13" spans="9:49">
       <c r="M13">
         <v>7</v>
       </c>
@@ -14429,16 +14711,33 @@
       <c r="S13" s="44"/>
       <c r="T13" s="44"/>
       <c r="U13" s="44"/>
-    </row>
-    <row r="18" spans="7:34">
+      <c r="AO13">
+        <v>7</v>
+      </c>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="42"/>
+    </row>
+    <row r="18" spans="7:46">
       <c r="G18" s="46" t="s">
         <v>137</v>
       </c>
       <c r="Y18" s="46" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="19" spans="7:34">
+      <c r="AO18" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS18" s="46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="7:46">
       <c r="H19">
         <v>7</v>
       </c>
@@ -14488,7 +14787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:34">
+    <row r="20" spans="7:46">
       <c r="G20">
         <v>0</v>
       </c>
@@ -14517,8 +14816,17 @@
       <c r="AH20" s="47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="21" spans="7:34">
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="7:46">
       <c r="G21">
         <v>1</v>
       </c>
@@ -14547,8 +14855,17 @@
       <c r="AH21" s="47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="22" spans="7:34">
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="7:46">
       <c r="G22">
         <v>2</v>
       </c>
@@ -14577,8 +14894,17 @@
       <c r="AH22" s="47" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="23" spans="7:34">
+      <c r="AO22">
+        <v>2</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="7:46">
       <c r="G23">
         <v>3</v>
       </c>
@@ -14607,8 +14933,17 @@
       <c r="AH23" s="47" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="7:34">
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="7:46">
       <c r="G24">
         <v>4</v>
       </c>
@@ -14637,8 +14972,17 @@
       <c r="AH24" s="47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="25" spans="7:34">
+      <c r="AO24">
+        <v>4</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="7:46">
       <c r="G25">
         <v>5</v>
       </c>
@@ -14667,8 +15011,17 @@
       <c r="AH25" s="47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="7:34">
+      <c r="AO25">
+        <v>5</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="7:46">
       <c r="G26">
         <v>6</v>
       </c>
@@ -14697,8 +15050,17 @@
       <c r="AH26" s="47" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="7:34">
+      <c r="AO26">
+        <v>6</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="7:46">
       <c r="G27">
         <v>7</v>
       </c>
@@ -14727,6 +15089,16 @@
       <c r="AH27" s="48" t="s">
         <v>128</v>
       </c>
+      <c r="AO27">
+        <v>7</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS27" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT27" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14737,10 +15109,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:B50"/>
+  <dimension ref="B1:B146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="T71" sqref="T71"/>
+    <sheetView tabSelected="1" topLeftCell="Q115" workbookViewId="0">
+      <selection activeCell="U146" sqref="U146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14755,6 +15127,16 @@
         <v>143</v>
       </c>
     </row>
+    <row r="96" spans="2:2">
+      <c r="B96" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" t="s">
+        <v>153</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -540,11 +540,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>on y=6</t>
+    <t>ale=1 &gt;&gt; latch</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>on y=7</t>
+    <t>ale=0 &gt;&gt; read/write</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1071,9 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1084,6 +1081,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3620,20 +3620,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPr id="7" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3647,8 +3647,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="419100" y="6619875"/>
-          <a:ext cx="12801600" cy="7010400"/>
+          <a:off x="704850" y="8753475"/>
+          <a:ext cx="12868275" cy="7715250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3975,16 +3975,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>376444</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624094</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3993,7 +3993,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7496175" y="12277725"/>
+          <a:off x="4314825" y="14801850"/>
           <a:ext cx="1109869" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -4035,16 +4035,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
       <xdr:row>87</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>500269</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100219</xdr:colOff>
       <xdr:row>89</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4053,7 +4053,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8991600" y="12887325"/>
+          <a:off x="5848350" y="14916150"/>
           <a:ext cx="1109869" cy="380999"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
@@ -4095,147 +4095,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2050" name="Picture 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="638175" y="16773525"/>
-          <a:ext cx="12868275" cy="7715250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2053" name="Picture 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13716000" y="16802100"/>
-          <a:ext cx="12868275" cy="7715250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>145</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>190</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2054" name="Picture 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13716000" y="24860250"/>
-          <a:ext cx="12868275" cy="7715250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5077,12 +4936,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -5091,6 +4944,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10101,62 +9960,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="52" t="s">
+      <c r="K36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52" t="s">
+      <c r="L36" s="56"/>
+      <c r="M36" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52" t="s">
+      <c r="N36" s="56"/>
+      <c r="O36" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52" t="s">
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="52"/>
-      <c r="S36" s="52" t="s">
+      <c r="R36" s="56"/>
+      <c r="S36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="52"/>
-      <c r="U36" s="52" t="s">
+      <c r="T36" s="56"/>
+      <c r="U36" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="52"/>
-      <c r="W36" s="52" t="s">
+      <c r="V36" s="56"/>
+      <c r="W36" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="52"/>
-      <c r="Y36" s="52" t="s">
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="52"/>
-      <c r="AA36" s="52" t="s">
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="52"/>
+      <c r="AB36" s="56"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="52" t="s">
+      <c r="AG36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="52"/>
-      <c r="AI36" s="52" t="s">
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="52"/>
-      <c r="AK36" s="52" t="s">
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="52"/>
-      <c r="AM36" s="52" t="s">
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="52"/>
+      <c r="AN36" s="56"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -10705,40 +10564,40 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="56" t="s">
+      <c r="K46" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56" t="s">
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="55" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="56"/>
-      <c r="AM46" s="56"/>
-      <c r="AN46" s="56"/>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="55"/>
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
       <c r="AO46" s="51" t="s">
         <v>111</v>
       </c>
@@ -10755,17 +10614,17 @@
         <v>118</v>
       </c>
       <c r="AV46" s="51"/>
-      <c r="AW46" s="53" t="s">
+      <c r="AW46" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="54"/>
-      <c r="AY46" s="54"/>
-      <c r="AZ46" s="54"/>
-      <c r="BA46" s="54"/>
-      <c r="BB46" s="54"/>
-      <c r="BC46" s="54"/>
-      <c r="BD46" s="54"/>
-      <c r="BE46" s="55"/>
+      <c r="AX46" s="53"/>
+      <c r="AY46" s="53"/>
+      <c r="AZ46" s="53"/>
+      <c r="BA46" s="53"/>
+      <c r="BB46" s="53"/>
+      <c r="BC46" s="53"/>
+      <c r="BD46" s="53"/>
+      <c r="BE46" s="54"/>
       <c r="BF46" s="51" t="s">
         <v>118</v>
       </c>
@@ -14331,74 +14190,20 @@
     </row>
   </sheetData>
   <mergeCells count="103">
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BK42:BL42"/>
-    <mergeCell ref="BM42:BN42"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="BK36:BL36"/>
-    <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BY36:BZ36"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BK33:BL33"/>
-    <mergeCell ref="BM33:BN33"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BK34:BL34"/>
-    <mergeCell ref="BM34:BN34"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BI42:BJ42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="BI36:BJ36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="BI33:BJ33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="M36:N36"/>
     <mergeCell ref="O36:P36"/>
@@ -14420,20 +14225,74 @@
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="BI33:BJ33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="BI42:BJ42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BI36:BJ36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="BK33:BL33"/>
+    <mergeCell ref="BM33:BN33"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BK34:BL34"/>
+    <mergeCell ref="BM34:BN34"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BK42:BL42"/>
+    <mergeCell ref="BM42:BN42"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="BK36:BL36"/>
+    <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BY36:BZ36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14446,7 +14305,7 @@
   <dimension ref="G2:AW27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y25" sqref="Y25"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -15109,10 +14968,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:B146"/>
+  <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q115" workbookViewId="0">
-      <selection activeCell="U146" sqref="U146"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U83" sqref="U83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -15122,19 +14981,19 @@
         <v>142</v>
       </c>
     </row>
+    <row r="45" spans="6:6">
+      <c r="F45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
+        <v>153</v>
+      </c>
+    </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="146" spans="2:2">
-      <c r="B146" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,28 +4,27 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="22635" windowHeight="11655" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
     <sheet name="io port" sheetId="2" r:id="rId2"/>
     <sheet name="display" sheetId="3" r:id="rId3"/>
+    <sheet name="motones vga" sheetId="4" r:id="rId4"/>
+    <sheet name="pattern fetch" sheetId="5" r:id="rId5"/>
+    <sheet name="vram access" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="154">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>do nothing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>generate v_sync, h_sync</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -362,6 +361,190 @@
   </si>
   <si>
     <t>h mirror</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Original NES timing</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0,0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vga</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nes</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LBG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HBG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S-OAM clear</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite evaluation for next line</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HSP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>…………………………</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0 - 239, 262</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HGB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>un used NT fetches.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>constant HSCAN        : integer := 256;</t>
+  </si>
+  <si>
+    <t>constant HSCAN_NEXT_START    : integer := 377;</t>
+  </si>
+  <si>
+    <t>constant VSCAN_NEXT_START    : integer := 262;</t>
+  </si>
+  <si>
+    <t>constant HSCAN_OAM_EVA_START       : integer := 64;</t>
+  </si>
+  <si>
+    <t>constant HSCAN_SPR_MAX       : integer := 321;</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>01</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M=4D in ascii</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0x04d0 (=4d * 16) in chr rom</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@ 0x04d0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@ 0x04d8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name table write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite pattern read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@0x04f0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@0x04f8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ale=1 &gt;&gt; latch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ale=0 &gt;&gt; read/write</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -412,7 +595,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -425,8 +608,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -642,13 +867,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -724,17 +990,101 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1088,119 +1438,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ppu render</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5962650" y="1714500"/>
-          <a:ext cx="1581150" cy="857249"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>vga ctl</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6115050" y="2057401"/>
-          <a:ext cx="1219200" cy="342899"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>vga render</a:t>
+            <a:t>vga_ppu_render</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1277,100 +1515,6 @@
         <a:xfrm flipV="1">
           <a:off x="6496050" y="1285875"/>
           <a:ext cx="1885950" cy="171451"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線矢印コネクタ 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6286500" y="1628775"/>
-          <a:ext cx="2095500" cy="257177"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="arrow"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="17" name="直線矢印コネクタ 16"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6076950" y="2057401"/>
-          <a:ext cx="2305050" cy="171450"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2967,6 +3111,995 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>49825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1" descr="Ntsc_timing.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect b="35473"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="781050"/>
+          <a:ext cx="15973425" cy="4240825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="10572750"/>
+          <a:ext cx="2133600" cy="1438275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>VGA</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12315825" y="9458325"/>
+          <a:ext cx="2133600" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>NES</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="15649575"/>
+          <a:ext cx="5715000" cy="4305300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="CCCCFF">
+            <a:alpha val="30196"/>
+          </a:srgbClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4648200" y="10572750"/>
+          <a:ext cx="2133600" cy="1447800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="7200"/>
+            <a:t>VGA</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="7200"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>201082</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26561</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="右中かっこ 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="18369440" y="6849585"/>
+          <a:ext cx="195894" cy="1440391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69079"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>26559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右中かっこ 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8236429" y="6633155"/>
+          <a:ext cx="195892" cy="1873250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69079"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="下矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3419475" y="2438400"/>
+          <a:ext cx="228600" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23813</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>156024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="十字形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3738563" y="3649266"/>
+          <a:ext cx="654843" cy="650133"/>
+        </a:xfrm>
+        <a:prstGeom prst="plus">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 38565"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="704850" y="8753475"/>
+          <a:ext cx="12868275" cy="7715250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="742950" y="371475"/>
+          <a:ext cx="12801600" cy="7010400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>382244</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>163582</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>120513</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>24436</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形吹き出し 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5868644" y="4792732"/>
+          <a:ext cx="1109869" cy="546654"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -119922"/>
+            <a:gd name="adj2" fmla="val 28576"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>addr latch for next</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> write</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>302730</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>136664</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>509795</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="角丸四角形吹き出し 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4417530" y="6308864"/>
+          <a:ext cx="1578665" cy="577711"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -51634"/>
+            <a:gd name="adj2" fmla="val -120082"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>data 45 is written @ 203B</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>551622</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>33959</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>29817</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>6625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="角丸四角形吹き出し 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7409622" y="5691809"/>
+          <a:ext cx="2221395" cy="829916"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -44937"/>
+            <a:gd name="adj2" fmla="val -20084"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    --transparent d-latch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    --ale=1 &gt;&gt; addr latch</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>    --ale=0 &gt;&gt; addr output.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>8698</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>320538</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>46797</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形吹き出し 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1952626" y="5666548"/>
+          <a:ext cx="1796912" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 40930"/>
+            <a:gd name="adj2" fmla="val -455448"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>addr is already latched</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>624094</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形吹き出し 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4314825" y="14801850"/>
+          <a:ext cx="1109869" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 54332"/>
+            <a:gd name="adj2" fmla="val -180447"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>addr is latched</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>100219</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="角丸四角形吹き出し 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848350" y="14916150"/>
+          <a:ext cx="1109869" cy="380999"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -41787"/>
+            <a:gd name="adj2" fmla="val -222947"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>data</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> read</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -3252,10 +4385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="AO6:AO13"/>
+  <dimension ref="AO6:AO11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
@@ -3270,19 +4403,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="41:41">
-      <c r="AO10" t="s">
+    <row r="9" spans="41:41">
+      <c r="AO9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="41:41">
       <c r="AO11" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="41:41">
-      <c r="AO13" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3307,504 +4435,504 @@
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="14.25" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="4" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="14.25">
+      <c r="A8" s="49" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="25" t="s">
+      <c r="B8" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="15" thickBot="1">
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="6" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="6" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="C11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" thickBot="1">
       <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="C12" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="4" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="14.25">
+      <c r="A13" s="49" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="25" t="s">
+      <c r="B13" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15" thickBot="1">
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="6" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="6" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15" thickBot="1">
       <c r="A15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="14.25" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15" thickBot="1">
       <c r="A17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="C17" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15" thickBot="1">
       <c r="A19" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15" thickBot="1">
       <c r="A20" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15" thickBot="1">
       <c r="A21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15" thickBot="1">
       <c r="A22" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" thickBot="1">
       <c r="A23" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15" thickBot="1">
       <c r="A24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="C24" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15" thickBot="1">
       <c r="A25" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15" thickBot="1">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" thickBot="1">
       <c r="A27" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15" thickBot="1">
       <c r="A28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="4" t="s">
+    </row>
+    <row r="29" spans="1:3" ht="14.25">
+      <c r="A29" s="49" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="5" t="s">
+    </row>
+    <row r="30" spans="1:3" ht="15" thickBot="1">
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="6" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15" thickBot="1">
       <c r="A31" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="4" t="s">
         <v>52</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15" thickBot="1">
       <c r="A32" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="4" t="s">
+    </row>
+    <row r="33" spans="1:3" ht="14.25">
+      <c r="A33" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="B33" s="49" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B33" s="25" t="s">
+      <c r="C33" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C33" s="5" t="s">
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1">
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="6" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15" thickBot="1">
       <c r="A35" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>59</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="C35" s="4"/>
     </row>
     <row r="36" spans="1:3" ht="15" thickBot="1">
       <c r="A36" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15" thickBot="1">
       <c r="A38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="C38" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15" thickBot="1">
       <c r="A39" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="C39" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="15" thickBot="1">
       <c r="A40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" thickBot="1">
       <c r="A41" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="15" thickBot="1">
       <c r="A42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C42" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" thickBot="1">
       <c r="A43" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15" thickBot="1">
       <c r="A44" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="26.25" thickBot="1">
       <c r="A45" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15" thickBot="1">
       <c r="A46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="25" t="s">
-        <v>63</v>
+      <c r="A47" s="49" t="s">
+        <v>62</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15" thickBot="1">
+      <c r="A48" s="50"/>
+      <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C47" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="26"/>
-      <c r="B48" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C48" s="26"/>
+      <c r="C48" s="50"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="26.25" thickBot="1">
       <c r="A50" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15" thickBot="1">
       <c r="A51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C51" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="25" t="s">
-        <v>63</v>
+      <c r="A52" s="49" t="s">
+        <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15" thickBot="1">
+      <c r="A53" s="50"/>
+      <c r="B53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C52" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="26"/>
-      <c r="B53" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C53" s="26"/>
+      <c r="C53" s="50"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="14.25" thickBot="1">
       <c r="A55" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="15" thickBot="1">
       <c r="A56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="4" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="25" t="s">
-        <v>63</v>
+      <c r="A57" s="49" t="s">
+        <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C57" s="49" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15" thickBot="1">
+      <c r="A58" s="50"/>
+      <c r="B58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C57" s="25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="26"/>
-      <c r="B58" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" s="26"/>
+      <c r="C58" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -3833,8 +4961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C3:BX117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X74" workbookViewId="0">
-      <selection activeCell="AV85" sqref="AV85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
@@ -3856,7 +4984,7 @@
   <sheetData>
     <row r="3" spans="4:48">
       <c r="E3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="4:48" ht="14.25" thickBot="1">
@@ -3953,7 +5081,7 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="20"/>
       <c r="AL7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="4:48" ht="14.25" thickBot="1">
@@ -4106,7 +5234,7 @@
       <c r="AK11" s="12"/>
       <c r="AL11" s="12"/>
       <c r="AM11" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AN11" s="12"/>
       <c r="AO11" s="12"/>
@@ -4603,7 +5731,7 @@
       <c r="AC23" s="12"/>
       <c r="AD23" s="20"/>
       <c r="AL23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="3:48">
@@ -4635,7 +5763,7 @@
       <c r="AC24" s="12"/>
       <c r="AD24" s="20"/>
       <c r="AL24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="3:48">
@@ -4667,7 +5795,7 @@
       <c r="AC25" s="12"/>
       <c r="AD25" s="20"/>
       <c r="AL25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="3:48">
@@ -4702,7 +5830,7 @@
       <c r="AC26" s="12"/>
       <c r="AD26" s="20"/>
       <c r="AL26" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="3:48">
@@ -4794,12 +5922,12 @@
     </row>
     <row r="35" spans="3:49">
       <c r="C35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="3:49">
       <c r="AD37" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="3:49" ht="14.25" thickBot="1"/>
@@ -4852,7 +5980,7 @@
     <row r="40" spans="3:49">
       <c r="E40" s="11"/>
       <c r="F40" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G40" s="12"/>
       <c r="H40" s="12"/>
@@ -4874,7 +6002,7 @@
       <c r="X40" s="13"/>
       <c r="AD40" s="11"/>
       <c r="AE40" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF40" s="12"/>
       <c r="AG40" s="12"/>
@@ -5203,7 +6331,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="10"/>
       <c r="O48" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="P48" s="9"/>
       <c r="Q48" s="9"/>
@@ -5573,7 +6701,7 @@
     </row>
     <row r="59" spans="5:49">
       <c r="AD59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="60" spans="5:49" ht="14.25" thickBot="1"/>
@@ -5602,7 +6730,7 @@
     <row r="62" spans="5:49">
       <c r="AD62" s="11"/>
       <c r="AE62" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF62" s="12"/>
       <c r="AG62" s="12"/>
@@ -5977,18 +7105,18 @@
     </row>
     <row r="81" spans="6:76">
       <c r="G81" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="6:76">
       <c r="S82" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="X82">
         <v>2443</v>
       </c>
       <c r="AS82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="6:76" ht="14.25" thickBot="1">
@@ -6077,7 +7205,7 @@
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K85" s="12"/>
       <c r="L85" s="12"/>
@@ -6088,7 +7216,7 @@
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
       <c r="S85" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="T85" s="12"/>
       <c r="U85" s="12"/>
@@ -6117,7 +7245,7 @@
       <c r="AT85" s="12"/>
       <c r="AU85" s="12"/>
       <c r="AV85" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AW85" s="12"/>
       <c r="AX85" s="12"/>
@@ -6128,7 +7256,7 @@
       <c r="BC85" s="12"/>
       <c r="BD85" s="12"/>
       <c r="BE85" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="BF85" s="12"/>
       <c r="BG85" s="12"/>
@@ -6175,7 +7303,7 @@
         <v>2440</v>
       </c>
       <c r="X86" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y86" s="12"/>
       <c r="Z86" s="12"/>
@@ -6213,7 +7341,7 @@
         <v>2440</v>
       </c>
       <c r="BJ86" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="BK86" s="12"/>
       <c r="BL86" s="12"/>
@@ -6648,11 +7776,11 @@
       <c r="V93" s="13"/>
       <c r="W93" s="11"/>
       <c r="X93" s="12"/>
-      <c r="Y93" s="27" t="s">
+      <c r="Y93" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z93" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="Z93" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="AA93" s="12"/>
       <c r="AB93" s="12"/>
@@ -7179,11 +8307,11 @@
       <c r="U101" s="9"/>
       <c r="V101" s="10"/>
       <c r="W101" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="X101" s="9"/>
       <c r="Y101" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="Z101" s="9"/>
       <c r="AA101" s="9"/>
@@ -7217,11 +8345,11 @@
       <c r="BG101" s="9"/>
       <c r="BH101" s="10"/>
       <c r="BI101" s="8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BJ101" s="9"/>
       <c r="BK101" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="BL101" s="9"/>
       <c r="BM101" s="9"/>
@@ -7469,7 +8597,7 @@
       <c r="AK105" s="12"/>
       <c r="AL105" s="13"/>
       <c r="AO105" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="AS105" s="11"/>
       <c r="AT105" s="12"/>
@@ -7524,7 +8652,7 @@
       <c r="W106" s="11"/>
       <c r="X106" s="12"/>
       <c r="Y106" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="Z106" s="12"/>
       <c r="AA106" s="12"/>
@@ -7540,7 +8668,7 @@
       <c r="AK106" s="12"/>
       <c r="AL106" s="13"/>
       <c r="AO106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="AS106" s="11"/>
       <c r="AT106" s="12"/>
@@ -7561,7 +8689,7 @@
       <c r="BI106" s="11"/>
       <c r="BJ106" s="12"/>
       <c r="BK106" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="BL106" s="12"/>
       <c r="BM106" s="12"/>
@@ -7594,12 +8722,12 @@
       <c r="T107" s="12"/>
       <c r="U107" s="12"/>
       <c r="V107" s="13"/>
-      <c r="W107" s="28" t="s">
-        <v>103</v>
+      <c r="W107" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="X107" s="12"/>
       <c r="Y107" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AA107" s="12"/>
       <c r="AB107" s="12"/>
@@ -7615,11 +8743,11 @@
       <c r="AL107" s="13"/>
       <c r="AS107" s="11"/>
       <c r="AT107" s="12"/>
-      <c r="AU107" s="27" t="s">
+      <c r="AU107" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="AV107" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="AV107" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="AW107" s="12"/>
       <c r="AX107" s="12"/>
@@ -7633,12 +8761,12 @@
       <c r="BF107" s="12"/>
       <c r="BG107" s="12"/>
       <c r="BH107" s="13"/>
-      <c r="BI107" s="28" t="s">
-        <v>103</v>
+      <c r="BI107" s="26" t="s">
+        <v>102</v>
       </c>
       <c r="BJ107" s="12"/>
       <c r="BK107" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="BM107" s="12"/>
       <c r="BN107" s="12"/>
@@ -8318,4 +9446,5559 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:CF125"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AS32" sqref="AS32:AT32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="3.875" customWidth="1"/>
+    <col min="5" max="5" width="4.75" customWidth="1"/>
+    <col min="9" max="9" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.125" customWidth="1"/>
+    <col min="36" max="36" width="4.25" customWidth="1"/>
+    <col min="38" max="38" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.625" customWidth="1"/>
+    <col min="48" max="48" width="4.875" customWidth="1"/>
+    <col min="49" max="49" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.125" customWidth="1"/>
+    <col min="52" max="53" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4" customWidth="1"/>
+    <col min="69" max="69" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="2.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="10:83" s="27" customFormat="1" ht="42">
+      <c r="J32" s="27">
+        <v>0</v>
+      </c>
+      <c r="K32" s="27">
+        <v>1</v>
+      </c>
+      <c r="L32" s="27">
+        <v>2</v>
+      </c>
+      <c r="M32" s="27">
+        <v>3</v>
+      </c>
+      <c r="N32" s="27">
+        <v>4</v>
+      </c>
+      <c r="O32" s="27">
+        <v>5</v>
+      </c>
+      <c r="P32" s="27">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="27">
+        <v>7</v>
+      </c>
+      <c r="R32" s="27">
+        <v>8</v>
+      </c>
+      <c r="S32" s="27">
+        <v>9</v>
+      </c>
+      <c r="T32" s="27">
+        <v>10</v>
+      </c>
+      <c r="U32" s="27">
+        <v>11</v>
+      </c>
+      <c r="V32" s="27">
+        <v>12</v>
+      </c>
+      <c r="W32" s="27">
+        <v>13</v>
+      </c>
+      <c r="X32" s="27">
+        <v>14</v>
+      </c>
+      <c r="Y32" s="27">
+        <v>15</v>
+      </c>
+      <c r="Z32" s="27">
+        <v>16</v>
+      </c>
+      <c r="AA32" s="27">
+        <v>17</v>
+      </c>
+      <c r="AB32" s="27">
+        <v>18</v>
+      </c>
+      <c r="AD32" s="27">
+        <v>64</v>
+      </c>
+      <c r="AE32" s="27">
+        <v>65</v>
+      </c>
+      <c r="AG32" s="27">
+        <v>249</v>
+      </c>
+      <c r="AH32" s="27">
+        <v>250</v>
+      </c>
+      <c r="AI32" s="27">
+        <v>251</v>
+      </c>
+      <c r="AJ32" s="27">
+        <v>252</v>
+      </c>
+      <c r="AK32" s="27">
+        <v>253</v>
+      </c>
+      <c r="AL32" s="27">
+        <v>254</v>
+      </c>
+      <c r="AM32" s="27">
+        <v>255</v>
+      </c>
+      <c r="AN32" s="27">
+        <v>256</v>
+      </c>
+      <c r="AO32" s="27">
+        <v>257</v>
+      </c>
+      <c r="AP32" s="27">
+        <v>258</v>
+      </c>
+      <c r="AQ32" s="27">
+        <v>259</v>
+      </c>
+      <c r="AR32" s="27">
+        <v>260</v>
+      </c>
+      <c r="AS32" s="27">
+        <v>261</v>
+      </c>
+      <c r="AT32" s="27">
+        <v>262</v>
+      </c>
+      <c r="AU32" s="27">
+        <v>263</v>
+      </c>
+      <c r="AV32" s="27">
+        <v>264</v>
+      </c>
+      <c r="AW32" s="27">
+        <v>265</v>
+      </c>
+      <c r="AX32" s="27">
+        <v>266</v>
+      </c>
+      <c r="AZ32" s="27">
+        <v>279</v>
+      </c>
+      <c r="BA32" s="27">
+        <v>280</v>
+      </c>
+      <c r="BC32" s="27">
+        <v>304</v>
+      </c>
+      <c r="BD32" s="27">
+        <v>305</v>
+      </c>
+      <c r="BF32" s="27">
+        <v>319</v>
+      </c>
+      <c r="BG32" s="27">
+        <v>320</v>
+      </c>
+      <c r="BI32" s="27">
+        <v>377</v>
+      </c>
+      <c r="BJ32" s="27">
+        <v>378</v>
+      </c>
+      <c r="BK32" s="27">
+        <v>379</v>
+      </c>
+      <c r="BL32" s="27">
+        <v>380</v>
+      </c>
+      <c r="BM32" s="27">
+        <v>381</v>
+      </c>
+      <c r="BN32" s="27">
+        <v>382</v>
+      </c>
+      <c r="BO32" s="27">
+        <v>383</v>
+      </c>
+      <c r="BP32" s="27">
+        <v>384</v>
+      </c>
+      <c r="BQ32" s="27">
+        <v>385</v>
+      </c>
+      <c r="BR32" s="27">
+        <v>386</v>
+      </c>
+      <c r="BS32" s="27">
+        <v>387</v>
+      </c>
+      <c r="BT32" s="27">
+        <v>388</v>
+      </c>
+      <c r="BU32" s="27">
+        <v>389</v>
+      </c>
+      <c r="BV32" s="27">
+        <v>390</v>
+      </c>
+      <c r="BW32" s="27">
+        <v>391</v>
+      </c>
+      <c r="BX32" s="27">
+        <v>392</v>
+      </c>
+      <c r="BY32" s="27">
+        <v>393</v>
+      </c>
+      <c r="BZ32" s="27">
+        <v>394</v>
+      </c>
+      <c r="CA32" s="27">
+        <v>395</v>
+      </c>
+      <c r="CB32" s="27">
+        <v>396</v>
+      </c>
+      <c r="CC32" s="27">
+        <v>397</v>
+      </c>
+      <c r="CD32" s="27">
+        <v>398</v>
+      </c>
+      <c r="CE32" s="27">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="6:84">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33" s="39"/>
+      <c r="K33" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="R33" s="51"/>
+      <c r="S33" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="T33" s="51"/>
+      <c r="U33" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="V33" s="51"/>
+      <c r="W33" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="X33" s="51"/>
+      <c r="Y33" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z33" s="51"/>
+      <c r="AA33" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB33" s="51"/>
+      <c r="AD33" s="35"/>
+      <c r="AE33" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG33" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH33" s="51"/>
+      <c r="AI33" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ33" s="51"/>
+      <c r="AK33" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL33" s="51"/>
+      <c r="AM33" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN33" s="51"/>
+      <c r="AO33" s="34"/>
+      <c r="AP33" s="34"/>
+      <c r="AQ33" s="34"/>
+      <c r="AR33" s="34"/>
+      <c r="AS33" s="34"/>
+      <c r="AT33" s="34"/>
+      <c r="AU33" s="34"/>
+      <c r="AV33" s="34"/>
+      <c r="AW33" s="34"/>
+      <c r="AX33" s="34"/>
+      <c r="AZ33" s="34"/>
+      <c r="BA33" s="34"/>
+      <c r="BC33" s="34"/>
+      <c r="BD33" s="34"/>
+      <c r="BF33" s="34"/>
+      <c r="BG33" s="34"/>
+      <c r="BI33" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ33" s="51"/>
+      <c r="BK33" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL33" s="51"/>
+      <c r="BM33" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN33" s="51"/>
+      <c r="BO33" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP33" s="51"/>
+      <c r="BQ33" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR33" s="51"/>
+      <c r="BS33" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT33" s="51"/>
+      <c r="BU33" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV33" s="51"/>
+      <c r="BW33" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX33" s="51"/>
+      <c r="BY33" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ33" s="51"/>
+      <c r="CA33" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="CB33" s="51"/>
+      <c r="CC33" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="CD33" s="51"/>
+      <c r="CE33" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF33" s="27"/>
+    </row>
+    <row r="34" spans="6:84">
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" s="34"/>
+      <c r="K34" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="R34" s="51"/>
+      <c r="S34" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="T34" s="51"/>
+      <c r="U34" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="V34" s="51"/>
+      <c r="W34" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="X34" s="51"/>
+      <c r="Y34" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z34" s="51"/>
+      <c r="AA34" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB34" s="51"/>
+      <c r="AD34" s="35"/>
+      <c r="AE34" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG34" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH34" s="51"/>
+      <c r="AI34" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ34" s="51"/>
+      <c r="AK34" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL34" s="51"/>
+      <c r="AM34" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN34" s="51"/>
+      <c r="AO34" s="34"/>
+      <c r="AP34" s="34"/>
+      <c r="AQ34" s="34"/>
+      <c r="AR34" s="34"/>
+      <c r="AS34" s="34"/>
+      <c r="AT34" s="34"/>
+      <c r="AU34" s="34"/>
+      <c r="AV34" s="34"/>
+      <c r="AW34" s="34"/>
+      <c r="AX34" s="34"/>
+      <c r="AZ34" s="34"/>
+      <c r="BA34" s="34"/>
+      <c r="BC34" s="34"/>
+      <c r="BD34" s="34"/>
+      <c r="BF34" s="34"/>
+      <c r="BG34" s="34"/>
+      <c r="BI34" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ34" s="51"/>
+      <c r="BK34" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL34" s="51"/>
+      <c r="BM34" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN34" s="51"/>
+      <c r="BO34" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP34" s="51"/>
+      <c r="BQ34" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT34" s="51"/>
+      <c r="BU34" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV34" s="51"/>
+      <c r="BW34" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX34" s="51"/>
+      <c r="BY34" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ34" s="51"/>
+      <c r="CA34" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="CB34" s="51"/>
+      <c r="CC34" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="CD34" s="51"/>
+      <c r="CE34" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF34" s="27"/>
+    </row>
+    <row r="35" spans="6:84">
+      <c r="CB35" s="27"/>
+      <c r="CC35" s="27"/>
+      <c r="CD35" s="27"/>
+      <c r="CE35" s="27"/>
+      <c r="CF35" s="27"/>
+    </row>
+    <row r="36" spans="6:84">
+      <c r="I36">
+        <v>239</v>
+      </c>
+      <c r="J36" s="36"/>
+      <c r="K36" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="L36" s="56"/>
+      <c r="M36" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="N36" s="56"/>
+      <c r="O36" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="P36" s="56"/>
+      <c r="Q36" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="R36" s="56"/>
+      <c r="S36" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="V36" s="56"/>
+      <c r="W36" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="X36" s="56"/>
+      <c r="Y36" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z36" s="56"/>
+      <c r="AA36" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB36" s="56"/>
+      <c r="AD36" s="37"/>
+      <c r="AE36" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG36" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH36" s="56"/>
+      <c r="AI36" s="56" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL36" s="56"/>
+      <c r="AM36" s="56" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN36" s="56"/>
+      <c r="AO36" s="36"/>
+      <c r="AP36" s="36"/>
+      <c r="AQ36" s="36"/>
+      <c r="AR36" s="36"/>
+      <c r="AS36" s="36"/>
+      <c r="AT36" s="36"/>
+      <c r="AU36" s="36"/>
+      <c r="AV36" s="36"/>
+      <c r="AW36" s="36"/>
+      <c r="AX36" s="36"/>
+      <c r="AZ36" s="36"/>
+      <c r="BA36" s="36"/>
+      <c r="BC36" s="36"/>
+      <c r="BD36" s="36"/>
+      <c r="BF36" s="34"/>
+      <c r="BG36" s="34"/>
+      <c r="BI36" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ36" s="51"/>
+      <c r="BK36" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL36" s="51"/>
+      <c r="BM36" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN36" s="51"/>
+      <c r="BO36" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP36" s="51"/>
+      <c r="BQ36" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR36" s="51"/>
+      <c r="BS36" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT36" s="51"/>
+      <c r="BU36" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV36" s="51"/>
+      <c r="BW36" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX36" s="51"/>
+      <c r="BY36" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ36" s="51"/>
+      <c r="CA36" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="CB36" s="51"/>
+      <c r="CC36" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="CD36" s="51"/>
+      <c r="CE36" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF36" s="27"/>
+    </row>
+    <row r="37" spans="6:84">
+      <c r="I37">
+        <v>240</v>
+      </c>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="38"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
+      <c r="O37" s="38"/>
+      <c r="P37" s="38"/>
+      <c r="Q37" s="38"/>
+      <c r="R37" s="38"/>
+      <c r="S37" s="38"/>
+      <c r="T37" s="38"/>
+      <c r="U37" s="38"/>
+      <c r="V37" s="38"/>
+      <c r="W37" s="38"/>
+      <c r="X37" s="38"/>
+      <c r="Y37" s="38"/>
+      <c r="Z37" s="38"/>
+      <c r="AA37" s="38"/>
+      <c r="AB37" s="38"/>
+      <c r="AC37" s="38"/>
+      <c r="AD37" s="38"/>
+      <c r="AE37" s="38"/>
+      <c r="AF37" s="38"/>
+      <c r="AG37" s="38"/>
+      <c r="AH37" s="38"/>
+      <c r="AI37" s="38"/>
+      <c r="AJ37" s="38"/>
+      <c r="AK37" s="38"/>
+      <c r="AL37" s="38"/>
+      <c r="AM37" s="38"/>
+      <c r="AN37" s="38"/>
+      <c r="AO37" s="38"/>
+      <c r="AP37" s="38"/>
+      <c r="AQ37" s="38"/>
+      <c r="AR37" s="38"/>
+      <c r="AS37" s="38"/>
+      <c r="AT37" s="38"/>
+      <c r="AU37" s="38"/>
+      <c r="AV37" s="38"/>
+      <c r="AW37" s="38"/>
+      <c r="AX37" s="38"/>
+      <c r="AY37" s="38"/>
+      <c r="AZ37" s="38"/>
+      <c r="BA37" s="38"/>
+      <c r="BB37" s="38"/>
+      <c r="BC37" s="38"/>
+      <c r="BD37" s="38"/>
+      <c r="BE37" s="38"/>
+      <c r="BF37" s="38"/>
+      <c r="BG37" s="38"/>
+      <c r="BH37" s="38"/>
+      <c r="BI37" s="38"/>
+      <c r="BJ37" s="38"/>
+      <c r="BK37" s="38"/>
+      <c r="BL37" s="38"/>
+      <c r="BM37" s="38"/>
+      <c r="BN37" s="38"/>
+      <c r="BO37" s="38"/>
+      <c r="BP37" s="38"/>
+      <c r="BQ37" s="38"/>
+      <c r="BR37" s="38"/>
+      <c r="BS37" s="38"/>
+      <c r="BT37" s="38"/>
+      <c r="BU37" s="38"/>
+      <c r="BV37" s="38"/>
+      <c r="BW37" s="38"/>
+      <c r="BX37" s="38"/>
+      <c r="BY37" s="38"/>
+      <c r="BZ37" s="38"/>
+      <c r="CA37" s="38"/>
+      <c r="CB37" s="38"/>
+      <c r="CC37" s="38"/>
+      <c r="CD37" s="38"/>
+      <c r="CE37" s="38"/>
+      <c r="CF37" s="27"/>
+    </row>
+    <row r="38" spans="6:84">
+      <c r="I38">
+        <v>241</v>
+      </c>
+      <c r="J38" s="38"/>
+      <c r="K38" s="39"/>
+      <c r="L38" s="38"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
+      <c r="O38" s="38"/>
+      <c r="P38" s="38"/>
+      <c r="Q38" s="38"/>
+      <c r="R38" s="38"/>
+      <c r="S38" s="38"/>
+      <c r="T38" s="38"/>
+      <c r="U38" s="38"/>
+      <c r="V38" s="38"/>
+      <c r="W38" s="38"/>
+      <c r="X38" s="38"/>
+      <c r="Y38" s="38"/>
+      <c r="Z38" s="38"/>
+      <c r="AA38" s="38"/>
+      <c r="AB38" s="38"/>
+      <c r="AC38" s="38"/>
+      <c r="AD38" s="38"/>
+      <c r="AE38" s="38"/>
+      <c r="AF38" s="38"/>
+      <c r="AG38" s="38"/>
+      <c r="AH38" s="38"/>
+      <c r="AI38" s="38"/>
+      <c r="AJ38" s="38"/>
+      <c r="AK38" s="38"/>
+      <c r="AL38" s="38"/>
+      <c r="AM38" s="38"/>
+      <c r="AN38" s="38"/>
+      <c r="AO38" s="38"/>
+      <c r="AP38" s="38"/>
+      <c r="AQ38" s="38"/>
+      <c r="AR38" s="38"/>
+      <c r="AS38" s="38"/>
+      <c r="AT38" s="38"/>
+      <c r="AU38" s="38"/>
+      <c r="AV38" s="38"/>
+      <c r="AW38" s="38"/>
+      <c r="AX38" s="38"/>
+      <c r="AY38" s="38"/>
+      <c r="AZ38" s="38"/>
+      <c r="BA38" s="38"/>
+      <c r="BB38" s="38"/>
+      <c r="BC38" s="38"/>
+      <c r="BD38" s="38"/>
+      <c r="BE38" s="38"/>
+      <c r="BF38" s="38"/>
+      <c r="BG38" s="38"/>
+      <c r="BH38" s="38"/>
+      <c r="BI38" s="38"/>
+      <c r="BJ38" s="38"/>
+      <c r="BK38" s="38"/>
+      <c r="BL38" s="38"/>
+      <c r="BM38" s="38"/>
+      <c r="BN38" s="38"/>
+      <c r="BO38" s="38"/>
+      <c r="BP38" s="38"/>
+      <c r="BQ38" s="38"/>
+      <c r="BR38" s="38"/>
+      <c r="BS38" s="38"/>
+      <c r="BT38" s="38"/>
+      <c r="BU38" s="38"/>
+      <c r="BV38" s="38"/>
+      <c r="BW38" s="38"/>
+      <c r="BX38" s="38"/>
+      <c r="BY38" s="38"/>
+      <c r="BZ38" s="38"/>
+      <c r="CA38" s="38"/>
+      <c r="CB38" s="38"/>
+      <c r="CC38" s="38"/>
+      <c r="CD38" s="38"/>
+      <c r="CE38" s="38"/>
+      <c r="CF38" s="27"/>
+    </row>
+    <row r="39" spans="6:84">
+      <c r="I39">
+        <v>242</v>
+      </c>
+      <c r="J39" s="38"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="38"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="38"/>
+      <c r="P39" s="38"/>
+      <c r="Q39" s="38"/>
+      <c r="R39" s="38"/>
+      <c r="S39" s="38"/>
+      <c r="T39" s="38"/>
+      <c r="U39" s="38"/>
+      <c r="V39" s="38"/>
+      <c r="W39" s="38"/>
+      <c r="X39" s="38"/>
+      <c r="Y39" s="38"/>
+      <c r="Z39" s="38"/>
+      <c r="AA39" s="38"/>
+      <c r="AB39" s="38"/>
+      <c r="AC39" s="38"/>
+      <c r="AD39" s="38"/>
+      <c r="AE39" s="38"/>
+      <c r="AF39" s="38"/>
+      <c r="AG39" s="38"/>
+      <c r="AH39" s="38"/>
+      <c r="AI39" s="38"/>
+      <c r="AJ39" s="38"/>
+      <c r="AK39" s="38"/>
+      <c r="AL39" s="38"/>
+      <c r="AM39" s="38"/>
+      <c r="AN39" s="38"/>
+      <c r="AO39" s="38"/>
+      <c r="AP39" s="38"/>
+      <c r="AQ39" s="38"/>
+      <c r="AR39" s="38"/>
+      <c r="AS39" s="38"/>
+      <c r="AT39" s="38"/>
+      <c r="AU39" s="38"/>
+      <c r="AV39" s="38"/>
+      <c r="AW39" s="38"/>
+      <c r="AX39" s="38"/>
+      <c r="AY39" s="38"/>
+      <c r="AZ39" s="38"/>
+      <c r="BA39" s="38"/>
+      <c r="BB39" s="38"/>
+      <c r="BC39" s="38"/>
+      <c r="BD39" s="38"/>
+      <c r="BE39" s="38"/>
+      <c r="BF39" s="38"/>
+      <c r="BG39" s="38"/>
+      <c r="BH39" s="38"/>
+      <c r="BI39" s="38"/>
+      <c r="BJ39" s="38"/>
+      <c r="BK39" s="38"/>
+      <c r="BL39" s="38"/>
+      <c r="BM39" s="38"/>
+      <c r="BN39" s="38"/>
+      <c r="BO39" s="38"/>
+      <c r="BP39" s="38"/>
+      <c r="BQ39" s="38"/>
+      <c r="BR39" s="38"/>
+      <c r="BS39" s="38"/>
+      <c r="BT39" s="38"/>
+      <c r="BU39" s="38"/>
+      <c r="BV39" s="38"/>
+      <c r="BW39" s="38"/>
+      <c r="BX39" s="38"/>
+      <c r="BY39" s="38"/>
+      <c r="BZ39" s="38"/>
+      <c r="CA39" s="38"/>
+      <c r="CB39" s="38"/>
+      <c r="CC39" s="38"/>
+      <c r="CD39" s="38"/>
+      <c r="CE39" s="38"/>
+      <c r="CF39" s="27"/>
+    </row>
+    <row r="40" spans="6:84">
+      <c r="CB40" s="27"/>
+      <c r="CC40" s="27"/>
+      <c r="CD40" s="27"/>
+      <c r="CE40" s="27"/>
+      <c r="CF40" s="27"/>
+    </row>
+    <row r="41" spans="6:84">
+      <c r="I41">
+        <v>261</v>
+      </c>
+      <c r="J41" s="38"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="38"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="38"/>
+      <c r="P41" s="38"/>
+      <c r="Q41" s="38"/>
+      <c r="R41" s="38"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
+      <c r="U41" s="38"/>
+      <c r="V41" s="38"/>
+      <c r="W41" s="38"/>
+      <c r="X41" s="38"/>
+      <c r="Y41" s="38"/>
+      <c r="Z41" s="38"/>
+      <c r="AA41" s="38"/>
+      <c r="AB41" s="38"/>
+      <c r="AC41" s="38"/>
+      <c r="AD41" s="38"/>
+      <c r="AE41" s="38"/>
+      <c r="AF41" s="38"/>
+      <c r="AG41" s="38"/>
+      <c r="AH41" s="38"/>
+      <c r="AI41" s="38"/>
+      <c r="AJ41" s="38"/>
+      <c r="AK41" s="38"/>
+      <c r="AL41" s="38"/>
+      <c r="AM41" s="38"/>
+      <c r="AN41" s="38"/>
+      <c r="AO41" s="38"/>
+      <c r="AP41" s="38"/>
+      <c r="AQ41" s="38"/>
+      <c r="AR41" s="38"/>
+      <c r="AS41" s="38"/>
+      <c r="AT41" s="38"/>
+      <c r="AU41" s="38"/>
+      <c r="AV41" s="38"/>
+      <c r="AW41" s="38"/>
+      <c r="AX41" s="38"/>
+      <c r="AY41" s="38"/>
+      <c r="AZ41" s="38"/>
+      <c r="BA41" s="38"/>
+      <c r="BB41" s="38"/>
+      <c r="BC41" s="38"/>
+      <c r="BD41" s="38"/>
+      <c r="BE41" s="38"/>
+      <c r="BF41" s="38"/>
+      <c r="BG41" s="38"/>
+      <c r="BH41" s="38"/>
+      <c r="BI41" s="38"/>
+      <c r="BJ41" s="38"/>
+      <c r="BK41" s="38"/>
+      <c r="BL41" s="38"/>
+      <c r="BM41" s="38"/>
+      <c r="BN41" s="38"/>
+      <c r="BO41" s="38"/>
+      <c r="BP41" s="38"/>
+      <c r="BQ41" s="38"/>
+      <c r="BR41" s="38"/>
+      <c r="BS41" s="38"/>
+      <c r="BT41" s="38"/>
+      <c r="BU41" s="38"/>
+      <c r="BV41" s="38"/>
+      <c r="BW41" s="38"/>
+      <c r="BX41" s="38"/>
+      <c r="BY41" s="38"/>
+      <c r="BZ41" s="38"/>
+      <c r="CA41" s="38"/>
+      <c r="CB41" s="38"/>
+      <c r="CC41" s="38"/>
+      <c r="CD41" s="38"/>
+      <c r="CE41" s="38"/>
+      <c r="CF41" s="27"/>
+    </row>
+    <row r="42" spans="6:84">
+      <c r="I42">
+        <v>262</v>
+      </c>
+      <c r="J42" s="38"/>
+      <c r="K42" s="39"/>
+      <c r="L42" s="40"/>
+      <c r="M42" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB42" s="51"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG42" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="34"/>
+      <c r="AP42" s="34"/>
+      <c r="AQ42" s="34"/>
+      <c r="AR42" s="34"/>
+      <c r="AS42" s="34"/>
+      <c r="AT42" s="34"/>
+      <c r="AU42" s="34"/>
+      <c r="AV42" s="34"/>
+      <c r="AW42" s="34"/>
+      <c r="AX42" s="34"/>
+      <c r="AZ42" s="34"/>
+      <c r="BA42" s="34"/>
+      <c r="BC42" s="34"/>
+      <c r="BD42" s="34"/>
+      <c r="BF42" s="34"/>
+      <c r="BG42" s="34"/>
+      <c r="BI42" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BJ42" s="51"/>
+      <c r="BK42" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="BL42" s="51"/>
+      <c r="BM42" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BN42" s="51"/>
+      <c r="BO42" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP42" s="51"/>
+      <c r="BQ42" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BR42" s="51"/>
+      <c r="BS42" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="BT42" s="51"/>
+      <c r="BU42" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="BV42" s="51"/>
+      <c r="BW42" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="BX42" s="51"/>
+      <c r="BY42" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="BZ42" s="51"/>
+      <c r="CA42" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="CB42" s="51"/>
+      <c r="CC42" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="CD42" s="51"/>
+      <c r="CE42" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="CF42" s="27"/>
+    </row>
+    <row r="43" spans="6:84">
+      <c r="CB43" s="27"/>
+      <c r="CC43" s="27"/>
+      <c r="CD43" s="27"/>
+      <c r="CE43" s="27"/>
+      <c r="CF43" s="27"/>
+    </row>
+    <row r="44" spans="6:84">
+      <c r="AK44" t="s">
+        <v>122</v>
+      </c>
+      <c r="CA44" t="s">
+        <v>122</v>
+      </c>
+      <c r="CB44" s="27"/>
+      <c r="CC44" s="27"/>
+      <c r="CD44" s="27"/>
+      <c r="CE44" s="27"/>
+      <c r="CF44" s="27"/>
+    </row>
+    <row r="45" spans="6:84">
+      <c r="CB45" s="27"/>
+      <c r="CC45" s="27"/>
+      <c r="CD45" s="27"/>
+      <c r="CE45" s="27"/>
+      <c r="CF45" s="27"/>
+    </row>
+    <row r="46" spans="6:84">
+      <c r="F46" t="s">
+        <v>120</v>
+      </c>
+      <c r="J46" s="34"/>
+      <c r="K46" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
+      <c r="V46" s="55"/>
+      <c r="W46" s="55"/>
+      <c r="X46" s="55"/>
+      <c r="Y46" s="55"/>
+      <c r="Z46" s="55"/>
+      <c r="AA46" s="55"/>
+      <c r="AB46" s="55"/>
+      <c r="AC46" s="55"/>
+      <c r="AD46" s="55"/>
+      <c r="AE46" s="55" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF46" s="55"/>
+      <c r="AG46" s="55"/>
+      <c r="AH46" s="55"/>
+      <c r="AI46" s="55"/>
+      <c r="AJ46" s="55"/>
+      <c r="AK46" s="55"/>
+      <c r="AL46" s="55"/>
+      <c r="AM46" s="55"/>
+      <c r="AN46" s="55"/>
+      <c r="AO46" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP46" s="51"/>
+      <c r="AQ46" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AR46" s="51"/>
+      <c r="AS46" s="51" t="s">
+        <v>117</v>
+      </c>
+      <c r="AT46" s="51"/>
+      <c r="AU46" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="AV46" s="51"/>
+      <c r="AW46" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="AX46" s="53"/>
+      <c r="AY46" s="53"/>
+      <c r="AZ46" s="53"/>
+      <c r="BA46" s="53"/>
+      <c r="BB46" s="53"/>
+      <c r="BC46" s="53"/>
+      <c r="BD46" s="53"/>
+      <c r="BE46" s="54"/>
+      <c r="BF46" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="BG46" s="51"/>
+      <c r="BI46" s="38"/>
+      <c r="BJ46" s="38"/>
+      <c r="BK46" s="38"/>
+      <c r="BL46" s="38"/>
+      <c r="BM46" s="38"/>
+      <c r="BN46" s="38"/>
+      <c r="BO46" s="38"/>
+      <c r="BP46" s="38"/>
+      <c r="BQ46" s="38"/>
+      <c r="BR46" s="38"/>
+      <c r="BS46" s="38"/>
+      <c r="BT46" s="38"/>
+      <c r="BU46" s="38"/>
+      <c r="BV46" s="38"/>
+      <c r="BW46" s="38"/>
+      <c r="BX46" s="38"/>
+      <c r="BY46" s="38"/>
+      <c r="BZ46" s="38"/>
+      <c r="CA46" s="38"/>
+      <c r="CB46" s="38"/>
+      <c r="CC46" s="38"/>
+      <c r="CD46" s="38"/>
+      <c r="CE46" s="38"/>
+      <c r="CF46" s="27"/>
+    </row>
+    <row r="52" spans="5:71" ht="14.25" thickBot="1">
+      <c r="E52" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ52">
+        <v>640</v>
+      </c>
+      <c r="AV52">
+        <v>800</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK52">
+        <v>256</v>
+      </c>
+      <c r="BQ52">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="53" spans="5:71">
+      <c r="F53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
+      <c r="W53" s="9"/>
+      <c r="X53" s="9"/>
+      <c r="Y53" s="9"/>
+      <c r="Z53" s="9"/>
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+      <c r="AD53" s="9"/>
+      <c r="AE53" s="9"/>
+      <c r="AF53" s="9"/>
+      <c r="AG53" s="9"/>
+      <c r="AH53" s="9"/>
+      <c r="AI53" s="9"/>
+      <c r="AJ53" s="10"/>
+      <c r="AK53" s="17"/>
+      <c r="AL53" s="17"/>
+      <c r="AM53" s="17"/>
+      <c r="AN53" s="17"/>
+      <c r="AO53" s="17"/>
+      <c r="AP53" s="17"/>
+      <c r="AQ53" s="17"/>
+      <c r="AR53" s="17"/>
+      <c r="AS53" s="17"/>
+      <c r="AT53" s="17"/>
+      <c r="AU53" s="17"/>
+      <c r="AV53" s="18"/>
+      <c r="AY53" s="8"/>
+      <c r="AZ53" s="9"/>
+      <c r="BA53" s="9"/>
+      <c r="BB53" s="9"/>
+      <c r="BC53" s="9"/>
+      <c r="BD53" s="9"/>
+      <c r="BE53" s="9"/>
+      <c r="BF53" s="9"/>
+      <c r="BG53" s="9"/>
+      <c r="BH53" s="9"/>
+      <c r="BI53" s="9"/>
+      <c r="BJ53" s="9"/>
+      <c r="BK53" s="10"/>
+      <c r="BL53" s="17"/>
+      <c r="BM53" s="17"/>
+      <c r="BN53" s="17"/>
+      <c r="BO53" s="17"/>
+      <c r="BP53" s="17"/>
+      <c r="BQ53" s="18"/>
+      <c r="BS53" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="54" spans="5:71">
+      <c r="F54" s="11"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+      <c r="K54" s="12"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="12"/>
+      <c r="N54" s="12"/>
+      <c r="O54" s="12"/>
+      <c r="P54" s="12"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="12"/>
+      <c r="S54" s="12"/>
+      <c r="T54" s="12"/>
+      <c r="U54" s="12"/>
+      <c r="V54" s="12"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="12"/>
+      <c r="Y54" s="12"/>
+      <c r="Z54" s="12"/>
+      <c r="AA54" s="12"/>
+      <c r="AB54" s="12"/>
+      <c r="AC54" s="12"/>
+      <c r="AD54" s="12"/>
+      <c r="AE54" s="12"/>
+      <c r="AF54" s="12"/>
+      <c r="AG54" s="12"/>
+      <c r="AH54" s="12"/>
+      <c r="AI54" s="12"/>
+      <c r="AJ54" s="13"/>
+      <c r="AK54" s="12"/>
+      <c r="AL54" s="12"/>
+      <c r="AM54" s="12"/>
+      <c r="AN54" s="12"/>
+      <c r="AO54" s="12"/>
+      <c r="AP54" s="12"/>
+      <c r="AQ54" s="12"/>
+      <c r="AR54" s="12"/>
+      <c r="AS54" s="12"/>
+      <c r="AT54" s="12"/>
+      <c r="AU54" s="12"/>
+      <c r="AV54" s="20"/>
+      <c r="AY54" s="11"/>
+      <c r="AZ54" s="12"/>
+      <c r="BA54" s="12"/>
+      <c r="BB54" s="12"/>
+      <c r="BC54" s="12"/>
+      <c r="BD54" s="12"/>
+      <c r="BE54" s="12"/>
+      <c r="BF54" s="12"/>
+      <c r="BG54" s="12"/>
+      <c r="BH54" s="12"/>
+      <c r="BI54" s="12"/>
+      <c r="BJ54" s="12"/>
+      <c r="BK54" s="13"/>
+      <c r="BL54" s="12"/>
+      <c r="BM54" s="12"/>
+      <c r="BN54" s="12"/>
+      <c r="BO54" s="12"/>
+      <c r="BP54" s="12"/>
+      <c r="BQ54" s="20"/>
+      <c r="BS54" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="5:71">
+      <c r="F55" s="11"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+      <c r="K55" s="12"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="12"/>
+      <c r="N55" s="12"/>
+      <c r="O55" s="12"/>
+      <c r="P55" s="12"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="12"/>
+      <c r="S55" s="12"/>
+      <c r="T55" s="12"/>
+      <c r="U55" s="12"/>
+      <c r="V55" s="12"/>
+      <c r="W55" s="12"/>
+      <c r="X55" s="12"/>
+      <c r="Y55" s="12"/>
+      <c r="Z55" s="12"/>
+      <c r="AA55" s="12"/>
+      <c r="AB55" s="12"/>
+      <c r="AC55" s="12"/>
+      <c r="AD55" s="12"/>
+      <c r="AE55" s="12"/>
+      <c r="AF55" s="12"/>
+      <c r="AG55" s="12"/>
+      <c r="AH55" s="12"/>
+      <c r="AI55" s="12"/>
+      <c r="AJ55" s="13"/>
+      <c r="AK55" s="12"/>
+      <c r="AL55" s="12"/>
+      <c r="AM55" s="12"/>
+      <c r="AN55" s="12"/>
+      <c r="AO55" s="12"/>
+      <c r="AP55" s="12"/>
+      <c r="AQ55" s="12"/>
+      <c r="AR55" s="12"/>
+      <c r="AS55" s="12"/>
+      <c r="AT55" s="12"/>
+      <c r="AU55" s="12"/>
+      <c r="AV55" s="20"/>
+      <c r="AY55" s="11"/>
+      <c r="AZ55" s="12"/>
+      <c r="BA55" s="12"/>
+      <c r="BB55" s="12"/>
+      <c r="BC55" s="12"/>
+      <c r="BD55" s="12"/>
+      <c r="BE55" s="12"/>
+      <c r="BF55" s="12"/>
+      <c r="BG55" s="12"/>
+      <c r="BH55" s="12"/>
+      <c r="BI55" s="12"/>
+      <c r="BJ55" s="12"/>
+      <c r="BK55" s="13"/>
+      <c r="BL55" s="12"/>
+      <c r="BM55" s="12"/>
+      <c r="BN55" s="12"/>
+      <c r="BO55" s="12"/>
+      <c r="BP55" s="12"/>
+      <c r="BQ55" s="20"/>
+      <c r="BS55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="5:71">
+      <c r="F56" s="11"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+      <c r="K56" s="12"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="12"/>
+      <c r="N56" s="12"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+      <c r="R56" s="12"/>
+      <c r="S56" s="12"/>
+      <c r="T56" s="12"/>
+      <c r="U56" s="12"/>
+      <c r="V56" s="12"/>
+      <c r="W56" s="12"/>
+      <c r="X56" s="12"/>
+      <c r="Y56" s="12"/>
+      <c r="Z56" s="12"/>
+      <c r="AA56" s="12"/>
+      <c r="AB56" s="12"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
+      <c r="AH56" s="12"/>
+      <c r="AI56" s="12"/>
+      <c r="AJ56" s="13"/>
+      <c r="AK56" s="12"/>
+      <c r="AL56" s="12"/>
+      <c r="AM56" s="12"/>
+      <c r="AN56" s="12"/>
+      <c r="AO56" s="12"/>
+      <c r="AP56" s="12"/>
+      <c r="AQ56" s="12"/>
+      <c r="AR56" s="12"/>
+      <c r="AS56" s="12"/>
+      <c r="AT56" s="12"/>
+      <c r="AU56" s="12"/>
+      <c r="AV56" s="20"/>
+      <c r="AY56" s="11"/>
+      <c r="AZ56" s="12"/>
+      <c r="BA56" s="12"/>
+      <c r="BB56" s="12"/>
+      <c r="BC56" s="12"/>
+      <c r="BD56" s="12"/>
+      <c r="BE56" s="12"/>
+      <c r="BF56" s="12"/>
+      <c r="BG56" s="12"/>
+      <c r="BH56" s="12"/>
+      <c r="BI56" s="12"/>
+      <c r="BJ56" s="12"/>
+      <c r="BK56" s="13"/>
+      <c r="BL56" s="12"/>
+      <c r="BM56" s="12"/>
+      <c r="BN56" s="12"/>
+      <c r="BO56" s="12"/>
+      <c r="BP56" s="12"/>
+      <c r="BQ56" s="20"/>
+      <c r="BS56" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="57" spans="5:71">
+      <c r="F57" s="11"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+      <c r="K57" s="12"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="12"/>
+      <c r="N57" s="12"/>
+      <c r="O57" s="12"/>
+      <c r="P57" s="12"/>
+      <c r="Q57" s="12"/>
+      <c r="R57" s="12"/>
+      <c r="S57" s="12"/>
+      <c r="T57" s="12"/>
+      <c r="U57" s="12"/>
+      <c r="V57" s="12"/>
+      <c r="W57" s="12"/>
+      <c r="X57" s="12"/>
+      <c r="Y57" s="12"/>
+      <c r="Z57" s="12"/>
+      <c r="AA57" s="12"/>
+      <c r="AB57" s="12"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="12"/>
+      <c r="AI57" s="12"/>
+      <c r="AJ57" s="13"/>
+      <c r="AK57" s="12"/>
+      <c r="AL57" s="12"/>
+      <c r="AM57" s="12"/>
+      <c r="AN57" s="12"/>
+      <c r="AO57" s="12"/>
+      <c r="AP57" s="12"/>
+      <c r="AQ57" s="12"/>
+      <c r="AR57" s="12"/>
+      <c r="AS57" s="12"/>
+      <c r="AT57" s="12"/>
+      <c r="AU57" s="12"/>
+      <c r="AV57" s="20"/>
+      <c r="AY57" s="11"/>
+      <c r="AZ57" s="12"/>
+      <c r="BA57" s="12"/>
+      <c r="BB57" s="12"/>
+      <c r="BC57" s="12"/>
+      <c r="BD57" s="12"/>
+      <c r="BE57" s="12"/>
+      <c r="BF57" s="12"/>
+      <c r="BG57" s="12"/>
+      <c r="BH57" s="12"/>
+      <c r="BI57" s="12"/>
+      <c r="BJ57" s="12"/>
+      <c r="BK57" s="13"/>
+      <c r="BL57" s="12"/>
+      <c r="BM57" s="12"/>
+      <c r="BN57" s="12"/>
+      <c r="BO57" s="12"/>
+      <c r="BP57" s="12"/>
+      <c r="BQ57" s="20"/>
+      <c r="BS57" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="5:71">
+      <c r="F58" s="11"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+      <c r="K58" s="12"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="12"/>
+      <c r="N58" s="12"/>
+      <c r="O58" s="12"/>
+      <c r="P58" s="12"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="12"/>
+      <c r="S58" s="12"/>
+      <c r="T58" s="12"/>
+      <c r="U58" s="12"/>
+      <c r="V58" s="12"/>
+      <c r="W58" s="12"/>
+      <c r="X58" s="12"/>
+      <c r="Y58" s="12"/>
+      <c r="Z58" s="12"/>
+      <c r="AA58" s="12"/>
+      <c r="AB58" s="12"/>
+      <c r="AC58" s="12"/>
+      <c r="AD58" s="12"/>
+      <c r="AE58" s="12"/>
+      <c r="AF58" s="12"/>
+      <c r="AG58" s="12"/>
+      <c r="AH58" s="12"/>
+      <c r="AI58" s="12"/>
+      <c r="AJ58" s="13"/>
+      <c r="AK58" s="12"/>
+      <c r="AL58" s="12"/>
+      <c r="AM58" s="12"/>
+      <c r="AN58" s="12"/>
+      <c r="AO58" s="12"/>
+      <c r="AP58" s="12"/>
+      <c r="AQ58" s="12"/>
+      <c r="AR58" s="12"/>
+      <c r="AS58" s="12"/>
+      <c r="AT58" s="12"/>
+      <c r="AU58" s="12"/>
+      <c r="AV58" s="20"/>
+      <c r="AY58" s="11"/>
+      <c r="AZ58" s="12"/>
+      <c r="BA58" s="12"/>
+      <c r="BB58" s="12"/>
+      <c r="BC58" s="12"/>
+      <c r="BD58" s="12"/>
+      <c r="BE58" s="12"/>
+      <c r="BF58" s="12"/>
+      <c r="BG58" s="12"/>
+      <c r="BH58" s="12"/>
+      <c r="BI58" s="12"/>
+      <c r="BJ58" s="12"/>
+      <c r="BK58" s="13"/>
+      <c r="BL58" s="12"/>
+      <c r="BM58" s="12"/>
+      <c r="BN58" s="12"/>
+      <c r="BO58" s="12"/>
+      <c r="BP58" s="12"/>
+      <c r="BQ58" s="20"/>
+      <c r="BS58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="5:71">
+      <c r="F59" s="11"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+      <c r="K59" s="12"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="12"/>
+      <c r="N59" s="12"/>
+      <c r="O59" s="12"/>
+      <c r="P59" s="12"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="12"/>
+      <c r="S59" s="12"/>
+      <c r="T59" s="12"/>
+      <c r="U59" s="12"/>
+      <c r="V59" s="12"/>
+      <c r="W59" s="12"/>
+      <c r="X59" s="12"/>
+      <c r="Y59" s="12"/>
+      <c r="Z59" s="12"/>
+      <c r="AA59" s="12"/>
+      <c r="AB59" s="12"/>
+      <c r="AC59" s="12"/>
+      <c r="AD59" s="12"/>
+      <c r="AE59" s="12"/>
+      <c r="AF59" s="12"/>
+      <c r="AG59" s="12"/>
+      <c r="AH59" s="12"/>
+      <c r="AI59" s="12"/>
+      <c r="AJ59" s="13"/>
+      <c r="AK59" s="12"/>
+      <c r="AL59" s="12"/>
+      <c r="AM59" s="12"/>
+      <c r="AN59" s="12"/>
+      <c r="AO59" s="12"/>
+      <c r="AP59" s="12"/>
+      <c r="AQ59" s="12"/>
+      <c r="AR59" s="12"/>
+      <c r="AS59" s="12"/>
+      <c r="AT59" s="12"/>
+      <c r="AU59" s="12"/>
+      <c r="AV59" s="20"/>
+      <c r="AY59" s="11"/>
+      <c r="AZ59" s="12"/>
+      <c r="BA59" s="12"/>
+      <c r="BB59" s="12"/>
+      <c r="BC59" s="12"/>
+      <c r="BD59" s="12"/>
+      <c r="BE59" s="12"/>
+      <c r="BF59" s="12"/>
+      <c r="BG59" s="12"/>
+      <c r="BH59" s="12"/>
+      <c r="BI59" s="12"/>
+      <c r="BJ59" s="12"/>
+      <c r="BK59" s="13"/>
+      <c r="BL59" s="12"/>
+      <c r="BM59" s="12"/>
+      <c r="BN59" s="12"/>
+      <c r="BO59" s="12"/>
+      <c r="BP59" s="12"/>
+      <c r="BQ59" s="20"/>
+    </row>
+    <row r="60" spans="5:71">
+      <c r="F60" s="11"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="12"/>
+      <c r="S60" s="12"/>
+      <c r="T60" s="12"/>
+      <c r="U60" s="12"/>
+      <c r="V60" s="12"/>
+      <c r="W60" s="12"/>
+      <c r="X60" s="12"/>
+      <c r="Y60" s="12"/>
+      <c r="Z60" s="12"/>
+      <c r="AA60" s="12"/>
+      <c r="AB60" s="12"/>
+      <c r="AC60" s="12"/>
+      <c r="AD60" s="12"/>
+      <c r="AE60" s="12"/>
+      <c r="AF60" s="12"/>
+      <c r="AG60" s="12"/>
+      <c r="AH60" s="12"/>
+      <c r="AI60" s="12"/>
+      <c r="AJ60" s="13"/>
+      <c r="AK60" s="12"/>
+      <c r="AL60" s="12"/>
+      <c r="AM60" s="12"/>
+      <c r="AN60" s="12"/>
+      <c r="AO60" s="12"/>
+      <c r="AP60" s="12"/>
+      <c r="AQ60" s="12"/>
+      <c r="AR60" s="12"/>
+      <c r="AS60" s="12"/>
+      <c r="AT60" s="12"/>
+      <c r="AU60" s="12"/>
+      <c r="AV60" s="20"/>
+      <c r="AY60" s="11"/>
+      <c r="AZ60" s="12"/>
+      <c r="BA60" s="12"/>
+      <c r="BB60" s="12"/>
+      <c r="BC60" s="12"/>
+      <c r="BD60" s="12"/>
+      <c r="BE60" s="12"/>
+      <c r="BF60" s="12"/>
+      <c r="BG60" s="12"/>
+      <c r="BH60" s="12"/>
+      <c r="BI60" s="12"/>
+      <c r="BJ60" s="12"/>
+      <c r="BK60" s="13"/>
+      <c r="BL60" s="12"/>
+      <c r="BM60" s="12"/>
+      <c r="BN60" s="12"/>
+      <c r="BO60" s="12"/>
+      <c r="BP60" s="12"/>
+      <c r="BQ60" s="20"/>
+    </row>
+    <row r="61" spans="5:71">
+      <c r="F61" s="11"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
+      <c r="K61" s="12"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="12"/>
+      <c r="N61" s="12"/>
+      <c r="O61" s="12"/>
+      <c r="P61" s="12"/>
+      <c r="Q61" s="12"/>
+      <c r="R61" s="12"/>
+      <c r="S61" s="12"/>
+      <c r="T61" s="12"/>
+      <c r="U61" s="12"/>
+      <c r="V61" s="12"/>
+      <c r="W61" s="12"/>
+      <c r="X61" s="12"/>
+      <c r="Y61" s="12"/>
+      <c r="Z61" s="12"/>
+      <c r="AA61" s="12"/>
+      <c r="AB61" s="12"/>
+      <c r="AC61" s="12"/>
+      <c r="AD61" s="12"/>
+      <c r="AE61" s="12"/>
+      <c r="AF61" s="12"/>
+      <c r="AG61" s="12"/>
+      <c r="AH61" s="12"/>
+      <c r="AI61" s="12"/>
+      <c r="AJ61" s="13"/>
+      <c r="AK61" s="12"/>
+      <c r="AL61" s="12"/>
+      <c r="AM61" s="12"/>
+      <c r="AN61" s="12"/>
+      <c r="AO61" s="12"/>
+      <c r="AP61" s="12"/>
+      <c r="AQ61" s="12"/>
+      <c r="AR61" s="12"/>
+      <c r="AS61" s="12"/>
+      <c r="AT61" s="12"/>
+      <c r="AU61" s="12"/>
+      <c r="AV61" s="20"/>
+      <c r="AY61" s="11"/>
+      <c r="AZ61" s="12"/>
+      <c r="BA61" s="12"/>
+      <c r="BB61" s="12"/>
+      <c r="BC61" s="12"/>
+      <c r="BD61" s="12"/>
+      <c r="BE61" s="12"/>
+      <c r="BF61" s="12"/>
+      <c r="BG61" s="12"/>
+      <c r="BH61" s="12"/>
+      <c r="BI61" s="12"/>
+      <c r="BJ61" s="12"/>
+      <c r="BK61" s="13"/>
+      <c r="BL61" s="12"/>
+      <c r="BM61" s="12"/>
+      <c r="BN61" s="12"/>
+      <c r="BO61" s="12"/>
+      <c r="BP61" s="12"/>
+      <c r="BQ61" s="20"/>
+    </row>
+    <row r="62" spans="5:71">
+      <c r="F62" s="11"/>
+      <c r="G62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="12"/>
+      <c r="K62" s="12"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="12"/>
+      <c r="N62" s="12"/>
+      <c r="O62" s="12"/>
+      <c r="P62" s="12"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="12"/>
+      <c r="S62" s="12"/>
+      <c r="T62" s="12"/>
+      <c r="U62" s="12"/>
+      <c r="V62" s="12"/>
+      <c r="W62" s="12"/>
+      <c r="X62" s="12"/>
+      <c r="Y62" s="12"/>
+      <c r="Z62" s="12"/>
+      <c r="AA62" s="12"/>
+      <c r="AB62" s="12"/>
+      <c r="AC62" s="12"/>
+      <c r="AD62" s="12"/>
+      <c r="AE62" s="12"/>
+      <c r="AF62" s="12"/>
+      <c r="AG62" s="12"/>
+      <c r="AH62" s="12"/>
+      <c r="AI62" s="12"/>
+      <c r="AJ62" s="13"/>
+      <c r="AK62" s="12"/>
+      <c r="AL62" s="12"/>
+      <c r="AM62" s="12"/>
+      <c r="AN62" s="12"/>
+      <c r="AO62" s="12"/>
+      <c r="AP62" s="12"/>
+      <c r="AQ62" s="12"/>
+      <c r="AR62" s="12"/>
+      <c r="AS62" s="12"/>
+      <c r="AT62" s="12"/>
+      <c r="AU62" s="12"/>
+      <c r="AV62" s="20"/>
+      <c r="AY62" s="11"/>
+      <c r="AZ62" s="12"/>
+      <c r="BA62" s="12"/>
+      <c r="BB62" s="12"/>
+      <c r="BC62" s="12"/>
+      <c r="BD62" s="12"/>
+      <c r="BE62" s="12"/>
+      <c r="BF62" s="12"/>
+      <c r="BG62" s="12"/>
+      <c r="BH62" s="12"/>
+      <c r="BI62" s="12"/>
+      <c r="BJ62" s="12"/>
+      <c r="BK62" s="13"/>
+      <c r="BL62" s="12"/>
+      <c r="BM62" s="12"/>
+      <c r="BN62" s="12"/>
+      <c r="BO62" s="12"/>
+      <c r="BP62" s="12"/>
+      <c r="BQ62" s="20"/>
+    </row>
+    <row r="63" spans="5:71">
+      <c r="F63" s="11"/>
+      <c r="G63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="12"/>
+      <c r="K63" s="12"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="12"/>
+      <c r="N63" s="12"/>
+      <c r="O63" s="12"/>
+      <c r="P63" s="12"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="12"/>
+      <c r="S63" s="12"/>
+      <c r="T63" s="12"/>
+      <c r="U63" s="12"/>
+      <c r="V63" s="12"/>
+      <c r="W63" s="12"/>
+      <c r="X63" s="12"/>
+      <c r="Y63" s="12"/>
+      <c r="Z63" s="12"/>
+      <c r="AA63" s="12"/>
+      <c r="AB63" s="12"/>
+      <c r="AC63" s="12"/>
+      <c r="AD63" s="12"/>
+      <c r="AE63" s="12"/>
+      <c r="AF63" s="12"/>
+      <c r="AG63" s="12"/>
+      <c r="AH63" s="12"/>
+      <c r="AI63" s="12"/>
+      <c r="AJ63" s="13"/>
+      <c r="AK63" s="12"/>
+      <c r="AL63" s="12"/>
+      <c r="AM63" s="12"/>
+      <c r="AN63" s="12"/>
+      <c r="AO63" s="12"/>
+      <c r="AP63" s="12"/>
+      <c r="AQ63" s="12"/>
+      <c r="AR63" s="12"/>
+      <c r="AS63" s="12"/>
+      <c r="AT63" s="12"/>
+      <c r="AU63" s="12"/>
+      <c r="AV63" s="20"/>
+      <c r="AY63" s="11"/>
+      <c r="AZ63" s="12"/>
+      <c r="BA63" s="12"/>
+      <c r="BB63" s="12"/>
+      <c r="BC63" s="12"/>
+      <c r="BD63" s="12"/>
+      <c r="BE63" s="12"/>
+      <c r="BF63" s="12"/>
+      <c r="BG63" s="12"/>
+      <c r="BH63" s="12"/>
+      <c r="BI63" s="12"/>
+      <c r="BJ63" s="12"/>
+      <c r="BK63" s="13"/>
+      <c r="BL63" s="12"/>
+      <c r="BM63" s="12"/>
+      <c r="BN63" s="12"/>
+      <c r="BO63" s="12"/>
+      <c r="BP63" s="12"/>
+      <c r="BQ63" s="20"/>
+    </row>
+    <row r="64" spans="5:71" ht="14.25" thickBot="1">
+      <c r="F64" s="11"/>
+      <c r="G64" s="12"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="12"/>
+      <c r="K64" s="12"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="12"/>
+      <c r="S64" s="12"/>
+      <c r="T64" s="12"/>
+      <c r="U64" s="12"/>
+      <c r="V64" s="12"/>
+      <c r="W64" s="12"/>
+      <c r="X64" s="12"/>
+      <c r="Y64" s="12"/>
+      <c r="Z64" s="12"/>
+      <c r="AA64" s="12"/>
+      <c r="AB64" s="12"/>
+      <c r="AC64" s="12"/>
+      <c r="AD64" s="12"/>
+      <c r="AE64" s="12"/>
+      <c r="AF64" s="12"/>
+      <c r="AG64" s="12"/>
+      <c r="AH64" s="12"/>
+      <c r="AI64" s="12"/>
+      <c r="AJ64" s="13"/>
+      <c r="AK64" s="12"/>
+      <c r="AL64" s="12"/>
+      <c r="AM64" s="12"/>
+      <c r="AN64" s="12"/>
+      <c r="AO64" s="12"/>
+      <c r="AP64" s="12"/>
+      <c r="AQ64" s="12"/>
+      <c r="AR64" s="12"/>
+      <c r="AS64" s="12"/>
+      <c r="AT64" s="12"/>
+      <c r="AU64" s="12"/>
+      <c r="AV64" s="20"/>
+      <c r="AX64">
+        <v>240</v>
+      </c>
+      <c r="AY64" s="14"/>
+      <c r="AZ64" s="15"/>
+      <c r="BA64" s="15"/>
+      <c r="BB64" s="15"/>
+      <c r="BC64" s="15"/>
+      <c r="BD64" s="15"/>
+      <c r="BE64" s="15"/>
+      <c r="BF64" s="15"/>
+      <c r="BG64" s="15"/>
+      <c r="BH64" s="15"/>
+      <c r="BI64" s="15"/>
+      <c r="BJ64" s="15"/>
+      <c r="BK64" s="16"/>
+      <c r="BL64" s="12"/>
+      <c r="BM64" s="12"/>
+      <c r="BN64" s="12"/>
+      <c r="BO64" s="12"/>
+      <c r="BP64" s="12"/>
+      <c r="BQ64" s="20"/>
+    </row>
+    <row r="65" spans="5:69">
+      <c r="F65" s="11"/>
+      <c r="G65" s="12"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="12"/>
+      <c r="K65" s="12"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+      <c r="R65" s="12"/>
+      <c r="S65" s="12"/>
+      <c r="T65" s="12"/>
+      <c r="U65" s="12"/>
+      <c r="V65" s="12"/>
+      <c r="W65" s="12"/>
+      <c r="X65" s="12"/>
+      <c r="Y65" s="12"/>
+      <c r="Z65" s="12"/>
+      <c r="AA65" s="12"/>
+      <c r="AB65" s="12"/>
+      <c r="AC65" s="12"/>
+      <c r="AD65" s="12"/>
+      <c r="AE65" s="12"/>
+      <c r="AF65" s="12"/>
+      <c r="AG65" s="12"/>
+      <c r="AH65" s="12"/>
+      <c r="AI65" s="12"/>
+      <c r="AJ65" s="13"/>
+      <c r="AK65" s="12"/>
+      <c r="AL65" s="12"/>
+      <c r="AM65" s="12"/>
+      <c r="AN65" s="12"/>
+      <c r="AO65" s="12"/>
+      <c r="AP65" s="12"/>
+      <c r="AQ65" s="12"/>
+      <c r="AR65" s="12"/>
+      <c r="AS65" s="12"/>
+      <c r="AT65" s="12"/>
+      <c r="AU65" s="12"/>
+      <c r="AV65" s="20"/>
+      <c r="AY65" s="19"/>
+      <c r="AZ65" s="12"/>
+      <c r="BA65" s="12"/>
+      <c r="BB65" s="12"/>
+      <c r="BC65" s="12"/>
+      <c r="BD65" s="12"/>
+      <c r="BE65" s="12"/>
+      <c r="BF65" s="12"/>
+      <c r="BG65" s="12"/>
+      <c r="BH65" s="12"/>
+      <c r="BI65" s="12"/>
+      <c r="BJ65" s="12"/>
+      <c r="BK65" s="12"/>
+      <c r="BL65" s="12"/>
+      <c r="BM65" s="12"/>
+      <c r="BN65" s="12"/>
+      <c r="BO65" s="12"/>
+      <c r="BP65" s="12"/>
+      <c r="BQ65" s="20"/>
+    </row>
+    <row r="66" spans="5:69">
+      <c r="F66" s="11"/>
+      <c r="G66" s="12"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="12"/>
+      <c r="K66" s="12"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
+      <c r="R66" s="12"/>
+      <c r="S66" s="12"/>
+      <c r="T66" s="12"/>
+      <c r="U66" s="12"/>
+      <c r="V66" s="12"/>
+      <c r="W66" s="12"/>
+      <c r="X66" s="12"/>
+      <c r="Y66" s="12"/>
+      <c r="Z66" s="12"/>
+      <c r="AA66" s="12"/>
+      <c r="AB66" s="12"/>
+      <c r="AC66" s="12"/>
+      <c r="AD66" s="12"/>
+      <c r="AE66" s="12"/>
+      <c r="AF66" s="12"/>
+      <c r="AG66" s="12"/>
+      <c r="AH66" s="12"/>
+      <c r="AI66" s="12"/>
+      <c r="AJ66" s="13"/>
+      <c r="AK66" s="12"/>
+      <c r="AL66" s="12"/>
+      <c r="AM66" s="12"/>
+      <c r="AN66" s="12"/>
+      <c r="AO66" s="12"/>
+      <c r="AP66" s="12"/>
+      <c r="AQ66" s="12"/>
+      <c r="AR66" s="12"/>
+      <c r="AS66" s="12"/>
+      <c r="AT66" s="12"/>
+      <c r="AU66" s="12"/>
+      <c r="AV66" s="20"/>
+      <c r="AY66" s="19"/>
+      <c r="AZ66" s="12"/>
+      <c r="BA66" s="12"/>
+      <c r="BB66" s="12"/>
+      <c r="BC66" s="12"/>
+      <c r="BD66" s="12"/>
+      <c r="BE66" s="12"/>
+      <c r="BF66" s="12"/>
+      <c r="BG66" s="12"/>
+      <c r="BH66" s="12"/>
+      <c r="BI66" s="12"/>
+      <c r="BJ66" s="12"/>
+      <c r="BK66" s="12"/>
+      <c r="BL66" s="12"/>
+      <c r="BM66" s="12"/>
+      <c r="BN66" s="12"/>
+      <c r="BO66" s="12"/>
+      <c r="BP66" s="12"/>
+      <c r="BQ66" s="20"/>
+    </row>
+    <row r="67" spans="5:69">
+      <c r="F67" s="11"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="12"/>
+      <c r="K67" s="12"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="12"/>
+      <c r="N67" s="12"/>
+      <c r="O67" s="12"/>
+      <c r="P67" s="12"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="12"/>
+      <c r="S67" s="12"/>
+      <c r="T67" s="12"/>
+      <c r="U67" s="12"/>
+      <c r="V67" s="12"/>
+      <c r="W67" s="12"/>
+      <c r="X67" s="12"/>
+      <c r="Y67" s="12"/>
+      <c r="Z67" s="12"/>
+      <c r="AA67" s="12"/>
+      <c r="AB67" s="12"/>
+      <c r="AC67" s="12"/>
+      <c r="AD67" s="12"/>
+      <c r="AE67" s="12"/>
+      <c r="AF67" s="12"/>
+      <c r="AG67" s="12"/>
+      <c r="AH67" s="12"/>
+      <c r="AI67" s="12"/>
+      <c r="AJ67" s="13"/>
+      <c r="AK67" s="12"/>
+      <c r="AL67" s="12"/>
+      <c r="AM67" s="12"/>
+      <c r="AN67" s="12"/>
+      <c r="AO67" s="12"/>
+      <c r="AP67" s="12"/>
+      <c r="AQ67" s="12"/>
+      <c r="AR67" s="12"/>
+      <c r="AS67" s="12"/>
+      <c r="AT67" s="12"/>
+      <c r="AU67" s="12"/>
+      <c r="AV67" s="20"/>
+      <c r="AX67">
+        <v>262</v>
+      </c>
+      <c r="AY67" s="21"/>
+      <c r="AZ67" s="22"/>
+      <c r="BA67" s="22"/>
+      <c r="BB67" s="22"/>
+      <c r="BC67" s="22"/>
+      <c r="BD67" s="22"/>
+      <c r="BE67" s="22"/>
+      <c r="BF67" s="22"/>
+      <c r="BG67" s="22"/>
+      <c r="BH67" s="22"/>
+      <c r="BI67" s="22"/>
+      <c r="BJ67" s="22"/>
+      <c r="BK67" s="22"/>
+      <c r="BL67" s="22"/>
+      <c r="BM67" s="22"/>
+      <c r="BN67" s="22"/>
+      <c r="BO67" s="22"/>
+      <c r="BP67" s="22"/>
+      <c r="BQ67" s="23"/>
+    </row>
+    <row r="68" spans="5:69">
+      <c r="F68" s="11"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="12"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="12"/>
+      <c r="N68" s="12"/>
+      <c r="O68" s="12"/>
+      <c r="P68" s="12"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="12"/>
+      <c r="S68" s="12"/>
+      <c r="T68" s="12"/>
+      <c r="U68" s="12"/>
+      <c r="V68" s="12"/>
+      <c r="W68" s="12"/>
+      <c r="X68" s="12"/>
+      <c r="Y68" s="12"/>
+      <c r="Z68" s="12"/>
+      <c r="AA68" s="12"/>
+      <c r="AB68" s="12"/>
+      <c r="AC68" s="12"/>
+      <c r="AD68" s="12"/>
+      <c r="AE68" s="12"/>
+      <c r="AF68" s="12"/>
+      <c r="AG68" s="12"/>
+      <c r="AH68" s="12"/>
+      <c r="AI68" s="12"/>
+      <c r="AJ68" s="13"/>
+      <c r="AK68" s="12"/>
+      <c r="AL68" s="12"/>
+      <c r="AM68" s="12"/>
+      <c r="AN68" s="12"/>
+      <c r="AO68" s="12"/>
+      <c r="AP68" s="12"/>
+      <c r="AQ68" s="12"/>
+      <c r="AR68" s="12"/>
+      <c r="AS68" s="12"/>
+      <c r="AT68" s="12"/>
+      <c r="AU68" s="12"/>
+      <c r="AV68" s="20"/>
+    </row>
+    <row r="69" spans="5:69">
+      <c r="F69" s="11"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="12"/>
+      <c r="N69" s="12"/>
+      <c r="O69" s="12"/>
+      <c r="P69" s="12"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="12"/>
+      <c r="S69" s="12"/>
+      <c r="T69" s="12"/>
+      <c r="U69" s="12"/>
+      <c r="V69" s="12"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="12"/>
+      <c r="Y69" s="12"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="12"/>
+      <c r="AB69" s="12"/>
+      <c r="AC69" s="12"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="12"/>
+      <c r="AF69" s="12"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="12"/>
+      <c r="AI69" s="12"/>
+      <c r="AJ69" s="13"/>
+      <c r="AK69" s="12"/>
+      <c r="AL69" s="12"/>
+      <c r="AM69" s="12"/>
+      <c r="AN69" s="12"/>
+      <c r="AO69" s="12"/>
+      <c r="AP69" s="12"/>
+      <c r="AQ69" s="12"/>
+      <c r="AR69" s="12"/>
+      <c r="AS69" s="12"/>
+      <c r="AT69" s="12"/>
+      <c r="AU69" s="12"/>
+      <c r="AV69" s="20"/>
+    </row>
+    <row r="70" spans="5:69">
+      <c r="F70" s="11"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="12"/>
+      <c r="K70" s="12"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="12"/>
+      <c r="N70" s="12"/>
+      <c r="O70" s="12"/>
+      <c r="P70" s="12"/>
+      <c r="Q70" s="12"/>
+      <c r="R70" s="12"/>
+      <c r="S70" s="12"/>
+      <c r="T70" s="12"/>
+      <c r="U70" s="12"/>
+      <c r="V70" s="12"/>
+      <c r="W70" s="12"/>
+      <c r="X70" s="12"/>
+      <c r="Y70" s="12"/>
+      <c r="Z70" s="12"/>
+      <c r="AA70" s="12"/>
+      <c r="AB70" s="12"/>
+      <c r="AC70" s="12"/>
+      <c r="AD70" s="12"/>
+      <c r="AE70" s="12"/>
+      <c r="AF70" s="12"/>
+      <c r="AG70" s="12"/>
+      <c r="AH70" s="12"/>
+      <c r="AI70" s="12"/>
+      <c r="AJ70" s="13"/>
+      <c r="AK70" s="12"/>
+      <c r="AL70" s="12"/>
+      <c r="AM70" s="12"/>
+      <c r="AN70" s="12"/>
+      <c r="AO70" s="12"/>
+      <c r="AP70" s="12"/>
+      <c r="AQ70" s="12"/>
+      <c r="AR70" s="12"/>
+      <c r="AS70" s="12"/>
+      <c r="AT70" s="12"/>
+      <c r="AU70" s="12"/>
+      <c r="AV70" s="20"/>
+    </row>
+    <row r="71" spans="5:69">
+      <c r="F71" s="11"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="12"/>
+      <c r="K71" s="12"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="12"/>
+      <c r="N71" s="12"/>
+      <c r="O71" s="12"/>
+      <c r="P71" s="12"/>
+      <c r="Q71" s="12"/>
+      <c r="R71" s="12"/>
+      <c r="S71" s="12"/>
+      <c r="T71" s="12"/>
+      <c r="U71" s="12"/>
+      <c r="V71" s="12"/>
+      <c r="W71" s="12"/>
+      <c r="X71" s="12"/>
+      <c r="Y71" s="12"/>
+      <c r="Z71" s="12"/>
+      <c r="AA71" s="12"/>
+      <c r="AB71" s="12"/>
+      <c r="AC71" s="12"/>
+      <c r="AD71" s="12"/>
+      <c r="AE71" s="12"/>
+      <c r="AF71" s="12"/>
+      <c r="AG71" s="12"/>
+      <c r="AH71" s="12"/>
+      <c r="AI71" s="12"/>
+      <c r="AJ71" s="13"/>
+      <c r="AK71" s="12"/>
+      <c r="AL71" s="12"/>
+      <c r="AM71" s="12"/>
+      <c r="AN71" s="12"/>
+      <c r="AO71" s="12"/>
+      <c r="AP71" s="12"/>
+      <c r="AQ71" s="12"/>
+      <c r="AR71" s="12"/>
+      <c r="AS71" s="12"/>
+      <c r="AT71" s="12"/>
+      <c r="AU71" s="12"/>
+      <c r="AV71" s="20"/>
+    </row>
+    <row r="72" spans="5:69">
+      <c r="F72" s="11"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="12"/>
+      <c r="K72" s="12"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="12"/>
+      <c r="N72" s="12"/>
+      <c r="O72" s="12"/>
+      <c r="P72" s="12"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="12"/>
+      <c r="S72" s="12"/>
+      <c r="T72" s="12"/>
+      <c r="U72" s="12"/>
+      <c r="V72" s="12"/>
+      <c r="W72" s="12"/>
+      <c r="X72" s="12"/>
+      <c r="Y72" s="12"/>
+      <c r="Z72" s="12"/>
+      <c r="AA72" s="12"/>
+      <c r="AB72" s="12"/>
+      <c r="AC72" s="12"/>
+      <c r="AD72" s="12"/>
+      <c r="AE72" s="12"/>
+      <c r="AF72" s="12"/>
+      <c r="AG72" s="12"/>
+      <c r="AH72" s="12"/>
+      <c r="AI72" s="12"/>
+      <c r="AJ72" s="13"/>
+      <c r="AK72" s="12"/>
+      <c r="AL72" s="12"/>
+      <c r="AM72" s="12"/>
+      <c r="AN72" s="12"/>
+      <c r="AO72" s="12"/>
+      <c r="AP72" s="12"/>
+      <c r="AQ72" s="12"/>
+      <c r="AR72" s="12"/>
+      <c r="AS72" s="12"/>
+      <c r="AT72" s="12"/>
+      <c r="AU72" s="12"/>
+      <c r="AV72" s="20"/>
+    </row>
+    <row r="73" spans="5:69">
+      <c r="F73" s="11"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="J73" s="12"/>
+      <c r="K73" s="12"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="12"/>
+      <c r="N73" s="12"/>
+      <c r="O73" s="12"/>
+      <c r="P73" s="12"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="12"/>
+      <c r="S73" s="12"/>
+      <c r="T73" s="12"/>
+      <c r="U73" s="12"/>
+      <c r="V73" s="12"/>
+      <c r="W73" s="12"/>
+      <c r="X73" s="12"/>
+      <c r="Y73" s="12"/>
+      <c r="Z73" s="12"/>
+      <c r="AA73" s="12"/>
+      <c r="AB73" s="12"/>
+      <c r="AC73" s="12"/>
+      <c r="AD73" s="12"/>
+      <c r="AE73" s="12"/>
+      <c r="AF73" s="12"/>
+      <c r="AG73" s="12"/>
+      <c r="AH73" s="12"/>
+      <c r="AI73" s="12"/>
+      <c r="AJ73" s="13"/>
+      <c r="AK73" s="12"/>
+      <c r="AL73" s="12"/>
+      <c r="AM73" s="12"/>
+      <c r="AN73" s="12"/>
+      <c r="AO73" s="12"/>
+      <c r="AP73" s="12"/>
+      <c r="AQ73" s="12"/>
+      <c r="AR73" s="12"/>
+      <c r="AS73" s="12"/>
+      <c r="AT73" s="12"/>
+      <c r="AU73" s="12"/>
+      <c r="AV73" s="20"/>
+    </row>
+    <row r="74" spans="5:69">
+      <c r="F74" s="11"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="J74" s="12"/>
+      <c r="K74" s="12"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="12"/>
+      <c r="N74" s="12"/>
+      <c r="O74" s="12"/>
+      <c r="P74" s="12"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="12"/>
+      <c r="S74" s="12"/>
+      <c r="T74" s="12"/>
+      <c r="U74" s="12"/>
+      <c r="V74" s="12"/>
+      <c r="W74" s="12"/>
+      <c r="X74" s="12"/>
+      <c r="Y74" s="12"/>
+      <c r="Z74" s="12"/>
+      <c r="AA74" s="12"/>
+      <c r="AB74" s="12"/>
+      <c r="AC74" s="12"/>
+      <c r="AD74" s="12"/>
+      <c r="AE74" s="12"/>
+      <c r="AF74" s="12"/>
+      <c r="AG74" s="12"/>
+      <c r="AH74" s="12"/>
+      <c r="AI74" s="12"/>
+      <c r="AJ74" s="13"/>
+      <c r="AK74" s="12"/>
+      <c r="AL74" s="12"/>
+      <c r="AM74" s="12"/>
+      <c r="AN74" s="12"/>
+      <c r="AO74" s="12"/>
+      <c r="AP74" s="12"/>
+      <c r="AQ74" s="12"/>
+      <c r="AR74" s="12"/>
+      <c r="AS74" s="12"/>
+      <c r="AT74" s="12"/>
+      <c r="AU74" s="12"/>
+      <c r="AV74" s="20"/>
+    </row>
+    <row r="75" spans="5:69">
+      <c r="F75" s="11"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="J75" s="12"/>
+      <c r="K75" s="12"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="12"/>
+      <c r="N75" s="12"/>
+      <c r="O75" s="12"/>
+      <c r="P75" s="12"/>
+      <c r="Q75" s="12"/>
+      <c r="R75" s="12"/>
+      <c r="S75" s="12"/>
+      <c r="T75" s="12"/>
+      <c r="U75" s="12"/>
+      <c r="V75" s="12"/>
+      <c r="W75" s="12"/>
+      <c r="X75" s="12"/>
+      <c r="Y75" s="12"/>
+      <c r="Z75" s="12"/>
+      <c r="AA75" s="12"/>
+      <c r="AB75" s="12"/>
+      <c r="AC75" s="12"/>
+      <c r="AD75" s="12"/>
+      <c r="AE75" s="12"/>
+      <c r="AF75" s="12"/>
+      <c r="AG75" s="12"/>
+      <c r="AH75" s="12"/>
+      <c r="AI75" s="12"/>
+      <c r="AJ75" s="13"/>
+      <c r="AK75" s="12"/>
+      <c r="AL75" s="12"/>
+      <c r="AM75" s="12"/>
+      <c r="AN75" s="12"/>
+      <c r="AO75" s="12"/>
+      <c r="AP75" s="12"/>
+      <c r="AQ75" s="12"/>
+      <c r="AR75" s="12"/>
+      <c r="AS75" s="12"/>
+      <c r="AT75" s="12"/>
+      <c r="AU75" s="12"/>
+      <c r="AV75" s="20"/>
+    </row>
+    <row r="76" spans="5:69">
+      <c r="F76" s="11"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="J76" s="12"/>
+      <c r="K76" s="12"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="12"/>
+      <c r="N76" s="12"/>
+      <c r="O76" s="12"/>
+      <c r="P76" s="12"/>
+      <c r="Q76" s="12"/>
+      <c r="R76" s="12"/>
+      <c r="S76" s="12"/>
+      <c r="T76" s="12"/>
+      <c r="U76" s="12"/>
+      <c r="V76" s="12"/>
+      <c r="W76" s="12"/>
+      <c r="X76" s="12"/>
+      <c r="Y76" s="12"/>
+      <c r="Z76" s="12"/>
+      <c r="AA76" s="12"/>
+      <c r="AB76" s="12"/>
+      <c r="AC76" s="12"/>
+      <c r="AD76" s="12"/>
+      <c r="AE76" s="12"/>
+      <c r="AF76" s="12"/>
+      <c r="AG76" s="12"/>
+      <c r="AH76" s="12"/>
+      <c r="AI76" s="12"/>
+      <c r="AJ76" s="13"/>
+      <c r="AK76" s="12"/>
+      <c r="AL76" s="12"/>
+      <c r="AM76" s="12"/>
+      <c r="AN76" s="12"/>
+      <c r="AO76" s="12"/>
+      <c r="AP76" s="12"/>
+      <c r="AQ76" s="12"/>
+      <c r="AR76" s="12"/>
+      <c r="AS76" s="12"/>
+      <c r="AT76" s="12"/>
+      <c r="AU76" s="12"/>
+      <c r="AV76" s="20"/>
+    </row>
+    <row r="77" spans="5:69" ht="14.25" thickBot="1">
+      <c r="E77">
+        <v>480</v>
+      </c>
+      <c r="F77" s="14"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15"/>
+      <c r="K77" s="15"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="15"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="15"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="15"/>
+      <c r="R77" s="15"/>
+      <c r="S77" s="15"/>
+      <c r="T77" s="15"/>
+      <c r="U77" s="15"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="15"/>
+      <c r="Y77" s="15"/>
+      <c r="Z77" s="15"/>
+      <c r="AA77" s="15"/>
+      <c r="AB77" s="15"/>
+      <c r="AC77" s="15"/>
+      <c r="AD77" s="15"/>
+      <c r="AE77" s="15"/>
+      <c r="AF77" s="15"/>
+      <c r="AG77" s="15"/>
+      <c r="AH77" s="15"/>
+      <c r="AI77" s="15"/>
+      <c r="AJ77" s="16"/>
+      <c r="AK77" s="12"/>
+      <c r="AL77" s="12"/>
+      <c r="AM77" s="12"/>
+      <c r="AN77" s="12"/>
+      <c r="AO77" s="12"/>
+      <c r="AP77" s="12"/>
+      <c r="AQ77" s="12"/>
+      <c r="AR77" s="12"/>
+      <c r="AS77" s="12"/>
+      <c r="AT77" s="12"/>
+      <c r="AU77" s="12"/>
+      <c r="AV77" s="20"/>
+    </row>
+    <row r="78" spans="5:69">
+      <c r="F78" s="19"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="12"/>
+      <c r="K78" s="12"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="12"/>
+      <c r="N78" s="12"/>
+      <c r="O78" s="12"/>
+      <c r="P78" s="12"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="12"/>
+      <c r="S78" s="12"/>
+      <c r="T78" s="12"/>
+      <c r="U78" s="12"/>
+      <c r="V78" s="12"/>
+      <c r="W78" s="12"/>
+      <c r="X78" s="12"/>
+      <c r="Y78" s="12"/>
+      <c r="Z78" s="12"/>
+      <c r="AA78" s="12"/>
+      <c r="AB78" s="12"/>
+      <c r="AC78" s="12"/>
+      <c r="AD78" s="12"/>
+      <c r="AE78" s="12"/>
+      <c r="AF78" s="12"/>
+      <c r="AG78" s="12"/>
+      <c r="AH78" s="12"/>
+      <c r="AI78" s="12"/>
+      <c r="AJ78" s="12"/>
+      <c r="AK78" s="12"/>
+      <c r="AL78" s="12"/>
+      <c r="AM78" s="12"/>
+      <c r="AN78" s="12"/>
+      <c r="AO78" s="12"/>
+      <c r="AP78" s="12"/>
+      <c r="AQ78" s="12"/>
+      <c r="AR78" s="12"/>
+      <c r="AS78" s="12"/>
+      <c r="AT78" s="12"/>
+      <c r="AU78" s="12"/>
+      <c r="AV78" s="20"/>
+    </row>
+    <row r="79" spans="5:69">
+      <c r="F79" s="19"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="12"/>
+      <c r="N79" s="12"/>
+      <c r="O79" s="12"/>
+      <c r="P79" s="12"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="12"/>
+      <c r="S79" s="12"/>
+      <c r="T79" s="12"/>
+      <c r="U79" s="12"/>
+      <c r="V79" s="12"/>
+      <c r="W79" s="12"/>
+      <c r="X79" s="12"/>
+      <c r="Y79" s="12"/>
+      <c r="Z79" s="12"/>
+      <c r="AA79" s="12"/>
+      <c r="AB79" s="12"/>
+      <c r="AC79" s="12"/>
+      <c r="AD79" s="12"/>
+      <c r="AE79" s="12"/>
+      <c r="AF79" s="12"/>
+      <c r="AG79" s="12"/>
+      <c r="AH79" s="12"/>
+      <c r="AI79" s="12"/>
+      <c r="AJ79" s="12"/>
+      <c r="AK79" s="12"/>
+      <c r="AL79" s="12"/>
+      <c r="AM79" s="12"/>
+      <c r="AN79" s="12"/>
+      <c r="AO79" s="12"/>
+      <c r="AP79" s="12"/>
+      <c r="AQ79" s="12"/>
+      <c r="AR79" s="12"/>
+      <c r="AS79" s="12"/>
+      <c r="AT79" s="12"/>
+      <c r="AU79" s="12"/>
+      <c r="AV79" s="20"/>
+    </row>
+    <row r="80" spans="5:69">
+      <c r="F80" s="19"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="12"/>
+      <c r="N80" s="12"/>
+      <c r="O80" s="12"/>
+      <c r="P80" s="12"/>
+      <c r="Q80" s="12"/>
+      <c r="R80" s="12"/>
+      <c r="S80" s="12"/>
+      <c r="T80" s="12"/>
+      <c r="U80" s="12"/>
+      <c r="V80" s="12"/>
+      <c r="W80" s="12"/>
+      <c r="X80" s="12"/>
+      <c r="Y80" s="12"/>
+      <c r="Z80" s="12"/>
+      <c r="AA80" s="12"/>
+      <c r="AB80" s="12"/>
+      <c r="AC80" s="12"/>
+      <c r="AD80" s="12"/>
+      <c r="AE80" s="12"/>
+      <c r="AF80" s="12"/>
+      <c r="AG80" s="12"/>
+      <c r="AH80" s="12"/>
+      <c r="AI80" s="12"/>
+      <c r="AJ80" s="12"/>
+      <c r="AK80" s="12"/>
+      <c r="AL80" s="12"/>
+      <c r="AM80" s="12"/>
+      <c r="AN80" s="12"/>
+      <c r="AO80" s="12"/>
+      <c r="AP80" s="12"/>
+      <c r="AQ80" s="12"/>
+      <c r="AR80" s="12"/>
+      <c r="AS80" s="12"/>
+      <c r="AT80" s="12"/>
+      <c r="AU80" s="12"/>
+      <c r="AV80" s="20"/>
+    </row>
+    <row r="81" spans="4:48">
+      <c r="F81" s="19"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="12"/>
+      <c r="K81" s="12"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="12"/>
+      <c r="N81" s="12"/>
+      <c r="O81" s="12"/>
+      <c r="P81" s="12"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="12"/>
+      <c r="S81" s="12"/>
+      <c r="T81" s="12"/>
+      <c r="U81" s="12"/>
+      <c r="V81" s="12"/>
+      <c r="W81" s="12"/>
+      <c r="X81" s="12"/>
+      <c r="Y81" s="12"/>
+      <c r="Z81" s="12"/>
+      <c r="AA81" s="12"/>
+      <c r="AB81" s="12"/>
+      <c r="AC81" s="12"/>
+      <c r="AD81" s="12"/>
+      <c r="AE81" s="12"/>
+      <c r="AF81" s="12"/>
+      <c r="AG81" s="12"/>
+      <c r="AH81" s="12"/>
+      <c r="AI81" s="12"/>
+      <c r="AJ81" s="12"/>
+      <c r="AK81" s="12"/>
+      <c r="AL81" s="12"/>
+      <c r="AM81" s="12"/>
+      <c r="AN81" s="12"/>
+      <c r="AO81" s="12"/>
+      <c r="AP81" s="12"/>
+      <c r="AQ81" s="12"/>
+      <c r="AR81" s="12"/>
+      <c r="AS81" s="12"/>
+      <c r="AT81" s="12"/>
+      <c r="AU81" s="12"/>
+      <c r="AV81" s="20"/>
+    </row>
+    <row r="82" spans="4:48">
+      <c r="F82" s="19"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="12"/>
+      <c r="K82" s="12"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="12"/>
+      <c r="N82" s="12"/>
+      <c r="O82" s="12"/>
+      <c r="P82" s="12"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="12"/>
+      <c r="S82" s="12"/>
+      <c r="T82" s="12"/>
+      <c r="U82" s="12"/>
+      <c r="V82" s="12"/>
+      <c r="W82" s="12"/>
+      <c r="X82" s="12"/>
+      <c r="Y82" s="12"/>
+      <c r="Z82" s="12"/>
+      <c r="AA82" s="12"/>
+      <c r="AB82" s="12"/>
+      <c r="AC82" s="12"/>
+      <c r="AD82" s="12"/>
+      <c r="AE82" s="12"/>
+      <c r="AF82" s="12"/>
+      <c r="AG82" s="12"/>
+      <c r="AH82" s="12"/>
+      <c r="AI82" s="12"/>
+      <c r="AJ82" s="12"/>
+      <c r="AK82" s="12"/>
+      <c r="AL82" s="12"/>
+      <c r="AM82" s="12"/>
+      <c r="AN82" s="12"/>
+      <c r="AO82" s="12"/>
+      <c r="AP82" s="12"/>
+      <c r="AQ82" s="12"/>
+      <c r="AR82" s="12"/>
+      <c r="AS82" s="12"/>
+      <c r="AT82" s="12"/>
+      <c r="AU82" s="12"/>
+      <c r="AV82" s="20"/>
+    </row>
+    <row r="83" spans="4:48">
+      <c r="F83" s="19"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="12"/>
+      <c r="K83" s="12"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="12"/>
+      <c r="N83" s="12"/>
+      <c r="O83" s="12"/>
+      <c r="P83" s="12"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="12"/>
+      <c r="S83" s="12"/>
+      <c r="T83" s="12"/>
+      <c r="U83" s="12"/>
+      <c r="V83" s="12"/>
+      <c r="W83" s="12"/>
+      <c r="X83" s="12"/>
+      <c r="Y83" s="12"/>
+      <c r="Z83" s="12"/>
+      <c r="AA83" s="12"/>
+      <c r="AB83" s="12"/>
+      <c r="AC83" s="12"/>
+      <c r="AD83" s="12"/>
+      <c r="AE83" s="12"/>
+      <c r="AF83" s="12"/>
+      <c r="AG83" s="12"/>
+      <c r="AH83" s="12"/>
+      <c r="AI83" s="12"/>
+      <c r="AJ83" s="12"/>
+      <c r="AK83" s="12"/>
+      <c r="AL83" s="12"/>
+      <c r="AM83" s="12"/>
+      <c r="AN83" s="12"/>
+      <c r="AO83" s="12"/>
+      <c r="AP83" s="12"/>
+      <c r="AQ83" s="12"/>
+      <c r="AR83" s="12"/>
+      <c r="AS83" s="12"/>
+      <c r="AT83" s="12"/>
+      <c r="AU83" s="12"/>
+      <c r="AV83" s="20"/>
+    </row>
+    <row r="84" spans="4:48">
+      <c r="F84" s="19"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="12"/>
+      <c r="K84" s="12"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="12"/>
+      <c r="N84" s="12"/>
+      <c r="O84" s="12"/>
+      <c r="P84" s="12"/>
+      <c r="Q84" s="12"/>
+      <c r="R84" s="12"/>
+      <c r="S84" s="12"/>
+      <c r="T84" s="12"/>
+      <c r="U84" s="12"/>
+      <c r="V84" s="12"/>
+      <c r="W84" s="12"/>
+      <c r="X84" s="12"/>
+      <c r="Y84" s="12"/>
+      <c r="Z84" s="12"/>
+      <c r="AA84" s="12"/>
+      <c r="AB84" s="12"/>
+      <c r="AC84" s="12"/>
+      <c r="AD84" s="12"/>
+      <c r="AE84" s="12"/>
+      <c r="AF84" s="12"/>
+      <c r="AG84" s="12"/>
+      <c r="AH84" s="12"/>
+      <c r="AI84" s="12"/>
+      <c r="AJ84" s="12"/>
+      <c r="AK84" s="12"/>
+      <c r="AL84" s="12"/>
+      <c r="AM84" s="12"/>
+      <c r="AN84" s="12"/>
+      <c r="AO84" s="12"/>
+      <c r="AP84" s="12"/>
+      <c r="AQ84" s="12"/>
+      <c r="AR84" s="12"/>
+      <c r="AS84" s="12"/>
+      <c r="AT84" s="12"/>
+      <c r="AU84" s="12"/>
+      <c r="AV84" s="20"/>
+    </row>
+    <row r="85" spans="4:48">
+      <c r="F85" s="19"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="12"/>
+      <c r="K85" s="12"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="12"/>
+      <c r="N85" s="12"/>
+      <c r="O85" s="12"/>
+      <c r="P85" s="12"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="12"/>
+      <c r="S85" s="12"/>
+      <c r="T85" s="12"/>
+      <c r="U85" s="12"/>
+      <c r="V85" s="12"/>
+      <c r="W85" s="12"/>
+      <c r="X85" s="12"/>
+      <c r="Y85" s="12"/>
+      <c r="Z85" s="12"/>
+      <c r="AA85" s="12"/>
+      <c r="AB85" s="12"/>
+      <c r="AC85" s="12"/>
+      <c r="AD85" s="12"/>
+      <c r="AE85" s="12"/>
+      <c r="AF85" s="12"/>
+      <c r="AG85" s="12"/>
+      <c r="AH85" s="12"/>
+      <c r="AI85" s="12"/>
+      <c r="AJ85" s="12"/>
+      <c r="AK85" s="12"/>
+      <c r="AL85" s="12"/>
+      <c r="AM85" s="12"/>
+      <c r="AN85" s="12"/>
+      <c r="AO85" s="12"/>
+      <c r="AP85" s="12"/>
+      <c r="AQ85" s="12"/>
+      <c r="AR85" s="12"/>
+      <c r="AS85" s="12"/>
+      <c r="AT85" s="12"/>
+      <c r="AU85" s="12"/>
+      <c r="AV85" s="20"/>
+    </row>
+    <row r="86" spans="4:48">
+      <c r="F86" s="19"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="12"/>
+      <c r="K86" s="12"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="12"/>
+      <c r="N86" s="12"/>
+      <c r="O86" s="12"/>
+      <c r="P86" s="12"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="12"/>
+      <c r="S86" s="12"/>
+      <c r="T86" s="12"/>
+      <c r="U86" s="12"/>
+      <c r="V86" s="12"/>
+      <c r="W86" s="12"/>
+      <c r="X86" s="12"/>
+      <c r="Y86" s="12"/>
+      <c r="Z86" s="12"/>
+      <c r="AA86" s="12"/>
+      <c r="AB86" s="12"/>
+      <c r="AC86" s="12"/>
+      <c r="AD86" s="12"/>
+      <c r="AE86" s="12"/>
+      <c r="AF86" s="12"/>
+      <c r="AG86" s="12"/>
+      <c r="AH86" s="12"/>
+      <c r="AI86" s="12"/>
+      <c r="AJ86" s="12"/>
+      <c r="AK86" s="12"/>
+      <c r="AL86" s="12"/>
+      <c r="AM86" s="12"/>
+      <c r="AN86" s="12"/>
+      <c r="AO86" s="12"/>
+      <c r="AP86" s="12"/>
+      <c r="AQ86" s="12"/>
+      <c r="AR86" s="12"/>
+      <c r="AS86" s="12"/>
+      <c r="AT86" s="12"/>
+      <c r="AU86" s="12"/>
+      <c r="AV86" s="20"/>
+    </row>
+    <row r="87" spans="4:48">
+      <c r="E87">
+        <v>525</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="22"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="22"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="22"/>
+      <c r="L87" s="22"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="22"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="22"/>
+      <c r="Q87" s="22"/>
+      <c r="R87" s="22"/>
+      <c r="S87" s="22"/>
+      <c r="T87" s="22"/>
+      <c r="U87" s="22"/>
+      <c r="V87" s="22"/>
+      <c r="W87" s="22"/>
+      <c r="X87" s="22"/>
+      <c r="Y87" s="22"/>
+      <c r="Z87" s="22"/>
+      <c r="AA87" s="22"/>
+      <c r="AB87" s="22"/>
+      <c r="AC87" s="22"/>
+      <c r="AD87" s="22"/>
+      <c r="AE87" s="22"/>
+      <c r="AF87" s="22"/>
+      <c r="AG87" s="22"/>
+      <c r="AH87" s="22"/>
+      <c r="AI87" s="22"/>
+      <c r="AJ87" s="22"/>
+      <c r="AK87" s="22"/>
+      <c r="AL87" s="22"/>
+      <c r="AM87" s="22"/>
+      <c r="AN87" s="22"/>
+      <c r="AO87" s="22"/>
+      <c r="AP87" s="22"/>
+      <c r="AQ87" s="22"/>
+      <c r="AR87" s="22"/>
+      <c r="AS87" s="22"/>
+      <c r="AT87" s="22"/>
+      <c r="AU87" s="22"/>
+      <c r="AV87" s="23"/>
+    </row>
+    <row r="89" spans="4:48">
+      <c r="D89" t="s">
+        <v>110</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="AF89">
+        <v>256</v>
+      </c>
+      <c r="AV89">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="4:48" ht="14.25" thickBot="1">
+      <c r="E90" t="s">
+        <v>109</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="AF90">
+        <v>512</v>
+      </c>
+      <c r="AJ90">
+        <v>640</v>
+      </c>
+      <c r="AV90">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="91" spans="4:48">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
+      <c r="S91" s="9"/>
+      <c r="T91" s="9"/>
+      <c r="U91" s="9"/>
+      <c r="V91" s="9"/>
+      <c r="W91" s="9"/>
+      <c r="X91" s="9"/>
+      <c r="Y91" s="9"/>
+      <c r="Z91" s="9"/>
+      <c r="AA91" s="9"/>
+      <c r="AB91" s="9"/>
+      <c r="AC91" s="9"/>
+      <c r="AD91" s="9"/>
+      <c r="AE91" s="9"/>
+      <c r="AF91" s="9"/>
+      <c r="AG91" s="28"/>
+      <c r="AH91" s="28"/>
+      <c r="AI91" s="28"/>
+      <c r="AJ91" s="29"/>
+      <c r="AK91" s="17"/>
+      <c r="AL91" s="17"/>
+      <c r="AM91" s="17"/>
+      <c r="AN91" s="17"/>
+      <c r="AO91" s="17"/>
+      <c r="AP91" s="17"/>
+      <c r="AQ91" s="17"/>
+      <c r="AR91" s="17"/>
+      <c r="AS91" s="17"/>
+      <c r="AT91" s="17"/>
+      <c r="AU91" s="17"/>
+      <c r="AV91" s="18"/>
+    </row>
+    <row r="92" spans="4:48">
+      <c r="F92" s="11"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="I92" s="12"/>
+      <c r="J92" s="12"/>
+      <c r="K92" s="12"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="12"/>
+      <c r="N92" s="12"/>
+      <c r="O92" s="12"/>
+      <c r="P92" s="12"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="12"/>
+      <c r="S92" s="12"/>
+      <c r="T92" s="12"/>
+      <c r="U92" s="12"/>
+      <c r="V92" s="12"/>
+      <c r="W92" s="12"/>
+      <c r="X92" s="12"/>
+      <c r="Y92" s="12"/>
+      <c r="Z92" s="12"/>
+      <c r="AA92" s="12"/>
+      <c r="AB92" s="12"/>
+      <c r="AC92" s="12"/>
+      <c r="AD92" s="12"/>
+      <c r="AE92" s="12"/>
+      <c r="AF92" s="12"/>
+      <c r="AG92" s="30"/>
+      <c r="AH92" s="30"/>
+      <c r="AI92" s="30"/>
+      <c r="AJ92" s="31"/>
+      <c r="AK92" s="12"/>
+      <c r="AL92" s="12"/>
+      <c r="AM92" s="12"/>
+      <c r="AN92" s="12"/>
+      <c r="AO92" s="12"/>
+      <c r="AP92" s="12"/>
+      <c r="AQ92" s="12"/>
+      <c r="AR92" s="12"/>
+      <c r="AS92" s="12"/>
+      <c r="AT92" s="12"/>
+      <c r="AU92" s="12"/>
+      <c r="AV92" s="20"/>
+    </row>
+    <row r="93" spans="4:48">
+      <c r="F93" s="11"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="I93" s="12"/>
+      <c r="J93" s="12"/>
+      <c r="K93" s="12"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="12"/>
+      <c r="N93" s="12"/>
+      <c r="O93" s="12"/>
+      <c r="P93" s="12"/>
+      <c r="Q93" s="12"/>
+      <c r="R93" s="12"/>
+      <c r="S93" s="12"/>
+      <c r="T93" s="12"/>
+      <c r="U93" s="12"/>
+      <c r="V93" s="12"/>
+      <c r="W93" s="12"/>
+      <c r="X93" s="12"/>
+      <c r="Y93" s="12"/>
+      <c r="Z93" s="12"/>
+      <c r="AA93" s="12"/>
+      <c r="AB93" s="12"/>
+      <c r="AC93" s="12"/>
+      <c r="AD93" s="12"/>
+      <c r="AE93" s="12"/>
+      <c r="AF93" s="12"/>
+      <c r="AG93" s="30"/>
+      <c r="AH93" s="30"/>
+      <c r="AI93" s="30"/>
+      <c r="AJ93" s="31"/>
+      <c r="AK93" s="12"/>
+      <c r="AL93" s="12"/>
+      <c r="AM93" s="12"/>
+      <c r="AN93" s="12"/>
+      <c r="AO93" s="12"/>
+      <c r="AP93" s="12"/>
+      <c r="AQ93" s="12"/>
+      <c r="AR93" s="12"/>
+      <c r="AS93" s="12"/>
+      <c r="AT93" s="12"/>
+      <c r="AU93" s="12"/>
+      <c r="AV93" s="20"/>
+    </row>
+    <row r="94" spans="4:48">
+      <c r="F94" s="11"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="I94" s="12"/>
+      <c r="J94" s="12"/>
+      <c r="K94" s="12"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="12"/>
+      <c r="N94" s="12"/>
+      <c r="O94" s="12"/>
+      <c r="P94" s="12"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="12"/>
+      <c r="S94" s="12"/>
+      <c r="T94" s="12"/>
+      <c r="U94" s="12"/>
+      <c r="V94" s="12"/>
+      <c r="W94" s="12"/>
+      <c r="X94" s="12"/>
+      <c r="Y94" s="12"/>
+      <c r="Z94" s="12"/>
+      <c r="AA94" s="12"/>
+      <c r="AB94" s="12"/>
+      <c r="AC94" s="12"/>
+      <c r="AD94" s="12"/>
+      <c r="AE94" s="12"/>
+      <c r="AF94" s="12"/>
+      <c r="AG94" s="30"/>
+      <c r="AH94" s="30"/>
+      <c r="AI94" s="30"/>
+      <c r="AJ94" s="31"/>
+      <c r="AK94" s="12"/>
+      <c r="AL94" s="12"/>
+      <c r="AM94" s="12"/>
+      <c r="AN94" s="12"/>
+      <c r="AO94" s="12"/>
+      <c r="AP94" s="12"/>
+      <c r="AQ94" s="12"/>
+      <c r="AR94" s="12"/>
+      <c r="AS94" s="12"/>
+      <c r="AT94" s="12"/>
+      <c r="AU94" s="12"/>
+      <c r="AV94" s="20"/>
+    </row>
+    <row r="95" spans="4:48">
+      <c r="F95" s="11"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="I95" s="12"/>
+      <c r="J95" s="12"/>
+      <c r="K95" s="12"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="12"/>
+      <c r="N95" s="12"/>
+      <c r="O95" s="12"/>
+      <c r="P95" s="12"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="12"/>
+      <c r="S95" s="12"/>
+      <c r="T95" s="12"/>
+      <c r="U95" s="12"/>
+      <c r="V95" s="12"/>
+      <c r="W95" s="12"/>
+      <c r="X95" s="12"/>
+      <c r="Y95" s="12"/>
+      <c r="Z95" s="12"/>
+      <c r="AA95" s="12"/>
+      <c r="AB95" s="12"/>
+      <c r="AC95" s="12"/>
+      <c r="AD95" s="12"/>
+      <c r="AE95" s="12"/>
+      <c r="AF95" s="12"/>
+      <c r="AG95" s="30"/>
+      <c r="AH95" s="30"/>
+      <c r="AI95" s="30"/>
+      <c r="AJ95" s="31"/>
+      <c r="AK95" s="12"/>
+      <c r="AL95" s="12"/>
+      <c r="AM95" s="12"/>
+      <c r="AN95" s="12"/>
+      <c r="AO95" s="12"/>
+      <c r="AP95" s="12"/>
+      <c r="AQ95" s="12"/>
+      <c r="AR95" s="12"/>
+      <c r="AS95" s="12"/>
+      <c r="AT95" s="12"/>
+      <c r="AU95" s="12"/>
+      <c r="AV95" s="20"/>
+    </row>
+    <row r="96" spans="4:48">
+      <c r="F96" s="11"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="12"/>
+      <c r="I96" s="12"/>
+      <c r="J96" s="12"/>
+      <c r="K96" s="12"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="12"/>
+      <c r="N96" s="12"/>
+      <c r="O96" s="12"/>
+      <c r="P96" s="12"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="12"/>
+      <c r="S96" s="12"/>
+      <c r="T96" s="12"/>
+      <c r="U96" s="12"/>
+      <c r="V96" s="12"/>
+      <c r="W96" s="12"/>
+      <c r="X96" s="12"/>
+      <c r="Y96" s="12"/>
+      <c r="Z96" s="12"/>
+      <c r="AA96" s="12"/>
+      <c r="AB96" s="12"/>
+      <c r="AC96" s="12"/>
+      <c r="AD96" s="12"/>
+      <c r="AE96" s="12"/>
+      <c r="AF96" s="12"/>
+      <c r="AG96" s="30"/>
+      <c r="AH96" s="30"/>
+      <c r="AI96" s="30"/>
+      <c r="AJ96" s="31"/>
+      <c r="AK96" s="12"/>
+      <c r="AL96" s="12"/>
+      <c r="AM96" s="12"/>
+      <c r="AN96" s="12"/>
+      <c r="AO96" s="12"/>
+      <c r="AP96" s="12"/>
+      <c r="AQ96" s="12"/>
+      <c r="AR96" s="12"/>
+      <c r="AS96" s="12"/>
+      <c r="AT96" s="12"/>
+      <c r="AU96" s="12"/>
+      <c r="AV96" s="20"/>
+    </row>
+    <row r="97" spans="6:48">
+      <c r="F97" s="11"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="12"/>
+      <c r="J97" s="12"/>
+      <c r="K97" s="12"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="12"/>
+      <c r="N97" s="12"/>
+      <c r="O97" s="12"/>
+      <c r="P97" s="12"/>
+      <c r="Q97" s="12"/>
+      <c r="R97" s="12"/>
+      <c r="S97" s="12"/>
+      <c r="T97" s="12"/>
+      <c r="U97" s="12"/>
+      <c r="V97" s="12"/>
+      <c r="W97" s="12"/>
+      <c r="X97" s="12"/>
+      <c r="Y97" s="12"/>
+      <c r="Z97" s="12"/>
+      <c r="AA97" s="12"/>
+      <c r="AB97" s="12"/>
+      <c r="AC97" s="12"/>
+      <c r="AD97" s="12"/>
+      <c r="AE97" s="12"/>
+      <c r="AF97" s="12"/>
+      <c r="AG97" s="30"/>
+      <c r="AH97" s="30"/>
+      <c r="AI97" s="30"/>
+      <c r="AJ97" s="31"/>
+      <c r="AK97" s="12"/>
+      <c r="AL97" s="12"/>
+      <c r="AM97" s="12"/>
+      <c r="AN97" s="12"/>
+      <c r="AO97" s="12"/>
+      <c r="AP97" s="12"/>
+      <c r="AQ97" s="12"/>
+      <c r="AR97" s="12"/>
+      <c r="AS97" s="12"/>
+      <c r="AT97" s="12"/>
+      <c r="AU97" s="12"/>
+      <c r="AV97" s="20"/>
+    </row>
+    <row r="98" spans="6:48">
+      <c r="F98" s="11"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="12"/>
+      <c r="I98" s="12"/>
+      <c r="J98" s="12"/>
+      <c r="K98" s="12"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="12"/>
+      <c r="N98" s="12"/>
+      <c r="O98" s="12"/>
+      <c r="P98" s="12"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="12"/>
+      <c r="S98" s="12"/>
+      <c r="T98" s="12"/>
+      <c r="U98" s="12"/>
+      <c r="V98" s="12"/>
+      <c r="W98" s="12"/>
+      <c r="X98" s="12"/>
+      <c r="Y98" s="12"/>
+      <c r="Z98" s="12"/>
+      <c r="AA98" s="12"/>
+      <c r="AB98" s="12"/>
+      <c r="AC98" s="12"/>
+      <c r="AD98" s="12"/>
+      <c r="AE98" s="12"/>
+      <c r="AF98" s="12"/>
+      <c r="AG98" s="30"/>
+      <c r="AH98" s="30"/>
+      <c r="AI98" s="30"/>
+      <c r="AJ98" s="31"/>
+      <c r="AK98" s="12"/>
+      <c r="AL98" s="12"/>
+      <c r="AM98" s="12"/>
+      <c r="AN98" s="12"/>
+      <c r="AO98" s="12"/>
+      <c r="AP98" s="12"/>
+      <c r="AQ98" s="12"/>
+      <c r="AR98" s="12"/>
+      <c r="AS98" s="12"/>
+      <c r="AT98" s="12"/>
+      <c r="AU98" s="12"/>
+      <c r="AV98" s="20"/>
+    </row>
+    <row r="99" spans="6:48">
+      <c r="F99" s="11"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="12"/>
+      <c r="I99" s="12"/>
+      <c r="J99" s="12"/>
+      <c r="K99" s="12"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="12"/>
+      <c r="N99" s="12"/>
+      <c r="O99" s="12"/>
+      <c r="P99" s="12"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="12"/>
+      <c r="S99" s="12"/>
+      <c r="T99" s="12"/>
+      <c r="U99" s="12"/>
+      <c r="V99" s="12"/>
+      <c r="W99" s="12"/>
+      <c r="X99" s="12"/>
+      <c r="Y99" s="12"/>
+      <c r="Z99" s="12"/>
+      <c r="AA99" s="12"/>
+      <c r="AB99" s="12"/>
+      <c r="AC99" s="12"/>
+      <c r="AD99" s="12"/>
+      <c r="AE99" s="12"/>
+      <c r="AF99" s="12"/>
+      <c r="AG99" s="30"/>
+      <c r="AH99" s="30"/>
+      <c r="AI99" s="30"/>
+      <c r="AJ99" s="31"/>
+      <c r="AK99" s="12"/>
+      <c r="AL99" s="12"/>
+      <c r="AM99" s="12"/>
+      <c r="AN99" s="12"/>
+      <c r="AO99" s="12"/>
+      <c r="AP99" s="12"/>
+      <c r="AQ99" s="12"/>
+      <c r="AR99" s="12"/>
+      <c r="AS99" s="12"/>
+      <c r="AT99" s="12"/>
+      <c r="AU99" s="12"/>
+      <c r="AV99" s="20"/>
+    </row>
+    <row r="100" spans="6:48">
+      <c r="F100" s="11"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="12"/>
+      <c r="I100" s="12"/>
+      <c r="J100" s="12"/>
+      <c r="K100" s="12"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="12"/>
+      <c r="N100" s="12"/>
+      <c r="O100" s="12"/>
+      <c r="P100" s="12"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="12"/>
+      <c r="S100" s="12"/>
+      <c r="T100" s="12"/>
+      <c r="U100" s="12"/>
+      <c r="V100" s="12"/>
+      <c r="W100" s="12"/>
+      <c r="X100" s="12"/>
+      <c r="Y100" s="12"/>
+      <c r="Z100" s="12"/>
+      <c r="AA100" s="12"/>
+      <c r="AB100" s="12"/>
+      <c r="AC100" s="12"/>
+      <c r="AD100" s="12"/>
+      <c r="AE100" s="12"/>
+      <c r="AF100" s="12"/>
+      <c r="AG100" s="30"/>
+      <c r="AH100" s="30"/>
+      <c r="AI100" s="30"/>
+      <c r="AJ100" s="31"/>
+      <c r="AK100" s="12"/>
+      <c r="AL100" s="12"/>
+      <c r="AM100" s="12"/>
+      <c r="AN100" s="12"/>
+      <c r="AO100" s="12"/>
+      <c r="AP100" s="12"/>
+      <c r="AQ100" s="12"/>
+      <c r="AR100" s="12"/>
+      <c r="AS100" s="12"/>
+      <c r="AT100" s="12"/>
+      <c r="AU100" s="12"/>
+      <c r="AV100" s="20"/>
+    </row>
+    <row r="101" spans="6:48">
+      <c r="F101" s="11"/>
+      <c r="G101" s="12"/>
+      <c r="H101" s="12"/>
+      <c r="I101" s="12"/>
+      <c r="J101" s="12"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="12"/>
+      <c r="N101" s="12"/>
+      <c r="O101" s="12"/>
+      <c r="P101" s="12"/>
+      <c r="Q101" s="12"/>
+      <c r="R101" s="12"/>
+      <c r="S101" s="12"/>
+      <c r="T101" s="12"/>
+      <c r="U101" s="12"/>
+      <c r="V101" s="12"/>
+      <c r="W101" s="12"/>
+      <c r="X101" s="12"/>
+      <c r="Y101" s="12"/>
+      <c r="Z101" s="12"/>
+      <c r="AA101" s="12"/>
+      <c r="AB101" s="12"/>
+      <c r="AC101" s="12"/>
+      <c r="AD101" s="12"/>
+      <c r="AE101" s="12"/>
+      <c r="AF101" s="12"/>
+      <c r="AG101" s="30"/>
+      <c r="AH101" s="30"/>
+      <c r="AI101" s="30"/>
+      <c r="AJ101" s="31"/>
+      <c r="AK101" s="12"/>
+      <c r="AL101" s="12"/>
+      <c r="AM101" s="12"/>
+      <c r="AN101" s="12"/>
+      <c r="AO101" s="12"/>
+      <c r="AP101" s="12"/>
+      <c r="AQ101" s="12"/>
+      <c r="AR101" s="12"/>
+      <c r="AS101" s="12"/>
+      <c r="AT101" s="12"/>
+      <c r="AU101" s="12"/>
+      <c r="AV101" s="20"/>
+    </row>
+    <row r="102" spans="6:48">
+      <c r="F102" s="11"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="12"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="12"/>
+      <c r="N102" s="12"/>
+      <c r="O102" s="12"/>
+      <c r="P102" s="12"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="12"/>
+      <c r="S102" s="12"/>
+      <c r="T102" s="12"/>
+      <c r="U102" s="12"/>
+      <c r="V102" s="12"/>
+      <c r="W102" s="12"/>
+      <c r="X102" s="12"/>
+      <c r="Y102" s="12"/>
+      <c r="Z102" s="12"/>
+      <c r="AA102" s="12"/>
+      <c r="AB102" s="12"/>
+      <c r="AC102" s="12"/>
+      <c r="AD102" s="12"/>
+      <c r="AE102" s="12"/>
+      <c r="AF102" s="12"/>
+      <c r="AG102" s="30"/>
+      <c r="AH102" s="30"/>
+      <c r="AI102" s="30"/>
+      <c r="AJ102" s="31"/>
+      <c r="AK102" s="12"/>
+      <c r="AL102" s="12"/>
+      <c r="AM102" s="12"/>
+      <c r="AN102" s="12"/>
+      <c r="AO102" s="12"/>
+      <c r="AP102" s="12"/>
+      <c r="AQ102" s="12"/>
+      <c r="AR102" s="12"/>
+      <c r="AS102" s="12"/>
+      <c r="AT102" s="12"/>
+      <c r="AU102" s="12"/>
+      <c r="AV102" s="20"/>
+    </row>
+    <row r="103" spans="6:48">
+      <c r="F103" s="11"/>
+      <c r="G103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="12"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="12"/>
+      <c r="N103" s="12"/>
+      <c r="O103" s="12"/>
+      <c r="P103" s="12"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="12"/>
+      <c r="S103" s="12"/>
+      <c r="T103" s="12"/>
+      <c r="U103" s="12"/>
+      <c r="V103" s="12"/>
+      <c r="W103" s="12"/>
+      <c r="X103" s="12"/>
+      <c r="Y103" s="12"/>
+      <c r="Z103" s="12"/>
+      <c r="AA103" s="12"/>
+      <c r="AB103" s="12"/>
+      <c r="AC103" s="12"/>
+      <c r="AD103" s="12"/>
+      <c r="AE103" s="12"/>
+      <c r="AF103" s="12"/>
+      <c r="AG103" s="30"/>
+      <c r="AH103" s="30"/>
+      <c r="AI103" s="30"/>
+      <c r="AJ103" s="31"/>
+      <c r="AK103" s="12"/>
+      <c r="AL103" s="12"/>
+      <c r="AM103" s="12"/>
+      <c r="AN103" s="12"/>
+      <c r="AO103" s="12"/>
+      <c r="AP103" s="12"/>
+      <c r="AQ103" s="12"/>
+      <c r="AR103" s="12"/>
+      <c r="AS103" s="12"/>
+      <c r="AT103" s="12"/>
+      <c r="AU103" s="12"/>
+      <c r="AV103" s="20"/>
+    </row>
+    <row r="104" spans="6:48">
+      <c r="F104" s="11"/>
+      <c r="G104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="12"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="12"/>
+      <c r="N104" s="12"/>
+      <c r="O104" s="12"/>
+      <c r="P104" s="12"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="12"/>
+      <c r="S104" s="12"/>
+      <c r="T104" s="12"/>
+      <c r="U104" s="12"/>
+      <c r="V104" s="12"/>
+      <c r="W104" s="12"/>
+      <c r="X104" s="12"/>
+      <c r="Y104" s="12"/>
+      <c r="Z104" s="12"/>
+      <c r="AA104" s="12"/>
+      <c r="AB104" s="12"/>
+      <c r="AC104" s="12"/>
+      <c r="AD104" s="12"/>
+      <c r="AE104" s="12"/>
+      <c r="AF104" s="12"/>
+      <c r="AG104" s="30"/>
+      <c r="AH104" s="30"/>
+      <c r="AI104" s="30"/>
+      <c r="AJ104" s="31"/>
+      <c r="AK104" s="12"/>
+      <c r="AL104" s="12"/>
+      <c r="AM104" s="12"/>
+      <c r="AN104" s="12"/>
+      <c r="AO104" s="12"/>
+      <c r="AP104" s="12"/>
+      <c r="AQ104" s="12"/>
+      <c r="AR104" s="12"/>
+      <c r="AS104" s="12"/>
+      <c r="AT104" s="12"/>
+      <c r="AU104" s="12"/>
+      <c r="AV104" s="20"/>
+    </row>
+    <row r="105" spans="6:48">
+      <c r="F105" s="11"/>
+      <c r="G105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="12"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="12"/>
+      <c r="N105" s="12"/>
+      <c r="O105" s="12"/>
+      <c r="P105" s="12"/>
+      <c r="Q105" s="12"/>
+      <c r="R105" s="12"/>
+      <c r="S105" s="12"/>
+      <c r="T105" s="12"/>
+      <c r="U105" s="12"/>
+      <c r="V105" s="12"/>
+      <c r="W105" s="12"/>
+      <c r="X105" s="12"/>
+      <c r="Y105" s="12"/>
+      <c r="Z105" s="12"/>
+      <c r="AA105" s="12"/>
+      <c r="AB105" s="12"/>
+      <c r="AC105" s="12"/>
+      <c r="AD105" s="12"/>
+      <c r="AE105" s="12"/>
+      <c r="AF105" s="12"/>
+      <c r="AG105" s="30"/>
+      <c r="AH105" s="30"/>
+      <c r="AI105" s="30"/>
+      <c r="AJ105" s="31"/>
+      <c r="AK105" s="12"/>
+      <c r="AL105" s="12"/>
+      <c r="AM105" s="12"/>
+      <c r="AN105" s="12"/>
+      <c r="AO105" s="12"/>
+      <c r="AP105" s="12"/>
+      <c r="AQ105" s="12"/>
+      <c r="AR105" s="12"/>
+      <c r="AS105" s="12"/>
+      <c r="AT105" s="12"/>
+      <c r="AU105" s="12"/>
+      <c r="AV105" s="20"/>
+    </row>
+    <row r="106" spans="6:48">
+      <c r="F106" s="11"/>
+      <c r="G106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="I106" s="12"/>
+      <c r="J106" s="12"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="12"/>
+      <c r="N106" s="12"/>
+      <c r="O106" s="12"/>
+      <c r="P106" s="12"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="12"/>
+      <c r="S106" s="12"/>
+      <c r="T106" s="12"/>
+      <c r="U106" s="12"/>
+      <c r="V106" s="12"/>
+      <c r="W106" s="12"/>
+      <c r="X106" s="12"/>
+      <c r="Y106" s="12"/>
+      <c r="Z106" s="12"/>
+      <c r="AA106" s="12"/>
+      <c r="AB106" s="12"/>
+      <c r="AC106" s="12"/>
+      <c r="AD106" s="12"/>
+      <c r="AE106" s="12"/>
+      <c r="AF106" s="12"/>
+      <c r="AG106" s="30"/>
+      <c r="AH106" s="30"/>
+      <c r="AI106" s="30"/>
+      <c r="AJ106" s="31"/>
+      <c r="AK106" s="12"/>
+      <c r="AL106" s="12"/>
+      <c r="AM106" s="12"/>
+      <c r="AN106" s="12"/>
+      <c r="AO106" s="12"/>
+      <c r="AP106" s="12"/>
+      <c r="AQ106" s="12"/>
+      <c r="AR106" s="12"/>
+      <c r="AS106" s="12"/>
+      <c r="AT106" s="12"/>
+      <c r="AU106" s="12"/>
+      <c r="AV106" s="20"/>
+    </row>
+    <row r="107" spans="6:48">
+      <c r="F107" s="11"/>
+      <c r="G107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="I107" s="12"/>
+      <c r="J107" s="12"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="12"/>
+      <c r="N107" s="12"/>
+      <c r="O107" s="12"/>
+      <c r="P107" s="12"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="12"/>
+      <c r="S107" s="12"/>
+      <c r="T107" s="12"/>
+      <c r="U107" s="12"/>
+      <c r="V107" s="12"/>
+      <c r="W107" s="12"/>
+      <c r="X107" s="12"/>
+      <c r="Y107" s="12"/>
+      <c r="Z107" s="12"/>
+      <c r="AA107" s="12"/>
+      <c r="AB107" s="12"/>
+      <c r="AC107" s="12"/>
+      <c r="AD107" s="12"/>
+      <c r="AE107" s="12"/>
+      <c r="AF107" s="12"/>
+      <c r="AG107" s="30"/>
+      <c r="AH107" s="30"/>
+      <c r="AI107" s="30"/>
+      <c r="AJ107" s="31"/>
+      <c r="AK107" s="12"/>
+      <c r="AL107" s="12"/>
+      <c r="AM107" s="12"/>
+      <c r="AN107" s="12"/>
+      <c r="AO107" s="12"/>
+      <c r="AP107" s="12"/>
+      <c r="AQ107" s="12"/>
+      <c r="AR107" s="12"/>
+      <c r="AS107" s="12"/>
+      <c r="AT107" s="12"/>
+      <c r="AU107" s="12"/>
+      <c r="AV107" s="20"/>
+    </row>
+    <row r="108" spans="6:48">
+      <c r="F108" s="11"/>
+      <c r="G108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="I108" s="12"/>
+      <c r="J108" s="12"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="12"/>
+      <c r="N108" s="12"/>
+      <c r="O108" s="12"/>
+      <c r="P108" s="12"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="12"/>
+      <c r="S108" s="12"/>
+      <c r="T108" s="12"/>
+      <c r="U108" s="12"/>
+      <c r="V108" s="12"/>
+      <c r="W108" s="12"/>
+      <c r="X108" s="12"/>
+      <c r="Y108" s="12"/>
+      <c r="Z108" s="12"/>
+      <c r="AA108" s="12"/>
+      <c r="AB108" s="12"/>
+      <c r="AC108" s="12"/>
+      <c r="AD108" s="12"/>
+      <c r="AE108" s="12"/>
+      <c r="AF108" s="12"/>
+      <c r="AG108" s="30"/>
+      <c r="AH108" s="30"/>
+      <c r="AI108" s="30"/>
+      <c r="AJ108" s="31"/>
+      <c r="AK108" s="12"/>
+      <c r="AL108" s="12"/>
+      <c r="AM108" s="12"/>
+      <c r="AN108" s="12"/>
+      <c r="AO108" s="12"/>
+      <c r="AP108" s="12"/>
+      <c r="AQ108" s="12"/>
+      <c r="AR108" s="12"/>
+      <c r="AS108" s="12"/>
+      <c r="AT108" s="12"/>
+      <c r="AU108" s="12"/>
+      <c r="AV108" s="20"/>
+    </row>
+    <row r="109" spans="6:48">
+      <c r="F109" s="11"/>
+      <c r="G109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="I109" s="12"/>
+      <c r="J109" s="12"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="12"/>
+      <c r="N109" s="12"/>
+      <c r="O109" s="12"/>
+      <c r="P109" s="12"/>
+      <c r="Q109" s="12"/>
+      <c r="R109" s="12"/>
+      <c r="S109" s="12"/>
+      <c r="T109" s="12"/>
+      <c r="U109" s="12"/>
+      <c r="V109" s="12"/>
+      <c r="W109" s="12"/>
+      <c r="X109" s="12"/>
+      <c r="Y109" s="12"/>
+      <c r="Z109" s="12"/>
+      <c r="AA109" s="12"/>
+      <c r="AB109" s="12"/>
+      <c r="AC109" s="12"/>
+      <c r="AD109" s="12"/>
+      <c r="AE109" s="12"/>
+      <c r="AF109" s="12"/>
+      <c r="AG109" s="30"/>
+      <c r="AH109" s="30"/>
+      <c r="AI109" s="30"/>
+      <c r="AJ109" s="31"/>
+      <c r="AK109" s="12"/>
+      <c r="AL109" s="12"/>
+      <c r="AM109" s="12"/>
+      <c r="AN109" s="12"/>
+      <c r="AO109" s="12"/>
+      <c r="AP109" s="12"/>
+      <c r="AQ109" s="12"/>
+      <c r="AR109" s="12"/>
+      <c r="AS109" s="12"/>
+      <c r="AT109" s="12"/>
+      <c r="AU109" s="12"/>
+      <c r="AV109" s="20"/>
+    </row>
+    <row r="110" spans="6:48">
+      <c r="F110" s="11"/>
+      <c r="G110" s="12"/>
+      <c r="H110" s="12"/>
+      <c r="I110" s="12"/>
+      <c r="J110" s="12"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="12"/>
+      <c r="N110" s="12"/>
+      <c r="O110" s="12"/>
+      <c r="P110" s="12"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+      <c r="T110" s="12"/>
+      <c r="U110" s="12"/>
+      <c r="V110" s="12"/>
+      <c r="W110" s="12"/>
+      <c r="X110" s="12"/>
+      <c r="Y110" s="12"/>
+      <c r="Z110" s="12"/>
+      <c r="AA110" s="12"/>
+      <c r="AB110" s="12"/>
+      <c r="AC110" s="12"/>
+      <c r="AD110" s="12"/>
+      <c r="AE110" s="12"/>
+      <c r="AF110" s="12"/>
+      <c r="AG110" s="30"/>
+      <c r="AH110" s="30"/>
+      <c r="AI110" s="30"/>
+      <c r="AJ110" s="31"/>
+      <c r="AK110" s="12"/>
+      <c r="AL110" s="12"/>
+      <c r="AM110" s="12"/>
+      <c r="AN110" s="12"/>
+      <c r="AO110" s="12"/>
+      <c r="AP110" s="12"/>
+      <c r="AQ110" s="12"/>
+      <c r="AR110" s="12"/>
+      <c r="AS110" s="12"/>
+      <c r="AT110" s="12"/>
+      <c r="AU110" s="12"/>
+      <c r="AV110" s="20"/>
+    </row>
+    <row r="111" spans="6:48">
+      <c r="F111" s="11"/>
+      <c r="G111" s="12"/>
+      <c r="H111" s="12"/>
+      <c r="I111" s="12"/>
+      <c r="J111" s="12"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="12"/>
+      <c r="N111" s="12"/>
+      <c r="O111" s="12"/>
+      <c r="P111" s="12"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+      <c r="T111" s="12"/>
+      <c r="U111" s="12"/>
+      <c r="V111" s="12"/>
+      <c r="W111" s="12"/>
+      <c r="X111" s="12"/>
+      <c r="Y111" s="12"/>
+      <c r="Z111" s="12"/>
+      <c r="AA111" s="12"/>
+      <c r="AB111" s="12"/>
+      <c r="AC111" s="12"/>
+      <c r="AD111" s="12"/>
+      <c r="AE111" s="12"/>
+      <c r="AF111" s="12"/>
+      <c r="AG111" s="30"/>
+      <c r="AH111" s="30"/>
+      <c r="AI111" s="30"/>
+      <c r="AJ111" s="31"/>
+      <c r="AK111" s="12"/>
+      <c r="AL111" s="12"/>
+      <c r="AM111" s="12"/>
+      <c r="AN111" s="12"/>
+      <c r="AO111" s="12"/>
+      <c r="AP111" s="12"/>
+      <c r="AQ111" s="12"/>
+      <c r="AR111" s="12"/>
+      <c r="AS111" s="12"/>
+      <c r="AT111" s="12"/>
+      <c r="AU111" s="12"/>
+      <c r="AV111" s="20"/>
+    </row>
+    <row r="112" spans="6:48">
+      <c r="F112" s="11"/>
+      <c r="G112" s="12"/>
+      <c r="H112" s="12"/>
+      <c r="I112" s="12"/>
+      <c r="J112" s="12"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="12"/>
+      <c r="N112" s="12"/>
+      <c r="O112" s="12"/>
+      <c r="P112" s="12"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+      <c r="T112" s="12"/>
+      <c r="U112" s="12"/>
+      <c r="V112" s="12"/>
+      <c r="W112" s="12"/>
+      <c r="X112" s="12"/>
+      <c r="Y112" s="12"/>
+      <c r="Z112" s="12"/>
+      <c r="AA112" s="12"/>
+      <c r="AB112" s="12"/>
+      <c r="AC112" s="12"/>
+      <c r="AD112" s="12"/>
+      <c r="AE112" s="12"/>
+      <c r="AF112" s="12"/>
+      <c r="AG112" s="30"/>
+      <c r="AH112" s="30"/>
+      <c r="AI112" s="30"/>
+      <c r="AJ112" s="31"/>
+      <c r="AK112" s="12"/>
+      <c r="AL112" s="12"/>
+      <c r="AM112" s="12"/>
+      <c r="AN112" s="12"/>
+      <c r="AO112" s="12"/>
+      <c r="AP112" s="12"/>
+      <c r="AQ112" s="12"/>
+      <c r="AR112" s="12"/>
+      <c r="AS112" s="12"/>
+      <c r="AT112" s="12"/>
+      <c r="AU112" s="12"/>
+      <c r="AV112" s="20"/>
+    </row>
+    <row r="113" spans="4:48">
+      <c r="F113" s="11"/>
+      <c r="G113" s="12"/>
+      <c r="H113" s="12"/>
+      <c r="I113" s="12"/>
+      <c r="J113" s="12"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="12"/>
+      <c r="N113" s="12"/>
+      <c r="O113" s="12"/>
+      <c r="P113" s="12"/>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+      <c r="T113" s="12"/>
+      <c r="U113" s="12"/>
+      <c r="V113" s="12"/>
+      <c r="W113" s="12"/>
+      <c r="X113" s="12"/>
+      <c r="Y113" s="12"/>
+      <c r="Z113" s="12"/>
+      <c r="AA113" s="12"/>
+      <c r="AB113" s="12"/>
+      <c r="AC113" s="12"/>
+      <c r="AD113" s="12"/>
+      <c r="AE113" s="12"/>
+      <c r="AF113" s="12"/>
+      <c r="AG113" s="30"/>
+      <c r="AH113" s="30"/>
+      <c r="AI113" s="30"/>
+      <c r="AJ113" s="31"/>
+      <c r="AK113" s="12"/>
+      <c r="AL113" s="12"/>
+      <c r="AM113" s="12"/>
+      <c r="AN113" s="12"/>
+      <c r="AO113" s="12"/>
+      <c r="AP113" s="12"/>
+      <c r="AQ113" s="12"/>
+      <c r="AR113" s="12"/>
+      <c r="AS113" s="12"/>
+      <c r="AT113" s="12"/>
+      <c r="AU113" s="12"/>
+      <c r="AV113" s="20"/>
+    </row>
+    <row r="114" spans="4:48">
+      <c r="F114" s="11"/>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12"/>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+      <c r="T114" s="12"/>
+      <c r="U114" s="12"/>
+      <c r="V114" s="12"/>
+      <c r="W114" s="12"/>
+      <c r="X114" s="12"/>
+      <c r="Y114" s="12"/>
+      <c r="Z114" s="12"/>
+      <c r="AA114" s="12"/>
+      <c r="AB114" s="12"/>
+      <c r="AC114" s="12"/>
+      <c r="AD114" s="12"/>
+      <c r="AE114" s="12"/>
+      <c r="AF114" s="12"/>
+      <c r="AG114" s="30"/>
+      <c r="AH114" s="30"/>
+      <c r="AI114" s="30"/>
+      <c r="AJ114" s="31"/>
+      <c r="AK114" s="12"/>
+      <c r="AL114" s="12"/>
+      <c r="AM114" s="12"/>
+      <c r="AN114" s="12"/>
+      <c r="AO114" s="12"/>
+      <c r="AP114" s="12"/>
+      <c r="AQ114" s="12"/>
+      <c r="AR114" s="12"/>
+      <c r="AS114" s="12"/>
+      <c r="AT114" s="12"/>
+      <c r="AU114" s="12"/>
+      <c r="AV114" s="20"/>
+    </row>
+    <row r="115" spans="4:48" ht="14.25" thickBot="1">
+      <c r="D115">
+        <v>240</v>
+      </c>
+      <c r="E115">
+        <v>480</v>
+      </c>
+      <c r="F115" s="14"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="15"/>
+      <c r="K115" s="15"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="15"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="15"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="15"/>
+      <c r="R115" s="15"/>
+      <c r="S115" s="15"/>
+      <c r="T115" s="15"/>
+      <c r="U115" s="15"/>
+      <c r="V115" s="15"/>
+      <c r="W115" s="15"/>
+      <c r="X115" s="15"/>
+      <c r="Y115" s="15"/>
+      <c r="Z115" s="15"/>
+      <c r="AA115" s="15"/>
+      <c r="AB115" s="15"/>
+      <c r="AC115" s="15"/>
+      <c r="AD115" s="15"/>
+      <c r="AE115" s="15"/>
+      <c r="AF115" s="15"/>
+      <c r="AG115" s="32"/>
+      <c r="AH115" s="32"/>
+      <c r="AI115" s="32"/>
+      <c r="AJ115" s="33"/>
+      <c r="AK115" s="12"/>
+      <c r="AL115" s="12"/>
+      <c r="AM115" s="12"/>
+      <c r="AN115" s="12"/>
+      <c r="AO115" s="12"/>
+      <c r="AP115" s="12"/>
+      <c r="AQ115" s="12"/>
+      <c r="AR115" s="12"/>
+      <c r="AS115" s="12"/>
+      <c r="AT115" s="12"/>
+      <c r="AU115" s="12"/>
+      <c r="AV115" s="20"/>
+    </row>
+    <row r="116" spans="4:48">
+      <c r="F116" s="19"/>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
+      <c r="S116" s="12"/>
+      <c r="T116" s="12"/>
+      <c r="U116" s="12"/>
+      <c r="V116" s="12"/>
+      <c r="W116" s="12"/>
+      <c r="X116" s="12"/>
+      <c r="Y116" s="12"/>
+      <c r="Z116" s="12"/>
+      <c r="AA116" s="12"/>
+      <c r="AB116" s="12"/>
+      <c r="AC116" s="12"/>
+      <c r="AD116" s="12"/>
+      <c r="AE116" s="12"/>
+      <c r="AF116" s="12"/>
+      <c r="AG116" s="12"/>
+      <c r="AH116" s="12"/>
+      <c r="AI116" s="12"/>
+      <c r="AJ116" s="12"/>
+      <c r="AK116" s="12"/>
+      <c r="AL116" s="12"/>
+      <c r="AM116" s="12"/>
+      <c r="AN116" s="12"/>
+      <c r="AO116" s="12"/>
+      <c r="AP116" s="12"/>
+      <c r="AQ116" s="12"/>
+      <c r="AR116" s="12"/>
+      <c r="AS116" s="12"/>
+      <c r="AT116" s="12"/>
+      <c r="AU116" s="12"/>
+      <c r="AV116" s="20"/>
+    </row>
+    <row r="117" spans="4:48">
+      <c r="F117" s="19"/>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="12"/>
+      <c r="R117" s="12"/>
+      <c r="S117" s="12"/>
+      <c r="T117" s="12"/>
+      <c r="U117" s="12"/>
+      <c r="V117" s="12"/>
+      <c r="W117" s="12"/>
+      <c r="X117" s="12"/>
+      <c r="Y117" s="12"/>
+      <c r="Z117" s="12"/>
+      <c r="AA117" s="12"/>
+      <c r="AB117" s="12"/>
+      <c r="AC117" s="12"/>
+      <c r="AD117" s="12"/>
+      <c r="AE117" s="12"/>
+      <c r="AF117" s="12"/>
+      <c r="AG117" s="12"/>
+      <c r="AH117" s="12"/>
+      <c r="AI117" s="12"/>
+      <c r="AJ117" s="12"/>
+      <c r="AK117" s="12"/>
+      <c r="AL117" s="12"/>
+      <c r="AM117" s="12"/>
+      <c r="AN117" s="12"/>
+      <c r="AO117" s="12"/>
+      <c r="AP117" s="12"/>
+      <c r="AQ117" s="12"/>
+      <c r="AR117" s="12"/>
+      <c r="AS117" s="12"/>
+      <c r="AT117" s="12"/>
+      <c r="AU117" s="12"/>
+      <c r="AV117" s="20"/>
+    </row>
+    <row r="118" spans="4:48">
+      <c r="F118" s="19"/>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
+      <c r="S118" s="12"/>
+      <c r="T118" s="12"/>
+      <c r="U118" s="12"/>
+      <c r="V118" s="12"/>
+      <c r="W118" s="12"/>
+      <c r="X118" s="12"/>
+      <c r="Y118" s="12"/>
+      <c r="Z118" s="12"/>
+      <c r="AA118" s="12"/>
+      <c r="AB118" s="12"/>
+      <c r="AC118" s="12"/>
+      <c r="AD118" s="12"/>
+      <c r="AE118" s="12"/>
+      <c r="AF118" s="12"/>
+      <c r="AG118" s="12"/>
+      <c r="AH118" s="12"/>
+      <c r="AI118" s="12"/>
+      <c r="AJ118" s="12"/>
+      <c r="AK118" s="12"/>
+      <c r="AL118" s="12"/>
+      <c r="AM118" s="12"/>
+      <c r="AN118" s="12"/>
+      <c r="AO118" s="12"/>
+      <c r="AP118" s="12"/>
+      <c r="AQ118" s="12"/>
+      <c r="AR118" s="12"/>
+      <c r="AS118" s="12"/>
+      <c r="AT118" s="12"/>
+      <c r="AU118" s="12"/>
+      <c r="AV118" s="20"/>
+    </row>
+    <row r="119" spans="4:48">
+      <c r="F119" s="19"/>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="12"/>
+      <c r="T119" s="12"/>
+      <c r="U119" s="12"/>
+      <c r="V119" s="12"/>
+      <c r="W119" s="12"/>
+      <c r="X119" s="12"/>
+      <c r="Y119" s="12"/>
+      <c r="Z119" s="12"/>
+      <c r="AA119" s="12"/>
+      <c r="AB119" s="12"/>
+      <c r="AC119" s="12"/>
+      <c r="AD119" s="12"/>
+      <c r="AE119" s="12"/>
+      <c r="AF119" s="12"/>
+      <c r="AG119" s="12"/>
+      <c r="AH119" s="12"/>
+      <c r="AI119" s="12"/>
+      <c r="AJ119" s="12"/>
+      <c r="AK119" s="12"/>
+      <c r="AL119" s="12"/>
+      <c r="AM119" s="12"/>
+      <c r="AN119" s="12"/>
+      <c r="AO119" s="12"/>
+      <c r="AP119" s="12"/>
+      <c r="AQ119" s="12"/>
+      <c r="AR119" s="12"/>
+      <c r="AS119" s="12"/>
+      <c r="AT119" s="12"/>
+      <c r="AU119" s="12"/>
+      <c r="AV119" s="20"/>
+    </row>
+    <row r="120" spans="4:48">
+      <c r="F120" s="19"/>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="12"/>
+      <c r="S120" s="12"/>
+      <c r="T120" s="12"/>
+      <c r="U120" s="12"/>
+      <c r="V120" s="12"/>
+      <c r="W120" s="12"/>
+      <c r="X120" s="12"/>
+      <c r="Y120" s="12"/>
+      <c r="Z120" s="12"/>
+      <c r="AA120" s="12"/>
+      <c r="AB120" s="12"/>
+      <c r="AC120" s="12"/>
+      <c r="AD120" s="12"/>
+      <c r="AE120" s="12"/>
+      <c r="AF120" s="12"/>
+      <c r="AG120" s="12"/>
+      <c r="AH120" s="12"/>
+      <c r="AI120" s="12"/>
+      <c r="AJ120" s="12"/>
+      <c r="AK120" s="12"/>
+      <c r="AL120" s="12"/>
+      <c r="AM120" s="12"/>
+      <c r="AN120" s="12"/>
+      <c r="AO120" s="12"/>
+      <c r="AP120" s="12"/>
+      <c r="AQ120" s="12"/>
+      <c r="AR120" s="12"/>
+      <c r="AS120" s="12"/>
+      <c r="AT120" s="12"/>
+      <c r="AU120" s="12"/>
+      <c r="AV120" s="20"/>
+    </row>
+    <row r="121" spans="4:48">
+      <c r="F121" s="19"/>
+      <c r="G121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="I121" s="12"/>
+      <c r="J121" s="12"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="12"/>
+      <c r="N121" s="12"/>
+      <c r="O121" s="12"/>
+      <c r="P121" s="12"/>
+      <c r="Q121" s="12"/>
+      <c r="R121" s="12"/>
+      <c r="S121" s="12"/>
+      <c r="T121" s="12"/>
+      <c r="U121" s="12"/>
+      <c r="V121" s="12"/>
+      <c r="W121" s="12"/>
+      <c r="X121" s="12"/>
+      <c r="Y121" s="12"/>
+      <c r="Z121" s="12"/>
+      <c r="AA121" s="12"/>
+      <c r="AB121" s="12"/>
+      <c r="AC121" s="12"/>
+      <c r="AD121" s="12"/>
+      <c r="AE121" s="12"/>
+      <c r="AF121" s="12"/>
+      <c r="AG121" s="12"/>
+      <c r="AH121" s="12"/>
+      <c r="AI121" s="12"/>
+      <c r="AJ121" s="12"/>
+      <c r="AK121" s="12"/>
+      <c r="AL121" s="12"/>
+      <c r="AM121" s="12"/>
+      <c r="AN121" s="12"/>
+      <c r="AO121" s="12"/>
+      <c r="AP121" s="12"/>
+      <c r="AQ121" s="12"/>
+      <c r="AR121" s="12"/>
+      <c r="AS121" s="12"/>
+      <c r="AT121" s="12"/>
+      <c r="AU121" s="12"/>
+      <c r="AV121" s="20"/>
+    </row>
+    <row r="122" spans="4:48">
+      <c r="F122" s="19"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+      <c r="O122" s="12"/>
+      <c r="P122" s="12"/>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="12"/>
+      <c r="T122" s="12"/>
+      <c r="U122" s="12"/>
+      <c r="V122" s="12"/>
+      <c r="W122" s="12"/>
+      <c r="X122" s="12"/>
+      <c r="Y122" s="12"/>
+      <c r="Z122" s="12"/>
+      <c r="AA122" s="12"/>
+      <c r="AB122" s="12"/>
+      <c r="AC122" s="12"/>
+      <c r="AD122" s="12"/>
+      <c r="AE122" s="12"/>
+      <c r="AF122" s="12"/>
+      <c r="AG122" s="12"/>
+      <c r="AH122" s="12"/>
+      <c r="AI122" s="12"/>
+      <c r="AJ122" s="12"/>
+      <c r="AK122" s="12"/>
+      <c r="AL122" s="12"/>
+      <c r="AM122" s="12"/>
+      <c r="AN122" s="12"/>
+      <c r="AO122" s="12"/>
+      <c r="AP122" s="12"/>
+      <c r="AQ122" s="12"/>
+      <c r="AR122" s="12"/>
+      <c r="AS122" s="12"/>
+      <c r="AT122" s="12"/>
+      <c r="AU122" s="12"/>
+      <c r="AV122" s="20"/>
+    </row>
+    <row r="123" spans="4:48">
+      <c r="F123" s="19"/>
+      <c r="G123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="I123" s="12"/>
+      <c r="J123" s="12"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="12"/>
+      <c r="N123" s="12"/>
+      <c r="O123" s="12"/>
+      <c r="P123" s="12"/>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
+      <c r="S123" s="12"/>
+      <c r="T123" s="12"/>
+      <c r="U123" s="12"/>
+      <c r="V123" s="12"/>
+      <c r="W123" s="12"/>
+      <c r="X123" s="12"/>
+      <c r="Y123" s="12"/>
+      <c r="Z123" s="12"/>
+      <c r="AA123" s="12"/>
+      <c r="AB123" s="12"/>
+      <c r="AC123" s="12"/>
+      <c r="AD123" s="12"/>
+      <c r="AE123" s="12"/>
+      <c r="AF123" s="12"/>
+      <c r="AG123" s="12"/>
+      <c r="AH123" s="12"/>
+      <c r="AI123" s="12"/>
+      <c r="AJ123" s="12"/>
+      <c r="AK123" s="12"/>
+      <c r="AL123" s="12"/>
+      <c r="AM123" s="12"/>
+      <c r="AN123" s="12"/>
+      <c r="AO123" s="12"/>
+      <c r="AP123" s="12"/>
+      <c r="AQ123" s="12"/>
+      <c r="AR123" s="12"/>
+      <c r="AS123" s="12"/>
+      <c r="AT123" s="12"/>
+      <c r="AU123" s="12"/>
+      <c r="AV123" s="20"/>
+    </row>
+    <row r="124" spans="4:48">
+      <c r="F124" s="19"/>
+      <c r="G124" s="12"/>
+      <c r="H124" s="12"/>
+      <c r="I124" s="12"/>
+      <c r="J124" s="12"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="12"/>
+      <c r="N124" s="12"/>
+      <c r="O124" s="12"/>
+      <c r="P124" s="12"/>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="12"/>
+      <c r="T124" s="12"/>
+      <c r="U124" s="12"/>
+      <c r="V124" s="12"/>
+      <c r="W124" s="12"/>
+      <c r="X124" s="12"/>
+      <c r="Y124" s="12"/>
+      <c r="Z124" s="12"/>
+      <c r="AA124" s="12"/>
+      <c r="AB124" s="12"/>
+      <c r="AC124" s="12"/>
+      <c r="AD124" s="12"/>
+      <c r="AE124" s="12"/>
+      <c r="AF124" s="12"/>
+      <c r="AG124" s="12"/>
+      <c r="AH124" s="12"/>
+      <c r="AI124" s="12"/>
+      <c r="AJ124" s="12"/>
+      <c r="AK124" s="12"/>
+      <c r="AL124" s="12"/>
+      <c r="AM124" s="12"/>
+      <c r="AN124" s="12"/>
+      <c r="AO124" s="12"/>
+      <c r="AP124" s="12"/>
+      <c r="AQ124" s="12"/>
+      <c r="AR124" s="12"/>
+      <c r="AS124" s="12"/>
+      <c r="AT124" s="12"/>
+      <c r="AU124" s="12"/>
+      <c r="AV124" s="20"/>
+    </row>
+    <row r="125" spans="4:48">
+      <c r="D125">
+        <v>263</v>
+      </c>
+      <c r="E125">
+        <v>525</v>
+      </c>
+      <c r="F125" s="21"/>
+      <c r="G125" s="22"/>
+      <c r="H125" s="22"/>
+      <c r="I125" s="22"/>
+      <c r="J125" s="22"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="22"/>
+      <c r="M125" s="22"/>
+      <c r="N125" s="22"/>
+      <c r="O125" s="22"/>
+      <c r="P125" s="22"/>
+      <c r="Q125" s="22"/>
+      <c r="R125" s="22"/>
+      <c r="S125" s="22"/>
+      <c r="T125" s="22"/>
+      <c r="U125" s="22"/>
+      <c r="V125" s="22"/>
+      <c r="W125" s="22"/>
+      <c r="X125" s="22"/>
+      <c r="Y125" s="22"/>
+      <c r="Z125" s="22"/>
+      <c r="AA125" s="22"/>
+      <c r="AB125" s="22"/>
+      <c r="AC125" s="22"/>
+      <c r="AD125" s="22"/>
+      <c r="AE125" s="22"/>
+      <c r="AF125" s="22"/>
+      <c r="AG125" s="22"/>
+      <c r="AH125" s="22"/>
+      <c r="AI125" s="22"/>
+      <c r="AJ125" s="22"/>
+      <c r="AK125" s="22"/>
+      <c r="AL125" s="22"/>
+      <c r="AM125" s="22"/>
+      <c r="AN125" s="22"/>
+      <c r="AO125" s="22"/>
+      <c r="AP125" s="22"/>
+      <c r="AQ125" s="22"/>
+      <c r="AR125" s="22"/>
+      <c r="AS125" s="22"/>
+      <c r="AT125" s="22"/>
+      <c r="AU125" s="22"/>
+      <c r="AV125" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="103">
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="BI33:BJ33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="BQ34:BR34"/>
+    <mergeCell ref="BS34:BT34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="BI34:BJ34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="BI42:BJ42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="BI36:BJ36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="BK33:BL33"/>
+    <mergeCell ref="BM33:BN33"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BK34:BL34"/>
+    <mergeCell ref="BM34:BN34"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BK42:BL42"/>
+    <mergeCell ref="BM42:BN42"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="BK36:BL36"/>
+    <mergeCell ref="BM36:BN36"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BY36:BZ36"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="G2:AW27"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="17" max="17" width="2.625" customWidth="1"/>
+    <col min="33" max="33" width="2.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="9:49">
+      <c r="I2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="9:49">
+      <c r="I3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="9:49">
+      <c r="N5">
+        <v>7</v>
+      </c>
+      <c r="O5">
+        <v>6</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>7</v>
+      </c>
+      <c r="AQ5">
+        <v>6</v>
+      </c>
+      <c r="AR5">
+        <v>5</v>
+      </c>
+      <c r="AS5">
+        <v>4</v>
+      </c>
+      <c r="AT5">
+        <v>3</v>
+      </c>
+      <c r="AU5">
+        <v>2</v>
+      </c>
+      <c r="AV5">
+        <v>1</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="9:49">
+      <c r="I6" t="s">
+        <v>134</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="44"/>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="42"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="43"/>
+      <c r="AS6" s="43"/>
+      <c r="AT6" s="43"/>
+      <c r="AU6" s="43"/>
+      <c r="AV6" s="44"/>
+      <c r="AW6" s="42"/>
+    </row>
+    <row r="7" spans="9:49">
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="44"/>
+      <c r="Y7" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO7">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="43"/>
+      <c r="AQ7" s="43"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="43"/>
+      <c r="AV7" s="43"/>
+      <c r="AW7" s="44"/>
+    </row>
+    <row r="8" spans="9:49">
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="44"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="44"/>
+      <c r="Y8" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="AO8">
+        <v>2</v>
+      </c>
+      <c r="AP8" s="43"/>
+      <c r="AQ8" s="43"/>
+      <c r="AR8" s="44"/>
+      <c r="AS8" s="42"/>
+      <c r="AT8" s="42"/>
+      <c r="AU8" s="43"/>
+      <c r="AV8" s="43"/>
+      <c r="AW8" s="44"/>
+    </row>
+    <row r="9" spans="9:49">
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="44"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="44"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="44"/>
+      <c r="Y9" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO9">
+        <v>3</v>
+      </c>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="44"/>
+      <c r="AS9" s="42"/>
+      <c r="AT9" s="42"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="44"/>
+    </row>
+    <row r="10" spans="9:49">
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="44"/>
+      <c r="Q10" s="44"/>
+      <c r="R10" s="44"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="44"/>
+      <c r="Y10" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="AO10">
+        <v>4</v>
+      </c>
+      <c r="AP10" s="43"/>
+      <c r="AQ10" s="43"/>
+      <c r="AR10" s="44"/>
+      <c r="AS10" s="42"/>
+      <c r="AT10" s="42"/>
+      <c r="AU10" s="43"/>
+      <c r="AV10" s="43"/>
+      <c r="AW10" s="44"/>
+    </row>
+    <row r="11" spans="9:49">
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="44"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="44"/>
+      <c r="AO11">
+        <v>5</v>
+      </c>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="42"/>
+      <c r="AT11" s="42"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="44"/>
+    </row>
+    <row r="12" spans="9:49">
+      <c r="M12">
+        <v>6</v>
+      </c>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="44"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="44"/>
+      <c r="AO12">
+        <v>6</v>
+      </c>
+      <c r="AP12" s="44"/>
+      <c r="AQ12" s="43"/>
+      <c r="AR12" s="43"/>
+      <c r="AS12" s="43"/>
+      <c r="AT12" s="43"/>
+      <c r="AU12" s="43"/>
+      <c r="AV12" s="44"/>
+      <c r="AW12" s="44"/>
+    </row>
+    <row r="13" spans="9:49">
+      <c r="M13">
+        <v>7</v>
+      </c>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="AO13">
+        <v>7</v>
+      </c>
+      <c r="AP13" s="42"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="42"/>
+    </row>
+    <row r="18" spans="7:46">
+      <c r="G18" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y18" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="AO18" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS18" s="46" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="7:46">
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>3</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>7</v>
+      </c>
+      <c r="AA19">
+        <v>6</v>
+      </c>
+      <c r="AB19">
+        <v>5</v>
+      </c>
+      <c r="AC19">
+        <v>4</v>
+      </c>
+      <c r="AD19">
+        <v>3</v>
+      </c>
+      <c r="AE19">
+        <v>2</v>
+      </c>
+      <c r="AF19">
+        <v>1</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:46">
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="44"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="44"/>
+      <c r="N20" s="44"/>
+      <c r="O20" s="44"/>
+      <c r="P20" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="42"/>
+      <c r="AH20" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="7:46">
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="44"/>
+      <c r="N21" s="44"/>
+      <c r="O21" s="44"/>
+      <c r="P21" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y21">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="42"/>
+      <c r="AH21" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="7:46">
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="44"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="44"/>
+      <c r="M22" s="44"/>
+      <c r="N22" s="44"/>
+      <c r="O22" s="44"/>
+      <c r="P22" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y22">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="42"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="42"/>
+      <c r="AH22" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="AO22">
+        <v>2</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="7:46">
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+      <c r="M23" s="44"/>
+      <c r="N23" s="44"/>
+      <c r="O23" s="44"/>
+      <c r="P23" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y23">
+        <v>3</v>
+      </c>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="42"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="42"/>
+      <c r="AH23" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO23">
+        <v>3</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="7:46">
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="44"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+      <c r="M24" s="44"/>
+      <c r="N24" s="44"/>
+      <c r="O24" s="44"/>
+      <c r="P24" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y24">
+        <v>4</v>
+      </c>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="42"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="42"/>
+      <c r="AH24" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO24">
+        <v>4</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="7:46">
+      <c r="G25">
+        <v>5</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
+      <c r="P25" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y25">
+        <v>5</v>
+      </c>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="42"/>
+      <c r="AC25" s="42"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="42"/>
+      <c r="AH25" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO25">
+        <v>5</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="7:46">
+      <c r="G26">
+        <v>6</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="44"/>
+      <c r="N26" s="44"/>
+      <c r="O26" s="44"/>
+      <c r="P26" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y26">
+        <v>6</v>
+      </c>
+      <c r="Z26" s="45"/>
+      <c r="AA26" s="45"/>
+      <c r="AB26" s="42"/>
+      <c r="AC26" s="42"/>
+      <c r="AD26" s="42"/>
+      <c r="AE26" s="45"/>
+      <c r="AF26" s="45"/>
+      <c r="AG26" s="42"/>
+      <c r="AH26" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="AO26">
+        <v>6</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="7:46">
+      <c r="G27">
+        <v>7</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="44"/>
+      <c r="N27" s="44"/>
+      <c r="O27" s="44"/>
+      <c r="P27" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y27">
+        <v>7</v>
+      </c>
+      <c r="Z27" s="42"/>
+      <c r="AA27" s="42"/>
+      <c r="AB27" s="42"/>
+      <c r="AC27" s="42"/>
+      <c r="AD27" s="42"/>
+      <c r="AE27" s="42"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="48" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO27">
+        <v>7</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS27" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT27" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U83" sqref="U83"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="153">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -417,10 +417,6 @@
   </si>
   <si>
     <t>0 - 239, 262</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>HGB</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -651,7 +647,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -908,13 +904,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1038,9 +1047,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1071,6 +1077,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1083,7 +1092,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3390,16 +3402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>201082</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>26561</xdr:rowOff>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>148170</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3408,8 +3420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="18369440" y="6849585"/>
-          <a:ext cx="195894" cy="1440391"/>
+          <a:off x="19145248" y="7323669"/>
+          <a:ext cx="148168" cy="444500"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -4485,10 +4497,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="48" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -4496,8 +4508,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="50"/>
-      <c r="B9" s="50"/>
+      <c r="A9" s="49"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
@@ -4536,10 +4548,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="49" t="s">
+      <c r="B13" s="48" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -4547,8 +4559,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="50"/>
-      <c r="B14" s="50"/>
+      <c r="A14" s="49"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
@@ -4687,10 +4699,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="49" t="s">
+      <c r="A29" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="48" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -4698,8 +4710,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="49"/>
       <c r="C30" s="6" t="s">
         <v>50</v>
       </c>
@@ -4727,10 +4739,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="48" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -4738,8 +4750,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
+      <c r="A34" s="49"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="6" t="s">
         <v>57</v>
       </c>
@@ -4839,22 +4851,22 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="49" t="s">
+      <c r="A47" s="48" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="49" t="s">
+      <c r="C47" s="48" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="50"/>
+      <c r="A48" s="49"/>
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="50"/>
+      <c r="C48" s="49"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
@@ -4878,22 +4890,22 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="49" t="s">
+      <c r="A52" s="48" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="49" t="s">
+      <c r="C52" s="48" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="50"/>
+      <c r="A53" s="49"/>
       <c r="B53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="50"/>
+      <c r="C53" s="49"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
@@ -4917,25 +4929,31 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="49" t="s">
+      <c r="A57" s="48" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="49" t="s">
+      <c r="C57" s="48" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="50"/>
+      <c r="A58" s="49"/>
       <c r="B58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="50"/>
+      <c r="C58" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -4944,12 +4962,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9452,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CF125"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AS32" sqref="AS32:AT32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BO33" sqref="BO33:BP33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -9483,6 +9495,7 @@
     <col min="69" max="69" width="4.5" bestFit="1" customWidth="1"/>
     <col min="75" max="75" width="4.5" bestFit="1" customWidth="1"/>
     <col min="78" max="79" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="3.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -9490,7 +9503,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="10:83" s="27" customFormat="1" ht="42">
+    <row r="32" spans="10:84" s="27" customFormat="1" ht="42">
       <c r="J32" s="27">
         <v>0</v>
       </c>
@@ -9694,6 +9707,9 @@
       </c>
       <c r="CE32" s="27">
         <v>399</v>
+      </c>
+      <c r="CF32" s="27">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="6:84">
@@ -9701,62 +9717,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="51" t="s">
+      <c r="K33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="51"/>
-      <c r="M33" s="51" t="s">
+      <c r="L33" s="50"/>
+      <c r="M33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="51"/>
-      <c r="O33" s="51" t="s">
+      <c r="N33" s="50"/>
+      <c r="O33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="51"/>
-      <c r="Q33" s="51" t="s">
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="51"/>
-      <c r="S33" s="51" t="s">
+      <c r="R33" s="50"/>
+      <c r="S33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="51"/>
-      <c r="U33" s="51" t="s">
+      <c r="T33" s="50"/>
+      <c r="U33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="51"/>
-      <c r="W33" s="51" t="s">
+      <c r="V33" s="50"/>
+      <c r="W33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51" t="s">
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51" t="s">
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="51"/>
+      <c r="AB33" s="50"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="51" t="s">
+      <c r="AG33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="51"/>
-      <c r="AI33" s="51" t="s">
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="51"/>
-      <c r="AK33" s="51" t="s">
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="51"/>
-      <c r="AM33" s="51" t="s">
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="51"/>
+      <c r="AN33" s="50"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -9773,116 +9789,110 @@
       <c r="BD33" s="34"/>
       <c r="BF33" s="34"/>
       <c r="BG33" s="34"/>
-      <c r="BI33" s="51" t="s">
+      <c r="BI33" s="34"/>
+      <c r="BJ33" s="34"/>
+      <c r="BK33" s="34"/>
+      <c r="BL33" s="34"/>
+      <c r="BM33" s="34"/>
+      <c r="BN33" s="34"/>
+      <c r="BO33" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BJ33" s="51"/>
-      <c r="BK33" s="51" t="s">
+      <c r="BP33" s="57"/>
+      <c r="BQ33" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="BL33" s="51"/>
-      <c r="BM33" s="51" t="s">
+      <c r="BR33" s="57"/>
+      <c r="BS33" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="BN33" s="51"/>
-      <c r="BO33" s="51" t="s">
+      <c r="BT33" s="57"/>
+      <c r="BU33" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="BP33" s="51"/>
-      <c r="BQ33" s="51" t="s">
+      <c r="BV33" s="57"/>
+      <c r="BW33" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BR33" s="51"/>
-      <c r="BS33" s="51" t="s">
+      <c r="BX33" s="57"/>
+      <c r="BY33" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="BT33" s="51"/>
-      <c r="BU33" s="51" t="s">
+      <c r="BZ33" s="57"/>
+      <c r="CA33" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="BV33" s="51"/>
-      <c r="BW33" s="51" t="s">
+      <c r="CB33" s="57"/>
+      <c r="CC33" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="BX33" s="51"/>
-      <c r="BY33" s="51" t="s">
+      <c r="CD33" s="57"/>
+      <c r="CE33" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BZ33" s="51"/>
-      <c r="CA33" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="CB33" s="51"/>
-      <c r="CC33" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="CD33" s="51"/>
-      <c r="CE33" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF33" s="27"/>
+      <c r="CF33" s="57"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="51" t="s">
+      <c r="K34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="51"/>
-      <c r="M34" s="51" t="s">
+      <c r="L34" s="50"/>
+      <c r="M34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="51"/>
-      <c r="O34" s="51" t="s">
+      <c r="N34" s="50"/>
+      <c r="O34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="51"/>
-      <c r="Q34" s="51" t="s">
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="51"/>
-      <c r="S34" s="51" t="s">
+      <c r="R34" s="50"/>
+      <c r="S34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="51"/>
-      <c r="U34" s="51" t="s">
+      <c r="T34" s="50"/>
+      <c r="U34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="51"/>
-      <c r="W34" s="51" t="s">
+      <c r="V34" s="50"/>
+      <c r="W34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51" t="s">
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51" t="s">
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="51"/>
+      <c r="AB34" s="50"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="51" t="s">
+      <c r="AG34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="51"/>
-      <c r="AI34" s="51" t="s">
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="51"/>
-      <c r="AK34" s="51" t="s">
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="51"/>
-      <c r="AM34" s="51" t="s">
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="51"/>
+      <c r="AN34" s="50"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -9899,54 +9909,48 @@
       <c r="BD34" s="34"/>
       <c r="BF34" s="34"/>
       <c r="BG34" s="34"/>
-      <c r="BI34" s="51" t="s">
+      <c r="BI34" s="34"/>
+      <c r="BJ34" s="34"/>
+      <c r="BK34" s="34"/>
+      <c r="BL34" s="34"/>
+      <c r="BM34" s="34"/>
+      <c r="BN34" s="34"/>
+      <c r="BO34" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BJ34" s="51"/>
-      <c r="BK34" s="51" t="s">
+      <c r="BP34" s="57"/>
+      <c r="BQ34" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="BL34" s="51"/>
-      <c r="BM34" s="51" t="s">
+      <c r="BR34" s="57"/>
+      <c r="BS34" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="BN34" s="51"/>
-      <c r="BO34" s="51" t="s">
+      <c r="BT34" s="57"/>
+      <c r="BU34" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="BP34" s="51"/>
-      <c r="BQ34" s="51" t="s">
+      <c r="BV34" s="57"/>
+      <c r="BW34" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BR34" s="51"/>
-      <c r="BS34" s="51" t="s">
+      <c r="BX34" s="57"/>
+      <c r="BY34" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="BT34" s="51"/>
-      <c r="BU34" s="51" t="s">
+      <c r="BZ34" s="57"/>
+      <c r="CA34" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="BV34" s="51"/>
-      <c r="BW34" s="51" t="s">
+      <c r="CB34" s="57"/>
+      <c r="CC34" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="BX34" s="51"/>
-      <c r="BY34" s="51" t="s">
+      <c r="CD34" s="57"/>
+      <c r="CE34" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BZ34" s="51"/>
-      <c r="CA34" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="CB34" s="51"/>
-      <c r="CC34" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="CD34" s="51"/>
-      <c r="CE34" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF34" s="27"/>
+      <c r="CF34" s="57"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -9960,62 +9964,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="56" t="s">
+      <c r="K36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="56"/>
-      <c r="M36" s="56" t="s">
+      <c r="L36" s="51"/>
+      <c r="M36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="56"/>
-      <c r="O36" s="56" t="s">
+      <c r="N36" s="51"/>
+      <c r="O36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="56"/>
-      <c r="Q36" s="56" t="s">
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="56"/>
-      <c r="S36" s="56" t="s">
+      <c r="R36" s="51"/>
+      <c r="S36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="56"/>
-      <c r="U36" s="56" t="s">
+      <c r="T36" s="51"/>
+      <c r="U36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="56"/>
-      <c r="W36" s="56" t="s">
+      <c r="V36" s="51"/>
+      <c r="W36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="56"/>
-      <c r="Y36" s="56" t="s">
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="56"/>
-      <c r="AA36" s="56" t="s">
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="56"/>
+      <c r="AB36" s="51"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="56" t="s">
+      <c r="AG36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="56"/>
-      <c r="AI36" s="56" t="s">
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56" t="s">
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="56"/>
-      <c r="AM36" s="56" t="s">
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="56"/>
+      <c r="AN36" s="51"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -10032,54 +10036,48 @@
       <c r="BD36" s="36"/>
       <c r="BF36" s="34"/>
       <c r="BG36" s="34"/>
-      <c r="BI36" s="51" t="s">
+      <c r="BI36" s="34"/>
+      <c r="BJ36" s="34"/>
+      <c r="BK36" s="34"/>
+      <c r="BL36" s="34"/>
+      <c r="BM36" s="34"/>
+      <c r="BN36" s="34"/>
+      <c r="BO36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BJ36" s="51"/>
-      <c r="BK36" s="51" t="s">
+      <c r="BP36" s="57"/>
+      <c r="BQ36" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="BL36" s="51"/>
-      <c r="BM36" s="51" t="s">
+      <c r="BR36" s="57"/>
+      <c r="BS36" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="BN36" s="51"/>
-      <c r="BO36" s="51" t="s">
+      <c r="BT36" s="57"/>
+      <c r="BU36" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="BP36" s="51"/>
-      <c r="BQ36" s="51" t="s">
+      <c r="BV36" s="57"/>
+      <c r="BW36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BR36" s="51"/>
-      <c r="BS36" s="51" t="s">
+      <c r="BX36" s="57"/>
+      <c r="BY36" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="BT36" s="51"/>
-      <c r="BU36" s="51" t="s">
+      <c r="BZ36" s="57"/>
+      <c r="CA36" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="BV36" s="51"/>
-      <c r="BW36" s="51" t="s">
+      <c r="CB36" s="57"/>
+      <c r="CC36" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="BX36" s="51"/>
-      <c r="BY36" s="51" t="s">
+      <c r="CD36" s="57"/>
+      <c r="CE36" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BZ36" s="51"/>
-      <c r="CA36" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="CB36" s="51"/>
-      <c r="CC36" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="CD36" s="51"/>
-      <c r="CE36" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF36" s="27"/>
+      <c r="CF36" s="57"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -10415,58 +10413,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="51" t="s">
+      <c r="M42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="51"/>
-      <c r="O42" s="51" t="s">
+      <c r="N42" s="50"/>
+      <c r="O42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="51"/>
-      <c r="Q42" s="51" t="s">
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="51"/>
-      <c r="S42" s="51" t="s">
+      <c r="R42" s="50"/>
+      <c r="S42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="51"/>
-      <c r="U42" s="51" t="s">
+      <c r="T42" s="50"/>
+      <c r="U42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="51"/>
-      <c r="W42" s="51" t="s">
+      <c r="V42" s="50"/>
+      <c r="W42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="51"/>
-      <c r="Y42" s="51" t="s">
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="51"/>
-      <c r="AA42" s="51" t="s">
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="51"/>
+      <c r="AB42" s="50"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="51" t="s">
+      <c r="AG42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="51"/>
-      <c r="AI42" s="51" t="s">
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="51"/>
-      <c r="AK42" s="51" t="s">
+      <c r="AJ42" s="50"/>
+      <c r="AK42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="51"/>
-      <c r="AM42" s="51" t="s">
+      <c r="AL42" s="50"/>
+      <c r="AM42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="51"/>
+      <c r="AN42" s="50"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -10483,54 +10481,48 @@
       <c r="BD42" s="34"/>
       <c r="BF42" s="34"/>
       <c r="BG42" s="34"/>
-      <c r="BI42" s="51" t="s">
+      <c r="BI42" s="34"/>
+      <c r="BJ42" s="34"/>
+      <c r="BK42" s="34"/>
+      <c r="BL42" s="34"/>
+      <c r="BM42" s="34"/>
+      <c r="BN42" s="34"/>
+      <c r="BO42" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BJ42" s="51"/>
-      <c r="BK42" s="51" t="s">
+      <c r="BP42" s="57"/>
+      <c r="BQ42" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="BL42" s="51"/>
-      <c r="BM42" s="51" t="s">
+      <c r="BR42" s="57"/>
+      <c r="BS42" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="BN42" s="51"/>
-      <c r="BO42" s="51" t="s">
+      <c r="BT42" s="57"/>
+      <c r="BU42" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="BP42" s="51"/>
-      <c r="BQ42" s="51" t="s">
+      <c r="BV42" s="57"/>
+      <c r="BW42" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BR42" s="51"/>
-      <c r="BS42" s="51" t="s">
+      <c r="BX42" s="57"/>
+      <c r="BY42" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="BT42" s="51"/>
-      <c r="BU42" s="51" t="s">
+      <c r="BZ42" s="57"/>
+      <c r="CA42" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="BV42" s="51"/>
-      <c r="BW42" s="51" t="s">
+      <c r="CB42" s="57"/>
+      <c r="CC42" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="BX42" s="51"/>
-      <c r="BY42" s="51" t="s">
+      <c r="CD42" s="57"/>
+      <c r="CE42" s="56" t="s">
         <v>111</v>
       </c>
-      <c r="BZ42" s="51"/>
-      <c r="CA42" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="CB42" s="51"/>
-      <c r="CC42" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="CD42" s="51"/>
-      <c r="CE42" s="41" t="s">
-        <v>121</v>
-      </c>
-      <c r="CF42" s="27"/>
+      <c r="CF42" s="57"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -10541,15 +10533,14 @@
     </row>
     <row r="44" spans="6:84">
       <c r="AK44" t="s">
-        <v>122</v>
-      </c>
-      <c r="CA44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="CB44" s="27"/>
       <c r="CC44" s="27"/>
       <c r="CD44" s="27"/>
-      <c r="CE44" s="27"/>
+      <c r="CE44" t="s">
+        <v>121</v>
+      </c>
       <c r="CF44" s="27"/>
     </row>
     <row r="45" spans="6:84">
@@ -10598,22 +10589,22 @@
       <c r="AL46" s="55"/>
       <c r="AM46" s="55"/>
       <c r="AN46" s="55"/>
-      <c r="AO46" s="51" t="s">
+      <c r="AO46" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="51"/>
-      <c r="AQ46" s="51" t="s">
+      <c r="AP46" s="50"/>
+      <c r="AQ46" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="51"/>
-      <c r="AS46" s="51" t="s">
+      <c r="AR46" s="50"/>
+      <c r="AS46" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="51"/>
-      <c r="AU46" s="51" t="s">
+      <c r="AT46" s="50"/>
+      <c r="AU46" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="51"/>
+      <c r="AV46" s="50"/>
       <c r="AW46" s="52" t="s">
         <v>119</v>
       </c>
@@ -10625,10 +10616,10 @@
       <c r="BC46" s="53"/>
       <c r="BD46" s="53"/>
       <c r="BE46" s="54"/>
-      <c r="BF46" s="51" t="s">
+      <c r="BF46" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="51"/>
+      <c r="BG46" s="50"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -10738,7 +10729,7 @@
       <c r="BP53" s="17"/>
       <c r="BQ53" s="18"/>
       <c r="BS53" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="5:71">
@@ -10872,7 +10863,7 @@
       <c r="BP55" s="12"/>
       <c r="BQ55" s="20"/>
       <c r="BS55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="5:71">
@@ -10939,7 +10930,7 @@
       <c r="BP56" s="12"/>
       <c r="BQ56" s="20"/>
       <c r="BS56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="57" spans="5:71">
@@ -11006,7 +10997,7 @@
       <c r="BP57" s="12"/>
       <c r="BQ57" s="20"/>
       <c r="BS57" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="58" spans="5:71">
@@ -11073,7 +11064,7 @@
       <c r="BP58" s="12"/>
       <c r="BQ58" s="20"/>
       <c r="BS58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="5:71">
@@ -14189,60 +14180,40 @@
       <c r="AV125" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="BI33:BJ33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="BQ34:BR34"/>
-    <mergeCell ref="BS34:BT34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="BI34:BJ34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="BI42:BJ42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="BI36:BJ36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
+  <mergeCells count="95">
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
     <mergeCell ref="AS46:AT46"/>
     <mergeCell ref="AU46:AV46"/>
     <mergeCell ref="BF46:BG46"/>
@@ -14256,47 +14227,60 @@
     <mergeCell ref="AI42:AJ42"/>
     <mergeCell ref="AK42:AL42"/>
     <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BK33:BL33"/>
-    <mergeCell ref="BM33:BN33"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BK34:BL34"/>
-    <mergeCell ref="BM34:BN34"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BK42:BL42"/>
-    <mergeCell ref="BM42:BN42"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="BK36:BL36"/>
-    <mergeCell ref="BM36:BN36"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="BQ34:BR34"/>
+    <mergeCell ref="BS34:BT34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U33:V33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -14317,12 +14301,12 @@
   <sheetData>
     <row r="2" spans="9:49">
       <c r="I2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="9:49">
       <c r="I3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="9:49">
@@ -14377,223 +14361,223 @@
     </row>
     <row r="6" spans="9:49">
       <c r="I6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="43"/>
-      <c r="U6" s="44"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="43"/>
       <c r="AO6">
         <v>0</v>
       </c>
-      <c r="AP6" s="42"/>
-      <c r="AQ6" s="43"/>
-      <c r="AR6" s="43"/>
-      <c r="AS6" s="43"/>
-      <c r="AT6" s="43"/>
-      <c r="AU6" s="43"/>
-      <c r="AV6" s="44"/>
-      <c r="AW6" s="42"/>
+      <c r="AP6" s="41"/>
+      <c r="AQ6" s="42"/>
+      <c r="AR6" s="42"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="42"/>
+      <c r="AU6" s="42"/>
+      <c r="AV6" s="43"/>
+      <c r="AW6" s="41"/>
     </row>
     <row r="7" spans="9:49">
       <c r="M7">
         <v>1</v>
       </c>
-      <c r="N7" s="43"/>
-      <c r="O7" s="43"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="43"/>
-      <c r="T7" s="43"/>
-      <c r="U7" s="44"/>
-      <c r="Y7" s="42" t="s">
-        <v>128</v>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="43"/>
+      <c r="Y7" s="41" t="s">
+        <v>127</v>
       </c>
       <c r="AO7">
         <v>1</v>
       </c>
-      <c r="AP7" s="43"/>
-      <c r="AQ7" s="43"/>
-      <c r="AR7" s="44"/>
-      <c r="AS7" s="44"/>
-      <c r="AT7" s="44"/>
-      <c r="AU7" s="43"/>
-      <c r="AV7" s="43"/>
-      <c r="AW7" s="44"/>
+      <c r="AP7" s="42"/>
+      <c r="AQ7" s="42"/>
+      <c r="AR7" s="43"/>
+      <c r="AS7" s="43"/>
+      <c r="AT7" s="43"/>
+      <c r="AU7" s="42"/>
+      <c r="AV7" s="42"/>
+      <c r="AW7" s="43"/>
     </row>
     <row r="8" spans="9:49">
       <c r="M8">
         <v>2</v>
       </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="43"/>
-      <c r="S8" s="43"/>
-      <c r="T8" s="43"/>
-      <c r="U8" s="44"/>
-      <c r="Y8" s="44" t="s">
-        <v>129</v>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="43"/>
+      <c r="Y8" s="43" t="s">
+        <v>128</v>
       </c>
       <c r="AO8">
         <v>2</v>
       </c>
-      <c r="AP8" s="43"/>
-      <c r="AQ8" s="43"/>
-      <c r="AR8" s="44"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="43"/>
-      <c r="AV8" s="43"/>
-      <c r="AW8" s="44"/>
+      <c r="AP8" s="42"/>
+      <c r="AQ8" s="42"/>
+      <c r="AR8" s="43"/>
+      <c r="AS8" s="41"/>
+      <c r="AT8" s="41"/>
+      <c r="AU8" s="42"/>
+      <c r="AV8" s="42"/>
+      <c r="AW8" s="43"/>
     </row>
     <row r="9" spans="9:49">
       <c r="M9">
         <v>3</v>
       </c>
-      <c r="N9" s="43"/>
-      <c r="O9" s="43"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="43"/>
-      <c r="R9" s="44"/>
-      <c r="S9" s="43"/>
-      <c r="T9" s="43"/>
-      <c r="U9" s="44"/>
-      <c r="Y9" s="45" t="s">
-        <v>130</v>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="43"/>
+      <c r="Y9" s="44" t="s">
+        <v>129</v>
       </c>
       <c r="AO9">
         <v>3</v>
       </c>
-      <c r="AP9" s="43"/>
-      <c r="AQ9" s="43"/>
-      <c r="AR9" s="44"/>
-      <c r="AS9" s="42"/>
-      <c r="AT9" s="42"/>
-      <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
-      <c r="AW9" s="44"/>
+      <c r="AP9" s="42"/>
+      <c r="AQ9" s="42"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="41"/>
+      <c r="AT9" s="41"/>
+      <c r="AU9" s="42"/>
+      <c r="AV9" s="42"/>
+      <c r="AW9" s="43"/>
     </row>
     <row r="10" spans="9:49">
       <c r="M10">
         <v>4</v>
       </c>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-      <c r="S10" s="43"/>
-      <c r="T10" s="43"/>
-      <c r="U10" s="44"/>
-      <c r="Y10" s="43" t="s">
-        <v>131</v>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="43"/>
+      <c r="Y10" s="42" t="s">
+        <v>130</v>
       </c>
       <c r="AO10">
         <v>4</v>
       </c>
-      <c r="AP10" s="43"/>
-      <c r="AQ10" s="43"/>
-      <c r="AR10" s="44"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="43"/>
-      <c r="AV10" s="43"/>
-      <c r="AW10" s="44"/>
+      <c r="AP10" s="42"/>
+      <c r="AQ10" s="42"/>
+      <c r="AR10" s="43"/>
+      <c r="AS10" s="41"/>
+      <c r="AT10" s="41"/>
+      <c r="AU10" s="42"/>
+      <c r="AV10" s="42"/>
+      <c r="AW10" s="43"/>
     </row>
     <row r="11" spans="9:49">
       <c r="M11">
         <v>5</v>
       </c>
-      <c r="N11" s="43"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="44"/>
-      <c r="Q11" s="42"/>
-      <c r="R11" s="42"/>
-      <c r="S11" s="43"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="44"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="43"/>
       <c r="AO11">
         <v>5</v>
       </c>
-      <c r="AP11" s="43"/>
-      <c r="AQ11" s="43"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="42"/>
-      <c r="AT11" s="42"/>
-      <c r="AU11" s="43"/>
-      <c r="AV11" s="43"/>
-      <c r="AW11" s="44"/>
+      <c r="AP11" s="42"/>
+      <c r="AQ11" s="42"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="41"/>
+      <c r="AT11" s="41"/>
+      <c r="AU11" s="42"/>
+      <c r="AV11" s="42"/>
+      <c r="AW11" s="43"/>
     </row>
     <row r="12" spans="9:49">
       <c r="M12">
         <v>6</v>
       </c>
-      <c r="N12" s="43"/>
-      <c r="O12" s="43"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="43"/>
-      <c r="T12" s="43"/>
-      <c r="U12" s="44"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="43"/>
       <c r="AO12">
         <v>6</v>
       </c>
-      <c r="AP12" s="44"/>
-      <c r="AQ12" s="43"/>
-      <c r="AR12" s="43"/>
-      <c r="AS12" s="43"/>
-      <c r="AT12" s="43"/>
-      <c r="AU12" s="43"/>
-      <c r="AV12" s="44"/>
-      <c r="AW12" s="44"/>
+      <c r="AP12" s="43"/>
+      <c r="AQ12" s="42"/>
+      <c r="AR12" s="42"/>
+      <c r="AS12" s="42"/>
+      <c r="AT12" s="42"/>
+      <c r="AU12" s="42"/>
+      <c r="AV12" s="43"/>
+      <c r="AW12" s="43"/>
     </row>
     <row r="13" spans="9:49">
       <c r="M13">
         <v>7</v>
       </c>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="42"/>
-      <c r="R13" s="42"/>
-      <c r="S13" s="44"/>
-      <c r="T13" s="44"/>
-      <c r="U13" s="44"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
       <c r="AO13">
         <v>7</v>
       </c>
-      <c r="AP13" s="42"/>
-      <c r="AQ13" s="44"/>
-      <c r="AR13" s="44"/>
-      <c r="AS13" s="44"/>
-      <c r="AT13" s="44"/>
-      <c r="AU13" s="44"/>
-      <c r="AV13" s="44"/>
-      <c r="AW13" s="42"/>
+      <c r="AP13" s="41"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="41"/>
     </row>
     <row r="18" spans="7:46">
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y18" s="45" t="s">
         <v>137</v>
       </c>
-      <c r="Y18" s="46" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO18" s="46" t="s">
+      <c r="AO18" s="45" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS18" s="45" t="s">
         <v>147</v>
-      </c>
-      <c r="AS18" s="46" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="19" spans="7:46">
@@ -14650,314 +14634,314 @@
       <c r="G20">
         <v>0</v>
       </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="44"/>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
-      <c r="M20" s="44"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
-      <c r="Z20" s="45"/>
-      <c r="AA20" s="45"/>
-      <c r="AB20" s="42"/>
-      <c r="AC20" s="42"/>
-      <c r="AD20" s="42"/>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="42"/>
-      <c r="AH20" s="47" t="s">
-        <v>139</v>
+      <c r="Z20" s="44"/>
+      <c r="AA20" s="44"/>
+      <c r="AB20" s="41"/>
+      <c r="AC20" s="41"/>
+      <c r="AD20" s="41"/>
+      <c r="AE20" s="44"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="41"/>
+      <c r="AH20" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="AO20">
         <v>0</v>
       </c>
       <c r="AP20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="7:46">
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
-      <c r="M21" s="44"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y21">
         <v>1</v>
       </c>
-      <c r="Z21" s="45"/>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="42"/>
-      <c r="AC21" s="42"/>
-      <c r="AD21" s="42"/>
-      <c r="AE21" s="45"/>
-      <c r="AF21" s="45"/>
-      <c r="AG21" s="42"/>
-      <c r="AH21" s="47" t="s">
-        <v>139</v>
+      <c r="Z21" s="44"/>
+      <c r="AA21" s="44"/>
+      <c r="AB21" s="41"/>
+      <c r="AC21" s="41"/>
+      <c r="AD21" s="41"/>
+      <c r="AE21" s="44"/>
+      <c r="AF21" s="44"/>
+      <c r="AG21" s="41"/>
+      <c r="AH21" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="AO21">
         <v>1</v>
       </c>
       <c r="AP21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="7:46">
       <c r="G22">
         <v>2</v>
       </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y22">
         <v>2</v>
       </c>
-      <c r="Z22" s="45"/>
-      <c r="AA22" s="45"/>
-      <c r="AB22" s="45"/>
-      <c r="AC22" s="42"/>
-      <c r="AD22" s="45"/>
-      <c r="AE22" s="45"/>
-      <c r="AF22" s="45"/>
-      <c r="AG22" s="42"/>
-      <c r="AH22" s="47" t="s">
-        <v>140</v>
+      <c r="Z22" s="44"/>
+      <c r="AA22" s="44"/>
+      <c r="AB22" s="44"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="44"/>
+      <c r="AE22" s="44"/>
+      <c r="AF22" s="44"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="46" t="s">
+        <v>139</v>
       </c>
       <c r="AO22">
         <v>2</v>
       </c>
       <c r="AP22" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS22" t="s">
         <v>144</v>
-      </c>
-      <c r="AS22" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="23" spans="7:46">
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="44"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y23">
         <v>3</v>
       </c>
-      <c r="Z23" s="45"/>
-      <c r="AA23" s="45"/>
-      <c r="AB23" s="42"/>
-      <c r="AC23" s="45"/>
-      <c r="AD23" s="42"/>
-      <c r="AE23" s="45"/>
-      <c r="AF23" s="45"/>
-      <c r="AG23" s="42"/>
-      <c r="AH23" s="47" t="s">
-        <v>141</v>
+      <c r="Z23" s="44"/>
+      <c r="AA23" s="44"/>
+      <c r="AB23" s="41"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="44"/>
+      <c r="AF23" s="44"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="46" t="s">
+        <v>140</v>
       </c>
       <c r="AO23">
         <v>3</v>
       </c>
       <c r="AP23" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS23" t="s">
         <v>144</v>
-      </c>
-      <c r="AS23" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="7:46">
       <c r="G24">
         <v>4</v>
       </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-      <c r="M24" s="44"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="Y24">
         <v>4</v>
       </c>
-      <c r="Z24" s="45"/>
-      <c r="AA24" s="45"/>
-      <c r="AB24" s="42"/>
-      <c r="AC24" s="42"/>
-      <c r="AD24" s="42"/>
-      <c r="AE24" s="45"/>
-      <c r="AF24" s="45"/>
-      <c r="AG24" s="42"/>
-      <c r="AH24" s="47" t="s">
-        <v>139</v>
+      <c r="Z24" s="44"/>
+      <c r="AA24" s="44"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="41"/>
+      <c r="AD24" s="41"/>
+      <c r="AE24" s="44"/>
+      <c r="AF24" s="44"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="AO24">
         <v>4</v>
       </c>
       <c r="AP24" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS24" t="s">
         <v>144</v>
-      </c>
-      <c r="AS24" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="7:46">
       <c r="G25">
         <v>5</v>
       </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
-      <c r="M25" s="44"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y25">
         <v>5</v>
       </c>
-      <c r="Z25" s="45"/>
-      <c r="AA25" s="45"/>
-      <c r="AB25" s="42"/>
-      <c r="AC25" s="42"/>
-      <c r="AD25" s="42"/>
-      <c r="AE25" s="45"/>
-      <c r="AF25" s="45"/>
-      <c r="AG25" s="42"/>
-      <c r="AH25" s="47" t="s">
-        <v>139</v>
+      <c r="Z25" s="44"/>
+      <c r="AA25" s="44"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="41"/>
+      <c r="AE25" s="44"/>
+      <c r="AF25" s="44"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="AO25">
         <v>5</v>
       </c>
       <c r="AP25" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS25" t="s">
         <v>144</v>
-      </c>
-      <c r="AS25" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="7:46">
       <c r="G26">
         <v>6</v>
       </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="44"/>
-      <c r="J26" s="44"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
-      <c r="M26" s="44"/>
-      <c r="N26" s="44"/>
-      <c r="O26" s="44"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
       <c r="P26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y26">
         <v>6</v>
       </c>
-      <c r="Z26" s="45"/>
-      <c r="AA26" s="45"/>
-      <c r="AB26" s="42"/>
-      <c r="AC26" s="42"/>
-      <c r="AD26" s="42"/>
-      <c r="AE26" s="45"/>
-      <c r="AF26" s="45"/>
-      <c r="AG26" s="42"/>
-      <c r="AH26" s="47" t="s">
-        <v>139</v>
+      <c r="Z26" s="44"/>
+      <c r="AA26" s="44"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="44"/>
+      <c r="AF26" s="44"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="46" t="s">
+        <v>138</v>
       </c>
       <c r="AO26">
         <v>6</v>
       </c>
       <c r="AP26" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS26" t="s">
         <v>150</v>
-      </c>
-      <c r="AS26" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="7:46">
       <c r="G27">
         <v>7</v>
       </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
       <c r="P27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Y27">
         <v>7</v>
       </c>
-      <c r="Z27" s="42"/>
-      <c r="AA27" s="42"/>
-      <c r="AB27" s="42"/>
-      <c r="AC27" s="42"/>
-      <c r="AD27" s="42"/>
-      <c r="AE27" s="42"/>
-      <c r="AF27" s="42"/>
-      <c r="AG27" s="42"/>
-      <c r="AH27" s="48" t="s">
-        <v>128</v>
+      <c r="Z27" s="41"/>
+      <c r="AA27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="41"/>
+      <c r="AG27" s="41"/>
+      <c r="AH27" s="47" t="s">
+        <v>127</v>
       </c>
       <c r="AO27">
         <v>7</v>
       </c>
       <c r="AP27" t="s">
-        <v>149</v>
-      </c>
-      <c r="AS27" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT27" s="46"/>
+        <v>148</v>
+      </c>
+      <c r="AS27" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="AT27" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -14970,7 +14954,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U83" sqref="U83"/>
     </sheetView>
   </sheetViews>
@@ -14978,22 +14962,22 @@
   <sheetData>
     <row r="1" spans="2:2">
       <c r="B1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="6:6">
       <c r="F45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="46" spans="6:6">
       <c r="F46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:2">
       <c r="B50" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -1074,10 +1074,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1092,10 +1095,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3402,16 +3402,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>10582</xdr:colOff>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
       <xdr:colOff>10582</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>148170</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>10586</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3420,8 +3420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="19145248" y="7323669"/>
-          <a:ext cx="148168" cy="444500"/>
+          <a:off x="19118790" y="7328961"/>
+          <a:ext cx="179918" cy="465666"/>
         </a:xfrm>
         <a:prstGeom prst="rightBrace">
           <a:avLst>
@@ -4948,12 +4948,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -4962,6 +4956,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9464,8 +9464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CF125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="BO33" sqref="BO33:BP33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="CE36" sqref="CE36:CF36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -9717,62 +9717,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50" t="s">
+      <c r="L33" s="52"/>
+      <c r="M33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50" t="s">
+      <c r="N33" s="52"/>
+      <c r="O33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50" t="s">
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50" t="s">
+      <c r="R33" s="52"/>
+      <c r="S33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50" t="s">
+      <c r="T33" s="52"/>
+      <c r="U33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50" t="s">
+      <c r="V33" s="52"/>
+      <c r="W33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50" t="s">
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50" t="s">
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="50"/>
+      <c r="AB33" s="52"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="50" t="s">
+      <c r="AG33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="50"/>
-      <c r="AI33" s="50" t="s">
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="50"/>
-      <c r="AK33" s="50" t="s">
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="50"/>
-      <c r="AM33" s="50" t="s">
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="50"/>
+      <c r="AN33" s="52"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -9795,104 +9795,104 @@
       <c r="BL33" s="34"/>
       <c r="BM33" s="34"/>
       <c r="BN33" s="34"/>
-      <c r="BO33" s="56" t="s">
+      <c r="BO33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP33" s="57"/>
-      <c r="BQ33" s="56" t="s">
+      <c r="BP33" s="51"/>
+      <c r="BQ33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="57"/>
-      <c r="BS33" s="56" t="s">
+      <c r="BR33" s="51"/>
+      <c r="BS33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="57"/>
-      <c r="BU33" s="56" t="s">
+      <c r="BT33" s="51"/>
+      <c r="BU33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="57"/>
-      <c r="BW33" s="56" t="s">
+      <c r="BV33" s="51"/>
+      <c r="BW33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX33" s="57"/>
-      <c r="BY33" s="56" t="s">
+      <c r="BX33" s="51"/>
+      <c r="BY33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="57"/>
-      <c r="CA33" s="56" t="s">
+      <c r="BZ33" s="51"/>
+      <c r="CA33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="57"/>
-      <c r="CC33" s="56" t="s">
+      <c r="CB33" s="51"/>
+      <c r="CC33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="57"/>
-      <c r="CE33" s="56" t="s">
+      <c r="CD33" s="51"/>
+      <c r="CE33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF33" s="57"/>
+      <c r="CF33" s="51"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50" t="s">
+      <c r="L34" s="52"/>
+      <c r="M34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50" t="s">
+      <c r="N34" s="52"/>
+      <c r="O34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50" t="s">
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50" t="s">
+      <c r="R34" s="52"/>
+      <c r="S34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50" t="s">
+      <c r="T34" s="52"/>
+      <c r="U34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50" t="s">
+      <c r="V34" s="52"/>
+      <c r="W34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50" t="s">
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50" t="s">
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="50"/>
+      <c r="AB34" s="52"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="50" t="s">
+      <c r="AG34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="50"/>
-      <c r="AI34" s="50" t="s">
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="50"/>
-      <c r="AK34" s="50" t="s">
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="50"/>
-      <c r="AM34" s="50" t="s">
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="50"/>
+      <c r="AN34" s="52"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -9915,42 +9915,42 @@
       <c r="BL34" s="34"/>
       <c r="BM34" s="34"/>
       <c r="BN34" s="34"/>
-      <c r="BO34" s="56" t="s">
+      <c r="BO34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP34" s="57"/>
-      <c r="BQ34" s="56" t="s">
+      <c r="BP34" s="51"/>
+      <c r="BQ34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="57"/>
-      <c r="BS34" s="56" t="s">
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="57"/>
-      <c r="BU34" s="56" t="s">
+      <c r="BT34" s="51"/>
+      <c r="BU34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="57"/>
-      <c r="BW34" s="56" t="s">
+      <c r="BV34" s="51"/>
+      <c r="BW34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX34" s="57"/>
-      <c r="BY34" s="56" t="s">
+      <c r="BX34" s="51"/>
+      <c r="BY34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="57"/>
-      <c r="CA34" s="56" t="s">
+      <c r="BZ34" s="51"/>
+      <c r="CA34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="57"/>
-      <c r="CC34" s="56" t="s">
+      <c r="CB34" s="51"/>
+      <c r="CC34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="57"/>
-      <c r="CE34" s="56" t="s">
+      <c r="CD34" s="51"/>
+      <c r="CE34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF34" s="57"/>
+      <c r="CF34" s="51"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -9964,62 +9964,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="51" t="s">
+      <c r="K36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51" t="s">
+      <c r="L36" s="57"/>
+      <c r="M36" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51" t="s">
+      <c r="N36" s="57"/>
+      <c r="O36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51" t="s">
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51" t="s">
+      <c r="R36" s="57"/>
+      <c r="S36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51" t="s">
+      <c r="T36" s="57"/>
+      <c r="U36" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51" t="s">
+      <c r="V36" s="57"/>
+      <c r="W36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51" t="s">
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51" t="s">
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="51"/>
+      <c r="AB36" s="57"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="51" t="s">
+      <c r="AG36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51" t="s">
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51" t="s">
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51" t="s">
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="51"/>
+      <c r="AN36" s="57"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -10042,42 +10042,42 @@
       <c r="BL36" s="34"/>
       <c r="BM36" s="34"/>
       <c r="BN36" s="34"/>
-      <c r="BO36" s="56" t="s">
+      <c r="BO36" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP36" s="57"/>
-      <c r="BQ36" s="56" t="s">
+      <c r="BP36" s="51"/>
+      <c r="BQ36" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="57"/>
-      <c r="BS36" s="56" t="s">
+      <c r="BR36" s="51"/>
+      <c r="BS36" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="57"/>
-      <c r="BU36" s="56" t="s">
+      <c r="BT36" s="51"/>
+      <c r="BU36" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="57"/>
-      <c r="BW36" s="56" t="s">
+      <c r="BV36" s="51"/>
+      <c r="BW36" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX36" s="57"/>
-      <c r="BY36" s="56" t="s">
+      <c r="BX36" s="51"/>
+      <c r="BY36" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="57"/>
-      <c r="CA36" s="56" t="s">
+      <c r="BZ36" s="51"/>
+      <c r="CA36" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="57"/>
-      <c r="CC36" s="56" t="s">
+      <c r="CB36" s="51"/>
+      <c r="CC36" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="57"/>
-      <c r="CE36" s="56" t="s">
+      <c r="CD36" s="51"/>
+      <c r="CE36" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF36" s="57"/>
+      <c r="CF36" s="51"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -10413,58 +10413,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="50" t="s">
+      <c r="M42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50" t="s">
+      <c r="N42" s="52"/>
+      <c r="O42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50" t="s">
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50" t="s">
+      <c r="R42" s="52"/>
+      <c r="S42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50" t="s">
+      <c r="T42" s="52"/>
+      <c r="U42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50" t="s">
+      <c r="V42" s="52"/>
+      <c r="W42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50" t="s">
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50" t="s">
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="50"/>
+      <c r="AB42" s="52"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="50" t="s">
+      <c r="AG42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50" t="s">
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="50"/>
-      <c r="AK42" s="50" t="s">
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="50"/>
-      <c r="AM42" s="50" t="s">
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="50"/>
+      <c r="AN42" s="52"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -10487,42 +10487,42 @@
       <c r="BL42" s="34"/>
       <c r="BM42" s="34"/>
       <c r="BN42" s="34"/>
-      <c r="BO42" s="56" t="s">
+      <c r="BO42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP42" s="57"/>
-      <c r="BQ42" s="56" t="s">
+      <c r="BP42" s="51"/>
+      <c r="BQ42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="57"/>
-      <c r="BS42" s="56" t="s">
+      <c r="BR42" s="51"/>
+      <c r="BS42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="57"/>
-      <c r="BU42" s="56" t="s">
+      <c r="BT42" s="51"/>
+      <c r="BU42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="57"/>
-      <c r="BW42" s="56" t="s">
+      <c r="BV42" s="51"/>
+      <c r="BW42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX42" s="57"/>
-      <c r="BY42" s="56" t="s">
+      <c r="BX42" s="51"/>
+      <c r="BY42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="57"/>
-      <c r="CA42" s="56" t="s">
+      <c r="BZ42" s="51"/>
+      <c r="CA42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="57"/>
-      <c r="CC42" s="56" t="s">
+      <c r="CB42" s="51"/>
+      <c r="CC42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="57"/>
-      <c r="CE42" s="56" t="s">
+      <c r="CD42" s="51"/>
+      <c r="CE42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF42" s="57"/>
+      <c r="CF42" s="51"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -10555,71 +10555,71 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="55" t="s">
+      <c r="K46" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
-      <c r="V46" s="55"/>
-      <c r="W46" s="55"/>
-      <c r="X46" s="55"/>
-      <c r="Y46" s="55"/>
-      <c r="Z46" s="55"/>
-      <c r="AA46" s="55"/>
-      <c r="AB46" s="55"/>
-      <c r="AC46" s="55"/>
-      <c r="AD46" s="55"/>
-      <c r="AE46" s="55" t="s">
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="56"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="55"/>
-      <c r="AG46" s="55"/>
-      <c r="AH46" s="55"/>
-      <c r="AI46" s="55"/>
-      <c r="AJ46" s="55"/>
-      <c r="AK46" s="55"/>
-      <c r="AL46" s="55"/>
-      <c r="AM46" s="55"/>
-      <c r="AN46" s="55"/>
-      <c r="AO46" s="50" t="s">
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="50"/>
-      <c r="AQ46" s="50" t="s">
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="50"/>
-      <c r="AS46" s="50" t="s">
+      <c r="AR46" s="52"/>
+      <c r="AS46" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="50"/>
-      <c r="AU46" s="50" t="s">
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="50"/>
-      <c r="AW46" s="52" t="s">
+      <c r="AV46" s="52"/>
+      <c r="AW46" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="53"/>
-      <c r="AY46" s="53"/>
-      <c r="AZ46" s="53"/>
-      <c r="BA46" s="53"/>
-      <c r="BB46" s="53"/>
-      <c r="BC46" s="53"/>
-      <c r="BD46" s="53"/>
-      <c r="BE46" s="54"/>
-      <c r="BF46" s="50" t="s">
+      <c r="AX46" s="54"/>
+      <c r="AY46" s="54"/>
+      <c r="AZ46" s="54"/>
+      <c r="BA46" s="54"/>
+      <c r="BB46" s="54"/>
+      <c r="BC46" s="54"/>
+      <c r="BD46" s="54"/>
+      <c r="BE46" s="55"/>
+      <c r="BF46" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="50"/>
+      <c r="BG46" s="52"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -14181,85 +14181,11 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="CE33:CF33"/>
-    <mergeCell ref="CE34:CF34"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CE42:CF42"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BY36:BZ36"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="BQ34:BR34"/>
-    <mergeCell ref="BS34:BT34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
@@ -14270,12 +14196,86 @@
     <mergeCell ref="AG33:AH33"/>
     <mergeCell ref="AI33:AJ33"/>
     <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
     <mergeCell ref="U33:V33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="BQ34:BR34"/>
+    <mergeCell ref="BS34:BT34"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="motones vga" sheetId="4" r:id="rId4"/>
     <sheet name="pattern fetch" sheetId="5" r:id="rId5"/>
     <sheet name="vram access" sheetId="6" r:id="rId6"/>
+    <sheet name="scroll" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="161">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -541,6 +542,38 @@
   </si>
   <si>
     <t>ale=0 &gt;&gt; read/write</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scroll = 0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scroll = 3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>scroll = 2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nesx % 8=1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(nesx + scr) % 8=1</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1074,13 +1107,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1093,9 +1129,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4112,6 +4145,286 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右中かっこ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="19054761" y="7424740"/>
+          <a:ext cx="182034" cy="458258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69079"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右中かっこ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8216321" y="6728405"/>
+          <a:ext cx="198008" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69079"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="4486275"/>
+          <a:ext cx="3352800" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="4476750"/>
+          <a:ext cx="3352800" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="4476750"/>
+          <a:ext cx="3352800" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -4948,6 +5261,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -4956,12 +5275,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9464,8 +9777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CF125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="CE36" sqref="CE36:CF36"/>
+    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -9717,62 +10030,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52" t="s">
+      <c r="L33" s="50"/>
+      <c r="M33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52" t="s">
+      <c r="N33" s="50"/>
+      <c r="O33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52" t="s">
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52" t="s">
+      <c r="R33" s="50"/>
+      <c r="S33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52" t="s">
+      <c r="T33" s="50"/>
+      <c r="U33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52" t="s">
+      <c r="V33" s="50"/>
+      <c r="W33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52" t="s">
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52" t="s">
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="52"/>
+      <c r="AB33" s="50"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="52" t="s">
+      <c r="AG33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52" t="s">
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="52" t="s">
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="52"/>
-      <c r="AM33" s="52" t="s">
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="52"/>
+      <c r="AN33" s="50"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -9795,104 +10108,104 @@
       <c r="BL33" s="34"/>
       <c r="BM33" s="34"/>
       <c r="BN33" s="34"/>
-      <c r="BO33" s="50" t="s">
+      <c r="BO33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BP33" s="51"/>
-      <c r="BQ33" s="50" t="s">
+      <c r="BP33" s="53"/>
+      <c r="BQ33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="51"/>
-      <c r="BS33" s="50" t="s">
+      <c r="BR33" s="53"/>
+      <c r="BS33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="51"/>
-      <c r="BU33" s="50" t="s">
+      <c r="BT33" s="53"/>
+      <c r="BU33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="51"/>
-      <c r="BW33" s="50" t="s">
+      <c r="BV33" s="53"/>
+      <c r="BW33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BX33" s="51"/>
-      <c r="BY33" s="50" t="s">
+      <c r="BX33" s="53"/>
+      <c r="BY33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="51"/>
-      <c r="CA33" s="50" t="s">
+      <c r="BZ33" s="53"/>
+      <c r="CA33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="51"/>
-      <c r="CC33" s="50" t="s">
+      <c r="CB33" s="53"/>
+      <c r="CC33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="51"/>
-      <c r="CE33" s="50" t="s">
+      <c r="CD33" s="53"/>
+      <c r="CE33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CF33" s="51"/>
+      <c r="CF33" s="53"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52" t="s">
+      <c r="L34" s="50"/>
+      <c r="M34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52" t="s">
+      <c r="N34" s="50"/>
+      <c r="O34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52" t="s">
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52" t="s">
+      <c r="R34" s="50"/>
+      <c r="S34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52" t="s">
+      <c r="T34" s="50"/>
+      <c r="U34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52" t="s">
+      <c r="V34" s="50"/>
+      <c r="W34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52" t="s">
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52" t="s">
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="52"/>
+      <c r="AB34" s="50"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="52" t="s">
+      <c r="AG34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52" t="s">
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="52"/>
-      <c r="AK34" s="52" t="s">
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="52"/>
-      <c r="AM34" s="52" t="s">
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="52"/>
+      <c r="AN34" s="50"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -9915,42 +10228,42 @@
       <c r="BL34" s="34"/>
       <c r="BM34" s="34"/>
       <c r="BN34" s="34"/>
-      <c r="BO34" s="50" t="s">
+      <c r="BO34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BP34" s="51"/>
-      <c r="BQ34" s="50" t="s">
+      <c r="BP34" s="53"/>
+      <c r="BQ34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="51"/>
-      <c r="BS34" s="50" t="s">
+      <c r="BR34" s="53"/>
+      <c r="BS34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="51"/>
-      <c r="BU34" s="50" t="s">
+      <c r="BT34" s="53"/>
+      <c r="BU34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="51"/>
-      <c r="BW34" s="50" t="s">
+      <c r="BV34" s="53"/>
+      <c r="BW34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BX34" s="51"/>
-      <c r="BY34" s="50" t="s">
+      <c r="BX34" s="53"/>
+      <c r="BY34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="51"/>
-      <c r="CA34" s="50" t="s">
+      <c r="BZ34" s="53"/>
+      <c r="CA34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="51"/>
-      <c r="CC34" s="50" t="s">
+      <c r="CB34" s="53"/>
+      <c r="CC34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="51"/>
-      <c r="CE34" s="50" t="s">
+      <c r="CD34" s="53"/>
+      <c r="CE34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CF34" s="51"/>
+      <c r="CF34" s="53"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -9964,62 +10277,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="57" t="s">
+      <c r="K36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57" t="s">
+      <c r="L36" s="51"/>
+      <c r="M36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57" t="s">
+      <c r="N36" s="51"/>
+      <c r="O36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57" t="s">
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57" t="s">
+      <c r="R36" s="51"/>
+      <c r="S36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57" t="s">
+      <c r="T36" s="51"/>
+      <c r="U36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57" t="s">
+      <c r="V36" s="51"/>
+      <c r="W36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57" t="s">
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57" t="s">
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="57"/>
+      <c r="AB36" s="51"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="57" t="s">
+      <c r="AG36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57" t="s">
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57" t="s">
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57" t="s">
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="57"/>
+      <c r="AN36" s="51"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -10042,42 +10355,42 @@
       <c r="BL36" s="34"/>
       <c r="BM36" s="34"/>
       <c r="BN36" s="34"/>
-      <c r="BO36" s="50" t="s">
+      <c r="BO36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BP36" s="51"/>
-      <c r="BQ36" s="50" t="s">
+      <c r="BP36" s="53"/>
+      <c r="BQ36" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="51"/>
-      <c r="BS36" s="50" t="s">
+      <c r="BR36" s="53"/>
+      <c r="BS36" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="51"/>
-      <c r="BU36" s="50" t="s">
+      <c r="BT36" s="53"/>
+      <c r="BU36" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="51"/>
-      <c r="BW36" s="50" t="s">
+      <c r="BV36" s="53"/>
+      <c r="BW36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BX36" s="51"/>
-      <c r="BY36" s="50" t="s">
+      <c r="BX36" s="53"/>
+      <c r="BY36" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="51"/>
-      <c r="CA36" s="50" t="s">
+      <c r="BZ36" s="53"/>
+      <c r="CA36" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="51"/>
-      <c r="CC36" s="50" t="s">
+      <c r="CB36" s="53"/>
+      <c r="CC36" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="51"/>
-      <c r="CE36" s="50" t="s">
+      <c r="CD36" s="53"/>
+      <c r="CE36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CF36" s="51"/>
+      <c r="CF36" s="53"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -10413,58 +10726,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="52" t="s">
+      <c r="M42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52" t="s">
+      <c r="N42" s="50"/>
+      <c r="O42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52" t="s">
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52" t="s">
+      <c r="R42" s="50"/>
+      <c r="S42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52" t="s">
+      <c r="T42" s="50"/>
+      <c r="U42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52" t="s">
+      <c r="V42" s="50"/>
+      <c r="W42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52" t="s">
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52" t="s">
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="52"/>
+      <c r="AB42" s="50"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="52" t="s">
+      <c r="AG42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="52"/>
-      <c r="AI42" s="52" t="s">
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="52"/>
-      <c r="AK42" s="52" t="s">
+      <c r="AJ42" s="50"/>
+      <c r="AK42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="52"/>
-      <c r="AM42" s="52" t="s">
+      <c r="AL42" s="50"/>
+      <c r="AM42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="52"/>
+      <c r="AN42" s="50"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -10487,42 +10800,42 @@
       <c r="BL42" s="34"/>
       <c r="BM42" s="34"/>
       <c r="BN42" s="34"/>
-      <c r="BO42" s="50" t="s">
+      <c r="BO42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BP42" s="51"/>
-      <c r="BQ42" s="50" t="s">
+      <c r="BP42" s="53"/>
+      <c r="BQ42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="51"/>
-      <c r="BS42" s="50" t="s">
+      <c r="BR42" s="53"/>
+      <c r="BS42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="51"/>
-      <c r="BU42" s="50" t="s">
+      <c r="BT42" s="53"/>
+      <c r="BU42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="51"/>
-      <c r="BW42" s="50" t="s">
+      <c r="BV42" s="53"/>
+      <c r="BW42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BX42" s="51"/>
-      <c r="BY42" s="50" t="s">
+      <c r="BX42" s="53"/>
+      <c r="BY42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="51"/>
-      <c r="CA42" s="50" t="s">
+      <c r="BZ42" s="53"/>
+      <c r="CA42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="51"/>
-      <c r="CC42" s="50" t="s">
+      <c r="CB42" s="53"/>
+      <c r="CC42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="51"/>
-      <c r="CE42" s="50" t="s">
+      <c r="CD42" s="53"/>
+      <c r="CE42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CF42" s="51"/>
+      <c r="CF42" s="53"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -10555,71 +10868,71 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="56" t="s">
+      <c r="K46" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56" t="s">
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="57"/>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="57"/>
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="57"/>
+      <c r="AE46" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="56"/>
-      <c r="AM46" s="56"/>
-      <c r="AN46" s="56"/>
-      <c r="AO46" s="52" t="s">
+      <c r="AF46" s="57"/>
+      <c r="AG46" s="57"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="57"/>
+      <c r="AJ46" s="57"/>
+      <c r="AK46" s="57"/>
+      <c r="AL46" s="57"/>
+      <c r="AM46" s="57"/>
+      <c r="AN46" s="57"/>
+      <c r="AO46" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="52"/>
-      <c r="AQ46" s="52" t="s">
+      <c r="AP46" s="50"/>
+      <c r="AQ46" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="52"/>
-      <c r="AS46" s="52" t="s">
+      <c r="AR46" s="50"/>
+      <c r="AS46" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="52"/>
-      <c r="AU46" s="52" t="s">
+      <c r="AT46" s="50"/>
+      <c r="AU46" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="52"/>
-      <c r="AW46" s="53" t="s">
+      <c r="AV46" s="50"/>
+      <c r="AW46" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="54"/>
-      <c r="AY46" s="54"/>
-      <c r="AZ46" s="54"/>
-      <c r="BA46" s="54"/>
-      <c r="BB46" s="54"/>
-      <c r="BC46" s="54"/>
-      <c r="BD46" s="54"/>
-      <c r="BE46" s="55"/>
-      <c r="BF46" s="52" t="s">
+      <c r="AX46" s="55"/>
+      <c r="AY46" s="55"/>
+      <c r="AZ46" s="55"/>
+      <c r="BA46" s="55"/>
+      <c r="BB46" s="55"/>
+      <c r="BC46" s="55"/>
+      <c r="BD46" s="55"/>
+      <c r="BE46" s="56"/>
+      <c r="BF46" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="52"/>
+      <c r="BG46" s="50"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -14181,66 +14494,21 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
     <mergeCell ref="BO33:BP33"/>
     <mergeCell ref="BO34:BP34"/>
     <mergeCell ref="CA33:CB33"/>
@@ -14257,25 +14525,70 @@
     <mergeCell ref="BY34:BZ34"/>
     <mergeCell ref="CA34:CB34"/>
     <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
     <mergeCell ref="BO36:BP36"/>
     <mergeCell ref="BQ36:BR36"/>
     <mergeCell ref="BS36:BT36"/>
     <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BY36:BZ36"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="CE33:CF33"/>
-    <mergeCell ref="CE34:CF34"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CE42:CF42"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14985,4 +15298,1782 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:CB37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AK37" sqref="AK37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:80" s="27" customFormat="1" ht="42">
+      <c r="F2" s="27">
+        <v>0</v>
+      </c>
+      <c r="G2" s="27">
+        <v>1</v>
+      </c>
+      <c r="H2" s="27">
+        <v>2</v>
+      </c>
+      <c r="I2" s="27">
+        <v>3</v>
+      </c>
+      <c r="J2" s="27">
+        <v>4</v>
+      </c>
+      <c r="K2" s="27">
+        <v>5</v>
+      </c>
+      <c r="L2" s="27">
+        <v>6</v>
+      </c>
+      <c r="M2" s="27">
+        <v>7</v>
+      </c>
+      <c r="N2" s="27">
+        <v>8</v>
+      </c>
+      <c r="O2" s="27">
+        <v>9</v>
+      </c>
+      <c r="P2" s="27">
+        <v>10</v>
+      </c>
+      <c r="Q2" s="27">
+        <v>11</v>
+      </c>
+      <c r="R2" s="27">
+        <v>12</v>
+      </c>
+      <c r="S2" s="27">
+        <v>13</v>
+      </c>
+      <c r="T2" s="27">
+        <v>14</v>
+      </c>
+      <c r="U2" s="27">
+        <v>15</v>
+      </c>
+      <c r="V2" s="27">
+        <v>16</v>
+      </c>
+      <c r="W2" s="27">
+        <v>17</v>
+      </c>
+      <c r="X2" s="27">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="27">
+        <v>64</v>
+      </c>
+      <c r="AA2" s="27">
+        <v>65</v>
+      </c>
+      <c r="AC2" s="27">
+        <v>249</v>
+      </c>
+      <c r="AD2" s="27">
+        <v>250</v>
+      </c>
+      <c r="AE2" s="27">
+        <v>251</v>
+      </c>
+      <c r="AF2" s="27">
+        <v>252</v>
+      </c>
+      <c r="AG2" s="27">
+        <v>253</v>
+      </c>
+      <c r="AH2" s="27">
+        <v>254</v>
+      </c>
+      <c r="AI2" s="27">
+        <v>255</v>
+      </c>
+      <c r="AJ2" s="27">
+        <v>256</v>
+      </c>
+      <c r="AK2" s="27">
+        <v>257</v>
+      </c>
+      <c r="AL2" s="27">
+        <v>258</v>
+      </c>
+      <c r="AM2" s="27">
+        <v>259</v>
+      </c>
+      <c r="AN2" s="27">
+        <v>260</v>
+      </c>
+      <c r="AO2" s="27">
+        <v>261</v>
+      </c>
+      <c r="AP2" s="27">
+        <v>262</v>
+      </c>
+      <c r="AQ2" s="27">
+        <v>263</v>
+      </c>
+      <c r="AR2" s="27">
+        <v>264</v>
+      </c>
+      <c r="AS2" s="27">
+        <v>265</v>
+      </c>
+      <c r="AT2" s="27">
+        <v>266</v>
+      </c>
+      <c r="AV2" s="27">
+        <v>279</v>
+      </c>
+      <c r="AW2" s="27">
+        <v>280</v>
+      </c>
+      <c r="AY2" s="27">
+        <v>304</v>
+      </c>
+      <c r="AZ2" s="27">
+        <v>305</v>
+      </c>
+      <c r="BB2" s="27">
+        <v>319</v>
+      </c>
+      <c r="BC2" s="27">
+        <v>320</v>
+      </c>
+      <c r="BE2" s="27">
+        <v>377</v>
+      </c>
+      <c r="BF2" s="27">
+        <v>378</v>
+      </c>
+      <c r="BG2" s="27">
+        <v>379</v>
+      </c>
+      <c r="BH2" s="27">
+        <v>380</v>
+      </c>
+      <c r="BI2" s="27">
+        <v>381</v>
+      </c>
+      <c r="BJ2" s="27">
+        <v>382</v>
+      </c>
+      <c r="BK2" s="27">
+        <v>383</v>
+      </c>
+      <c r="BL2" s="27">
+        <v>384</v>
+      </c>
+      <c r="BM2" s="27">
+        <v>385</v>
+      </c>
+      <c r="BN2" s="27">
+        <v>386</v>
+      </c>
+      <c r="BO2" s="27">
+        <v>387</v>
+      </c>
+      <c r="BP2" s="27">
+        <v>388</v>
+      </c>
+      <c r="BQ2" s="27">
+        <v>389</v>
+      </c>
+      <c r="BR2" s="27">
+        <v>390</v>
+      </c>
+      <c r="BS2" s="27">
+        <v>391</v>
+      </c>
+      <c r="BT2" s="27">
+        <v>392</v>
+      </c>
+      <c r="BU2" s="27">
+        <v>393</v>
+      </c>
+      <c r="BV2" s="27">
+        <v>394</v>
+      </c>
+      <c r="BW2" s="27">
+        <v>395</v>
+      </c>
+      <c r="BX2" s="27">
+        <v>396</v>
+      </c>
+      <c r="BY2" s="27">
+        <v>397</v>
+      </c>
+      <c r="BZ2" s="27">
+        <v>398</v>
+      </c>
+      <c r="CA2" s="27">
+        <v>399</v>
+      </c>
+      <c r="CB2" s="27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:80">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="39"/>
+      <c r="G3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="X3" s="50"/>
+      <c r="Z3" s="35"/>
+      <c r="AA3" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC3" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ3" s="50"/>
+      <c r="AK3" s="34"/>
+      <c r="AL3" s="34"/>
+      <c r="AM3" s="34"/>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AV3" s="34"/>
+      <c r="AW3" s="34"/>
+      <c r="AY3" s="34"/>
+      <c r="AZ3" s="34"/>
+      <c r="BB3" s="34"/>
+      <c r="BC3" s="34"/>
+      <c r="BE3" s="34"/>
+      <c r="BF3" s="34"/>
+      <c r="BG3" s="34"/>
+      <c r="BH3" s="34"/>
+      <c r="BI3" s="34"/>
+      <c r="BJ3" s="34"/>
+      <c r="BK3" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX3" s="53"/>
+      <c r="BY3" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="BZ3" s="53"/>
+      <c r="CA3" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB3" s="53"/>
+    </row>
+    <row r="4" spans="2:80">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="34"/>
+      <c r="G4" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="R4" s="50"/>
+      <c r="S4" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="T4" s="50"/>
+      <c r="U4" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="V4" s="50"/>
+      <c r="W4" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="X4" s="50"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC4" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ4" s="50"/>
+      <c r="AK4" s="34"/>
+      <c r="AL4" s="34"/>
+      <c r="AM4" s="34"/>
+      <c r="AN4" s="34"/>
+      <c r="AO4" s="34"/>
+      <c r="AP4" s="34"/>
+      <c r="AQ4" s="34"/>
+      <c r="AR4" s="34"/>
+      <c r="AS4" s="34"/>
+      <c r="AT4" s="34"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="34"/>
+      <c r="AY4" s="34"/>
+      <c r="AZ4" s="34"/>
+      <c r="BB4" s="34"/>
+      <c r="BC4" s="34"/>
+      <c r="BE4" s="34"/>
+      <c r="BF4" s="34"/>
+      <c r="BG4" s="34"/>
+      <c r="BH4" s="34"/>
+      <c r="BI4" s="34"/>
+      <c r="BJ4" s="34"/>
+      <c r="BK4" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL4" s="53"/>
+      <c r="BM4" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP4" s="53"/>
+      <c r="BQ4" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR4" s="53"/>
+      <c r="BS4" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT4" s="53"/>
+      <c r="BU4" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="BV4" s="53"/>
+      <c r="BW4" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB4" s="53"/>
+    </row>
+    <row r="5" spans="2:80">
+      <c r="BX5" s="27"/>
+      <c r="BY5" s="27"/>
+      <c r="BZ5" s="27"/>
+      <c r="CA5" s="27"/>
+      <c r="CB5" s="27"/>
+    </row>
+    <row r="6" spans="2:80">
+      <c r="E6">
+        <v>239</v>
+      </c>
+      <c r="F6" s="36"/>
+      <c r="G6" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="N6" s="51"/>
+      <c r="O6" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="R6" s="51"/>
+      <c r="S6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="51"/>
+      <c r="U6" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="V6" s="51"/>
+      <c r="W6" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="X6" s="51"/>
+      <c r="Z6" s="37"/>
+      <c r="AA6" s="37" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC6" s="51" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ6" s="51"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BB6" s="34"/>
+      <c r="BC6" s="34"/>
+      <c r="BE6" s="34"/>
+      <c r="BF6" s="34"/>
+      <c r="BG6" s="34"/>
+      <c r="BH6" s="34"/>
+      <c r="BI6" s="34"/>
+      <c r="BJ6" s="34"/>
+      <c r="BK6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB6" s="53"/>
+    </row>
+    <row r="7" spans="2:80">
+      <c r="E7">
+        <v>240</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
+      <c r="O7" s="38"/>
+      <c r="P7" s="38"/>
+      <c r="Q7" s="38"/>
+      <c r="R7" s="38"/>
+      <c r="S7" s="38"/>
+      <c r="T7" s="38"/>
+      <c r="U7" s="38"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="38"/>
+      <c r="X7" s="38"/>
+      <c r="Y7" s="38"/>
+      <c r="Z7" s="38"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="38"/>
+      <c r="AC7" s="38"/>
+      <c r="AD7" s="38"/>
+      <c r="AE7" s="38"/>
+      <c r="AF7" s="38"/>
+      <c r="AG7" s="38"/>
+      <c r="AH7" s="38"/>
+      <c r="AI7" s="38"/>
+      <c r="AJ7" s="38"/>
+      <c r="AK7" s="38"/>
+      <c r="AL7" s="38"/>
+      <c r="AM7" s="38"/>
+      <c r="AN7" s="38"/>
+      <c r="AO7" s="38"/>
+      <c r="AP7" s="38"/>
+      <c r="AQ7" s="38"/>
+      <c r="AR7" s="38"/>
+      <c r="AS7" s="38"/>
+      <c r="AT7" s="38"/>
+      <c r="AU7" s="38"/>
+      <c r="AV7" s="38"/>
+      <c r="AW7" s="38"/>
+      <c r="AX7" s="38"/>
+      <c r="AY7" s="38"/>
+      <c r="AZ7" s="38"/>
+      <c r="BA7" s="38"/>
+      <c r="BB7" s="38"/>
+      <c r="BC7" s="38"/>
+      <c r="BD7" s="38"/>
+      <c r="BE7" s="38"/>
+      <c r="BF7" s="38"/>
+      <c r="BG7" s="38"/>
+      <c r="BH7" s="38"/>
+      <c r="BI7" s="38"/>
+      <c r="BJ7" s="38"/>
+      <c r="BK7" s="38"/>
+      <c r="BL7" s="38"/>
+      <c r="BM7" s="38"/>
+      <c r="BN7" s="38"/>
+      <c r="BO7" s="38"/>
+      <c r="BP7" s="38"/>
+      <c r="BQ7" s="38"/>
+      <c r="BR7" s="38"/>
+      <c r="BS7" s="38"/>
+      <c r="BT7" s="38"/>
+      <c r="BU7" s="38"/>
+      <c r="BV7" s="38"/>
+      <c r="BW7" s="38"/>
+      <c r="BX7" s="38"/>
+      <c r="BY7" s="38"/>
+      <c r="BZ7" s="38"/>
+      <c r="CA7" s="38"/>
+      <c r="CB7" s="27"/>
+    </row>
+    <row r="8" spans="2:80">
+      <c r="E8">
+        <v>241</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="38"/>
+      <c r="T8" s="38"/>
+      <c r="U8" s="38"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="38"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="38"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="38"/>
+      <c r="AD8" s="38"/>
+      <c r="AE8" s="38"/>
+      <c r="AF8" s="38"/>
+      <c r="AG8" s="38"/>
+      <c r="AH8" s="38"/>
+      <c r="AI8" s="38"/>
+      <c r="AJ8" s="38"/>
+      <c r="AK8" s="38"/>
+      <c r="AL8" s="38"/>
+      <c r="AM8" s="38"/>
+      <c r="AN8" s="38"/>
+      <c r="AO8" s="38"/>
+      <c r="AP8" s="38"/>
+      <c r="AQ8" s="38"/>
+      <c r="AR8" s="38"/>
+      <c r="AS8" s="38"/>
+      <c r="AT8" s="38"/>
+      <c r="AU8" s="38"/>
+      <c r="AV8" s="38"/>
+      <c r="AW8" s="38"/>
+      <c r="AX8" s="38"/>
+      <c r="AY8" s="38"/>
+      <c r="AZ8" s="38"/>
+      <c r="BA8" s="38"/>
+      <c r="BB8" s="38"/>
+      <c r="BC8" s="38"/>
+      <c r="BD8" s="38"/>
+      <c r="BE8" s="38"/>
+      <c r="BF8" s="38"/>
+      <c r="BG8" s="38"/>
+      <c r="BH8" s="38"/>
+      <c r="BI8" s="38"/>
+      <c r="BJ8" s="38"/>
+      <c r="BK8" s="38"/>
+      <c r="BL8" s="38"/>
+      <c r="BM8" s="38"/>
+      <c r="BN8" s="38"/>
+      <c r="BO8" s="38"/>
+      <c r="BP8" s="38"/>
+      <c r="BQ8" s="38"/>
+      <c r="BR8" s="38"/>
+      <c r="BS8" s="38"/>
+      <c r="BT8" s="38"/>
+      <c r="BU8" s="38"/>
+      <c r="BV8" s="38"/>
+      <c r="BW8" s="38"/>
+      <c r="BX8" s="38"/>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="27"/>
+    </row>
+    <row r="9" spans="2:80">
+      <c r="E9">
+        <v>242</v>
+      </c>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
+      <c r="P9" s="38"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="38"/>
+      <c r="S9" s="38"/>
+      <c r="T9" s="38"/>
+      <c r="U9" s="38"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="38"/>
+      <c r="X9" s="38"/>
+      <c r="Y9" s="38"/>
+      <c r="Z9" s="38"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="38"/>
+      <c r="AC9" s="38"/>
+      <c r="AD9" s="38"/>
+      <c r="AE9" s="38"/>
+      <c r="AF9" s="38"/>
+      <c r="AG9" s="38"/>
+      <c r="AH9" s="38"/>
+      <c r="AI9" s="38"/>
+      <c r="AJ9" s="38"/>
+      <c r="AK9" s="38"/>
+      <c r="AL9" s="38"/>
+      <c r="AM9" s="38"/>
+      <c r="AN9" s="38"/>
+      <c r="AO9" s="38"/>
+      <c r="AP9" s="38"/>
+      <c r="AQ9" s="38"/>
+      <c r="AR9" s="38"/>
+      <c r="AS9" s="38"/>
+      <c r="AT9" s="38"/>
+      <c r="AU9" s="38"/>
+      <c r="AV9" s="38"/>
+      <c r="AW9" s="38"/>
+      <c r="AX9" s="38"/>
+      <c r="AY9" s="38"/>
+      <c r="AZ9" s="38"/>
+      <c r="BA9" s="38"/>
+      <c r="BB9" s="38"/>
+      <c r="BC9" s="38"/>
+      <c r="BD9" s="38"/>
+      <c r="BE9" s="38"/>
+      <c r="BF9" s="38"/>
+      <c r="BG9" s="38"/>
+      <c r="BH9" s="38"/>
+      <c r="BI9" s="38"/>
+      <c r="BJ9" s="38"/>
+      <c r="BK9" s="38"/>
+      <c r="BL9" s="38"/>
+      <c r="BM9" s="38"/>
+      <c r="BN9" s="38"/>
+      <c r="BO9" s="38"/>
+      <c r="BP9" s="38"/>
+      <c r="BQ9" s="38"/>
+      <c r="BR9" s="38"/>
+      <c r="BS9" s="38"/>
+      <c r="BT9" s="38"/>
+      <c r="BU9" s="38"/>
+      <c r="BV9" s="38"/>
+      <c r="BW9" s="38"/>
+      <c r="BX9" s="38"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="27"/>
+    </row>
+    <row r="10" spans="2:80">
+      <c r="BX10" s="27"/>
+      <c r="BY10" s="27"/>
+      <c r="BZ10" s="27"/>
+      <c r="CA10" s="27"/>
+      <c r="CB10" s="27"/>
+    </row>
+    <row r="11" spans="2:80">
+      <c r="E11">
+        <v>261</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="38"/>
+      <c r="W11" s="38"/>
+      <c r="X11" s="38"/>
+      <c r="Y11" s="38"/>
+      <c r="Z11" s="38"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="38"/>
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="38"/>
+      <c r="AG11" s="38"/>
+      <c r="AH11" s="38"/>
+      <c r="AI11" s="38"/>
+      <c r="AJ11" s="38"/>
+      <c r="AK11" s="38"/>
+      <c r="AL11" s="38"/>
+      <c r="AM11" s="38"/>
+      <c r="AN11" s="38"/>
+      <c r="AO11" s="38"/>
+      <c r="AP11" s="38"/>
+      <c r="AQ11" s="38"/>
+      <c r="AR11" s="38"/>
+      <c r="AS11" s="38"/>
+      <c r="AT11" s="38"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
+      <c r="BJ11" s="38"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="38"/>
+      <c r="BO11" s="38"/>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="38"/>
+      <c r="BS11" s="38"/>
+      <c r="BT11" s="38"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="38"/>
+      <c r="BW11" s="38"/>
+      <c r="BX11" s="38"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="38"/>
+      <c r="CA11" s="38"/>
+      <c r="CB11" s="27"/>
+    </row>
+    <row r="12" spans="2:80">
+      <c r="E12">
+        <v>262</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" s="50"/>
+      <c r="M12" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="T12" s="50"/>
+      <c r="U12" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="V12" s="50"/>
+      <c r="W12" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="X12" s="50"/>
+      <c r="Z12" s="35"/>
+      <c r="AA12" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC12" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ12" s="50"/>
+      <c r="AK12" s="34"/>
+      <c r="AL12" s="34"/>
+      <c r="AM12" s="34"/>
+      <c r="AN12" s="34"/>
+      <c r="AO12" s="34"/>
+      <c r="AP12" s="34"/>
+      <c r="AQ12" s="34"/>
+      <c r="AR12" s="34"/>
+      <c r="AS12" s="34"/>
+      <c r="AT12" s="34"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BB12" s="34"/>
+      <c r="BC12" s="34"/>
+      <c r="BE12" s="34"/>
+      <c r="BF12" s="34"/>
+      <c r="BG12" s="34"/>
+      <c r="BH12" s="34"/>
+      <c r="BI12" s="34"/>
+      <c r="BJ12" s="34"/>
+      <c r="BK12" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="BL12" s="53"/>
+      <c r="BM12" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="BN12" s="53"/>
+      <c r="BO12" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="BP12" s="53"/>
+      <c r="BQ12" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="BR12" s="53"/>
+      <c r="BS12" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="BT12" s="53"/>
+      <c r="BU12" s="52" t="s">
+        <v>112</v>
+      </c>
+      <c r="BV12" s="53"/>
+      <c r="BW12" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="BX12" s="53"/>
+      <c r="BY12" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="BZ12" s="53"/>
+      <c r="CA12" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="CB12" s="53"/>
+    </row>
+    <row r="13" spans="2:80">
+      <c r="BX13" s="27"/>
+      <c r="BY13" s="27"/>
+      <c r="BZ13" s="27"/>
+      <c r="CA13" s="27"/>
+      <c r="CB13" s="27"/>
+    </row>
+    <row r="14" spans="2:80">
+      <c r="AG14" t="s">
+        <v>121</v>
+      </c>
+      <c r="BX14" s="27"/>
+      <c r="BY14" s="27"/>
+      <c r="BZ14" s="27"/>
+      <c r="CA14" t="s">
+        <v>121</v>
+      </c>
+      <c r="CB14" s="27"/>
+    </row>
+    <row r="15" spans="2:80">
+      <c r="BX15" s="27"/>
+      <c r="BY15" s="27"/>
+      <c r="BZ15" s="27"/>
+      <c r="CA15" s="27"/>
+      <c r="CB15" s="27"/>
+    </row>
+    <row r="16" spans="2:80">
+      <c r="B16" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="34"/>
+      <c r="G16" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="54" t="s">
+        <v>119</v>
+      </c>
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="55"/>
+      <c r="AW16" s="55"/>
+      <c r="AX16" s="55"/>
+      <c r="AY16" s="55"/>
+      <c r="AZ16" s="55"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="BC16" s="50"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
+      <c r="BM16" s="38"/>
+      <c r="BN16" s="38"/>
+      <c r="BO16" s="38"/>
+      <c r="BP16" s="38"/>
+      <c r="BQ16" s="38"/>
+      <c r="BR16" s="38"/>
+      <c r="BS16" s="38"/>
+      <c r="BT16" s="38"/>
+      <c r="BU16" s="38"/>
+      <c r="BV16" s="38"/>
+      <c r="BW16" s="38"/>
+      <c r="BX16" s="38"/>
+      <c r="BY16" s="38"/>
+      <c r="BZ16" s="38"/>
+      <c r="CA16" s="38"/>
+      <c r="CB16" s="27"/>
+    </row>
+    <row r="19" spans="6:73">
+      <c r="M19" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG19" t="s">
+        <v>158</v>
+      </c>
+      <c r="BE19" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="6:73">
+      <c r="G20" t="s">
+        <v>155</v>
+      </c>
+      <c r="I20" t="s">
+        <v>156</v>
+      </c>
+      <c r="K20" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" t="s">
+        <v>157</v>
+      </c>
+      <c r="O20" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>156</v>
+      </c>
+      <c r="S20" t="s">
+        <v>157</v>
+      </c>
+      <c r="U20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>155</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>156</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>157</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>157</v>
+      </c>
+      <c r="BA20" t="s">
+        <v>155</v>
+      </c>
+      <c r="BC20" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE20" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG20" t="s">
+        <v>157</v>
+      </c>
+      <c r="BI20" t="s">
+        <v>155</v>
+      </c>
+      <c r="BK20" t="s">
+        <v>156</v>
+      </c>
+      <c r="BM20" t="s">
+        <v>157</v>
+      </c>
+      <c r="BO20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="6:73">
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>6</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
+        <v>8</v>
+      </c>
+      <c r="O21">
+        <v>9</v>
+      </c>
+      <c r="P21">
+        <v>10</v>
+      </c>
+      <c r="Q21">
+        <v>11</v>
+      </c>
+      <c r="R21">
+        <v>12</v>
+      </c>
+      <c r="S21">
+        <v>13</v>
+      </c>
+      <c r="T21">
+        <v>14</v>
+      </c>
+      <c r="U21">
+        <v>15</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>1</v>
+      </c>
+      <c r="AF21">
+        <v>2</v>
+      </c>
+      <c r="AG21">
+        <v>3</v>
+      </c>
+      <c r="AH21">
+        <v>4</v>
+      </c>
+      <c r="AI21">
+        <v>5</v>
+      </c>
+      <c r="AJ21">
+        <v>6</v>
+      </c>
+      <c r="AK21">
+        <v>7</v>
+      </c>
+      <c r="AL21">
+        <v>8</v>
+      </c>
+      <c r="AM21">
+        <v>9</v>
+      </c>
+      <c r="AN21">
+        <v>10</v>
+      </c>
+      <c r="AO21">
+        <v>11</v>
+      </c>
+      <c r="AP21">
+        <v>12</v>
+      </c>
+      <c r="AQ21">
+        <v>13</v>
+      </c>
+      <c r="AR21">
+        <v>14</v>
+      </c>
+      <c r="AS21">
+        <v>15</v>
+      </c>
+      <c r="AT21">
+        <v>16</v>
+      </c>
+      <c r="AU21">
+        <v>17</v>
+      </c>
+      <c r="AV21">
+        <v>18</v>
+      </c>
+      <c r="BC21">
+        <v>0</v>
+      </c>
+      <c r="BD21">
+        <v>1</v>
+      </c>
+      <c r="BE21">
+        <v>2</v>
+      </c>
+      <c r="BF21">
+        <v>3</v>
+      </c>
+      <c r="BG21">
+        <v>4</v>
+      </c>
+      <c r="BH21">
+        <v>5</v>
+      </c>
+      <c r="BI21">
+        <v>6</v>
+      </c>
+      <c r="BJ21">
+        <v>7</v>
+      </c>
+      <c r="BK21">
+        <v>8</v>
+      </c>
+      <c r="BL21">
+        <v>9</v>
+      </c>
+      <c r="BM21">
+        <v>10</v>
+      </c>
+      <c r="BN21">
+        <v>11</v>
+      </c>
+      <c r="BO21">
+        <v>12</v>
+      </c>
+      <c r="BP21">
+        <v>13</v>
+      </c>
+      <c r="BQ21">
+        <v>14</v>
+      </c>
+      <c r="BR21">
+        <v>15</v>
+      </c>
+      <c r="BS21">
+        <v>16</v>
+      </c>
+      <c r="BT21">
+        <v>17</v>
+      </c>
+      <c r="BU21">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="6:73">
+      <c r="F22" s="42"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="AB22" s="42"/>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="41"/>
+      <c r="AE22" s="41"/>
+      <c r="AF22" s="41"/>
+      <c r="AG22" s="41"/>
+      <c r="AH22" s="41"/>
+      <c r="AI22" s="41"/>
+      <c r="AJ22" s="41"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="41"/>
+      <c r="BB22" s="41"/>
+      <c r="BC22" s="41"/>
+      <c r="BD22" s="41"/>
+      <c r="BE22" s="41"/>
+      <c r="BF22" s="41"/>
+      <c r="BG22" s="41"/>
+      <c r="BH22" s="41"/>
+    </row>
+    <row r="23" spans="6:73">
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="AB23" s="42"/>
+      <c r="AC23" s="42"/>
+      <c r="AD23" s="41"/>
+      <c r="AE23" s="41"/>
+      <c r="AF23" s="41"/>
+      <c r="AG23" s="41"/>
+      <c r="AH23" s="41"/>
+      <c r="AI23" s="41"/>
+      <c r="AJ23" s="41"/>
+      <c r="AZ23" s="42"/>
+      <c r="BA23" s="42"/>
+      <c r="BB23" s="41"/>
+      <c r="BC23" s="41"/>
+      <c r="BD23" s="41"/>
+      <c r="BE23" s="41"/>
+      <c r="BF23" s="41"/>
+      <c r="BG23" s="41"/>
+      <c r="BH23" s="41"/>
+    </row>
+    <row r="24" spans="6:73">
+      <c r="F24" s="41"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="AB24" s="41"/>
+      <c r="AC24" s="42"/>
+      <c r="AD24" s="42"/>
+      <c r="AE24" s="41"/>
+      <c r="AF24" s="41"/>
+      <c r="AG24" s="41"/>
+      <c r="AH24" s="41"/>
+      <c r="AI24" s="41"/>
+      <c r="AJ24" s="41"/>
+      <c r="AZ24" s="41"/>
+      <c r="BA24" s="42"/>
+      <c r="BB24" s="42"/>
+      <c r="BC24" s="41"/>
+      <c r="BD24" s="41"/>
+      <c r="BE24" s="41"/>
+      <c r="BF24" s="41"/>
+      <c r="BG24" s="41"/>
+      <c r="BH24" s="41"/>
+    </row>
+    <row r="25" spans="6:73">
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="AB25" s="41"/>
+      <c r="AC25" s="41"/>
+      <c r="AD25" s="42"/>
+      <c r="AE25" s="42"/>
+      <c r="AF25" s="41"/>
+      <c r="AG25" s="41"/>
+      <c r="AH25" s="41"/>
+      <c r="AI25" s="41"/>
+      <c r="AJ25" s="41"/>
+      <c r="AZ25" s="41"/>
+      <c r="BA25" s="41"/>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="41"/>
+      <c r="BE25" s="41"/>
+      <c r="BF25" s="41"/>
+      <c r="BG25" s="41"/>
+      <c r="BH25" s="41"/>
+    </row>
+    <row r="26" spans="6:73">
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="AB26" s="41"/>
+      <c r="AC26" s="41"/>
+      <c r="AD26" s="41"/>
+      <c r="AE26" s="42"/>
+      <c r="AF26" s="42"/>
+      <c r="AG26" s="41"/>
+      <c r="AH26" s="41"/>
+      <c r="AI26" s="41"/>
+      <c r="AJ26" s="41"/>
+      <c r="AZ26" s="41"/>
+      <c r="BA26" s="41"/>
+      <c r="BB26" s="41"/>
+      <c r="BC26" s="42"/>
+      <c r="BD26" s="42"/>
+      <c r="BE26" s="41"/>
+      <c r="BF26" s="41"/>
+      <c r="BG26" s="41"/>
+      <c r="BH26" s="41"/>
+    </row>
+    <row r="27" spans="6:73">
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="AB27" s="41"/>
+      <c r="AC27" s="41"/>
+      <c r="AD27" s="41"/>
+      <c r="AE27" s="41"/>
+      <c r="AF27" s="42"/>
+      <c r="AG27" s="42"/>
+      <c r="AH27" s="41"/>
+      <c r="AI27" s="41"/>
+      <c r="AJ27" s="41"/>
+      <c r="AZ27" s="41"/>
+      <c r="BA27" s="41"/>
+      <c r="BB27" s="41"/>
+      <c r="BC27" s="41"/>
+      <c r="BD27" s="42"/>
+      <c r="BE27" s="42"/>
+      <c r="BF27" s="41"/>
+      <c r="BG27" s="41"/>
+      <c r="BH27" s="41"/>
+    </row>
+    <row r="28" spans="6:73">
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="AB28" s="41"/>
+      <c r="AC28" s="41"/>
+      <c r="AD28" s="41"/>
+      <c r="AE28" s="41"/>
+      <c r="AF28" s="41"/>
+      <c r="AG28" s="42"/>
+      <c r="AH28" s="42"/>
+      <c r="AI28" s="41"/>
+      <c r="AJ28" s="41"/>
+      <c r="AZ28" s="41"/>
+      <c r="BA28" s="41"/>
+      <c r="BB28" s="41"/>
+      <c r="BC28" s="41"/>
+      <c r="BD28" s="41"/>
+      <c r="BE28" s="42"/>
+      <c r="BF28" s="42"/>
+      <c r="BG28" s="41"/>
+      <c r="BH28" s="41"/>
+    </row>
+    <row r="29" spans="6:73">
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="41"/>
+      <c r="AB29" s="41"/>
+      <c r="AC29" s="41"/>
+      <c r="AD29" s="41"/>
+      <c r="AE29" s="41"/>
+      <c r="AF29" s="41"/>
+      <c r="AG29" s="41"/>
+      <c r="AH29" s="42"/>
+      <c r="AI29" s="42"/>
+      <c r="AJ29" s="41"/>
+      <c r="AZ29" s="41"/>
+      <c r="BA29" s="41"/>
+      <c r="BB29" s="41"/>
+      <c r="BC29" s="41"/>
+      <c r="BD29" s="41"/>
+      <c r="BE29" s="41"/>
+      <c r="BF29" s="42"/>
+      <c r="BG29" s="42"/>
+      <c r="BH29" s="41"/>
+    </row>
+    <row r="30" spans="6:73">
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="AB30" s="41"/>
+      <c r="AC30" s="41"/>
+      <c r="AD30" s="41"/>
+      <c r="AE30" s="41"/>
+      <c r="AF30" s="41"/>
+      <c r="AG30" s="41"/>
+      <c r="AH30" s="41"/>
+      <c r="AI30" s="42"/>
+      <c r="AJ30" s="42"/>
+      <c r="AZ30" s="41"/>
+      <c r="BA30" s="41"/>
+      <c r="BB30" s="41"/>
+      <c r="BC30" s="41"/>
+      <c r="BD30" s="41"/>
+      <c r="BE30" s="41"/>
+      <c r="BF30" s="41"/>
+      <c r="BG30" s="42"/>
+      <c r="BH30" s="42"/>
+    </row>
+    <row r="37" spans="7:61">
+      <c r="G37" t="s">
+        <v>159</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>160</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="95">
+    <mergeCell ref="BB16:BC16"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="CA12:CB12"/>
+    <mergeCell ref="G16:Z16"/>
+    <mergeCell ref="AA16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AS16:BA16"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BM12:BN12"/>
+    <mergeCell ref="BO12:BP12"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CA6:CB6"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="167">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -576,6 +576,30 @@
     <t>(nesx + scr) % 8=1</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ph</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1107,16 +1131,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1129,6 +1150,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5261,12 +5285,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -5275,6 +5293,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9777,8 +9801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CF125"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD48"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AU47" sqref="AU47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -10030,62 +10054,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50" t="s">
+      <c r="L33" s="52"/>
+      <c r="M33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50" t="s">
+      <c r="N33" s="52"/>
+      <c r="O33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50" t="s">
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50" t="s">
+      <c r="R33" s="52"/>
+      <c r="S33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50" t="s">
+      <c r="T33" s="52"/>
+      <c r="U33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50" t="s">
+      <c r="V33" s="52"/>
+      <c r="W33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50" t="s">
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50" t="s">
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="50"/>
+      <c r="AB33" s="52"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="50" t="s">
+      <c r="AG33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="50"/>
-      <c r="AI33" s="50" t="s">
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="50"/>
-      <c r="AK33" s="50" t="s">
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="50"/>
-      <c r="AM33" s="50" t="s">
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="50"/>
+      <c r="AN33" s="52"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -10108,104 +10132,104 @@
       <c r="BL33" s="34"/>
       <c r="BM33" s="34"/>
       <c r="BN33" s="34"/>
-      <c r="BO33" s="52" t="s">
+      <c r="BO33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP33" s="53"/>
-      <c r="BQ33" s="52" t="s">
+      <c r="BP33" s="51"/>
+      <c r="BQ33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="53"/>
-      <c r="BS33" s="52" t="s">
+      <c r="BR33" s="51"/>
+      <c r="BS33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="53"/>
-      <c r="BU33" s="52" t="s">
+      <c r="BT33" s="51"/>
+      <c r="BU33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="53"/>
-      <c r="BW33" s="52" t="s">
+      <c r="BV33" s="51"/>
+      <c r="BW33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX33" s="53"/>
-      <c r="BY33" s="52" t="s">
+      <c r="BX33" s="51"/>
+      <c r="BY33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="53"/>
-      <c r="CA33" s="52" t="s">
+      <c r="BZ33" s="51"/>
+      <c r="CA33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="53"/>
-      <c r="CC33" s="52" t="s">
+      <c r="CB33" s="51"/>
+      <c r="CC33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="53"/>
-      <c r="CE33" s="52" t="s">
+      <c r="CD33" s="51"/>
+      <c r="CE33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF33" s="53"/>
+      <c r="CF33" s="51"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50" t="s">
+      <c r="L34" s="52"/>
+      <c r="M34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50" t="s">
+      <c r="N34" s="52"/>
+      <c r="O34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50" t="s">
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50" t="s">
+      <c r="R34" s="52"/>
+      <c r="S34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50" t="s">
+      <c r="T34" s="52"/>
+      <c r="U34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50" t="s">
+      <c r="V34" s="52"/>
+      <c r="W34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50" t="s">
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50" t="s">
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="50"/>
+      <c r="AB34" s="52"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="50" t="s">
+      <c r="AG34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="50"/>
-      <c r="AI34" s="50" t="s">
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="50"/>
-      <c r="AK34" s="50" t="s">
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="50"/>
-      <c r="AM34" s="50" t="s">
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="50"/>
+      <c r="AN34" s="52"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -10228,42 +10252,42 @@
       <c r="BL34" s="34"/>
       <c r="BM34" s="34"/>
       <c r="BN34" s="34"/>
-      <c r="BO34" s="52" t="s">
+      <c r="BO34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP34" s="53"/>
-      <c r="BQ34" s="52" t="s">
+      <c r="BP34" s="51"/>
+      <c r="BQ34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="53"/>
-      <c r="BS34" s="52" t="s">
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="53"/>
-      <c r="BU34" s="52" t="s">
+      <c r="BT34" s="51"/>
+      <c r="BU34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="53"/>
-      <c r="BW34" s="52" t="s">
+      <c r="BV34" s="51"/>
+      <c r="BW34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX34" s="53"/>
-      <c r="BY34" s="52" t="s">
+      <c r="BX34" s="51"/>
+      <c r="BY34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="53"/>
-      <c r="CA34" s="52" t="s">
+      <c r="BZ34" s="51"/>
+      <c r="CA34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="53"/>
-      <c r="CC34" s="52" t="s">
+      <c r="CB34" s="51"/>
+      <c r="CC34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="53"/>
-      <c r="CE34" s="52" t="s">
+      <c r="CD34" s="51"/>
+      <c r="CE34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF34" s="53"/>
+      <c r="CF34" s="51"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -10277,62 +10301,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="51" t="s">
+      <c r="K36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51" t="s">
+      <c r="L36" s="57"/>
+      <c r="M36" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51" t="s">
+      <c r="N36" s="57"/>
+      <c r="O36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51" t="s">
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51" t="s">
+      <c r="R36" s="57"/>
+      <c r="S36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51" t="s">
+      <c r="T36" s="57"/>
+      <c r="U36" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51" t="s">
+      <c r="V36" s="57"/>
+      <c r="W36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51" t="s">
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51" t="s">
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="51"/>
+      <c r="AB36" s="57"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="51" t="s">
+      <c r="AG36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51" t="s">
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51" t="s">
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51" t="s">
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="51"/>
+      <c r="AN36" s="57"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -10355,42 +10379,42 @@
       <c r="BL36" s="34"/>
       <c r="BM36" s="34"/>
       <c r="BN36" s="34"/>
-      <c r="BO36" s="52" t="s">
+      <c r="BO36" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP36" s="53"/>
-      <c r="BQ36" s="52" t="s">
+      <c r="BP36" s="51"/>
+      <c r="BQ36" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="53"/>
-      <c r="BS36" s="52" t="s">
+      <c r="BR36" s="51"/>
+      <c r="BS36" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="53"/>
-      <c r="BU36" s="52" t="s">
+      <c r="BT36" s="51"/>
+      <c r="BU36" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="53"/>
-      <c r="BW36" s="52" t="s">
+      <c r="BV36" s="51"/>
+      <c r="BW36" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX36" s="53"/>
-      <c r="BY36" s="52" t="s">
+      <c r="BX36" s="51"/>
+      <c r="BY36" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="53"/>
-      <c r="CA36" s="52" t="s">
+      <c r="BZ36" s="51"/>
+      <c r="CA36" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="53"/>
-      <c r="CC36" s="52" t="s">
+      <c r="CB36" s="51"/>
+      <c r="CC36" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="53"/>
-      <c r="CE36" s="52" t="s">
+      <c r="CD36" s="51"/>
+      <c r="CE36" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF36" s="53"/>
+      <c r="CF36" s="51"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -10726,58 +10750,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="50" t="s">
+      <c r="M42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50" t="s">
+      <c r="N42" s="52"/>
+      <c r="O42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50" t="s">
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50" t="s">
+      <c r="R42" s="52"/>
+      <c r="S42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50" t="s">
+      <c r="T42" s="52"/>
+      <c r="U42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50" t="s">
+      <c r="V42" s="52"/>
+      <c r="W42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50" t="s">
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50" t="s">
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="50"/>
+      <c r="AB42" s="52"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="50" t="s">
+      <c r="AG42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50" t="s">
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="50"/>
-      <c r="AK42" s="50" t="s">
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="50"/>
-      <c r="AM42" s="50" t="s">
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="50"/>
+      <c r="AN42" s="52"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -10800,42 +10824,42 @@
       <c r="BL42" s="34"/>
       <c r="BM42" s="34"/>
       <c r="BN42" s="34"/>
-      <c r="BO42" s="52" t="s">
+      <c r="BO42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP42" s="53"/>
-      <c r="BQ42" s="52" t="s">
+      <c r="BP42" s="51"/>
+      <c r="BQ42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="53"/>
-      <c r="BS42" s="52" t="s">
+      <c r="BR42" s="51"/>
+      <c r="BS42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="53"/>
-      <c r="BU42" s="52" t="s">
+      <c r="BT42" s="51"/>
+      <c r="BU42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="53"/>
-      <c r="BW42" s="52" t="s">
+      <c r="BV42" s="51"/>
+      <c r="BW42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX42" s="53"/>
-      <c r="BY42" s="52" t="s">
+      <c r="BX42" s="51"/>
+      <c r="BY42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="53"/>
-      <c r="CA42" s="52" t="s">
+      <c r="BZ42" s="51"/>
+      <c r="CA42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="53"/>
-      <c r="CC42" s="52" t="s">
+      <c r="CB42" s="51"/>
+      <c r="CC42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="53"/>
-      <c r="CE42" s="52" t="s">
+      <c r="CD42" s="51"/>
+      <c r="CE42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF42" s="53"/>
+      <c r="CF42" s="51"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -10868,71 +10892,71 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="57" t="s">
+      <c r="K46" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="57"/>
-      <c r="AC46" s="57"/>
-      <c r="AD46" s="57"/>
-      <c r="AE46" s="57" t="s">
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="56"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="57"/>
-      <c r="AG46" s="57"/>
-      <c r="AH46" s="57"/>
-      <c r="AI46" s="57"/>
-      <c r="AJ46" s="57"/>
-      <c r="AK46" s="57"/>
-      <c r="AL46" s="57"/>
-      <c r="AM46" s="57"/>
-      <c r="AN46" s="57"/>
-      <c r="AO46" s="50" t="s">
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="50"/>
-      <c r="AQ46" s="50" t="s">
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="50"/>
-      <c r="AS46" s="50" t="s">
+      <c r="AR46" s="52"/>
+      <c r="AS46" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="50"/>
-      <c r="AU46" s="50" t="s">
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="50"/>
-      <c r="AW46" s="54" t="s">
+      <c r="AV46" s="52"/>
+      <c r="AW46" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="55"/>
-      <c r="AY46" s="55"/>
-      <c r="AZ46" s="55"/>
-      <c r="BA46" s="55"/>
-      <c r="BB46" s="55"/>
-      <c r="BC46" s="55"/>
-      <c r="BD46" s="55"/>
-      <c r="BE46" s="56"/>
-      <c r="BF46" s="50" t="s">
+      <c r="AX46" s="54"/>
+      <c r="AY46" s="54"/>
+      <c r="AZ46" s="54"/>
+      <c r="BA46" s="54"/>
+      <c r="BB46" s="54"/>
+      <c r="BC46" s="54"/>
+      <c r="BD46" s="54"/>
+      <c r="BE46" s="55"/>
+      <c r="BF46" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="50"/>
+      <c r="BG46" s="52"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -10957,6 +10981,26 @@
       <c r="CD46" s="38"/>
       <c r="CE46" s="38"/>
       <c r="CF46" s="27"/>
+    </row>
+    <row r="47" spans="6:84">
+      <c r="AO47" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP47" t="s">
+        <v>164</v>
+      </c>
+      <c r="AQ47" t="s">
+        <v>163</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>165</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="52" spans="5:71" ht="14.25" thickBot="1">
       <c r="E52" t="s">
@@ -14494,21 +14538,70 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="CE33:CF33"/>
-    <mergeCell ref="CE34:CF34"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CE42:CF42"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BY36:BZ36"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
     <mergeCell ref="BO33:BP33"/>
     <mergeCell ref="BO34:BP34"/>
     <mergeCell ref="CA33:CB33"/>
@@ -14525,70 +14618,21 @@
     <mergeCell ref="BY34:BZ34"/>
     <mergeCell ref="CA34:CB34"/>
     <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BY36:BZ36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15304,11 +15348,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:CB37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AK37" sqref="AK37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:80" s="27" customFormat="1" ht="42">
       <c r="F2" s="27">
@@ -15524,62 +15571,62 @@
         <v>0</v>
       </c>
       <c r="F3" s="39"/>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="52"/>
+      <c r="O3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50" t="s">
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50" t="s">
+      <c r="R3" s="52"/>
+      <c r="S3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50" t="s">
+      <c r="T3" s="52"/>
+      <c r="U3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50" t="s">
+      <c r="V3" s="52"/>
+      <c r="W3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="50"/>
+      <c r="X3" s="52"/>
       <c r="Z3" s="35"/>
       <c r="AA3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50" t="s">
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50" t="s">
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AJ3" s="50"/>
+      <c r="AJ3" s="52"/>
       <c r="AK3" s="34"/>
       <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
@@ -15602,104 +15649,104 @@
       <c r="BH3" s="34"/>
       <c r="BI3" s="34"/>
       <c r="BJ3" s="34"/>
-      <c r="BK3" s="52" t="s">
+      <c r="BK3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="52" t="s">
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="52" t="s">
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BP3" s="53"/>
-      <c r="BQ3" s="52" t="s">
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BR3" s="53"/>
-      <c r="BS3" s="52" t="s">
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="53"/>
-      <c r="BU3" s="52" t="s">
+      <c r="BT3" s="51"/>
+      <c r="BU3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BV3" s="53"/>
-      <c r="BW3" s="52" t="s">
+      <c r="BV3" s="51"/>
+      <c r="BW3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BX3" s="53"/>
-      <c r="BY3" s="52" t="s">
+      <c r="BX3" s="51"/>
+      <c r="BY3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BZ3" s="53"/>
-      <c r="CA3" s="52" t="s">
+      <c r="BZ3" s="51"/>
+      <c r="CA3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CB3" s="53"/>
+      <c r="CB3" s="51"/>
     </row>
     <row r="4" spans="2:80">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50" t="s">
+      <c r="L4" s="52"/>
+      <c r="M4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50" t="s">
+      <c r="N4" s="52"/>
+      <c r="O4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50" t="s">
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50" t="s">
+      <c r="R4" s="52"/>
+      <c r="S4" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50" t="s">
+      <c r="T4" s="52"/>
+      <c r="U4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50" t="s">
+      <c r="V4" s="52"/>
+      <c r="W4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="X4" s="50"/>
+      <c r="X4" s="52"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" s="50" t="s">
+      <c r="AC4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50" t="s">
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50" t="s">
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50" t="s">
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AJ4" s="50"/>
+      <c r="AJ4" s="52"/>
       <c r="AK4" s="34"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="34"/>
@@ -15722,42 +15769,42 @@
       <c r="BH4" s="34"/>
       <c r="BI4" s="34"/>
       <c r="BJ4" s="34"/>
-      <c r="BK4" s="52" t="s">
+      <c r="BK4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BL4" s="53"/>
-      <c r="BM4" s="52" t="s">
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="53"/>
-      <c r="BO4" s="52" t="s">
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BP4" s="53"/>
-      <c r="BQ4" s="52" t="s">
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BR4" s="53"/>
-      <c r="BS4" s="52" t="s">
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BT4" s="53"/>
-      <c r="BU4" s="52" t="s">
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BV4" s="53"/>
-      <c r="BW4" s="52" t="s">
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="53"/>
-      <c r="BY4" s="52" t="s">
+      <c r="BX4" s="51"/>
+      <c r="BY4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="53"/>
-      <c r="CA4" s="52" t="s">
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CB4" s="53"/>
+      <c r="CB4" s="51"/>
     </row>
     <row r="5" spans="2:80">
       <c r="BX5" s="27"/>
@@ -15771,62 +15818,62 @@
         <v>239</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="57"/>
+      <c r="I6" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51" t="s">
+      <c r="J6" s="57"/>
+      <c r="K6" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51" t="s">
+      <c r="L6" s="57"/>
+      <c r="M6" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51" t="s">
+      <c r="N6" s="57"/>
+      <c r="O6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51" t="s">
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51" t="s">
+      <c r="T6" s="57"/>
+      <c r="U6" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51" t="s">
+      <c r="V6" s="57"/>
+      <c r="W6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="51"/>
+      <c r="X6" s="57"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AC6" s="51" t="s">
+      <c r="AC6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51" t="s">
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51" t="s">
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51" t="s">
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="51"/>
+      <c r="AJ6" s="57"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
@@ -15849,42 +15896,42 @@
       <c r="BH6" s="34"/>
       <c r="BI6" s="34"/>
       <c r="BJ6" s="34"/>
-      <c r="BK6" s="52" t="s">
+      <c r="BK6" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="52" t="s">
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="52" t="s">
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="52" t="s">
+      <c r="BP6" s="51"/>
+      <c r="BQ6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="52" t="s">
+      <c r="BR6" s="51"/>
+      <c r="BS6" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="52" t="s">
+      <c r="BT6" s="51"/>
+      <c r="BU6" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="52" t="s">
+      <c r="BV6" s="51"/>
+      <c r="BW6" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="52" t="s">
+      <c r="BX6" s="51"/>
+      <c r="BY6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="52" t="s">
+      <c r="BZ6" s="51"/>
+      <c r="CA6" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CB6" s="53"/>
+      <c r="CB6" s="51"/>
     </row>
     <row r="7" spans="2:80">
       <c r="E7">
@@ -16220,58 +16267,58 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50" t="s">
+      <c r="J12" s="52"/>
+      <c r="K12" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50" t="s">
+      <c r="L12" s="52"/>
+      <c r="M12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50" t="s">
+      <c r="N12" s="52"/>
+      <c r="O12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50" t="s">
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50" t="s">
+      <c r="R12" s="52"/>
+      <c r="S12" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50" t="s">
+      <c r="V12" s="52"/>
+      <c r="W12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="50"/>
+      <c r="X12" s="52"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC12" s="50" t="s">
+      <c r="AC12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50" t="s">
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50" t="s">
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AJ12" s="50"/>
+      <c r="AJ12" s="52"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
@@ -16294,42 +16341,42 @@
       <c r="BH12" s="34"/>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="34"/>
-      <c r="BK12" s="52" t="s">
+      <c r="BK12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BL12" s="53"/>
-      <c r="BM12" s="52" t="s">
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BN12" s="53"/>
-      <c r="BO12" s="52" t="s">
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BP12" s="53"/>
-      <c r="BQ12" s="52" t="s">
+      <c r="BP12" s="51"/>
+      <c r="BQ12" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BR12" s="53"/>
-      <c r="BS12" s="52" t="s">
+      <c r="BR12" s="51"/>
+      <c r="BS12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BT12" s="53"/>
-      <c r="BU12" s="52" t="s">
+      <c r="BT12" s="51"/>
+      <c r="BU12" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BV12" s="53"/>
-      <c r="BW12" s="52" t="s">
+      <c r="BV12" s="51"/>
+      <c r="BW12" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BX12" s="53"/>
-      <c r="BY12" s="52" t="s">
+      <c r="BX12" s="51"/>
+      <c r="BY12" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BZ12" s="53"/>
-      <c r="CA12" s="52" t="s">
+      <c r="BZ12" s="51"/>
+      <c r="CA12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CB12" s="53"/>
+      <c r="CB12" s="51"/>
     </row>
     <row r="13" spans="2:80">
       <c r="BX13" s="27"/>
@@ -16362,71 +16409,71 @@
         <v>120</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57" t="s">
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="50" t="s">
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50" t="s">
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50" t="s">
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50" t="s">
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="54" t="s">
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="55"/>
-      <c r="AV16" s="55"/>
-      <c r="AW16" s="55"/>
-      <c r="AX16" s="55"/>
-      <c r="AY16" s="55"/>
-      <c r="AZ16" s="55"/>
-      <c r="BA16" s="56"/>
-      <c r="BB16" s="50" t="s">
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="55"/>
+      <c r="BB16" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="BC16" s="50"/>
+      <c r="BC16" s="52"/>
       <c r="BE16" s="38"/>
       <c r="BF16" s="38"/>
       <c r="BG16" s="38"/>
@@ -16975,6 +17022,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CA6:CB6"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="BB16:BC16"/>
     <mergeCell ref="BW12:BX12"/>
     <mergeCell ref="BY12:BZ12"/>
@@ -16991,85 +17117,6 @@
     <mergeCell ref="BO12:BP12"/>
     <mergeCell ref="BQ12:BR12"/>
     <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CA6:CB6"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BM6:BN6"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,8 @@
     <sheet name="display" sheetId="3" r:id="rId3"/>
     <sheet name="motones vga" sheetId="4" r:id="rId4"/>
     <sheet name="pattern fetch" sheetId="5" r:id="rId5"/>
-    <sheet name="vram access" sheetId="6" r:id="rId6"/>
-    <sheet name="scroll" sheetId="7" r:id="rId7"/>
+    <sheet name="scroll" sheetId="7" r:id="rId6"/>
+    <sheet name="vram access" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -1131,13 +1131,16 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1150,9 +1153,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3687,6 +3687,286 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>10582</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>10586</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="右中かっこ 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="19054761" y="7424740"/>
+          <a:ext cx="182034" cy="458258"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69079"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26559</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="右中かっこ 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8216321" y="6728405"/>
+          <a:ext cx="198008" cy="1866900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightBrace">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 69079"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1047750" y="4486275"/>
+          <a:ext cx="3352800" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="4476750"/>
+          <a:ext cx="3352800" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6286500" y="4476750"/>
+          <a:ext cx="3352800" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -4166,284 +4446,51 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>10582</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>10586</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="右中かっこ 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="19054761" y="7424740"/>
-          <a:ext cx="182034" cy="458258"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 69079"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>26559</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="右中かっこ 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="8216321" y="6728405"/>
-          <a:ext cx="198008" cy="1866900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightBrace">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val 69079"/>
-            <a:gd name="adj2" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1047750" y="4486275"/>
-          <a:ext cx="3352800" cy="2390775"/>
+          <a:off x="685800" y="17316450"/>
+          <a:ext cx="12868275" cy="7715250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
       </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6076950" y="4476750"/>
-          <a:ext cx="3352800" cy="2390775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6286500" y="4476750"/>
-          <a:ext cx="3352800" cy="2390775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -5285,6 +5332,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -5293,12 +5346,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9801,7 +9848,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:CF125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AU47" sqref="AU47"/>
     </sheetView>
   </sheetViews>
@@ -10054,62 +10101,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52" t="s">
+      <c r="L33" s="50"/>
+      <c r="M33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52" t="s">
+      <c r="N33" s="50"/>
+      <c r="O33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52" t="s">
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52" t="s">
+      <c r="R33" s="50"/>
+      <c r="S33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52" t="s">
+      <c r="T33" s="50"/>
+      <c r="U33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52" t="s">
+      <c r="V33" s="50"/>
+      <c r="W33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52" t="s">
+      <c r="X33" s="50"/>
+      <c r="Y33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52" t="s">
+      <c r="Z33" s="50"/>
+      <c r="AA33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="52"/>
+      <c r="AB33" s="50"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="52" t="s">
+      <c r="AG33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52" t="s">
+      <c r="AH33" s="50"/>
+      <c r="AI33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="52" t="s">
+      <c r="AJ33" s="50"/>
+      <c r="AK33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="52"/>
-      <c r="AM33" s="52" t="s">
+      <c r="AL33" s="50"/>
+      <c r="AM33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="52"/>
+      <c r="AN33" s="50"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -10132,104 +10179,104 @@
       <c r="BL33" s="34"/>
       <c r="BM33" s="34"/>
       <c r="BN33" s="34"/>
-      <c r="BO33" s="50" t="s">
+      <c r="BO33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BP33" s="51"/>
-      <c r="BQ33" s="50" t="s">
+      <c r="BP33" s="53"/>
+      <c r="BQ33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="51"/>
-      <c r="BS33" s="50" t="s">
+      <c r="BR33" s="53"/>
+      <c r="BS33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="51"/>
-      <c r="BU33" s="50" t="s">
+      <c r="BT33" s="53"/>
+      <c r="BU33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="51"/>
-      <c r="BW33" s="50" t="s">
+      <c r="BV33" s="53"/>
+      <c r="BW33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BX33" s="51"/>
-      <c r="BY33" s="50" t="s">
+      <c r="BX33" s="53"/>
+      <c r="BY33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="51"/>
-      <c r="CA33" s="50" t="s">
+      <c r="BZ33" s="53"/>
+      <c r="CA33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="51"/>
-      <c r="CC33" s="50" t="s">
+      <c r="CB33" s="53"/>
+      <c r="CC33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="51"/>
-      <c r="CE33" s="50" t="s">
+      <c r="CD33" s="53"/>
+      <c r="CE33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CF33" s="51"/>
+      <c r="CF33" s="53"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52" t="s">
+      <c r="L34" s="50"/>
+      <c r="M34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52" t="s">
+      <c r="N34" s="50"/>
+      <c r="O34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52" t="s">
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52" t="s">
+      <c r="R34" s="50"/>
+      <c r="S34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52" t="s">
+      <c r="T34" s="50"/>
+      <c r="U34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52" t="s">
+      <c r="V34" s="50"/>
+      <c r="W34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52" t="s">
+      <c r="X34" s="50"/>
+      <c r="Y34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52" t="s">
+      <c r="Z34" s="50"/>
+      <c r="AA34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="52"/>
+      <c r="AB34" s="50"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="52" t="s">
+      <c r="AG34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52" t="s">
+      <c r="AH34" s="50"/>
+      <c r="AI34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="52"/>
-      <c r="AK34" s="52" t="s">
+      <c r="AJ34" s="50"/>
+      <c r="AK34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="52"/>
-      <c r="AM34" s="52" t="s">
+      <c r="AL34" s="50"/>
+      <c r="AM34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="52"/>
+      <c r="AN34" s="50"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -10252,42 +10299,42 @@
       <c r="BL34" s="34"/>
       <c r="BM34" s="34"/>
       <c r="BN34" s="34"/>
-      <c r="BO34" s="50" t="s">
+      <c r="BO34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BP34" s="51"/>
-      <c r="BQ34" s="50" t="s">
+      <c r="BP34" s="53"/>
+      <c r="BQ34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="51"/>
-      <c r="BS34" s="50" t="s">
+      <c r="BR34" s="53"/>
+      <c r="BS34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="51"/>
-      <c r="BU34" s="50" t="s">
+      <c r="BT34" s="53"/>
+      <c r="BU34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="51"/>
-      <c r="BW34" s="50" t="s">
+      <c r="BV34" s="53"/>
+      <c r="BW34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BX34" s="51"/>
-      <c r="BY34" s="50" t="s">
+      <c r="BX34" s="53"/>
+      <c r="BY34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="51"/>
-      <c r="CA34" s="50" t="s">
+      <c r="BZ34" s="53"/>
+      <c r="CA34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="51"/>
-      <c r="CC34" s="50" t="s">
+      <c r="CB34" s="53"/>
+      <c r="CC34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="51"/>
-      <c r="CE34" s="50" t="s">
+      <c r="CD34" s="53"/>
+      <c r="CE34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CF34" s="51"/>
+      <c r="CF34" s="53"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -10301,62 +10348,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="57" t="s">
+      <c r="K36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57" t="s">
+      <c r="L36" s="51"/>
+      <c r="M36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57" t="s">
+      <c r="N36" s="51"/>
+      <c r="O36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57" t="s">
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57" t="s">
+      <c r="R36" s="51"/>
+      <c r="S36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57" t="s">
+      <c r="T36" s="51"/>
+      <c r="U36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57" t="s">
+      <c r="V36" s="51"/>
+      <c r="W36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57" t="s">
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57" t="s">
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="57"/>
+      <c r="AB36" s="51"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="57" t="s">
+      <c r="AG36" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57" t="s">
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57" t="s">
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57" t="s">
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="57"/>
+      <c r="AN36" s="51"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -10379,42 +10426,42 @@
       <c r="BL36" s="34"/>
       <c r="BM36" s="34"/>
       <c r="BN36" s="34"/>
-      <c r="BO36" s="50" t="s">
+      <c r="BO36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BP36" s="51"/>
-      <c r="BQ36" s="50" t="s">
+      <c r="BP36" s="53"/>
+      <c r="BQ36" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="51"/>
-      <c r="BS36" s="50" t="s">
+      <c r="BR36" s="53"/>
+      <c r="BS36" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="51"/>
-      <c r="BU36" s="50" t="s">
+      <c r="BT36" s="53"/>
+      <c r="BU36" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="51"/>
-      <c r="BW36" s="50" t="s">
+      <c r="BV36" s="53"/>
+      <c r="BW36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BX36" s="51"/>
-      <c r="BY36" s="50" t="s">
+      <c r="BX36" s="53"/>
+      <c r="BY36" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="51"/>
-      <c r="CA36" s="50" t="s">
+      <c r="BZ36" s="53"/>
+      <c r="CA36" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="51"/>
-      <c r="CC36" s="50" t="s">
+      <c r="CB36" s="53"/>
+      <c r="CC36" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="51"/>
-      <c r="CE36" s="50" t="s">
+      <c r="CD36" s="53"/>
+      <c r="CE36" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CF36" s="51"/>
+      <c r="CF36" s="53"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -10750,58 +10797,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="52" t="s">
+      <c r="M42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52" t="s">
+      <c r="N42" s="50"/>
+      <c r="O42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52" t="s">
+      <c r="P42" s="50"/>
+      <c r="Q42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52" t="s">
+      <c r="R42" s="50"/>
+      <c r="S42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52" t="s">
+      <c r="T42" s="50"/>
+      <c r="U42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52" t="s">
+      <c r="V42" s="50"/>
+      <c r="W42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52" t="s">
+      <c r="X42" s="50"/>
+      <c r="Y42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52" t="s">
+      <c r="Z42" s="50"/>
+      <c r="AA42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="52"/>
+      <c r="AB42" s="50"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="52" t="s">
+      <c r="AG42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="52"/>
-      <c r="AI42" s="52" t="s">
+      <c r="AH42" s="50"/>
+      <c r="AI42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="52"/>
-      <c r="AK42" s="52" t="s">
+      <c r="AJ42" s="50"/>
+      <c r="AK42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="52"/>
-      <c r="AM42" s="52" t="s">
+      <c r="AL42" s="50"/>
+      <c r="AM42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="52"/>
+      <c r="AN42" s="50"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -10824,42 +10871,42 @@
       <c r="BL42" s="34"/>
       <c r="BM42" s="34"/>
       <c r="BN42" s="34"/>
-      <c r="BO42" s="50" t="s">
+      <c r="BO42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BP42" s="51"/>
-      <c r="BQ42" s="50" t="s">
+      <c r="BP42" s="53"/>
+      <c r="BQ42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="51"/>
-      <c r="BS42" s="50" t="s">
+      <c r="BR42" s="53"/>
+      <c r="BS42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="51"/>
-      <c r="BU42" s="50" t="s">
+      <c r="BT42" s="53"/>
+      <c r="BU42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="51"/>
-      <c r="BW42" s="50" t="s">
+      <c r="BV42" s="53"/>
+      <c r="BW42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BX42" s="51"/>
-      <c r="BY42" s="50" t="s">
+      <c r="BX42" s="53"/>
+      <c r="BY42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="51"/>
-      <c r="CA42" s="50" t="s">
+      <c r="BZ42" s="53"/>
+      <c r="CA42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="51"/>
-      <c r="CC42" s="50" t="s">
+      <c r="CB42" s="53"/>
+      <c r="CC42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="51"/>
-      <c r="CE42" s="50" t="s">
+      <c r="CD42" s="53"/>
+      <c r="CE42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CF42" s="51"/>
+      <c r="CF42" s="53"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -10892,71 +10939,71 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="56" t="s">
+      <c r="K46" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56" t="s">
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="57"/>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="57"/>
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="57"/>
+      <c r="AE46" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="56"/>
-      <c r="AM46" s="56"/>
-      <c r="AN46" s="56"/>
-      <c r="AO46" s="52" t="s">
+      <c r="AF46" s="57"/>
+      <c r="AG46" s="57"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="57"/>
+      <c r="AJ46" s="57"/>
+      <c r="AK46" s="57"/>
+      <c r="AL46" s="57"/>
+      <c r="AM46" s="57"/>
+      <c r="AN46" s="57"/>
+      <c r="AO46" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="52"/>
-      <c r="AQ46" s="52" t="s">
+      <c r="AP46" s="50"/>
+      <c r="AQ46" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="52"/>
-      <c r="AS46" s="52" t="s">
+      <c r="AR46" s="50"/>
+      <c r="AS46" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="52"/>
-      <c r="AU46" s="52" t="s">
+      <c r="AT46" s="50"/>
+      <c r="AU46" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="52"/>
-      <c r="AW46" s="53" t="s">
+      <c r="AV46" s="50"/>
+      <c r="AW46" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="54"/>
-      <c r="AY46" s="54"/>
-      <c r="AZ46" s="54"/>
-      <c r="BA46" s="54"/>
-      <c r="BB46" s="54"/>
-      <c r="BC46" s="54"/>
-      <c r="BD46" s="54"/>
-      <c r="BE46" s="55"/>
-      <c r="BF46" s="52" t="s">
+      <c r="AX46" s="55"/>
+      <c r="AY46" s="55"/>
+      <c r="AZ46" s="55"/>
+      <c r="BA46" s="55"/>
+      <c r="BB46" s="55"/>
+      <c r="BC46" s="55"/>
+      <c r="BD46" s="55"/>
+      <c r="BE46" s="56"/>
+      <c r="BF46" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="52"/>
+      <c r="BG46" s="50"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -14538,11 +14585,80 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="BQ34:BR34"/>
+    <mergeCell ref="BS34:BT34"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
@@ -14559,80 +14675,11 @@
     <mergeCell ref="AI34:AJ34"/>
     <mergeCell ref="AK34:AL34"/>
     <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="BQ34:BR34"/>
-    <mergeCell ref="BS34:BT34"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="CE33:CF33"/>
-    <mergeCell ref="CE34:CF34"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CE42:CF42"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15309,43 +15356,6 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:F50"/>
-  <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U83" sqref="U83"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="1" spans="2:2">
-      <c r="B1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2">
-      <c r="B50" t="s">
-        <v>142</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:CB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15571,62 +15581,62 @@
         <v>0</v>
       </c>
       <c r="F3" s="39"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52" t="s">
+      <c r="H3" s="50"/>
+      <c r="I3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="50"/>
+      <c r="M3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="50"/>
+      <c r="O3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52" t="s">
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52" t="s">
+      <c r="R3" s="50"/>
+      <c r="S3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52" t="s">
+      <c r="T3" s="50"/>
+      <c r="U3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52" t="s">
+      <c r="V3" s="50"/>
+      <c r="W3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="52"/>
+      <c r="X3" s="50"/>
       <c r="Z3" s="35"/>
       <c r="AA3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="52" t="s">
+      <c r="AC3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52" t="s">
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52" t="s">
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52" t="s">
+      <c r="AH3" s="50"/>
+      <c r="AI3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AJ3" s="52"/>
+      <c r="AJ3" s="50"/>
       <c r="AK3" s="34"/>
       <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
@@ -15649,104 +15659,104 @@
       <c r="BH3" s="34"/>
       <c r="BI3" s="34"/>
       <c r="BJ3" s="34"/>
-      <c r="BK3" s="50" t="s">
+      <c r="BK3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BL3" s="51"/>
-      <c r="BM3" s="50" t="s">
+      <c r="BL3" s="53"/>
+      <c r="BM3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BN3" s="51"/>
-      <c r="BO3" s="50" t="s">
+      <c r="BN3" s="53"/>
+      <c r="BO3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BP3" s="51"/>
-      <c r="BQ3" s="50" t="s">
+      <c r="BP3" s="53"/>
+      <c r="BQ3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BR3" s="51"/>
-      <c r="BS3" s="50" t="s">
+      <c r="BR3" s="53"/>
+      <c r="BS3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="51"/>
-      <c r="BU3" s="50" t="s">
+      <c r="BT3" s="53"/>
+      <c r="BU3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BV3" s="51"/>
-      <c r="BW3" s="50" t="s">
+      <c r="BV3" s="53"/>
+      <c r="BW3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="50" t="s">
+      <c r="BX3" s="53"/>
+      <c r="BY3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BZ3" s="51"/>
-      <c r="CA3" s="50" t="s">
+      <c r="BZ3" s="53"/>
+      <c r="CA3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CB3" s="51"/>
+      <c r="CB3" s="53"/>
     </row>
     <row r="4" spans="2:80">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52" t="s">
+      <c r="H4" s="50"/>
+      <c r="I4" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52" t="s">
+      <c r="L4" s="50"/>
+      <c r="M4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52" t="s">
+      <c r="N4" s="50"/>
+      <c r="O4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52" t="s">
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52" t="s">
+      <c r="R4" s="50"/>
+      <c r="S4" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52" t="s">
+      <c r="T4" s="50"/>
+      <c r="U4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52" t="s">
+      <c r="V4" s="50"/>
+      <c r="W4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="X4" s="52"/>
+      <c r="X4" s="50"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52" t="s">
+      <c r="AD4" s="50"/>
+      <c r="AE4" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52" t="s">
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52" t="s">
+      <c r="AH4" s="50"/>
+      <c r="AI4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AJ4" s="52"/>
+      <c r="AJ4" s="50"/>
       <c r="AK4" s="34"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="34"/>
@@ -15769,42 +15779,42 @@
       <c r="BH4" s="34"/>
       <c r="BI4" s="34"/>
       <c r="BJ4" s="34"/>
-      <c r="BK4" s="50" t="s">
+      <c r="BK4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BL4" s="51"/>
-      <c r="BM4" s="50" t="s">
+      <c r="BL4" s="53"/>
+      <c r="BM4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="51"/>
-      <c r="BO4" s="50" t="s">
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BP4" s="51"/>
-      <c r="BQ4" s="50" t="s">
+      <c r="BP4" s="53"/>
+      <c r="BQ4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BR4" s="51"/>
-      <c r="BS4" s="50" t="s">
+      <c r="BR4" s="53"/>
+      <c r="BS4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BT4" s="51"/>
-      <c r="BU4" s="50" t="s">
+      <c r="BT4" s="53"/>
+      <c r="BU4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BV4" s="51"/>
-      <c r="BW4" s="50" t="s">
+      <c r="BV4" s="53"/>
+      <c r="BW4" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="51"/>
-      <c r="BY4" s="50" t="s">
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="51"/>
-      <c r="CA4" s="50" t="s">
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CB4" s="51"/>
+      <c r="CB4" s="53"/>
     </row>
     <row r="5" spans="2:80">
       <c r="BX5" s="27"/>
@@ -15818,62 +15828,62 @@
         <v>239</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57" t="s">
+      <c r="H6" s="51"/>
+      <c r="I6" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57" t="s">
+      <c r="J6" s="51"/>
+      <c r="K6" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57" t="s">
+      <c r="L6" s="51"/>
+      <c r="M6" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57" t="s">
+      <c r="N6" s="51"/>
+      <c r="O6" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57" t="s">
+      <c r="P6" s="51"/>
+      <c r="Q6" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57" t="s">
+      <c r="R6" s="51"/>
+      <c r="S6" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57" t="s">
+      <c r="T6" s="51"/>
+      <c r="U6" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57" t="s">
+      <c r="V6" s="51"/>
+      <c r="W6" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="57"/>
+      <c r="X6" s="51"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AC6" s="57" t="s">
+      <c r="AC6" s="51" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57" t="s">
+      <c r="AD6" s="51"/>
+      <c r="AE6" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57" t="s">
+      <c r="AF6" s="51"/>
+      <c r="AG6" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57" t="s">
+      <c r="AH6" s="51"/>
+      <c r="AI6" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="57"/>
+      <c r="AJ6" s="51"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
@@ -15896,42 +15906,42 @@
       <c r="BH6" s="34"/>
       <c r="BI6" s="34"/>
       <c r="BJ6" s="34"/>
-      <c r="BK6" s="50" t="s">
+      <c r="BK6" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="50" t="s">
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="50" t="s">
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BP6" s="51"/>
-      <c r="BQ6" s="50" t="s">
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BR6" s="51"/>
-      <c r="BS6" s="50" t="s">
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BT6" s="51"/>
-      <c r="BU6" s="50" t="s">
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BV6" s="51"/>
-      <c r="BW6" s="50" t="s">
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BX6" s="51"/>
-      <c r="BY6" s="50" t="s">
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BZ6" s="51"/>
-      <c r="CA6" s="50" t="s">
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CB6" s="51"/>
+      <c r="CB6" s="53"/>
     </row>
     <row r="7" spans="2:80">
       <c r="E7">
@@ -16267,58 +16277,58 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52" t="s">
+      <c r="J12" s="50"/>
+      <c r="K12" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52" t="s">
+      <c r="L12" s="50"/>
+      <c r="M12" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52" t="s">
+      <c r="N12" s="50"/>
+      <c r="O12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52" t="s">
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52" t="s">
+      <c r="R12" s="50"/>
+      <c r="S12" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52" t="s">
+      <c r="T12" s="50"/>
+      <c r="U12" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52" t="s">
+      <c r="V12" s="50"/>
+      <c r="W12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="52"/>
+      <c r="X12" s="50"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC12" s="52" t="s">
+      <c r="AC12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52" t="s">
+      <c r="AD12" s="50"/>
+      <c r="AE12" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52" t="s">
+      <c r="AF12" s="50"/>
+      <c r="AG12" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52" t="s">
+      <c r="AH12" s="50"/>
+      <c r="AI12" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="AJ12" s="52"/>
+      <c r="AJ12" s="50"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
@@ -16341,42 +16351,42 @@
       <c r="BH12" s="34"/>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="34"/>
-      <c r="BK12" s="50" t="s">
+      <c r="BK12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="50" t="s">
+      <c r="BL12" s="53"/>
+      <c r="BM12" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BN12" s="51"/>
-      <c r="BO12" s="50" t="s">
+      <c r="BN12" s="53"/>
+      <c r="BO12" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BP12" s="51"/>
-      <c r="BQ12" s="50" t="s">
+      <c r="BP12" s="53"/>
+      <c r="BQ12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BR12" s="51"/>
-      <c r="BS12" s="50" t="s">
+      <c r="BR12" s="53"/>
+      <c r="BS12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="BT12" s="51"/>
-      <c r="BU12" s="50" t="s">
+      <c r="BT12" s="53"/>
+      <c r="BU12" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="BV12" s="51"/>
-      <c r="BW12" s="50" t="s">
+      <c r="BV12" s="53"/>
+      <c r="BW12" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="BX12" s="51"/>
-      <c r="BY12" s="50" t="s">
+      <c r="BX12" s="53"/>
+      <c r="BY12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="BZ12" s="51"/>
-      <c r="CA12" s="50" t="s">
+      <c r="BZ12" s="53"/>
+      <c r="CA12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="CB12" s="51"/>
+      <c r="CB12" s="53"/>
     </row>
     <row r="13" spans="2:80">
       <c r="BX13" s="27"/>
@@ -16409,71 +16419,71 @@
         <v>120</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="57" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56" t="s">
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="52" t="s">
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="57"/>
+      <c r="AE16" s="57"/>
+      <c r="AF16" s="57"/>
+      <c r="AG16" s="57"/>
+      <c r="AH16" s="57"/>
+      <c r="AI16" s="57"/>
+      <c r="AJ16" s="57"/>
+      <c r="AK16" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52" t="s">
+      <c r="AL16" s="50"/>
+      <c r="AM16" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="52" t="s">
+      <c r="AN16" s="50"/>
+      <c r="AO16" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="AP16" s="52"/>
-      <c r="AQ16" s="52" t="s">
+      <c r="AP16" s="50"/>
+      <c r="AQ16" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="53" t="s">
+      <c r="AR16" s="50"/>
+      <c r="AS16" s="54" t="s">
         <v>119</v>
       </c>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="54"/>
-      <c r="BA16" s="55"/>
-      <c r="BB16" s="52" t="s">
+      <c r="AT16" s="55"/>
+      <c r="AU16" s="55"/>
+      <c r="AV16" s="55"/>
+      <c r="AW16" s="55"/>
+      <c r="AX16" s="55"/>
+      <c r="AY16" s="55"/>
+      <c r="AZ16" s="55"/>
+      <c r="BA16" s="56"/>
+      <c r="BB16" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="BC16" s="52"/>
+      <c r="BC16" s="50"/>
       <c r="BE16" s="38"/>
       <c r="BF16" s="38"/>
       <c r="BG16" s="38"/>
@@ -17022,18 +17032,73 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="BB16:BC16"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="CA12:CB12"/>
+    <mergeCell ref="G16:Z16"/>
+    <mergeCell ref="AA16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AS16:BA16"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BM12:BN12"/>
+    <mergeCell ref="BO12:BP12"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CA6:CB6"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="BU3:BV3"/>
     <mergeCell ref="BW3:BX3"/>
     <mergeCell ref="BY3:BZ3"/>
@@ -17050,77 +17115,59 @@
     <mergeCell ref="BO3:BP3"/>
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CA6:CB6"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BM6:BN6"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="BB16:BC16"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="CA12:CB12"/>
-    <mergeCell ref="G16:Z16"/>
-    <mergeCell ref="AA16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO16:AP16"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AS16:BA16"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BM12:BN12"/>
-    <mergeCell ref="BO12:BP12"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B1:F50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="2:2">
+      <c r="B1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="45" spans="6:6">
+      <c r="F45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46" spans="6:6">
+      <c r="F46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4493,6 +4493,55 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8515350" y="18649950"/>
+          <a:ext cx="0" cy="5619750"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17139,8 +17188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W146" sqref="W146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="pattern fetch" sheetId="5" r:id="rId5"/>
     <sheet name="scroll" sheetId="7" r:id="rId6"/>
     <sheet name="vram access" sheetId="6" r:id="rId7"/>
+    <sheet name="palette" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="230">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -598,6 +599,198 @@
   </si>
   <si>
     <t>ph</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>+$0A</t>
+  </si>
+  <si>
+    <t>+$0B</t>
+  </si>
+  <si>
+    <t>+$0C</t>
+  </si>
+  <si>
+    <t>+$0D</t>
+  </si>
+  <si>
+    <t>+$0E</t>
+  </si>
+  <si>
+    <t>+$0F</t>
+  </si>
+  <si>
+    <t>#787878</t>
+  </si>
+  <si>
+    <t>#2000B0</t>
+  </si>
+  <si>
+    <t>#2800B8</t>
+  </si>
+  <si>
+    <t>#6010A0</t>
+  </si>
+  <si>
+    <t>#982078</t>
+  </si>
+  <si>
+    <t>#B01030</t>
+  </si>
+  <si>
+    <t>#A03000</t>
+  </si>
+  <si>
+    <t>#784000</t>
+  </si>
+  <si>
+    <t>#485800</t>
+  </si>
+  <si>
+    <t>#386800</t>
+  </si>
+  <si>
+    <t>#386C00</t>
+  </si>
+  <si>
+    <t>#306040</t>
+  </si>
+  <si>
+    <t>#305080</t>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#B0B0B0</t>
+  </si>
+  <si>
+    <t>#4060F8</t>
+  </si>
+  <si>
+    <t>#4040FF</t>
+  </si>
+  <si>
+    <t>#9040F0</t>
+  </si>
+  <si>
+    <t>#D840C0</t>
+  </si>
+  <si>
+    <t>#D84060</t>
+  </si>
+  <si>
+    <t>#E05000</t>
+  </si>
+  <si>
+    <t>#C07000</t>
+  </si>
+  <si>
+    <t>#888800</t>
+  </si>
+  <si>
+    <t>#50A000</t>
+  </si>
+  <si>
+    <t>#48A810</t>
+  </si>
+  <si>
+    <t>#48A068</t>
+  </si>
+  <si>
+    <t>#4090C0</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>#60A0FF</t>
+  </si>
+  <si>
+    <t>#5080FF</t>
+  </si>
+  <si>
+    <t>#A070FF</t>
+  </si>
+  <si>
+    <t>#F060FF</t>
+  </si>
+  <si>
+    <t>#FF60B0</t>
+  </si>
+  <si>
+    <t>#FF7830</t>
+  </si>
+  <si>
+    <t>#FFA000</t>
+  </si>
+  <si>
+    <t>#E8D020</t>
+  </si>
+  <si>
+    <t>#98E800</t>
+  </si>
+  <si>
+    <t>#70F040</t>
+  </si>
+  <si>
+    <t>#70E090</t>
+  </si>
+  <si>
+    <t>#60D0E0</t>
+  </si>
+  <si>
+    <t>#90D0FF</t>
+  </si>
+  <si>
+    <t>#A0B8FF</t>
+  </si>
+  <si>
+    <t>#C0B0FF</t>
+  </si>
+  <si>
+    <t>#E0B0FF</t>
+  </si>
+  <si>
+    <t>#FFB8E8</t>
+  </si>
+  <si>
+    <t>#FFC8B8</t>
+  </si>
+  <si>
+    <t>#FFD8A0</t>
+  </si>
+  <si>
+    <t>#FFF090</t>
+  </si>
+  <si>
+    <t>#C8F080</t>
+  </si>
+  <si>
+    <t>#A0F0A0</t>
+  </si>
+  <si>
+    <t>#A0FFC8</t>
+  </si>
+  <si>
+    <t>#A0FFF0</t>
+  </si>
+  <si>
+    <t>#A0A0A0</t>
+  </si>
+  <si>
+    <t>http://hlc6502.web.fc2.com/NesPal2.htm</t>
+  </si>
+  <si>
+    <t>$00</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bg</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spr</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -605,7 +798,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <numFmts count="1">
+    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+  </numFmts>
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -647,8 +843,32 @@
       <name val="Verdana"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00FFFF"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF66FF66"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="MS PGothic"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="64">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,8 +923,332 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF787878"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2000B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2800B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF6010A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF982078"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB01030"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA03000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF784000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF485800"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF386800"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF386C00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF306040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF305080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB0B0B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4060F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4040FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9040F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD840C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD84060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE05000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC07000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF888800"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF50A000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF48A810"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF48A068"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4090C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60A0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5080FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA070FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF060FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF60B0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF7830"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8D020"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98E800"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70F040"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF70E090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF60D0E0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF90D0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0B8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0B0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE0B0FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFB8E8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC8B8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD8A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF090"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC8F080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0F0A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0FFC8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0FFF0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA0A0A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -974,13 +1518,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1131,16 +1699,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1153,6 +1718,189 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="8" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="48" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="49" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="50" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="51" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="52" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="53" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="54" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="55" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="56" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="57" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="58" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="59" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="60" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="61" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="62" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="63" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="24" fontId="8" fillId="10" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4542,6 +5290,53 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="685800" y="25374600"/>
+          <a:ext cx="12868275" cy="7715250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5381,12 +6176,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -5395,6 +6184,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10150,62 +10945,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="50" t="s">
+      <c r="K33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="50"/>
-      <c r="M33" s="50" t="s">
+      <c r="L33" s="52"/>
+      <c r="M33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="50"/>
-      <c r="O33" s="50" t="s">
+      <c r="N33" s="52"/>
+      <c r="O33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="50"/>
-      <c r="Q33" s="50" t="s">
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="50"/>
-      <c r="S33" s="50" t="s">
+      <c r="R33" s="52"/>
+      <c r="S33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50" t="s">
+      <c r="T33" s="52"/>
+      <c r="U33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="50"/>
-      <c r="W33" s="50" t="s">
+      <c r="V33" s="52"/>
+      <c r="W33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="50"/>
-      <c r="Y33" s="50" t="s">
+      <c r="X33" s="52"/>
+      <c r="Y33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="50"/>
-      <c r="AA33" s="50" t="s">
+      <c r="Z33" s="52"/>
+      <c r="AA33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="50"/>
+      <c r="AB33" s="52"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="50" t="s">
+      <c r="AG33" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="50"/>
-      <c r="AI33" s="50" t="s">
+      <c r="AH33" s="52"/>
+      <c r="AI33" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="50"/>
-      <c r="AK33" s="50" t="s">
+      <c r="AJ33" s="52"/>
+      <c r="AK33" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="50"/>
-      <c r="AM33" s="50" t="s">
+      <c r="AL33" s="52"/>
+      <c r="AM33" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="50"/>
+      <c r="AN33" s="52"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -10228,104 +11023,104 @@
       <c r="BL33" s="34"/>
       <c r="BM33" s="34"/>
       <c r="BN33" s="34"/>
-      <c r="BO33" s="52" t="s">
+      <c r="BO33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP33" s="53"/>
-      <c r="BQ33" s="52" t="s">
+      <c r="BP33" s="51"/>
+      <c r="BQ33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="53"/>
-      <c r="BS33" s="52" t="s">
+      <c r="BR33" s="51"/>
+      <c r="BS33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="53"/>
-      <c r="BU33" s="52" t="s">
+      <c r="BT33" s="51"/>
+      <c r="BU33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="53"/>
-      <c r="BW33" s="52" t="s">
+      <c r="BV33" s="51"/>
+      <c r="BW33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX33" s="53"/>
-      <c r="BY33" s="52" t="s">
+      <c r="BX33" s="51"/>
+      <c r="BY33" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="53"/>
-      <c r="CA33" s="52" t="s">
+      <c r="BZ33" s="51"/>
+      <c r="CA33" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="53"/>
-      <c r="CC33" s="52" t="s">
+      <c r="CB33" s="51"/>
+      <c r="CC33" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="53"/>
-      <c r="CE33" s="52" t="s">
+      <c r="CD33" s="51"/>
+      <c r="CE33" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF33" s="53"/>
+      <c r="CF33" s="51"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="50" t="s">
+      <c r="K34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="50"/>
-      <c r="M34" s="50" t="s">
+      <c r="L34" s="52"/>
+      <c r="M34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="50"/>
-      <c r="O34" s="50" t="s">
+      <c r="N34" s="52"/>
+      <c r="O34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="50"/>
-      <c r="Q34" s="50" t="s">
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="50"/>
-      <c r="S34" s="50" t="s">
+      <c r="R34" s="52"/>
+      <c r="S34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50" t="s">
+      <c r="T34" s="52"/>
+      <c r="U34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="50"/>
-      <c r="W34" s="50" t="s">
+      <c r="V34" s="52"/>
+      <c r="W34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="50"/>
-      <c r="Y34" s="50" t="s">
+      <c r="X34" s="52"/>
+      <c r="Y34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="50"/>
-      <c r="AA34" s="50" t="s">
+      <c r="Z34" s="52"/>
+      <c r="AA34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="50"/>
+      <c r="AB34" s="52"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="50" t="s">
+      <c r="AG34" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="50"/>
-      <c r="AI34" s="50" t="s">
+      <c r="AH34" s="52"/>
+      <c r="AI34" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="50"/>
-      <c r="AK34" s="50" t="s">
+      <c r="AJ34" s="52"/>
+      <c r="AK34" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="50"/>
-      <c r="AM34" s="50" t="s">
+      <c r="AL34" s="52"/>
+      <c r="AM34" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="50"/>
+      <c r="AN34" s="52"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -10348,42 +11143,42 @@
       <c r="BL34" s="34"/>
       <c r="BM34" s="34"/>
       <c r="BN34" s="34"/>
-      <c r="BO34" s="52" t="s">
+      <c r="BO34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP34" s="53"/>
-      <c r="BQ34" s="52" t="s">
+      <c r="BP34" s="51"/>
+      <c r="BQ34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="53"/>
-      <c r="BS34" s="52" t="s">
+      <c r="BR34" s="51"/>
+      <c r="BS34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="53"/>
-      <c r="BU34" s="52" t="s">
+      <c r="BT34" s="51"/>
+      <c r="BU34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="53"/>
-      <c r="BW34" s="52" t="s">
+      <c r="BV34" s="51"/>
+      <c r="BW34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX34" s="53"/>
-      <c r="BY34" s="52" t="s">
+      <c r="BX34" s="51"/>
+      <c r="BY34" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="53"/>
-      <c r="CA34" s="52" t="s">
+      <c r="BZ34" s="51"/>
+      <c r="CA34" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="53"/>
-      <c r="CC34" s="52" t="s">
+      <c r="CB34" s="51"/>
+      <c r="CC34" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="53"/>
-      <c r="CE34" s="52" t="s">
+      <c r="CD34" s="51"/>
+      <c r="CE34" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF34" s="53"/>
+      <c r="CF34" s="51"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -10397,62 +11192,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="51" t="s">
+      <c r="K36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="51"/>
-      <c r="M36" s="51" t="s">
+      <c r="L36" s="57"/>
+      <c r="M36" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="51"/>
-      <c r="O36" s="51" t="s">
+      <c r="N36" s="57"/>
+      <c r="O36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="51"/>
-      <c r="Q36" s="51" t="s">
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="51"/>
-      <c r="S36" s="51" t="s">
+      <c r="R36" s="57"/>
+      <c r="S36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="51"/>
-      <c r="U36" s="51" t="s">
+      <c r="T36" s="57"/>
+      <c r="U36" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="51"/>
-      <c r="W36" s="51" t="s">
+      <c r="V36" s="57"/>
+      <c r="W36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51" t="s">
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51" t="s">
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="51"/>
+      <c r="AB36" s="57"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="51" t="s">
+      <c r="AG36" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="51"/>
-      <c r="AI36" s="51" t="s">
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="51"/>
-      <c r="AK36" s="51" t="s">
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="51"/>
-      <c r="AM36" s="51" t="s">
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="51"/>
+      <c r="AN36" s="57"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -10475,42 +11270,42 @@
       <c r="BL36" s="34"/>
       <c r="BM36" s="34"/>
       <c r="BN36" s="34"/>
-      <c r="BO36" s="52" t="s">
+      <c r="BO36" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP36" s="53"/>
-      <c r="BQ36" s="52" t="s">
+      <c r="BP36" s="51"/>
+      <c r="BQ36" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="53"/>
-      <c r="BS36" s="52" t="s">
+      <c r="BR36" s="51"/>
+      <c r="BS36" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="53"/>
-      <c r="BU36" s="52" t="s">
+      <c r="BT36" s="51"/>
+      <c r="BU36" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="53"/>
-      <c r="BW36" s="52" t="s">
+      <c r="BV36" s="51"/>
+      <c r="BW36" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX36" s="53"/>
-      <c r="BY36" s="52" t="s">
+      <c r="BX36" s="51"/>
+      <c r="BY36" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="53"/>
-      <c r="CA36" s="52" t="s">
+      <c r="BZ36" s="51"/>
+      <c r="CA36" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="53"/>
-      <c r="CC36" s="52" t="s">
+      <c r="CB36" s="51"/>
+      <c r="CC36" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="53"/>
-      <c r="CE36" s="52" t="s">
+      <c r="CD36" s="51"/>
+      <c r="CE36" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF36" s="53"/>
+      <c r="CF36" s="51"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -10846,58 +11641,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="50" t="s">
+      <c r="M42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="50"/>
-      <c r="O42" s="50" t="s">
+      <c r="N42" s="52"/>
+      <c r="O42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="50"/>
-      <c r="Q42" s="50" t="s">
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="50"/>
-      <c r="S42" s="50" t="s">
+      <c r="R42" s="52"/>
+      <c r="S42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="50"/>
-      <c r="U42" s="50" t="s">
+      <c r="T42" s="52"/>
+      <c r="U42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="50"/>
-      <c r="W42" s="50" t="s">
+      <c r="V42" s="52"/>
+      <c r="W42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="50"/>
-      <c r="Y42" s="50" t="s">
+      <c r="X42" s="52"/>
+      <c r="Y42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="50"/>
-      <c r="AA42" s="50" t="s">
+      <c r="Z42" s="52"/>
+      <c r="AA42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="50"/>
+      <c r="AB42" s="52"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="50" t="s">
+      <c r="AG42" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="50"/>
-      <c r="AI42" s="50" t="s">
+      <c r="AH42" s="52"/>
+      <c r="AI42" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="50"/>
-      <c r="AK42" s="50" t="s">
+      <c r="AJ42" s="52"/>
+      <c r="AK42" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="50"/>
-      <c r="AM42" s="50" t="s">
+      <c r="AL42" s="52"/>
+      <c r="AM42" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="50"/>
+      <c r="AN42" s="52"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -10920,42 +11715,42 @@
       <c r="BL42" s="34"/>
       <c r="BM42" s="34"/>
       <c r="BN42" s="34"/>
-      <c r="BO42" s="52" t="s">
+      <c r="BO42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BP42" s="53"/>
-      <c r="BQ42" s="52" t="s">
+      <c r="BP42" s="51"/>
+      <c r="BQ42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="53"/>
-      <c r="BS42" s="52" t="s">
+      <c r="BR42" s="51"/>
+      <c r="BS42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="53"/>
-      <c r="BU42" s="52" t="s">
+      <c r="BT42" s="51"/>
+      <c r="BU42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="53"/>
-      <c r="BW42" s="52" t="s">
+      <c r="BV42" s="51"/>
+      <c r="BW42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BX42" s="53"/>
-      <c r="BY42" s="52" t="s">
+      <c r="BX42" s="51"/>
+      <c r="BY42" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="53"/>
-      <c r="CA42" s="52" t="s">
+      <c r="BZ42" s="51"/>
+      <c r="CA42" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="53"/>
-      <c r="CC42" s="52" t="s">
+      <c r="CB42" s="51"/>
+      <c r="CC42" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="53"/>
-      <c r="CE42" s="52" t="s">
+      <c r="CD42" s="51"/>
+      <c r="CE42" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CF42" s="53"/>
+      <c r="CF42" s="51"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -10988,71 +11783,71 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="57" t="s">
+      <c r="K46" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
-      <c r="X46" s="57"/>
-      <c r="Y46" s="57"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="57"/>
-      <c r="AB46" s="57"/>
-      <c r="AC46" s="57"/>
-      <c r="AD46" s="57"/>
-      <c r="AE46" s="57" t="s">
+      <c r="L46" s="56"/>
+      <c r="M46" s="56"/>
+      <c r="N46" s="56"/>
+      <c r="O46" s="56"/>
+      <c r="P46" s="56"/>
+      <c r="Q46" s="56"/>
+      <c r="R46" s="56"/>
+      <c r="S46" s="56"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
+      <c r="V46" s="56"/>
+      <c r="W46" s="56"/>
+      <c r="X46" s="56"/>
+      <c r="Y46" s="56"/>
+      <c r="Z46" s="56"/>
+      <c r="AA46" s="56"/>
+      <c r="AB46" s="56"/>
+      <c r="AC46" s="56"/>
+      <c r="AD46" s="56"/>
+      <c r="AE46" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="57"/>
-      <c r="AG46" s="57"/>
-      <c r="AH46" s="57"/>
-      <c r="AI46" s="57"/>
-      <c r="AJ46" s="57"/>
-      <c r="AK46" s="57"/>
-      <c r="AL46" s="57"/>
-      <c r="AM46" s="57"/>
-      <c r="AN46" s="57"/>
-      <c r="AO46" s="50" t="s">
+      <c r="AF46" s="56"/>
+      <c r="AG46" s="56"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="56"/>
+      <c r="AJ46" s="56"/>
+      <c r="AK46" s="56"/>
+      <c r="AL46" s="56"/>
+      <c r="AM46" s="56"/>
+      <c r="AN46" s="56"/>
+      <c r="AO46" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="50"/>
-      <c r="AQ46" s="50" t="s">
+      <c r="AP46" s="52"/>
+      <c r="AQ46" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="50"/>
-      <c r="AS46" s="50" t="s">
+      <c r="AR46" s="52"/>
+      <c r="AS46" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="50"/>
-      <c r="AU46" s="50" t="s">
+      <c r="AT46" s="52"/>
+      <c r="AU46" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="50"/>
-      <c r="AW46" s="54" t="s">
+      <c r="AV46" s="52"/>
+      <c r="AW46" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="55"/>
-      <c r="AY46" s="55"/>
-      <c r="AZ46" s="55"/>
-      <c r="BA46" s="55"/>
-      <c r="BB46" s="55"/>
-      <c r="BC46" s="55"/>
-      <c r="BD46" s="55"/>
-      <c r="BE46" s="56"/>
-      <c r="BF46" s="50" t="s">
+      <c r="AX46" s="54"/>
+      <c r="AY46" s="54"/>
+      <c r="AZ46" s="54"/>
+      <c r="BA46" s="54"/>
+      <c r="BB46" s="54"/>
+      <c r="BC46" s="54"/>
+      <c r="BD46" s="54"/>
+      <c r="BE46" s="55"/>
+      <c r="BF46" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="50"/>
+      <c r="BG46" s="52"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -14634,20 +15429,71 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="CE33:CF33"/>
-    <mergeCell ref="CE34:CF34"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CE42:CF42"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
     <mergeCell ref="BO33:BP33"/>
     <mergeCell ref="BO34:BP34"/>
     <mergeCell ref="CA33:CB33"/>
@@ -14664,71 +15510,20 @@
     <mergeCell ref="BY34:BZ34"/>
     <mergeCell ref="CA34:CB34"/>
     <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BY36:BZ36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14742,7 +15537,7 @@
   <dimension ref="G2:AW27"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="AB10" sqref="AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -15630,62 +16425,62 @@
         <v>0</v>
       </c>
       <c r="F3" s="39"/>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50" t="s">
+      <c r="H3" s="52"/>
+      <c r="I3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50" t="s">
+      <c r="J3" s="52"/>
+      <c r="K3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50" t="s">
+      <c r="L3" s="52"/>
+      <c r="M3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50" t="s">
+      <c r="N3" s="52"/>
+      <c r="O3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50" t="s">
+      <c r="P3" s="52"/>
+      <c r="Q3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50" t="s">
+      <c r="R3" s="52"/>
+      <c r="S3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50" t="s">
+      <c r="T3" s="52"/>
+      <c r="U3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50" t="s">
+      <c r="V3" s="52"/>
+      <c r="W3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="50"/>
+      <c r="X3" s="52"/>
       <c r="Z3" s="35"/>
       <c r="AA3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="50" t="s">
+      <c r="AC3" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50" t="s">
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" s="50"/>
-      <c r="AG3" s="50" t="s">
+      <c r="AF3" s="52"/>
+      <c r="AG3" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="50"/>
-      <c r="AI3" s="50" t="s">
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AJ3" s="50"/>
+      <c r="AJ3" s="52"/>
       <c r="AK3" s="34"/>
       <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
@@ -15708,104 +16503,104 @@
       <c r="BH3" s="34"/>
       <c r="BI3" s="34"/>
       <c r="BJ3" s="34"/>
-      <c r="BK3" s="52" t="s">
+      <c r="BK3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BL3" s="53"/>
-      <c r="BM3" s="52" t="s">
+      <c r="BL3" s="51"/>
+      <c r="BM3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BN3" s="53"/>
-      <c r="BO3" s="52" t="s">
+      <c r="BN3" s="51"/>
+      <c r="BO3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BP3" s="53"/>
-      <c r="BQ3" s="52" t="s">
+      <c r="BP3" s="51"/>
+      <c r="BQ3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BR3" s="53"/>
-      <c r="BS3" s="52" t="s">
+      <c r="BR3" s="51"/>
+      <c r="BS3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="53"/>
-      <c r="BU3" s="52" t="s">
+      <c r="BT3" s="51"/>
+      <c r="BU3" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BV3" s="53"/>
-      <c r="BW3" s="52" t="s">
+      <c r="BV3" s="51"/>
+      <c r="BW3" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BX3" s="53"/>
-      <c r="BY3" s="52" t="s">
+      <c r="BX3" s="51"/>
+      <c r="BY3" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BZ3" s="53"/>
-      <c r="CA3" s="52" t="s">
+      <c r="BZ3" s="51"/>
+      <c r="CA3" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CB3" s="53"/>
+      <c r="CB3" s="51"/>
     </row>
     <row r="4" spans="2:80">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50" t="s">
+      <c r="H4" s="52"/>
+      <c r="I4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50" t="s">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50" t="s">
+      <c r="L4" s="52"/>
+      <c r="M4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50" t="s">
+      <c r="N4" s="52"/>
+      <c r="O4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50" t="s">
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="50"/>
-      <c r="S4" s="50" t="s">
+      <c r="R4" s="52"/>
+      <c r="S4" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="50" t="s">
+      <c r="T4" s="52"/>
+      <c r="U4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="50"/>
-      <c r="W4" s="50" t="s">
+      <c r="V4" s="52"/>
+      <c r="W4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="X4" s="50"/>
+      <c r="X4" s="52"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" s="50" t="s">
+      <c r="AC4" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" s="50"/>
-      <c r="AE4" s="50" t="s">
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AF4" s="50"/>
-      <c r="AG4" s="50" t="s">
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AH4" s="50"/>
-      <c r="AI4" s="50" t="s">
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AJ4" s="50"/>
+      <c r="AJ4" s="52"/>
       <c r="AK4" s="34"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="34"/>
@@ -15828,42 +16623,42 @@
       <c r="BH4" s="34"/>
       <c r="BI4" s="34"/>
       <c r="BJ4" s="34"/>
-      <c r="BK4" s="52" t="s">
+      <c r="BK4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BL4" s="53"/>
-      <c r="BM4" s="52" t="s">
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="53"/>
-      <c r="BO4" s="52" t="s">
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BP4" s="53"/>
-      <c r="BQ4" s="52" t="s">
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BR4" s="53"/>
-      <c r="BS4" s="52" t="s">
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BT4" s="53"/>
-      <c r="BU4" s="52" t="s">
+      <c r="BT4" s="51"/>
+      <c r="BU4" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BV4" s="53"/>
-      <c r="BW4" s="52" t="s">
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="53"/>
-      <c r="BY4" s="52" t="s">
+      <c r="BX4" s="51"/>
+      <c r="BY4" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="53"/>
-      <c r="CA4" s="52" t="s">
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CB4" s="53"/>
+      <c r="CB4" s="51"/>
     </row>
     <row r="5" spans="2:80">
       <c r="BX5" s="27"/>
@@ -15877,62 +16672,62 @@
         <v>239</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51" t="s">
+      <c r="H6" s="57"/>
+      <c r="I6" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51" t="s">
+      <c r="J6" s="57"/>
+      <c r="K6" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51" t="s">
+      <c r="L6" s="57"/>
+      <c r="M6" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="51"/>
-      <c r="O6" s="51" t="s">
+      <c r="N6" s="57"/>
+      <c r="O6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="51"/>
-      <c r="Q6" s="51" t="s">
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="R6" s="51"/>
-      <c r="S6" s="51" t="s">
+      <c r="R6" s="57"/>
+      <c r="S6" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="51"/>
-      <c r="U6" s="51" t="s">
+      <c r="T6" s="57"/>
+      <c r="U6" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="51"/>
-      <c r="W6" s="51" t="s">
+      <c r="V6" s="57"/>
+      <c r="W6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="51"/>
+      <c r="X6" s="57"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AC6" s="51" t="s">
+      <c r="AC6" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="51"/>
-      <c r="AE6" s="51" t="s">
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="AF6" s="51"/>
-      <c r="AG6" s="51" t="s">
+      <c r="AF6" s="57"/>
+      <c r="AG6" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="51"/>
-      <c r="AI6" s="51" t="s">
+      <c r="AH6" s="57"/>
+      <c r="AI6" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="51"/>
+      <c r="AJ6" s="57"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
@@ -15955,42 +16750,42 @@
       <c r="BH6" s="34"/>
       <c r="BI6" s="34"/>
       <c r="BJ6" s="34"/>
-      <c r="BK6" s="52" t="s">
+      <c r="BK6" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="52" t="s">
+      <c r="BL6" s="51"/>
+      <c r="BM6" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="52" t="s">
+      <c r="BN6" s="51"/>
+      <c r="BO6" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="52" t="s">
+      <c r="BP6" s="51"/>
+      <c r="BQ6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="52" t="s">
+      <c r="BR6" s="51"/>
+      <c r="BS6" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="52" t="s">
+      <c r="BT6" s="51"/>
+      <c r="BU6" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="52" t="s">
+      <c r="BV6" s="51"/>
+      <c r="BW6" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="52" t="s">
+      <c r="BX6" s="51"/>
+      <c r="BY6" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="52" t="s">
+      <c r="BZ6" s="51"/>
+      <c r="CA6" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CB6" s="53"/>
+      <c r="CB6" s="51"/>
     </row>
     <row r="7" spans="2:80">
       <c r="E7">
@@ -16326,58 +17121,58 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="50" t="s">
+      <c r="J12" s="52"/>
+      <c r="K12" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="50"/>
-      <c r="M12" s="50" t="s">
+      <c r="L12" s="52"/>
+      <c r="M12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="50"/>
-      <c r="O12" s="50" t="s">
+      <c r="N12" s="52"/>
+      <c r="O12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="50"/>
-      <c r="Q12" s="50" t="s">
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="50"/>
-      <c r="S12" s="50" t="s">
+      <c r="R12" s="52"/>
+      <c r="S12" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="50"/>
-      <c r="U12" s="50" t="s">
+      <c r="T12" s="52"/>
+      <c r="U12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="50"/>
-      <c r="W12" s="50" t="s">
+      <c r="V12" s="52"/>
+      <c r="W12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="50"/>
+      <c r="X12" s="52"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC12" s="50" t="s">
+      <c r="AC12" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AD12" s="50"/>
-      <c r="AE12" s="50" t="s">
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AF12" s="50"/>
-      <c r="AG12" s="50" t="s">
+      <c r="AF12" s="52"/>
+      <c r="AG12" s="52" t="s">
         <v>113</v>
       </c>
-      <c r="AH12" s="50"/>
-      <c r="AI12" s="50" t="s">
+      <c r="AH12" s="52"/>
+      <c r="AI12" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="AJ12" s="50"/>
+      <c r="AJ12" s="52"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
@@ -16400,42 +17195,42 @@
       <c r="BH12" s="34"/>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="34"/>
-      <c r="BK12" s="52" t="s">
+      <c r="BK12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BL12" s="53"/>
-      <c r="BM12" s="52" t="s">
+      <c r="BL12" s="51"/>
+      <c r="BM12" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BN12" s="53"/>
-      <c r="BO12" s="52" t="s">
+      <c r="BN12" s="51"/>
+      <c r="BO12" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BP12" s="53"/>
-      <c r="BQ12" s="52" t="s">
+      <c r="BP12" s="51"/>
+      <c r="BQ12" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BR12" s="53"/>
-      <c r="BS12" s="52" t="s">
+      <c r="BR12" s="51"/>
+      <c r="BS12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="BT12" s="53"/>
-      <c r="BU12" s="52" t="s">
+      <c r="BT12" s="51"/>
+      <c r="BU12" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="BV12" s="53"/>
-      <c r="BW12" s="52" t="s">
+      <c r="BV12" s="51"/>
+      <c r="BW12" s="50" t="s">
         <v>113</v>
       </c>
-      <c r="BX12" s="53"/>
-      <c r="BY12" s="52" t="s">
+      <c r="BX12" s="51"/>
+      <c r="BY12" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="BZ12" s="53"/>
-      <c r="CA12" s="52" t="s">
+      <c r="BZ12" s="51"/>
+      <c r="CA12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="CB12" s="53"/>
+      <c r="CB12" s="51"/>
     </row>
     <row r="13" spans="2:80">
       <c r="BX13" s="27"/>
@@ -16468,71 +17263,71 @@
         <v>120</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="57" t="s">
+      <c r="G16" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
-      <c r="X16" s="57"/>
-      <c r="Y16" s="57"/>
-      <c r="Z16" s="57"/>
-      <c r="AA16" s="57" t="s">
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="56"/>
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="56"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="AB16" s="57"/>
-      <c r="AC16" s="57"/>
-      <c r="AD16" s="57"/>
-      <c r="AE16" s="57"/>
-      <c r="AF16" s="57"/>
-      <c r="AG16" s="57"/>
-      <c r="AH16" s="57"/>
-      <c r="AI16" s="57"/>
-      <c r="AJ16" s="57"/>
-      <c r="AK16" s="50" t="s">
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="56"/>
+      <c r="AD16" s="56"/>
+      <c r="AE16" s="56"/>
+      <c r="AF16" s="56"/>
+      <c r="AG16" s="56"/>
+      <c r="AH16" s="56"/>
+      <c r="AI16" s="56"/>
+      <c r="AJ16" s="56"/>
+      <c r="AK16" s="52" t="s">
         <v>111</v>
       </c>
-      <c r="AL16" s="50"/>
-      <c r="AM16" s="50" t="s">
+      <c r="AL16" s="52"/>
+      <c r="AM16" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50" t="s">
+      <c r="AN16" s="52"/>
+      <c r="AO16" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50" t="s">
+      <c r="AP16" s="52"/>
+      <c r="AQ16" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="54" t="s">
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="AT16" s="55"/>
-      <c r="AU16" s="55"/>
-      <c r="AV16" s="55"/>
-      <c r="AW16" s="55"/>
-      <c r="AX16" s="55"/>
-      <c r="AY16" s="55"/>
-      <c r="AZ16" s="55"/>
-      <c r="BA16" s="56"/>
-      <c r="BB16" s="50" t="s">
+      <c r="AT16" s="54"/>
+      <c r="AU16" s="54"/>
+      <c r="AV16" s="54"/>
+      <c r="AW16" s="54"/>
+      <c r="AX16" s="54"/>
+      <c r="AY16" s="54"/>
+      <c r="AZ16" s="54"/>
+      <c r="BA16" s="55"/>
+      <c r="BB16" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="BC16" s="50"/>
+      <c r="BC16" s="52"/>
       <c r="BE16" s="38"/>
       <c r="BF16" s="38"/>
       <c r="BG16" s="38"/>
@@ -17081,6 +17876,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CA6:CB6"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="BB16:BC16"/>
     <mergeCell ref="BW12:BX12"/>
     <mergeCell ref="BY12:BZ12"/>
@@ -17097,85 +17971,6 @@
     <mergeCell ref="BO12:BP12"/>
     <mergeCell ref="BQ12:BR12"/>
     <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BM6:BN6"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CA6:CB6"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17188,8 +17983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W146" sqref="W146"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B149" sqref="B149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -17219,4 +18014,304 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A4:R10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" ht="17.25">
+      <c r="A5" s="58"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60">
+        <v>0</v>
+      </c>
+      <c r="C6" s="60">
+        <v>1</v>
+      </c>
+      <c r="D6" s="60">
+        <v>2</v>
+      </c>
+      <c r="E6" s="60">
+        <v>3</v>
+      </c>
+      <c r="F6" s="60">
+        <v>4</v>
+      </c>
+      <c r="G6" s="60">
+        <v>5</v>
+      </c>
+      <c r="H6" s="60">
+        <v>6</v>
+      </c>
+      <c r="I6" s="60">
+        <v>7</v>
+      </c>
+      <c r="J6" s="60">
+        <v>8</v>
+      </c>
+      <c r="K6" s="60">
+        <v>9</v>
+      </c>
+      <c r="L6" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="M6" s="61" t="s">
+        <v>168</v>
+      </c>
+      <c r="N6" s="61" t="s">
+        <v>169</v>
+      </c>
+      <c r="O6" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="P6" s="61" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q6" s="61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="14.25">
+      <c r="A7" s="116" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="D7" s="64" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>176</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>177</v>
+      </c>
+      <c r="G7" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>179</v>
+      </c>
+      <c r="I7" s="69" t="s">
+        <v>180</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="K7" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="M7" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="N7" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="O7" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="P7" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q7" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="R7" s="117" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="14.25">
+      <c r="A8" s="60">
+        <v>10</v>
+      </c>
+      <c r="B8" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="77" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="78" t="s">
+        <v>189</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="80" t="s">
+        <v>191</v>
+      </c>
+      <c r="G8" s="81" t="s">
+        <v>192</v>
+      </c>
+      <c r="H8" s="82" t="s">
+        <v>193</v>
+      </c>
+      <c r="I8" s="83" t="s">
+        <v>194</v>
+      </c>
+      <c r="J8" s="84" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="85" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="M8" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="N8" s="88" t="s">
+        <v>199</v>
+      </c>
+      <c r="O8" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="P8" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="R8" s="117"/>
+    </row>
+    <row r="9" spans="1:18" ht="14.25">
+      <c r="A9" s="60">
+        <v>20</v>
+      </c>
+      <c r="B9" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="94" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="I9" s="96" t="s">
+        <v>207</v>
+      </c>
+      <c r="J9" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="K9" s="98" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="M9" s="100" t="s">
+        <v>211</v>
+      </c>
+      <c r="N9" s="101" t="s">
+        <v>212</v>
+      </c>
+      <c r="O9" s="102" t="s">
+        <v>173</v>
+      </c>
+      <c r="P9" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q9" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="R9" s="117" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="14.25">
+      <c r="A10" s="60">
+        <v>30</v>
+      </c>
+      <c r="B10" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="C10" s="103" t="s">
+        <v>213</v>
+      </c>
+      <c r="D10" s="104" t="s">
+        <v>214</v>
+      </c>
+      <c r="E10" s="105" t="s">
+        <v>215</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>216</v>
+      </c>
+      <c r="G10" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="H10" s="108" t="s">
+        <v>218</v>
+      </c>
+      <c r="I10" s="109" t="s">
+        <v>219</v>
+      </c>
+      <c r="J10" s="110" t="s">
+        <v>220</v>
+      </c>
+      <c r="K10" s="111" t="s">
+        <v>221</v>
+      </c>
+      <c r="L10" s="112" t="s">
+        <v>222</v>
+      </c>
+      <c r="M10" s="113" t="s">
+        <v>223</v>
+      </c>
+      <c r="N10" s="114" t="s">
+        <v>224</v>
+      </c>
+      <c r="O10" s="115" t="s">
+        <v>225</v>
+      </c>
+      <c r="P10" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q10" s="75" t="s">
+        <v>186</v>
+      </c>
+      <c r="R10" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="R7:R8"/>
+    <mergeCell ref="R9:R10"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="238">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -791,6 +791,38 @@
   </si>
   <si>
     <t>spr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ff</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sprite plt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ph</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>at=3</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -801,7 +833,7 @@
   <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -866,6 +898,15 @@
       <color rgb="FFFFFFFF"/>
       <name val="MS PGothic"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="64">
@@ -1248,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1542,13 +1583,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1692,36 +1746,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -1900,8 +1924,50 @@
     <xf numFmtId="24" fontId="8" fillId="10" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5725,10 +5791,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="107" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -5736,8 +5802,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
@@ -5776,10 +5842,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="48" t="s">
+      <c r="B13" s="107" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -5787,8 +5853,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="49"/>
-      <c r="B14" s="49"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="108"/>
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
@@ -5927,10 +5993,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="48" t="s">
+      <c r="A29" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="48" t="s">
+      <c r="B29" s="107" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -5938,8 +6004,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="49"/>
-      <c r="B30" s="49"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="108"/>
       <c r="C30" s="6" t="s">
         <v>50</v>
       </c>
@@ -5967,10 +6033,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="48" t="s">
+      <c r="A33" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="107" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -5978,8 +6044,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="49"/>
-      <c r="B34" s="49"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="108"/>
       <c r="C34" s="6" t="s">
         <v>57</v>
       </c>
@@ -6079,22 +6145,22 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="48" t="s">
+      <c r="A47" s="107" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="48" t="s">
+      <c r="C47" s="107" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="49"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="108"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
@@ -6118,22 +6184,22 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="48" t="s">
+      <c r="A52" s="107" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="48" t="s">
+      <c r="C52" s="107" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="49"/>
+      <c r="A53" s="108"/>
       <c r="B53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="49"/>
+      <c r="C53" s="108"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
@@ -6157,25 +6223,31 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="48" t="s">
+      <c r="A57" s="107" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="48" t="s">
+      <c r="C57" s="107" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="49"/>
+      <c r="A58" s="108"/>
       <c r="B58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="49"/>
+      <c r="C58" s="108"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -6184,12 +6256,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10945,62 +11011,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="52" t="s">
+      <c r="K33" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="52"/>
-      <c r="M33" s="52" t="s">
+      <c r="L33" s="109"/>
+      <c r="M33" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="52"/>
-      <c r="O33" s="52" t="s">
+      <c r="N33" s="109"/>
+      <c r="O33" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="52"/>
-      <c r="Q33" s="52" t="s">
+      <c r="P33" s="109"/>
+      <c r="Q33" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="52"/>
-      <c r="S33" s="52" t="s">
+      <c r="R33" s="109"/>
+      <c r="S33" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="52"/>
-      <c r="U33" s="52" t="s">
+      <c r="T33" s="109"/>
+      <c r="U33" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="52"/>
-      <c r="W33" s="52" t="s">
+      <c r="V33" s="109"/>
+      <c r="W33" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="52"/>
-      <c r="Y33" s="52" t="s">
+      <c r="X33" s="109"/>
+      <c r="Y33" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="52"/>
-      <c r="AA33" s="52" t="s">
+      <c r="Z33" s="109"/>
+      <c r="AA33" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="52"/>
+      <c r="AB33" s="109"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="52" t="s">
+      <c r="AG33" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="52"/>
-      <c r="AI33" s="52" t="s">
+      <c r="AH33" s="109"/>
+      <c r="AI33" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="52"/>
-      <c r="AK33" s="52" t="s">
+      <c r="AJ33" s="109"/>
+      <c r="AK33" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="52"/>
-      <c r="AM33" s="52" t="s">
+      <c r="AL33" s="109"/>
+      <c r="AM33" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="52"/>
+      <c r="AN33" s="109"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -11023,104 +11089,104 @@
       <c r="BL33" s="34"/>
       <c r="BM33" s="34"/>
       <c r="BN33" s="34"/>
-      <c r="BO33" s="50" t="s">
+      <c r="BO33" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BP33" s="51"/>
-      <c r="BQ33" s="50" t="s">
+      <c r="BP33" s="112"/>
+      <c r="BQ33" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="51"/>
-      <c r="BS33" s="50" t="s">
+      <c r="BR33" s="112"/>
+      <c r="BS33" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="51"/>
-      <c r="BU33" s="50" t="s">
+      <c r="BT33" s="112"/>
+      <c r="BU33" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="51"/>
-      <c r="BW33" s="50" t="s">
+      <c r="BV33" s="112"/>
+      <c r="BW33" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BX33" s="51"/>
-      <c r="BY33" s="50" t="s">
+      <c r="BX33" s="112"/>
+      <c r="BY33" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="51"/>
-      <c r="CA33" s="50" t="s">
+      <c r="BZ33" s="112"/>
+      <c r="CA33" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="51"/>
-      <c r="CC33" s="50" t="s">
+      <c r="CB33" s="112"/>
+      <c r="CC33" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="51"/>
-      <c r="CE33" s="50" t="s">
+      <c r="CD33" s="112"/>
+      <c r="CE33" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="CF33" s="51"/>
+      <c r="CF33" s="112"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="52" t="s">
+      <c r="K34" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52" t="s">
+      <c r="L34" s="109"/>
+      <c r="M34" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52" t="s">
+      <c r="N34" s="109"/>
+      <c r="O34" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52" t="s">
+      <c r="P34" s="109"/>
+      <c r="Q34" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="52"/>
-      <c r="S34" s="52" t="s">
+      <c r="R34" s="109"/>
+      <c r="S34" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="52"/>
-      <c r="U34" s="52" t="s">
+      <c r="T34" s="109"/>
+      <c r="U34" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="52"/>
-      <c r="W34" s="52" t="s">
+      <c r="V34" s="109"/>
+      <c r="W34" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="52"/>
-      <c r="Y34" s="52" t="s">
+      <c r="X34" s="109"/>
+      <c r="Y34" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="52"/>
-      <c r="AA34" s="52" t="s">
+      <c r="Z34" s="109"/>
+      <c r="AA34" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="52"/>
+      <c r="AB34" s="109"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="52" t="s">
+      <c r="AG34" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="52"/>
-      <c r="AI34" s="52" t="s">
+      <c r="AH34" s="109"/>
+      <c r="AI34" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="52"/>
-      <c r="AK34" s="52" t="s">
+      <c r="AJ34" s="109"/>
+      <c r="AK34" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="52"/>
-      <c r="AM34" s="52" t="s">
+      <c r="AL34" s="109"/>
+      <c r="AM34" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="52"/>
+      <c r="AN34" s="109"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -11143,42 +11209,42 @@
       <c r="BL34" s="34"/>
       <c r="BM34" s="34"/>
       <c r="BN34" s="34"/>
-      <c r="BO34" s="50" t="s">
+      <c r="BO34" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BP34" s="51"/>
-      <c r="BQ34" s="50" t="s">
+      <c r="BP34" s="112"/>
+      <c r="BQ34" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="51"/>
-      <c r="BS34" s="50" t="s">
+      <c r="BR34" s="112"/>
+      <c r="BS34" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="51"/>
-      <c r="BU34" s="50" t="s">
+      <c r="BT34" s="112"/>
+      <c r="BU34" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="51"/>
-      <c r="BW34" s="50" t="s">
+      <c r="BV34" s="112"/>
+      <c r="BW34" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BX34" s="51"/>
-      <c r="BY34" s="50" t="s">
+      <c r="BX34" s="112"/>
+      <c r="BY34" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="51"/>
-      <c r="CA34" s="50" t="s">
+      <c r="BZ34" s="112"/>
+      <c r="CA34" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="51"/>
-      <c r="CC34" s="50" t="s">
+      <c r="CB34" s="112"/>
+      <c r="CC34" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="51"/>
-      <c r="CE34" s="50" t="s">
+      <c r="CD34" s="112"/>
+      <c r="CE34" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="CF34" s="51"/>
+      <c r="CF34" s="112"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -11192,62 +11258,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="57" t="s">
+      <c r="K36" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57" t="s">
+      <c r="L36" s="110"/>
+      <c r="M36" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57" t="s">
+      <c r="N36" s="110"/>
+      <c r="O36" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57" t="s">
+      <c r="P36" s="110"/>
+      <c r="Q36" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57" t="s">
+      <c r="R36" s="110"/>
+      <c r="S36" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57" t="s">
+      <c r="T36" s="110"/>
+      <c r="U36" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57" t="s">
+      <c r="V36" s="110"/>
+      <c r="W36" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57" t="s">
+      <c r="X36" s="110"/>
+      <c r="Y36" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57" t="s">
+      <c r="Z36" s="110"/>
+      <c r="AA36" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="57"/>
+      <c r="AB36" s="110"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="57" t="s">
+      <c r="AG36" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57" t="s">
+      <c r="AH36" s="110"/>
+      <c r="AI36" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57" t="s">
+      <c r="AJ36" s="110"/>
+      <c r="AK36" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57" t="s">
+      <c r="AL36" s="110"/>
+      <c r="AM36" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="57"/>
+      <c r="AN36" s="110"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -11270,42 +11336,42 @@
       <c r="BL36" s="34"/>
       <c r="BM36" s="34"/>
       <c r="BN36" s="34"/>
-      <c r="BO36" s="50" t="s">
+      <c r="BO36" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BP36" s="51"/>
-      <c r="BQ36" s="50" t="s">
+      <c r="BP36" s="112"/>
+      <c r="BQ36" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="51"/>
-      <c r="BS36" s="50" t="s">
+      <c r="BR36" s="112"/>
+      <c r="BS36" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="51"/>
-      <c r="BU36" s="50" t="s">
+      <c r="BT36" s="112"/>
+      <c r="BU36" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="51"/>
-      <c r="BW36" s="50" t="s">
+      <c r="BV36" s="112"/>
+      <c r="BW36" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BX36" s="51"/>
-      <c r="BY36" s="50" t="s">
+      <c r="BX36" s="112"/>
+      <c r="BY36" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="51"/>
-      <c r="CA36" s="50" t="s">
+      <c r="BZ36" s="112"/>
+      <c r="CA36" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="51"/>
-      <c r="CC36" s="50" t="s">
+      <c r="CB36" s="112"/>
+      <c r="CC36" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="51"/>
-      <c r="CE36" s="50" t="s">
+      <c r="CD36" s="112"/>
+      <c r="CE36" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="CF36" s="51"/>
+      <c r="CF36" s="112"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -11641,58 +11707,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="52" t="s">
+      <c r="M42" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52" t="s">
+      <c r="N42" s="109"/>
+      <c r="O42" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="52"/>
-      <c r="Q42" s="52" t="s">
+      <c r="P42" s="109"/>
+      <c r="Q42" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="52"/>
-      <c r="S42" s="52" t="s">
+      <c r="R42" s="109"/>
+      <c r="S42" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="52"/>
-      <c r="U42" s="52" t="s">
+      <c r="T42" s="109"/>
+      <c r="U42" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="52"/>
-      <c r="W42" s="52" t="s">
+      <c r="V42" s="109"/>
+      <c r="W42" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="52"/>
-      <c r="Y42" s="52" t="s">
+      <c r="X42" s="109"/>
+      <c r="Y42" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="52"/>
-      <c r="AA42" s="52" t="s">
+      <c r="Z42" s="109"/>
+      <c r="AA42" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="52"/>
+      <c r="AB42" s="109"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="52" t="s">
+      <c r="AG42" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="52"/>
-      <c r="AI42" s="52" t="s">
+      <c r="AH42" s="109"/>
+      <c r="AI42" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="52"/>
-      <c r="AK42" s="52" t="s">
+      <c r="AJ42" s="109"/>
+      <c r="AK42" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="52"/>
-      <c r="AM42" s="52" t="s">
+      <c r="AL42" s="109"/>
+      <c r="AM42" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="52"/>
+      <c r="AN42" s="109"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -11715,42 +11781,42 @@
       <c r="BL42" s="34"/>
       <c r="BM42" s="34"/>
       <c r="BN42" s="34"/>
-      <c r="BO42" s="50" t="s">
+      <c r="BO42" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BP42" s="51"/>
-      <c r="BQ42" s="50" t="s">
+      <c r="BP42" s="112"/>
+      <c r="BQ42" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="51"/>
-      <c r="BS42" s="50" t="s">
+      <c r="BR42" s="112"/>
+      <c r="BS42" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="51"/>
-      <c r="BU42" s="50" t="s">
+      <c r="BT42" s="112"/>
+      <c r="BU42" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="51"/>
-      <c r="BW42" s="50" t="s">
+      <c r="BV42" s="112"/>
+      <c r="BW42" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BX42" s="51"/>
-      <c r="BY42" s="50" t="s">
+      <c r="BX42" s="112"/>
+      <c r="BY42" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="51"/>
-      <c r="CA42" s="50" t="s">
+      <c r="BZ42" s="112"/>
+      <c r="CA42" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="51"/>
-      <c r="CC42" s="50" t="s">
+      <c r="CB42" s="112"/>
+      <c r="CC42" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="51"/>
-      <c r="CE42" s="50" t="s">
+      <c r="CD42" s="112"/>
+      <c r="CE42" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="CF42" s="51"/>
+      <c r="CF42" s="112"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -11783,71 +11849,71 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="56" t="s">
+      <c r="K46" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="56"/>
-      <c r="M46" s="56"/>
-      <c r="N46" s="56"/>
-      <c r="O46" s="56"/>
-      <c r="P46" s="56"/>
-      <c r="Q46" s="56"/>
-      <c r="R46" s="56"/>
-      <c r="S46" s="56"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="56"/>
-      <c r="V46" s="56"/>
-      <c r="W46" s="56"/>
-      <c r="X46" s="56"/>
-      <c r="Y46" s="56"/>
-      <c r="Z46" s="56"/>
-      <c r="AA46" s="56"/>
-      <c r="AB46" s="56"/>
-      <c r="AC46" s="56"/>
-      <c r="AD46" s="56"/>
-      <c r="AE46" s="56" t="s">
+      <c r="L46" s="116"/>
+      <c r="M46" s="116"/>
+      <c r="N46" s="116"/>
+      <c r="O46" s="116"/>
+      <c r="P46" s="116"/>
+      <c r="Q46" s="116"/>
+      <c r="R46" s="116"/>
+      <c r="S46" s="116"/>
+      <c r="T46" s="116"/>
+      <c r="U46" s="116"/>
+      <c r="V46" s="116"/>
+      <c r="W46" s="116"/>
+      <c r="X46" s="116"/>
+      <c r="Y46" s="116"/>
+      <c r="Z46" s="116"/>
+      <c r="AA46" s="116"/>
+      <c r="AB46" s="116"/>
+      <c r="AC46" s="116"/>
+      <c r="AD46" s="116"/>
+      <c r="AE46" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="56"/>
-      <c r="AG46" s="56"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="56"/>
-      <c r="AJ46" s="56"/>
-      <c r="AK46" s="56"/>
-      <c r="AL46" s="56"/>
-      <c r="AM46" s="56"/>
-      <c r="AN46" s="56"/>
-      <c r="AO46" s="52" t="s">
+      <c r="AF46" s="116"/>
+      <c r="AG46" s="116"/>
+      <c r="AH46" s="116"/>
+      <c r="AI46" s="116"/>
+      <c r="AJ46" s="116"/>
+      <c r="AK46" s="116"/>
+      <c r="AL46" s="116"/>
+      <c r="AM46" s="116"/>
+      <c r="AN46" s="116"/>
+      <c r="AO46" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="52"/>
-      <c r="AQ46" s="52" t="s">
+      <c r="AP46" s="109"/>
+      <c r="AQ46" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="52"/>
-      <c r="AS46" s="52" t="s">
+      <c r="AR46" s="109"/>
+      <c r="AS46" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="52"/>
-      <c r="AU46" s="52" t="s">
+      <c r="AT46" s="109"/>
+      <c r="AU46" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="52"/>
-      <c r="AW46" s="53" t="s">
+      <c r="AV46" s="109"/>
+      <c r="AW46" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="54"/>
-      <c r="AY46" s="54"/>
-      <c r="AZ46" s="54"/>
-      <c r="BA46" s="54"/>
-      <c r="BB46" s="54"/>
-      <c r="BC46" s="54"/>
-      <c r="BD46" s="54"/>
-      <c r="BE46" s="55"/>
-      <c r="BF46" s="52" t="s">
+      <c r="AX46" s="114"/>
+      <c r="AY46" s="114"/>
+      <c r="AZ46" s="114"/>
+      <c r="BA46" s="114"/>
+      <c r="BB46" s="114"/>
+      <c r="BC46" s="114"/>
+      <c r="BD46" s="114"/>
+      <c r="BE46" s="115"/>
+      <c r="BF46" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="52"/>
+      <c r="BG46" s="109"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -15429,11 +15495,80 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="BQ34:BR34"/>
+    <mergeCell ref="BS34:BT34"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
@@ -15450,80 +15585,11 @@
     <mergeCell ref="AI34:AJ34"/>
     <mergeCell ref="AK34:AL34"/>
     <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="BQ34:BR34"/>
-    <mergeCell ref="BS34:BT34"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="CE33:CF33"/>
-    <mergeCell ref="CE34:CF34"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CE42:CF42"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16425,62 +16491,62 @@
         <v>0</v>
       </c>
       <c r="F3" s="39"/>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52" t="s">
+      <c r="H3" s="109"/>
+      <c r="I3" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52" t="s">
+      <c r="J3" s="109"/>
+      <c r="K3" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52" t="s">
+      <c r="L3" s="109"/>
+      <c r="M3" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="52"/>
-      <c r="O3" s="52" t="s">
+      <c r="N3" s="109"/>
+      <c r="O3" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="52"/>
-      <c r="Q3" s="52" t="s">
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="52"/>
-      <c r="S3" s="52" t="s">
+      <c r="R3" s="109"/>
+      <c r="S3" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52" t="s">
+      <c r="T3" s="109"/>
+      <c r="U3" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="52"/>
-      <c r="W3" s="52" t="s">
+      <c r="V3" s="109"/>
+      <c r="W3" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="52"/>
+      <c r="X3" s="109"/>
       <c r="Z3" s="35"/>
       <c r="AA3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="52" t="s">
+      <c r="AC3" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AD3" s="52"/>
-      <c r="AE3" s="52" t="s">
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" s="52"/>
-      <c r="AG3" s="52" t="s">
+      <c r="AF3" s="109"/>
+      <c r="AG3" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52" t="s">
+      <c r="AH3" s="109"/>
+      <c r="AI3" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="AJ3" s="52"/>
+      <c r="AJ3" s="109"/>
       <c r="AK3" s="34"/>
       <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
@@ -16503,104 +16569,104 @@
       <c r="BH3" s="34"/>
       <c r="BI3" s="34"/>
       <c r="BJ3" s="34"/>
-      <c r="BK3" s="50" t="s">
+      <c r="BK3" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BL3" s="51"/>
-      <c r="BM3" s="50" t="s">
+      <c r="BL3" s="112"/>
+      <c r="BM3" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BN3" s="51"/>
-      <c r="BO3" s="50" t="s">
+      <c r="BN3" s="112"/>
+      <c r="BO3" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BP3" s="51"/>
-      <c r="BQ3" s="50" t="s">
+      <c r="BP3" s="112"/>
+      <c r="BQ3" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BR3" s="51"/>
-      <c r="BS3" s="50" t="s">
+      <c r="BR3" s="112"/>
+      <c r="BS3" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="51"/>
-      <c r="BU3" s="50" t="s">
+      <c r="BT3" s="112"/>
+      <c r="BU3" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BV3" s="51"/>
-      <c r="BW3" s="50" t="s">
+      <c r="BV3" s="112"/>
+      <c r="BW3" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BX3" s="51"/>
-      <c r="BY3" s="50" t="s">
+      <c r="BX3" s="112"/>
+      <c r="BY3" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BZ3" s="51"/>
-      <c r="CA3" s="50" t="s">
+      <c r="BZ3" s="112"/>
+      <c r="CA3" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="CB3" s="51"/>
+      <c r="CB3" s="112"/>
     </row>
     <row r="4" spans="2:80">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52" t="s">
+      <c r="H4" s="109"/>
+      <c r="I4" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52" t="s">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="52"/>
-      <c r="M4" s="52" t="s">
+      <c r="L4" s="109"/>
+      <c r="M4" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="52"/>
-      <c r="O4" s="52" t="s">
+      <c r="N4" s="109"/>
+      <c r="O4" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="52"/>
-      <c r="Q4" s="52" t="s">
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="52"/>
-      <c r="S4" s="52" t="s">
+      <c r="R4" s="109"/>
+      <c r="S4" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52" t="s">
+      <c r="T4" s="109"/>
+      <c r="U4" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52" t="s">
+      <c r="V4" s="109"/>
+      <c r="W4" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="X4" s="52"/>
+      <c r="X4" s="109"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" s="52" t="s">
+      <c r="AC4" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" s="52"/>
-      <c r="AE4" s="52" t="s">
+      <c r="AD4" s="109"/>
+      <c r="AE4" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="AF4" s="52"/>
-      <c r="AG4" s="52" t="s">
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52" t="s">
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="AJ4" s="52"/>
+      <c r="AJ4" s="109"/>
       <c r="AK4" s="34"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="34"/>
@@ -16623,42 +16689,42 @@
       <c r="BH4" s="34"/>
       <c r="BI4" s="34"/>
       <c r="BJ4" s="34"/>
-      <c r="BK4" s="50" t="s">
+      <c r="BK4" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BL4" s="51"/>
-      <c r="BM4" s="50" t="s">
+      <c r="BL4" s="112"/>
+      <c r="BM4" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="51"/>
-      <c r="BO4" s="50" t="s">
+      <c r="BN4" s="112"/>
+      <c r="BO4" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BP4" s="51"/>
-      <c r="BQ4" s="50" t="s">
+      <c r="BP4" s="112"/>
+      <c r="BQ4" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BR4" s="51"/>
-      <c r="BS4" s="50" t="s">
+      <c r="BR4" s="112"/>
+      <c r="BS4" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BT4" s="51"/>
-      <c r="BU4" s="50" t="s">
+      <c r="BT4" s="112"/>
+      <c r="BU4" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BV4" s="51"/>
-      <c r="BW4" s="50" t="s">
+      <c r="BV4" s="112"/>
+      <c r="BW4" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="51"/>
-      <c r="BY4" s="50" t="s">
+      <c r="BX4" s="112"/>
+      <c r="BY4" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="51"/>
-      <c r="CA4" s="50" t="s">
+      <c r="BZ4" s="112"/>
+      <c r="CA4" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="CB4" s="51"/>
+      <c r="CB4" s="112"/>
     </row>
     <row r="5" spans="2:80">
       <c r="BX5" s="27"/>
@@ -16672,62 +16738,62 @@
         <v>239</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="57" t="s">
+      <c r="G6" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57" t="s">
+      <c r="H6" s="110"/>
+      <c r="I6" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57" t="s">
+      <c r="J6" s="110"/>
+      <c r="K6" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57" t="s">
+      <c r="L6" s="110"/>
+      <c r="M6" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57" t="s">
+      <c r="N6" s="110"/>
+      <c r="O6" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57" t="s">
+      <c r="P6" s="110"/>
+      <c r="Q6" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57" t="s">
+      <c r="R6" s="110"/>
+      <c r="S6" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57" t="s">
+      <c r="T6" s="110"/>
+      <c r="U6" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57" t="s">
+      <c r="V6" s="110"/>
+      <c r="W6" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="57"/>
+      <c r="X6" s="110"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AC6" s="57" t="s">
+      <c r="AC6" s="110" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="57"/>
-      <c r="AE6" s="57" t="s">
+      <c r="AD6" s="110"/>
+      <c r="AE6" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="AF6" s="57"/>
-      <c r="AG6" s="57" t="s">
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="110" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="57"/>
-      <c r="AI6" s="57" t="s">
+      <c r="AH6" s="110"/>
+      <c r="AI6" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="57"/>
+      <c r="AJ6" s="110"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
@@ -16750,42 +16816,42 @@
       <c r="BH6" s="34"/>
       <c r="BI6" s="34"/>
       <c r="BJ6" s="34"/>
-      <c r="BK6" s="50" t="s">
+      <c r="BK6" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BL6" s="51"/>
-      <c r="BM6" s="50" t="s">
+      <c r="BL6" s="112"/>
+      <c r="BM6" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BN6" s="51"/>
-      <c r="BO6" s="50" t="s">
+      <c r="BN6" s="112"/>
+      <c r="BO6" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BP6" s="51"/>
-      <c r="BQ6" s="50" t="s">
+      <c r="BP6" s="112"/>
+      <c r="BQ6" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BR6" s="51"/>
-      <c r="BS6" s="50" t="s">
+      <c r="BR6" s="112"/>
+      <c r="BS6" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BT6" s="51"/>
-      <c r="BU6" s="50" t="s">
+      <c r="BT6" s="112"/>
+      <c r="BU6" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BV6" s="51"/>
-      <c r="BW6" s="50" t="s">
+      <c r="BV6" s="112"/>
+      <c r="BW6" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BX6" s="51"/>
-      <c r="BY6" s="50" t="s">
+      <c r="BX6" s="112"/>
+      <c r="BY6" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BZ6" s="51"/>
-      <c r="CA6" s="50" t="s">
+      <c r="BZ6" s="112"/>
+      <c r="CA6" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="CB6" s="51"/>
+      <c r="CB6" s="112"/>
     </row>
     <row r="7" spans="2:80">
       <c r="E7">
@@ -17121,58 +17187,58 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52" t="s">
+      <c r="J12" s="109"/>
+      <c r="K12" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52" t="s">
+      <c r="L12" s="109"/>
+      <c r="M12" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52" t="s">
+      <c r="N12" s="109"/>
+      <c r="O12" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52" t="s">
+      <c r="P12" s="109"/>
+      <c r="Q12" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="52"/>
-      <c r="S12" s="52" t="s">
+      <c r="R12" s="109"/>
+      <c r="S12" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="52"/>
-      <c r="U12" s="52" t="s">
+      <c r="T12" s="109"/>
+      <c r="U12" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="52"/>
-      <c r="W12" s="52" t="s">
+      <c r="V12" s="109"/>
+      <c r="W12" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="52"/>
+      <c r="X12" s="109"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC12" s="52" t="s">
+      <c r="AC12" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52" t="s">
+      <c r="AD12" s="109"/>
+      <c r="AE12" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="AF12" s="52"/>
-      <c r="AG12" s="52" t="s">
+      <c r="AF12" s="109"/>
+      <c r="AG12" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="AH12" s="52"/>
-      <c r="AI12" s="52" t="s">
+      <c r="AH12" s="109"/>
+      <c r="AI12" s="109" t="s">
         <v>114</v>
       </c>
-      <c r="AJ12" s="52"/>
+      <c r="AJ12" s="109"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
@@ -17195,42 +17261,42 @@
       <c r="BH12" s="34"/>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="34"/>
-      <c r="BK12" s="50" t="s">
+      <c r="BK12" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BL12" s="51"/>
-      <c r="BM12" s="50" t="s">
+      <c r="BL12" s="112"/>
+      <c r="BM12" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BN12" s="51"/>
-      <c r="BO12" s="50" t="s">
+      <c r="BN12" s="112"/>
+      <c r="BO12" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BP12" s="51"/>
-      <c r="BQ12" s="50" t="s">
+      <c r="BP12" s="112"/>
+      <c r="BQ12" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BR12" s="51"/>
-      <c r="BS12" s="50" t="s">
+      <c r="BR12" s="112"/>
+      <c r="BS12" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="BT12" s="51"/>
-      <c r="BU12" s="50" t="s">
+      <c r="BT12" s="112"/>
+      <c r="BU12" s="111" t="s">
         <v>112</v>
       </c>
-      <c r="BV12" s="51"/>
-      <c r="BW12" s="50" t="s">
+      <c r="BV12" s="112"/>
+      <c r="BW12" s="111" t="s">
         <v>113</v>
       </c>
-      <c r="BX12" s="51"/>
-      <c r="BY12" s="50" t="s">
+      <c r="BX12" s="112"/>
+      <c r="BY12" s="111" t="s">
         <v>114</v>
       </c>
-      <c r="BZ12" s="51"/>
-      <c r="CA12" s="50" t="s">
+      <c r="BZ12" s="112"/>
+      <c r="CA12" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="CB12" s="51"/>
+      <c r="CB12" s="112"/>
     </row>
     <row r="13" spans="2:80">
       <c r="BX13" s="27"/>
@@ -17263,71 +17329,71 @@
         <v>120</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="56" t="s">
+      <c r="G16" s="116" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="56"/>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="56"/>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="56"/>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56" t="s">
+      <c r="H16" s="116"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="116"/>
+      <c r="M16" s="116"/>
+      <c r="N16" s="116"/>
+      <c r="O16" s="116"/>
+      <c r="P16" s="116"/>
+      <c r="Q16" s="116"/>
+      <c r="R16" s="116"/>
+      <c r="S16" s="116"/>
+      <c r="T16" s="116"/>
+      <c r="U16" s="116"/>
+      <c r="V16" s="116"/>
+      <c r="W16" s="116"/>
+      <c r="X16" s="116"/>
+      <c r="Y16" s="116"/>
+      <c r="Z16" s="116"/>
+      <c r="AA16" s="116" t="s">
         <v>116</v>
       </c>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="56"/>
-      <c r="AD16" s="56"/>
-      <c r="AE16" s="56"/>
-      <c r="AF16" s="56"/>
-      <c r="AG16" s="56"/>
-      <c r="AH16" s="56"/>
-      <c r="AI16" s="56"/>
-      <c r="AJ16" s="56"/>
-      <c r="AK16" s="52" t="s">
+      <c r="AB16" s="116"/>
+      <c r="AC16" s="116"/>
+      <c r="AD16" s="116"/>
+      <c r="AE16" s="116"/>
+      <c r="AF16" s="116"/>
+      <c r="AG16" s="116"/>
+      <c r="AH16" s="116"/>
+      <c r="AI16" s="116"/>
+      <c r="AJ16" s="116"/>
+      <c r="AK16" s="109" t="s">
         <v>111</v>
       </c>
-      <c r="AL16" s="52"/>
-      <c r="AM16" s="52" t="s">
+      <c r="AL16" s="109"/>
+      <c r="AM16" s="109" t="s">
         <v>112</v>
       </c>
-      <c r="AN16" s="52"/>
-      <c r="AO16" s="52" t="s">
+      <c r="AN16" s="109"/>
+      <c r="AO16" s="109" t="s">
         <v>117</v>
       </c>
-      <c r="AP16" s="52"/>
-      <c r="AQ16" s="52" t="s">
+      <c r="AP16" s="109"/>
+      <c r="AQ16" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="AR16" s="52"/>
-      <c r="AS16" s="53" t="s">
+      <c r="AR16" s="109"/>
+      <c r="AS16" s="113" t="s">
         <v>119</v>
       </c>
-      <c r="AT16" s="54"/>
-      <c r="AU16" s="54"/>
-      <c r="AV16" s="54"/>
-      <c r="AW16" s="54"/>
-      <c r="AX16" s="54"/>
-      <c r="AY16" s="54"/>
-      <c r="AZ16" s="54"/>
-      <c r="BA16" s="55"/>
-      <c r="BB16" s="52" t="s">
+      <c r="AT16" s="114"/>
+      <c r="AU16" s="114"/>
+      <c r="AV16" s="114"/>
+      <c r="AW16" s="114"/>
+      <c r="AX16" s="114"/>
+      <c r="AY16" s="114"/>
+      <c r="AZ16" s="114"/>
+      <c r="BA16" s="115"/>
+      <c r="BB16" s="109" t="s">
         <v>118</v>
       </c>
-      <c r="BC16" s="52"/>
+      <c r="BC16" s="109"/>
       <c r="BE16" s="38"/>
       <c r="BF16" s="38"/>
       <c r="BG16" s="38"/>
@@ -17876,18 +17942,73 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="BB16:BC16"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="CA12:CB12"/>
+    <mergeCell ref="G16:Z16"/>
+    <mergeCell ref="AA16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AS16:BA16"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BM12:BN12"/>
+    <mergeCell ref="BO12:BP12"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CA6:CB6"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="BU3:BV3"/>
     <mergeCell ref="BW3:BX3"/>
     <mergeCell ref="BY3:BZ3"/>
@@ -17904,73 +18025,18 @@
     <mergeCell ref="BO3:BP3"/>
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CA6:CB6"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BM6:BN6"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="BB16:BC16"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="CA12:CB12"/>
-    <mergeCell ref="G16:Z16"/>
-    <mergeCell ref="AA16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO16:AP16"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AS16:BA16"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BM12:BN12"/>
-    <mergeCell ref="BO12:BP12"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18018,292 +18084,400 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:R10"/>
+  <dimension ref="A4:AB16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="20" max="20" width="5.125" customWidth="1"/>
+    <col min="21" max="28" width="3.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:28">
       <c r="A4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="17.25">
-      <c r="A5" s="58"/>
-    </row>
-    <row r="6" spans="1:18" ht="14.25">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60">
+    <row r="5" spans="1:28" ht="17.25">
+      <c r="A5" s="48"/>
+    </row>
+    <row r="6" spans="1:28" ht="14.25">
+      <c r="A6" s="49"/>
+      <c r="B6" s="50">
         <v>0</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="50">
         <v>1</v>
       </c>
-      <c r="D6" s="60">
+      <c r="D6" s="50">
         <v>2</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="50">
         <v>3</v>
       </c>
-      <c r="F6" s="60">
+      <c r="F6" s="50">
         <v>4</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="50">
         <v>5</v>
       </c>
-      <c r="H6" s="60">
+      <c r="H6" s="50">
         <v>6</v>
       </c>
-      <c r="I6" s="60">
+      <c r="I6" s="50">
         <v>7</v>
       </c>
-      <c r="J6" s="60">
+      <c r="J6" s="50">
         <v>8</v>
       </c>
-      <c r="K6" s="60">
+      <c r="K6" s="50">
         <v>9</v>
       </c>
-      <c r="L6" s="61" t="s">
+      <c r="L6" s="51" t="s">
         <v>167</v>
       </c>
-      <c r="M6" s="61" t="s">
+      <c r="M6" s="51" t="s">
         <v>168</v>
       </c>
-      <c r="N6" s="61" t="s">
+      <c r="N6" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="O6" s="61" t="s">
+      <c r="O6" s="51" t="s">
         <v>170</v>
       </c>
-      <c r="P6" s="61" t="s">
+      <c r="P6" s="51" t="s">
         <v>171</v>
       </c>
-      <c r="Q6" s="61" t="s">
+      <c r="Q6" s="51" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="14.25">
-      <c r="A7" s="116" t="s">
+    <row r="7" spans="1:28" ht="14.25">
+      <c r="A7" s="106" t="s">
         <v>227</v>
       </c>
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="52" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="63" t="s">
+      <c r="C7" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="55" t="s">
         <v>176</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="56" t="s">
         <v>177</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="H7" s="68" t="s">
+      <c r="H7" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="I7" s="69" t="s">
+      <c r="I7" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="J7" s="70" t="s">
+      <c r="J7" s="60" t="s">
         <v>181</v>
       </c>
-      <c r="K7" s="71" t="s">
+      <c r="K7" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="L7" s="72" t="s">
+      <c r="L7" s="62" t="s">
         <v>183</v>
       </c>
-      <c r="M7" s="73" t="s">
+      <c r="M7" s="63" t="s">
         <v>184</v>
       </c>
-      <c r="N7" s="74" t="s">
+      <c r="N7" s="64" t="s">
         <v>185</v>
       </c>
-      <c r="O7" s="75" t="s">
+      <c r="O7" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="P7" s="75" t="s">
+      <c r="P7" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="Q7" s="75" t="s">
+      <c r="Q7" s="65" t="s">
         <v>186</v>
       </c>
       <c r="R7" s="117" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="14.25">
-      <c r="A8" s="60">
+    <row r="8" spans="1:28" ht="14.25">
+      <c r="A8" s="50">
         <v>10</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="66" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="77" t="s">
+      <c r="C8" s="67" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="78" t="s">
+      <c r="D8" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="69" t="s">
         <v>190</v>
       </c>
-      <c r="F8" s="80" t="s">
+      <c r="F8" s="70" t="s">
         <v>191</v>
       </c>
-      <c r="G8" s="81" t="s">
+      <c r="G8" s="71" t="s">
         <v>192</v>
       </c>
-      <c r="H8" s="82" t="s">
+      <c r="H8" s="72" t="s">
         <v>193</v>
       </c>
-      <c r="I8" s="83" t="s">
+      <c r="I8" s="73" t="s">
         <v>194</v>
       </c>
-      <c r="J8" s="84" t="s">
+      <c r="J8" s="74" t="s">
         <v>195</v>
       </c>
-      <c r="K8" s="85" t="s">
+      <c r="K8" s="75" t="s">
         <v>196</v>
       </c>
-      <c r="L8" s="86" t="s">
+      <c r="L8" s="76" t="s">
         <v>197</v>
       </c>
-      <c r="M8" s="87" t="s">
+      <c r="M8" s="77" t="s">
         <v>198</v>
       </c>
-      <c r="N8" s="88" t="s">
+      <c r="N8" s="78" t="s">
         <v>199</v>
       </c>
-      <c r="O8" s="75" t="s">
+      <c r="O8" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="P8" s="75" t="s">
+      <c r="P8" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="Q8" s="75" t="s">
+      <c r="Q8" s="65" t="s">
         <v>186</v>
       </c>
       <c r="R8" s="117"/>
     </row>
-    <row r="9" spans="1:18" ht="14.25">
-      <c r="A9" s="60">
+    <row r="9" spans="1:28" ht="14.25">
+      <c r="A9" s="50">
         <v>20</v>
       </c>
-      <c r="B9" s="89" t="s">
+      <c r="B9" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="C9" s="90" t="s">
+      <c r="C9" s="80" t="s">
         <v>201</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="81" t="s">
         <v>202</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="F9" s="93" t="s">
+      <c r="F9" s="83" t="s">
         <v>204</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="84" t="s">
         <v>205</v>
       </c>
-      <c r="H9" s="95" t="s">
+      <c r="H9" s="85" t="s">
         <v>206</v>
       </c>
-      <c r="I9" s="96" t="s">
+      <c r="I9" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="J9" s="97" t="s">
+      <c r="J9" s="87" t="s">
         <v>208</v>
       </c>
-      <c r="K9" s="98" t="s">
+      <c r="K9" s="88" t="s">
         <v>209</v>
       </c>
-      <c r="L9" s="99" t="s">
+      <c r="L9" s="89" t="s">
         <v>210</v>
       </c>
-      <c r="M9" s="100" t="s">
+      <c r="M9" s="90" t="s">
         <v>211</v>
       </c>
-      <c r="N9" s="101" t="s">
+      <c r="N9" s="91" t="s">
         <v>212</v>
       </c>
-      <c r="O9" s="102" t="s">
+      <c r="O9" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="P9" s="75" t="s">
+      <c r="P9" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="Q9" s="75" t="s">
+      <c r="Q9" s="65" t="s">
         <v>186</v>
       </c>
       <c r="R9" s="117" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="14.25">
-      <c r="A10" s="60">
+    <row r="10" spans="1:28" ht="14.25">
+      <c r="A10" s="50">
         <v>30</v>
       </c>
-      <c r="B10" s="89" t="s">
+      <c r="B10" s="79" t="s">
         <v>200</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="93" t="s">
         <v>213</v>
       </c>
-      <c r="D10" s="104" t="s">
+      <c r="D10" s="94" t="s">
         <v>214</v>
       </c>
-      <c r="E10" s="105" t="s">
+      <c r="E10" s="95" t="s">
         <v>215</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="96" t="s">
         <v>216</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="97" t="s">
         <v>217</v>
       </c>
-      <c r="H10" s="108" t="s">
+      <c r="H10" s="98" t="s">
         <v>218</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="99" t="s">
         <v>219</v>
       </c>
-      <c r="J10" s="110" t="s">
+      <c r="J10" s="100" t="s">
         <v>220</v>
       </c>
-      <c r="K10" s="111" t="s">
+      <c r="K10" s="101" t="s">
         <v>221</v>
       </c>
-      <c r="L10" s="112" t="s">
+      <c r="L10" s="102" t="s">
         <v>222</v>
       </c>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="103" t="s">
         <v>223</v>
       </c>
-      <c r="N10" s="114" t="s">
+      <c r="N10" s="104" t="s">
         <v>224</v>
       </c>
-      <c r="O10" s="115" t="s">
+      <c r="O10" s="105" t="s">
         <v>225</v>
       </c>
-      <c r="P10" s="75" t="s">
+      <c r="P10" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="Q10" s="75" t="s">
+      <c r="Q10" s="65" t="s">
         <v>186</v>
       </c>
       <c r="R10" s="117"/>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="AB11" s="121"/>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="T12" s="118" t="s">
+        <v>230</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>1</v>
+      </c>
+      <c r="X12">
+        <v>1</v>
+      </c>
+      <c r="Y12">
+        <v>1</v>
+      </c>
+      <c r="Z12">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="119">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="T13" s="118">
+        <v>63</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="S15" t="s">
+        <v>233</v>
+      </c>
+      <c r="T15" t="s">
+        <v>234</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15" t="s">
+        <v>231</v>
+      </c>
+      <c r="W15" t="s">
+        <v>232</v>
+      </c>
+      <c r="X15" t="s">
+        <v>236</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="S16" t="s">
+        <v>237</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>1</v>
+      </c>
+      <c r="Y16">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="scroll" sheetId="7" r:id="rId6"/>
     <sheet name="vram access" sheetId="6" r:id="rId7"/>
     <sheet name="palette" sheetId="8" r:id="rId8"/>
+    <sheet name="ascii" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="408">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -824,6 +825,516 @@
   <si>
     <t>at=3</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>文</t>
+  </si>
+  <si>
+    <t>字</t>
+  </si>
+  <si>
+    <t>進</t>
+  </si>
+  <si>
+    <t>NUL</t>
+  </si>
+  <si>
+    <t>SOH</t>
+  </si>
+  <si>
+    <t>STX</t>
+  </si>
+  <si>
+    <t>ETX</t>
+  </si>
+  <si>
+    <t>EOT</t>
+  </si>
+  <si>
+    <t>ENQ</t>
+  </si>
+  <si>
+    <t>ACK</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>BS</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>LF*</t>
+  </si>
+  <si>
+    <t>0a</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>0b</t>
+  </si>
+  <si>
+    <t>FF*</t>
+  </si>
+  <si>
+    <t>0c</t>
+  </si>
+  <si>
+    <t>CR</t>
+  </si>
+  <si>
+    <t>0d</t>
+  </si>
+  <si>
+    <t>SO</t>
+  </si>
+  <si>
+    <t>0e</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>0f</t>
+  </si>
+  <si>
+    <t>DLE</t>
+  </si>
+  <si>
+    <t>DC1</t>
+  </si>
+  <si>
+    <t>DC2</t>
+  </si>
+  <si>
+    <t>DC3</t>
+  </si>
+  <si>
+    <t>DC4</t>
+  </si>
+  <si>
+    <t>NAK</t>
+  </si>
+  <si>
+    <t>SYN</t>
+  </si>
+  <si>
+    <t>ETB</t>
+  </si>
+  <si>
+    <t>CAN</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>SUB</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>1b</t>
+  </si>
+  <si>
+    <t>FS</t>
+  </si>
+  <si>
+    <t>1c</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>1e</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>1f</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>!</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>(</t>
+  </si>
+  <si>
+    <t>)</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>2a</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>2b</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>2c</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2d</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>2e</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>2f</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>3a</t>
+  </si>
+  <si>
+    <t>;</t>
+  </si>
+  <si>
+    <t>3b</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>3c</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>3e</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>3f</t>
+  </si>
+  <si>
+    <t>@</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>4a</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>4c</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>4d</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>4e</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>4f</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>5a</t>
+  </si>
+  <si>
+    <t>[</t>
+  </si>
+  <si>
+    <t>5b</t>
+  </si>
+  <si>
+    <t>\¥</t>
+  </si>
+  <si>
+    <t>5c</t>
+  </si>
+  <si>
+    <t>]</t>
+  </si>
+  <si>
+    <t>5d</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>5e</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>5f</t>
+  </si>
+  <si>
+    <t>`</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>6a</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>6b</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>6c</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>6d</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>6e</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>6f</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>7a</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>7b</t>
+  </si>
+  <si>
+    <t>|</t>
+  </si>
+  <si>
+    <t>7c</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>7d</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>7e</t>
+  </si>
+  <si>
+    <t>DEL</t>
+  </si>
+  <si>
+    <t>7f</t>
+  </si>
+  <si>
+    <t>* LFはNL、FFはNPと呼ばれることもある。</t>
   </si>
 </sst>
 </file>
@@ -833,7 +1344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,8 +1419,46 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF202020"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF202020"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF00000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00AA00"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00AA00"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="64">
+  <fills count="71">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1288,8 +1837,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFECEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4F4F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECFFEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFFFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -1596,13 +2187,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD0D0D0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1924,22 +2632,31 @@
     <xf numFmtId="24" fontId="8" fillId="10" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1954,19 +2671,142 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="64" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="65" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="64" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="64" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="65" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="65" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="65" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="65" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="65" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="64" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="64" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="64" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="66" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="67" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="68" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="69" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="66" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="66" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="67" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="67" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="68" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="68" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="69" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="69" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="67" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="67" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="67" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="68" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="70" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="70" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="70" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5791,10 +6631,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="107" t="s">
+      <c r="A8" s="111" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="111" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -5802,8 +6642,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
+      <c r="A9" s="112"/>
+      <c r="B9" s="112"/>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
@@ -5842,10 +6682,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="111" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="107" t="s">
+      <c r="B13" s="111" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -5853,8 +6693,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="108"/>
-      <c r="B14" s="108"/>
+      <c r="A14" s="112"/>
+      <c r="B14" s="112"/>
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
@@ -5993,10 +6833,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="107" t="s">
+      <c r="B29" s="111" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -6004,8 +6844,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="108"/>
-      <c r="B30" s="108"/>
+      <c r="A30" s="112"/>
+      <c r="B30" s="112"/>
       <c r="C30" s="6" t="s">
         <v>50</v>
       </c>
@@ -6033,10 +6873,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="107" t="s">
+      <c r="A33" s="111" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="107" t="s">
+      <c r="B33" s="111" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -6044,8 +6884,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="108"/>
-      <c r="B34" s="108"/>
+      <c r="A34" s="112"/>
+      <c r="B34" s="112"/>
       <c r="C34" s="6" t="s">
         <v>57</v>
       </c>
@@ -6145,22 +6985,22 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="107" t="s">
+      <c r="A47" s="111" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="107" t="s">
+      <c r="C47" s="111" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="108"/>
+      <c r="A48" s="112"/>
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="108"/>
+      <c r="C48" s="112"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
@@ -6184,22 +7024,22 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="107" t="s">
+      <c r="A52" s="111" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="107" t="s">
+      <c r="C52" s="111" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="108"/>
+      <c r="A53" s="112"/>
       <c r="B53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="108"/>
+      <c r="C53" s="112"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
@@ -6223,31 +7063,25 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="107" t="s">
+      <c r="A57" s="111" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="107" t="s">
+      <c r="C57" s="111" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="108"/>
+      <c r="A58" s="112"/>
       <c r="B58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="108"/>
+      <c r="C58" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -6256,6 +7090,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11011,62 +11851,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="109" t="s">
+      <c r="K33" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109" t="s">
+      <c r="L33" s="115"/>
+      <c r="M33" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="109"/>
-      <c r="O33" s="109" t="s">
+      <c r="N33" s="115"/>
+      <c r="O33" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="109"/>
-      <c r="Q33" s="109" t="s">
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109" t="s">
+      <c r="R33" s="115"/>
+      <c r="S33" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109" t="s">
+      <c r="T33" s="115"/>
+      <c r="U33" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="109"/>
-      <c r="W33" s="109" t="s">
+      <c r="V33" s="115"/>
+      <c r="W33" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109" t="s">
+      <c r="X33" s="115"/>
+      <c r="Y33" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109" t="s">
+      <c r="Z33" s="115"/>
+      <c r="AA33" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="109"/>
+      <c r="AB33" s="115"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="109" t="s">
+      <c r="AG33" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109" t="s">
+      <c r="AH33" s="115"/>
+      <c r="AI33" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="109"/>
-      <c r="AK33" s="109" t="s">
+      <c r="AJ33" s="115"/>
+      <c r="AK33" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="109"/>
-      <c r="AM33" s="109" t="s">
+      <c r="AL33" s="115"/>
+      <c r="AM33" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="109"/>
+      <c r="AN33" s="115"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -11089,104 +11929,104 @@
       <c r="BL33" s="34"/>
       <c r="BM33" s="34"/>
       <c r="BN33" s="34"/>
-      <c r="BO33" s="111" t="s">
+      <c r="BO33" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BP33" s="112"/>
-      <c r="BQ33" s="111" t="s">
+      <c r="BP33" s="114"/>
+      <c r="BQ33" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="112"/>
-      <c r="BS33" s="111" t="s">
+      <c r="BR33" s="114"/>
+      <c r="BS33" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="112"/>
-      <c r="BU33" s="111" t="s">
+      <c r="BT33" s="114"/>
+      <c r="BU33" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="112"/>
-      <c r="BW33" s="111" t="s">
+      <c r="BV33" s="114"/>
+      <c r="BW33" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BX33" s="112"/>
-      <c r="BY33" s="111" t="s">
+      <c r="BX33" s="114"/>
+      <c r="BY33" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="112"/>
-      <c r="CA33" s="111" t="s">
+      <c r="BZ33" s="114"/>
+      <c r="CA33" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="112"/>
-      <c r="CC33" s="111" t="s">
+      <c r="CB33" s="114"/>
+      <c r="CC33" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="112"/>
-      <c r="CE33" s="111" t="s">
+      <c r="CD33" s="114"/>
+      <c r="CE33" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="CF33" s="112"/>
+      <c r="CF33" s="114"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="109" t="s">
+      <c r="K34" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109" t="s">
+      <c r="L34" s="115"/>
+      <c r="M34" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="109"/>
-      <c r="O34" s="109" t="s">
+      <c r="N34" s="115"/>
+      <c r="O34" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="109"/>
-      <c r="Q34" s="109" t="s">
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109" t="s">
+      <c r="R34" s="115"/>
+      <c r="S34" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109" t="s">
+      <c r="T34" s="115"/>
+      <c r="U34" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="109"/>
-      <c r="W34" s="109" t="s">
+      <c r="V34" s="115"/>
+      <c r="W34" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="109"/>
-      <c r="Y34" s="109" t="s">
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="109"/>
-      <c r="AA34" s="109" t="s">
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="109"/>
+      <c r="AB34" s="115"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="109" t="s">
+      <c r="AG34" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="109"/>
-      <c r="AI34" s="109" t="s">
+      <c r="AH34" s="115"/>
+      <c r="AI34" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="109"/>
-      <c r="AK34" s="109" t="s">
+      <c r="AJ34" s="115"/>
+      <c r="AK34" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="109"/>
-      <c r="AM34" s="109" t="s">
+      <c r="AL34" s="115"/>
+      <c r="AM34" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="109"/>
+      <c r="AN34" s="115"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -11209,42 +12049,42 @@
       <c r="BL34" s="34"/>
       <c r="BM34" s="34"/>
       <c r="BN34" s="34"/>
-      <c r="BO34" s="111" t="s">
+      <c r="BO34" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BP34" s="112"/>
-      <c r="BQ34" s="111" t="s">
+      <c r="BP34" s="114"/>
+      <c r="BQ34" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="112"/>
-      <c r="BS34" s="111" t="s">
+      <c r="BR34" s="114"/>
+      <c r="BS34" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="112"/>
-      <c r="BU34" s="111" t="s">
+      <c r="BT34" s="114"/>
+      <c r="BU34" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="112"/>
-      <c r="BW34" s="111" t="s">
+      <c r="BV34" s="114"/>
+      <c r="BW34" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BX34" s="112"/>
-      <c r="BY34" s="111" t="s">
+      <c r="BX34" s="114"/>
+      <c r="BY34" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="112"/>
-      <c r="CA34" s="111" t="s">
+      <c r="BZ34" s="114"/>
+      <c r="CA34" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="112"/>
-      <c r="CC34" s="111" t="s">
+      <c r="CB34" s="114"/>
+      <c r="CC34" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="112"/>
-      <c r="CE34" s="111" t="s">
+      <c r="CD34" s="114"/>
+      <c r="CE34" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="CF34" s="112"/>
+      <c r="CF34" s="114"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -11258,62 +12098,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="110" t="s">
+      <c r="K36" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="110"/>
-      <c r="M36" s="110" t="s">
+      <c r="L36" s="120"/>
+      <c r="M36" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="110"/>
-      <c r="O36" s="110" t="s">
+      <c r="N36" s="120"/>
+      <c r="O36" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="110"/>
-      <c r="Q36" s="110" t="s">
+      <c r="P36" s="120"/>
+      <c r="Q36" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="110"/>
-      <c r="S36" s="110" t="s">
+      <c r="R36" s="120"/>
+      <c r="S36" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="110"/>
-      <c r="U36" s="110" t="s">
+      <c r="T36" s="120"/>
+      <c r="U36" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="110"/>
-      <c r="W36" s="110" t="s">
+      <c r="V36" s="120"/>
+      <c r="W36" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="110"/>
-      <c r="Y36" s="110" t="s">
+      <c r="X36" s="120"/>
+      <c r="Y36" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="110"/>
-      <c r="AA36" s="110" t="s">
+      <c r="Z36" s="120"/>
+      <c r="AA36" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="110"/>
+      <c r="AB36" s="120"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="110" t="s">
+      <c r="AG36" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="110"/>
-      <c r="AI36" s="110" t="s">
+      <c r="AH36" s="120"/>
+      <c r="AI36" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="110"/>
-      <c r="AK36" s="110" t="s">
+      <c r="AJ36" s="120"/>
+      <c r="AK36" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="110"/>
-      <c r="AM36" s="110" t="s">
+      <c r="AL36" s="120"/>
+      <c r="AM36" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="110"/>
+      <c r="AN36" s="120"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -11336,42 +12176,42 @@
       <c r="BL36" s="34"/>
       <c r="BM36" s="34"/>
       <c r="BN36" s="34"/>
-      <c r="BO36" s="111" t="s">
+      <c r="BO36" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BP36" s="112"/>
-      <c r="BQ36" s="111" t="s">
+      <c r="BP36" s="114"/>
+      <c r="BQ36" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="112"/>
-      <c r="BS36" s="111" t="s">
+      <c r="BR36" s="114"/>
+      <c r="BS36" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="112"/>
-      <c r="BU36" s="111" t="s">
+      <c r="BT36" s="114"/>
+      <c r="BU36" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="112"/>
-      <c r="BW36" s="111" t="s">
+      <c r="BV36" s="114"/>
+      <c r="BW36" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BX36" s="112"/>
-      <c r="BY36" s="111" t="s">
+      <c r="BX36" s="114"/>
+      <c r="BY36" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="112"/>
-      <c r="CA36" s="111" t="s">
+      <c r="BZ36" s="114"/>
+      <c r="CA36" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="112"/>
-      <c r="CC36" s="111" t="s">
+      <c r="CB36" s="114"/>
+      <c r="CC36" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="112"/>
-      <c r="CE36" s="111" t="s">
+      <c r="CD36" s="114"/>
+      <c r="CE36" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="CF36" s="112"/>
+      <c r="CF36" s="114"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -11707,58 +12547,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="109" t="s">
+      <c r="M42" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="109"/>
-      <c r="O42" s="109" t="s">
+      <c r="N42" s="115"/>
+      <c r="O42" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="109"/>
-      <c r="Q42" s="109" t="s">
+      <c r="P42" s="115"/>
+      <c r="Q42" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="109"/>
-      <c r="S42" s="109" t="s">
+      <c r="R42" s="115"/>
+      <c r="S42" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="109"/>
-      <c r="U42" s="109" t="s">
+      <c r="T42" s="115"/>
+      <c r="U42" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="109"/>
-      <c r="W42" s="109" t="s">
+      <c r="V42" s="115"/>
+      <c r="W42" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="109"/>
-      <c r="Y42" s="109" t="s">
+      <c r="X42" s="115"/>
+      <c r="Y42" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="109"/>
-      <c r="AA42" s="109" t="s">
+      <c r="Z42" s="115"/>
+      <c r="AA42" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="109"/>
+      <c r="AB42" s="115"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="109" t="s">
+      <c r="AG42" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="109"/>
-      <c r="AI42" s="109" t="s">
+      <c r="AH42" s="115"/>
+      <c r="AI42" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="109"/>
-      <c r="AK42" s="109" t="s">
+      <c r="AJ42" s="115"/>
+      <c r="AK42" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="109"/>
-      <c r="AM42" s="109" t="s">
+      <c r="AL42" s="115"/>
+      <c r="AM42" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="109"/>
+      <c r="AN42" s="115"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -11781,42 +12621,42 @@
       <c r="BL42" s="34"/>
       <c r="BM42" s="34"/>
       <c r="BN42" s="34"/>
-      <c r="BO42" s="111" t="s">
+      <c r="BO42" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BP42" s="112"/>
-      <c r="BQ42" s="111" t="s">
+      <c r="BP42" s="114"/>
+      <c r="BQ42" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="112"/>
-      <c r="BS42" s="111" t="s">
+      <c r="BR42" s="114"/>
+      <c r="BS42" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="112"/>
-      <c r="BU42" s="111" t="s">
+      <c r="BT42" s="114"/>
+      <c r="BU42" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="112"/>
-      <c r="BW42" s="111" t="s">
+      <c r="BV42" s="114"/>
+      <c r="BW42" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BX42" s="112"/>
-      <c r="BY42" s="111" t="s">
+      <c r="BX42" s="114"/>
+      <c r="BY42" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="112"/>
-      <c r="CA42" s="111" t="s">
+      <c r="BZ42" s="114"/>
+      <c r="CA42" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="112"/>
-      <c r="CC42" s="111" t="s">
+      <c r="CB42" s="114"/>
+      <c r="CC42" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="112"/>
-      <c r="CE42" s="111" t="s">
+      <c r="CD42" s="114"/>
+      <c r="CE42" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="CF42" s="112"/>
+      <c r="CF42" s="114"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -11849,71 +12689,71 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="116" t="s">
+      <c r="K46" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="116"/>
-      <c r="M46" s="116"/>
-      <c r="N46" s="116"/>
-      <c r="O46" s="116"/>
-      <c r="P46" s="116"/>
-      <c r="Q46" s="116"/>
-      <c r="R46" s="116"/>
-      <c r="S46" s="116"/>
-      <c r="T46" s="116"/>
-      <c r="U46" s="116"/>
-      <c r="V46" s="116"/>
-      <c r="W46" s="116"/>
-      <c r="X46" s="116"/>
-      <c r="Y46" s="116"/>
-      <c r="Z46" s="116"/>
-      <c r="AA46" s="116"/>
-      <c r="AB46" s="116"/>
-      <c r="AC46" s="116"/>
-      <c r="AD46" s="116"/>
-      <c r="AE46" s="116" t="s">
+      <c r="L46" s="119"/>
+      <c r="M46" s="119"/>
+      <c r="N46" s="119"/>
+      <c r="O46" s="119"/>
+      <c r="P46" s="119"/>
+      <c r="Q46" s="119"/>
+      <c r="R46" s="119"/>
+      <c r="S46" s="119"/>
+      <c r="T46" s="119"/>
+      <c r="U46" s="119"/>
+      <c r="V46" s="119"/>
+      <c r="W46" s="119"/>
+      <c r="X46" s="119"/>
+      <c r="Y46" s="119"/>
+      <c r="Z46" s="119"/>
+      <c r="AA46" s="119"/>
+      <c r="AB46" s="119"/>
+      <c r="AC46" s="119"/>
+      <c r="AD46" s="119"/>
+      <c r="AE46" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="116"/>
-      <c r="AG46" s="116"/>
-      <c r="AH46" s="116"/>
-      <c r="AI46" s="116"/>
-      <c r="AJ46" s="116"/>
-      <c r="AK46" s="116"/>
-      <c r="AL46" s="116"/>
-      <c r="AM46" s="116"/>
-      <c r="AN46" s="116"/>
-      <c r="AO46" s="109" t="s">
+      <c r="AF46" s="119"/>
+      <c r="AG46" s="119"/>
+      <c r="AH46" s="119"/>
+      <c r="AI46" s="119"/>
+      <c r="AJ46" s="119"/>
+      <c r="AK46" s="119"/>
+      <c r="AL46" s="119"/>
+      <c r="AM46" s="119"/>
+      <c r="AN46" s="119"/>
+      <c r="AO46" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="109"/>
-      <c r="AQ46" s="109" t="s">
+      <c r="AP46" s="115"/>
+      <c r="AQ46" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="109"/>
-      <c r="AS46" s="109" t="s">
+      <c r="AR46" s="115"/>
+      <c r="AS46" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="109"/>
-      <c r="AU46" s="109" t="s">
+      <c r="AT46" s="115"/>
+      <c r="AU46" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="109"/>
-      <c r="AW46" s="113" t="s">
+      <c r="AV46" s="115"/>
+      <c r="AW46" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="114"/>
-      <c r="AY46" s="114"/>
-      <c r="AZ46" s="114"/>
-      <c r="BA46" s="114"/>
-      <c r="BB46" s="114"/>
-      <c r="BC46" s="114"/>
-      <c r="BD46" s="114"/>
-      <c r="BE46" s="115"/>
-      <c r="BF46" s="109" t="s">
+      <c r="AX46" s="117"/>
+      <c r="AY46" s="117"/>
+      <c r="AZ46" s="117"/>
+      <c r="BA46" s="117"/>
+      <c r="BB46" s="117"/>
+      <c r="BC46" s="117"/>
+      <c r="BD46" s="117"/>
+      <c r="BE46" s="118"/>
+      <c r="BF46" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="109"/>
+      <c r="BG46" s="115"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -15495,20 +16335,71 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="CE33:CF33"/>
-    <mergeCell ref="CE34:CF34"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CE42:CF42"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
     <mergeCell ref="BO33:BP33"/>
     <mergeCell ref="BO34:BP34"/>
     <mergeCell ref="CA33:CB33"/>
@@ -15525,71 +16416,20 @@
     <mergeCell ref="BY34:BZ34"/>
     <mergeCell ref="CA34:CB34"/>
     <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BY36:BZ36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15602,8 +16442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="G2:AW27"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AB10" sqref="AB10"/>
+    <sheetView topLeftCell="F22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -16260,7 +17100,8 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16491,62 +17332,62 @@
         <v>0</v>
       </c>
       <c r="F3" s="39"/>
-      <c r="G3" s="109" t="s">
+      <c r="G3" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109" t="s">
+      <c r="H3" s="115"/>
+      <c r="I3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109" t="s">
+      <c r="J3" s="115"/>
+      <c r="K3" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109" t="s">
+      <c r="L3" s="115"/>
+      <c r="M3" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109" t="s">
+      <c r="N3" s="115"/>
+      <c r="O3" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109" t="s">
+      <c r="P3" s="115"/>
+      <c r="Q3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="109"/>
-      <c r="S3" s="109" t="s">
+      <c r="R3" s="115"/>
+      <c r="S3" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="109"/>
-      <c r="U3" s="109" t="s">
+      <c r="T3" s="115"/>
+      <c r="U3" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="109"/>
-      <c r="W3" s="109" t="s">
+      <c r="V3" s="115"/>
+      <c r="W3" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="109"/>
+      <c r="X3" s="115"/>
       <c r="Z3" s="35"/>
       <c r="AA3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="109" t="s">
+      <c r="AC3" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109" t="s">
+      <c r="AD3" s="115"/>
+      <c r="AE3" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" s="109"/>
-      <c r="AG3" s="109" t="s">
+      <c r="AF3" s="115"/>
+      <c r="AG3" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="109"/>
-      <c r="AI3" s="109" t="s">
+      <c r="AH3" s="115"/>
+      <c r="AI3" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AJ3" s="109"/>
+      <c r="AJ3" s="115"/>
       <c r="AK3" s="34"/>
       <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
@@ -16569,104 +17410,104 @@
       <c r="BH3" s="34"/>
       <c r="BI3" s="34"/>
       <c r="BJ3" s="34"/>
-      <c r="BK3" s="111" t="s">
+      <c r="BK3" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BL3" s="112"/>
-      <c r="BM3" s="111" t="s">
+      <c r="BL3" s="114"/>
+      <c r="BM3" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BN3" s="112"/>
-      <c r="BO3" s="111" t="s">
+      <c r="BN3" s="114"/>
+      <c r="BO3" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BP3" s="112"/>
-      <c r="BQ3" s="111" t="s">
+      <c r="BP3" s="114"/>
+      <c r="BQ3" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BR3" s="112"/>
-      <c r="BS3" s="111" t="s">
+      <c r="BR3" s="114"/>
+      <c r="BS3" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="112"/>
-      <c r="BU3" s="111" t="s">
+      <c r="BT3" s="114"/>
+      <c r="BU3" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BV3" s="112"/>
-      <c r="BW3" s="111" t="s">
+      <c r="BV3" s="114"/>
+      <c r="BW3" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BX3" s="112"/>
-      <c r="BY3" s="111" t="s">
+      <c r="BX3" s="114"/>
+      <c r="BY3" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BZ3" s="112"/>
-      <c r="CA3" s="111" t="s">
+      <c r="BZ3" s="114"/>
+      <c r="CA3" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="CB3" s="112"/>
+      <c r="CB3" s="114"/>
     </row>
     <row r="4" spans="2:80">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
-      <c r="G4" s="109" t="s">
+      <c r="G4" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="109"/>
-      <c r="I4" s="109" t="s">
+      <c r="H4" s="115"/>
+      <c r="I4" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109" t="s">
+      <c r="J4" s="115"/>
+      <c r="K4" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109" t="s">
+      <c r="L4" s="115"/>
+      <c r="M4" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109" t="s">
+      <c r="N4" s="115"/>
+      <c r="O4" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="109"/>
-      <c r="Q4" s="109" t="s">
+      <c r="P4" s="115"/>
+      <c r="Q4" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109" t="s">
+      <c r="R4" s="115"/>
+      <c r="S4" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109" t="s">
+      <c r="T4" s="115"/>
+      <c r="U4" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109" t="s">
+      <c r="V4" s="115"/>
+      <c r="W4" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="X4" s="109"/>
+      <c r="X4" s="115"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" s="109" t="s">
+      <c r="AC4" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" s="109"/>
-      <c r="AE4" s="109" t="s">
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109" t="s">
+      <c r="AF4" s="115"/>
+      <c r="AG4" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109" t="s">
+      <c r="AH4" s="115"/>
+      <c r="AI4" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AJ4" s="109"/>
+      <c r="AJ4" s="115"/>
       <c r="AK4" s="34"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="34"/>
@@ -16689,42 +17530,42 @@
       <c r="BH4" s="34"/>
       <c r="BI4" s="34"/>
       <c r="BJ4" s="34"/>
-      <c r="BK4" s="111" t="s">
+      <c r="BK4" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BL4" s="112"/>
-      <c r="BM4" s="111" t="s">
+      <c r="BL4" s="114"/>
+      <c r="BM4" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="112"/>
-      <c r="BO4" s="111" t="s">
+      <c r="BN4" s="114"/>
+      <c r="BO4" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BP4" s="112"/>
-      <c r="BQ4" s="111" t="s">
+      <c r="BP4" s="114"/>
+      <c r="BQ4" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BR4" s="112"/>
-      <c r="BS4" s="111" t="s">
+      <c r="BR4" s="114"/>
+      <c r="BS4" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BT4" s="112"/>
-      <c r="BU4" s="111" t="s">
+      <c r="BT4" s="114"/>
+      <c r="BU4" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BV4" s="112"/>
-      <c r="BW4" s="111" t="s">
+      <c r="BV4" s="114"/>
+      <c r="BW4" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="112"/>
-      <c r="BY4" s="111" t="s">
+      <c r="BX4" s="114"/>
+      <c r="BY4" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="112"/>
-      <c r="CA4" s="111" t="s">
+      <c r="BZ4" s="114"/>
+      <c r="CA4" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="CB4" s="112"/>
+      <c r="CB4" s="114"/>
     </row>
     <row r="5" spans="2:80">
       <c r="BX5" s="27"/>
@@ -16738,62 +17579,62 @@
         <v>239</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="110" t="s">
+      <c r="G6" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110" t="s">
+      <c r="H6" s="120"/>
+      <c r="I6" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="110"/>
-      <c r="K6" s="110" t="s">
+      <c r="J6" s="120"/>
+      <c r="K6" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="110"/>
-      <c r="M6" s="110" t="s">
+      <c r="L6" s="120"/>
+      <c r="M6" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110" t="s">
+      <c r="N6" s="120"/>
+      <c r="O6" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110" t="s">
+      <c r="P6" s="120"/>
+      <c r="Q6" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="R6" s="110"/>
-      <c r="S6" s="110" t="s">
+      <c r="R6" s="120"/>
+      <c r="S6" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="110"/>
-      <c r="U6" s="110" t="s">
+      <c r="T6" s="120"/>
+      <c r="U6" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="110"/>
-      <c r="W6" s="110" t="s">
+      <c r="V6" s="120"/>
+      <c r="W6" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="110"/>
+      <c r="X6" s="120"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AC6" s="110" t="s">
+      <c r="AC6" s="120" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="110"/>
-      <c r="AE6" s="110" t="s">
+      <c r="AD6" s="120"/>
+      <c r="AE6" s="120" t="s">
         <v>112</v>
       </c>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="110" t="s">
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="110"/>
-      <c r="AI6" s="110" t="s">
+      <c r="AH6" s="120"/>
+      <c r="AI6" s="120" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="110"/>
+      <c r="AJ6" s="120"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
@@ -16816,42 +17657,42 @@
       <c r="BH6" s="34"/>
       <c r="BI6" s="34"/>
       <c r="BJ6" s="34"/>
-      <c r="BK6" s="111" t="s">
+      <c r="BK6" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BL6" s="112"/>
-      <c r="BM6" s="111" t="s">
+      <c r="BL6" s="114"/>
+      <c r="BM6" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BN6" s="112"/>
-      <c r="BO6" s="111" t="s">
+      <c r="BN6" s="114"/>
+      <c r="BO6" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BP6" s="112"/>
-      <c r="BQ6" s="111" t="s">
+      <c r="BP6" s="114"/>
+      <c r="BQ6" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BR6" s="112"/>
-      <c r="BS6" s="111" t="s">
+      <c r="BR6" s="114"/>
+      <c r="BS6" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BT6" s="112"/>
-      <c r="BU6" s="111" t="s">
+      <c r="BT6" s="114"/>
+      <c r="BU6" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BV6" s="112"/>
-      <c r="BW6" s="111" t="s">
+      <c r="BV6" s="114"/>
+      <c r="BW6" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BX6" s="112"/>
-      <c r="BY6" s="111" t="s">
+      <c r="BX6" s="114"/>
+      <c r="BY6" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BZ6" s="112"/>
-      <c r="CA6" s="111" t="s">
+      <c r="BZ6" s="114"/>
+      <c r="CA6" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="CB6" s="112"/>
+      <c r="CB6" s="114"/>
     </row>
     <row r="7" spans="2:80">
       <c r="E7">
@@ -17187,58 +18028,58 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="109" t="s">
+      <c r="I12" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="109" t="s">
+      <c r="J12" s="115"/>
+      <c r="K12" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109" t="s">
+      <c r="L12" s="115"/>
+      <c r="M12" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="109"/>
-      <c r="O12" s="109" t="s">
+      <c r="N12" s="115"/>
+      <c r="O12" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="109"/>
-      <c r="Q12" s="109" t="s">
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="109"/>
-      <c r="S12" s="109" t="s">
+      <c r="R12" s="115"/>
+      <c r="S12" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="109"/>
-      <c r="U12" s="109" t="s">
+      <c r="T12" s="115"/>
+      <c r="U12" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="109"/>
-      <c r="W12" s="109" t="s">
+      <c r="V12" s="115"/>
+      <c r="W12" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="109"/>
+      <c r="X12" s="115"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC12" s="109" t="s">
+      <c r="AC12" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AD12" s="109"/>
-      <c r="AE12" s="109" t="s">
+      <c r="AD12" s="115"/>
+      <c r="AE12" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AF12" s="109"/>
-      <c r="AG12" s="109" t="s">
+      <c r="AF12" s="115"/>
+      <c r="AG12" s="115" t="s">
         <v>113</v>
       </c>
-      <c r="AH12" s="109"/>
-      <c r="AI12" s="109" t="s">
+      <c r="AH12" s="115"/>
+      <c r="AI12" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="AJ12" s="109"/>
+      <c r="AJ12" s="115"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
@@ -17261,42 +18102,42 @@
       <c r="BH12" s="34"/>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="34"/>
-      <c r="BK12" s="111" t="s">
+      <c r="BK12" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BL12" s="112"/>
-      <c r="BM12" s="111" t="s">
+      <c r="BL12" s="114"/>
+      <c r="BM12" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BN12" s="112"/>
-      <c r="BO12" s="111" t="s">
+      <c r="BN12" s="114"/>
+      <c r="BO12" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BP12" s="112"/>
-      <c r="BQ12" s="111" t="s">
+      <c r="BP12" s="114"/>
+      <c r="BQ12" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BR12" s="112"/>
-      <c r="BS12" s="111" t="s">
+      <c r="BR12" s="114"/>
+      <c r="BS12" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="BT12" s="112"/>
-      <c r="BU12" s="111" t="s">
+      <c r="BT12" s="114"/>
+      <c r="BU12" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="BV12" s="112"/>
-      <c r="BW12" s="111" t="s">
+      <c r="BV12" s="114"/>
+      <c r="BW12" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="BX12" s="112"/>
-      <c r="BY12" s="111" t="s">
+      <c r="BX12" s="114"/>
+      <c r="BY12" s="113" t="s">
         <v>114</v>
       </c>
-      <c r="BZ12" s="112"/>
-      <c r="CA12" s="111" t="s">
+      <c r="BZ12" s="114"/>
+      <c r="CA12" s="113" t="s">
         <v>111</v>
       </c>
-      <c r="CB12" s="112"/>
+      <c r="CB12" s="114"/>
     </row>
     <row r="13" spans="2:80">
       <c r="BX13" s="27"/>
@@ -17329,71 +18170,71 @@
         <v>120</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="116" t="s">
+      <c r="G16" s="119" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="116"/>
-      <c r="M16" s="116"/>
-      <c r="N16" s="116"/>
-      <c r="O16" s="116"/>
-      <c r="P16" s="116"/>
-      <c r="Q16" s="116"/>
-      <c r="R16" s="116"/>
-      <c r="S16" s="116"/>
-      <c r="T16" s="116"/>
-      <c r="U16" s="116"/>
-      <c r="V16" s="116"/>
-      <c r="W16" s="116"/>
-      <c r="X16" s="116"/>
-      <c r="Y16" s="116"/>
-      <c r="Z16" s="116"/>
-      <c r="AA16" s="116" t="s">
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="119"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="119"/>
+      <c r="P16" s="119"/>
+      <c r="Q16" s="119"/>
+      <c r="R16" s="119"/>
+      <c r="S16" s="119"/>
+      <c r="T16" s="119"/>
+      <c r="U16" s="119"/>
+      <c r="V16" s="119"/>
+      <c r="W16" s="119"/>
+      <c r="X16" s="119"/>
+      <c r="Y16" s="119"/>
+      <c r="Z16" s="119"/>
+      <c r="AA16" s="119" t="s">
         <v>116</v>
       </c>
-      <c r="AB16" s="116"/>
-      <c r="AC16" s="116"/>
-      <c r="AD16" s="116"/>
-      <c r="AE16" s="116"/>
-      <c r="AF16" s="116"/>
-      <c r="AG16" s="116"/>
-      <c r="AH16" s="116"/>
-      <c r="AI16" s="116"/>
-      <c r="AJ16" s="116"/>
-      <c r="AK16" s="109" t="s">
+      <c r="AB16" s="119"/>
+      <c r="AC16" s="119"/>
+      <c r="AD16" s="119"/>
+      <c r="AE16" s="119"/>
+      <c r="AF16" s="119"/>
+      <c r="AG16" s="119"/>
+      <c r="AH16" s="119"/>
+      <c r="AI16" s="119"/>
+      <c r="AJ16" s="119"/>
+      <c r="AK16" s="115" t="s">
         <v>111</v>
       </c>
-      <c r="AL16" s="109"/>
-      <c r="AM16" s="109" t="s">
+      <c r="AL16" s="115"/>
+      <c r="AM16" s="115" t="s">
         <v>112</v>
       </c>
-      <c r="AN16" s="109"/>
-      <c r="AO16" s="109" t="s">
+      <c r="AN16" s="115"/>
+      <c r="AO16" s="115" t="s">
         <v>117</v>
       </c>
-      <c r="AP16" s="109"/>
-      <c r="AQ16" s="109" t="s">
+      <c r="AP16" s="115"/>
+      <c r="AQ16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="AR16" s="109"/>
-      <c r="AS16" s="113" t="s">
+      <c r="AR16" s="115"/>
+      <c r="AS16" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="AT16" s="114"/>
-      <c r="AU16" s="114"/>
-      <c r="AV16" s="114"/>
-      <c r="AW16" s="114"/>
-      <c r="AX16" s="114"/>
-      <c r="AY16" s="114"/>
-      <c r="AZ16" s="114"/>
-      <c r="BA16" s="115"/>
-      <c r="BB16" s="109" t="s">
+      <c r="AT16" s="117"/>
+      <c r="AU16" s="117"/>
+      <c r="AV16" s="117"/>
+      <c r="AW16" s="117"/>
+      <c r="AX16" s="117"/>
+      <c r="AY16" s="117"/>
+      <c r="AZ16" s="117"/>
+      <c r="BA16" s="118"/>
+      <c r="BB16" s="115" t="s">
         <v>118</v>
       </c>
-      <c r="BC16" s="109"/>
+      <c r="BC16" s="115"/>
       <c r="BE16" s="38"/>
       <c r="BF16" s="38"/>
       <c r="BG16" s="38"/>
@@ -17942,6 +18783,85 @@
     </row>
   </sheetData>
   <mergeCells count="95">
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="BU3:BV3"/>
+    <mergeCell ref="BW3:BX3"/>
+    <mergeCell ref="BY3:BZ3"/>
+    <mergeCell ref="CA3:CB3"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="BK3:BL3"/>
+    <mergeCell ref="BM3:BN3"/>
+    <mergeCell ref="BO3:BP3"/>
+    <mergeCell ref="BQ3:BR3"/>
+    <mergeCell ref="BS3:BT3"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CA6:CB6"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
     <mergeCell ref="BB16:BC16"/>
     <mergeCell ref="BW12:BX12"/>
     <mergeCell ref="BY12:BZ12"/>
@@ -17958,85 +18878,6 @@
     <mergeCell ref="BO12:BP12"/>
     <mergeCell ref="BQ12:BR12"/>
     <mergeCell ref="BS12:BT12"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BM6:BN6"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CA6:CB6"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="BU3:BV3"/>
-    <mergeCell ref="BW3:BX3"/>
-    <mergeCell ref="BY3:BZ3"/>
-    <mergeCell ref="CA3:CB3"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="BK3:BL3"/>
-    <mergeCell ref="BM3:BN3"/>
-    <mergeCell ref="BO3:BP3"/>
-    <mergeCell ref="BQ3:BR3"/>
-    <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18086,8 +18927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A4:AB16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18207,7 +19048,7 @@
       <c r="Q7" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="R7" s="117" t="s">
+      <c r="R7" s="121" t="s">
         <v>228</v>
       </c>
     </row>
@@ -18263,7 +19104,7 @@
       <c r="Q8" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="R8" s="117"/>
+      <c r="R8" s="121"/>
     </row>
     <row r="9" spans="1:28" ht="14.25">
       <c r="A9" s="50">
@@ -18317,7 +19158,7 @@
       <c r="Q9" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="R9" s="117" t="s">
+      <c r="R9" s="121" t="s">
         <v>229</v>
       </c>
     </row>
@@ -18373,13 +19214,13 @@
       <c r="Q10" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="R10" s="117"/>
+      <c r="R10" s="121"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="AB11" s="121"/>
+      <c r="AB11" s="110"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="T12" s="118" t="s">
+      <c r="T12" s="107" t="s">
         <v>230</v>
       </c>
       <c r="U12">
@@ -18403,12 +19244,12 @@
       <c r="AA12" s="12">
         <v>1</v>
       </c>
-      <c r="AB12" s="119">
+      <c r="AB12" s="108">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:28">
-      <c r="T13" s="118">
+      <c r="T13" s="107">
         <v>63</v>
       </c>
       <c r="U13">
@@ -18432,7 +19273,7 @@
       <c r="AA13" s="12">
         <v>1</v>
       </c>
-      <c r="AB13" s="120">
+      <c r="AB13" s="109">
         <v>1</v>
       </c>
     </row>
@@ -18488,4 +19329,1358 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B2:Y21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:25" ht="14.25" thickBot="1"/>
+    <row r="3" spans="2:25" ht="14.25">
+      <c r="B3" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="126">
+        <v>10</v>
+      </c>
+      <c r="D3" s="127">
+        <v>16</v>
+      </c>
+      <c r="E3" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="126">
+        <v>10</v>
+      </c>
+      <c r="G3" s="127">
+        <v>16</v>
+      </c>
+      <c r="H3" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="I3" s="126">
+        <v>10</v>
+      </c>
+      <c r="J3" s="127">
+        <v>16</v>
+      </c>
+      <c r="K3" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="L3" s="126">
+        <v>10</v>
+      </c>
+      <c r="M3" s="127">
+        <v>16</v>
+      </c>
+      <c r="N3" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="O3" s="126">
+        <v>10</v>
+      </c>
+      <c r="P3" s="127">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="R3" s="126">
+        <v>10</v>
+      </c>
+      <c r="S3" s="127">
+        <v>16</v>
+      </c>
+      <c r="T3" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="U3" s="126">
+        <v>10</v>
+      </c>
+      <c r="V3" s="127">
+        <v>16</v>
+      </c>
+      <c r="W3" s="125" t="s">
+        <v>238</v>
+      </c>
+      <c r="X3" s="126">
+        <v>10</v>
+      </c>
+      <c r="Y3" s="127">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" ht="15" thickBot="1">
+      <c r="B4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="122" t="s">
+        <v>240</v>
+      </c>
+      <c r="D4" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="E4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="F4" s="122" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="I4" s="122" t="s">
+        <v>240</v>
+      </c>
+      <c r="J4" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="K4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="L4" s="122" t="s">
+        <v>240</v>
+      </c>
+      <c r="M4" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="N4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="O4" s="122" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="R4" s="122" t="s">
+        <v>240</v>
+      </c>
+      <c r="S4" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="T4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="U4" s="122" t="s">
+        <v>240</v>
+      </c>
+      <c r="V4" s="129" t="s">
+        <v>240</v>
+      </c>
+      <c r="W4" s="128" t="s">
+        <v>239</v>
+      </c>
+      <c r="X4" s="122" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y4" s="129" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" ht="15" thickBot="1">
+      <c r="B5" s="130" t="s">
+        <v>241</v>
+      </c>
+      <c r="C5" s="123">
+        <v>0</v>
+      </c>
+      <c r="D5" s="131">
+        <v>0</v>
+      </c>
+      <c r="E5" s="132" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="124">
+        <v>16</v>
+      </c>
+      <c r="G5" s="133">
+        <v>10</v>
+      </c>
+      <c r="H5" s="145" t="s">
+        <v>285</v>
+      </c>
+      <c r="I5" s="140">
+        <v>32</v>
+      </c>
+      <c r="J5" s="146">
+        <v>20</v>
+      </c>
+      <c r="K5" s="147">
+        <v>0</v>
+      </c>
+      <c r="L5" s="141">
+        <v>48</v>
+      </c>
+      <c r="M5" s="148">
+        <v>30</v>
+      </c>
+      <c r="N5" s="153" t="s">
+        <v>319</v>
+      </c>
+      <c r="O5" s="144">
+        <v>64</v>
+      </c>
+      <c r="P5" s="154">
+        <v>40</v>
+      </c>
+      <c r="Q5" s="147" t="s">
+        <v>341</v>
+      </c>
+      <c r="R5" s="141">
+        <v>80</v>
+      </c>
+      <c r="S5" s="148">
+        <v>50</v>
+      </c>
+      <c r="T5" s="153" t="s">
+        <v>363</v>
+      </c>
+      <c r="U5" s="144">
+        <v>96</v>
+      </c>
+      <c r="V5" s="154">
+        <v>60</v>
+      </c>
+      <c r="W5" s="147" t="s">
+        <v>385</v>
+      </c>
+      <c r="X5" s="141">
+        <v>112</v>
+      </c>
+      <c r="Y5" s="148">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" ht="15" thickBot="1">
+      <c r="B6" s="132" t="s">
+        <v>242</v>
+      </c>
+      <c r="C6" s="124">
+        <v>1</v>
+      </c>
+      <c r="D6" s="133">
+        <v>1</v>
+      </c>
+      <c r="E6" s="130" t="s">
+        <v>264</v>
+      </c>
+      <c r="F6" s="123">
+        <v>17</v>
+      </c>
+      <c r="G6" s="131">
+        <v>11</v>
+      </c>
+      <c r="H6" s="147" t="s">
+        <v>286</v>
+      </c>
+      <c r="I6" s="141">
+        <v>33</v>
+      </c>
+      <c r="J6" s="148">
+        <v>21</v>
+      </c>
+      <c r="K6" s="149">
+        <v>1</v>
+      </c>
+      <c r="L6" s="142">
+        <v>49</v>
+      </c>
+      <c r="M6" s="150">
+        <v>31</v>
+      </c>
+      <c r="N6" s="147" t="s">
+        <v>320</v>
+      </c>
+      <c r="O6" s="141">
+        <v>65</v>
+      </c>
+      <c r="P6" s="148">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="149" t="s">
+        <v>342</v>
+      </c>
+      <c r="R6" s="142">
+        <v>81</v>
+      </c>
+      <c r="S6" s="150">
+        <v>51</v>
+      </c>
+      <c r="T6" s="147" t="s">
+        <v>364</v>
+      </c>
+      <c r="U6" s="141">
+        <v>97</v>
+      </c>
+      <c r="V6" s="148">
+        <v>61</v>
+      </c>
+      <c r="W6" s="149" t="s">
+        <v>386</v>
+      </c>
+      <c r="X6" s="142">
+        <v>113</v>
+      </c>
+      <c r="Y6" s="150">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" ht="15" thickBot="1">
+      <c r="B7" s="130" t="s">
+        <v>243</v>
+      </c>
+      <c r="C7" s="123">
+        <v>2</v>
+      </c>
+      <c r="D7" s="131">
+        <v>2</v>
+      </c>
+      <c r="E7" s="132" t="s">
+        <v>265</v>
+      </c>
+      <c r="F7" s="124">
+        <v>18</v>
+      </c>
+      <c r="G7" s="133">
+        <v>12</v>
+      </c>
+      <c r="H7" s="149" t="s">
+        <v>287</v>
+      </c>
+      <c r="I7" s="142">
+        <v>34</v>
+      </c>
+      <c r="J7" s="150">
+        <v>22</v>
+      </c>
+      <c r="K7" s="147">
+        <v>2</v>
+      </c>
+      <c r="L7" s="141">
+        <v>50</v>
+      </c>
+      <c r="M7" s="148">
+        <v>32</v>
+      </c>
+      <c r="N7" s="149" t="s">
+        <v>321</v>
+      </c>
+      <c r="O7" s="142">
+        <v>66</v>
+      </c>
+      <c r="P7" s="150">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="147" t="s">
+        <v>343</v>
+      </c>
+      <c r="R7" s="141">
+        <v>82</v>
+      </c>
+      <c r="S7" s="148">
+        <v>52</v>
+      </c>
+      <c r="T7" s="149" t="s">
+        <v>365</v>
+      </c>
+      <c r="U7" s="142">
+        <v>98</v>
+      </c>
+      <c r="V7" s="150">
+        <v>62</v>
+      </c>
+      <c r="W7" s="147" t="s">
+        <v>387</v>
+      </c>
+      <c r="X7" s="141">
+        <v>114</v>
+      </c>
+      <c r="Y7" s="148">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" ht="15" thickBot="1">
+      <c r="B8" s="132" t="s">
+        <v>244</v>
+      </c>
+      <c r="C8" s="124">
+        <v>3</v>
+      </c>
+      <c r="D8" s="133">
+        <v>3</v>
+      </c>
+      <c r="E8" s="130" t="s">
+        <v>266</v>
+      </c>
+      <c r="F8" s="123">
+        <v>19</v>
+      </c>
+      <c r="G8" s="131">
+        <v>13</v>
+      </c>
+      <c r="H8" s="151" t="s">
+        <v>288</v>
+      </c>
+      <c r="I8" s="143">
+        <v>35</v>
+      </c>
+      <c r="J8" s="152">
+        <v>23</v>
+      </c>
+      <c r="K8" s="149">
+        <v>3</v>
+      </c>
+      <c r="L8" s="142">
+        <v>51</v>
+      </c>
+      <c r="M8" s="150">
+        <v>33</v>
+      </c>
+      <c r="N8" s="147" t="s">
+        <v>322</v>
+      </c>
+      <c r="O8" s="141">
+        <v>67</v>
+      </c>
+      <c r="P8" s="148">
+        <v>43</v>
+      </c>
+      <c r="Q8" s="149" t="s">
+        <v>344</v>
+      </c>
+      <c r="R8" s="142">
+        <v>83</v>
+      </c>
+      <c r="S8" s="150">
+        <v>53</v>
+      </c>
+      <c r="T8" s="147" t="s">
+        <v>366</v>
+      </c>
+      <c r="U8" s="141">
+        <v>99</v>
+      </c>
+      <c r="V8" s="148">
+        <v>63</v>
+      </c>
+      <c r="W8" s="149" t="s">
+        <v>388</v>
+      </c>
+      <c r="X8" s="142">
+        <v>115</v>
+      </c>
+      <c r="Y8" s="150">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25" ht="15" thickBot="1">
+      <c r="B9" s="130" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="123">
+        <v>4</v>
+      </c>
+      <c r="D9" s="131">
+        <v>4</v>
+      </c>
+      <c r="E9" s="132" t="s">
+        <v>267</v>
+      </c>
+      <c r="F9" s="124">
+        <v>20</v>
+      </c>
+      <c r="G9" s="133">
+        <v>14</v>
+      </c>
+      <c r="H9" s="153" t="s">
+        <v>289</v>
+      </c>
+      <c r="I9" s="144">
+        <v>36</v>
+      </c>
+      <c r="J9" s="154">
+        <v>24</v>
+      </c>
+      <c r="K9" s="147">
+        <v>4</v>
+      </c>
+      <c r="L9" s="141">
+        <v>52</v>
+      </c>
+      <c r="M9" s="148">
+        <v>34</v>
+      </c>
+      <c r="N9" s="149" t="s">
+        <v>323</v>
+      </c>
+      <c r="O9" s="142">
+        <v>68</v>
+      </c>
+      <c r="P9" s="150">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="147" t="s">
+        <v>345</v>
+      </c>
+      <c r="R9" s="141">
+        <v>84</v>
+      </c>
+      <c r="S9" s="148">
+        <v>54</v>
+      </c>
+      <c r="T9" s="149" t="s">
+        <v>367</v>
+      </c>
+      <c r="U9" s="142">
+        <v>100</v>
+      </c>
+      <c r="V9" s="150">
+        <v>64</v>
+      </c>
+      <c r="W9" s="147" t="s">
+        <v>389</v>
+      </c>
+      <c r="X9" s="141">
+        <v>116</v>
+      </c>
+      <c r="Y9" s="148">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" ht="15" thickBot="1">
+      <c r="B10" s="132" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="124">
+        <v>5</v>
+      </c>
+      <c r="D10" s="133">
+        <v>5</v>
+      </c>
+      <c r="E10" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="123">
+        <v>21</v>
+      </c>
+      <c r="G10" s="131">
+        <v>15</v>
+      </c>
+      <c r="H10" s="147" t="s">
+        <v>290</v>
+      </c>
+      <c r="I10" s="141">
+        <v>37</v>
+      </c>
+      <c r="J10" s="148">
+        <v>25</v>
+      </c>
+      <c r="K10" s="149">
+        <v>5</v>
+      </c>
+      <c r="L10" s="142">
+        <v>53</v>
+      </c>
+      <c r="M10" s="150">
+        <v>35</v>
+      </c>
+      <c r="N10" s="147" t="s">
+        <v>324</v>
+      </c>
+      <c r="O10" s="141">
+        <v>69</v>
+      </c>
+      <c r="P10" s="148">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="149" t="s">
+        <v>346</v>
+      </c>
+      <c r="R10" s="142">
+        <v>85</v>
+      </c>
+      <c r="S10" s="150">
+        <v>55</v>
+      </c>
+      <c r="T10" s="147" t="s">
+        <v>368</v>
+      </c>
+      <c r="U10" s="141">
+        <v>101</v>
+      </c>
+      <c r="V10" s="148">
+        <v>65</v>
+      </c>
+      <c r="W10" s="149" t="s">
+        <v>390</v>
+      </c>
+      <c r="X10" s="142">
+        <v>117</v>
+      </c>
+      <c r="Y10" s="150">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" ht="15" thickBot="1">
+      <c r="B11" s="130" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="123">
+        <v>6</v>
+      </c>
+      <c r="D11" s="131">
+        <v>6</v>
+      </c>
+      <c r="E11" s="132" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="124">
+        <v>22</v>
+      </c>
+      <c r="G11" s="133">
+        <v>16</v>
+      </c>
+      <c r="H11" s="149" t="s">
+        <v>291</v>
+      </c>
+      <c r="I11" s="142">
+        <v>38</v>
+      </c>
+      <c r="J11" s="150">
+        <v>26</v>
+      </c>
+      <c r="K11" s="147">
+        <v>6</v>
+      </c>
+      <c r="L11" s="141">
+        <v>54</v>
+      </c>
+      <c r="M11" s="148">
+        <v>36</v>
+      </c>
+      <c r="N11" s="149" t="s">
+        <v>325</v>
+      </c>
+      <c r="O11" s="142">
+        <v>70</v>
+      </c>
+      <c r="P11" s="150">
+        <v>46</v>
+      </c>
+      <c r="Q11" s="147" t="s">
+        <v>347</v>
+      </c>
+      <c r="R11" s="141">
+        <v>86</v>
+      </c>
+      <c r="S11" s="148">
+        <v>56</v>
+      </c>
+      <c r="T11" s="149" t="s">
+        <v>369</v>
+      </c>
+      <c r="U11" s="142">
+        <v>102</v>
+      </c>
+      <c r="V11" s="150">
+        <v>66</v>
+      </c>
+      <c r="W11" s="147" t="s">
+        <v>391</v>
+      </c>
+      <c r="X11" s="141">
+        <v>118</v>
+      </c>
+      <c r="Y11" s="148">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" ht="15" thickBot="1">
+      <c r="B12" s="132" t="s">
+        <v>248</v>
+      </c>
+      <c r="C12" s="124">
+        <v>7</v>
+      </c>
+      <c r="D12" s="133">
+        <v>7</v>
+      </c>
+      <c r="E12" s="130" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="123">
+        <v>23</v>
+      </c>
+      <c r="G12" s="131">
+        <v>17</v>
+      </c>
+      <c r="H12" s="147" t="s">
+        <v>292</v>
+      </c>
+      <c r="I12" s="141">
+        <v>39</v>
+      </c>
+      <c r="J12" s="148">
+        <v>27</v>
+      </c>
+      <c r="K12" s="149">
+        <v>7</v>
+      </c>
+      <c r="L12" s="142">
+        <v>55</v>
+      </c>
+      <c r="M12" s="150">
+        <v>37</v>
+      </c>
+      <c r="N12" s="147" t="s">
+        <v>326</v>
+      </c>
+      <c r="O12" s="141">
+        <v>71</v>
+      </c>
+      <c r="P12" s="148">
+        <v>47</v>
+      </c>
+      <c r="Q12" s="149" t="s">
+        <v>348</v>
+      </c>
+      <c r="R12" s="142">
+        <v>87</v>
+      </c>
+      <c r="S12" s="150">
+        <v>57</v>
+      </c>
+      <c r="T12" s="147" t="s">
+        <v>370</v>
+      </c>
+      <c r="U12" s="141">
+        <v>103</v>
+      </c>
+      <c r="V12" s="148">
+        <v>67</v>
+      </c>
+      <c r="W12" s="149" t="s">
+        <v>392</v>
+      </c>
+      <c r="X12" s="142">
+        <v>119</v>
+      </c>
+      <c r="Y12" s="150">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" ht="15" thickBot="1">
+      <c r="B13" s="130" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" s="123">
+        <v>8</v>
+      </c>
+      <c r="D13" s="131">
+        <v>8</v>
+      </c>
+      <c r="E13" s="132" t="s">
+        <v>271</v>
+      </c>
+      <c r="F13" s="124">
+        <v>24</v>
+      </c>
+      <c r="G13" s="133">
+        <v>18</v>
+      </c>
+      <c r="H13" s="149" t="s">
+        <v>293</v>
+      </c>
+      <c r="I13" s="142">
+        <v>40</v>
+      </c>
+      <c r="J13" s="150">
+        <v>28</v>
+      </c>
+      <c r="K13" s="147">
+        <v>8</v>
+      </c>
+      <c r="L13" s="141">
+        <v>56</v>
+      </c>
+      <c r="M13" s="148">
+        <v>38</v>
+      </c>
+      <c r="N13" s="149" t="s">
+        <v>327</v>
+      </c>
+      <c r="O13" s="142">
+        <v>72</v>
+      </c>
+      <c r="P13" s="150">
+        <v>48</v>
+      </c>
+      <c r="Q13" s="147" t="s">
+        <v>349</v>
+      </c>
+      <c r="R13" s="141">
+        <v>88</v>
+      </c>
+      <c r="S13" s="148">
+        <v>58</v>
+      </c>
+      <c r="T13" s="149" t="s">
+        <v>371</v>
+      </c>
+      <c r="U13" s="142">
+        <v>104</v>
+      </c>
+      <c r="V13" s="150">
+        <v>68</v>
+      </c>
+      <c r="W13" s="147" t="s">
+        <v>393</v>
+      </c>
+      <c r="X13" s="141">
+        <v>120</v>
+      </c>
+      <c r="Y13" s="148">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" ht="15" thickBot="1">
+      <c r="B14" s="132" t="s">
+        <v>250</v>
+      </c>
+      <c r="C14" s="124">
+        <v>9</v>
+      </c>
+      <c r="D14" s="133">
+        <v>9</v>
+      </c>
+      <c r="E14" s="130" t="s">
+        <v>272</v>
+      </c>
+      <c r="F14" s="123">
+        <v>25</v>
+      </c>
+      <c r="G14" s="131">
+        <v>19</v>
+      </c>
+      <c r="H14" s="147" t="s">
+        <v>294</v>
+      </c>
+      <c r="I14" s="141">
+        <v>41</v>
+      </c>
+      <c r="J14" s="148">
+        <v>29</v>
+      </c>
+      <c r="K14" s="149">
+        <v>9</v>
+      </c>
+      <c r="L14" s="142">
+        <v>57</v>
+      </c>
+      <c r="M14" s="150">
+        <v>39</v>
+      </c>
+      <c r="N14" s="147" t="s">
+        <v>328</v>
+      </c>
+      <c r="O14" s="141">
+        <v>73</v>
+      </c>
+      <c r="P14" s="148">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="149" t="s">
+        <v>350</v>
+      </c>
+      <c r="R14" s="142">
+        <v>89</v>
+      </c>
+      <c r="S14" s="150">
+        <v>59</v>
+      </c>
+      <c r="T14" s="147" t="s">
+        <v>372</v>
+      </c>
+      <c r="U14" s="141">
+        <v>105</v>
+      </c>
+      <c r="V14" s="148">
+        <v>69</v>
+      </c>
+      <c r="W14" s="149" t="s">
+        <v>394</v>
+      </c>
+      <c r="X14" s="142">
+        <v>121</v>
+      </c>
+      <c r="Y14" s="150">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" ht="15" thickBot="1">
+      <c r="B15" s="130" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="123">
+        <v>10</v>
+      </c>
+      <c r="D15" s="131" t="s">
+        <v>252</v>
+      </c>
+      <c r="E15" s="132" t="s">
+        <v>273</v>
+      </c>
+      <c r="F15" s="124">
+        <v>26</v>
+      </c>
+      <c r="G15" s="133" t="s">
+        <v>274</v>
+      </c>
+      <c r="H15" s="149" t="s">
+        <v>295</v>
+      </c>
+      <c r="I15" s="142">
+        <v>42</v>
+      </c>
+      <c r="J15" s="150" t="s">
+        <v>296</v>
+      </c>
+      <c r="K15" s="147" t="s">
+        <v>307</v>
+      </c>
+      <c r="L15" s="141">
+        <v>58</v>
+      </c>
+      <c r="M15" s="148" t="s">
+        <v>308</v>
+      </c>
+      <c r="N15" s="149" t="s">
+        <v>329</v>
+      </c>
+      <c r="O15" s="142">
+        <v>74</v>
+      </c>
+      <c r="P15" s="150" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q15" s="147" t="s">
+        <v>351</v>
+      </c>
+      <c r="R15" s="141">
+        <v>90</v>
+      </c>
+      <c r="S15" s="148" t="s">
+        <v>352</v>
+      </c>
+      <c r="T15" s="149" t="s">
+        <v>373</v>
+      </c>
+      <c r="U15" s="142">
+        <v>106</v>
+      </c>
+      <c r="V15" s="150" t="s">
+        <v>374</v>
+      </c>
+      <c r="W15" s="147" t="s">
+        <v>395</v>
+      </c>
+      <c r="X15" s="141">
+        <v>122</v>
+      </c>
+      <c r="Y15" s="148" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="15" thickBot="1">
+      <c r="B16" s="132" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="124">
+        <v>11</v>
+      </c>
+      <c r="D16" s="133" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="130" t="s">
+        <v>275</v>
+      </c>
+      <c r="F16" s="123">
+        <v>27</v>
+      </c>
+      <c r="G16" s="131" t="s">
+        <v>276</v>
+      </c>
+      <c r="H16" s="147" t="s">
+        <v>297</v>
+      </c>
+      <c r="I16" s="141">
+        <v>43</v>
+      </c>
+      <c r="J16" s="148" t="s">
+        <v>298</v>
+      </c>
+      <c r="K16" s="149" t="s">
+        <v>309</v>
+      </c>
+      <c r="L16" s="142">
+        <v>59</v>
+      </c>
+      <c r="M16" s="150" t="s">
+        <v>310</v>
+      </c>
+      <c r="N16" s="147" t="s">
+        <v>331</v>
+      </c>
+      <c r="O16" s="141">
+        <v>75</v>
+      </c>
+      <c r="P16" s="148" t="s">
+        <v>332</v>
+      </c>
+      <c r="Q16" s="153" t="s">
+        <v>353</v>
+      </c>
+      <c r="R16" s="144">
+        <v>91</v>
+      </c>
+      <c r="S16" s="154" t="s">
+        <v>354</v>
+      </c>
+      <c r="T16" s="147" t="s">
+        <v>375</v>
+      </c>
+      <c r="U16" s="141">
+        <v>107</v>
+      </c>
+      <c r="V16" s="148" t="s">
+        <v>376</v>
+      </c>
+      <c r="W16" s="153" t="s">
+        <v>397</v>
+      </c>
+      <c r="X16" s="144">
+        <v>123</v>
+      </c>
+      <c r="Y16" s="154" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" ht="15" thickBot="1">
+      <c r="B17" s="130" t="s">
+        <v>255</v>
+      </c>
+      <c r="C17" s="123">
+        <v>12</v>
+      </c>
+      <c r="D17" s="131" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="132" t="s">
+        <v>277</v>
+      </c>
+      <c r="F17" s="124">
+        <v>28</v>
+      </c>
+      <c r="G17" s="133" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="149" t="s">
+        <v>299</v>
+      </c>
+      <c r="I17" s="142">
+        <v>44</v>
+      </c>
+      <c r="J17" s="150" t="s">
+        <v>300</v>
+      </c>
+      <c r="K17" s="147" t="s">
+        <v>311</v>
+      </c>
+      <c r="L17" s="141">
+        <v>60</v>
+      </c>
+      <c r="M17" s="148" t="s">
+        <v>312</v>
+      </c>
+      <c r="N17" s="149" t="s">
+        <v>333</v>
+      </c>
+      <c r="O17" s="142">
+        <v>76</v>
+      </c>
+      <c r="P17" s="150" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q17" s="151" t="s">
+        <v>355</v>
+      </c>
+      <c r="R17" s="143">
+        <v>92</v>
+      </c>
+      <c r="S17" s="152" t="s">
+        <v>356</v>
+      </c>
+      <c r="T17" s="149" t="s">
+        <v>377</v>
+      </c>
+      <c r="U17" s="142">
+        <v>108</v>
+      </c>
+      <c r="V17" s="150" t="s">
+        <v>378</v>
+      </c>
+      <c r="W17" s="151" t="s">
+        <v>399</v>
+      </c>
+      <c r="X17" s="143">
+        <v>124</v>
+      </c>
+      <c r="Y17" s="152" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" ht="15" thickBot="1">
+      <c r="B18" s="132" t="s">
+        <v>257</v>
+      </c>
+      <c r="C18" s="124">
+        <v>13</v>
+      </c>
+      <c r="D18" s="133" t="s">
+        <v>258</v>
+      </c>
+      <c r="E18" s="130" t="s">
+        <v>279</v>
+      </c>
+      <c r="F18" s="123">
+        <v>29</v>
+      </c>
+      <c r="G18" s="131" t="s">
+        <v>280</v>
+      </c>
+      <c r="H18" s="147" t="s">
+        <v>301</v>
+      </c>
+      <c r="I18" s="141">
+        <v>45</v>
+      </c>
+      <c r="J18" s="148" t="s">
+        <v>302</v>
+      </c>
+      <c r="K18" s="149" t="s">
+        <v>313</v>
+      </c>
+      <c r="L18" s="142">
+        <v>61</v>
+      </c>
+      <c r="M18" s="150" t="s">
+        <v>314</v>
+      </c>
+      <c r="N18" s="147" t="s">
+        <v>335</v>
+      </c>
+      <c r="O18" s="141">
+        <v>77</v>
+      </c>
+      <c r="P18" s="148" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q18" s="153" t="s">
+        <v>357</v>
+      </c>
+      <c r="R18" s="144">
+        <v>93</v>
+      </c>
+      <c r="S18" s="154" t="s">
+        <v>358</v>
+      </c>
+      <c r="T18" s="147" t="s">
+        <v>379</v>
+      </c>
+      <c r="U18" s="141">
+        <v>109</v>
+      </c>
+      <c r="V18" s="148" t="s">
+        <v>380</v>
+      </c>
+      <c r="W18" s="153" t="s">
+        <v>401</v>
+      </c>
+      <c r="X18" s="144">
+        <v>125</v>
+      </c>
+      <c r="Y18" s="154" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="19" spans="2:25" ht="15" thickBot="1">
+      <c r="B19" s="130" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="123">
+        <v>14</v>
+      </c>
+      <c r="D19" s="131" t="s">
+        <v>260</v>
+      </c>
+      <c r="E19" s="132" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" s="124">
+        <v>30</v>
+      </c>
+      <c r="G19" s="133" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" s="149" t="s">
+        <v>303</v>
+      </c>
+      <c r="I19" s="142">
+        <v>46</v>
+      </c>
+      <c r="J19" s="150" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="147" t="s">
+        <v>315</v>
+      </c>
+      <c r="L19" s="141">
+        <v>62</v>
+      </c>
+      <c r="M19" s="148" t="s">
+        <v>316</v>
+      </c>
+      <c r="N19" s="149" t="s">
+        <v>337</v>
+      </c>
+      <c r="O19" s="142">
+        <v>78</v>
+      </c>
+      <c r="P19" s="150" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q19" s="151" t="s">
+        <v>359</v>
+      </c>
+      <c r="R19" s="143">
+        <v>94</v>
+      </c>
+      <c r="S19" s="152" t="s">
+        <v>360</v>
+      </c>
+      <c r="T19" s="149" t="s">
+        <v>381</v>
+      </c>
+      <c r="U19" s="142">
+        <v>110</v>
+      </c>
+      <c r="V19" s="150" t="s">
+        <v>382</v>
+      </c>
+      <c r="W19" s="161" t="s">
+        <v>403</v>
+      </c>
+      <c r="X19" s="143">
+        <v>126</v>
+      </c>
+      <c r="Y19" s="152" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="20" spans="2:25" ht="15" thickBot="1">
+      <c r="B20" s="134" t="s">
+        <v>261</v>
+      </c>
+      <c r="C20" s="135">
+        <v>15</v>
+      </c>
+      <c r="D20" s="136" t="s">
+        <v>262</v>
+      </c>
+      <c r="E20" s="137" t="s">
+        <v>283</v>
+      </c>
+      <c r="F20" s="138">
+        <v>31</v>
+      </c>
+      <c r="G20" s="139" t="s">
+        <v>284</v>
+      </c>
+      <c r="H20" s="155" t="s">
+        <v>305</v>
+      </c>
+      <c r="I20" s="156">
+        <v>47</v>
+      </c>
+      <c r="J20" s="157" t="s">
+        <v>306</v>
+      </c>
+      <c r="K20" s="158" t="s">
+        <v>317</v>
+      </c>
+      <c r="L20" s="159">
+        <v>63</v>
+      </c>
+      <c r="M20" s="160" t="s">
+        <v>318</v>
+      </c>
+      <c r="N20" s="155" t="s">
+        <v>339</v>
+      </c>
+      <c r="O20" s="156">
+        <v>79</v>
+      </c>
+      <c r="P20" s="157" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q20" s="158" t="s">
+        <v>361</v>
+      </c>
+      <c r="R20" s="159">
+        <v>95</v>
+      </c>
+      <c r="S20" s="160" t="s">
+        <v>362</v>
+      </c>
+      <c r="T20" s="155" t="s">
+        <v>383</v>
+      </c>
+      <c r="U20" s="156">
+        <v>111</v>
+      </c>
+      <c r="V20" s="157" t="s">
+        <v>384</v>
+      </c>
+      <c r="W20" s="162" t="s">
+        <v>405</v>
+      </c>
+      <c r="X20" s="163">
+        <v>127</v>
+      </c>
+      <c r="Y20" s="164" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="21" spans="2:25" ht="14.25">
+      <c r="B21" s="165" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" activeTab="8"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="451">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -1335,6 +1335,178 @@
   </si>
   <si>
     <t>* LFはNL、FFはNPと呼ばれることもある。</t>
+  </si>
+  <si>
+    <t>@0x0430</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@0x0438</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FC</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@0x0440</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>@0x0448</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PTL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PTH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>y=2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D=0x44</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E=0x45</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E700</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7380</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>39C0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1EC0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>E70</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>738</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>39C</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1CE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C600</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6300</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3180</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18C0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>C60</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>630</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>318</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>18C</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1880,7 +2052,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -2304,13 +2476,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="170">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2644,39 +2827,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2807,6 +2957,51 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -6631,10 +6826,10 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="111" t="s">
+      <c r="A8" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="155" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
@@ -6642,8 +6837,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="112"/>
-      <c r="B9" s="112"/>
+      <c r="A9" s="156"/>
+      <c r="B9" s="156"/>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
@@ -6682,10 +6877,10 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="111" t="s">
+      <c r="A13" s="155" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="111" t="s">
+      <c r="B13" s="155" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
@@ -6693,8 +6888,8 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="112"/>
-      <c r="B14" s="112"/>
+      <c r="A14" s="156"/>
+      <c r="B14" s="156"/>
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
@@ -6833,10 +7028,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="111" t="s">
+      <c r="A29" s="155" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="111" t="s">
+      <c r="B29" s="155" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
@@ -6844,8 +7039,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="112"/>
-      <c r="B30" s="112"/>
+      <c r="A30" s="156"/>
+      <c r="B30" s="156"/>
       <c r="C30" s="6" t="s">
         <v>50</v>
       </c>
@@ -6873,10 +7068,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="111" t="s">
+      <c r="A33" s="155" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="111" t="s">
+      <c r="B33" s="155" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
@@ -6884,8 +7079,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="112"/>
-      <c r="B34" s="112"/>
+      <c r="A34" s="156"/>
+      <c r="B34" s="156"/>
       <c r="C34" s="6" t="s">
         <v>57</v>
       </c>
@@ -6985,22 +7180,22 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="111" t="s">
+      <c r="A47" s="155" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="111" t="s">
+      <c r="C47" s="155" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="112"/>
+      <c r="A48" s="156"/>
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="112"/>
+      <c r="C48" s="156"/>
     </row>
     <row r="49" spans="1:3" ht="15" thickBot="1">
       <c r="A49" s="2" t="s">
@@ -7024,22 +7219,22 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="111" t="s">
+      <c r="A52" s="155" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="111" t="s">
+      <c r="C52" s="155" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="112"/>
+      <c r="A53" s="156"/>
       <c r="B53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="112"/>
+      <c r="C53" s="156"/>
     </row>
     <row r="54" spans="1:3" ht="15" thickBot="1">
       <c r="A54" s="2" t="s">
@@ -7063,25 +7258,31 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="111" t="s">
+      <c r="A57" s="155" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="111" t="s">
+      <c r="C57" s="155" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="112"/>
+      <c r="A58" s="156"/>
       <c r="B58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="112"/>
+      <c r="C58" s="156"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -7090,12 +7291,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11599,7 +11794,7 @@
   <dimension ref="A2:CF125"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AU47" sqref="AU47"/>
+      <selection activeCell="K33" sqref="K33:L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -11851,62 +12046,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="115" t="s">
+      <c r="K33" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="115"/>
-      <c r="M33" s="115" t="s">
+      <c r="L33" s="157"/>
+      <c r="M33" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="115"/>
-      <c r="O33" s="115" t="s">
+      <c r="N33" s="157"/>
+      <c r="O33" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="115"/>
-      <c r="Q33" s="115" t="s">
+      <c r="P33" s="157"/>
+      <c r="Q33" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="115"/>
-      <c r="S33" s="115" t="s">
+      <c r="R33" s="157"/>
+      <c r="S33" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="115"/>
-      <c r="U33" s="115" t="s">
+      <c r="T33" s="157"/>
+      <c r="U33" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="115"/>
-      <c r="W33" s="115" t="s">
+      <c r="V33" s="157"/>
+      <c r="W33" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="115"/>
-      <c r="Y33" s="115" t="s">
+      <c r="X33" s="157"/>
+      <c r="Y33" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="115"/>
-      <c r="AA33" s="115" t="s">
+      <c r="Z33" s="157"/>
+      <c r="AA33" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="115"/>
+      <c r="AB33" s="157"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="115" t="s">
+      <c r="AG33" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="115"/>
-      <c r="AI33" s="115" t="s">
+      <c r="AH33" s="157"/>
+      <c r="AI33" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="115"/>
-      <c r="AK33" s="115" t="s">
+      <c r="AJ33" s="157"/>
+      <c r="AK33" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="115"/>
-      <c r="AM33" s="115" t="s">
+      <c r="AL33" s="157"/>
+      <c r="AM33" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="115"/>
+      <c r="AN33" s="157"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -11929,104 +12124,104 @@
       <c r="BL33" s="34"/>
       <c r="BM33" s="34"/>
       <c r="BN33" s="34"/>
-      <c r="BO33" s="113" t="s">
+      <c r="BO33" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BP33" s="114"/>
-      <c r="BQ33" s="113" t="s">
+      <c r="BP33" s="160"/>
+      <c r="BQ33" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="114"/>
-      <c r="BS33" s="113" t="s">
+      <c r="BR33" s="160"/>
+      <c r="BS33" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="114"/>
-      <c r="BU33" s="113" t="s">
+      <c r="BT33" s="160"/>
+      <c r="BU33" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="114"/>
-      <c r="BW33" s="113" t="s">
+      <c r="BV33" s="160"/>
+      <c r="BW33" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BX33" s="114"/>
-      <c r="BY33" s="113" t="s">
+      <c r="BX33" s="160"/>
+      <c r="BY33" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="114"/>
-      <c r="CA33" s="113" t="s">
+      <c r="BZ33" s="160"/>
+      <c r="CA33" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="114"/>
-      <c r="CC33" s="113" t="s">
+      <c r="CB33" s="160"/>
+      <c r="CC33" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="114"/>
-      <c r="CE33" s="113" t="s">
+      <c r="CD33" s="160"/>
+      <c r="CE33" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="CF33" s="114"/>
+      <c r="CF33" s="160"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="115" t="s">
+      <c r="K34" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="115"/>
-      <c r="M34" s="115" t="s">
+      <c r="L34" s="157"/>
+      <c r="M34" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="115"/>
-      <c r="O34" s="115" t="s">
+      <c r="N34" s="157"/>
+      <c r="O34" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="115"/>
-      <c r="Q34" s="115" t="s">
+      <c r="P34" s="157"/>
+      <c r="Q34" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="115"/>
-      <c r="S34" s="115" t="s">
+      <c r="R34" s="157"/>
+      <c r="S34" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="115"/>
-      <c r="U34" s="115" t="s">
+      <c r="T34" s="157"/>
+      <c r="U34" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="115"/>
-      <c r="W34" s="115" t="s">
+      <c r="V34" s="157"/>
+      <c r="W34" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="115"/>
-      <c r="Y34" s="115" t="s">
+      <c r="X34" s="157"/>
+      <c r="Y34" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="115"/>
-      <c r="AA34" s="115" t="s">
+      <c r="Z34" s="157"/>
+      <c r="AA34" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="115"/>
+      <c r="AB34" s="157"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="115" t="s">
+      <c r="AG34" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="115"/>
-      <c r="AI34" s="115" t="s">
+      <c r="AH34" s="157"/>
+      <c r="AI34" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="115"/>
-      <c r="AK34" s="115" t="s">
+      <c r="AJ34" s="157"/>
+      <c r="AK34" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="115"/>
-      <c r="AM34" s="115" t="s">
+      <c r="AL34" s="157"/>
+      <c r="AM34" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="115"/>
+      <c r="AN34" s="157"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -12049,42 +12244,42 @@
       <c r="BL34" s="34"/>
       <c r="BM34" s="34"/>
       <c r="BN34" s="34"/>
-      <c r="BO34" s="113" t="s">
+      <c r="BO34" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BP34" s="114"/>
-      <c r="BQ34" s="113" t="s">
+      <c r="BP34" s="160"/>
+      <c r="BQ34" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="114"/>
-      <c r="BS34" s="113" t="s">
+      <c r="BR34" s="160"/>
+      <c r="BS34" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="114"/>
-      <c r="BU34" s="113" t="s">
+      <c r="BT34" s="160"/>
+      <c r="BU34" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="114"/>
-      <c r="BW34" s="113" t="s">
+      <c r="BV34" s="160"/>
+      <c r="BW34" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BX34" s="114"/>
-      <c r="BY34" s="113" t="s">
+      <c r="BX34" s="160"/>
+      <c r="BY34" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="114"/>
-      <c r="CA34" s="113" t="s">
+      <c r="BZ34" s="160"/>
+      <c r="CA34" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="114"/>
-      <c r="CC34" s="113" t="s">
+      <c r="CB34" s="160"/>
+      <c r="CC34" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="114"/>
-      <c r="CE34" s="113" t="s">
+      <c r="CD34" s="160"/>
+      <c r="CE34" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="CF34" s="114"/>
+      <c r="CF34" s="160"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -12098,62 +12293,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="120" t="s">
+      <c r="K36" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="120"/>
-      <c r="M36" s="120" t="s">
+      <c r="L36" s="158"/>
+      <c r="M36" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="120"/>
-      <c r="O36" s="120" t="s">
+      <c r="N36" s="158"/>
+      <c r="O36" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="120"/>
-      <c r="Q36" s="120" t="s">
+      <c r="P36" s="158"/>
+      <c r="Q36" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="120"/>
-      <c r="S36" s="120" t="s">
+      <c r="R36" s="158"/>
+      <c r="S36" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="120"/>
-      <c r="U36" s="120" t="s">
+      <c r="T36" s="158"/>
+      <c r="U36" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="120"/>
-      <c r="W36" s="120" t="s">
+      <c r="V36" s="158"/>
+      <c r="W36" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="120"/>
-      <c r="Y36" s="120" t="s">
+      <c r="X36" s="158"/>
+      <c r="Y36" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="120"/>
-      <c r="AA36" s="120" t="s">
+      <c r="Z36" s="158"/>
+      <c r="AA36" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="120"/>
+      <c r="AB36" s="158"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="120" t="s">
+      <c r="AG36" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="120"/>
-      <c r="AI36" s="120" t="s">
+      <c r="AH36" s="158"/>
+      <c r="AI36" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="120"/>
-      <c r="AK36" s="120" t="s">
+      <c r="AJ36" s="158"/>
+      <c r="AK36" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="120"/>
-      <c r="AM36" s="120" t="s">
+      <c r="AL36" s="158"/>
+      <c r="AM36" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="120"/>
+      <c r="AN36" s="158"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -12176,42 +12371,42 @@
       <c r="BL36" s="34"/>
       <c r="BM36" s="34"/>
       <c r="BN36" s="34"/>
-      <c r="BO36" s="113" t="s">
+      <c r="BO36" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BP36" s="114"/>
-      <c r="BQ36" s="113" t="s">
+      <c r="BP36" s="160"/>
+      <c r="BQ36" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="114"/>
-      <c r="BS36" s="113" t="s">
+      <c r="BR36" s="160"/>
+      <c r="BS36" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="114"/>
-      <c r="BU36" s="113" t="s">
+      <c r="BT36" s="160"/>
+      <c r="BU36" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="114"/>
-      <c r="BW36" s="113" t="s">
+      <c r="BV36" s="160"/>
+      <c r="BW36" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BX36" s="114"/>
-      <c r="BY36" s="113" t="s">
+      <c r="BX36" s="160"/>
+      <c r="BY36" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="114"/>
-      <c r="CA36" s="113" t="s">
+      <c r="BZ36" s="160"/>
+      <c r="CA36" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="114"/>
-      <c r="CC36" s="113" t="s">
+      <c r="CB36" s="160"/>
+      <c r="CC36" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="114"/>
-      <c r="CE36" s="113" t="s">
+      <c r="CD36" s="160"/>
+      <c r="CE36" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="CF36" s="114"/>
+      <c r="CF36" s="160"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -12547,58 +12742,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="115" t="s">
+      <c r="M42" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="115"/>
-      <c r="O42" s="115" t="s">
+      <c r="N42" s="157"/>
+      <c r="O42" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="115"/>
-      <c r="Q42" s="115" t="s">
+      <c r="P42" s="157"/>
+      <c r="Q42" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="115"/>
-      <c r="S42" s="115" t="s">
+      <c r="R42" s="157"/>
+      <c r="S42" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="115"/>
-      <c r="U42" s="115" t="s">
+      <c r="T42" s="157"/>
+      <c r="U42" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="115"/>
-      <c r="W42" s="115" t="s">
+      <c r="V42" s="157"/>
+      <c r="W42" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="115"/>
-      <c r="Y42" s="115" t="s">
+      <c r="X42" s="157"/>
+      <c r="Y42" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="115"/>
-      <c r="AA42" s="115" t="s">
+      <c r="Z42" s="157"/>
+      <c r="AA42" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="115"/>
+      <c r="AB42" s="157"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="115" t="s">
+      <c r="AG42" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="115"/>
-      <c r="AI42" s="115" t="s">
+      <c r="AH42" s="157"/>
+      <c r="AI42" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="115"/>
-      <c r="AK42" s="115" t="s">
+      <c r="AJ42" s="157"/>
+      <c r="AK42" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="115"/>
-      <c r="AM42" s="115" t="s">
+      <c r="AL42" s="157"/>
+      <c r="AM42" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="115"/>
+      <c r="AN42" s="157"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -12621,42 +12816,42 @@
       <c r="BL42" s="34"/>
       <c r="BM42" s="34"/>
       <c r="BN42" s="34"/>
-      <c r="BO42" s="113" t="s">
+      <c r="BO42" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BP42" s="114"/>
-      <c r="BQ42" s="113" t="s">
+      <c r="BP42" s="160"/>
+      <c r="BQ42" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="114"/>
-      <c r="BS42" s="113" t="s">
+      <c r="BR42" s="160"/>
+      <c r="BS42" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="114"/>
-      <c r="BU42" s="113" t="s">
+      <c r="BT42" s="160"/>
+      <c r="BU42" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="114"/>
-      <c r="BW42" s="113" t="s">
+      <c r="BV42" s="160"/>
+      <c r="BW42" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BX42" s="114"/>
-      <c r="BY42" s="113" t="s">
+      <c r="BX42" s="160"/>
+      <c r="BY42" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="114"/>
-      <c r="CA42" s="113" t="s">
+      <c r="BZ42" s="160"/>
+      <c r="CA42" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="114"/>
-      <c r="CC42" s="113" t="s">
+      <c r="CB42" s="160"/>
+      <c r="CC42" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="114"/>
-      <c r="CE42" s="113" t="s">
+      <c r="CD42" s="160"/>
+      <c r="CE42" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="CF42" s="114"/>
+      <c r="CF42" s="160"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -12689,71 +12884,71 @@
         <v>120</v>
       </c>
       <c r="J46" s="34"/>
-      <c r="K46" s="119" t="s">
+      <c r="K46" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="L46" s="119"/>
-      <c r="M46" s="119"/>
-      <c r="N46" s="119"/>
-      <c r="O46" s="119"/>
-      <c r="P46" s="119"/>
-      <c r="Q46" s="119"/>
-      <c r="R46" s="119"/>
-      <c r="S46" s="119"/>
-      <c r="T46" s="119"/>
-      <c r="U46" s="119"/>
-      <c r="V46" s="119"/>
-      <c r="W46" s="119"/>
-      <c r="X46" s="119"/>
-      <c r="Y46" s="119"/>
-      <c r="Z46" s="119"/>
-      <c r="AA46" s="119"/>
-      <c r="AB46" s="119"/>
-      <c r="AC46" s="119"/>
-      <c r="AD46" s="119"/>
-      <c r="AE46" s="119" t="s">
+      <c r="L46" s="164"/>
+      <c r="M46" s="164"/>
+      <c r="N46" s="164"/>
+      <c r="O46" s="164"/>
+      <c r="P46" s="164"/>
+      <c r="Q46" s="164"/>
+      <c r="R46" s="164"/>
+      <c r="S46" s="164"/>
+      <c r="T46" s="164"/>
+      <c r="U46" s="164"/>
+      <c r="V46" s="164"/>
+      <c r="W46" s="164"/>
+      <c r="X46" s="164"/>
+      <c r="Y46" s="164"/>
+      <c r="Z46" s="164"/>
+      <c r="AA46" s="164"/>
+      <c r="AB46" s="164"/>
+      <c r="AC46" s="164"/>
+      <c r="AD46" s="164"/>
+      <c r="AE46" s="164" t="s">
         <v>116</v>
       </c>
-      <c r="AF46" s="119"/>
-      <c r="AG46" s="119"/>
-      <c r="AH46" s="119"/>
-      <c r="AI46" s="119"/>
-      <c r="AJ46" s="119"/>
-      <c r="AK46" s="119"/>
-      <c r="AL46" s="119"/>
-      <c r="AM46" s="119"/>
-      <c r="AN46" s="119"/>
-      <c r="AO46" s="115" t="s">
+      <c r="AF46" s="164"/>
+      <c r="AG46" s="164"/>
+      <c r="AH46" s="164"/>
+      <c r="AI46" s="164"/>
+      <c r="AJ46" s="164"/>
+      <c r="AK46" s="164"/>
+      <c r="AL46" s="164"/>
+      <c r="AM46" s="164"/>
+      <c r="AN46" s="164"/>
+      <c r="AO46" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="115"/>
-      <c r="AQ46" s="115" t="s">
+      <c r="AP46" s="157"/>
+      <c r="AQ46" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="115"/>
-      <c r="AS46" s="115" t="s">
+      <c r="AR46" s="157"/>
+      <c r="AS46" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="115"/>
-      <c r="AU46" s="115" t="s">
+      <c r="AT46" s="157"/>
+      <c r="AU46" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="115"/>
-      <c r="AW46" s="116" t="s">
+      <c r="AV46" s="157"/>
+      <c r="AW46" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="AX46" s="117"/>
-      <c r="AY46" s="117"/>
-      <c r="AZ46" s="117"/>
-      <c r="BA46" s="117"/>
-      <c r="BB46" s="117"/>
-      <c r="BC46" s="117"/>
-      <c r="BD46" s="117"/>
-      <c r="BE46" s="118"/>
-      <c r="BF46" s="115" t="s">
+      <c r="AX46" s="162"/>
+      <c r="AY46" s="162"/>
+      <c r="AZ46" s="162"/>
+      <c r="BA46" s="162"/>
+      <c r="BB46" s="162"/>
+      <c r="BC46" s="162"/>
+      <c r="BD46" s="162"/>
+      <c r="BE46" s="163"/>
+      <c r="BF46" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="115"/>
+      <c r="BG46" s="157"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -16335,11 +16530,80 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="BO33:BP33"/>
+    <mergeCell ref="BO34:BP34"/>
+    <mergeCell ref="CA33:CB33"/>
+    <mergeCell ref="CC33:CD33"/>
+    <mergeCell ref="BQ33:BR33"/>
+    <mergeCell ref="BS33:BT33"/>
+    <mergeCell ref="BU33:BV33"/>
+    <mergeCell ref="BW33:BX33"/>
+    <mergeCell ref="BY33:BZ33"/>
+    <mergeCell ref="BQ34:BR34"/>
+    <mergeCell ref="BS34:BT34"/>
+    <mergeCell ref="BU34:BV34"/>
+    <mergeCell ref="BW34:BX34"/>
+    <mergeCell ref="BY34:BZ34"/>
+    <mergeCell ref="CA34:CB34"/>
+    <mergeCell ref="CC34:CD34"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
     <mergeCell ref="U34:V34"/>
     <mergeCell ref="W34:X34"/>
     <mergeCell ref="Y34:Z34"/>
@@ -16356,80 +16620,11 @@
     <mergeCell ref="AI34:AJ34"/>
     <mergeCell ref="AK34:AL34"/>
     <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="BO33:BP33"/>
-    <mergeCell ref="BO34:BP34"/>
-    <mergeCell ref="CA33:CB33"/>
-    <mergeCell ref="CC33:CD33"/>
-    <mergeCell ref="BQ33:BR33"/>
-    <mergeCell ref="BS33:BT33"/>
-    <mergeCell ref="BU33:BV33"/>
-    <mergeCell ref="BW33:BX33"/>
-    <mergeCell ref="BY33:BZ33"/>
-    <mergeCell ref="BQ34:BR34"/>
-    <mergeCell ref="BS34:BT34"/>
-    <mergeCell ref="BU34:BV34"/>
-    <mergeCell ref="BW34:BX34"/>
-    <mergeCell ref="BY34:BZ34"/>
-    <mergeCell ref="CA34:CB34"/>
-    <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="CE33:CF33"/>
-    <mergeCell ref="CE34:CF34"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CE42:CF42"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16440,10 +16635,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="G2:AW27"/>
+  <dimension ref="A2:EC67"/>
   <sheetViews>
-    <sheetView topLeftCell="F22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD56" sqref="AD56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -17097,7 +17292,1082 @@
       </c>
       <c r="AT27" s="45"/>
     </row>
+    <row r="33" spans="1:133">
+      <c r="C33" t="s">
+        <v>427</v>
+      </c>
+      <c r="J33" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:133">
+      <c r="C34" s="45" t="s">
+        <v>408</v>
+      </c>
+      <c r="F34" s="45" t="s">
+        <v>409</v>
+      </c>
+      <c r="J34" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="M34" s="45" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="36" spans="1:133">
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36" t="s">
+        <v>410</v>
+      </c>
+      <c r="F36" t="s">
+        <v>411</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="37" spans="1:133">
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>132</v>
+      </c>
+      <c r="F37" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>429</v>
+      </c>
+      <c r="M37" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:133">
+      <c r="C38" s="169">
+        <v>2</v>
+      </c>
+      <c r="D38" s="169" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169" t="s">
+        <v>138</v>
+      </c>
+      <c r="G38" s="169"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="169">
+        <v>2</v>
+      </c>
+      <c r="K38" s="169" t="s">
+        <v>430</v>
+      </c>
+      <c r="L38" s="169"/>
+      <c r="M38" s="169" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:133">
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39">
+        <v>3</v>
+      </c>
+      <c r="K39" t="s">
+        <v>411</v>
+      </c>
+      <c r="M39" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="40" spans="1:133">
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40" t="s">
+        <v>411</v>
+      </c>
+      <c r="M40" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:133">
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>138</v>
+      </c>
+      <c r="J41">
+        <v>5</v>
+      </c>
+      <c r="K41" t="s">
+        <v>430</v>
+      </c>
+      <c r="M41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:133">
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F42" t="s">
+        <v>411</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42" t="s">
+        <v>132</v>
+      </c>
+      <c r="M42" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="43" spans="1:133">
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>410</v>
+      </c>
+      <c r="F43" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="45"/>
+      <c r="J43">
+        <v>7</v>
+      </c>
+      <c r="K43" t="s">
+        <v>132</v>
+      </c>
+      <c r="M43" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:133">
+      <c r="AC45" s="166" t="s">
+        <v>414</v>
+      </c>
+      <c r="AD45" s="167"/>
+      <c r="AE45" s="167"/>
+      <c r="AF45" s="167"/>
+      <c r="AG45" s="167"/>
+      <c r="AH45" s="167"/>
+      <c r="AI45" s="167"/>
+      <c r="AJ45" s="168"/>
+      <c r="AK45" s="166" t="s">
+        <v>415</v>
+      </c>
+      <c r="AL45" s="167"/>
+      <c r="AM45" s="167"/>
+      <c r="AN45" s="167"/>
+      <c r="AO45" s="167"/>
+      <c r="AP45" s="167"/>
+      <c r="AQ45" s="167"/>
+      <c r="AR45" s="168"/>
+      <c r="AS45" s="166" t="s">
+        <v>416</v>
+      </c>
+      <c r="AT45" s="167"/>
+      <c r="AU45" s="167"/>
+      <c r="AV45" s="167"/>
+      <c r="AW45" s="167"/>
+      <c r="AX45" s="167"/>
+      <c r="AY45" s="167"/>
+      <c r="AZ45" s="168"/>
+    </row>
+    <row r="46" spans="1:133" ht="42">
+      <c r="A46" t="s">
+        <v>422</v>
+      </c>
+      <c r="E46" s="27">
+        <v>40</v>
+      </c>
+      <c r="F46" s="27">
+        <v>41</v>
+      </c>
+      <c r="G46" s="27">
+        <v>42</v>
+      </c>
+      <c r="H46" s="27">
+        <v>43</v>
+      </c>
+      <c r="I46" s="27">
+        <v>44</v>
+      </c>
+      <c r="J46" s="27">
+        <v>45</v>
+      </c>
+      <c r="K46" s="27">
+        <v>46</v>
+      </c>
+      <c r="L46" s="27">
+        <v>47</v>
+      </c>
+      <c r="M46" s="27">
+        <v>48</v>
+      </c>
+      <c r="N46" s="27">
+        <v>49</v>
+      </c>
+      <c r="O46" s="27">
+        <v>50</v>
+      </c>
+      <c r="P46" s="27">
+        <v>51</v>
+      </c>
+      <c r="Q46" s="27">
+        <v>52</v>
+      </c>
+      <c r="R46" s="27">
+        <v>53</v>
+      </c>
+      <c r="S46" s="27">
+        <v>54</v>
+      </c>
+      <c r="T46" s="27">
+        <v>55</v>
+      </c>
+      <c r="U46" s="27">
+        <v>56</v>
+      </c>
+      <c r="V46" s="27">
+        <v>57</v>
+      </c>
+      <c r="W46" s="27">
+        <v>58</v>
+      </c>
+      <c r="X46" s="27">
+        <v>59</v>
+      </c>
+      <c r="Y46" s="27">
+        <v>60</v>
+      </c>
+      <c r="Z46" s="27">
+        <v>61</v>
+      </c>
+      <c r="AA46" s="27">
+        <v>62</v>
+      </c>
+      <c r="AB46" s="27">
+        <v>63</v>
+      </c>
+      <c r="AC46" s="27">
+        <v>64</v>
+      </c>
+      <c r="AD46" s="27">
+        <v>65</v>
+      </c>
+      <c r="AE46" s="27">
+        <v>66</v>
+      </c>
+      <c r="AF46" s="27">
+        <v>67</v>
+      </c>
+      <c r="AG46" s="27">
+        <v>68</v>
+      </c>
+      <c r="AH46" s="27">
+        <v>69</v>
+      </c>
+      <c r="AI46" s="27">
+        <v>70</v>
+      </c>
+      <c r="AJ46" s="27">
+        <v>71</v>
+      </c>
+      <c r="AK46" s="27">
+        <v>72</v>
+      </c>
+      <c r="AL46" s="27">
+        <v>73</v>
+      </c>
+      <c r="AM46" s="27">
+        <v>74</v>
+      </c>
+      <c r="AN46" s="27">
+        <v>75</v>
+      </c>
+      <c r="AO46" s="27">
+        <v>76</v>
+      </c>
+      <c r="AP46" s="27">
+        <v>77</v>
+      </c>
+      <c r="AQ46" s="27">
+        <v>78</v>
+      </c>
+      <c r="AR46" s="27">
+        <v>79</v>
+      </c>
+      <c r="AS46" s="27">
+        <v>80</v>
+      </c>
+      <c r="AT46" s="27">
+        <v>81</v>
+      </c>
+      <c r="AU46" s="27">
+        <v>82</v>
+      </c>
+      <c r="AV46" s="27">
+        <v>83</v>
+      </c>
+      <c r="AW46" s="27">
+        <v>84</v>
+      </c>
+      <c r="AX46" s="27">
+        <v>85</v>
+      </c>
+      <c r="AY46" s="27">
+        <v>86</v>
+      </c>
+      <c r="AZ46" s="27">
+        <v>87</v>
+      </c>
+      <c r="BA46" s="27">
+        <v>88</v>
+      </c>
+      <c r="BB46" s="27">
+        <v>89</v>
+      </c>
+      <c r="BC46" s="27">
+        <v>90</v>
+      </c>
+      <c r="BD46" s="27">
+        <v>91</v>
+      </c>
+      <c r="BE46" s="27">
+        <v>92</v>
+      </c>
+      <c r="BF46" s="27">
+        <v>93</v>
+      </c>
+      <c r="BG46" s="27">
+        <v>94</v>
+      </c>
+      <c r="BH46" s="27">
+        <v>95</v>
+      </c>
+      <c r="BI46" s="27">
+        <v>96</v>
+      </c>
+      <c r="BJ46" s="27">
+        <v>97</v>
+      </c>
+      <c r="BK46" s="27">
+        <v>98</v>
+      </c>
+      <c r="BL46" s="27">
+        <v>99</v>
+      </c>
+      <c r="BM46" s="27">
+        <v>100</v>
+      </c>
+      <c r="BN46" s="27">
+        <v>101</v>
+      </c>
+      <c r="BO46" s="27">
+        <v>102</v>
+      </c>
+      <c r="BP46" s="27">
+        <v>103</v>
+      </c>
+      <c r="BQ46" s="27">
+        <v>104</v>
+      </c>
+      <c r="BR46" s="27">
+        <v>105</v>
+      </c>
+      <c r="BS46" s="27">
+        <v>106</v>
+      </c>
+      <c r="BT46" s="27">
+        <v>107</v>
+      </c>
+      <c r="BU46" s="27">
+        <v>108</v>
+      </c>
+      <c r="BV46" s="27">
+        <v>109</v>
+      </c>
+      <c r="BW46" s="27">
+        <v>110</v>
+      </c>
+      <c r="BX46" s="27">
+        <v>111</v>
+      </c>
+      <c r="BY46" s="27">
+        <v>112</v>
+      </c>
+      <c r="BZ46" s="27">
+        <v>113</v>
+      </c>
+      <c r="CA46" s="27">
+        <v>114</v>
+      </c>
+      <c r="CB46" s="27">
+        <v>115</v>
+      </c>
+      <c r="CC46" s="27">
+        <v>116</v>
+      </c>
+      <c r="CD46" s="27">
+        <v>117</v>
+      </c>
+      <c r="CE46" s="27">
+        <v>118</v>
+      </c>
+      <c r="CF46" s="27">
+        <v>119</v>
+      </c>
+      <c r="CG46" s="27">
+        <v>120</v>
+      </c>
+      <c r="CH46" s="27">
+        <v>121</v>
+      </c>
+      <c r="CI46" s="27">
+        <v>122</v>
+      </c>
+      <c r="CJ46" s="27">
+        <v>123</v>
+      </c>
+      <c r="CK46" s="27">
+        <v>124</v>
+      </c>
+      <c r="CL46" s="27">
+        <v>125</v>
+      </c>
+      <c r="CM46" s="27">
+        <v>126</v>
+      </c>
+      <c r="CN46" s="27">
+        <v>127</v>
+      </c>
+      <c r="CO46" s="27">
+        <v>128</v>
+      </c>
+      <c r="CP46" s="27">
+        <v>129</v>
+      </c>
+      <c r="CQ46" s="27">
+        <v>130</v>
+      </c>
+      <c r="CR46" s="27">
+        <v>131</v>
+      </c>
+      <c r="CS46" s="27">
+        <v>132</v>
+      </c>
+      <c r="CT46" s="27">
+        <v>133</v>
+      </c>
+      <c r="CU46" s="27">
+        <v>134</v>
+      </c>
+      <c r="CV46" s="27">
+        <v>135</v>
+      </c>
+      <c r="CW46" s="27">
+        <v>136</v>
+      </c>
+      <c r="CX46" s="27">
+        <v>137</v>
+      </c>
+      <c r="CY46" s="27">
+        <v>138</v>
+      </c>
+      <c r="CZ46" s="27">
+        <v>139</v>
+      </c>
+      <c r="DA46" s="27">
+        <v>140</v>
+      </c>
+      <c r="DB46" s="27">
+        <v>141</v>
+      </c>
+      <c r="DC46" s="27">
+        <v>142</v>
+      </c>
+      <c r="DD46" s="27">
+        <v>143</v>
+      </c>
+      <c r="DE46" s="27">
+        <v>144</v>
+      </c>
+      <c r="DF46" s="27">
+        <v>145</v>
+      </c>
+      <c r="DG46" s="27">
+        <v>146</v>
+      </c>
+      <c r="DH46" s="27">
+        <v>147</v>
+      </c>
+      <c r="DI46" s="27">
+        <v>148</v>
+      </c>
+      <c r="DJ46" s="27">
+        <v>149</v>
+      </c>
+      <c r="DK46" s="27">
+        <v>150</v>
+      </c>
+      <c r="DL46" s="27">
+        <v>151</v>
+      </c>
+      <c r="DM46" s="27">
+        <v>152</v>
+      </c>
+      <c r="DN46" s="27">
+        <v>153</v>
+      </c>
+      <c r="DO46" s="27">
+        <v>154</v>
+      </c>
+      <c r="DP46" s="27">
+        <v>155</v>
+      </c>
+      <c r="DQ46" s="27">
+        <v>156</v>
+      </c>
+      <c r="DR46" s="27">
+        <v>157</v>
+      </c>
+      <c r="DS46" s="27">
+        <v>158</v>
+      </c>
+      <c r="DT46" s="27">
+        <v>159</v>
+      </c>
+      <c r="DU46" s="27">
+        <v>160</v>
+      </c>
+      <c r="DV46" s="27">
+        <v>161</v>
+      </c>
+      <c r="DW46" s="27">
+        <v>162</v>
+      </c>
+      <c r="DX46" s="27">
+        <v>163</v>
+      </c>
+      <c r="DY46" s="27">
+        <v>164</v>
+      </c>
+      <c r="DZ46" s="27">
+        <v>165</v>
+      </c>
+      <c r="EA46" s="27">
+        <v>166</v>
+      </c>
+      <c r="EB46" s="27">
+        <v>167</v>
+      </c>
+      <c r="EC46" s="27">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:133">
+      <c r="F47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="K47" s="157"/>
+      <c r="L47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="O47" s="157"/>
+      <c r="P47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q47" s="157"/>
+      <c r="R47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="S47" s="157"/>
+      <c r="T47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="U47" s="157"/>
+      <c r="V47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="W47" s="157"/>
+      <c r="X47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y47" s="157"/>
+      <c r="Z47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="AA47" s="157"/>
+      <c r="AB47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC47" s="157"/>
+      <c r="AD47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE47" s="157"/>
+      <c r="AF47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG47" s="157"/>
+      <c r="AH47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI47" s="157"/>
+      <c r="AJ47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK47" s="157"/>
+      <c r="AL47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="AM47" s="157"/>
+      <c r="AN47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="AO47" s="157"/>
+      <c r="AP47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ47" s="157"/>
+      <c r="AR47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS47" s="157"/>
+      <c r="AT47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="AU47" s="157"/>
+      <c r="AV47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW47" s="157"/>
+      <c r="AX47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="AY47" s="157"/>
+      <c r="AZ47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="BA47" s="157"/>
+      <c r="BB47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="BC47" s="157"/>
+      <c r="BD47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="BE47" s="157"/>
+      <c r="BF47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="BG47" s="157"/>
+      <c r="BH47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="BI47" s="157"/>
+      <c r="BJ47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="BK47" s="157"/>
+      <c r="BL47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="BM47" s="157"/>
+      <c r="BN47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="BO47" s="157"/>
+      <c r="BP47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="BQ47" s="157"/>
+      <c r="BR47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="BS47" s="157"/>
+      <c r="BT47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="BU47" s="157"/>
+      <c r="BV47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="BW47" s="157"/>
+      <c r="BX47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="BY47" s="157"/>
+      <c r="BZ47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="CA47" s="157"/>
+      <c r="CB47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="CC47" s="157"/>
+      <c r="CD47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="CE47" s="157"/>
+      <c r="CF47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="CG47" s="157"/>
+      <c r="CH47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="CI47" s="157"/>
+      <c r="CJ47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="CK47" s="157"/>
+      <c r="CL47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="CM47" s="157"/>
+      <c r="CN47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="CO47" s="157"/>
+      <c r="CP47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="CQ47" s="157"/>
+      <c r="CR47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="CS47" s="157"/>
+      <c r="CT47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="CU47" s="157"/>
+      <c r="CV47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="CW47" s="157"/>
+      <c r="CX47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="CY47" s="157"/>
+      <c r="CZ47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="DA47" s="157"/>
+      <c r="DB47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="DC47" s="157"/>
+      <c r="DD47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="DE47" s="157"/>
+      <c r="DF47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="DG47" s="157"/>
+      <c r="DH47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="DI47" s="157"/>
+      <c r="DJ47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="DK47" s="157"/>
+      <c r="DL47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="DM47" s="157"/>
+      <c r="DN47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="DO47" s="157"/>
+      <c r="DP47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="DQ47" s="157"/>
+      <c r="DR47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="DS47" s="157"/>
+      <c r="DT47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="DU47" s="157"/>
+      <c r="DV47" s="157" t="s">
+        <v>111</v>
+      </c>
+      <c r="DW47" s="157"/>
+      <c r="DX47" s="157" t="s">
+        <v>112</v>
+      </c>
+      <c r="DY47" s="157"/>
+      <c r="DZ47" s="157" t="s">
+        <v>113</v>
+      </c>
+      <c r="EA47" s="157"/>
+      <c r="EB47" s="157" t="s">
+        <v>114</v>
+      </c>
+      <c r="EC47" s="157"/>
+    </row>
+    <row r="49" spans="11:36">
+      <c r="K49" t="s">
+        <v>418</v>
+      </c>
+      <c r="N49" t="s">
+        <v>417</v>
+      </c>
+      <c r="V49" t="s">
+        <v>415</v>
+      </c>
+      <c r="AD49" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="50" spans="11:36">
+      <c r="K50" t="s">
+        <v>419</v>
+      </c>
+      <c r="P50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>0</v>
+      </c>
+      <c r="AF50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="11:36">
+      <c r="K51" t="s">
+        <v>420</v>
+      </c>
+      <c r="R51" t="s">
+        <v>423</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>433</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="11:36">
+      <c r="K52" t="s">
+        <v>421</v>
+      </c>
+      <c r="T52" t="s">
+        <v>424</v>
+      </c>
+      <c r="AB52" t="s">
+        <v>434</v>
+      </c>
+      <c r="AJ52" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="55" spans="11:36">
+      <c r="U55" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="56" spans="11:36">
+      <c r="V56" s="45" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="57" spans="11:36">
+      <c r="W57" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="58" spans="11:36">
+      <c r="X58" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="59" spans="11:36">
+      <c r="U59" t="s">
+        <v>443</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="11:36">
+      <c r="V60" s="45" t="s">
+        <v>444</v>
+      </c>
+      <c r="Z60" s="45" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61" spans="11:36">
+      <c r="W61" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="62" spans="11:36">
+      <c r="X62" t="s">
+        <v>446</v>
+      </c>
+      <c r="AB62" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="63" spans="11:36">
+      <c r="Y63" t="s">
+        <v>447</v>
+      </c>
+      <c r="AC63" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="64" spans="11:36">
+      <c r="Z64" s="45" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="65" spans="27:29">
+      <c r="AA65" s="45" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="66" spans="27:29">
+      <c r="AB66" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="67" spans="27:29">
+      <c r="AC67" t="s">
+        <v>424</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="67">
+    <mergeCell ref="DV47:DW47"/>
+    <mergeCell ref="DX47:DY47"/>
+    <mergeCell ref="DZ47:EA47"/>
+    <mergeCell ref="EB47:EC47"/>
+    <mergeCell ref="AC45:AJ45"/>
+    <mergeCell ref="AK45:AR45"/>
+    <mergeCell ref="AS45:AZ45"/>
+    <mergeCell ref="DJ47:DK47"/>
+    <mergeCell ref="DL47:DM47"/>
+    <mergeCell ref="DN47:DO47"/>
+    <mergeCell ref="DP47:DQ47"/>
+    <mergeCell ref="DR47:DS47"/>
+    <mergeCell ref="DT47:DU47"/>
+    <mergeCell ref="CX47:CY47"/>
+    <mergeCell ref="CZ47:DA47"/>
+    <mergeCell ref="DB47:DC47"/>
+    <mergeCell ref="DD47:DE47"/>
+    <mergeCell ref="DF47:DG47"/>
+    <mergeCell ref="DH47:DI47"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CN47:CO47"/>
+    <mergeCell ref="CP47:CQ47"/>
+    <mergeCell ref="CR47:CS47"/>
+    <mergeCell ref="CT47:CU47"/>
+    <mergeCell ref="CV47:CW47"/>
+    <mergeCell ref="BZ47:CA47"/>
+    <mergeCell ref="CB47:CC47"/>
+    <mergeCell ref="CD47:CE47"/>
+    <mergeCell ref="CF47:CG47"/>
+    <mergeCell ref="CH47:CI47"/>
+    <mergeCell ref="CJ47:CK47"/>
+    <mergeCell ref="BN47:BO47"/>
+    <mergeCell ref="BP47:BQ47"/>
+    <mergeCell ref="BR47:BS47"/>
+    <mergeCell ref="BT47:BU47"/>
+    <mergeCell ref="BV47:BW47"/>
+    <mergeCell ref="BX47:BY47"/>
+    <mergeCell ref="BB47:BC47"/>
+    <mergeCell ref="BD47:BE47"/>
+    <mergeCell ref="BF47:BG47"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="BL47:BM47"/>
+    <mergeCell ref="AP47:AQ47"/>
+    <mergeCell ref="AR47:AS47"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AX47:AY47"/>
+    <mergeCell ref="AZ47:BA47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="AJ47:AK47"/>
+    <mergeCell ref="AL47:AM47"/>
+    <mergeCell ref="AN47:AO47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="P47:Q47"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -17332,62 +18602,62 @@
         <v>0</v>
       </c>
       <c r="F3" s="39"/>
-      <c r="G3" s="115" t="s">
+      <c r="G3" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115" t="s">
+      <c r="H3" s="157"/>
+      <c r="I3" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115" t="s">
+      <c r="J3" s="157"/>
+      <c r="K3" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115" t="s">
+      <c r="L3" s="157"/>
+      <c r="M3" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115" t="s">
+      <c r="N3" s="157"/>
+      <c r="O3" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="115" t="s">
+      <c r="P3" s="157"/>
+      <c r="Q3" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115" t="s">
+      <c r="R3" s="157"/>
+      <c r="S3" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115" t="s">
+      <c r="T3" s="157"/>
+      <c r="U3" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115" t="s">
+      <c r="V3" s="157"/>
+      <c r="W3" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="115"/>
+      <c r="X3" s="157"/>
       <c r="Z3" s="35"/>
       <c r="AA3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="115" t="s">
+      <c r="AC3" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AD3" s="115"/>
-      <c r="AE3" s="115" t="s">
+      <c r="AD3" s="157"/>
+      <c r="AE3" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" s="115"/>
-      <c r="AG3" s="115" t="s">
+      <c r="AF3" s="157"/>
+      <c r="AG3" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="115"/>
-      <c r="AI3" s="115" t="s">
+      <c r="AH3" s="157"/>
+      <c r="AI3" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="AJ3" s="115"/>
+      <c r="AJ3" s="157"/>
       <c r="AK3" s="34"/>
       <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
@@ -17410,104 +18680,104 @@
       <c r="BH3" s="34"/>
       <c r="BI3" s="34"/>
       <c r="BJ3" s="34"/>
-      <c r="BK3" s="113" t="s">
+      <c r="BK3" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BL3" s="114"/>
-      <c r="BM3" s="113" t="s">
+      <c r="BL3" s="160"/>
+      <c r="BM3" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BN3" s="114"/>
-      <c r="BO3" s="113" t="s">
+      <c r="BN3" s="160"/>
+      <c r="BO3" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BP3" s="114"/>
-      <c r="BQ3" s="113" t="s">
+      <c r="BP3" s="160"/>
+      <c r="BQ3" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BR3" s="114"/>
-      <c r="BS3" s="113" t="s">
+      <c r="BR3" s="160"/>
+      <c r="BS3" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="114"/>
-      <c r="BU3" s="113" t="s">
+      <c r="BT3" s="160"/>
+      <c r="BU3" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BV3" s="114"/>
-      <c r="BW3" s="113" t="s">
+      <c r="BV3" s="160"/>
+      <c r="BW3" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BX3" s="114"/>
-      <c r="BY3" s="113" t="s">
+      <c r="BX3" s="160"/>
+      <c r="BY3" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BZ3" s="114"/>
-      <c r="CA3" s="113" t="s">
+      <c r="BZ3" s="160"/>
+      <c r="CA3" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="CB3" s="114"/>
+      <c r="CB3" s="160"/>
     </row>
     <row r="4" spans="2:80">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
-      <c r="G4" s="115" t="s">
+      <c r="G4" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="115"/>
-      <c r="I4" s="115" t="s">
+      <c r="H4" s="157"/>
+      <c r="I4" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="115"/>
-      <c r="K4" s="115" t="s">
+      <c r="J4" s="157"/>
+      <c r="K4" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="115"/>
-      <c r="M4" s="115" t="s">
+      <c r="L4" s="157"/>
+      <c r="M4" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="115"/>
-      <c r="O4" s="115" t="s">
+      <c r="N4" s="157"/>
+      <c r="O4" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="115"/>
-      <c r="Q4" s="115" t="s">
+      <c r="P4" s="157"/>
+      <c r="Q4" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="115"/>
-      <c r="S4" s="115" t="s">
+      <c r="R4" s="157"/>
+      <c r="S4" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="T4" s="115"/>
-      <c r="U4" s="115" t="s">
+      <c r="T4" s="157"/>
+      <c r="U4" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="115"/>
-      <c r="W4" s="115" t="s">
+      <c r="V4" s="157"/>
+      <c r="W4" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="X4" s="115"/>
+      <c r="X4" s="157"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" s="115" t="s">
+      <c r="AC4" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="115" t="s">
+      <c r="AD4" s="157"/>
+      <c r="AE4" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="AF4" s="115"/>
-      <c r="AG4" s="115" t="s">
+      <c r="AF4" s="157"/>
+      <c r="AG4" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="AH4" s="115"/>
-      <c r="AI4" s="115" t="s">
+      <c r="AH4" s="157"/>
+      <c r="AI4" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="AJ4" s="115"/>
+      <c r="AJ4" s="157"/>
       <c r="AK4" s="34"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="34"/>
@@ -17530,42 +18800,42 @@
       <c r="BH4" s="34"/>
       <c r="BI4" s="34"/>
       <c r="BJ4" s="34"/>
-      <c r="BK4" s="113" t="s">
+      <c r="BK4" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BL4" s="114"/>
-      <c r="BM4" s="113" t="s">
+      <c r="BL4" s="160"/>
+      <c r="BM4" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="114"/>
-      <c r="BO4" s="113" t="s">
+      <c r="BN4" s="160"/>
+      <c r="BO4" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BP4" s="114"/>
-      <c r="BQ4" s="113" t="s">
+      <c r="BP4" s="160"/>
+      <c r="BQ4" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BR4" s="114"/>
-      <c r="BS4" s="113" t="s">
+      <c r="BR4" s="160"/>
+      <c r="BS4" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BT4" s="114"/>
-      <c r="BU4" s="113" t="s">
+      <c r="BT4" s="160"/>
+      <c r="BU4" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BV4" s="114"/>
-      <c r="BW4" s="113" t="s">
+      <c r="BV4" s="160"/>
+      <c r="BW4" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="114"/>
-      <c r="BY4" s="113" t="s">
+      <c r="BX4" s="160"/>
+      <c r="BY4" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="114"/>
-      <c r="CA4" s="113" t="s">
+      <c r="BZ4" s="160"/>
+      <c r="CA4" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="CB4" s="114"/>
+      <c r="CB4" s="160"/>
     </row>
     <row r="5" spans="2:80">
       <c r="BX5" s="27"/>
@@ -17579,62 +18849,62 @@
         <v>239</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="120" t="s">
+      <c r="G6" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120" t="s">
+      <c r="H6" s="158"/>
+      <c r="I6" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120" t="s">
+      <c r="J6" s="158"/>
+      <c r="K6" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="120"/>
-      <c r="M6" s="120" t="s">
+      <c r="L6" s="158"/>
+      <c r="M6" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="120"/>
-      <c r="O6" s="120" t="s">
+      <c r="N6" s="158"/>
+      <c r="O6" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="120"/>
-      <c r="Q6" s="120" t="s">
+      <c r="P6" s="158"/>
+      <c r="Q6" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="R6" s="120"/>
-      <c r="S6" s="120" t="s">
+      <c r="R6" s="158"/>
+      <c r="S6" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="120"/>
-      <c r="U6" s="120" t="s">
+      <c r="T6" s="158"/>
+      <c r="U6" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="120"/>
-      <c r="W6" s="120" t="s">
+      <c r="V6" s="158"/>
+      <c r="W6" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="120"/>
+      <c r="X6" s="158"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AC6" s="120" t="s">
+      <c r="AC6" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120" t="s">
+      <c r="AD6" s="158"/>
+      <c r="AE6" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="120" t="s">
+      <c r="AF6" s="158"/>
+      <c r="AG6" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="120"/>
-      <c r="AI6" s="120" t="s">
+      <c r="AH6" s="158"/>
+      <c r="AI6" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="120"/>
+      <c r="AJ6" s="158"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
@@ -17657,42 +18927,42 @@
       <c r="BH6" s="34"/>
       <c r="BI6" s="34"/>
       <c r="BJ6" s="34"/>
-      <c r="BK6" s="113" t="s">
+      <c r="BK6" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BL6" s="114"/>
-      <c r="BM6" s="113" t="s">
+      <c r="BL6" s="160"/>
+      <c r="BM6" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BN6" s="114"/>
-      <c r="BO6" s="113" t="s">
+      <c r="BN6" s="160"/>
+      <c r="BO6" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BP6" s="114"/>
-      <c r="BQ6" s="113" t="s">
+      <c r="BP6" s="160"/>
+      <c r="BQ6" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BR6" s="114"/>
-      <c r="BS6" s="113" t="s">
+      <c r="BR6" s="160"/>
+      <c r="BS6" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BT6" s="114"/>
-      <c r="BU6" s="113" t="s">
+      <c r="BT6" s="160"/>
+      <c r="BU6" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BV6" s="114"/>
-      <c r="BW6" s="113" t="s">
+      <c r="BV6" s="160"/>
+      <c r="BW6" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BX6" s="114"/>
-      <c r="BY6" s="113" t="s">
+      <c r="BX6" s="160"/>
+      <c r="BY6" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BZ6" s="114"/>
-      <c r="CA6" s="113" t="s">
+      <c r="BZ6" s="160"/>
+      <c r="CA6" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="CB6" s="114"/>
+      <c r="CB6" s="160"/>
     </row>
     <row r="7" spans="2:80">
       <c r="E7">
@@ -18028,58 +19298,58 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="115" t="s">
+      <c r="I12" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="115"/>
-      <c r="K12" s="115" t="s">
+      <c r="J12" s="157"/>
+      <c r="K12" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115" t="s">
+      <c r="L12" s="157"/>
+      <c r="M12" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115" t="s">
+      <c r="N12" s="157"/>
+      <c r="O12" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115" t="s">
+      <c r="P12" s="157"/>
+      <c r="Q12" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="115"/>
-      <c r="S12" s="115" t="s">
+      <c r="R12" s="157"/>
+      <c r="S12" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="115"/>
-      <c r="U12" s="115" t="s">
+      <c r="T12" s="157"/>
+      <c r="U12" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="115"/>
-      <c r="W12" s="115" t="s">
+      <c r="V12" s="157"/>
+      <c r="W12" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="115"/>
+      <c r="X12" s="157"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC12" s="115" t="s">
+      <c r="AC12" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AD12" s="115"/>
-      <c r="AE12" s="115" t="s">
+      <c r="AD12" s="157"/>
+      <c r="AE12" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="AF12" s="115"/>
-      <c r="AG12" s="115" t="s">
+      <c r="AF12" s="157"/>
+      <c r="AG12" s="157" t="s">
         <v>113</v>
       </c>
-      <c r="AH12" s="115"/>
-      <c r="AI12" s="115" t="s">
+      <c r="AH12" s="157"/>
+      <c r="AI12" s="157" t="s">
         <v>114</v>
       </c>
-      <c r="AJ12" s="115"/>
+      <c r="AJ12" s="157"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
@@ -18102,42 +19372,42 @@
       <c r="BH12" s="34"/>
       <c r="BI12" s="34"/>
       <c r="BJ12" s="34"/>
-      <c r="BK12" s="113" t="s">
+      <c r="BK12" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BL12" s="114"/>
-      <c r="BM12" s="113" t="s">
+      <c r="BL12" s="160"/>
+      <c r="BM12" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BN12" s="114"/>
-      <c r="BO12" s="113" t="s">
+      <c r="BN12" s="160"/>
+      <c r="BO12" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BP12" s="114"/>
-      <c r="BQ12" s="113" t="s">
+      <c r="BP12" s="160"/>
+      <c r="BQ12" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BR12" s="114"/>
-      <c r="BS12" s="113" t="s">
+      <c r="BR12" s="160"/>
+      <c r="BS12" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="BT12" s="114"/>
-      <c r="BU12" s="113" t="s">
+      <c r="BT12" s="160"/>
+      <c r="BU12" s="159" t="s">
         <v>112</v>
       </c>
-      <c r="BV12" s="114"/>
-      <c r="BW12" s="113" t="s">
+      <c r="BV12" s="160"/>
+      <c r="BW12" s="159" t="s">
         <v>113</v>
       </c>
-      <c r="BX12" s="114"/>
-      <c r="BY12" s="113" t="s">
+      <c r="BX12" s="160"/>
+      <c r="BY12" s="159" t="s">
         <v>114</v>
       </c>
-      <c r="BZ12" s="114"/>
-      <c r="CA12" s="113" t="s">
+      <c r="BZ12" s="160"/>
+      <c r="CA12" s="159" t="s">
         <v>111</v>
       </c>
-      <c r="CB12" s="114"/>
+      <c r="CB12" s="160"/>
     </row>
     <row r="13" spans="2:80">
       <c r="BX13" s="27"/>
@@ -18170,71 +19440,71 @@
         <v>120</v>
       </c>
       <c r="F16" s="34"/>
-      <c r="G16" s="119" t="s">
+      <c r="G16" s="164" t="s">
         <v>115</v>
       </c>
-      <c r="H16" s="119"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="119"/>
-      <c r="K16" s="119"/>
-      <c r="L16" s="119"/>
-      <c r="M16" s="119"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="119"/>
-      <c r="P16" s="119"/>
-      <c r="Q16" s="119"/>
-      <c r="R16" s="119"/>
-      <c r="S16" s="119"/>
-      <c r="T16" s="119"/>
-      <c r="U16" s="119"/>
-      <c r="V16" s="119"/>
-      <c r="W16" s="119"/>
-      <c r="X16" s="119"/>
-      <c r="Y16" s="119"/>
-      <c r="Z16" s="119"/>
-      <c r="AA16" s="119" t="s">
+      <c r="H16" s="164"/>
+      <c r="I16" s="164"/>
+      <c r="J16" s="164"/>
+      <c r="K16" s="164"/>
+      <c r="L16" s="164"/>
+      <c r="M16" s="164"/>
+      <c r="N16" s="164"/>
+      <c r="O16" s="164"/>
+      <c r="P16" s="164"/>
+      <c r="Q16" s="164"/>
+      <c r="R16" s="164"/>
+      <c r="S16" s="164"/>
+      <c r="T16" s="164"/>
+      <c r="U16" s="164"/>
+      <c r="V16" s="164"/>
+      <c r="W16" s="164"/>
+      <c r="X16" s="164"/>
+      <c r="Y16" s="164"/>
+      <c r="Z16" s="164"/>
+      <c r="AA16" s="164" t="s">
         <v>116</v>
       </c>
-      <c r="AB16" s="119"/>
-      <c r="AC16" s="119"/>
-      <c r="AD16" s="119"/>
-      <c r="AE16" s="119"/>
-      <c r="AF16" s="119"/>
-      <c r="AG16" s="119"/>
-      <c r="AH16" s="119"/>
-      <c r="AI16" s="119"/>
-      <c r="AJ16" s="119"/>
-      <c r="AK16" s="115" t="s">
+      <c r="AB16" s="164"/>
+      <c r="AC16" s="164"/>
+      <c r="AD16" s="164"/>
+      <c r="AE16" s="164"/>
+      <c r="AF16" s="164"/>
+      <c r="AG16" s="164"/>
+      <c r="AH16" s="164"/>
+      <c r="AI16" s="164"/>
+      <c r="AJ16" s="164"/>
+      <c r="AK16" s="157" t="s">
         <v>111</v>
       </c>
-      <c r="AL16" s="115"/>
-      <c r="AM16" s="115" t="s">
+      <c r="AL16" s="157"/>
+      <c r="AM16" s="157" t="s">
         <v>112</v>
       </c>
-      <c r="AN16" s="115"/>
-      <c r="AO16" s="115" t="s">
+      <c r="AN16" s="157"/>
+      <c r="AO16" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="AP16" s="115"/>
-      <c r="AQ16" s="115" t="s">
+      <c r="AP16" s="157"/>
+      <c r="AQ16" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="AR16" s="115"/>
-      <c r="AS16" s="116" t="s">
+      <c r="AR16" s="157"/>
+      <c r="AS16" s="161" t="s">
         <v>119</v>
       </c>
-      <c r="AT16" s="117"/>
-      <c r="AU16" s="117"/>
-      <c r="AV16" s="117"/>
-      <c r="AW16" s="117"/>
-      <c r="AX16" s="117"/>
-      <c r="AY16" s="117"/>
-      <c r="AZ16" s="117"/>
-      <c r="BA16" s="118"/>
-      <c r="BB16" s="115" t="s">
+      <c r="AT16" s="162"/>
+      <c r="AU16" s="162"/>
+      <c r="AV16" s="162"/>
+      <c r="AW16" s="162"/>
+      <c r="AX16" s="162"/>
+      <c r="AY16" s="162"/>
+      <c r="AZ16" s="162"/>
+      <c r="BA16" s="163"/>
+      <c r="BB16" s="157" t="s">
         <v>118</v>
       </c>
-      <c r="BC16" s="115"/>
+      <c r="BC16" s="157"/>
       <c r="BE16" s="38"/>
       <c r="BF16" s="38"/>
       <c r="BG16" s="38"/>
@@ -18783,18 +20053,73 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="BB16:BC16"/>
+    <mergeCell ref="BW12:BX12"/>
+    <mergeCell ref="BY12:BZ12"/>
+    <mergeCell ref="CA12:CB12"/>
+    <mergeCell ref="G16:Z16"/>
+    <mergeCell ref="AA16:AJ16"/>
+    <mergeCell ref="AK16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="AO16:AP16"/>
+    <mergeCell ref="AQ16:AR16"/>
+    <mergeCell ref="AS16:BA16"/>
+    <mergeCell ref="BK12:BL12"/>
+    <mergeCell ref="BM12:BN12"/>
+    <mergeCell ref="BO12:BP12"/>
+    <mergeCell ref="BQ12:BR12"/>
+    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="BU12:BV12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="W12:X12"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="BK6:BL6"/>
+    <mergeCell ref="BM6:BN6"/>
+    <mergeCell ref="BO6:BP6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="BU6:BV6"/>
+    <mergeCell ref="BW6:BX6"/>
+    <mergeCell ref="BY6:BZ6"/>
+    <mergeCell ref="CA6:CB6"/>
+    <mergeCell ref="BQ6:BR6"/>
+    <mergeCell ref="BS6:BT6"/>
+    <mergeCell ref="BU4:BV4"/>
+    <mergeCell ref="BW4:BX4"/>
+    <mergeCell ref="BY4:BZ4"/>
+    <mergeCell ref="CA4:CB4"/>
+    <mergeCell ref="BQ4:BR4"/>
+    <mergeCell ref="BS4:BT4"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="BK4:BL4"/>
+    <mergeCell ref="BM4:BN4"/>
+    <mergeCell ref="BO4:BP4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="W6:X6"/>
+    <mergeCell ref="AC6:AD6"/>
     <mergeCell ref="BU3:BV3"/>
     <mergeCell ref="BW3:BX3"/>
     <mergeCell ref="BY3:BZ3"/>
@@ -18811,73 +20136,18 @@
     <mergeCell ref="BO3:BP3"/>
     <mergeCell ref="BQ3:BR3"/>
     <mergeCell ref="BS3:BT3"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="BK4:BL4"/>
-    <mergeCell ref="BM4:BN4"/>
-    <mergeCell ref="BO4:BP4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="W6:X6"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="BU4:BV4"/>
-    <mergeCell ref="BW4:BX4"/>
-    <mergeCell ref="BY4:BZ4"/>
-    <mergeCell ref="CA4:CB4"/>
-    <mergeCell ref="BQ4:BR4"/>
-    <mergeCell ref="BS4:BT4"/>
-    <mergeCell ref="BU6:BV6"/>
-    <mergeCell ref="BW6:BX6"/>
-    <mergeCell ref="BY6:BZ6"/>
-    <mergeCell ref="CA6:CB6"/>
-    <mergeCell ref="BQ6:BR6"/>
-    <mergeCell ref="BS6:BT6"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="BK6:BL6"/>
-    <mergeCell ref="BM6:BN6"/>
-    <mergeCell ref="BO6:BP6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="BU12:BV12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="W12:X12"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="BB16:BC16"/>
-    <mergeCell ref="BW12:BX12"/>
-    <mergeCell ref="BY12:BZ12"/>
-    <mergeCell ref="CA12:CB12"/>
-    <mergeCell ref="G16:Z16"/>
-    <mergeCell ref="AA16:AJ16"/>
-    <mergeCell ref="AK16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="AO16:AP16"/>
-    <mergeCell ref="AQ16:AR16"/>
-    <mergeCell ref="AS16:BA16"/>
-    <mergeCell ref="BK12:BL12"/>
-    <mergeCell ref="BM12:BN12"/>
-    <mergeCell ref="BO12:BP12"/>
-    <mergeCell ref="BQ12:BR12"/>
-    <mergeCell ref="BS12:BT12"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19048,7 +20318,7 @@
       <c r="Q7" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="R7" s="121" t="s">
+      <c r="R7" s="165" t="s">
         <v>228</v>
       </c>
     </row>
@@ -19104,7 +20374,7 @@
       <c r="Q8" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="R8" s="121"/>
+      <c r="R8" s="165"/>
     </row>
     <row r="9" spans="1:28" ht="14.25">
       <c r="A9" s="50">
@@ -19158,7 +20428,7 @@
       <c r="Q9" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="R9" s="121" t="s">
+      <c r="R9" s="165" t="s">
         <v>229</v>
       </c>
     </row>
@@ -19214,7 +20484,7 @@
       <c r="Q10" s="65" t="s">
         <v>186</v>
       </c>
-      <c r="R10" s="121"/>
+      <c r="R10" s="165"/>
     </row>
     <row r="11" spans="1:28">
       <c r="AB11" s="110"/>
@@ -19335,1347 +20605,1347 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:Y21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.25" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="2" spans="2:25" ht="14.25" thickBot="1"/>
     <row r="3" spans="2:25" ht="14.25">
-      <c r="B3" s="125" t="s">
+      <c r="B3" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="C3" s="126">
+      <c r="C3" s="115">
         <v>10</v>
       </c>
-      <c r="D3" s="127">
+      <c r="D3" s="116">
         <v>16</v>
       </c>
-      <c r="E3" s="125" t="s">
+      <c r="E3" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="F3" s="126">
+      <c r="F3" s="115">
         <v>10</v>
       </c>
-      <c r="G3" s="127">
+      <c r="G3" s="116">
         <v>16</v>
       </c>
-      <c r="H3" s="125" t="s">
+      <c r="H3" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="I3" s="126">
+      <c r="I3" s="115">
         <v>10</v>
       </c>
-      <c r="J3" s="127">
+      <c r="J3" s="116">
         <v>16</v>
       </c>
-      <c r="K3" s="125" t="s">
+      <c r="K3" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="L3" s="126">
+      <c r="L3" s="115">
         <v>10</v>
       </c>
-      <c r="M3" s="127">
+      <c r="M3" s="116">
         <v>16</v>
       </c>
-      <c r="N3" s="125" t="s">
+      <c r="N3" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="O3" s="126">
+      <c r="O3" s="115">
         <v>10</v>
       </c>
-      <c r="P3" s="127">
+      <c r="P3" s="116">
         <v>16</v>
       </c>
-      <c r="Q3" s="125" t="s">
+      <c r="Q3" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="R3" s="126">
+      <c r="R3" s="115">
         <v>10</v>
       </c>
-      <c r="S3" s="127">
+      <c r="S3" s="116">
         <v>16</v>
       </c>
-      <c r="T3" s="125" t="s">
+      <c r="T3" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="U3" s="126">
+      <c r="U3" s="115">
         <v>10</v>
       </c>
-      <c r="V3" s="127">
+      <c r="V3" s="116">
         <v>16</v>
       </c>
-      <c r="W3" s="125" t="s">
+      <c r="W3" s="114" t="s">
         <v>238</v>
       </c>
-      <c r="X3" s="126">
+      <c r="X3" s="115">
         <v>10</v>
       </c>
-      <c r="Y3" s="127">
+      <c r="Y3" s="116">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="15" thickBot="1">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="122" t="s">
+      <c r="C4" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="D4" s="129" t="s">
+      <c r="D4" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="E4" s="128" t="s">
+      <c r="E4" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="H4" s="128" t="s">
+      <c r="H4" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="I4" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="J4" s="129" t="s">
+      <c r="J4" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="K4" s="128" t="s">
+      <c r="K4" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="L4" s="122" t="s">
+      <c r="L4" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="M4" s="129" t="s">
+      <c r="M4" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="N4" s="128" t="s">
+      <c r="N4" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="O4" s="122" t="s">
+      <c r="O4" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="P4" s="129" t="s">
+      <c r="P4" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="Q4" s="128" t="s">
+      <c r="Q4" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="R4" s="122" t="s">
+      <c r="R4" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="S4" s="129" t="s">
+      <c r="S4" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="T4" s="128" t="s">
+      <c r="T4" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="U4" s="122" t="s">
+      <c r="U4" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="V4" s="129" t="s">
+      <c r="V4" s="118" t="s">
         <v>240</v>
       </c>
-      <c r="W4" s="128" t="s">
+      <c r="W4" s="117" t="s">
         <v>239</v>
       </c>
-      <c r="X4" s="122" t="s">
+      <c r="X4" s="111" t="s">
         <v>240</v>
       </c>
-      <c r="Y4" s="129" t="s">
+      <c r="Y4" s="118" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="5" spans="2:25" ht="15" thickBot="1">
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="119" t="s">
         <v>241</v>
       </c>
-      <c r="C5" s="123">
+      <c r="C5" s="112">
         <v>0</v>
       </c>
-      <c r="D5" s="131">
+      <c r="D5" s="120">
         <v>0</v>
       </c>
-      <c r="E5" s="132" t="s">
+      <c r="E5" s="121" t="s">
         <v>263</v>
       </c>
-      <c r="F5" s="124">
+      <c r="F5" s="113">
         <v>16</v>
       </c>
-      <c r="G5" s="133">
+      <c r="G5" s="122">
         <v>10</v>
       </c>
-      <c r="H5" s="145" t="s">
+      <c r="H5" s="134" t="s">
         <v>285</v>
       </c>
-      <c r="I5" s="140">
+      <c r="I5" s="129">
         <v>32</v>
       </c>
-      <c r="J5" s="146">
+      <c r="J5" s="135">
         <v>20</v>
       </c>
-      <c r="K5" s="147">
+      <c r="K5" s="136">
         <v>0</v>
       </c>
-      <c r="L5" s="141">
+      <c r="L5" s="130">
         <v>48</v>
       </c>
-      <c r="M5" s="148">
+      <c r="M5" s="137">
         <v>30</v>
       </c>
-      <c r="N5" s="153" t="s">
+      <c r="N5" s="142" t="s">
         <v>319</v>
       </c>
-      <c r="O5" s="144">
+      <c r="O5" s="133">
         <v>64</v>
       </c>
-      <c r="P5" s="154">
+      <c r="P5" s="143">
         <v>40</v>
       </c>
-      <c r="Q5" s="147" t="s">
+      <c r="Q5" s="136" t="s">
         <v>341</v>
       </c>
-      <c r="R5" s="141">
+      <c r="R5" s="130">
         <v>80</v>
       </c>
-      <c r="S5" s="148">
+      <c r="S5" s="137">
         <v>50</v>
       </c>
-      <c r="T5" s="153" t="s">
+      <c r="T5" s="142" t="s">
         <v>363</v>
       </c>
-      <c r="U5" s="144">
+      <c r="U5" s="133">
         <v>96</v>
       </c>
-      <c r="V5" s="154">
+      <c r="V5" s="143">
         <v>60</v>
       </c>
-      <c r="W5" s="147" t="s">
+      <c r="W5" s="136" t="s">
         <v>385</v>
       </c>
-      <c r="X5" s="141">
+      <c r="X5" s="130">
         <v>112</v>
       </c>
-      <c r="Y5" s="148">
+      <c r="Y5" s="137">
         <v>70</v>
       </c>
     </row>
     <row r="6" spans="2:25" ht="15" thickBot="1">
-      <c r="B6" s="132" t="s">
+      <c r="B6" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="C6" s="124">
+      <c r="C6" s="113">
         <v>1</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="122">
         <v>1</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="119" t="s">
         <v>264</v>
       </c>
-      <c r="F6" s="123">
+      <c r="F6" s="112">
         <v>17</v>
       </c>
-      <c r="G6" s="131">
+      <c r="G6" s="120">
         <v>11</v>
       </c>
-      <c r="H6" s="147" t="s">
+      <c r="H6" s="136" t="s">
         <v>286</v>
       </c>
-      <c r="I6" s="141">
+      <c r="I6" s="130">
         <v>33</v>
       </c>
-      <c r="J6" s="148">
+      <c r="J6" s="137">
         <v>21</v>
       </c>
-      <c r="K6" s="149">
+      <c r="K6" s="138">
         <v>1</v>
       </c>
-      <c r="L6" s="142">
+      <c r="L6" s="131">
         <v>49</v>
       </c>
-      <c r="M6" s="150">
+      <c r="M6" s="139">
         <v>31</v>
       </c>
-      <c r="N6" s="147" t="s">
+      <c r="N6" s="136" t="s">
         <v>320</v>
       </c>
-      <c r="O6" s="141">
+      <c r="O6" s="130">
         <v>65</v>
       </c>
-      <c r="P6" s="148">
+      <c r="P6" s="137">
         <v>41</v>
       </c>
-      <c r="Q6" s="149" t="s">
+      <c r="Q6" s="138" t="s">
         <v>342</v>
       </c>
-      <c r="R6" s="142">
+      <c r="R6" s="131">
         <v>81</v>
       </c>
-      <c r="S6" s="150">
+      <c r="S6" s="139">
         <v>51</v>
       </c>
-      <c r="T6" s="147" t="s">
+      <c r="T6" s="136" t="s">
         <v>364</v>
       </c>
-      <c r="U6" s="141">
+      <c r="U6" s="130">
         <v>97</v>
       </c>
-      <c r="V6" s="148">
+      <c r="V6" s="137">
         <v>61</v>
       </c>
-      <c r="W6" s="149" t="s">
+      <c r="W6" s="138" t="s">
         <v>386</v>
       </c>
-      <c r="X6" s="142">
+      <c r="X6" s="131">
         <v>113</v>
       </c>
-      <c r="Y6" s="150">
+      <c r="Y6" s="139">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="15" thickBot="1">
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="C7" s="123">
+      <c r="C7" s="112">
         <v>2</v>
       </c>
-      <c r="D7" s="131">
+      <c r="D7" s="120">
         <v>2</v>
       </c>
-      <c r="E7" s="132" t="s">
+      <c r="E7" s="121" t="s">
         <v>265</v>
       </c>
-      <c r="F7" s="124">
+      <c r="F7" s="113">
         <v>18</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="122">
         <v>12</v>
       </c>
-      <c r="H7" s="149" t="s">
+      <c r="H7" s="138" t="s">
         <v>287</v>
       </c>
-      <c r="I7" s="142">
+      <c r="I7" s="131">
         <v>34</v>
       </c>
-      <c r="J7" s="150">
+      <c r="J7" s="139">
         <v>22</v>
       </c>
-      <c r="K7" s="147">
+      <c r="K7" s="136">
         <v>2</v>
       </c>
-      <c r="L7" s="141">
+      <c r="L7" s="130">
         <v>50</v>
       </c>
-      <c r="M7" s="148">
+      <c r="M7" s="137">
         <v>32</v>
       </c>
-      <c r="N7" s="149" t="s">
+      <c r="N7" s="138" t="s">
         <v>321</v>
       </c>
-      <c r="O7" s="142">
+      <c r="O7" s="131">
         <v>66</v>
       </c>
-      <c r="P7" s="150">
+      <c r="P7" s="139">
         <v>42</v>
       </c>
-      <c r="Q7" s="147" t="s">
+      <c r="Q7" s="136" t="s">
         <v>343</v>
       </c>
-      <c r="R7" s="141">
+      <c r="R7" s="130">
         <v>82</v>
       </c>
-      <c r="S7" s="148">
+      <c r="S7" s="137">
         <v>52</v>
       </c>
-      <c r="T7" s="149" t="s">
+      <c r="T7" s="138" t="s">
         <v>365</v>
       </c>
-      <c r="U7" s="142">
+      <c r="U7" s="131">
         <v>98</v>
       </c>
-      <c r="V7" s="150">
+      <c r="V7" s="139">
         <v>62</v>
       </c>
-      <c r="W7" s="147" t="s">
+      <c r="W7" s="136" t="s">
         <v>387</v>
       </c>
-      <c r="X7" s="141">
+      <c r="X7" s="130">
         <v>114</v>
       </c>
-      <c r="Y7" s="148">
+      <c r="Y7" s="137">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="15" thickBot="1">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="121" t="s">
         <v>244</v>
       </c>
-      <c r="C8" s="124">
+      <c r="C8" s="113">
         <v>3</v>
       </c>
-      <c r="D8" s="133">
+      <c r="D8" s="122">
         <v>3</v>
       </c>
-      <c r="E8" s="130" t="s">
+      <c r="E8" s="119" t="s">
         <v>266</v>
       </c>
-      <c r="F8" s="123">
+      <c r="F8" s="112">
         <v>19</v>
       </c>
-      <c r="G8" s="131">
+      <c r="G8" s="120">
         <v>13</v>
       </c>
-      <c r="H8" s="151" t="s">
+      <c r="H8" s="140" t="s">
         <v>288</v>
       </c>
-      <c r="I8" s="143">
+      <c r="I8" s="132">
         <v>35</v>
       </c>
-      <c r="J8" s="152">
+      <c r="J8" s="141">
         <v>23</v>
       </c>
-      <c r="K8" s="149">
+      <c r="K8" s="138">
         <v>3</v>
       </c>
-      <c r="L8" s="142">
+      <c r="L8" s="131">
         <v>51</v>
       </c>
-      <c r="M8" s="150">
+      <c r="M8" s="139">
         <v>33</v>
       </c>
-      <c r="N8" s="147" t="s">
+      <c r="N8" s="136" t="s">
         <v>322</v>
       </c>
-      <c r="O8" s="141">
+      <c r="O8" s="130">
         <v>67</v>
       </c>
-      <c r="P8" s="148">
+      <c r="P8" s="137">
         <v>43</v>
       </c>
-      <c r="Q8" s="149" t="s">
+      <c r="Q8" s="138" t="s">
         <v>344</v>
       </c>
-      <c r="R8" s="142">
+      <c r="R8" s="131">
         <v>83</v>
       </c>
-      <c r="S8" s="150">
+      <c r="S8" s="139">
         <v>53</v>
       </c>
-      <c r="T8" s="147" t="s">
+      <c r="T8" s="136" t="s">
         <v>366</v>
       </c>
-      <c r="U8" s="141">
+      <c r="U8" s="130">
         <v>99</v>
       </c>
-      <c r="V8" s="148">
+      <c r="V8" s="137">
         <v>63</v>
       </c>
-      <c r="W8" s="149" t="s">
+      <c r="W8" s="138" t="s">
         <v>388</v>
       </c>
-      <c r="X8" s="142">
+      <c r="X8" s="131">
         <v>115</v>
       </c>
-      <c r="Y8" s="150">
+      <c r="Y8" s="139">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="2:25" ht="15" thickBot="1">
-      <c r="B9" s="130" t="s">
+      <c r="B9" s="119" t="s">
         <v>245</v>
       </c>
-      <c r="C9" s="123">
+      <c r="C9" s="112">
         <v>4</v>
       </c>
-      <c r="D9" s="131">
+      <c r="D9" s="120">
         <v>4</v>
       </c>
-      <c r="E9" s="132" t="s">
+      <c r="E9" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="F9" s="124">
+      <c r="F9" s="113">
         <v>20</v>
       </c>
-      <c r="G9" s="133">
+      <c r="G9" s="122">
         <v>14</v>
       </c>
-      <c r="H9" s="153" t="s">
+      <c r="H9" s="142" t="s">
         <v>289</v>
       </c>
-      <c r="I9" s="144">
+      <c r="I9" s="133">
         <v>36</v>
       </c>
-      <c r="J9" s="154">
+      <c r="J9" s="143">
         <v>24</v>
       </c>
-      <c r="K9" s="147">
+      <c r="K9" s="136">
         <v>4</v>
       </c>
-      <c r="L9" s="141">
+      <c r="L9" s="130">
         <v>52</v>
       </c>
-      <c r="M9" s="148">
+      <c r="M9" s="137">
         <v>34</v>
       </c>
-      <c r="N9" s="149" t="s">
+      <c r="N9" s="138" t="s">
         <v>323</v>
       </c>
-      <c r="O9" s="142">
+      <c r="O9" s="131">
         <v>68</v>
       </c>
-      <c r="P9" s="150">
+      <c r="P9" s="139">
         <v>44</v>
       </c>
-      <c r="Q9" s="147" t="s">
+      <c r="Q9" s="136" t="s">
         <v>345</v>
       </c>
-      <c r="R9" s="141">
+      <c r="R9" s="130">
         <v>84</v>
       </c>
-      <c r="S9" s="148">
+      <c r="S9" s="137">
         <v>54</v>
       </c>
-      <c r="T9" s="149" t="s">
+      <c r="T9" s="138" t="s">
         <v>367</v>
       </c>
-      <c r="U9" s="142">
+      <c r="U9" s="131">
         <v>100</v>
       </c>
-      <c r="V9" s="150">
+      <c r="V9" s="139">
         <v>64</v>
       </c>
-      <c r="W9" s="147" t="s">
+      <c r="W9" s="136" t="s">
         <v>389</v>
       </c>
-      <c r="X9" s="141">
+      <c r="X9" s="130">
         <v>116</v>
       </c>
-      <c r="Y9" s="148">
+      <c r="Y9" s="137">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="2:25" ht="15" thickBot="1">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="121" t="s">
         <v>246</v>
       </c>
-      <c r="C10" s="124">
+      <c r="C10" s="113">
         <v>5</v>
       </c>
-      <c r="D10" s="133">
+      <c r="D10" s="122">
         <v>5</v>
       </c>
-      <c r="E10" s="130" t="s">
+      <c r="E10" s="119" t="s">
         <v>268</v>
       </c>
-      <c r="F10" s="123">
+      <c r="F10" s="112">
         <v>21</v>
       </c>
-      <c r="G10" s="131">
+      <c r="G10" s="120">
         <v>15</v>
       </c>
-      <c r="H10" s="147" t="s">
+      <c r="H10" s="136" t="s">
         <v>290</v>
       </c>
-      <c r="I10" s="141">
+      <c r="I10" s="130">
         <v>37</v>
       </c>
-      <c r="J10" s="148">
+      <c r="J10" s="137">
         <v>25</v>
       </c>
-      <c r="K10" s="149">
+      <c r="K10" s="138">
         <v>5</v>
       </c>
-      <c r="L10" s="142">
+      <c r="L10" s="131">
         <v>53</v>
       </c>
-      <c r="M10" s="150">
+      <c r="M10" s="139">
         <v>35</v>
       </c>
-      <c r="N10" s="147" t="s">
+      <c r="N10" s="136" t="s">
         <v>324</v>
       </c>
-      <c r="O10" s="141">
+      <c r="O10" s="130">
         <v>69</v>
       </c>
-      <c r="P10" s="148">
+      <c r="P10" s="137">
         <v>45</v>
       </c>
-      <c r="Q10" s="149" t="s">
+      <c r="Q10" s="138" t="s">
         <v>346</v>
       </c>
-      <c r="R10" s="142">
+      <c r="R10" s="131">
         <v>85</v>
       </c>
-      <c r="S10" s="150">
+      <c r="S10" s="139">
         <v>55</v>
       </c>
-      <c r="T10" s="147" t="s">
+      <c r="T10" s="136" t="s">
         <v>368</v>
       </c>
-      <c r="U10" s="141">
+      <c r="U10" s="130">
         <v>101</v>
       </c>
-      <c r="V10" s="148">
+      <c r="V10" s="137">
         <v>65</v>
       </c>
-      <c r="W10" s="149" t="s">
+      <c r="W10" s="138" t="s">
         <v>390</v>
       </c>
-      <c r="X10" s="142">
+      <c r="X10" s="131">
         <v>117</v>
       </c>
-      <c r="Y10" s="150">
+      <c r="Y10" s="139">
         <v>75</v>
       </c>
     </row>
     <row r="11" spans="2:25" ht="15" thickBot="1">
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="119" t="s">
         <v>247</v>
       </c>
-      <c r="C11" s="123">
+      <c r="C11" s="112">
         <v>6</v>
       </c>
-      <c r="D11" s="131">
+      <c r="D11" s="120">
         <v>6</v>
       </c>
-      <c r="E11" s="132" t="s">
+      <c r="E11" s="121" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="124">
+      <c r="F11" s="113">
         <v>22</v>
       </c>
-      <c r="G11" s="133">
+      <c r="G11" s="122">
         <v>16</v>
       </c>
-      <c r="H11" s="149" t="s">
+      <c r="H11" s="138" t="s">
         <v>291</v>
       </c>
-      <c r="I11" s="142">
+      <c r="I11" s="131">
         <v>38</v>
       </c>
-      <c r="J11" s="150">
+      <c r="J11" s="139">
         <v>26</v>
       </c>
-      <c r="K11" s="147">
+      <c r="K11" s="136">
         <v>6</v>
       </c>
-      <c r="L11" s="141">
+      <c r="L11" s="130">
         <v>54</v>
       </c>
-      <c r="M11" s="148">
+      <c r="M11" s="137">
         <v>36</v>
       </c>
-      <c r="N11" s="149" t="s">
+      <c r="N11" s="138" t="s">
         <v>325</v>
       </c>
-      <c r="O11" s="142">
+      <c r="O11" s="131">
         <v>70</v>
       </c>
-      <c r="P11" s="150">
+      <c r="P11" s="139">
         <v>46</v>
       </c>
-      <c r="Q11" s="147" t="s">
+      <c r="Q11" s="136" t="s">
         <v>347</v>
       </c>
-      <c r="R11" s="141">
+      <c r="R11" s="130">
         <v>86</v>
       </c>
-      <c r="S11" s="148">
+      <c r="S11" s="137">
         <v>56</v>
       </c>
-      <c r="T11" s="149" t="s">
+      <c r="T11" s="138" t="s">
         <v>369</v>
       </c>
-      <c r="U11" s="142">
+      <c r="U11" s="131">
         <v>102</v>
       </c>
-      <c r="V11" s="150">
+      <c r="V11" s="139">
         <v>66</v>
       </c>
-      <c r="W11" s="147" t="s">
+      <c r="W11" s="136" t="s">
         <v>391</v>
       </c>
-      <c r="X11" s="141">
+      <c r="X11" s="130">
         <v>118</v>
       </c>
-      <c r="Y11" s="148">
+      <c r="Y11" s="137">
         <v>76</v>
       </c>
     </row>
     <row r="12" spans="2:25" ht="15" thickBot="1">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="121" t="s">
         <v>248</v>
       </c>
-      <c r="C12" s="124">
+      <c r="C12" s="113">
         <v>7</v>
       </c>
-      <c r="D12" s="133">
+      <c r="D12" s="122">
         <v>7</v>
       </c>
-      <c r="E12" s="130" t="s">
+      <c r="E12" s="119" t="s">
         <v>270</v>
       </c>
-      <c r="F12" s="123">
+      <c r="F12" s="112">
         <v>23</v>
       </c>
-      <c r="G12" s="131">
+      <c r="G12" s="120">
         <v>17</v>
       </c>
-      <c r="H12" s="147" t="s">
+      <c r="H12" s="136" t="s">
         <v>292</v>
       </c>
-      <c r="I12" s="141">
+      <c r="I12" s="130">
         <v>39</v>
       </c>
-      <c r="J12" s="148">
+      <c r="J12" s="137">
         <v>27</v>
       </c>
-      <c r="K12" s="149">
+      <c r="K12" s="138">
         <v>7</v>
       </c>
-      <c r="L12" s="142">
+      <c r="L12" s="131">
         <v>55</v>
       </c>
-      <c r="M12" s="150">
+      <c r="M12" s="139">
         <v>37</v>
       </c>
-      <c r="N12" s="147" t="s">
+      <c r="N12" s="136" t="s">
         <v>326</v>
       </c>
-      <c r="O12" s="141">
+      <c r="O12" s="130">
         <v>71</v>
       </c>
-      <c r="P12" s="148">
+      <c r="P12" s="137">
         <v>47</v>
       </c>
-      <c r="Q12" s="149" t="s">
+      <c r="Q12" s="138" t="s">
         <v>348</v>
       </c>
-      <c r="R12" s="142">
+      <c r="R12" s="131">
         <v>87</v>
       </c>
-      <c r="S12" s="150">
+      <c r="S12" s="139">
         <v>57</v>
       </c>
-      <c r="T12" s="147" t="s">
+      <c r="T12" s="136" t="s">
         <v>370</v>
       </c>
-      <c r="U12" s="141">
+      <c r="U12" s="130">
         <v>103</v>
       </c>
-      <c r="V12" s="148">
+      <c r="V12" s="137">
         <v>67</v>
       </c>
-      <c r="W12" s="149" t="s">
+      <c r="W12" s="138" t="s">
         <v>392</v>
       </c>
-      <c r="X12" s="142">
+      <c r="X12" s="131">
         <v>119</v>
       </c>
-      <c r="Y12" s="150">
+      <c r="Y12" s="139">
         <v>77</v>
       </c>
     </row>
     <row r="13" spans="2:25" ht="15" thickBot="1">
-      <c r="B13" s="130" t="s">
+      <c r="B13" s="119" t="s">
         <v>249</v>
       </c>
-      <c r="C13" s="123">
+      <c r="C13" s="112">
         <v>8</v>
       </c>
-      <c r="D13" s="131">
+      <c r="D13" s="120">
         <v>8</v>
       </c>
-      <c r="E13" s="132" t="s">
+      <c r="E13" s="121" t="s">
         <v>271</v>
       </c>
-      <c r="F13" s="124">
+      <c r="F13" s="113">
         <v>24</v>
       </c>
-      <c r="G13" s="133">
+      <c r="G13" s="122">
         <v>18</v>
       </c>
-      <c r="H13" s="149" t="s">
+      <c r="H13" s="138" t="s">
         <v>293</v>
       </c>
-      <c r="I13" s="142">
+      <c r="I13" s="131">
         <v>40</v>
       </c>
-      <c r="J13" s="150">
+      <c r="J13" s="139">
         <v>28</v>
       </c>
-      <c r="K13" s="147">
+      <c r="K13" s="136">
         <v>8</v>
       </c>
-      <c r="L13" s="141">
+      <c r="L13" s="130">
         <v>56</v>
       </c>
-      <c r="M13" s="148">
+      <c r="M13" s="137">
         <v>38</v>
       </c>
-      <c r="N13" s="149" t="s">
+      <c r="N13" s="138" t="s">
         <v>327</v>
       </c>
-      <c r="O13" s="142">
+      <c r="O13" s="131">
         <v>72</v>
       </c>
-      <c r="P13" s="150">
+      <c r="P13" s="139">
         <v>48</v>
       </c>
-      <c r="Q13" s="147" t="s">
+      <c r="Q13" s="136" t="s">
         <v>349</v>
       </c>
-      <c r="R13" s="141">
+      <c r="R13" s="130">
         <v>88</v>
       </c>
-      <c r="S13" s="148">
+      <c r="S13" s="137">
         <v>58</v>
       </c>
-      <c r="T13" s="149" t="s">
+      <c r="T13" s="138" t="s">
         <v>371</v>
       </c>
-      <c r="U13" s="142">
+      <c r="U13" s="131">
         <v>104</v>
       </c>
-      <c r="V13" s="150">
+      <c r="V13" s="139">
         <v>68</v>
       </c>
-      <c r="W13" s="147" t="s">
+      <c r="W13" s="136" t="s">
         <v>393</v>
       </c>
-      <c r="X13" s="141">
+      <c r="X13" s="130">
         <v>120</v>
       </c>
-      <c r="Y13" s="148">
+      <c r="Y13" s="137">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:25" ht="15" thickBot="1">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="121" t="s">
         <v>250</v>
       </c>
-      <c r="C14" s="124">
+      <c r="C14" s="113">
         <v>9</v>
       </c>
-      <c r="D14" s="133">
+      <c r="D14" s="122">
         <v>9</v>
       </c>
-      <c r="E14" s="130" t="s">
+      <c r="E14" s="119" t="s">
         <v>272</v>
       </c>
-      <c r="F14" s="123">
+      <c r="F14" s="112">
         <v>25</v>
       </c>
-      <c r="G14" s="131">
+      <c r="G14" s="120">
         <v>19</v>
       </c>
-      <c r="H14" s="147" t="s">
+      <c r="H14" s="136" t="s">
         <v>294</v>
       </c>
-      <c r="I14" s="141">
+      <c r="I14" s="130">
         <v>41</v>
       </c>
-      <c r="J14" s="148">
+      <c r="J14" s="137">
         <v>29</v>
       </c>
-      <c r="K14" s="149">
+      <c r="K14" s="138">
         <v>9</v>
       </c>
-      <c r="L14" s="142">
+      <c r="L14" s="131">
         <v>57</v>
       </c>
-      <c r="M14" s="150">
+      <c r="M14" s="139">
         <v>39</v>
       </c>
-      <c r="N14" s="147" t="s">
+      <c r="N14" s="136" t="s">
         <v>328</v>
       </c>
-      <c r="O14" s="141">
+      <c r="O14" s="130">
         <v>73</v>
       </c>
-      <c r="P14" s="148">
+      <c r="P14" s="137">
         <v>49</v>
       </c>
-      <c r="Q14" s="149" t="s">
+      <c r="Q14" s="138" t="s">
         <v>350</v>
       </c>
-      <c r="R14" s="142">
+      <c r="R14" s="131">
         <v>89</v>
       </c>
-      <c r="S14" s="150">
+      <c r="S14" s="139">
         <v>59</v>
       </c>
-      <c r="T14" s="147" t="s">
+      <c r="T14" s="136" t="s">
         <v>372</v>
       </c>
-      <c r="U14" s="141">
+      <c r="U14" s="130">
         <v>105</v>
       </c>
-      <c r="V14" s="148">
+      <c r="V14" s="137">
         <v>69</v>
       </c>
-      <c r="W14" s="149" t="s">
+      <c r="W14" s="138" t="s">
         <v>394</v>
       </c>
-      <c r="X14" s="142">
+      <c r="X14" s="131">
         <v>121</v>
       </c>
-      <c r="Y14" s="150">
+      <c r="Y14" s="139">
         <v>79</v>
       </c>
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1">
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="119" t="s">
         <v>251</v>
       </c>
-      <c r="C15" s="123">
+      <c r="C15" s="112">
         <v>10</v>
       </c>
-      <c r="D15" s="131" t="s">
+      <c r="D15" s="120" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="132" t="s">
+      <c r="E15" s="121" t="s">
         <v>273</v>
       </c>
-      <c r="F15" s="124">
+      <c r="F15" s="113">
         <v>26</v>
       </c>
-      <c r="G15" s="133" t="s">
+      <c r="G15" s="122" t="s">
         <v>274</v>
       </c>
-      <c r="H15" s="149" t="s">
+      <c r="H15" s="138" t="s">
         <v>295</v>
       </c>
-      <c r="I15" s="142">
+      <c r="I15" s="131">
         <v>42</v>
       </c>
-      <c r="J15" s="150" t="s">
+      <c r="J15" s="139" t="s">
         <v>296</v>
       </c>
-      <c r="K15" s="147" t="s">
+      <c r="K15" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="L15" s="141">
+      <c r="L15" s="130">
         <v>58</v>
       </c>
-      <c r="M15" s="148" t="s">
+      <c r="M15" s="137" t="s">
         <v>308</v>
       </c>
-      <c r="N15" s="149" t="s">
+      <c r="N15" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="O15" s="142">
+      <c r="O15" s="131">
         <v>74</v>
       </c>
-      <c r="P15" s="150" t="s">
+      <c r="P15" s="139" t="s">
         <v>330</v>
       </c>
-      <c r="Q15" s="147" t="s">
+      <c r="Q15" s="136" t="s">
         <v>351</v>
       </c>
-      <c r="R15" s="141">
+      <c r="R15" s="130">
         <v>90</v>
       </c>
-      <c r="S15" s="148" t="s">
+      <c r="S15" s="137" t="s">
         <v>352</v>
       </c>
-      <c r="T15" s="149" t="s">
+      <c r="T15" s="138" t="s">
         <v>373</v>
       </c>
-      <c r="U15" s="142">
+      <c r="U15" s="131">
         <v>106</v>
       </c>
-      <c r="V15" s="150" t="s">
+      <c r="V15" s="139" t="s">
         <v>374</v>
       </c>
-      <c r="W15" s="147" t="s">
+      <c r="W15" s="136" t="s">
         <v>395</v>
       </c>
-      <c r="X15" s="141">
+      <c r="X15" s="130">
         <v>122</v>
       </c>
-      <c r="Y15" s="148" t="s">
+      <c r="Y15" s="137" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="121" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="124">
+      <c r="C16" s="113">
         <v>11</v>
       </c>
-      <c r="D16" s="133" t="s">
+      <c r="D16" s="122" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="130" t="s">
+      <c r="E16" s="119" t="s">
         <v>275</v>
       </c>
-      <c r="F16" s="123">
+      <c r="F16" s="112">
         <v>27</v>
       </c>
-      <c r="G16" s="131" t="s">
+      <c r="G16" s="120" t="s">
         <v>276</v>
       </c>
-      <c r="H16" s="147" t="s">
+      <c r="H16" s="136" t="s">
         <v>297</v>
       </c>
-      <c r="I16" s="141">
+      <c r="I16" s="130">
         <v>43</v>
       </c>
-      <c r="J16" s="148" t="s">
+      <c r="J16" s="137" t="s">
         <v>298</v>
       </c>
-      <c r="K16" s="149" t="s">
+      <c r="K16" s="138" t="s">
         <v>309</v>
       </c>
-      <c r="L16" s="142">
+      <c r="L16" s="131">
         <v>59</v>
       </c>
-      <c r="M16" s="150" t="s">
+      <c r="M16" s="139" t="s">
         <v>310</v>
       </c>
-      <c r="N16" s="147" t="s">
+      <c r="N16" s="136" t="s">
         <v>331</v>
       </c>
-      <c r="O16" s="141">
+      <c r="O16" s="130">
         <v>75</v>
       </c>
-      <c r="P16" s="148" t="s">
+      <c r="P16" s="137" t="s">
         <v>332</v>
       </c>
-      <c r="Q16" s="153" t="s">
+      <c r="Q16" s="142" t="s">
         <v>353</v>
       </c>
-      <c r="R16" s="144">
+      <c r="R16" s="133">
         <v>91</v>
       </c>
-      <c r="S16" s="154" t="s">
+      <c r="S16" s="143" t="s">
         <v>354</v>
       </c>
-      <c r="T16" s="147" t="s">
+      <c r="T16" s="136" t="s">
         <v>375</v>
       </c>
-      <c r="U16" s="141">
+      <c r="U16" s="130">
         <v>107</v>
       </c>
-      <c r="V16" s="148" t="s">
+      <c r="V16" s="137" t="s">
         <v>376</v>
       </c>
-      <c r="W16" s="153" t="s">
+      <c r="W16" s="142" t="s">
         <v>397</v>
       </c>
-      <c r="X16" s="144">
+      <c r="X16" s="133">
         <v>123</v>
       </c>
-      <c r="Y16" s="154" t="s">
+      <c r="Y16" s="143" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="17" spans="2:25" ht="15" thickBot="1">
-      <c r="B17" s="130" t="s">
+      <c r="B17" s="119" t="s">
         <v>255</v>
       </c>
-      <c r="C17" s="123">
+      <c r="C17" s="112">
         <v>12</v>
       </c>
-      <c r="D17" s="131" t="s">
+      <c r="D17" s="120" t="s">
         <v>256</v>
       </c>
-      <c r="E17" s="132" t="s">
+      <c r="E17" s="121" t="s">
         <v>277</v>
       </c>
-      <c r="F17" s="124">
+      <c r="F17" s="113">
         <v>28</v>
       </c>
-      <c r="G17" s="133" t="s">
+      <c r="G17" s="122" t="s">
         <v>278</v>
       </c>
-      <c r="H17" s="149" t="s">
+      <c r="H17" s="138" t="s">
         <v>299</v>
       </c>
-      <c r="I17" s="142">
+      <c r="I17" s="131">
         <v>44</v>
       </c>
-      <c r="J17" s="150" t="s">
+      <c r="J17" s="139" t="s">
         <v>300</v>
       </c>
-      <c r="K17" s="147" t="s">
+      <c r="K17" s="136" t="s">
         <v>311</v>
       </c>
-      <c r="L17" s="141">
+      <c r="L17" s="130">
         <v>60</v>
       </c>
-      <c r="M17" s="148" t="s">
+      <c r="M17" s="137" t="s">
         <v>312</v>
       </c>
-      <c r="N17" s="149" t="s">
+      <c r="N17" s="138" t="s">
         <v>333</v>
       </c>
-      <c r="O17" s="142">
+      <c r="O17" s="131">
         <v>76</v>
       </c>
-      <c r="P17" s="150" t="s">
+      <c r="P17" s="139" t="s">
         <v>334</v>
       </c>
-      <c r="Q17" s="151" t="s">
+      <c r="Q17" s="140" t="s">
         <v>355</v>
       </c>
-      <c r="R17" s="143">
+      <c r="R17" s="132">
         <v>92</v>
       </c>
-      <c r="S17" s="152" t="s">
+      <c r="S17" s="141" t="s">
         <v>356</v>
       </c>
-      <c r="T17" s="149" t="s">
+      <c r="T17" s="138" t="s">
         <v>377</v>
       </c>
-      <c r="U17" s="142">
+      <c r="U17" s="131">
         <v>108</v>
       </c>
-      <c r="V17" s="150" t="s">
+      <c r="V17" s="139" t="s">
         <v>378</v>
       </c>
-      <c r="W17" s="151" t="s">
+      <c r="W17" s="140" t="s">
         <v>399</v>
       </c>
-      <c r="X17" s="143">
+      <c r="X17" s="132">
         <v>124</v>
       </c>
-      <c r="Y17" s="152" t="s">
+      <c r="Y17" s="141" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="18" spans="2:25" ht="15" thickBot="1">
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="121" t="s">
         <v>257</v>
       </c>
-      <c r="C18" s="124">
+      <c r="C18" s="113">
         <v>13</v>
       </c>
-      <c r="D18" s="133" t="s">
+      <c r="D18" s="122" t="s">
         <v>258</v>
       </c>
-      <c r="E18" s="130" t="s">
+      <c r="E18" s="119" t="s">
         <v>279</v>
       </c>
-      <c r="F18" s="123">
+      <c r="F18" s="112">
         <v>29</v>
       </c>
-      <c r="G18" s="131" t="s">
+      <c r="G18" s="120" t="s">
         <v>280</v>
       </c>
-      <c r="H18" s="147" t="s">
+      <c r="H18" s="136" t="s">
         <v>301</v>
       </c>
-      <c r="I18" s="141">
+      <c r="I18" s="130">
         <v>45</v>
       </c>
-      <c r="J18" s="148" t="s">
+      <c r="J18" s="137" t="s">
         <v>302</v>
       </c>
-      <c r="K18" s="149" t="s">
+      <c r="K18" s="138" t="s">
         <v>313</v>
       </c>
-      <c r="L18" s="142">
+      <c r="L18" s="131">
         <v>61</v>
       </c>
-      <c r="M18" s="150" t="s">
+      <c r="M18" s="139" t="s">
         <v>314</v>
       </c>
-      <c r="N18" s="147" t="s">
+      <c r="N18" s="136" t="s">
         <v>335</v>
       </c>
-      <c r="O18" s="141">
+      <c r="O18" s="130">
         <v>77</v>
       </c>
-      <c r="P18" s="148" t="s">
+      <c r="P18" s="137" t="s">
         <v>336</v>
       </c>
-      <c r="Q18" s="153" t="s">
+      <c r="Q18" s="142" t="s">
         <v>357</v>
       </c>
-      <c r="R18" s="144">
+      <c r="R18" s="133">
         <v>93</v>
       </c>
-      <c r="S18" s="154" t="s">
+      <c r="S18" s="143" t="s">
         <v>358</v>
       </c>
-      <c r="T18" s="147" t="s">
+      <c r="T18" s="136" t="s">
         <v>379</v>
       </c>
-      <c r="U18" s="141">
+      <c r="U18" s="130">
         <v>109</v>
       </c>
-      <c r="V18" s="148" t="s">
+      <c r="V18" s="137" t="s">
         <v>380</v>
       </c>
-      <c r="W18" s="153" t="s">
+      <c r="W18" s="142" t="s">
         <v>401</v>
       </c>
-      <c r="X18" s="144">
+      <c r="X18" s="133">
         <v>125</v>
       </c>
-      <c r="Y18" s="154" t="s">
+      <c r="Y18" s="143" t="s">
         <v>402</v>
       </c>
     </row>
     <row r="19" spans="2:25" ht="15" thickBot="1">
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="119" t="s">
         <v>259</v>
       </c>
-      <c r="C19" s="123">
+      <c r="C19" s="112">
         <v>14</v>
       </c>
-      <c r="D19" s="131" t="s">
+      <c r="D19" s="120" t="s">
         <v>260</v>
       </c>
-      <c r="E19" s="132" t="s">
+      <c r="E19" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="F19" s="124">
+      <c r="F19" s="113">
         <v>30</v>
       </c>
-      <c r="G19" s="133" t="s">
+      <c r="G19" s="122" t="s">
         <v>282</v>
       </c>
-      <c r="H19" s="149" t="s">
+      <c r="H19" s="138" t="s">
         <v>303</v>
       </c>
-      <c r="I19" s="142">
+      <c r="I19" s="131">
         <v>46</v>
       </c>
-      <c r="J19" s="150" t="s">
+      <c r="J19" s="139" t="s">
         <v>304</v>
       </c>
-      <c r="K19" s="147" t="s">
+      <c r="K19" s="136" t="s">
         <v>315</v>
       </c>
-      <c r="L19" s="141">
+      <c r="L19" s="130">
         <v>62</v>
       </c>
-      <c r="M19" s="148" t="s">
+      <c r="M19" s="137" t="s">
         <v>316</v>
       </c>
-      <c r="N19" s="149" t="s">
+      <c r="N19" s="138" t="s">
         <v>337</v>
       </c>
-      <c r="O19" s="142">
+      <c r="O19" s="131">
         <v>78</v>
       </c>
-      <c r="P19" s="150" t="s">
+      <c r="P19" s="139" t="s">
         <v>338</v>
       </c>
-      <c r="Q19" s="151" t="s">
+      <c r="Q19" s="140" t="s">
         <v>359</v>
       </c>
-      <c r="R19" s="143">
+      <c r="R19" s="132">
         <v>94</v>
       </c>
-      <c r="S19" s="152" t="s">
+      <c r="S19" s="141" t="s">
         <v>360</v>
       </c>
-      <c r="T19" s="149" t="s">
+      <c r="T19" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="U19" s="142">
+      <c r="U19" s="131">
         <v>110</v>
       </c>
-      <c r="V19" s="150" t="s">
+      <c r="V19" s="139" t="s">
         <v>382</v>
       </c>
-      <c r="W19" s="161" t="s">
+      <c r="W19" s="150" t="s">
         <v>403</v>
       </c>
-      <c r="X19" s="143">
+      <c r="X19" s="132">
         <v>126</v>
       </c>
-      <c r="Y19" s="152" t="s">
+      <c r="Y19" s="141" t="s">
         <v>404</v>
       </c>
     </row>
     <row r="20" spans="2:25" ht="15" thickBot="1">
-      <c r="B20" s="134" t="s">
+      <c r="B20" s="123" t="s">
         <v>261</v>
       </c>
-      <c r="C20" s="135">
+      <c r="C20" s="124">
         <v>15</v>
       </c>
-      <c r="D20" s="136" t="s">
+      <c r="D20" s="125" t="s">
         <v>262</v>
       </c>
-      <c r="E20" s="137" t="s">
+      <c r="E20" s="126" t="s">
         <v>283</v>
       </c>
-      <c r="F20" s="138">
+      <c r="F20" s="127">
         <v>31</v>
       </c>
-      <c r="G20" s="139" t="s">
+      <c r="G20" s="128" t="s">
         <v>284</v>
       </c>
-      <c r="H20" s="155" t="s">
+      <c r="H20" s="144" t="s">
         <v>305</v>
       </c>
-      <c r="I20" s="156">
+      <c r="I20" s="145">
         <v>47</v>
       </c>
-      <c r="J20" s="157" t="s">
+      <c r="J20" s="146" t="s">
         <v>306</v>
       </c>
-      <c r="K20" s="158" t="s">
+      <c r="K20" s="147" t="s">
         <v>317</v>
       </c>
-      <c r="L20" s="159">
+      <c r="L20" s="148">
         <v>63</v>
       </c>
-      <c r="M20" s="160" t="s">
+      <c r="M20" s="149" t="s">
         <v>318</v>
       </c>
-      <c r="N20" s="155" t="s">
+      <c r="N20" s="144" t="s">
         <v>339</v>
       </c>
-      <c r="O20" s="156">
+      <c r="O20" s="145">
         <v>79</v>
       </c>
-      <c r="P20" s="157" t="s">
+      <c r="P20" s="146" t="s">
         <v>340</v>
       </c>
-      <c r="Q20" s="158" t="s">
+      <c r="Q20" s="147" t="s">
         <v>361</v>
       </c>
-      <c r="R20" s="159">
+      <c r="R20" s="148">
         <v>95</v>
       </c>
-      <c r="S20" s="160" t="s">
+      <c r="S20" s="149" t="s">
         <v>362</v>
       </c>
-      <c r="T20" s="155" t="s">
+      <c r="T20" s="144" t="s">
         <v>383</v>
       </c>
-      <c r="U20" s="156">
+      <c r="U20" s="145">
         <v>111</v>
       </c>
-      <c r="V20" s="157" t="s">
+      <c r="V20" s="146" t="s">
         <v>384</v>
       </c>
-      <c r="W20" s="162" t="s">
+      <c r="W20" s="151" t="s">
         <v>405</v>
       </c>
-      <c r="X20" s="163">
+      <c r="X20" s="152">
         <v>127</v>
       </c>
-      <c r="Y20" s="164" t="s">
+      <c r="Y20" s="153" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="21" spans="2:25" ht="14.25">
-      <c r="B21" s="165" t="s">
+      <c r="B21" s="154" t="s">
         <v>407</v>
       </c>
     </row>

--- a/doc/mos6502-ppu.xlsx
+++ b/doc/mos6502-ppu.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motooka\Documents\001-proj\999.my-proj\001.nes-fpga\repo\motonesfpga\doc\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="16110" windowHeight="11655" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="moto nes ppu design" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="883" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="453">
   <si>
     <t>ppu register handling</t>
     <phoneticPr fontId="1"/>
@@ -1507,27 +1512,33 @@
   <si>
     <t>18C</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>s-oam</t>
+  </si>
+  <si>
+    <t>v-ram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="24" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
   <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1586,7 +1597,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -2644,7 +2655,7 @@
     <xf numFmtId="0" fontId="7" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="8" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2812,7 +2823,7 @@
     <xf numFmtId="0" fontId="7" fillId="63" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="24" fontId="8" fillId="10" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="10" borderId="25" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2959,22 +2970,22 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2989,7 +3000,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3001,12 +3012,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -6442,7 +6453,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6484,7 +6495,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6516,9 +6527,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -6550,6 +6562,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6725,14 +6738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="AO6:AO11"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
   <sheetData>
     <row r="6" spans="41:41">
       <c r="AO6" t="s">
@@ -6762,16 +6775,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C58"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="59.25" customWidth="1"/>
-    <col min="2" max="2" width="42.625" customWidth="1"/>
-    <col min="3" max="3" width="64.25" customWidth="1"/>
+    <col min="1" max="1" width="59.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="64.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1">
@@ -6779,7 +6792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" thickTop="1" thickBot="1">
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -6787,12 +6800,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.25" thickBot="1">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -6803,7 +6816,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
@@ -6814,7 +6827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1">
+    <row r="7" spans="1:3" ht="15.75" thickBot="1">
       <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
@@ -6825,25 +6838,25 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.25">
-      <c r="A8" s="155" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="156" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="156" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1">
-      <c r="A9" s="156"/>
-      <c r="B9" s="156"/>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A9" s="157"/>
+      <c r="B9" s="157"/>
       <c r="C9" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -6854,7 +6867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1">
+    <row r="11" spans="1:3" ht="29.25" thickBot="1">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -6865,7 +6878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1">
+    <row r="12" spans="1:3" ht="15.75" thickBot="1">
       <c r="A12" s="4" t="s">
         <v>25</v>
       </c>
@@ -6876,25 +6889,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="14.25">
-      <c r="A13" s="155" t="s">
+    <row r="13" spans="1:3">
+      <c r="A13" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="155" t="s">
+      <c r="B13" s="156" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15" thickBot="1">
-      <c r="A14" s="156"/>
-      <c r="B14" s="156"/>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A14" s="157"/>
+      <c r="B14" s="157"/>
       <c r="C14" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15" thickBot="1">
+    <row r="15" spans="1:3" ht="15.75" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
@@ -6902,12 +6915,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="14.25" thickBot="1">
+    <row r="16" spans="1:3" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" thickBot="1">
+    <row r="17" spans="1:3" ht="15.75" thickBot="1">
       <c r="A17" s="4" t="s">
         <v>7</v>
       </c>
@@ -6918,7 +6931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1">
+    <row r="18" spans="1:3" ht="15.75" thickBot="1">
       <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
@@ -6929,7 +6942,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" thickBot="1">
+    <row r="19" spans="1:3" ht="15.75" thickBot="1">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -6940,7 +6953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" thickBot="1">
+    <row r="20" spans="1:3" ht="15.75" thickBot="1">
       <c r="A20" s="4" t="s">
         <v>16</v>
       </c>
@@ -6951,7 +6964,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" thickBot="1">
+    <row r="21" spans="1:3" ht="15.75" thickBot="1">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
@@ -6962,7 +6975,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" thickBot="1">
+    <row r="22" spans="1:3" ht="15.75" thickBot="1">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -6973,7 +6986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" thickBot="1">
+    <row r="23" spans="1:3" ht="29.25" thickBot="1">
       <c r="A23" s="4" t="s">
         <v>25</v>
       </c>
@@ -6984,7 +6997,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" thickBot="1">
+    <row r="24" spans="1:3" ht="15.75" thickBot="1">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -6995,7 +7008,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" thickBot="1">
+    <row r="25" spans="1:3" ht="15.75" thickBot="1">
       <c r="A25" s="4" t="s">
         <v>43</v>
       </c>
@@ -7006,17 +7019,17 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" thickBot="1">
+    <row r="26" spans="1:3" ht="15.75" thickBot="1">
       <c r="A26" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="14.25" thickBot="1">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1">
       <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" thickBot="1">
+    <row r="28" spans="1:3" ht="15.75" thickBot="1">
       <c r="A28" s="4" t="s">
         <v>7</v>
       </c>
@@ -7027,25 +7040,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="14.25">
-      <c r="A29" s="155" t="s">
+    <row r="29" spans="1:3">
+      <c r="A29" s="156" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="155" t="s">
+      <c r="B29" s="156" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" thickBot="1">
-      <c r="A30" s="156"/>
-      <c r="B30" s="156"/>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A30" s="157"/>
+      <c r="B30" s="157"/>
       <c r="C30" s="6" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" thickBot="1">
+    <row r="31" spans="1:3" ht="29.25" thickBot="1">
       <c r="A31" s="4" t="s">
         <v>13</v>
       </c>
@@ -7056,7 +7069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" thickBot="1">
+    <row r="32" spans="1:3" ht="29.25" thickBot="1">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
@@ -7067,25 +7080,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.25">
-      <c r="A33" s="155" t="s">
+    <row r="33" spans="1:3">
+      <c r="A33" s="156" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="155" t="s">
+      <c r="B33" s="156" t="s">
         <v>55</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" thickBot="1">
-      <c r="A34" s="156"/>
-      <c r="B34" s="156"/>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A34" s="157"/>
+      <c r="B34" s="157"/>
       <c r="C34" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" thickBot="1">
+    <row r="35" spans="1:3" ht="15.75" thickBot="1">
       <c r="A35" s="4" t="s">
         <v>58</v>
       </c>
@@ -7094,17 +7107,17 @@
       </c>
       <c r="C35" s="4"/>
     </row>
-    <row r="36" spans="1:3" ht="15" thickBot="1">
+    <row r="36" spans="1:3" ht="15.75" thickBot="1">
       <c r="A36" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.25" thickBot="1">
+    <row r="37" spans="1:3" ht="15.75" thickBot="1">
       <c r="A37" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" thickBot="1">
+    <row r="38" spans="1:3" ht="15.75" thickBot="1">
       <c r="A38" s="4" t="s">
         <v>7</v>
       </c>
@@ -7115,7 +7128,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" thickBot="1">
+    <row r="39" spans="1:3" ht="15.75" thickBot="1">
       <c r="A39" s="4" t="s">
         <v>62</v>
       </c>
@@ -7126,17 +7139,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" thickBot="1">
+    <row r="40" spans="1:3" ht="15.75" thickBot="1">
       <c r="A40" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="14.25" thickBot="1">
+    <row r="41" spans="1:3" ht="15.75" thickBot="1">
       <c r="A41" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" thickBot="1">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1">
       <c r="A42" s="4" t="s">
         <v>7</v>
       </c>
@@ -7147,7 +7160,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" thickBot="1">
+    <row r="43" spans="1:3" ht="15.75" thickBot="1">
       <c r="A43" s="4" t="s">
         <v>62</v>
       </c>
@@ -7158,17 +7171,17 @@
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" thickBot="1">
+    <row r="44" spans="1:3" ht="15.75" thickBot="1">
       <c r="A44" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="26.25" thickBot="1">
+    <row r="45" spans="1:3" ht="39" thickBot="1">
       <c r="A45" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" thickBot="1">
+    <row r="46" spans="1:3" ht="15.75" thickBot="1">
       <c r="A46" s="4" t="s">
         <v>7</v>
       </c>
@@ -7179,35 +7192,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="14.25">
-      <c r="A47" s="155" t="s">
+    <row r="47" spans="1:3">
+      <c r="A47" s="156" t="s">
         <v>62</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="155" t="s">
+      <c r="C47" s="156" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" thickBot="1">
-      <c r="A48" s="156"/>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A48" s="157"/>
       <c r="B48" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C48" s="156"/>
-    </row>
-    <row r="49" spans="1:3" ht="15" thickBot="1">
+      <c r="C48" s="157"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1">
       <c r="A49" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="26.25" thickBot="1">
+    <row r="50" spans="1:3" ht="39" thickBot="1">
       <c r="A50" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" thickBot="1">
+    <row r="51" spans="1:3" ht="15.75" thickBot="1">
       <c r="A51" s="4" t="s">
         <v>7</v>
       </c>
@@ -7218,35 +7231,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="14.25">
-      <c r="A52" s="155" t="s">
+    <row r="52" spans="1:3">
+      <c r="A52" s="156" t="s">
         <v>62</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="155" t="s">
+      <c r="C52" s="156" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" thickBot="1">
-      <c r="A53" s="156"/>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A53" s="157"/>
       <c r="B53" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="156"/>
-    </row>
-    <row r="54" spans="1:3" ht="15" thickBot="1">
+      <c r="C53" s="157"/>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1">
       <c r="A54" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14.25" thickBot="1">
+    <row r="55" spans="1:3" ht="26.25" thickBot="1">
       <c r="A55" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="15" thickBot="1">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1">
       <c r="A56" s="4" t="s">
         <v>7</v>
       </c>
@@ -7257,32 +7270,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14.25">
-      <c r="A57" s="155" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="156" t="s">
         <v>62</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C57" s="155" t="s">
+      <c r="C57" s="156" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="15" thickBot="1">
-      <c r="A58" s="156"/>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1">
+      <c r="A58" s="157"/>
       <c r="B58" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="156"/>
+      <c r="C58" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="A33:A34"/>
@@ -7291,6 +7298,12 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="A52:A53"/>
     <mergeCell ref="C52:C53"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7299,28 +7312,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:BX117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="3.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="4" width="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="26" width="4" bestFit="1" customWidth="1"/>
     <col min="33" max="38" width="4" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.25" customWidth="1"/>
+    <col min="45" max="45" width="5.28515625" customWidth="1"/>
     <col min="46" max="47" width="4" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="5.375" customWidth="1"/>
+    <col min="61" max="61" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="4:48">
@@ -7328,7 +7341,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="4:48" ht="14.25" thickBot="1">
+    <row r="4" spans="4:48" ht="15.75" thickBot="1">
       <c r="Z4">
         <v>800</v>
       </c>
@@ -7425,7 +7438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="4:48" ht="14.25" thickBot="1">
+    <row r="8" spans="4:48" ht="15.75" thickBot="1">
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -7801,7 +7814,7 @@
       <c r="AU16" s="12"/>
       <c r="AV16" s="20"/>
     </row>
-    <row r="17" spans="3:48" ht="14.25" thickBot="1">
+    <row r="17" spans="3:48" ht="15.75" thickBot="1">
       <c r="D17" s="11"/>
       <c r="E17" s="12"/>
       <c r="F17" s="12"/>
@@ -8014,7 +8027,7 @@
       <c r="AU21" s="22"/>
       <c r="AV21" s="23"/>
     </row>
-    <row r="22" spans="3:48" ht="14.25" thickBot="1">
+    <row r="22" spans="3:48" ht="15.75" thickBot="1">
       <c r="D22" s="14"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
@@ -8271,7 +8284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="38" spans="3:49" ht="14.25" thickBot="1"/>
+    <row r="38" spans="3:49" ht="15.75" thickBot="1"/>
     <row r="39" spans="3:49">
       <c r="E39" s="24">
         <v>2000</v>
@@ -8616,7 +8629,7 @@
       <c r="AV46" s="12"/>
       <c r="AW46" s="13"/>
     </row>
-    <row r="47" spans="3:49" ht="14.25" thickBot="1">
+    <row r="47" spans="3:49" ht="15.75" thickBot="1">
       <c r="E47" s="14"/>
       <c r="F47" s="15"/>
       <c r="G47" s="15"/>
@@ -8998,7 +9011,7 @@
       <c r="AV55" s="12"/>
       <c r="AW55" s="13"/>
     </row>
-    <row r="56" spans="5:49" ht="14.25" thickBot="1">
+    <row r="56" spans="5:49" ht="15.75" thickBot="1">
       <c r="E56" s="14"/>
       <c r="F56" s="15"/>
       <c r="G56" s="15"/>
@@ -9045,7 +9058,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="5:49" ht="14.25" thickBot="1"/>
+    <row r="60" spans="5:49" ht="15.75" thickBot="1"/>
     <row r="61" spans="5:49">
       <c r="AD61" s="8"/>
       <c r="AE61" s="9"/>
@@ -9224,7 +9237,7 @@
       <c r="AV68" s="12"/>
       <c r="AW68" s="13"/>
     </row>
-    <row r="69" spans="30:49" ht="14.25" thickBot="1">
+    <row r="69" spans="30:49" ht="15.75" thickBot="1">
       <c r="AD69" s="14"/>
       <c r="AE69" s="15"/>
       <c r="AF69" s="15"/>
@@ -9422,7 +9435,7 @@
       <c r="AV77" s="12"/>
       <c r="AW77" s="13"/>
     </row>
-    <row r="78" spans="30:49" ht="14.25" thickBot="1">
+    <row r="78" spans="30:49" ht="15.75" thickBot="1">
       <c r="AD78" s="14"/>
       <c r="AE78" s="15"/>
       <c r="AF78" s="15"/>
@@ -9460,7 +9473,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="6:76" ht="14.25" thickBot="1">
+    <row r="83" spans="6:76" ht="15.75" thickBot="1">
       <c r="O83">
         <v>128</v>
       </c>
@@ -10562,7 +10575,7 @@
       <c r="BW99" s="12"/>
       <c r="BX99" s="13"/>
     </row>
-    <row r="100" spans="7:76" ht="14.25" thickBot="1">
+    <row r="100" spans="7:76" ht="15.75" thickBot="1">
       <c r="G100" s="14"/>
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
@@ -11716,7 +11729,7 @@
       <c r="BW116" s="12"/>
       <c r="BX116" s="13"/>
     </row>
-    <row r="117" spans="7:76" ht="14.25" thickBot="1">
+    <row r="117" spans="7:76" ht="15.75" thickBot="1">
       <c r="G117" s="14"/>
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
@@ -11790,41 +11803,41 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:CF125"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33:L33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL50" sqref="AL50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="3.875" customWidth="1"/>
-    <col min="5" max="5" width="4.75" customWidth="1"/>
-    <col min="9" max="9" width="4.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="4.125" customWidth="1"/>
-    <col min="36" max="36" width="4.25" customWidth="1"/>
-    <col min="38" max="38" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="2.625" customWidth="1"/>
-    <col min="48" max="48" width="4.875" customWidth="1"/>
-    <col min="49" max="49" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="4.125" customWidth="1"/>
-    <col min="52" max="53" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="58" max="59" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="2.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.85546875" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="4.140625" customWidth="1"/>
+    <col min="36" max="36" width="4.28515625" customWidth="1"/>
+    <col min="38" max="38" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="2.5703125" customWidth="1"/>
+    <col min="48" max="48" width="4.85546875" customWidth="1"/>
+    <col min="49" max="49" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="4.140625" customWidth="1"/>
+    <col min="52" max="53" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="59" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="4" customWidth="1"/>
-    <col min="69" max="69" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="79" width="2.875" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="3.125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="78" max="79" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="3.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -11832,7 +11845,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="10:84" s="27" customFormat="1" ht="42">
+    <row r="32" spans="10:84" s="27" customFormat="1" ht="46.5">
       <c r="J32" s="27">
         <v>0</v>
       </c>
@@ -12046,62 +12059,62 @@
         <v>0</v>
       </c>
       <c r="J33" s="39"/>
-      <c r="K33" s="157" t="s">
+      <c r="K33" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="L33" s="157"/>
-      <c r="M33" s="157" t="s">
+      <c r="L33" s="160"/>
+      <c r="M33" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157" t="s">
+      <c r="N33" s="160"/>
+      <c r="O33" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157" t="s">
+      <c r="P33" s="160"/>
+      <c r="Q33" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="R33" s="157"/>
-      <c r="S33" s="157" t="s">
+      <c r="R33" s="160"/>
+      <c r="S33" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="T33" s="157"/>
-      <c r="U33" s="157" t="s">
+      <c r="T33" s="160"/>
+      <c r="U33" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="V33" s="157"/>
-      <c r="W33" s="157" t="s">
+      <c r="V33" s="160"/>
+      <c r="W33" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="X33" s="157"/>
-      <c r="Y33" s="157" t="s">
+      <c r="X33" s="160"/>
+      <c r="Y33" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="Z33" s="157"/>
-      <c r="AA33" s="157" t="s">
+      <c r="Z33" s="160"/>
+      <c r="AA33" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AB33" s="157"/>
+      <c r="AB33" s="160"/>
       <c r="AD33" s="35"/>
       <c r="AE33" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG33" s="157" t="s">
+      <c r="AG33" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AH33" s="157"/>
-      <c r="AI33" s="157" t="s">
+      <c r="AH33" s="160"/>
+      <c r="AI33" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AJ33" s="157"/>
-      <c r="AK33" s="157" t="s">
+      <c r="AJ33" s="160"/>
+      <c r="AK33" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AL33" s="157"/>
-      <c r="AM33" s="157" t="s">
+      <c r="AL33" s="160"/>
+      <c r="AM33" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="AN33" s="157"/>
+      <c r="AN33" s="160"/>
       <c r="AO33" s="34"/>
       <c r="AP33" s="34"/>
       <c r="AQ33" s="34"/>
@@ -12124,104 +12137,104 @@
       <c r="BL33" s="34"/>
       <c r="BM33" s="34"/>
       <c r="BN33" s="34"/>
-      <c r="BO33" s="159" t="s">
+      <c r="BO33" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BP33" s="160"/>
-      <c r="BQ33" s="159" t="s">
+      <c r="BP33" s="159"/>
+      <c r="BQ33" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BR33" s="160"/>
-      <c r="BS33" s="159" t="s">
+      <c r="BR33" s="159"/>
+      <c r="BS33" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BT33" s="160"/>
-      <c r="BU33" s="159" t="s">
+      <c r="BT33" s="159"/>
+      <c r="BU33" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BV33" s="160"/>
-      <c r="BW33" s="159" t="s">
+      <c r="BV33" s="159"/>
+      <c r="BW33" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BX33" s="160"/>
-      <c r="BY33" s="159" t="s">
+      <c r="BX33" s="159"/>
+      <c r="BY33" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BZ33" s="160"/>
-      <c r="CA33" s="159" t="s">
+      <c r="BZ33" s="159"/>
+      <c r="CA33" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="CB33" s="160"/>
-      <c r="CC33" s="159" t="s">
+      <c r="CB33" s="159"/>
+      <c r="CC33" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="CD33" s="160"/>
-      <c r="CE33" s="159" t="s">
+      <c r="CD33" s="159"/>
+      <c r="CE33" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="CF33" s="160"/>
+      <c r="CF33" s="159"/>
     </row>
     <row r="34" spans="6:84">
       <c r="I34">
         <v>1</v>
       </c>
       <c r="J34" s="34"/>
-      <c r="K34" s="157" t="s">
+      <c r="K34" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="L34" s="157"/>
-      <c r="M34" s="157" t="s">
+      <c r="L34" s="160"/>
+      <c r="M34" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="N34" s="157"/>
-      <c r="O34" s="157" t="s">
+      <c r="N34" s="160"/>
+      <c r="O34" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="P34" s="157"/>
-      <c r="Q34" s="157" t="s">
+      <c r="P34" s="160"/>
+      <c r="Q34" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="R34" s="157"/>
-      <c r="S34" s="157" t="s">
+      <c r="R34" s="160"/>
+      <c r="S34" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="T34" s="157"/>
-      <c r="U34" s="157" t="s">
+      <c r="T34" s="160"/>
+      <c r="U34" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="V34" s="157"/>
-      <c r="W34" s="157" t="s">
+      <c r="V34" s="160"/>
+      <c r="W34" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="X34" s="157"/>
-      <c r="Y34" s="157" t="s">
+      <c r="X34" s="160"/>
+      <c r="Y34" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="Z34" s="157"/>
-      <c r="AA34" s="157" t="s">
+      <c r="Z34" s="160"/>
+      <c r="AA34" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AB34" s="157"/>
+      <c r="AB34" s="160"/>
       <c r="AD34" s="35"/>
       <c r="AE34" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG34" s="157" t="s">
+      <c r="AG34" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AH34" s="157"/>
-      <c r="AI34" s="157" t="s">
+      <c r="AH34" s="160"/>
+      <c r="AI34" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AJ34" s="157"/>
-      <c r="AK34" s="157" t="s">
+      <c r="AJ34" s="160"/>
+      <c r="AK34" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AL34" s="157"/>
-      <c r="AM34" s="157" t="s">
+      <c r="AL34" s="160"/>
+      <c r="AM34" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="AN34" s="157"/>
+      <c r="AN34" s="160"/>
       <c r="AO34" s="34"/>
       <c r="AP34" s="34"/>
       <c r="AQ34" s="34"/>
@@ -12244,42 +12257,42 @@
       <c r="BL34" s="34"/>
       <c r="BM34" s="34"/>
       <c r="BN34" s="34"/>
-      <c r="BO34" s="159" t="s">
+      <c r="BO34" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BP34" s="160"/>
-      <c r="BQ34" s="159" t="s">
+      <c r="BP34" s="159"/>
+      <c r="BQ34" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BR34" s="160"/>
-      <c r="BS34" s="159" t="s">
+      <c r="BR34" s="159"/>
+      <c r="BS34" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BT34" s="160"/>
-      <c r="BU34" s="159" t="s">
+      <c r="BT34" s="159"/>
+      <c r="BU34" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BV34" s="160"/>
-      <c r="BW34" s="159" t="s">
+      <c r="BV34" s="159"/>
+      <c r="BW34" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BX34" s="160"/>
-      <c r="BY34" s="159" t="s">
+      <c r="BX34" s="159"/>
+      <c r="BY34" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BZ34" s="160"/>
-      <c r="CA34" s="159" t="s">
+      <c r="BZ34" s="159"/>
+      <c r="CA34" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="CB34" s="160"/>
-      <c r="CC34" s="159" t="s">
+      <c r="CB34" s="159"/>
+      <c r="CC34" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="CD34" s="160"/>
-      <c r="CE34" s="159" t="s">
+      <c r="CD34" s="159"/>
+      <c r="CE34" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="CF34" s="160"/>
+      <c r="CF34" s="159"/>
     </row>
     <row r="35" spans="6:84">
       <c r="CB35" s="27"/>
@@ -12293,62 +12306,62 @@
         <v>239</v>
       </c>
       <c r="J36" s="36"/>
-      <c r="K36" s="158" t="s">
+      <c r="K36" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="L36" s="158"/>
-      <c r="M36" s="158" t="s">
+      <c r="L36" s="165"/>
+      <c r="M36" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="N36" s="158"/>
-      <c r="O36" s="158" t="s">
+      <c r="N36" s="165"/>
+      <c r="O36" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="P36" s="158"/>
-      <c r="Q36" s="158" t="s">
+      <c r="P36" s="165"/>
+      <c r="Q36" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="R36" s="158"/>
-      <c r="S36" s="158" t="s">
+      <c r="R36" s="165"/>
+      <c r="S36" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="T36" s="158"/>
-      <c r="U36" s="158" t="s">
+      <c r="T36" s="165"/>
+      <c r="U36" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="V36" s="158"/>
-      <c r="W36" s="158" t="s">
+      <c r="V36" s="165"/>
+      <c r="W36" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="X36" s="158"/>
-      <c r="Y36" s="158" t="s">
+      <c r="X36" s="165"/>
+      <c r="Y36" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="Z36" s="158"/>
-      <c r="AA36" s="158" t="s">
+      <c r="Z36" s="165"/>
+      <c r="AA36" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="AB36" s="158"/>
+      <c r="AB36" s="165"/>
       <c r="AD36" s="37"/>
       <c r="AE36" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AG36" s="158" t="s">
+      <c r="AG36" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="AH36" s="158"/>
-      <c r="AI36" s="158" t="s">
+      <c r="AH36" s="165"/>
+      <c r="AI36" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="AJ36" s="158"/>
-      <c r="AK36" s="158" t="s">
+      <c r="AJ36" s="165"/>
+      <c r="AK36" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="AL36" s="158"/>
-      <c r="AM36" s="158" t="s">
+      <c r="AL36" s="165"/>
+      <c r="AM36" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="AN36" s="158"/>
+      <c r="AN36" s="165"/>
       <c r="AO36" s="36"/>
       <c r="AP36" s="36"/>
       <c r="AQ36" s="36"/>
@@ -12371,42 +12384,42 @@
       <c r="BL36" s="34"/>
       <c r="BM36" s="34"/>
       <c r="BN36" s="34"/>
-      <c r="BO36" s="159" t="s">
+      <c r="BO36" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BP36" s="160"/>
-      <c r="BQ36" s="159" t="s">
+      <c r="BP36" s="159"/>
+      <c r="BQ36" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BR36" s="160"/>
-      <c r="BS36" s="159" t="s">
+      <c r="BR36" s="159"/>
+      <c r="BS36" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BT36" s="160"/>
-      <c r="BU36" s="159" t="s">
+      <c r="BT36" s="159"/>
+      <c r="BU36" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BV36" s="160"/>
-      <c r="BW36" s="159" t="s">
+      <c r="BV36" s="159"/>
+      <c r="BW36" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BX36" s="160"/>
-      <c r="BY36" s="159" t="s">
+      <c r="BX36" s="159"/>
+      <c r="BY36" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BZ36" s="160"/>
-      <c r="CA36" s="159" t="s">
+      <c r="BZ36" s="159"/>
+      <c r="CA36" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="CB36" s="160"/>
-      <c r="CC36" s="159" t="s">
+      <c r="CB36" s="159"/>
+      <c r="CC36" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="CD36" s="160"/>
-      <c r="CE36" s="159" t="s">
+      <c r="CD36" s="159"/>
+      <c r="CE36" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="CF36" s="160"/>
+      <c r="CF36" s="159"/>
     </row>
     <row r="37" spans="6:84">
       <c r="I37">
@@ -12742,58 +12755,58 @@
       <c r="J42" s="38"/>
       <c r="K42" s="39"/>
       <c r="L42" s="40"/>
-      <c r="M42" s="157" t="s">
+      <c r="M42" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="N42" s="157"/>
-      <c r="O42" s="157" t="s">
+      <c r="N42" s="160"/>
+      <c r="O42" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="P42" s="157"/>
-      <c r="Q42" s="157" t="s">
+      <c r="P42" s="160"/>
+      <c r="Q42" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="R42" s="157"/>
-      <c r="S42" s="157" t="s">
+      <c r="R42" s="160"/>
+      <c r="S42" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="T42" s="157"/>
-      <c r="U42" s="157" t="s">
+      <c r="T42" s="160"/>
+      <c r="U42" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="V42" s="157"/>
-      <c r="W42" s="157" t="s">
+      <c r="V42" s="160"/>
+      <c r="W42" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="X42" s="157"/>
-      <c r="Y42" s="157" t="s">
+      <c r="X42" s="160"/>
+      <c r="Y42" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="Z42" s="157"/>
-      <c r="AA42" s="157" t="s">
+      <c r="Z42" s="160"/>
+      <c r="AA42" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AB42" s="157"/>
+      <c r="AB42" s="160"/>
       <c r="AD42" s="35"/>
       <c r="AE42" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AG42" s="157" t="s">
+      <c r="AG42" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AH42" s="157"/>
-      <c r="AI42" s="157" t="s">
+      <c r="AH42" s="160"/>
+      <c r="AI42" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AJ42" s="157"/>
-      <c r="AK42" s="157" t="s">
+      <c r="AJ42" s="160"/>
+      <c r="AK42" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AL42" s="157"/>
-      <c r="AM42" s="157" t="s">
+      <c r="AL42" s="160"/>
+      <c r="AM42" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="AN42" s="157"/>
+      <c r="AN42" s="160"/>
       <c r="AO42" s="34"/>
       <c r="AP42" s="34"/>
       <c r="AQ42" s="34"/>
@@ -12816,42 +12829,42 @@
       <c r="BL42" s="34"/>
       <c r="BM42" s="34"/>
       <c r="BN42" s="34"/>
-      <c r="BO42" s="159" t="s">
+      <c r="BO42" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BP42" s="160"/>
-      <c r="BQ42" s="159" t="s">
+      <c r="BP42" s="159"/>
+      <c r="BQ42" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BR42" s="160"/>
-      <c r="BS42" s="159" t="s">
+      <c r="BR42" s="159"/>
+      <c r="BS42" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BT42" s="160"/>
-      <c r="BU42" s="159" t="s">
+      <c r="BT42" s="159"/>
+      <c r="BU42" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BV42" s="160"/>
-      <c r="BW42" s="159" t="s">
+      <c r="BV42" s="159"/>
+      <c r="BW42" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BX42" s="160"/>
-      <c r="BY42" s="159" t="s">
+      <c r="BX42" s="159"/>
+      <c r="BY42" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BZ42" s="160"/>
-      <c r="CA42" s="159" t="s">
+      <c r="BZ42" s="159"/>
+      <c r="CA42" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="CB42" s="160"/>
-      <c r="CC42" s="159" t="s">
+      <c r="CB42" s="159"/>
+      <c r="CC42" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="CD42" s="160"/>
-      <c r="CE42" s="159" t="s">
+      <c r="CD42" s="159"/>
+      <c r="CE42" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="CF42" s="160"/>
+      <c r="CF42" s="159"/>
     </row>
     <row r="43" spans="6:84">
       <c r="CB43" s="27"/>
@@ -12918,22 +12931,22 @@
       <c r="AL46" s="164"/>
       <c r="AM46" s="164"/>
       <c r="AN46" s="164"/>
-      <c r="AO46" s="157" t="s">
+      <c r="AO46" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AP46" s="157"/>
-      <c r="AQ46" s="157" t="s">
+      <c r="AP46" s="160"/>
+      <c r="AQ46" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AR46" s="157"/>
-      <c r="AS46" s="157" t="s">
+      <c r="AR46" s="160"/>
+      <c r="AS46" s="160" t="s">
         <v>117</v>
       </c>
-      <c r="AT46" s="157"/>
-      <c r="AU46" s="157" t="s">
+      <c r="AT46" s="160"/>
+      <c r="AU46" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="AV46" s="157"/>
+      <c r="AV46" s="160"/>
       <c r="AW46" s="161" t="s">
         <v>119</v>
       </c>
@@ -12945,10 +12958,10 @@
       <c r="BC46" s="162"/>
       <c r="BD46" s="162"/>
       <c r="BE46" s="163"/>
-      <c r="BF46" s="157" t="s">
+      <c r="BF46" s="160" t="s">
         <v>118</v>
       </c>
-      <c r="BG46" s="157"/>
+      <c r="BG46" s="160"/>
       <c r="BI46" s="38"/>
       <c r="BJ46" s="38"/>
       <c r="BK46" s="38"/>
@@ -12975,17 +12988,8 @@
       <c r="CF46" s="27"/>
     </row>
     <row r="47" spans="6:84">
-      <c r="AO47" t="s">
-        <v>162</v>
-      </c>
-      <c r="AP47" t="s">
-        <v>164</v>
-      </c>
-      <c r="AQ47" t="s">
-        <v>163</v>
-      </c>
-      <c r="AR47" t="s">
-        <v>161</v>
+      <c r="AL47" t="s">
+        <v>452</v>
       </c>
       <c r="AS47" t="s">
         <v>165</v>
@@ -12994,7 +12998,24 @@
         <v>166</v>
       </c>
     </row>
-    <row r="52" spans="5:71" ht="14.25" thickBot="1">
+    <row r="48" spans="6:84">
+      <c r="AL48" t="s">
+        <v>451</v>
+      </c>
+      <c r="AO48" t="s">
+        <v>162</v>
+      </c>
+      <c r="AQ48" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>163</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="5:71" ht="15.75" thickBot="1">
       <c r="E52" t="s">
         <v>108</v>
       </c>
@@ -13736,7 +13757,7 @@
       <c r="BP63" s="12"/>
       <c r="BQ63" s="20"/>
     </row>
-    <row r="64" spans="5:71" ht="14.25" thickBot="1">
+    <row r="64" spans="5:71" ht="15.75" thickBot="1">
       <c r="F64" s="11"/>
       <c r="G64" s="12"/>
       <c r="H64" s="12"/>
@@ -14403,7 +14424,7 @@
       <c r="AU76" s="12"/>
       <c r="AV76" s="20"/>
     </row>
-    <row r="77" spans="5:69" ht="14.25" thickBot="1">
+    <row r="77" spans="5:69" ht="15.75" thickBot="1">
       <c r="E77">
         <v>480</v>
       </c>
@@ -14918,7 +14939,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="90" spans="4:48" ht="14.25" thickBot="1">
+    <row r="90" spans="4:48" ht="15.75" thickBot="1">
       <c r="E90" t="s">
         <v>109</v>
       </c>
@@ -16021,7 +16042,7 @@
       <c r="AU114" s="12"/>
       <c r="AV114" s="20"/>
     </row>
-    <row r="115" spans="4:48" ht="14.25" thickBot="1">
+    <row r="115" spans="4:48" ht="15.75" thickBot="1">
       <c r="D115">
         <v>240</v>
       </c>
@@ -16530,20 +16551,71 @@
     </row>
   </sheetData>
   <mergeCells count="95">
-    <mergeCell ref="BQ42:BR42"/>
-    <mergeCell ref="BS42:BT42"/>
-    <mergeCell ref="BU42:BV42"/>
-    <mergeCell ref="BW42:BX42"/>
-    <mergeCell ref="CE33:CF33"/>
-    <mergeCell ref="CE34:CF34"/>
-    <mergeCell ref="CE36:CF36"/>
-    <mergeCell ref="CE42:CF42"/>
-    <mergeCell ref="BY42:BZ42"/>
-    <mergeCell ref="CA42:CB42"/>
-    <mergeCell ref="CC42:CD42"/>
-    <mergeCell ref="CA36:CB36"/>
-    <mergeCell ref="CC36:CD36"/>
-    <mergeCell ref="BY36:BZ36"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="O33:P33"/>
+    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="U34:V34"/>
+    <mergeCell ref="W34:X34"/>
+    <mergeCell ref="Y34:Z34"/>
+    <mergeCell ref="AM33:AN33"/>
+    <mergeCell ref="W33:X33"/>
+    <mergeCell ref="Y33:Z33"/>
+    <mergeCell ref="AA33:AB33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AK33:AL33"/>
+    <mergeCell ref="U33:V33"/>
+    <mergeCell ref="AA34:AB34"/>
+    <mergeCell ref="AG34:AH34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AK34:AL34"/>
+    <mergeCell ref="AM34:AN34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="O34:P34"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S34:T34"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="O36:P36"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="W36:X36"/>
+    <mergeCell ref="Y36:Z36"/>
+    <mergeCell ref="AA36:AB36"/>
+    <mergeCell ref="AG36:AH36"/>
+    <mergeCell ref="W42:X42"/>
+    <mergeCell ref="Y42:Z42"/>
+    <mergeCell ref="BW36:BX36"/>
+    <mergeCell ref="AK36:AL36"/>
+    <mergeCell ref="AM36:AN36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AA42:AB42"/>
+    <mergeCell ref="AG42:AH42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AK42:AL42"/>
+    <mergeCell ref="AM42:AN42"/>
+    <mergeCell ref="BO36:BP36"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BS36:BT36"/>
+    <mergeCell ref="BU36:BV36"/>
+    <mergeCell ref="BO42:BP42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="O42:P42"/>
+    <mergeCell ref="Q42:R42"/>
+    <mergeCell ref="S42:T42"/>
+    <mergeCell ref="U42:V42"/>
+    <mergeCell ref="AS46:AT46"/>
+    <mergeCell ref="AU46:AV46"/>
+    <mergeCell ref="BF46:BG46"/>
+    <mergeCell ref="AW46:BE46"/>
+    <mergeCell ref="K46:AD46"/>
+    <mergeCell ref="AE46:AN46"/>
+    <mergeCell ref="AO46:AP46"/>
+    <mergeCell ref="AQ46:AR46"/>
     <mergeCell ref="BO33:BP33"/>
     <mergeCell ref="BO34:BP34"/>
     <mergeCell ref="CA33:CB33"/>
@@ -16560,71 +16632,20 @@
     <mergeCell ref="BY34:BZ34"/>
     <mergeCell ref="CA34:CB34"/>
     <mergeCell ref="CC34:CD34"/>
-    <mergeCell ref="AS46:AT46"/>
-    <mergeCell ref="AU46:AV46"/>
-    <mergeCell ref="BF46:BG46"/>
-    <mergeCell ref="AW46:BE46"/>
-    <mergeCell ref="K46:AD46"/>
-    <mergeCell ref="AE46:AN46"/>
-    <mergeCell ref="AO46:AP46"/>
-    <mergeCell ref="AQ46:AR46"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="O42:P42"/>
-    <mergeCell ref="Q42:R42"/>
-    <mergeCell ref="S42:T42"/>
-    <mergeCell ref="U42:V42"/>
-    <mergeCell ref="W42:X42"/>
-    <mergeCell ref="Y42:Z42"/>
-    <mergeCell ref="BW36:BX36"/>
-    <mergeCell ref="AK36:AL36"/>
-    <mergeCell ref="AM36:AN36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AA42:AB42"/>
-    <mergeCell ref="AG42:AH42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AK42:AL42"/>
-    <mergeCell ref="AM42:AN42"/>
-    <mergeCell ref="BO36:BP36"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BS36:BT36"/>
-    <mergeCell ref="BU36:BV36"/>
-    <mergeCell ref="BO42:BP42"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="W36:X36"/>
-    <mergeCell ref="Y36:Z36"/>
-    <mergeCell ref="AA36:AB36"/>
-    <mergeCell ref="AG36:AH36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="O36:P36"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="S36:T36"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="O34:P34"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S34:T34"/>
-    <mergeCell ref="U34:V34"/>
-    <mergeCell ref="W34:X34"/>
-    <mergeCell ref="Y34:Z34"/>
-    <mergeCell ref="AM33:AN33"/>
-    <mergeCell ref="W33:X33"/>
-    <mergeCell ref="Y33:Z33"/>
-    <mergeCell ref="AA33:AB33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AK33:AL33"/>
-    <mergeCell ref="U33:V33"/>
-    <mergeCell ref="AA34:AB34"/>
-    <mergeCell ref="AG34:AH34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AK34:AL34"/>
-    <mergeCell ref="AM34:AN34"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="O33:P33"/>
-    <mergeCell ref="Q33:R33"/>
-    <mergeCell ref="S33:T33"/>
+    <mergeCell ref="BQ42:BR42"/>
+    <mergeCell ref="BS42:BT42"/>
+    <mergeCell ref="BU42:BV42"/>
+    <mergeCell ref="BW42:BX42"/>
+    <mergeCell ref="CE33:CF33"/>
+    <mergeCell ref="CE34:CF34"/>
+    <mergeCell ref="CE36:CF36"/>
+    <mergeCell ref="CE42:CF42"/>
+    <mergeCell ref="BY42:BZ42"/>
+    <mergeCell ref="CA42:CB42"/>
+    <mergeCell ref="CC42:CD42"/>
+    <mergeCell ref="CA36:CB36"/>
+    <mergeCell ref="CC36:CD36"/>
+    <mergeCell ref="BY36:BZ36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16634,18 +16655,18 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:EC67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="AD56" sqref="AD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.5703125" defaultRowHeight="15"/>
   <cols>
-    <col min="17" max="17" width="2.625" customWidth="1"/>
-    <col min="33" max="33" width="2.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="3.625" customWidth="1"/>
+    <col min="17" max="17" width="2.5703125" customWidth="1"/>
+    <col min="33" max="33" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="3.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="9:49">
@@ -17355,27 +17376,27 @@
       </c>
     </row>
     <row r="38" spans="1:133">
-      <c r="C38" s="169">
+      <c r="C38" s="155">
         <v>2</v>
       </c>
-      <c r="D38" s="169" t="s">
+      <c r="D38" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169" t="s">
+      <c r="E38" s="155"/>
+      <c r="F38" s="155" t="s">
         <v>138</v>
       </c>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169">
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155">
         <v>2</v>
       </c>
-      <c r="K38" s="169" t="s">
+      <c r="K38" s="155" t="s">
         <v>430</v>
       </c>
-      <c r="L38" s="169"/>
-      <c r="M38" s="169" t="s">
+      <c r="L38" s="155"/>
+      <c r="M38" s="155" t="s">
         <v>431</v>
       </c>
     </row>
@@ -17512,7 +17533,7 @@
       <c r="AY45" s="167"/>
       <c r="AZ45" s="168"/>
     </row>
-    <row r="46" spans="1:133" ht="42">
+    <row r="46" spans="1:133" ht="46.5">
       <c r="A46" t="s">
         <v>422</v>
       </c>
@@ -17905,262 +17926,262 @@
       </c>
     </row>
     <row r="47" spans="1:133">
-      <c r="F47" s="157" t="s">
+      <c r="F47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157" t="s">
+      <c r="G47" s="160"/>
+      <c r="H47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157" t="s">
+      <c r="I47" s="160"/>
+      <c r="J47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="K47" s="157"/>
-      <c r="L47" s="157" t="s">
+      <c r="K47" s="160"/>
+      <c r="L47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="M47" s="157"/>
-      <c r="N47" s="157" t="s">
+      <c r="M47" s="160"/>
+      <c r="N47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="O47" s="157"/>
-      <c r="P47" s="157" t="s">
+      <c r="O47" s="160"/>
+      <c r="P47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="Q47" s="157"/>
-      <c r="R47" s="157" t="s">
+      <c r="Q47" s="160"/>
+      <c r="R47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="S47" s="157"/>
-      <c r="T47" s="157" t="s">
+      <c r="S47" s="160"/>
+      <c r="T47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="U47" s="157"/>
-      <c r="V47" s="157" t="s">
+      <c r="U47" s="160"/>
+      <c r="V47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="W47" s="157"/>
-      <c r="X47" s="157" t="s">
+      <c r="W47" s="160"/>
+      <c r="X47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="Y47" s="157"/>
-      <c r="Z47" s="157" t="s">
+      <c r="Y47" s="160"/>
+      <c r="Z47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AA47" s="157"/>
-      <c r="AB47" s="157" t="s">
+      <c r="AA47" s="160"/>
+      <c r="AB47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="AC47" s="157"/>
-      <c r="AD47" s="157" t="s">
+      <c r="AC47" s="160"/>
+      <c r="AD47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AE47" s="157"/>
-      <c r="AF47" s="157" t="s">
+      <c r="AE47" s="160"/>
+      <c r="AF47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AG47" s="157"/>
-      <c r="AH47" s="157" t="s">
+      <c r="AG47" s="160"/>
+      <c r="AH47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AI47" s="157"/>
-      <c r="AJ47" s="157" t="s">
+      <c r="AI47" s="160"/>
+      <c r="AJ47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="AK47" s="157"/>
-      <c r="AL47" s="157" t="s">
+      <c r="AK47" s="160"/>
+      <c r="AL47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AM47" s="157"/>
-      <c r="AN47" s="157" t="s">
+      <c r="AM47" s="160"/>
+      <c r="AN47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AO47" s="157"/>
-      <c r="AP47" s="157" t="s">
+      <c r="AO47" s="160"/>
+      <c r="AP47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AQ47" s="157"/>
-      <c r="AR47" s="157" t="s">
+      <c r="AQ47" s="160"/>
+      <c r="AR47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="AS47" s="157"/>
-      <c r="AT47" s="157" t="s">
+      <c r="AS47" s="160"/>
+      <c r="AT47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AU47" s="157"/>
-      <c r="AV47" s="157" t="s">
+      <c r="AU47" s="160"/>
+      <c r="AV47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AW47" s="157"/>
-      <c r="AX47" s="157" t="s">
+      <c r="AW47" s="160"/>
+      <c r="AX47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AY47" s="157"/>
-      <c r="AZ47" s="157" t="s">
+      <c r="AY47" s="160"/>
+      <c r="AZ47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="BA47" s="157"/>
-      <c r="BB47" s="157" t="s">
+      <c r="BA47" s="160"/>
+      <c r="BB47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="BC47" s="157"/>
-      <c r="BD47" s="157" t="s">
+      <c r="BC47" s="160"/>
+      <c r="BD47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="BE47" s="157"/>
-      <c r="BF47" s="157" t="s">
+      <c r="BE47" s="160"/>
+      <c r="BF47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="BG47" s="157"/>
-      <c r="BH47" s="157" t="s">
+      <c r="BG47" s="160"/>
+      <c r="BH47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="BI47" s="157"/>
-      <c r="BJ47" s="157" t="s">
+      <c r="BI47" s="160"/>
+      <c r="BJ47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="BK47" s="157"/>
-      <c r="BL47" s="157" t="s">
+      <c r="BK47" s="160"/>
+      <c r="BL47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="BM47" s="157"/>
-      <c r="BN47" s="157" t="s">
+      <c r="BM47" s="160"/>
+      <c r="BN47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="BO47" s="157"/>
-      <c r="BP47" s="157" t="s">
+      <c r="BO47" s="160"/>
+      <c r="BP47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="BQ47" s="157"/>
-      <c r="BR47" s="157" t="s">
+      <c r="BQ47" s="160"/>
+      <c r="BR47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="BS47" s="157"/>
-      <c r="BT47" s="157" t="s">
+      <c r="BS47" s="160"/>
+      <c r="BT47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="BU47" s="157"/>
-      <c r="BV47" s="157" t="s">
+      <c r="BU47" s="160"/>
+      <c r="BV47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="BW47" s="157"/>
-      <c r="BX47" s="157" t="s">
+      <c r="BW47" s="160"/>
+      <c r="BX47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="BY47" s="157"/>
-      <c r="BZ47" s="157" t="s">
+      <c r="BY47" s="160"/>
+      <c r="BZ47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="CA47" s="157"/>
-      <c r="CB47" s="157" t="s">
+      <c r="CA47" s="160"/>
+      <c r="CB47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="CC47" s="157"/>
-      <c r="CD47" s="157" t="s">
+      <c r="CC47" s="160"/>
+      <c r="CD47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="CE47" s="157"/>
-      <c r="CF47" s="157" t="s">
+      <c r="CE47" s="160"/>
+      <c r="CF47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="CG47" s="157"/>
-      <c r="CH47" s="157" t="s">
+      <c r="CG47" s="160"/>
+      <c r="CH47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="CI47" s="157"/>
-      <c r="CJ47" s="157" t="s">
+      <c r="CI47" s="160"/>
+      <c r="CJ47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="CK47" s="157"/>
-      <c r="CL47" s="157" t="s">
+      <c r="CK47" s="160"/>
+      <c r="CL47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="CM47" s="157"/>
-      <c r="CN47" s="157" t="s">
+      <c r="CM47" s="160"/>
+      <c r="CN47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="CO47" s="157"/>
-      <c r="CP47" s="157" t="s">
+      <c r="CO47" s="160"/>
+      <c r="CP47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="CQ47" s="157"/>
-      <c r="CR47" s="157" t="s">
+      <c r="CQ47" s="160"/>
+      <c r="CR47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="CS47" s="157"/>
-      <c r="CT47" s="157" t="s">
+      <c r="CS47" s="160"/>
+      <c r="CT47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="CU47" s="157"/>
-      <c r="CV47" s="157" t="s">
+      <c r="CU47" s="160"/>
+      <c r="CV47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="CW47" s="157"/>
-      <c r="CX47" s="157" t="s">
+      <c r="CW47" s="160"/>
+      <c r="CX47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="CY47" s="157"/>
-      <c r="CZ47" s="157" t="s">
+      <c r="CY47" s="160"/>
+      <c r="CZ47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="DA47" s="157"/>
-      <c r="DB47" s="157" t="s">
+      <c r="DA47" s="160"/>
+      <c r="DB47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="DC47" s="157"/>
-      <c r="DD47" s="157" t="s">
+      <c r="DC47" s="160"/>
+      <c r="DD47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="DE47" s="157"/>
-      <c r="DF47" s="157" t="s">
+      <c r="DE47" s="160"/>
+      <c r="DF47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="DG47" s="157"/>
-      <c r="DH47" s="157" t="s">
+      <c r="DG47" s="160"/>
+      <c r="DH47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="DI47" s="157"/>
-      <c r="DJ47" s="157" t="s">
+      <c r="DI47" s="160"/>
+      <c r="DJ47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="DK47" s="157"/>
-      <c r="DL47" s="157" t="s">
+      <c r="DK47" s="160"/>
+      <c r="DL47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="DM47" s="157"/>
-      <c r="DN47" s="157" t="s">
+      <c r="DM47" s="160"/>
+      <c r="DN47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="DO47" s="157"/>
-      <c r="DP47" s="157" t="s">
+      <c r="DO47" s="160"/>
+      <c r="DP47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="DQ47" s="157"/>
-      <c r="DR47" s="157" t="s">
+      <c r="DQ47" s="160"/>
+      <c r="DR47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="DS47" s="157"/>
-      <c r="DT47" s="157" t="s">
+      <c r="DS47" s="160"/>
+      <c r="DT47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="DU47" s="157"/>
-      <c r="DV47" s="157" t="s">
+      <c r="DU47" s="160"/>
+      <c r="DV47" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="DW47" s="157"/>
-      <c r="DX47" s="157" t="s">
+      <c r="DW47" s="160"/>
+      <c r="DX47" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="DY47" s="157"/>
-      <c r="DZ47" s="157" t="s">
+      <c r="DY47" s="160"/>
+      <c r="DZ47" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="EA47" s="157"/>
-      <c r="EB47" s="157" t="s">
+      <c r="EA47" s="160"/>
+      <c r="EB47" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="EC47" s="157"/>
+      <c r="EC47" s="160"/>
     </row>
     <row r="49" spans="11:36">
       <c r="K49" t="s">
@@ -18300,6 +18321,57 @@
     </row>
   </sheetData>
   <mergeCells count="67">
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="AN47:AO47"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="AF47:AG47"/>
+    <mergeCell ref="AH47:AI47"/>
+    <mergeCell ref="AJ47:AK47"/>
+    <mergeCell ref="AL47:AM47"/>
+    <mergeCell ref="BL47:BM47"/>
+    <mergeCell ref="AP47:AQ47"/>
+    <mergeCell ref="AR47:AS47"/>
+    <mergeCell ref="AT47:AU47"/>
+    <mergeCell ref="AV47:AW47"/>
+    <mergeCell ref="AX47:AY47"/>
+    <mergeCell ref="AZ47:BA47"/>
+    <mergeCell ref="BB47:BC47"/>
+    <mergeCell ref="BD47:BE47"/>
+    <mergeCell ref="BF47:BG47"/>
+    <mergeCell ref="BH47:BI47"/>
+    <mergeCell ref="BJ47:BK47"/>
+    <mergeCell ref="CJ47:CK47"/>
+    <mergeCell ref="BN47:BO47"/>
+    <mergeCell ref="BP47:BQ47"/>
+    <mergeCell ref="BR47:BS47"/>
+    <mergeCell ref="BT47:BU47"/>
+    <mergeCell ref="BV47:BW47"/>
+    <mergeCell ref="BX47:BY47"/>
+    <mergeCell ref="BZ47:CA47"/>
+    <mergeCell ref="CB47:CC47"/>
+    <mergeCell ref="CD47:CE47"/>
+    <mergeCell ref="CF47:CG47"/>
+    <mergeCell ref="CH47:CI47"/>
+    <mergeCell ref="DD47:DE47"/>
+    <mergeCell ref="DF47:DG47"/>
+    <mergeCell ref="DH47:DI47"/>
+    <mergeCell ref="CL47:CM47"/>
+    <mergeCell ref="CN47:CO47"/>
+    <mergeCell ref="CP47:CQ47"/>
+    <mergeCell ref="CR47:CS47"/>
+    <mergeCell ref="CT47:CU47"/>
+    <mergeCell ref="CV47:CW47"/>
     <mergeCell ref="DV47:DW47"/>
     <mergeCell ref="DX47:DY47"/>
     <mergeCell ref="DZ47:EA47"/>
@@ -18316,57 +18388,6 @@
     <mergeCell ref="CX47:CY47"/>
     <mergeCell ref="CZ47:DA47"/>
     <mergeCell ref="DB47:DC47"/>
-    <mergeCell ref="DD47:DE47"/>
-    <mergeCell ref="DF47:DG47"/>
-    <mergeCell ref="DH47:DI47"/>
-    <mergeCell ref="CL47:CM47"/>
-    <mergeCell ref="CN47:CO47"/>
-    <mergeCell ref="CP47:CQ47"/>
-    <mergeCell ref="CR47:CS47"/>
-    <mergeCell ref="CT47:CU47"/>
-    <mergeCell ref="CV47:CW47"/>
-    <mergeCell ref="BZ47:CA47"/>
-    <mergeCell ref="CB47:CC47"/>
-    <mergeCell ref="CD47:CE47"/>
-    <mergeCell ref="CF47:CG47"/>
-    <mergeCell ref="CH47:CI47"/>
-    <mergeCell ref="CJ47:CK47"/>
-    <mergeCell ref="BN47:BO47"/>
-    <mergeCell ref="BP47:BQ47"/>
-    <mergeCell ref="BR47:BS47"/>
-    <mergeCell ref="BT47:BU47"/>
-    <mergeCell ref="BV47:BW47"/>
-    <mergeCell ref="BX47:BY47"/>
-    <mergeCell ref="BB47:BC47"/>
-    <mergeCell ref="BD47:BE47"/>
-    <mergeCell ref="BF47:BG47"/>
-    <mergeCell ref="BH47:BI47"/>
-    <mergeCell ref="BJ47:BK47"/>
-    <mergeCell ref="BL47:BM47"/>
-    <mergeCell ref="AP47:AQ47"/>
-    <mergeCell ref="AR47:AS47"/>
-    <mergeCell ref="AT47:AU47"/>
-    <mergeCell ref="AV47:AW47"/>
-    <mergeCell ref="AX47:AY47"/>
-    <mergeCell ref="AZ47:BA47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="AF47:AG47"/>
-    <mergeCell ref="AH47:AI47"/>
-    <mergeCell ref="AJ47:AK47"/>
-    <mergeCell ref="AL47:AM47"/>
-    <mergeCell ref="AN47:AO47"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="P47:Q47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18376,19 +18397,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:CB37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AK37" sqref="AK37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:80" s="27" customFormat="1" ht="42">
+    <row r="2" spans="2:80" s="27" customFormat="1" ht="46.5">
       <c r="F2" s="27">
         <v>0</v>
       </c>
@@ -18602,62 +18623,62 @@
         <v>0</v>
       </c>
       <c r="F3" s="39"/>
-      <c r="G3" s="157" t="s">
+      <c r="G3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="157"/>
-      <c r="I3" s="157" t="s">
+      <c r="H3" s="160"/>
+      <c r="I3" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="J3" s="157"/>
-      <c r="K3" s="157" t="s">
+      <c r="J3" s="160"/>
+      <c r="K3" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="L3" s="157"/>
-      <c r="M3" s="157" t="s">
+      <c r="L3" s="160"/>
+      <c r="M3" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="157"/>
-      <c r="O3" s="157" t="s">
+      <c r="N3" s="160"/>
+      <c r="O3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="P3" s="157"/>
-      <c r="Q3" s="157" t="s">
+      <c r="P3" s="160"/>
+      <c r="Q3" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="R3" s="157"/>
-      <c r="S3" s="157" t="s">
+      <c r="R3" s="160"/>
+      <c r="S3" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="T3" s="157"/>
-      <c r="U3" s="157" t="s">
+      <c r="T3" s="160"/>
+      <c r="U3" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="V3" s="157"/>
-      <c r="W3" s="157" t="s">
+      <c r="V3" s="160"/>
+      <c r="W3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="X3" s="157"/>
+      <c r="X3" s="160"/>
       <c r="Z3" s="35"/>
       <c r="AA3" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC3" s="157" t="s">
+      <c r="AC3" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="157" t="s">
+      <c r="AD3" s="160"/>
+      <c r="AE3" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AF3" s="157"/>
-      <c r="AG3" s="157" t="s">
+      <c r="AF3" s="160"/>
+      <c r="AG3" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AH3" s="157"/>
-      <c r="AI3" s="157" t="s">
+      <c r="AH3" s="160"/>
+      <c r="AI3" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="AJ3" s="157"/>
+      <c r="AJ3" s="160"/>
       <c r="AK3" s="34"/>
       <c r="AL3" s="34"/>
       <c r="AM3" s="34"/>
@@ -18680,104 +18701,104 @@
       <c r="BH3" s="34"/>
       <c r="BI3" s="34"/>
       <c r="BJ3" s="34"/>
-      <c r="BK3" s="159" t="s">
+      <c r="BK3" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BL3" s="160"/>
-      <c r="BM3" s="159" t="s">
+      <c r="BL3" s="159"/>
+      <c r="BM3" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BN3" s="160"/>
-      <c r="BO3" s="159" t="s">
+      <c r="BN3" s="159"/>
+      <c r="BO3" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BP3" s="160"/>
-      <c r="BQ3" s="159" t="s">
+      <c r="BP3" s="159"/>
+      <c r="BQ3" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BR3" s="160"/>
-      <c r="BS3" s="159" t="s">
+      <c r="BR3" s="159"/>
+      <c r="BS3" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BT3" s="160"/>
-      <c r="BU3" s="159" t="s">
+      <c r="BT3" s="159"/>
+      <c r="BU3" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BV3" s="160"/>
-      <c r="BW3" s="159" t="s">
+      <c r="BV3" s="159"/>
+      <c r="BW3" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BX3" s="160"/>
-      <c r="BY3" s="159" t="s">
+      <c r="BX3" s="159"/>
+      <c r="BY3" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BZ3" s="160"/>
-      <c r="CA3" s="159" t="s">
+      <c r="BZ3" s="159"/>
+      <c r="CA3" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="CB3" s="160"/>
+      <c r="CB3" s="159"/>
     </row>
     <row r="4" spans="2:80">
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4" s="34"/>
-      <c r="G4" s="157" t="s">
+      <c r="G4" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="157"/>
-      <c r="I4" s="157" t="s">
+      <c r="H4" s="160"/>
+      <c r="I4" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="J4" s="157"/>
-      <c r="K4" s="157" t="s">
+      <c r="J4" s="160"/>
+      <c r="K4" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="L4" s="157"/>
-      <c r="M4" s="157" t="s">
+      <c r="L4" s="160"/>
+      <c r="M4" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="157"/>
-      <c r="O4" s="157" t="s">
+      <c r="N4" s="160"/>
+      <c r="O4" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="P4" s="157"/>
-      <c r="Q4" s="157" t="s">
+      <c r="P4" s="160"/>
+      <c r="Q4" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="157"/>
-      <c r="S4" s="157" t="s">
+      <c r="R4" s="160"/>
+      <c r="S4" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="T4" s="157"/>
-      <c r="U4" s="157" t="s">
+      <c r="T4" s="160"/>
+      <c r="U4" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="157"/>
-      <c r="W4" s="157" t="s">
+      <c r="V4" s="160"/>
+      <c r="W4" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="X4" s="157"/>
+      <c r="X4" s="160"/>
       <c r="Z4" s="35"/>
       <c r="AA4" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" s="157" t="s">
+      <c r="AC4" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AD4" s="157"/>
-      <c r="AE4" s="157" t="s">
+      <c r="AD4" s="160"/>
+      <c r="AE4" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AF4" s="157"/>
-      <c r="AG4" s="157" t="s">
+      <c r="AF4" s="160"/>
+      <c r="AG4" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AH4" s="157"/>
-      <c r="AI4" s="157" t="s">
+      <c r="AH4" s="160"/>
+      <c r="AI4" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="AJ4" s="157"/>
+      <c r="AJ4" s="160"/>
       <c r="AK4" s="34"/>
       <c r="AL4" s="34"/>
       <c r="AM4" s="34"/>
@@ -18800,42 +18821,42 @@
       <c r="BH4" s="34"/>
       <c r="BI4" s="34"/>
       <c r="BJ4" s="34"/>
-      <c r="BK4" s="159" t="s">
+      <c r="BK4" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BL4" s="160"/>
-      <c r="BM4" s="159" t="s">
+      <c r="BL4" s="159"/>
+      <c r="BM4" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BN4" s="160"/>
-      <c r="BO4" s="159" t="s">
+      <c r="BN4" s="159"/>
+      <c r="BO4" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BP4" s="160"/>
-      <c r="BQ4" s="159" t="s">
+      <c r="BP4" s="159"/>
+      <c r="BQ4" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BR4" s="160"/>
-      <c r="BS4" s="159" t="s">
+      <c r="BR4" s="159"/>
+      <c r="BS4" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BT4" s="160"/>
-      <c r="BU4" s="159" t="s">
+      <c r="BT4" s="159"/>
+      <c r="BU4" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BV4" s="160"/>
-      <c r="BW4" s="159" t="s">
+      <c r="BV4" s="159"/>
+      <c r="BW4" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="160"/>
-      <c r="BY4" s="159" t="s">
+      <c r="BX4" s="159"/>
+      <c r="BY4" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BZ4" s="160"/>
-      <c r="CA4" s="159" t="s">
+      <c r="BZ4" s="159"/>
+      <c r="CA4" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="CB4" s="160"/>
+      <c r="CB4" s="159"/>
     </row>
     <row r="5" spans="2:80">
       <c r="BX5" s="27"/>
@@ -18849,62 +18870,62 @@
         <v>239</v>
       </c>
       <c r="F6" s="36"/>
-      <c r="G6" s="158" t="s">
+      <c r="G6" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="H6" s="158"/>
-      <c r="I6" s="158" t="s">
+      <c r="H6" s="165"/>
+      <c r="I6" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="J6" s="158"/>
-      <c r="K6" s="158" t="s">
+      <c r="J6" s="165"/>
+      <c r="K6" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="L6" s="158"/>
-      <c r="M6" s="158" t="s">
+      <c r="L6" s="165"/>
+      <c r="M6" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="N6" s="158"/>
-      <c r="O6" s="158" t="s">
+      <c r="N6" s="165"/>
+      <c r="O6" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="P6" s="158"/>
-      <c r="Q6" s="158" t="s">
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="R6" s="158"/>
-      <c r="S6" s="158" t="s">
+      <c r="R6" s="165"/>
+      <c r="S6" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="158"/>
-      <c r="U6" s="158" t="s">
+      <c r="T6" s="165"/>
+      <c r="U6" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="V6" s="158"/>
-      <c r="W6" s="158" t="s">
+      <c r="V6" s="165"/>
+      <c r="W6" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="X6" s="158"/>
+      <c r="X6" s="165"/>
       <c r="Z6" s="37"/>
       <c r="AA6" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="AC6" s="158" t="s">
+      <c r="AC6" s="165" t="s">
         <v>111</v>
       </c>
-      <c r="AD6" s="158"/>
-      <c r="AE6" s="158" t="s">
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="165" t="s">
         <v>112</v>
       </c>
-      <c r="AF6" s="158"/>
-      <c r="AG6" s="158" t="s">
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165" t="s">
         <v>113</v>
       </c>
-      <c r="AH6" s="158"/>
-      <c r="AI6" s="158" t="s">
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="165" t="s">
         <v>114</v>
       </c>
-      <c r="AJ6" s="158"/>
+      <c r="AJ6" s="165"/>
       <c r="AK6" s="36"/>
       <c r="AL6" s="36"/>
       <c r="AM6" s="36"/>
@@ -18927,42 +18948,42 @@
       <c r="BH6" s="34"/>
       <c r="BI6" s="34"/>
       <c r="BJ6" s="34"/>
-      <c r="BK6" s="159" t="s">
+      <c r="BK6" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BL6" s="160"/>
-      <c r="BM6" s="159" t="s">
+      <c r="BL6" s="159"/>
+      <c r="BM6" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BN6" s="160"/>
-      <c r="BO6" s="159" t="s">
+      <c r="BN6" s="159"/>
+      <c r="BO6" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BP6" s="160"/>
-      <c r="BQ6" s="159" t="s">
+      <c r="BP6" s="159"/>
+      <c r="BQ6" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BR6" s="160"/>
-      <c r="BS6" s="159" t="s">
+      <c r="BR6" s="159"/>
+      <c r="BS6" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="BT6" s="160"/>
-      <c r="BU6" s="159" t="s">
+      <c r="BT6" s="159"/>
+      <c r="BU6" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="BV6" s="160"/>
-      <c r="BW6" s="159" t="s">
+      <c r="BV6" s="159"/>
+      <c r="BW6" s="158" t="s">
         <v>113</v>
       </c>
-      <c r="BX6" s="160"/>
-      <c r="BY6" s="159" t="s">
+      <c r="BX6" s="159"/>
+      <c r="BY6" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="BZ6" s="160"/>
-      <c r="CA6" s="159" t="s">
+      <c r="BZ6" s="159"/>
+      <c r="CA6" s="158" t="s">
         <v>111</v>
       </c>
-      <c r="CB6" s="160"/>
+      <c r="CB6" s="159"/>
     </row>
     <row r="7" spans="2:80">
       <c r="E7">
@@ -19298,58 +19319,58 @@
       <c r="F12" s="38"/>
       <c r="G12" s="39"/>
       <c r="H12" s="40"/>
-      <c r="I12" s="157" t="s">
+      <c r="I12" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157" t="s">
+      <c r="J12" s="160"/>
+      <c r="K12" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="L12" s="157"/>
-      <c r="M12" s="157" t="s">
+      <c r="L12" s="160"/>
+      <c r="M12" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157" t="s">
+      <c r="N12" s="160"/>
+      <c r="O12" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157" t="s">
+      <c r="P12" s="160"/>
+      <c r="Q12" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="R12" s="157"/>
-      <c r="S12" s="157" t="s">
+      <c r="R12" s="160"/>
+      <c r="S12" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="T12" s="157"/>
-      <c r="U12" s="157" t="s">
+      <c r="T12" s="160"/>
+      <c r="U12" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="V12" s="157"/>
-      <c r="W12" s="157" t="s">
+      <c r="V12" s="160"/>
+      <c r="W12" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="X12" s="157"/>
+      <c r="X12" s="160"/>
       <c r="Z12" s="35"/>
       <c r="AA12" s="35" t="s">
         <v>111</v>
       </c>
-      <c r="AC12" s="157" t="s">
+      <c r="AC12" s="160" t="s">
         <v>111</v>
       </c>
-      <c r="AD12" s="157"/>
-      <c r="AE12" s="157" t="s">
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="160" t="s">
         <v>112</v>
       </c>
-      <c r="AF12" s="157"/>
-      <c r="AG12" s="157" t="s">
+      <c r="AF12" s="160"/>
+      <c r="AG12" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="AH12" s="157"/>
-      <c r="AI12" s="157" t="s">
+      <c r="AH12" s="160"/>
+      <c r="AI12" s="160" t="s">
         <v>114</v>
       </c>
-      <c r="AJ12" s="157"/>
+      <c r="AJ12" s="160"/>
       <c r="AK12" s="34"/>
       <c r="AL12" s="34"/>
       <c r="AM12" s="34"/>
@@ -19372,42 +19393,42 @@
       <c r="BH12" s="34"/>
 